--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94700</v>
+        <v>99435</v>
       </c>
       <c r="F2" t="n">
-        <v>4.022508090154257</v>
+        <v>2.66904457948234</v>
       </c>
       <c r="G2" t="n">
-        <v>5.237309728859485</v>
+        <v>2.544744714563599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.42</v>
+        <v>1.86</v>
       </c>
       <c r="I2" t="n">
-        <v>273.13</v>
+        <v>388.96</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>645458304</v>
+        <v>640704918</v>
       </c>
       <c r="E3" t="n">
-        <v>1252521683</v>
+        <v>1243306620</v>
       </c>
       <c r="F3" t="n">
-        <v>13491.18817648674</v>
+        <v>17189.92493167311</v>
       </c>
       <c r="G3" t="n">
-        <v>28594.60970901978</v>
+        <v>31184.49486293807</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>32462277</v>
+        <v>36640077</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>254197149</v>
+        <v>253579119</v>
       </c>
       <c r="E4" t="n">
-        <v>1594034589</v>
+        <v>1590159011</v>
       </c>
       <c r="F4" t="n">
-        <v>53143.44921741772</v>
+        <v>54625.92650795321</v>
       </c>
       <c r="G4" t="n">
-        <v>62249.26144155387</v>
+        <v>74361.61291856649</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>19736143</v>
+        <v>22844715</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149064238</v>
+        <v>148253321</v>
       </c>
       <c r="E5" t="n">
-        <v>165186471</v>
+        <v>164287848</v>
       </c>
       <c r="F5" t="n">
-        <v>180284.2842237515</v>
+        <v>164305.1374055683</v>
       </c>
       <c r="G5" t="n">
-        <v>339673.9925963699</v>
+        <v>221298.5028780518</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>45784601</v>
+        <v>49173491</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51082788</v>
+        <v>49356680</v>
       </c>
       <c r="E6" t="n">
-        <v>63903258</v>
+        <v>61743941</v>
       </c>
       <c r="F6" t="n">
-        <v>8116.548912991943</v>
+        <v>8984.260287943922</v>
       </c>
       <c r="G6" t="n">
-        <v>8949.963517832055</v>
+        <v>8902.819325087326</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="I6" t="n">
-        <v>579014</v>
+        <v>861453</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8745174</v>
+        <v>8667227</v>
       </c>
       <c r="E7" t="n">
-        <v>8965695</v>
+        <v>8885783</v>
       </c>
       <c r="F7" t="n">
-        <v>201.6394836896192</v>
+        <v>305.9223099274272</v>
       </c>
       <c r="G7" t="n">
-        <v>3393.038335524023</v>
+        <v>628.1979233612122</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>98705</v>
+        <v>99836</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69294436</v>
+        <v>68650431</v>
       </c>
       <c r="E8" t="n">
-        <v>138011066</v>
+        <v>136728425</v>
       </c>
       <c r="F8" t="n">
-        <v>27065.91723964006</v>
+        <v>24897.97356644636</v>
       </c>
       <c r="G8" t="n">
-        <v>28051.99255604388</v>
+        <v>20553.34588840215</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>813219</v>
+        <v>884520</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5002886</v>
+        <v>5032013</v>
       </c>
       <c r="E9" t="n">
-        <v>7993108</v>
+        <v>8039644</v>
       </c>
       <c r="F9" t="n">
-        <v>268.3648093044259</v>
+        <v>276.2022743238402</v>
       </c>
       <c r="G9" t="n">
-        <v>446.4164358904968</v>
+        <v>402.0688581966423</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>97330</v>
+        <v>97134</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14217895</v>
+        <v>13952965</v>
       </c>
       <c r="E10" t="n">
-        <v>41899218</v>
+        <v>41118487</v>
       </c>
       <c r="F10" t="n">
-        <v>2769.091107183715</v>
+        <v>3757.190359438743</v>
       </c>
       <c r="G10" t="n">
-        <v>4994.729393881908</v>
+        <v>2883.962443005511</v>
       </c>
       <c r="H10" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>953329</v>
+        <v>947443</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>125819483</v>
+        <v>124010686</v>
       </c>
       <c r="E11" t="n">
-        <v>493174703</v>
+        <v>486084759</v>
       </c>
       <c r="F11" t="n">
-        <v>55072.15753021489</v>
+        <v>58736.50104005478</v>
       </c>
       <c r="G11" t="n">
-        <v>45836.12584309061</v>
+        <v>43217.01138023432</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>25646434</v>
+        <v>27304096</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9734859</v>
+        <v>8799981</v>
       </c>
       <c r="E12" t="n">
-        <v>41845842</v>
+        <v>37827213</v>
       </c>
       <c r="F12" t="n">
-        <v>85.15278812041591</v>
+        <v>46.53379661458123</v>
       </c>
       <c r="G12" t="n">
-        <v>107.7403484778592</v>
+        <v>625.799253249241</v>
       </c>
       <c r="H12" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="I12" t="n">
-        <v>889280</v>
+        <v>952282</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1004589</v>
+        <v>1006524</v>
       </c>
       <c r="E13" t="n">
-        <v>12293456</v>
+        <v>12317144</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7737086135704</v>
+        <v>208.7552910062355</v>
       </c>
       <c r="G13" t="n">
-        <v>243.5284758307834</v>
+        <v>243.5069922260111</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>476.08</v>
+        <v>475.08</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>578953</v>
+        <v>576275</v>
       </c>
       <c r="E14" t="n">
-        <v>578953</v>
+        <v>576275</v>
       </c>
       <c r="F14" t="n">
-        <v>361.6936957910848</v>
+        <v>526.9036086880187</v>
       </c>
       <c r="G14" t="n">
-        <v>688.0682825936909</v>
+        <v>206.6562783774564</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>27765</v>
+        <v>27851</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>598269835</v>
+        <v>588119439</v>
       </c>
       <c r="E15" t="n">
-        <v>748346645</v>
+        <v>735650008</v>
       </c>
       <c r="F15" t="n">
-        <v>327926.4267804817</v>
+        <v>567088.0214785931</v>
       </c>
       <c r="G15" t="n">
-        <v>404211.7565266305</v>
+        <v>581919.1014763159</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>73684752</v>
+        <v>88141363</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3425921</v>
+        <v>3372642</v>
       </c>
       <c r="E16" t="n">
-        <v>9746441</v>
+        <v>9594867</v>
       </c>
       <c r="F16" t="n">
-        <v>310.4851886043803</v>
+        <v>186.7706390362557</v>
       </c>
       <c r="G16" t="n">
-        <v>26.81545204998741</v>
+        <v>504.8820359730278</v>
       </c>
       <c r="H16" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>111140</v>
+        <v>113396</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>321719</v>
+        <v>316875</v>
       </c>
       <c r="E17" t="n">
-        <v>3713017</v>
+        <v>3657118</v>
       </c>
       <c r="F17" t="n">
-        <v>5.338260534620309</v>
+        <v>5.337819448507387</v>
       </c>
       <c r="G17" t="n">
-        <v>3.445085212261222</v>
+        <v>3.444800554134272</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>2603.16</v>
+        <v>2644.27</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1361373</v>
+        <v>1385885</v>
       </c>
       <c r="E18" t="n">
-        <v>10442539</v>
+        <v>10630562</v>
       </c>
       <c r="F18" t="n">
-        <v>118.8117551589053</v>
+        <v>841.4659372817033</v>
       </c>
       <c r="G18" t="n">
-        <v>52.91765616587644</v>
+        <v>34.54148460122313</v>
       </c>
       <c r="H18" t="n">
-        <v>0.58</v>
+        <v>0.86</v>
       </c>
       <c r="I18" t="n">
-        <v>121875</v>
+        <v>122873</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23646130</v>
+        <v>24426377</v>
       </c>
       <c r="E19" t="n">
-        <v>23689985</v>
+        <v>24471430</v>
       </c>
       <c r="F19" t="n">
-        <v>1111.446194910006</v>
+        <v>1144.31184997698</v>
       </c>
       <c r="G19" t="n">
-        <v>1023.373926897278</v>
+        <v>787.9545247706989</v>
       </c>
       <c r="H19" t="n">
-        <v>0.55</v>
+        <v>0.96</v>
       </c>
       <c r="I19" t="n">
-        <v>816935</v>
+        <v>840622</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3901602</v>
+        <v>3917965</v>
       </c>
       <c r="E20" t="n">
-        <v>21648396</v>
+        <v>21739191</v>
       </c>
       <c r="F20" t="n">
-        <v>5.35783650827507</v>
+        <v>19.9701369150671</v>
       </c>
       <c r="G20" t="n">
-        <v>17.37990733287819</v>
+        <v>6.180949718147552</v>
       </c>
       <c r="H20" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="I20" t="n">
-        <v>1472.81</v>
+        <v>682.4</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7182859</v>
+        <v>7049681</v>
       </c>
       <c r="E21" t="n">
-        <v>13325718</v>
+        <v>13078645</v>
       </c>
       <c r="F21" t="n">
-        <v>4165.528067118878</v>
+        <v>322.3423610728282</v>
       </c>
       <c r="G21" t="n">
-        <v>3.998402829273457</v>
+        <v>110.8179595197328</v>
       </c>
       <c r="H21" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I21" t="n">
-        <v>53943</v>
+        <v>57643</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72474728</v>
+        <v>72191685</v>
       </c>
       <c r="E22" t="n">
-        <v>125484745</v>
+        <v>124991690</v>
       </c>
       <c r="F22" t="n">
-        <v>1687.974746190071</v>
+        <v>1742.329642862179</v>
       </c>
       <c r="G22" t="n">
-        <v>776.4978316223974</v>
+        <v>755.5941624484607</v>
       </c>
       <c r="H22" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I22" t="n">
-        <v>896879</v>
+        <v>929768</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>178010</v>
+        <v>180560</v>
       </c>
       <c r="E23" t="n">
-        <v>535368</v>
+        <v>543037</v>
       </c>
       <c r="F23" t="n">
-        <v>5.418450241060386</v>
+        <v>3.962330609112061</v>
       </c>
       <c r="G23" t="n">
-        <v>16.04267304229833</v>
+        <v>5.227045770152805</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>200.06</v>
+        <v>203.16</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82503955</v>
+        <v>81899076</v>
       </c>
       <c r="E24" t="n">
-        <v>242736869</v>
+        <v>240957239</v>
       </c>
       <c r="F24" t="n">
-        <v>402.6466898962115</v>
+        <v>198.1182214651502</v>
       </c>
       <c r="G24" t="n">
-        <v>419.2411032526396</v>
+        <v>575.1872820364464</v>
       </c>
       <c r="H24" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>411466</v>
+        <v>423787</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6834593</v>
+        <v>6940540</v>
       </c>
       <c r="F25" t="n">
-        <v>334.531979886776</v>
+        <v>363.3117514205251</v>
       </c>
       <c r="G25" t="n">
-        <v>4.210324024359615</v>
+        <v>4.08607001068016</v>
       </c>
       <c r="H25" t="n">
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>19674.38</v>
+        <v>19249.66</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2452273</v>
+        <v>2461715</v>
       </c>
       <c r="E26" t="n">
-        <v>2452273</v>
+        <v>2461715</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.289999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>313111</v>
+        <v>318730</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18269227</v>
+        <v>18075885</v>
       </c>
       <c r="E27" t="n">
-        <v>23513995</v>
+        <v>23265147</v>
       </c>
       <c r="F27" t="n">
-        <v>3135.356377720631</v>
+        <v>312.5645595788753</v>
       </c>
       <c r="G27" t="n">
-        <v>1966.376228384668</v>
+        <v>6481.266002218676</v>
       </c>
       <c r="H27" t="n">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="I27" t="n">
-        <v>1847741</v>
+        <v>2008143</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4720175</v>
+        <v>4702811</v>
       </c>
       <c r="E28" t="n">
-        <v>4720175</v>
+        <v>4702811</v>
       </c>
       <c r="F28" t="n">
-        <v>1704.407066340849</v>
+        <v>805.2102459021295</v>
       </c>
       <c r="G28" t="n">
-        <v>6582.807053808706</v>
+        <v>1870.928960523915</v>
       </c>
       <c r="H28" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="I28" t="n">
-        <v>2118250</v>
+        <v>2234423</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1731049</v>
+        <v>1737610</v>
       </c>
       <c r="F29" t="n">
-        <v>278.7853670321017</v>
+        <v>31.99830136309811</v>
       </c>
       <c r="G29" t="n">
-        <v>101.286727611</v>
+        <v>102.9487310269565</v>
       </c>
       <c r="H29" t="n">
-        <v>1.45</v>
+        <v>0.35</v>
       </c>
       <c r="I29" t="n">
-        <v>211056</v>
+        <v>160152</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3398049</v>
+        <v>3372453</v>
       </c>
       <c r="E30" t="n">
-        <v>3398049</v>
+        <v>3372453</v>
       </c>
       <c r="F30" t="n">
-        <v>638.4084206158892</v>
+        <v>385.1836738752124</v>
       </c>
       <c r="G30" t="n">
-        <v>648.6290164021715</v>
+        <v>688.7328828050522</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>517905</v>
+        <v>579481</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>324516</v>
+        <v>315309</v>
       </c>
       <c r="E31" t="n">
-        <v>1514873</v>
+        <v>1471896</v>
       </c>
       <c r="F31" t="n">
-        <v>367.7203198810253</v>
+        <v>19.39217884912015</v>
       </c>
       <c r="G31" t="n">
-        <v>92.21229579272845</v>
+        <v>107.0236046157023</v>
       </c>
       <c r="H31" t="n">
-        <v>2.6</v>
+        <v>1.34</v>
       </c>
       <c r="I31" t="n">
-        <v>705646</v>
+        <v>685489</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>409694</v>
+        <v>401732</v>
       </c>
       <c r="E32" t="n">
-        <v>409694</v>
+        <v>401732</v>
       </c>
       <c r="F32" t="n">
-        <v>122.4633972330783</v>
+        <v>121.7090184156431</v>
       </c>
       <c r="G32" t="n">
-        <v>5.365032117697099</v>
+        <v>4.017615229523902</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="I32" t="n">
-        <v>59992</v>
+        <v>59808</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1894196</v>
+        <v>1860116</v>
       </c>
       <c r="F33" t="n">
-        <v>4.116076389184952</v>
+        <v>3.901247098152751</v>
       </c>
       <c r="G33" t="n">
-        <v>3.89578651976014</v>
+        <v>23.33359515631589</v>
       </c>
       <c r="H33" t="n">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="I33" t="n">
-        <v>1397192</v>
+        <v>1423173</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2931510</v>
+        <v>2155190</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>142.8321669204102</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>21.55600587482577</v>
       </c>
       <c r="H34" t="n">
-        <v>4.19</v>
+        <v>0.79</v>
       </c>
       <c r="I34" t="n">
-        <v>1130373</v>
+        <v>1194848</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12343324</v>
+        <v>12074068</v>
       </c>
       <c r="E35" t="n">
-        <v>30720300</v>
+        <v>30050171</v>
       </c>
       <c r="F35" t="n">
-        <v>1690.016622996217</v>
+        <v>694.1963317572404</v>
       </c>
       <c r="G35" t="n">
-        <v>1278.602131008385</v>
+        <v>942.6193275227636</v>
       </c>
       <c r="H35" t="n">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="I35" t="n">
-        <v>1421666</v>
+        <v>1410490</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6939516</v>
+        <v>6761557</v>
       </c>
       <c r="E36" t="n">
-        <v>9557487</v>
+        <v>9312392</v>
       </c>
       <c r="F36" t="n">
-        <v>452.9877919162365</v>
+        <v>267.1191175031033</v>
       </c>
       <c r="G36" t="n">
-        <v>19.25257905557503</v>
+        <v>548.516997860972</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="I36" t="n">
-        <v>298703</v>
+        <v>250650</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>904675</v>
+        <v>911050</v>
       </c>
       <c r="E37" t="n">
-        <v>6332722</v>
+        <v>6377348</v>
       </c>
       <c r="F37" t="n">
-        <v>76.54164422674117</v>
+        <v>1488.617895732948</v>
       </c>
       <c r="G37" t="n">
-        <v>804.0689849525445</v>
+        <v>1491.717193582315</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>234707</v>
+        <v>140585</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>114425445</v>
+        <v>114551704</v>
       </c>
       <c r="E38" t="n">
-        <v>444945107</v>
+        <v>445410433</v>
       </c>
       <c r="F38" t="n">
-        <v>18507.06363521843</v>
+        <v>21014.81112297083</v>
       </c>
       <c r="G38" t="n">
-        <v>22696.62887718699</v>
+        <v>18374.23841778178</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I38" t="n">
-        <v>18867269</v>
+        <v>12800080</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5754953</v>
+        <v>5699832</v>
       </c>
       <c r="E39" t="n">
-        <v>6030270</v>
+        <v>5972512</v>
       </c>
       <c r="F39" t="n">
-        <v>1593.783905475641</v>
+        <v>2148.640929873271</v>
       </c>
       <c r="G39" t="n">
-        <v>138.9581899020445</v>
+        <v>92.27885950333275</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>156230</v>
+        <v>194667</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4960939</v>
+        <v>4892514</v>
       </c>
       <c r="E40" t="n">
-        <v>7302771</v>
+        <v>7202045</v>
       </c>
       <c r="F40" t="n">
-        <v>1915.883882624066</v>
+        <v>1820.669827536</v>
       </c>
       <c r="G40" t="n">
-        <v>2591.016618430467</v>
+        <v>2403.48611099737</v>
       </c>
       <c r="H40" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I40" t="n">
-        <v>570237</v>
+        <v>550570</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7539463</v>
+        <v>7504938</v>
       </c>
       <c r="E41" t="n">
-        <v>7539463</v>
+        <v>7504938</v>
       </c>
       <c r="F41" t="n">
-        <v>1885.199272397179</v>
+        <v>248.4556396662555</v>
       </c>
       <c r="G41" t="n">
-        <v>1845.090080860842</v>
+        <v>2280.267612975159</v>
       </c>
       <c r="H41" t="n">
-        <v>0.91</v>
+        <v>0.31</v>
       </c>
       <c r="I41" t="n">
-        <v>410854</v>
+        <v>429714</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1627536</v>
+        <v>1610052</v>
       </c>
       <c r="E42" t="n">
-        <v>1627536</v>
+        <v>1610073</v>
       </c>
       <c r="F42" t="n">
-        <v>42.33649996053363</v>
+        <v>34.97459159008341</v>
       </c>
       <c r="G42" t="n">
-        <v>69.98923193282945</v>
+        <v>22.93805617327287</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06</v>
+        <v>2.1</v>
       </c>
       <c r="I42" t="n">
-        <v>278929</v>
+        <v>279467</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15683577</v>
+        <v>15803672</v>
       </c>
       <c r="F43" t="n">
-        <v>489.3024384513914</v>
+        <v>435.6208151890561</v>
       </c>
       <c r="G43" t="n">
-        <v>254.6532570321677</v>
+        <v>251.9662737034154</v>
       </c>
       <c r="H43" t="n">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="I43" t="n">
-        <v>9284.35</v>
+        <v>9481.35</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>145057236</v>
+        <v>145697335</v>
       </c>
       <c r="E44" t="n">
-        <v>145057236</v>
+        <v>145697335</v>
       </c>
       <c r="F44" t="n">
-        <v>283775.6026386172</v>
+        <v>272771.6457148679</v>
       </c>
       <c r="G44" t="n">
-        <v>349008.2696427732</v>
+        <v>246271.6860647198</v>
       </c>
       <c r="H44" t="n">
         <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>78300862</v>
+        <v>86801332</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>68097228</v>
+        <v>67519461</v>
       </c>
       <c r="E45" t="n">
-        <v>349216553</v>
+        <v>346253646</v>
       </c>
       <c r="F45" t="n">
-        <v>30701.73159802189</v>
+        <v>34649.13880521692</v>
       </c>
       <c r="G45" t="n">
-        <v>67733.54098469627</v>
+        <v>51859.35872812366</v>
       </c>
       <c r="H45" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>25243492</v>
+        <v>26238245</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>597608</v>
+        <v>601663</v>
       </c>
       <c r="F46" t="n">
-        <v>61.14096411951115</v>
+        <v>60.31707355447306</v>
       </c>
       <c r="G46" t="n">
-        <v>468.0599691889954</v>
+        <v>467.577018288663</v>
       </c>
       <c r="H46" t="n">
         <v>0.77</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.34</v>
+        <v>1638.28</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2671217</v>
+        <v>2638757</v>
       </c>
       <c r="E47" t="n">
-        <v>10735014</v>
+        <v>10604565</v>
       </c>
       <c r="F47" t="n">
-        <v>216.0810837662091</v>
+        <v>378.4975417511559</v>
       </c>
       <c r="G47" t="n">
-        <v>1006.830248932287</v>
+        <v>374.1778494510164</v>
       </c>
       <c r="H47" t="n">
         <v>0.93</v>
       </c>
       <c r="I47" t="n">
-        <v>50160</v>
+        <v>49709</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18180146</v>
+        <v>18000201</v>
       </c>
       <c r="E48" t="n">
-        <v>127172158</v>
+        <v>125906628</v>
       </c>
       <c r="F48" t="n">
-        <v>835.2981687308883</v>
+        <v>789.6166248172935</v>
       </c>
       <c r="G48" t="n">
-        <v>852.7666589064006</v>
+        <v>1677.737862980935</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1013148</v>
+        <v>976554</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1021325</v>
+        <v>1020985</v>
       </c>
       <c r="E49" t="n">
-        <v>1198792</v>
+        <v>1198393</v>
       </c>
       <c r="F49" t="n">
-        <v>582.5073673903588</v>
+        <v>255.5195733099635</v>
       </c>
       <c r="G49" t="n">
-        <v>2599.593653151483</v>
+        <v>2372.896302919406</v>
       </c>
       <c r="H49" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I49" t="n">
-        <v>195118</v>
+        <v>189844</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>149929</v>
+        <v>173249</v>
       </c>
       <c r="E50" t="n">
-        <v>2006131</v>
+        <v>2318168</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>44738</v>
+        <v>51517</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="E51" t="n">
-        <v>270451176</v>
+        <v>267266041</v>
       </c>
       <c r="F51" t="n">
-        <v>25205.856418861</v>
+        <v>22975.13460650451</v>
       </c>
       <c r="G51" t="n">
-        <v>35364.58190580829</v>
+        <v>29255.08937319895</v>
       </c>
       <c r="H51" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I51" t="n">
-        <v>21335002</v>
+        <v>20962085</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1131614</v>
+        <v>1134027</v>
       </c>
       <c r="F52" t="n">
-        <v>45.62377191960492</v>
+        <v>45.51130161945684</v>
       </c>
       <c r="G52" t="n">
-        <v>5.63824337933689</v>
+        <v>5.430702945571683</v>
       </c>
       <c r="H52" t="n">
         <v>0.35</v>
       </c>
       <c r="I52" t="n">
-        <v>146362</v>
+        <v>144339</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2016174</v>
+        <v>2881654</v>
       </c>
       <c r="E53" t="n">
-        <v>2063698</v>
+        <v>3184255</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>140.5</v>
+        <v>267762</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115851</v>
+        <v>116003</v>
       </c>
       <c r="E54" t="n">
-        <v>115851</v>
+        <v>116003</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>344.38</v>
+        <v>363.9</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6912360</v>
+        <v>6989340</v>
       </c>
       <c r="E55" t="n">
-        <v>16789589</v>
+        <v>16976569</v>
       </c>
       <c r="F55" t="n">
-        <v>253.011289688442</v>
+        <v>289.435262246095</v>
       </c>
       <c r="G55" t="n">
-        <v>140.2043874945871</v>
+        <v>138.0741898922804</v>
       </c>
       <c r="H55" t="n">
-        <v>1.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>466960</v>
+        <v>458469</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>462998329</v>
+        <v>455780520</v>
       </c>
       <c r="E56" t="n">
-        <v>462998329</v>
+        <v>455780520</v>
       </c>
       <c r="F56" t="n">
-        <v>3281.106864826533</v>
+        <v>4118.341539421726</v>
       </c>
       <c r="G56" t="n">
-        <v>3051.350293863082</v>
+        <v>2958.302380672213</v>
       </c>
       <c r="H56" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I56" t="n">
-        <v>3606552</v>
+        <v>4050568</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2474041</v>
+        <v>2452480</v>
       </c>
       <c r="E57" t="n">
-        <v>2474041</v>
+        <v>2452480</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>58612</v>
+        <v>58543</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>182868228</v>
+        <v>178673339</v>
       </c>
       <c r="E58" t="n">
-        <v>240633200</v>
+        <v>235113217</v>
       </c>
       <c r="F58" t="n">
-        <v>15299.92877026697</v>
+        <v>2623.692207435573</v>
       </c>
       <c r="G58" t="n">
-        <v>15453.60189874132</v>
+        <v>8270.899037241965</v>
       </c>
       <c r="H58" t="n">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="I58" t="n">
-        <v>14646538</v>
+        <v>15600923</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1141608</v>
+        <v>1158297</v>
       </c>
       <c r="E59" t="n">
-        <v>12406572</v>
+        <v>12587936</v>
       </c>
       <c r="F59" t="n">
-        <v>3.777287289076508</v>
+        <v>6.960116417531609</v>
       </c>
       <c r="G59" t="n">
-        <v>327.7768473472971</v>
+        <v>4.087626262549125</v>
       </c>
       <c r="H59" t="n">
-        <v>1.06</v>
+        <v>0.45</v>
       </c>
       <c r="I59" t="n">
-        <v>8452.92</v>
+        <v>14808.81</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2571580</v>
+        <v>2573058</v>
       </c>
       <c r="E60" t="n">
-        <v>6574467</v>
+        <v>6578246</v>
       </c>
       <c r="F60" t="n">
-        <v>272.2758970383941</v>
+        <v>205.1588171663242</v>
       </c>
       <c r="G60" t="n">
-        <v>55.47354525232933</v>
+        <v>50.96878787435521</v>
       </c>
       <c r="H60" t="n">
         <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>79692</v>
+        <v>78110</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84940195</v>
+        <v>84909674</v>
       </c>
       <c r="E61" t="n">
-        <v>237608107</v>
+        <v>237534055</v>
       </c>
       <c r="F61" t="n">
-        <v>64056.53782651485</v>
+        <v>73341.9215236132</v>
       </c>
       <c r="G61" t="n">
-        <v>87966.83406113579</v>
+        <v>78553.83970768884</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I61" t="n">
-        <v>49050335</v>
+        <v>54779272</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>75904424</v>
+        <v>73107075</v>
       </c>
       <c r="E62" t="n">
-        <v>75904424</v>
+        <v>73107075</v>
       </c>
       <c r="F62" t="n">
-        <v>4331.326546601267</v>
+        <v>7837.70940806957</v>
       </c>
       <c r="G62" t="n">
-        <v>2181.683880891297</v>
+        <v>4932.265187085104</v>
       </c>
       <c r="H62" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="I62" t="n">
-        <v>3432405</v>
+        <v>3596122</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4159279</v>
+        <v>4087715</v>
       </c>
       <c r="E63" t="n">
-        <v>8202448</v>
+        <v>8061319</v>
       </c>
       <c r="F63" t="n">
-        <v>2373.126342603101</v>
+        <v>2444.429814044727</v>
       </c>
       <c r="G63" t="n">
-        <v>1131.112935079501</v>
+        <v>1545.966251933532</v>
       </c>
       <c r="H63" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I63" t="n">
-        <v>1620084</v>
+        <v>1641662</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1629721</v>
+        <v>1598147</v>
       </c>
       <c r="E64" t="n">
-        <v>9357251</v>
+        <v>9175964</v>
       </c>
       <c r="F64" t="n">
-        <v>124.6188949008932</v>
+        <v>16.26014126592409</v>
       </c>
       <c r="G64" t="n">
-        <v>30.63849277367703</v>
+        <v>5.332146156567848</v>
       </c>
       <c r="H64" t="n">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="I64" t="n">
-        <v>238898</v>
+        <v>236373</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>529282</v>
+        <v>534316</v>
       </c>
       <c r="F65" t="n">
-        <v>50.24586674208958</v>
+        <v>6.287981034428984</v>
       </c>
       <c r="G65" t="n">
-        <v>5.282841270688074</v>
+        <v>5.396571654632994</v>
       </c>
       <c r="H65" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="I65" t="n">
-        <v>1468.94</v>
+        <v>1447.07</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31298203</v>
+        <v>31233142</v>
       </c>
       <c r="F66" t="n">
-        <v>857.5987260939535</v>
+        <v>290.2746305046636</v>
       </c>
       <c r="G66" t="n">
-        <v>868.9590501909992</v>
+        <v>988.3674921293872</v>
       </c>
       <c r="H66" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>238220</v>
+        <v>237919</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>172798</v>
+        <v>170789</v>
       </c>
       <c r="E67" t="n">
-        <v>1166926</v>
+        <v>1153355</v>
       </c>
       <c r="F67" t="n">
-        <v>3.908716196427652</v>
+        <v>239.695030739025</v>
       </c>
       <c r="G67" t="n">
-        <v>127.5739362974614</v>
+        <v>46.66489703744802</v>
       </c>
       <c r="H67" t="n">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
       <c r="I67" t="n">
-        <v>2965234</v>
+        <v>2989811</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17314089</v>
+        <v>17432139</v>
       </c>
       <c r="E68" t="n">
-        <v>18248644</v>
+        <v>18373065</v>
       </c>
       <c r="F68" t="n">
-        <v>1540.304958852298</v>
+        <v>1533.457322247754</v>
       </c>
       <c r="G68" t="n">
-        <v>1413.268110984276</v>
+        <v>1432.742730116438</v>
       </c>
       <c r="H68" t="n">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="I68" t="n">
-        <v>36030</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3007912</v>
+        <v>3001671</v>
       </c>
       <c r="E69" t="n">
-        <v>3007912</v>
+        <v>3001671</v>
       </c>
       <c r="F69" t="n">
-        <v>14.5708776416409</v>
+        <v>861.7722468111946</v>
       </c>
       <c r="G69" t="n">
-        <v>392.9749900664424</v>
+        <v>5.138024096569406</v>
       </c>
       <c r="H69" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>18665.78</v>
+        <v>18308.65</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3417785</v>
+        <v>3407095</v>
       </c>
       <c r="E70" t="n">
-        <v>8433209</v>
+        <v>8406832</v>
       </c>
       <c r="F70" t="n">
-        <v>1149.179575343152</v>
+        <v>1107.022936283151</v>
       </c>
       <c r="G70" t="n">
-        <v>1269.398363783183</v>
+        <v>1173.061506996287</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>47457</v>
+        <v>37117</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23067212</v>
+        <v>23221382</v>
       </c>
       <c r="F71" t="n">
-        <v>5.705499421003032</v>
+        <v>4.123085013076968</v>
       </c>
       <c r="G71" t="n">
-        <v>420.9525561041457</v>
+        <v>398.1354468287672</v>
       </c>
       <c r="H71" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>125340</v>
+        <v>125172</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>255890</v>
+        <v>251877</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3679.33</v>
+        <v>3884.6</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>89367460</v>
+        <v>90400736</v>
       </c>
       <c r="E73" t="n">
-        <v>186323976</v>
+        <v>188478273</v>
       </c>
       <c r="F73" t="n">
-        <v>22671.19254048727</v>
+        <v>18395.58532480314</v>
       </c>
       <c r="G73" t="n">
-        <v>140.4204039250927</v>
+        <v>5243.014385612061</v>
       </c>
       <c r="H73" t="n">
-        <v>1.33</v>
+        <v>0.31</v>
       </c>
       <c r="I73" t="n">
-        <v>56533693</v>
+        <v>65482373</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>201784045</v>
+        <v>199869966</v>
       </c>
       <c r="F75" t="n">
-        <v>8054.087854882617</v>
+        <v>7551.640161992678</v>
       </c>
       <c r="G75" t="n">
-        <v>11117.17460503651</v>
+        <v>12877.52152220396</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3547509</v>
+        <v>3333305</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>87193705</v>
+        <v>84344777</v>
       </c>
       <c r="E76" t="n">
-        <v>119730526</v>
+        <v>115818504</v>
       </c>
       <c r="F76" t="n">
-        <v>1645.685825483316</v>
+        <v>732.0761053759213</v>
       </c>
       <c r="G76" t="n">
-        <v>5769.193001160143</v>
+        <v>4360.624298207167</v>
       </c>
       <c r="H76" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>999262</v>
+        <v>1046804</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>189599</v>
+        <v>187673</v>
       </c>
       <c r="E77" t="n">
-        <v>197996</v>
+        <v>195984</v>
       </c>
       <c r="F77" t="n">
-        <v>4.127617855957539</v>
+        <v>4.010399929512206</v>
       </c>
       <c r="G77" t="n">
-        <v>3.910265665074142</v>
+        <v>87.50422216650517</v>
       </c>
       <c r="H77" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>211.66</v>
+        <v>206.55</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7757551</v>
+        <v>7651102</v>
       </c>
       <c r="E78" t="n">
-        <v>8533824</v>
+        <v>8416723</v>
       </c>
       <c r="F78" t="n">
-        <v>848.0914707858093</v>
+        <v>631.6481881208581</v>
       </c>
       <c r="G78" t="n">
-        <v>254.5907739584653</v>
+        <v>359.7468237018434</v>
       </c>
       <c r="H78" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="I78" t="n">
-        <v>684436</v>
+        <v>673280</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30108352</v>
+        <v>30029889</v>
       </c>
       <c r="E79" t="n">
-        <v>30108352</v>
+        <v>30029889</v>
       </c>
       <c r="F79" t="n">
-        <v>91.12483971758715</v>
+        <v>69.79806998768846</v>
       </c>
       <c r="G79" t="n">
-        <v>1112.09524150487</v>
+        <v>696.0754502258999</v>
       </c>
       <c r="H79" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="I79" t="n">
-        <v>256271</v>
+        <v>248825</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>285340951</v>
+        <v>285273572</v>
       </c>
       <c r="E80" t="n">
-        <v>285340951</v>
+        <v>285273572</v>
       </c>
       <c r="F80" t="n">
-        <v>56.1080452809871</v>
+        <v>2222.499774790294</v>
       </c>
       <c r="G80" t="n">
-        <v>2001.716548793185</v>
+        <v>2036.440644590394</v>
       </c>
       <c r="H80" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>11324919</v>
+        <v>11870055</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>694453436</v>
+        <v>688776186</v>
       </c>
       <c r="E81" t="n">
-        <v>694453436</v>
+        <v>688776186</v>
       </c>
       <c r="F81" t="n">
-        <v>1140109.38903402</v>
+        <v>1194287.280840659</v>
       </c>
       <c r="G81" t="n">
-        <v>1102187.329530493</v>
+        <v>1183702.594793143</v>
       </c>
       <c r="H81" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="I81" t="n">
-        <v>434402558</v>
+        <v>490308820</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113269</v>
+        <v>113495</v>
       </c>
       <c r="E82" t="n">
-        <v>113269</v>
+        <v>113495</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1405.82</v>
+        <v>1403.98</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>205133884</v>
+        <v>207776642</v>
       </c>
       <c r="E83" t="n">
-        <v>712653653</v>
+        <v>721834832</v>
       </c>
       <c r="F83" t="n">
-        <v>55.73211778547826</v>
+        <v>1259.306281733202</v>
       </c>
       <c r="G83" t="n">
-        <v>1287.152215097404</v>
+        <v>1288.480134712869</v>
       </c>
       <c r="H83" t="n">
         <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>38908492</v>
+        <v>36897993</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3665335</v>
+        <v>3571487</v>
       </c>
       <c r="E84" t="n">
-        <v>3665335</v>
+        <v>3571487</v>
       </c>
       <c r="F84" t="n">
-        <v>1059.366585543778</v>
+        <v>903.9853173039949</v>
       </c>
       <c r="G84" t="n">
-        <v>18697.5258346601</v>
+        <v>1367.842010469125</v>
       </c>
       <c r="H84" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="I84" t="n">
-        <v>2413152</v>
+        <v>2527833</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>117148002</v>
+        <v>116834697</v>
       </c>
       <c r="E85" t="n">
-        <v>497223256</v>
+        <v>495841779</v>
       </c>
       <c r="F85" t="n">
-        <v>335063.629232737</v>
+        <v>389230.2237443298</v>
       </c>
       <c r="G85" t="n">
-        <v>270636.4496765583</v>
+        <v>355060.1680242553</v>
       </c>
       <c r="H85" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I85" t="n">
-        <v>15078409</v>
+        <v>15800542</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>72482778</v>
+        <v>72178009</v>
       </c>
       <c r="E86" t="n">
-        <v>83164755</v>
+        <v>82815072</v>
       </c>
       <c r="F86" t="n">
-        <v>2126.230566182637</v>
+        <v>4127.191367506292</v>
       </c>
       <c r="G86" t="n">
-        <v>3783.430897393916</v>
+        <v>4863.648135444867</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>1460365</v>
+        <v>1489933</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3258915</v>
+        <v>3304962</v>
       </c>
       <c r="E87" t="n">
-        <v>16339544</v>
+        <v>16570414</v>
       </c>
       <c r="F87" t="n">
-        <v>4.048143460425854</v>
+        <v>3.519989771436564</v>
       </c>
       <c r="G87" t="n">
-        <v>209.1804062713683</v>
+        <v>4.024549554572596</v>
       </c>
       <c r="H87" t="n">
-        <v>0.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>32074</v>
+        <v>31517</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>520584</v>
+        <v>523698</v>
       </c>
       <c r="E88" t="n">
-        <v>8904553</v>
+        <v>8957821</v>
       </c>
       <c r="F88" t="n">
-        <v>338.837412315247</v>
+        <v>372.3083534446242</v>
       </c>
       <c r="G88" t="n">
-        <v>1842.64837775028</v>
+        <v>243.4212601339845</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="I88" t="n">
-        <v>165070</v>
+        <v>161403</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5953880</v>
+        <v>5819371</v>
       </c>
       <c r="E89" t="n">
-        <v>8082505</v>
+        <v>7899793</v>
       </c>
       <c r="F89" t="n">
-        <v>362.7686179516206</v>
+        <v>79.9356408940794</v>
       </c>
       <c r="G89" t="n">
-        <v>78.28068424284608</v>
+        <v>738.8922786279064</v>
       </c>
       <c r="H89" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="I89" t="n">
-        <v>4826220</v>
+        <v>5323413</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41383875</v>
+        <v>40542628</v>
       </c>
       <c r="E90" t="n">
-        <v>48335384</v>
+        <v>47352827</v>
       </c>
       <c r="F90" t="n">
-        <v>397.5765276978696</v>
+        <v>291.6169914526561</v>
       </c>
       <c r="G90" t="n">
-        <v>4.172812105527175</v>
+        <v>129.3699923779068</v>
       </c>
       <c r="H90" t="n">
-        <v>0.77</v>
+        <v>0.35</v>
       </c>
       <c r="I90" t="n">
-        <v>914998</v>
+        <v>962165</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14644601</v>
+        <v>14653326</v>
       </c>
       <c r="F91" t="n">
-        <v>34.7068909929134</v>
+        <v>69.47200685514075</v>
       </c>
       <c r="G91" t="n">
-        <v>805.6951656338729</v>
+        <v>329.3923819313866</v>
       </c>
       <c r="H91" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="I91" t="n">
-        <v>215337</v>
+        <v>226677</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36490005</v>
+        <v>36211072</v>
       </c>
       <c r="E92" t="n">
-        <v>36490005</v>
+        <v>36211072</v>
       </c>
       <c r="F92" t="n">
-        <v>15.33299953962782</v>
+        <v>681.0249442892372</v>
       </c>
       <c r="G92" t="n">
-        <v>620.2623703227722</v>
+        <v>294.765540891805</v>
       </c>
       <c r="H92" t="n">
-        <v>0.87</v>
+        <v>1.01</v>
       </c>
       <c r="I92" t="n">
-        <v>949874</v>
+        <v>914943</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17191036</v>
+        <v>17166896</v>
       </c>
       <c r="F93" t="n">
-        <v>123.0333508321141</v>
+        <v>250.4293502299716</v>
       </c>
       <c r="G93" t="n">
-        <v>434.1950884218634</v>
+        <v>329.588474225545</v>
       </c>
       <c r="H93" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="I93" t="n">
-        <v>209299</v>
+        <v>198996</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>554788</v>
+        <v>546263</v>
       </c>
       <c r="E94" t="n">
-        <v>6729044</v>
+        <v>6625638</v>
       </c>
       <c r="F94" t="n">
-        <v>996.7154401997352</v>
+        <v>882.1756813068654</v>
       </c>
       <c r="G94" t="n">
-        <v>378.5115775144069</v>
+        <v>706.8551029820575</v>
       </c>
       <c r="H94" t="n">
-        <v>0.34</v>
+        <v>0.85</v>
       </c>
       <c r="I94" t="n">
-        <v>2765805</v>
+        <v>2763221</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26493287</v>
+        <v>25848176</v>
       </c>
       <c r="E95" t="n">
-        <v>37439287</v>
+        <v>36527641</v>
       </c>
       <c r="F95" t="n">
-        <v>444.9700764250439</v>
+        <v>649.8343377794935</v>
       </c>
       <c r="G95" t="n">
-        <v>15.85152315490455</v>
+        <v>4.917218910101878</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="I95" t="n">
-        <v>80753</v>
+        <v>91493</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1374077243</v>
+        <v>1367568162</v>
       </c>
       <c r="E96" t="n">
-        <v>6588981786</v>
+        <v>6557769406</v>
       </c>
       <c r="F96" t="n">
-        <v>278372.5365990798</v>
+        <v>148562.2823578164</v>
       </c>
       <c r="G96" t="n">
-        <v>259505.0319280052</v>
+        <v>230045.9331489496</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I96" t="n">
-        <v>278293450</v>
+        <v>386811102</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>271324949</v>
+        <v>270304248</v>
       </c>
       <c r="E97" t="n">
-        <v>1171189104</v>
+        <v>1166783190</v>
       </c>
       <c r="F97" t="n">
-        <v>233047.6677652882</v>
+        <v>261097.0116339089</v>
       </c>
       <c r="G97" t="n">
-        <v>946217.8797579078</v>
+        <v>802673.7607083066</v>
       </c>
       <c r="H97" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>115140367</v>
+        <v>132648404</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4979332</v>
+        <v>4993914</v>
       </c>
       <c r="E98" t="n">
-        <v>5518091</v>
+        <v>5534252</v>
       </c>
       <c r="F98" t="n">
-        <v>602.3455697888415</v>
+        <v>543.90051228856</v>
       </c>
       <c r="G98" t="n">
-        <v>636.9807408349128</v>
+        <v>492.5562511633</v>
       </c>
       <c r="H98" t="n">
-        <v>0.27</v>
+        <v>0.92</v>
       </c>
       <c r="I98" t="n">
-        <v>617035</v>
+        <v>672029</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94921</v>
+        <v>94865</v>
       </c>
       <c r="E99" t="n">
-        <v>94921</v>
+        <v>94865</v>
       </c>
       <c r="F99" t="n">
-        <v>5.100692220804497</v>
+        <v>743.7172705759581</v>
       </c>
       <c r="G99" t="n">
-        <v>4.127179285822126</v>
+        <v>5.408165586745618</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="I99" t="n">
-        <v>808.58</v>
+        <v>809.11</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>116757694</v>
+        <v>116076528</v>
       </c>
       <c r="E100" t="n">
-        <v>116757694</v>
+        <v>116076528</v>
       </c>
       <c r="F100" t="n">
-        <v>5182.99453456208</v>
+        <v>8664.069630600479</v>
       </c>
       <c r="G100" t="n">
-        <v>15255.76770518782</v>
+        <v>7480.701900136745</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>7608876</v>
+        <v>6766189</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3850494</v>
+        <v>3877030</v>
       </c>
       <c r="F101" t="n">
-        <v>1707.632177400455</v>
+        <v>1215.528860987094</v>
       </c>
       <c r="G101" t="n">
-        <v>895.1482231927315</v>
+        <v>936.6479981268642</v>
       </c>
       <c r="H101" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="I101" t="n">
-        <v>360012</v>
+        <v>348372</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2020249468</v>
+        <v>2040096587</v>
       </c>
       <c r="E102" t="n">
-        <v>2020249468</v>
+        <v>2040096587</v>
       </c>
       <c r="F102" t="n">
-        <v>7271393.253053114</v>
+        <v>8149863.057806147</v>
       </c>
       <c r="G102" t="n">
-        <v>4930917.190636845</v>
+        <v>4345596.067456866</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5788457123</v>
+        <v>8478567149</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5332642</v>
+        <v>5342357</v>
       </c>
       <c r="E103" t="n">
-        <v>5338677</v>
+        <v>5348404</v>
       </c>
       <c r="F103" t="n">
-        <v>79.01817279725331</v>
+        <v>236.8835604142366</v>
       </c>
       <c r="G103" t="n">
-        <v>84.95711123581576</v>
+        <v>103.9107616387903</v>
       </c>
       <c r="H103" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="I103" t="n">
-        <v>145725</v>
+        <v>145062</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2422459</v>
+        <v>2461945</v>
       </c>
       <c r="F104" t="n">
-        <v>111.6981450402561</v>
+        <v>3.828622241972317</v>
       </c>
       <c r="G104" t="n">
-        <v>224.4388959612228</v>
+        <v>220.1861230046532</v>
       </c>
       <c r="H104" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I104" t="n">
-        <v>9187.450000000001</v>
+        <v>34840</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4429450</v>
+        <v>4352095</v>
       </c>
       <c r="E105" t="n">
-        <v>5815289</v>
+        <v>5713733</v>
       </c>
       <c r="F105" t="n">
-        <v>4288.306030884342</v>
+        <v>516.7111356171114</v>
       </c>
       <c r="G105" t="n">
-        <v>10127.0161557486</v>
+        <v>312.2244040025908</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>614784</v>
+        <v>639061</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>20006358</v>
+        <v>19902105</v>
       </c>
       <c r="F106" t="n">
-        <v>64.53774334591485</v>
+        <v>944.8296622397314</v>
       </c>
       <c r="G106" t="n">
-        <v>867.1385673310056</v>
+        <v>75.18017097863907</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I106" t="n">
-        <v>39523</v>
+        <v>55893</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1438442</v>
+        <v>1419316</v>
       </c>
       <c r="E107" t="n">
-        <v>5362467</v>
+        <v>5291168</v>
       </c>
       <c r="F107" t="n">
-        <v>151.4022429640252</v>
+        <v>1854.602556453208</v>
       </c>
       <c r="G107" t="n">
-        <v>217.0524352864125</v>
+        <v>138.4253962137899</v>
       </c>
       <c r="H107" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="I107" t="n">
-        <v>586437</v>
+        <v>593122</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4191506</v>
+        <v>4189890</v>
       </c>
       <c r="E108" t="n">
-        <v>12073715</v>
+        <v>12068240</v>
       </c>
       <c r="F108" t="n">
-        <v>837.2275227591523</v>
+        <v>1383.508793857255</v>
       </c>
       <c r="G108" t="n">
-        <v>430.0593367257925</v>
+        <v>426.4462918497533</v>
       </c>
       <c r="H108" t="n">
-        <v>0.83</v>
+        <v>1.73</v>
       </c>
       <c r="I108" t="n">
-        <v>595548</v>
+        <v>530895</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80895229</v>
+        <v>80733629</v>
       </c>
       <c r="E109" t="n">
-        <v>102945467</v>
+        <v>102739818</v>
       </c>
       <c r="F109" t="n">
-        <v>6794.120521479847</v>
+        <v>6838.569101237469</v>
       </c>
       <c r="G109" t="n">
-        <v>943.068179493932</v>
+        <v>1776.046512488937</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="I109" t="n">
-        <v>6308109</v>
+        <v>6400481</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23441306</v>
+        <v>22995974</v>
       </c>
       <c r="E110" t="n">
-        <v>30408737</v>
+        <v>29831039</v>
       </c>
       <c r="F110" t="n">
-        <v>17649.87325418175</v>
+        <v>20232.47440092532</v>
       </c>
       <c r="G110" t="n">
-        <v>9527.892486056495</v>
+        <v>13786.73561687974</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="I110" t="n">
-        <v>389199</v>
+        <v>177297</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>705347</v>
+        <v>707874</v>
       </c>
       <c r="E111" t="n">
-        <v>705347</v>
+        <v>707874</v>
       </c>
       <c r="F111" t="n">
-        <v>20.60772419866226</v>
+        <v>17.27739160666522</v>
       </c>
       <c r="G111" t="n">
-        <v>5.425245552718604</v>
+        <v>2.980860530842456</v>
       </c>
       <c r="H111" t="n">
-        <v>0.92</v>
+        <v>0.19</v>
       </c>
       <c r="I111" t="n">
-        <v>77246</v>
+        <v>75704</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14508598</v>
+        <v>14378267</v>
       </c>
       <c r="E112" t="n">
-        <v>14508598</v>
+        <v>14378267</v>
       </c>
       <c r="F112" t="n">
-        <v>3125.498726553266</v>
+        <v>2811.478778199635</v>
       </c>
       <c r="G112" t="n">
-        <v>3868.664519839422</v>
+        <v>1697.479731908571</v>
       </c>
       <c r="H112" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I112" t="n">
-        <v>5381134</v>
+        <v>5355339</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99528674</v>
+        <v>99901804</v>
       </c>
       <c r="E113" t="n">
-        <v>123113407</v>
+        <v>123574956</v>
       </c>
       <c r="F113" t="n">
-        <v>726.7058167320622</v>
+        <v>852.4127243350109</v>
       </c>
       <c r="G113" t="n">
-        <v>1185.979292915101</v>
+        <v>1217.337891509301</v>
       </c>
       <c r="H113" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="I113" t="n">
-        <v>952082</v>
+        <v>1038320</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>898782</v>
+        <v>884410</v>
       </c>
       <c r="F114" t="n">
-        <v>548.8361879925432</v>
+        <v>219.2815624200644</v>
       </c>
       <c r="G114" t="n">
-        <v>423.2838286473979</v>
+        <v>231.7892535931585</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="I114" t="n">
-        <v>39225</v>
+        <v>39449</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2732324</v>
+        <v>2770813</v>
       </c>
       <c r="F115" t="n">
-        <v>353.8249726300372</v>
+        <v>787.2230032337328</v>
       </c>
       <c r="G115" t="n">
-        <v>155.0698486105388</v>
+        <v>1138.208379316162</v>
       </c>
       <c r="H115" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="I115" t="n">
-        <v>78296</v>
+        <v>79509</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11574376</v>
+        <v>11332692</v>
       </c>
       <c r="E116" t="n">
-        <v>17021139</v>
+        <v>16665722</v>
       </c>
       <c r="F116" t="n">
-        <v>3413.59447769328</v>
+        <v>2254.737601629065</v>
       </c>
       <c r="G116" t="n">
-        <v>3783.661228456596</v>
+        <v>2827.637555358223</v>
       </c>
       <c r="H116" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="I116" t="n">
-        <v>497782</v>
+        <v>526767</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3255248</v>
+        <v>3203566</v>
       </c>
       <c r="F117" t="n">
-        <v>24.52677622211798</v>
+        <v>3.910278131736015</v>
       </c>
       <c r="G117" t="n">
-        <v>212.2878499804868</v>
+        <v>212.2782448579704</v>
       </c>
       <c r="H117" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="I117" t="n">
-        <v>34847</v>
+        <v>33841</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1172850</v>
+        <v>1167015</v>
       </c>
       <c r="F118" t="n">
-        <v>4.058457502462111</v>
+        <v>5.13765578600164</v>
       </c>
       <c r="G118" t="n">
-        <v>3.913888507418811</v>
+        <v>30.48867119998254</v>
       </c>
       <c r="H118" t="n">
-        <v>0.75</v>
+        <v>0.31</v>
       </c>
       <c r="I118" t="n">
-        <v>5697.36</v>
+        <v>5379.81</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5125809</v>
+        <v>5148542</v>
       </c>
       <c r="E119" t="n">
-        <v>7171749</v>
+        <v>7203557</v>
       </c>
       <c r="F119" t="n">
-        <v>981.4116004578892</v>
+        <v>950.7007413876745</v>
       </c>
       <c r="G119" t="n">
-        <v>3196.670099080555</v>
+        <v>1626.141211994171</v>
       </c>
       <c r="H119" t="n">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="I119" t="n">
-        <v>63350</v>
+        <v>76947</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10398207</v>
+        <v>10529449</v>
       </c>
       <c r="E120" t="n">
-        <v>28641417</v>
+        <v>29002916</v>
       </c>
       <c r="F120" t="n">
-        <v>49.53600963399868</v>
+        <v>252.2208049786118</v>
       </c>
       <c r="G120" t="n">
-        <v>26.34811211373458</v>
+        <v>43.51458547146208</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="I120" t="n">
-        <v>334218</v>
+        <v>337190</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51234919</v>
+        <v>51220710</v>
       </c>
       <c r="E121" t="n">
-        <v>130523886</v>
+        <v>130487686</v>
       </c>
       <c r="F121" t="n">
-        <v>767.8467725926604</v>
+        <v>327.0503544629061</v>
       </c>
       <c r="G121" t="n">
-        <v>10945.62260167713</v>
+        <v>11198.90958544218</v>
       </c>
       <c r="H121" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I121" t="n">
-        <v>2297187</v>
+        <v>2190914</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15960306</v>
+        <v>15212714</v>
       </c>
       <c r="E122" t="n">
-        <v>77298310</v>
+        <v>73677603</v>
       </c>
       <c r="F122" t="n">
-        <v>2172.840614764131</v>
+        <v>683.8709458350828</v>
       </c>
       <c r="G122" t="n">
-        <v>5090.898209843303</v>
+        <v>1335.422054168568</v>
       </c>
       <c r="H122" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="I122" t="n">
-        <v>4718429</v>
+        <v>5067864</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>597753</v>
+        <v>592523</v>
       </c>
       <c r="F123" t="n">
-        <v>4.153399370001142</v>
+        <v>4.095862374492222</v>
       </c>
       <c r="G123" t="n">
-        <v>1859.398942220825</v>
+        <v>1815.278269448669</v>
       </c>
       <c r="H123" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>8448.65</v>
+        <v>8358.75</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4609310</v>
+        <v>4610599</v>
       </c>
       <c r="E124" t="n">
-        <v>10506719</v>
+        <v>10509657</v>
       </c>
       <c r="F124" t="n">
-        <v>1275.351774614393</v>
+        <v>1503.923833354203</v>
       </c>
       <c r="G124" t="n">
-        <v>3503.792494588696</v>
+        <v>3505.49955618817</v>
       </c>
       <c r="H124" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="I124" t="n">
-        <v>67249</v>
+        <v>66574</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1897396482</v>
+        <v>1891496798</v>
       </c>
       <c r="F125" t="n">
-        <v>71731.11734928952</v>
+        <v>71144.39301538692</v>
       </c>
       <c r="G125" t="n">
-        <v>75874.79504521299</v>
+        <v>77438.74624579318</v>
       </c>
       <c r="H125" t="n">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="I125" t="n">
-        <v>28680862</v>
+        <v>29239524</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9553513</v>
+        <v>9683808</v>
       </c>
       <c r="E126" t="n">
-        <v>34763805</v>
+        <v>35236921</v>
       </c>
       <c r="F126" t="n">
-        <v>445.5737841196677</v>
+        <v>1532.708465572379</v>
       </c>
       <c r="G126" t="n">
-        <v>5.237375463088688</v>
+        <v>4.124167123250506</v>
       </c>
       <c r="H126" t="n">
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="I126" t="n">
-        <v>117676</v>
+        <v>120448</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>623713</v>
+        <v>625672</v>
       </c>
       <c r="F127" t="n">
-        <v>19.81563226821213</v>
+        <v>19.81401393228994</v>
       </c>
       <c r="G127" t="n">
-        <v>4.106915604447122</v>
+        <v>4.10658019405183</v>
       </c>
       <c r="H127" t="n">
         <v>0.38</v>
       </c>
       <c r="I127" t="n">
-        <v>1127.1</v>
+        <v>947.6799999999999</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12442866</v>
+        <v>12343563</v>
       </c>
       <c r="E128" t="n">
-        <v>18040361</v>
+        <v>17896385</v>
       </c>
       <c r="F128" t="n">
-        <v>2736.210545996498</v>
+        <v>3167.141912095661</v>
       </c>
       <c r="G128" t="n">
-        <v>3814.135430781255</v>
+        <v>3431.09109184122</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="I128" t="n">
-        <v>1967748</v>
+        <v>1456027</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31707588</v>
+        <v>31467303</v>
       </c>
       <c r="E129" t="n">
-        <v>98727254</v>
+        <v>97979085</v>
       </c>
       <c r="F129" t="n">
-        <v>8022.733589474156</v>
+        <v>6773.866774122453</v>
       </c>
       <c r="G129" t="n">
-        <v>7387.056303230182</v>
+        <v>7442.585710193469</v>
       </c>
       <c r="H129" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I129" t="n">
-        <v>9941247</v>
+        <v>10026371</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1988335</v>
+        <v>1951685</v>
       </c>
       <c r="E130" t="n">
-        <v>14258153</v>
+        <v>13995341</v>
       </c>
       <c r="F130" t="n">
-        <v>21.0708921703852</v>
+        <v>143.454791670082</v>
       </c>
       <c r="G130" t="n">
-        <v>5.358059543908261</v>
+        <v>3.838658920840326</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="I130" t="n">
-        <v>2063678</v>
+        <v>614423</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7764266</v>
+        <v>7772636</v>
       </c>
       <c r="F131" t="n">
-        <v>526.0046760420324</v>
+        <v>437.3914265957155</v>
       </c>
       <c r="G131" t="n">
-        <v>167.3913093596306</v>
+        <v>128.164980851773</v>
       </c>
       <c r="H131" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="I131" t="n">
-        <v>440382</v>
+        <v>518741</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>204842484</v>
+        <v>203752230</v>
       </c>
       <c r="E132" t="n">
-        <v>1159944008</v>
+        <v>1153770321</v>
       </c>
       <c r="F132" t="n">
-        <v>271160.5774159048</v>
+        <v>381784.1509010109</v>
       </c>
       <c r="G132" t="n">
-        <v>559359.7671045746</v>
+        <v>434030.8326823253</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>70474415</v>
+        <v>81350767</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1060022</v>
+        <v>1041054</v>
       </c>
       <c r="E133" t="n">
-        <v>1060022</v>
+        <v>1041054</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5922.84</v>
+        <v>6073.94</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>503121</v>
+        <v>498759</v>
       </c>
       <c r="E134" t="n">
-        <v>1693435</v>
+        <v>1678754</v>
       </c>
       <c r="F134" t="n">
-        <v>357.0149539831959</v>
+        <v>184.0773367010577</v>
       </c>
       <c r="G134" t="n">
-        <v>126.978171208038</v>
+        <v>190.4262761960435</v>
       </c>
       <c r="H134" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="I134" t="n">
-        <v>586625</v>
+        <v>629106</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14224153</v>
+        <v>14273913</v>
       </c>
       <c r="F135" t="n">
-        <v>5.199571733602912</v>
+        <v>5.19914840515836</v>
       </c>
       <c r="G135" t="n">
-        <v>90.87037226308007</v>
+        <v>90.86621773226605</v>
       </c>
       <c r="H135" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I135" t="n">
-        <v>184.29</v>
+        <v>185.44</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>143097129</v>
+        <v>123554933</v>
       </c>
       <c r="E136" t="n">
-        <v>1059978731</v>
+        <v>915221724</v>
       </c>
       <c r="F136" t="n">
-        <v>705.3279487592664</v>
+        <v>123.5652573746015</v>
       </c>
       <c r="G136" t="n">
-        <v>671.682475526381</v>
+        <v>1520.325511433344</v>
       </c>
       <c r="H136" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="I136" t="n">
-        <v>8521581</v>
+        <v>18834385</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31794673</v>
+        <v>31392753</v>
       </c>
       <c r="E137" t="n">
-        <v>150977478</v>
+        <v>149068954</v>
       </c>
       <c r="F137" t="n">
-        <v>1123.662796102827</v>
+        <v>1187.825778213118</v>
       </c>
       <c r="G137" t="n">
-        <v>1025.780938813276</v>
+        <v>899.3624359950379</v>
       </c>
       <c r="H137" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="I137" t="n">
-        <v>787759</v>
+        <v>724363</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8359747</v>
+        <v>8778728</v>
       </c>
       <c r="E138" t="n">
-        <v>11199273</v>
+        <v>11760568</v>
       </c>
       <c r="F138" t="n">
-        <v>22.87161713183097</v>
+        <v>481.583230099765</v>
       </c>
       <c r="G138" t="n">
-        <v>442.1818825816754</v>
+        <v>14.541956675938</v>
       </c>
       <c r="H138" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="I138" t="n">
-        <v>58420</v>
+        <v>79606</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1237322</v>
+        <v>1219643</v>
       </c>
       <c r="F139" t="n">
-        <v>126.299272146222</v>
+        <v>125.9665155800104</v>
       </c>
       <c r="G139" t="n">
-        <v>5.45457074810221</v>
+        <v>5.454081806469137</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I139" t="n">
-        <v>4380.4</v>
+        <v>4828.71</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2521313</v>
+        <v>2493848</v>
       </c>
       <c r="E140" t="n">
-        <v>2521313</v>
+        <v>2493848</v>
       </c>
       <c r="F140" t="n">
-        <v>403.6184862272513</v>
+        <v>106.3126226726912</v>
       </c>
       <c r="G140" t="n">
-        <v>310.2251594011501</v>
+        <v>384.2542153528609</v>
       </c>
       <c r="H140" t="n">
         <v>0.43</v>
       </c>
       <c r="I140" t="n">
-        <v>301388</v>
+        <v>303882</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26492164</v>
+        <v>37407630</v>
       </c>
       <c r="E141" t="n">
-        <v>26492164</v>
+        <v>37407630</v>
       </c>
       <c r="F141" t="n">
-        <v>631.0370995238306</v>
+        <v>734.7184965825735</v>
       </c>
       <c r="G141" t="n">
-        <v>1045.193975517788</v>
+        <v>1385.925777864943</v>
       </c>
       <c r="H141" t="n">
-        <v>1.05</v>
+        <v>0.38</v>
       </c>
       <c r="I141" t="n">
-        <v>329976</v>
+        <v>941139</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6534385</v>
+        <v>6574978</v>
       </c>
       <c r="E142" t="n">
-        <v>6901042</v>
+        <v>6943912</v>
       </c>
       <c r="F142" t="n">
-        <v>167.3160156337966</v>
+        <v>612.8094557529378</v>
       </c>
       <c r="G142" t="n">
-        <v>7.16461541850532</v>
+        <v>135.1833645775665</v>
       </c>
       <c r="H142" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="I142" t="n">
-        <v>34524</v>
+        <v>31272</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3481504</v>
+        <v>3460297</v>
       </c>
       <c r="E143" t="n">
-        <v>8129891</v>
+        <v>8080371</v>
       </c>
       <c r="F143" t="n">
-        <v>829.7434131478677</v>
+        <v>252.0589934819119</v>
       </c>
       <c r="G143" t="n">
-        <v>1218.860013010176</v>
+        <v>1087.959417493615</v>
       </c>
       <c r="H143" t="n">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="I143" t="n">
-        <v>609969</v>
+        <v>630330</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1576963</v>
+        <v>1592359</v>
       </c>
       <c r="E144" t="n">
-        <v>12246876</v>
+        <v>12366445</v>
       </c>
       <c r="F144" t="n">
-        <v>300.0391891754491</v>
+        <v>300.5308100552388</v>
       </c>
       <c r="G144" t="n">
-        <v>664.431210780206</v>
+        <v>50.00164244301268</v>
       </c>
       <c r="H144" t="n">
-        <v>0.11</v>
+        <v>0.6</v>
       </c>
       <c r="I144" t="n">
-        <v>504911</v>
+        <v>507326</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>339209664</v>
+        <v>336759066</v>
       </c>
       <c r="E145" t="n">
-        <v>3051740476</v>
+        <v>3029693376</v>
       </c>
       <c r="F145" t="n">
-        <v>388333.4477049194</v>
+        <v>553423.2635648136</v>
       </c>
       <c r="G145" t="n">
-        <v>700048.3504917864</v>
+        <v>564968.9214408309</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>49745088</v>
+        <v>56049421</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>243680</v>
+        <v>247973</v>
       </c>
       <c r="E146" t="n">
-        <v>2150657</v>
+        <v>2188546</v>
       </c>
       <c r="F146" t="n">
-        <v>5.34503997917778</v>
+        <v>3.991456275551729</v>
       </c>
       <c r="G146" t="n">
-        <v>726.7284243694097</v>
+        <v>29.75188898595027</v>
       </c>
       <c r="H146" t="n">
-        <v>0.19</v>
+        <v>0.64</v>
       </c>
       <c r="I146" t="n">
-        <v>75924</v>
+        <v>73464</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>653025</v>
+        <v>628327</v>
       </c>
       <c r="F147" t="n">
-        <v>557.8813094469483</v>
+        <v>553.2881197604664</v>
       </c>
       <c r="G147" t="n">
-        <v>511.4973456158746</v>
+        <v>488.7446566872273</v>
       </c>
       <c r="H147" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="I147" t="n">
-        <v>11808.94</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4946268</v>
+        <v>4878288</v>
       </c>
       <c r="E148" t="n">
-        <v>17477466</v>
+        <v>17234976</v>
       </c>
       <c r="F148" t="n">
-        <v>1863.104048877285</v>
+        <v>1672.806002286737</v>
       </c>
       <c r="G148" t="n">
-        <v>2127.01443987536</v>
+        <v>2027.653895951466</v>
       </c>
       <c r="H148" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I148" t="n">
-        <v>99747</v>
+        <v>121279</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9580555</v>
+        <v>9570924</v>
       </c>
       <c r="E149" t="n">
-        <v>44406422</v>
+        <v>44361784</v>
       </c>
       <c r="F149" t="n">
-        <v>1857.754026979993</v>
+        <v>3241.919217081579</v>
       </c>
       <c r="G149" t="n">
-        <v>2817.233989171202</v>
+        <v>3287.866229582509</v>
       </c>
       <c r="H149" t="n">
         <v>0.4</v>
       </c>
       <c r="I149" t="n">
-        <v>112028</v>
+        <v>74623</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50213097</v>
+        <v>50871556</v>
       </c>
       <c r="E150" t="n">
-        <v>290713085</v>
+        <v>294525289</v>
       </c>
       <c r="F150" t="n">
-        <v>42012.12897497798</v>
+        <v>47742.66560045561</v>
       </c>
       <c r="G150" t="n">
-        <v>49156.04105683916</v>
+        <v>67739.53846140865</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I150" t="n">
-        <v>43893165</v>
+        <v>46317933</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83644</v>
+        <v>82218</v>
       </c>
       <c r="E151" t="n">
-        <v>83644</v>
+        <v>82218</v>
       </c>
       <c r="F151" t="n">
-        <v>19.41744827219615</v>
+        <v>4.050367173562416</v>
       </c>
       <c r="G151" t="n">
-        <v>9.225919588006919</v>
+        <v>8.469712342676857</v>
       </c>
       <c r="H151" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="I151" t="n">
-        <v>23943</v>
+        <v>23199</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4453643</v>
+        <v>4269605</v>
       </c>
       <c r="F152" t="n">
-        <v>231.9522413149429</v>
+        <v>364.1774053590757</v>
       </c>
       <c r="G152" t="n">
-        <v>320.3896984152399</v>
+        <v>290.51371315819</v>
       </c>
       <c r="H152" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="I152" t="n">
-        <v>298470</v>
+        <v>269001</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39629224</v>
+        <v>39892902</v>
       </c>
       <c r="E153" t="n">
-        <v>54733602</v>
+        <v>55097779</v>
       </c>
       <c r="F153" t="n">
-        <v>578.5016618792531</v>
+        <v>552.6241278022014</v>
       </c>
       <c r="G153" t="n">
-        <v>2341.532340799954</v>
+        <v>2309.951563035857</v>
       </c>
       <c r="H153" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I153" t="n">
-        <v>342664</v>
+        <v>338083</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2161184</v>
+        <v>2094038</v>
       </c>
       <c r="E154" t="n">
-        <v>8825714</v>
+        <v>8551507</v>
       </c>
       <c r="F154" t="n">
-        <v>875.6754655407974</v>
+        <v>1599.633533920392</v>
       </c>
       <c r="G154" t="n">
-        <v>345.8685328766448</v>
+        <v>298.962032637619</v>
       </c>
       <c r="H154" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>491886</v>
+        <v>215689</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7537958</v>
+        <v>7507399</v>
       </c>
       <c r="E155" t="n">
-        <v>7593990</v>
+        <v>7563203</v>
       </c>
       <c r="F155" t="n">
-        <v>1983.034099393686</v>
+        <v>6548.609830411397</v>
       </c>
       <c r="G155" t="n">
-        <v>2902.242877823897</v>
+        <v>1114.35207532367</v>
       </c>
       <c r="H155" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I155" t="n">
-        <v>5491427</v>
+        <v>5043543</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>473966</v>
+        <v>491188</v>
       </c>
       <c r="E156" t="n">
-        <v>473966</v>
+        <v>491188</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>10449.06</v>
+        <v>10166.24</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13910372</v>
+        <v>13989270</v>
       </c>
       <c r="E157" t="n">
-        <v>13957710</v>
+        <v>14036877</v>
       </c>
       <c r="F157" t="n">
-        <v>2434.522762907146</v>
+        <v>2409.679875437632</v>
       </c>
       <c r="G157" t="n">
-        <v>3600.02710265179</v>
+        <v>6719.106202140119</v>
       </c>
       <c r="H157" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I157" t="n">
-        <v>6590262</v>
+        <v>6758023</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>43452094</v>
+        <v>42790414</v>
       </c>
       <c r="E158" t="n">
-        <v>73771548</v>
+        <v>72648169</v>
       </c>
       <c r="F158" t="n">
-        <v>386.984231531277</v>
+        <v>305.7721030052457</v>
       </c>
       <c r="G158" t="n">
-        <v>439.1198499518595</v>
+        <v>342.4869529656476</v>
       </c>
       <c r="H158" t="n">
-        <v>1.49</v>
+        <v>0.16</v>
       </c>
       <c r="I158" t="n">
-        <v>905694</v>
+        <v>1094704</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22549053</v>
+        <v>21254831</v>
       </c>
       <c r="E159" t="n">
-        <v>67596806</v>
+        <v>63714938</v>
       </c>
       <c r="F159" t="n">
-        <v>12340.73732075193</v>
+        <v>5180.178296623606</v>
       </c>
       <c r="G159" t="n">
-        <v>22264.95251547459</v>
+        <v>6256.921124230927</v>
       </c>
       <c r="H159" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I159" t="n">
-        <v>3751705</v>
+        <v>3186136</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>103351297</v>
+        <v>100378596</v>
       </c>
       <c r="E160" t="n">
-        <v>109871769</v>
+        <v>106711520</v>
       </c>
       <c r="F160" t="n">
-        <v>801.0752068166495</v>
+        <v>484.8874330411683</v>
       </c>
       <c r="G160" t="n">
-        <v>1391.975195860978</v>
+        <v>949.9838507581453</v>
       </c>
       <c r="H160" t="n">
-        <v>1.87</v>
+        <v>0.83</v>
       </c>
       <c r="I160" t="n">
-        <v>1585701</v>
+        <v>486512</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10436839</v>
+        <v>10413400</v>
       </c>
       <c r="E161" t="n">
-        <v>45376500</v>
+        <v>45364871</v>
       </c>
       <c r="F161" t="n">
-        <v>3246.633577319707</v>
+        <v>3329.173536436771</v>
       </c>
       <c r="G161" t="n">
-        <v>5595.417162010694</v>
+        <v>6505.236152906737</v>
       </c>
       <c r="H161" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I161" t="n">
-        <v>117638</v>
+        <v>119337</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15882743</v>
+        <v>15831959</v>
       </c>
       <c r="E162" t="n">
-        <v>97350558</v>
+        <v>97039285</v>
       </c>
       <c r="F162" t="n">
-        <v>2715.580921589747</v>
+        <v>2005.583543654727</v>
       </c>
       <c r="G162" t="n">
-        <v>2510.587553550949</v>
+        <v>715.2114776008609</v>
       </c>
       <c r="H162" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I162" t="n">
-        <v>10797194</v>
+        <v>11228476</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1516730</v>
+        <v>1512352</v>
       </c>
       <c r="E163" t="n">
-        <v>1559395</v>
+        <v>1554893</v>
       </c>
       <c r="F163" t="n">
-        <v>79.59877840481586</v>
+        <v>102.2740145947394</v>
       </c>
       <c r="G163" t="n">
-        <v>71.36556839801094</v>
+        <v>71.21754649596998</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="I163" t="n">
-        <v>143428</v>
+        <v>147668</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>92645</v>
+        <v>91855</v>
       </c>
       <c r="E164" t="n">
-        <v>262811</v>
+        <v>260572</v>
       </c>
       <c r="F164" t="n">
-        <v>5.347283164786912</v>
+        <v>5.347361273235641</v>
       </c>
       <c r="G164" t="n">
-        <v>107.1536642494082</v>
+        <v>99.34488464000127</v>
       </c>
       <c r="H164" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I164" t="n">
-        <v>223.42</v>
+        <v>229.33</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50591433</v>
+        <v>50366905</v>
       </c>
       <c r="E165" t="n">
-        <v>217942363</v>
+        <v>216975119</v>
       </c>
       <c r="F165" t="n">
-        <v>6268.700684392146</v>
+        <v>4475.840435640793</v>
       </c>
       <c r="G165" t="n">
-        <v>3900.627745735133</v>
+        <v>4768.900977634412</v>
       </c>
       <c r="H165" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I165" t="n">
-        <v>11087935</v>
+        <v>11708347</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7665160</v>
+        <v>7634677</v>
       </c>
       <c r="F166" t="n">
-        <v>357.7468088332691</v>
+        <v>213.3967177400893</v>
       </c>
       <c r="G166" t="n">
-        <v>295.9386316184532</v>
+        <v>429.4829309801647</v>
       </c>
       <c r="H166" t="n">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="I166" t="n">
-        <v>6722195</v>
+        <v>6858780</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>674657</v>
+        <v>671816</v>
       </c>
       <c r="E167" t="n">
-        <v>2435152</v>
+        <v>2424898</v>
       </c>
       <c r="F167" t="n">
-        <v>50.55270522642402</v>
+        <v>50.97285478761685</v>
       </c>
       <c r="G167" t="n">
-        <v>10.25023883546138</v>
+        <v>50.61775914406515</v>
       </c>
       <c r="H167" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>337586</v>
+        <v>339022</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1859712</v>
+        <v>1774107</v>
       </c>
       <c r="F168" t="n">
-        <v>176.7179754240148</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>7.766670682758918</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.42</v>
+        <v>11.97</v>
       </c>
       <c r="I168" t="n">
-        <v>90100</v>
+        <v>87331</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13244035</v>
+        <v>12977242</v>
       </c>
       <c r="E169" t="n">
-        <v>13244035</v>
+        <v>12977242</v>
       </c>
       <c r="F169" t="n">
-        <v>117.1419575454037</v>
+        <v>141.6233329197339</v>
       </c>
       <c r="G169" t="n">
-        <v>35.309105411026</v>
+        <v>55.54921286792744</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>3.27</v>
       </c>
       <c r="I169" t="n">
-        <v>4462881</v>
+        <v>4442524</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2213059</v>
+        <v>2174395</v>
       </c>
       <c r="E170" t="n">
-        <v>8034663</v>
+        <v>7894260</v>
       </c>
       <c r="F170" t="n">
-        <v>795.4602595050694</v>
+        <v>169.2678670541849</v>
       </c>
       <c r="G170" t="n">
-        <v>155.7040772003766</v>
+        <v>183.2434846935189</v>
       </c>
       <c r="H170" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I170" t="n">
-        <v>206918</v>
+        <v>200884</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9278241</v>
+        <v>8937342</v>
       </c>
       <c r="E171" t="n">
-        <v>20591143</v>
+        <v>19834587</v>
       </c>
       <c r="F171" t="n">
-        <v>1798.113113192798</v>
+        <v>462.8828410826848</v>
       </c>
       <c r="G171" t="n">
-        <v>1700.47341986728</v>
+        <v>1586.889314097511</v>
       </c>
       <c r="H171" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="I171" t="n">
-        <v>334791</v>
+        <v>335704</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1030099</v>
+        <v>1037375</v>
       </c>
       <c r="E172" t="n">
-        <v>3010800</v>
+        <v>3032068</v>
       </c>
       <c r="F172" t="n">
-        <v>150.5888819456319</v>
+        <v>105.268769639156</v>
       </c>
       <c r="G172" t="n">
-        <v>113.0231705454591</v>
+        <v>632.2899901767597</v>
       </c>
       <c r="H172" t="n">
         <v>0.78</v>
       </c>
       <c r="I172" t="n">
-        <v>15933.45</v>
+        <v>19357.47</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20301065</v>
+        <v>19421497</v>
       </c>
       <c r="E173" t="n">
-        <v>81204260</v>
+        <v>77685989</v>
       </c>
       <c r="F173" t="n">
-        <v>16211.96850036115</v>
+        <v>9193.522675748634</v>
       </c>
       <c r="G173" t="n">
-        <v>10204.59602853129</v>
+        <v>13883.53749510031</v>
       </c>
       <c r="H173" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="I173" t="n">
-        <v>2355291</v>
+        <v>2316572</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4831329</v>
+        <v>4659933</v>
       </c>
       <c r="E174" t="n">
-        <v>4831329</v>
+        <v>4659933</v>
       </c>
       <c r="F174" t="n">
-        <v>464.376353012054</v>
+        <v>1414.857085924493</v>
       </c>
       <c r="G174" t="n">
-        <v>220.3044611935594</v>
+        <v>1574.312028519205</v>
       </c>
       <c r="H174" t="n">
-        <v>0.85</v>
+        <v>1.59</v>
       </c>
       <c r="I174" t="n">
-        <v>2896690</v>
+        <v>2921524</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>313908922</v>
+        <v>308832633</v>
       </c>
       <c r="E175" t="n">
-        <v>313908922</v>
+        <v>308832633</v>
       </c>
       <c r="F175" t="n">
-        <v>2561.689013810255</v>
+        <v>1747.225444459153</v>
       </c>
       <c r="G175" t="n">
-        <v>7151.333435657421</v>
+        <v>4097.230956899872</v>
       </c>
       <c r="H175" t="n">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="I175" t="n">
-        <v>16869524</v>
+        <v>18945881</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12594301</v>
+        <v>12657458</v>
       </c>
       <c r="E176" t="n">
-        <v>39834342</v>
+        <v>40034101</v>
       </c>
       <c r="F176" t="n">
-        <v>1090.212212561729</v>
+        <v>1426.12936782626</v>
       </c>
       <c r="G176" t="n">
-        <v>585.071251698339</v>
+        <v>1357.891968238273</v>
       </c>
       <c r="H176" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>874623</v>
+        <v>921824</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>25050</v>
+        <v>24888</v>
       </c>
       <c r="E177" t="n">
-        <v>197010</v>
+        <v>195734</v>
       </c>
       <c r="F177" t="n">
-        <v>59.34316668156951</v>
+        <v>71.67390663844844</v>
       </c>
       <c r="G177" t="n">
-        <v>1502.145535847384</v>
+        <v>1107.694751346729</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>47313</v>
+        <v>46992</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8609778</v>
+        <v>8774602</v>
       </c>
       <c r="E178" t="n">
-        <v>8609778</v>
+        <v>8774602</v>
       </c>
       <c r="F178" t="n">
-        <v>1350.523293030023</v>
+        <v>2317.538793214482</v>
       </c>
       <c r="G178" t="n">
-        <v>3939.919671203047</v>
+        <v>2725.198390752006</v>
       </c>
       <c r="H178" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="I178" t="n">
-        <v>3808833</v>
+        <v>3911377</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1109135</v>
+        <v>1106082</v>
       </c>
       <c r="E179" t="n">
-        <v>2526163</v>
+        <v>2519210</v>
       </c>
       <c r="F179" t="n">
-        <v>4.030882042363555</v>
+        <v>22.83572070030144</v>
       </c>
       <c r="G179" t="n">
-        <v>260.72087144121</v>
+        <v>260.7236801285099</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>514.13</v>
+        <v>604.1</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>10093301</v>
+        <v>9944284</v>
       </c>
       <c r="E180" t="n">
-        <v>10093301</v>
+        <v>9944284</v>
       </c>
       <c r="F180" t="n">
-        <v>4036.84283507502</v>
+        <v>2972.633479703537</v>
       </c>
       <c r="G180" t="n">
-        <v>4559.651057270415</v>
+        <v>2794.764914518586</v>
       </c>
       <c r="H180" t="n">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="I180" t="n">
-        <v>2806782</v>
+        <v>2616989</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18933285</v>
+        <v>18847441</v>
       </c>
       <c r="E181" t="n">
-        <v>18933285</v>
+        <v>18847441</v>
       </c>
       <c r="F181" t="n">
-        <v>1495.662517050536</v>
+        <v>1201.332873522353</v>
       </c>
       <c r="G181" t="n">
-        <v>1680.367518785777</v>
+        <v>2093.817286638777</v>
       </c>
       <c r="H181" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I181" t="n">
-        <v>5431649</v>
+        <v>6323342</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>33725604</v>
+        <v>32336833</v>
       </c>
       <c r="E182" t="n">
-        <v>93416577</v>
+        <v>89569818</v>
       </c>
       <c r="F182" t="n">
-        <v>3706.310302378141</v>
+        <v>5430.103198177188</v>
       </c>
       <c r="G182" t="n">
-        <v>5369.470127102932</v>
+        <v>6832.634337415696</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="I182" t="n">
-        <v>12602247</v>
+        <v>12202147</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37390858</v>
+        <v>36849735</v>
       </c>
       <c r="E183" t="n">
-        <v>94281792</v>
+        <v>92917340</v>
       </c>
       <c r="F183" t="n">
-        <v>15493.66045344572</v>
+        <v>6983.367738491901</v>
       </c>
       <c r="G183" t="n">
-        <v>14917.72569333408</v>
+        <v>3411.668479870032</v>
       </c>
       <c r="H183" t="n">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="I183" t="n">
-        <v>3568007</v>
+        <v>3792190</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>318052756</v>
+        <v>315060611</v>
       </c>
       <c r="E184" t="n">
-        <v>323026715</v>
+        <v>319986299</v>
       </c>
       <c r="F184" t="n">
-        <v>13282.88088237203</v>
+        <v>19361.61456693389</v>
       </c>
       <c r="G184" t="n">
-        <v>24200.59846678269</v>
+        <v>22067.06611583603</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>24911916</v>
+        <v>23249323</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>413777</v>
+        <v>409049</v>
       </c>
       <c r="F185" t="n">
-        <v>7.130515978666393</v>
+        <v>1.234731107578749</v>
       </c>
       <c r="G185" t="n">
-        <v>23.8972742406864</v>
+        <v>444.1101069606549</v>
       </c>
       <c r="H185" t="n">
-        <v>3.58</v>
+        <v>2.88</v>
       </c>
       <c r="I185" t="n">
-        <v>70332</v>
+        <v>70246</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28712104</v>
+        <v>27437334</v>
       </c>
       <c r="E186" t="n">
-        <v>68212820</v>
+        <v>65156641</v>
       </c>
       <c r="F186" t="n">
-        <v>7690.357378463333</v>
+        <v>954.0839253653493</v>
       </c>
       <c r="G186" t="n">
-        <v>8708.170796576364</v>
+        <v>3420.690644293913</v>
       </c>
       <c r="H186" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I186" t="n">
-        <v>465622</v>
+        <v>532806</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>23159446</v>
+        <v>22202213</v>
       </c>
       <c r="F187" t="n">
-        <v>1007.425727560494</v>
+        <v>5.593435463892358</v>
       </c>
       <c r="G187" t="n">
-        <v>4.188656323890184</v>
+        <v>324.67069174528</v>
       </c>
       <c r="H187" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="I187" t="n">
-        <v>1260.92</v>
+        <v>1033.04</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12752379</v>
+        <v>12639292</v>
       </c>
       <c r="E188" t="n">
-        <v>19411996</v>
+        <v>19239853</v>
       </c>
       <c r="F188" t="n">
-        <v>3804.473838582966</v>
+        <v>3621.751844485006</v>
       </c>
       <c r="G188" t="n">
-        <v>2777.424702773565</v>
+        <v>2664.717794692383</v>
       </c>
       <c r="H188" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="I188" t="n">
-        <v>247619</v>
+        <v>655940</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>88125427</v>
+        <v>84348956</v>
       </c>
       <c r="E189" t="n">
-        <v>88125427</v>
+        <v>84348956</v>
       </c>
       <c r="F189" t="n">
-        <v>9964.848209763933</v>
+        <v>11087.50543575349</v>
       </c>
       <c r="G189" t="n">
-        <v>7961.388402675554</v>
+        <v>8729.200112244305</v>
       </c>
       <c r="H189" t="n">
-        <v>0.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I189" t="n">
-        <v>4819435</v>
+        <v>5304309</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>304756775</v>
+        <v>304993523</v>
       </c>
       <c r="E190" t="n">
-        <v>304756775</v>
+        <v>304993523</v>
       </c>
       <c r="F190" t="n">
-        <v>196485.4224145818</v>
+        <v>187067.2591255264</v>
       </c>
       <c r="G190" t="n">
-        <v>250681.3546420896</v>
+        <v>326056.5730885844</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>77605960</v>
+        <v>84683029</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10349251</v>
+        <v>10203644</v>
       </c>
       <c r="E191" t="n">
-        <v>29383249</v>
+        <v>28969846</v>
       </c>
       <c r="F191" t="n">
-        <v>3029.670335966931</v>
+        <v>745.7422995875905</v>
       </c>
       <c r="G191" t="n">
-        <v>4027.122735822456</v>
+        <v>6905.403776761527</v>
       </c>
       <c r="H191" t="n">
-        <v>1.35</v>
+        <v>0.68</v>
       </c>
       <c r="I191" t="n">
-        <v>109206</v>
+        <v>113141</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4425283</v>
+        <v>4322758</v>
       </c>
       <c r="E192" t="n">
-        <v>30237648</v>
+        <v>29537104</v>
       </c>
       <c r="F192" t="n">
-        <v>2018.585521046389</v>
+        <v>5905.845000506944</v>
       </c>
       <c r="G192" t="n">
-        <v>4712.550907921</v>
+        <v>3363.338914847594</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I192" t="n">
-        <v>2651932</v>
+        <v>2681612</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2949218</v>
+        <v>2935360</v>
       </c>
       <c r="E193" t="n">
-        <v>4368089</v>
+        <v>4347147</v>
       </c>
       <c r="F193" t="n">
-        <v>222.3498684797722</v>
+        <v>211.9043587152498</v>
       </c>
       <c r="G193" t="n">
-        <v>334.8172250302102</v>
+        <v>621.2143238366015</v>
       </c>
       <c r="H193" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I193" t="n">
-        <v>106174</v>
+        <v>102533</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89952640</v>
+        <v>89223950</v>
       </c>
       <c r="E194" t="n">
-        <v>518345909</v>
+        <v>514146886</v>
       </c>
       <c r="F194" t="n">
-        <v>551689.5829352447</v>
+        <v>581326.7764145483</v>
       </c>
       <c r="G194" t="n">
-        <v>411869.7190520006</v>
+        <v>453031.925818678</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I194" t="n">
-        <v>18842840</v>
+        <v>20012467</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>721876</v>
+        <v>715612</v>
       </c>
       <c r="E195" t="n">
-        <v>787273</v>
+        <v>780442</v>
       </c>
       <c r="F195" t="n">
-        <v>5.448149064317162</v>
+        <v>5.406116134894539</v>
       </c>
       <c r="G195" t="n">
-        <v>61.5168397126164</v>
+        <v>4.021316804185013</v>
       </c>
       <c r="H195" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="I195" t="n">
-        <v>128385</v>
+        <v>127057</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>110381897</v>
+        <v>109205914</v>
       </c>
       <c r="E196" t="n">
-        <v>271582593</v>
+        <v>268689215</v>
       </c>
       <c r="F196" t="n">
-        <v>33993.58132989165</v>
+        <v>49772.27275367665</v>
       </c>
       <c r="G196" t="n">
-        <v>30643.89503342979</v>
+        <v>46485.04349755769</v>
       </c>
       <c r="H196" t="n">
         <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2878079</v>
+        <v>2514420</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19666284</v>
+        <v>19686378</v>
       </c>
       <c r="E197" t="n">
-        <v>19666284</v>
+        <v>19686378</v>
       </c>
       <c r="F197" t="n">
-        <v>430.1672092403373</v>
+        <v>3.879213675806396</v>
       </c>
       <c r="G197" t="n">
-        <v>5.282128051696988</v>
+        <v>5.517516520783905</v>
       </c>
       <c r="H197" t="n">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="I197" t="n">
-        <v>146934</v>
+        <v>147575</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1334126</v>
+        <v>1327647</v>
       </c>
       <c r="F198" t="n">
-        <v>3.872032803974343</v>
+        <v>4.180967213044443</v>
       </c>
       <c r="G198" t="n">
-        <v>241.8599117319537</v>
+        <v>108.7960437898221</v>
       </c>
       <c r="H198" t="n">
-        <v>0.92</v>
+        <v>0.53</v>
       </c>
       <c r="I198" t="n">
-        <v>2908.86</v>
+        <v>37009</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>148211</v>
+        <v>146748</v>
       </c>
       <c r="E199" t="n">
-        <v>322652</v>
+        <v>319467</v>
       </c>
       <c r="F199" t="n">
-        <v>4.185253195627071</v>
+        <v>4.021682469625514</v>
       </c>
       <c r="G199" t="n">
-        <v>5.449200901565391</v>
+        <v>29.76536829592052</v>
       </c>
       <c r="H199" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="I199" t="n">
-        <v>50515</v>
+        <v>50362</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3261722</v>
+        <v>3145519</v>
       </c>
       <c r="F200" t="n">
-        <v>745.9469089040645</v>
+        <v>1429.309122306324</v>
       </c>
       <c r="G200" t="n">
-        <v>1235.989129550614</v>
+        <v>863.9527829087458</v>
       </c>
       <c r="H200" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="I200" t="n">
-        <v>495764</v>
+        <v>492138</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>207281</v>
+        <v>196001</v>
       </c>
       <c r="E201" t="n">
-        <v>1600629</v>
+        <v>1513524</v>
       </c>
       <c r="F201" t="n">
-        <v>32.14565122781143</v>
+        <v>20.6610396803896</v>
       </c>
       <c r="G201" t="n">
-        <v>14.89000445295371</v>
+        <v>5.305463156590182</v>
       </c>
       <c r="H201" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="I201" t="n">
-        <v>89156</v>
+        <v>90227</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>31729716</v>
+        <v>30678622</v>
       </c>
       <c r="E202" t="n">
-        <v>142066956</v>
+        <v>137360775</v>
       </c>
       <c r="F202" t="n">
-        <v>5092.435934313263</v>
+        <v>10304.64315267457</v>
       </c>
       <c r="G202" t="n">
-        <v>11288.08289281325</v>
+        <v>8145.144075860929</v>
       </c>
       <c r="H202" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I202" t="n">
-        <v>9828748</v>
+        <v>11748063</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12823914</v>
+        <v>12797051</v>
       </c>
       <c r="E203" t="n">
-        <v>25629850</v>
+        <v>25576162</v>
       </c>
       <c r="F203" t="n">
-        <v>694.9911203985971</v>
+        <v>694.9157179793325</v>
       </c>
       <c r="G203" t="n">
-        <v>1202.709141210526</v>
+        <v>1214.532770067168</v>
       </c>
       <c r="H203" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="I203" t="n">
-        <v>6428.12</v>
+        <v>14501.54</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1380810</v>
+        <v>1262361</v>
       </c>
       <c r="F204" t="n">
-        <v>4.093418781435628</v>
+        <v>193.3405288370452</v>
       </c>
       <c r="G204" t="n">
-        <v>630.8959593460003</v>
+        <v>382.7355355891679</v>
       </c>
       <c r="H204" t="n">
-        <v>3.41</v>
+        <v>0.25</v>
       </c>
       <c r="I204" t="n">
-        <v>71304</v>
+        <v>90998</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>975766</v>
+        <v>967842</v>
       </c>
       <c r="E205" t="n">
-        <v>4513058</v>
+        <v>4476405</v>
       </c>
       <c r="F205" t="n">
-        <v>3440.583975622561</v>
+        <v>3233.508118304401</v>
       </c>
       <c r="G205" t="n">
-        <v>3100.818190455763</v>
+        <v>2680.035754286223</v>
       </c>
       <c r="H205" t="n">
-        <v>0.12</v>
+        <v>1.03</v>
       </c>
       <c r="I205" t="n">
-        <v>503650</v>
+        <v>484790</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3168770</v>
+        <v>3113722</v>
       </c>
       <c r="E206" t="n">
-        <v>3168770</v>
+        <v>3113722</v>
       </c>
       <c r="F206" t="n">
-        <v>794.8695908076924</v>
+        <v>1246.790571815532</v>
       </c>
       <c r="G206" t="n">
-        <v>635.7641552558603</v>
+        <v>862.5806655478469</v>
       </c>
       <c r="H206" t="n">
         <v>0.06</v>
       </c>
       <c r="I206" t="n">
-        <v>425171</v>
+        <v>397541</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>584646</v>
+        <v>560139</v>
       </c>
       <c r="E207" t="n">
-        <v>584646</v>
+        <v>560139</v>
       </c>
       <c r="F207" t="n">
-        <v>251.9504320571558</v>
+        <v>5.572453993027473</v>
       </c>
       <c r="G207" t="n">
-        <v>5.06348712137403</v>
+        <v>80.04099665403582</v>
       </c>
       <c r="H207" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>1150056</v>
+        <v>1182757</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15316087</v>
+        <v>14951236</v>
       </c>
       <c r="E208" t="n">
-        <v>19499824</v>
+        <v>19035310</v>
       </c>
       <c r="F208" t="n">
-        <v>242.641879229074</v>
+        <v>568.3262159467163</v>
       </c>
       <c r="G208" t="n">
-        <v>139.6699711560374</v>
+        <v>179.0830748864508</v>
       </c>
       <c r="H208" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I208" t="n">
-        <v>955596</v>
+        <v>972091</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1815509</v>
+        <v>1819297</v>
       </c>
       <c r="E209" t="n">
-        <v>1815509</v>
+        <v>1819297</v>
       </c>
       <c r="F209" t="n">
-        <v>5.391390921248493</v>
+        <v>5.390947822295743</v>
       </c>
       <c r="G209" t="n">
-        <v>5.404470271616556</v>
+        <v>5.404026097719226</v>
       </c>
       <c r="H209" t="n">
         <v>0.57</v>
       </c>
       <c r="I209" t="n">
-        <v>3868.61</v>
+        <v>3789.37</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5820330</v>
+        <v>5826865</v>
       </c>
       <c r="E210" t="n">
-        <v>15275450</v>
+        <v>15292602</v>
       </c>
       <c r="F210" t="n">
-        <v>297.8983641378734</v>
+        <v>153.6104266964449</v>
       </c>
       <c r="G210" t="n">
-        <v>91.77088413595789</v>
+        <v>276.0606273822497</v>
       </c>
       <c r="H210" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="I210" t="n">
-        <v>25915</v>
+        <v>26021</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29620286</v>
+        <v>29086117</v>
       </c>
       <c r="F211" t="n">
-        <v>669.5521431351273</v>
+        <v>804.2376540851299</v>
       </c>
       <c r="G211" t="n">
-        <v>944.8160635991885</v>
+        <v>2322.456170238358</v>
       </c>
       <c r="H211" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="I211" t="n">
-        <v>432342</v>
+        <v>517121</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>18012514</v>
+        <v>17961124</v>
       </c>
       <c r="E212" t="n">
-        <v>18012514</v>
+        <v>17961177</v>
       </c>
       <c r="F212" t="n">
-        <v>9191.075860780429</v>
+        <v>23055.5194571418</v>
       </c>
       <c r="G212" t="n">
-        <v>32381.75930295827</v>
+        <v>26130.33762259631</v>
       </c>
       <c r="H212" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I212" t="n">
-        <v>2518407</v>
+        <v>2404280</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>51056318</v>
+        <v>51069762</v>
       </c>
       <c r="E213" t="n">
-        <v>331086632</v>
+        <v>331173817</v>
       </c>
       <c r="F213" t="n">
-        <v>105180.7317076469</v>
+        <v>123009.1305233928</v>
       </c>
       <c r="G213" t="n">
-        <v>175569.4638116019</v>
+        <v>166933.1919769589</v>
       </c>
       <c r="H213" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I213" t="n">
-        <v>17802125</v>
+        <v>19053033</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9094664</v>
+        <v>9084523</v>
       </c>
       <c r="F214" t="n">
-        <v>191.0747668511954</v>
+        <v>180.8696136423237</v>
       </c>
       <c r="G214" t="n">
-        <v>3.974708332239037</v>
+        <v>3.974360624266811</v>
       </c>
       <c r="H214" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="I214" t="n">
-        <v>296131</v>
+        <v>292791</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7195907</v>
+        <v>7185470</v>
       </c>
       <c r="E215" t="n">
-        <v>7206213</v>
+        <v>7195761</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>10.61938690015722</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>187.1179779077658</v>
       </c>
       <c r="H215" t="n">
-        <v>5.37</v>
+        <v>0.99</v>
       </c>
       <c r="I215" t="n">
-        <v>710731</v>
+        <v>702862</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4758662</v>
+        <v>4789109</v>
       </c>
       <c r="F216" t="n">
-        <v>980.9485843717513</v>
+        <v>77.68665505314473</v>
       </c>
       <c r="G216" t="n">
-        <v>48.64157490159914</v>
+        <v>113.8257098513225</v>
       </c>
       <c r="H216" t="n">
-        <v>0.58</v>
+        <v>2.07</v>
       </c>
       <c r="I216" t="n">
-        <v>205699</v>
+        <v>238160</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2469551</v>
+        <v>2473292</v>
       </c>
       <c r="E217" t="n">
-        <v>4474056</v>
+        <v>4480833</v>
       </c>
       <c r="F217" t="n">
-        <v>597.9956092203918</v>
+        <v>605.702682680059</v>
       </c>
       <c r="G217" t="n">
-        <v>788.6960339734238</v>
+        <v>504.6489800797978</v>
       </c>
       <c r="H217" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I217" t="n">
-        <v>142446</v>
+        <v>141575</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125340738</v>
+        <v>123454323</v>
       </c>
       <c r="E218" t="n">
-        <v>2075745286</v>
+        <v>2044504694</v>
       </c>
       <c r="F218" t="n">
-        <v>14641.83887084916</v>
+        <v>12303.5418081084</v>
       </c>
       <c r="G218" t="n">
-        <v>12226.88826804891</v>
+        <v>10601.96132107399</v>
       </c>
       <c r="H218" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I218" t="n">
-        <v>5318925</v>
+        <v>12310034</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>108731031</v>
+        <v>105796066</v>
       </c>
       <c r="E219" t="n">
-        <v>109901447</v>
+        <v>106934885</v>
       </c>
       <c r="F219" t="n">
-        <v>6846.154909774785</v>
+        <v>15204.13153353428</v>
       </c>
       <c r="G219" t="n">
-        <v>24681.58201317138</v>
+        <v>18123.41419299903</v>
       </c>
       <c r="H219" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I219" t="n">
-        <v>71034773</v>
+        <v>79758018</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>254757322</v>
+        <v>249172535</v>
       </c>
       <c r="E220" t="n">
-        <v>254757322</v>
+        <v>249172535</v>
       </c>
       <c r="F220" t="n">
-        <v>70931.88102541892</v>
+        <v>69075.9441123237</v>
       </c>
       <c r="G220" t="n">
-        <v>70745.78821612409</v>
+        <v>52118.76510451672</v>
       </c>
       <c r="H220" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I220" t="n">
-        <v>58071283</v>
+        <v>71098659</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24445399</v>
+        <v>24228621</v>
       </c>
       <c r="E221" t="n">
-        <v>146261734</v>
+        <v>144964710</v>
       </c>
       <c r="F221" t="n">
-        <v>50203.18518271013</v>
+        <v>59969.66290553544</v>
       </c>
       <c r="G221" t="n">
-        <v>67649.14224113734</v>
+        <v>91894.05909518579</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>14582857</v>
+        <v>15776742</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1082738</v>
+        <v>1094916</v>
       </c>
       <c r="F222" t="n">
-        <v>234.8982059818644</v>
+        <v>74.31222155512016</v>
       </c>
       <c r="G222" t="n">
-        <v>11.73354243705036</v>
+        <v>80.45477932146062</v>
       </c>
       <c r="H222" t="n">
-        <v>3.35</v>
+        <v>2.1</v>
       </c>
       <c r="I222" t="n">
-        <v>78621</v>
+        <v>81594</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2175978</v>
+        <v>2183360</v>
       </c>
       <c r="F223" t="n">
-        <v>145.0512101203606</v>
+        <v>128.7940628935616</v>
       </c>
       <c r="G223" t="n">
-        <v>115.9553612062769</v>
+        <v>127.7425693422641</v>
       </c>
       <c r="H223" t="n">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="I223" t="n">
-        <v>175534</v>
+        <v>175482</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14470549</v>
+        <v>13932252</v>
       </c>
       <c r="E224" t="n">
-        <v>43734015</v>
+        <v>42107132</v>
       </c>
       <c r="F224" t="n">
-        <v>1132.922442833167</v>
+        <v>1533.462223891014</v>
       </c>
       <c r="G224" t="n">
-        <v>2124.169882626138</v>
+        <v>6288.465056626756</v>
       </c>
       <c r="H224" t="n">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="I224" t="n">
-        <v>2583950</v>
+        <v>2550240</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>55325838</v>
+        <v>53922993</v>
       </c>
       <c r="E225" t="n">
-        <v>95559749</v>
+        <v>93136732</v>
       </c>
       <c r="F225" t="n">
-        <v>13296.60712324749</v>
+        <v>6495.860401096888</v>
       </c>
       <c r="G225" t="n">
-        <v>14152.72460974854</v>
+        <v>7955.616554932052</v>
       </c>
       <c r="H225" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I225" t="n">
-        <v>2395268</v>
+        <v>2374647</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4262949</v>
+        <v>4221344</v>
       </c>
       <c r="E226" t="n">
-        <v>4262949</v>
+        <v>4221344</v>
       </c>
       <c r="F226" t="n">
-        <v>24.35214154095488</v>
+        <v>5.517275480978729</v>
       </c>
       <c r="G226" t="n">
-        <v>4.006805747645223</v>
+        <v>23.03211817658492</v>
       </c>
       <c r="H226" t="n">
-        <v>0.66</v>
+        <v>0.09</v>
       </c>
       <c r="I226" t="n">
-        <v>1752352</v>
+        <v>1754105</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211824</v>
+        <v>213224</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>56870</v>
+        <v>58317</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6909299</v>
+        <v>6525574</v>
       </c>
       <c r="E228" t="n">
-        <v>35546245</v>
+        <v>33572093</v>
       </c>
       <c r="F228" t="n">
-        <v>901.8149155403173</v>
+        <v>789.9375034577786</v>
       </c>
       <c r="G228" t="n">
-        <v>157.2429597414022</v>
+        <v>136.5615493449346</v>
       </c>
       <c r="H228" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I228" t="n">
-        <v>954048</v>
+        <v>958312</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176495200</v>
+        <v>176782215</v>
       </c>
       <c r="E230" t="n">
-        <v>206198508</v>
+        <v>206533826</v>
       </c>
       <c r="F230" t="n">
-        <v>16931.1384786544</v>
+        <v>24017.94231136812</v>
       </c>
       <c r="G230" t="n">
-        <v>56963.16462707747</v>
+        <v>77819.52539511128</v>
       </c>
       <c r="H230" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I230" t="n">
-        <v>4246301</v>
+        <v>4368807</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>305280</v>
+        <v>306524</v>
       </c>
       <c r="F231" t="n">
-        <v>101.2984659114938</v>
+        <v>3.791031630572099</v>
       </c>
       <c r="G231" t="n">
-        <v>30.14806136184519</v>
+        <v>483.5532413440932</v>
       </c>
       <c r="H231" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="I231" t="n">
-        <v>267716</v>
+        <v>258892</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29548500</v>
+        <v>29496292</v>
       </c>
       <c r="E232" t="n">
-        <v>40516160</v>
+        <v>40444573</v>
       </c>
       <c r="F232" t="n">
-        <v>5397.326527672472</v>
+        <v>4822.815138745086</v>
       </c>
       <c r="G232" t="n">
-        <v>6128.082974623503</v>
+        <v>6263.170646994515</v>
       </c>
       <c r="H232" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>241459</v>
+        <v>208405</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1187024</v>
+        <v>1126504</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>638613</v>
+        <v>562830</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7940090</v>
+        <v>7676283</v>
       </c>
       <c r="F234" t="n">
-        <v>635.1328686865372</v>
+        <v>5.133734797103974</v>
       </c>
       <c r="G234" t="n">
-        <v>3096.929406512028</v>
+        <v>957.0776655317728</v>
       </c>
       <c r="H234" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I234" t="n">
-        <v>540492</v>
+        <v>651686</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23530138</v>
+        <v>23368194</v>
       </c>
       <c r="E235" t="n">
-        <v>23530138</v>
+        <v>23368194</v>
       </c>
       <c r="F235" t="n">
-        <v>37925.66175754232</v>
+        <v>24876.02477887339</v>
       </c>
       <c r="G235" t="n">
-        <v>10987.15403990038</v>
+        <v>33650.12247433821</v>
       </c>
       <c r="H235" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="I235" t="n">
-        <v>2298123</v>
+        <v>2441690</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3396900</v>
+        <v>3449884</v>
       </c>
       <c r="E236" t="n">
-        <v>4550362</v>
+        <v>4621337</v>
       </c>
       <c r="F236" t="n">
-        <v>373.0670575187023</v>
+        <v>364.1567540324619</v>
       </c>
       <c r="G236" t="n">
-        <v>616.5107724349895</v>
+        <v>745.0750825415893</v>
       </c>
       <c r="H236" t="n">
-        <v>0.21</v>
+        <v>1.06</v>
       </c>
       <c r="I236" t="n">
-        <v>149132</v>
+        <v>149943</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33566826</v>
+        <v>33924700</v>
       </c>
       <c r="E237" t="n">
-        <v>167513937</v>
+        <v>169299890</v>
       </c>
       <c r="F237" t="n">
-        <v>181722.4394199093</v>
+        <v>126193.1444144673</v>
       </c>
       <c r="G237" t="n">
-        <v>108105.4728252225</v>
+        <v>99926.33935279622</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>12394663</v>
+        <v>13303074</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26654410</v>
+        <v>26681719</v>
       </c>
       <c r="E238" t="n">
-        <v>60088796</v>
+        <v>60150360</v>
       </c>
       <c r="F238" t="n">
-        <v>265.6195241013012</v>
+        <v>365.0198954319744</v>
       </c>
       <c r="G238" t="n">
-        <v>56.51294676990745</v>
+        <v>90.66481436066475</v>
       </c>
       <c r="H238" t="n">
-        <v>0.23</v>
+        <v>0.85</v>
       </c>
       <c r="I238" t="n">
-        <v>407599</v>
+        <v>408934</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1973857</v>
+        <v>1967018</v>
       </c>
       <c r="E239" t="n">
-        <v>1973857</v>
+        <v>1967018</v>
       </c>
       <c r="F239" t="n">
-        <v>196.1078882790554</v>
+        <v>181.6871310678446</v>
       </c>
       <c r="G239" t="n">
-        <v>77.78189660300315</v>
+        <v>53.27492354324746</v>
       </c>
       <c r="H239" t="n">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="I239" t="n">
-        <v>10130.57</v>
+        <v>9101.33</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71979235</v>
+        <v>72035380</v>
       </c>
       <c r="F240" t="n">
-        <v>359.2668563890012</v>
+        <v>375.9981009019973</v>
       </c>
       <c r="G240" t="n">
-        <v>6.188617131772141</v>
+        <v>6.188071692240453</v>
       </c>
       <c r="H240" t="n">
         <v>0.5</v>
       </c>
       <c r="I240" t="n">
-        <v>61062</v>
+        <v>61116</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>921420</v>
+        <v>905697</v>
       </c>
       <c r="E241" t="n">
-        <v>921420</v>
+        <v>905697</v>
       </c>
       <c r="F241" t="n">
-        <v>228.3994923910137</v>
+        <v>4.33010442400675</v>
       </c>
       <c r="G241" t="n">
-        <v>5.403895293924686</v>
+        <v>11.31823237475643</v>
       </c>
       <c r="H241" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>10995.89</v>
+        <v>11031.16</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>120440</v>
+        <v>121558</v>
       </c>
       <c r="E242" t="n">
-        <v>120440</v>
+        <v>121558</v>
       </c>
       <c r="F242" t="n">
-        <v>162.7337287245113</v>
+        <v>287.9330006122433</v>
       </c>
       <c r="G242" t="n">
-        <v>240.4125291346464</v>
+        <v>651.0913295132322</v>
       </c>
       <c r="H242" t="n">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="I242" t="n">
-        <v>38293</v>
+        <v>39117</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3505001</v>
+        <v>3503037</v>
       </c>
       <c r="E243" t="n">
-        <v>5034999</v>
+        <v>5032178</v>
       </c>
       <c r="F243" t="n">
-        <v>358.2694347955324</v>
+        <v>344.5686643349214</v>
       </c>
       <c r="G243" t="n">
-        <v>362.1080431701601</v>
+        <v>24.27899708956924</v>
       </c>
       <c r="H243" t="n">
-        <v>1.79</v>
+        <v>2.78</v>
       </c>
       <c r="I243" t="n">
-        <v>143914</v>
+        <v>144151</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>328224496</v>
+        <v>323261079</v>
       </c>
       <c r="E244" t="n">
-        <v>607290168</v>
+        <v>598106714</v>
       </c>
       <c r="F244" t="n">
-        <v>43487.09820935862</v>
+        <v>5517.229601962068</v>
       </c>
       <c r="G244" t="n">
-        <v>46886.15390946571</v>
+        <v>3190.480140130906</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I244" t="n">
-        <v>14106199</v>
+        <v>14764441</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72852201</v>
+        <v>72607006</v>
       </c>
       <c r="E245" t="n">
-        <v>694921194</v>
+        <v>692572595</v>
       </c>
       <c r="F245" t="n">
-        <v>49005.01017260484</v>
+        <v>70015.90029690765</v>
       </c>
       <c r="G245" t="n">
-        <v>53874.52538694581</v>
+        <v>61687.82789279754</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>21271766</v>
+        <v>22399366</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82173</v>
+        <v>83414</v>
       </c>
       <c r="E246" t="n">
-        <v>683119</v>
+        <v>693441</v>
       </c>
       <c r="F246" t="n">
-        <v>135.1705776394539</v>
+        <v>21.21856419422871</v>
       </c>
       <c r="G246" t="n">
-        <v>4.229231237080674</v>
+        <v>4.204068916264832</v>
       </c>
       <c r="H246" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="I246" t="n">
-        <v>150.04</v>
+        <v>118.12</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1922763</v>
+        <v>1882873</v>
       </c>
       <c r="E247" t="n">
-        <v>5491165</v>
+        <v>5377244</v>
       </c>
       <c r="F247" t="n">
-        <v>598.0270487562957</v>
+        <v>424.1392574656937</v>
       </c>
       <c r="G247" t="n">
-        <v>157.1655100501302</v>
+        <v>265.3980158424405</v>
       </c>
       <c r="H247" t="n">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="I247" t="n">
-        <v>77811</v>
+        <v>79097</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38593769</v>
+        <v>37769975</v>
       </c>
       <c r="E248" t="n">
-        <v>50456271</v>
+        <v>49379024</v>
       </c>
       <c r="F248" t="n">
-        <v>710.5280649017982</v>
+        <v>306.7612967245</v>
       </c>
       <c r="G248" t="n">
-        <v>4315.523154956946</v>
+        <v>2925.327574992292</v>
       </c>
       <c r="H248" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="I248" t="n">
-        <v>381164</v>
+        <v>330172</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10951836</v>
+        <v>9772680</v>
       </c>
       <c r="E249" t="n">
-        <v>32483601</v>
+        <v>28971485</v>
       </c>
       <c r="F249" t="n">
-        <v>1068.352589873764</v>
+        <v>433.026673521832</v>
       </c>
       <c r="G249" t="n">
-        <v>1619.979429437983</v>
+        <v>1263.087945325528</v>
       </c>
       <c r="H249" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I249" t="n">
-        <v>5993330</v>
+        <v>6132985</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2005138</v>
+        <v>2020542</v>
       </c>
       <c r="E250" t="n">
-        <v>5800365</v>
+        <v>5844927</v>
       </c>
       <c r="F250" t="n">
-        <v>82.43005531008275</v>
+        <v>107.79782260042</v>
       </c>
       <c r="G250" t="n">
-        <v>82.45419159689027</v>
+        <v>161.3858223818775</v>
       </c>
       <c r="H250" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I250" t="n">
-        <v>53968</v>
+        <v>53775</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7444968</v>
+        <v>7347104</v>
       </c>
       <c r="E251" t="n">
-        <v>7444979</v>
+        <v>7347115</v>
       </c>
       <c r="F251" t="n">
-        <v>1718.538336079808</v>
+        <v>710.230626167113</v>
       </c>
       <c r="G251" t="n">
-        <v>1086.350644724647</v>
+        <v>954.2788879776955</v>
       </c>
       <c r="H251" t="n">
-        <v>0.72</v>
+        <v>1.7</v>
       </c>
       <c r="I251" t="n">
-        <v>265068</v>
+        <v>279556</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6538379</v>
+        <v>6280114</v>
       </c>
       <c r="E252" t="n">
-        <v>6538379</v>
+        <v>6280114</v>
       </c>
       <c r="F252" t="n">
-        <v>409.2253712615902</v>
+        <v>273.8778950756064</v>
       </c>
       <c r="G252" t="n">
-        <v>1401.791888646377</v>
+        <v>267.4625513575695</v>
       </c>
       <c r="H252" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I252" t="n">
-        <v>513208</v>
+        <v>510552</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6284901</v>
+        <v>6274901</v>
       </c>
       <c r="E253" t="n">
-        <v>22956311</v>
+        <v>22919786</v>
       </c>
       <c r="F253" t="n">
-        <v>4732.428924728365</v>
+        <v>4799.128898363928</v>
       </c>
       <c r="G253" t="n">
-        <v>6.451743948826838</v>
+        <v>241.7131288002678</v>
       </c>
       <c r="H253" t="n">
-        <v>2.75</v>
+        <v>1.22</v>
       </c>
       <c r="I253" t="n">
-        <v>603168</v>
+        <v>503119</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2304212</v>
+        <v>2267446</v>
       </c>
       <c r="E254" t="n">
-        <v>20324677</v>
+        <v>20000378</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>2794.007014735676</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1798.314801468716</v>
       </c>
       <c r="H254" t="n">
-        <v>4.61</v>
+        <v>0.45</v>
       </c>
       <c r="I254" t="n">
-        <v>99978</v>
+        <v>48356</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14616618</v>
+        <v>14548386</v>
       </c>
       <c r="E255" t="n">
-        <v>29590451</v>
+        <v>29452319</v>
       </c>
       <c r="F255" t="n">
-        <v>96.20757751124142</v>
+        <v>125.6813152516097</v>
       </c>
       <c r="G255" t="n">
-        <v>449.2368311399714</v>
+        <v>302.277184675506</v>
       </c>
       <c r="H255" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="I255" t="n">
-        <v>540924</v>
+        <v>546167</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45142911</v>
+        <v>45364491</v>
       </c>
       <c r="E256" t="n">
-        <v>45142911</v>
+        <v>45364491</v>
       </c>
       <c r="F256" t="n">
-        <v>5801.450551754179</v>
+        <v>6533.978663844245</v>
       </c>
       <c r="G256" t="n">
-        <v>1882.498329218698</v>
+        <v>4077.748955786292</v>
       </c>
       <c r="H256" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I256" t="n">
-        <v>9533656</v>
+        <v>10081237</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8273414</v>
+        <v>8089614</v>
       </c>
       <c r="E257" t="n">
-        <v>11787719</v>
+        <v>11525846</v>
       </c>
       <c r="F257" t="n">
-        <v>52.46541785877353</v>
+        <v>30.53771675096208</v>
       </c>
       <c r="G257" t="n">
-        <v>436.1824335315856</v>
+        <v>39.241531961939</v>
       </c>
       <c r="H257" t="n">
         <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>370149</v>
+        <v>381141</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>142954073</v>
+        <v>144297214</v>
       </c>
       <c r="F258" t="n">
-        <v>442.2856112034812</v>
+        <v>209.0900684744608</v>
       </c>
       <c r="G258" t="n">
-        <v>291.6846491588962</v>
+        <v>26.85842042575448</v>
       </c>
       <c r="H258" t="n">
-        <v>1.82</v>
+        <v>3.38</v>
       </c>
       <c r="I258" t="n">
-        <v>1952746</v>
+        <v>1930318</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16306118</v>
+        <v>16295388</v>
       </c>
       <c r="F259" t="n">
-        <v>113.7610536388443</v>
+        <v>120.8710774412978</v>
       </c>
       <c r="G259" t="n">
-        <v>103.2760175039073</v>
+        <v>114.3884240841196</v>
       </c>
       <c r="H259" t="n">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="I259" t="n">
-        <v>1052936</v>
+        <v>1059044</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>722159</v>
+        <v>724922</v>
       </c>
       <c r="F260" t="n">
-        <v>10.00032338041962</v>
+        <v>9.999501489949843</v>
       </c>
       <c r="G260" t="n">
-        <v>102.0010175529676</v>
+        <v>31.90779692736348</v>
       </c>
       <c r="H260" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="I260" t="n">
-        <v>211467</v>
+        <v>208681</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3014837</v>
+        <v>2998665</v>
       </c>
       <c r="F261" t="n">
-        <v>60.88918871592761</v>
+        <v>143.2784694931167</v>
       </c>
       <c r="G261" t="n">
-        <v>47.07617095212391</v>
+        <v>47.46642192139093</v>
       </c>
       <c r="H261" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="I261" t="n">
-        <v>74997</v>
+        <v>74171</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2912026</v>
+        <v>2919344</v>
       </c>
       <c r="E262" t="n">
-        <v>2914549</v>
+        <v>2921873</v>
       </c>
       <c r="F262" t="n">
-        <v>3.905014609224955</v>
+        <v>5.367883513882266</v>
       </c>
       <c r="G262" t="n">
-        <v>386.9242462267464</v>
+        <v>548.311747352445</v>
       </c>
       <c r="H262" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>104103</v>
+        <v>90676</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>76041060</v>
+        <v>75196333</v>
       </c>
       <c r="E263" t="n">
-        <v>105286587</v>
+        <v>104120308</v>
       </c>
       <c r="F263" t="n">
-        <v>8492.872787104794</v>
+        <v>8457.268304144431</v>
       </c>
       <c r="G263" t="n">
-        <v>7357.500670332092</v>
+        <v>7530.699894266172</v>
       </c>
       <c r="H263" t="n">
         <v>0.15</v>
       </c>
       <c r="I263" t="n">
-        <v>7293050</v>
+        <v>7226184</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>645419</v>
+        <v>630717</v>
       </c>
       <c r="F264" t="n">
-        <v>97.37779284145708</v>
+        <v>132.8381203120836</v>
       </c>
       <c r="G264" t="n">
-        <v>105.6478711461701</v>
+        <v>126.8733995731237</v>
       </c>
       <c r="H264" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="I264" t="n">
-        <v>684176</v>
+        <v>662346</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1290074</v>
+        <v>1303120</v>
       </c>
       <c r="E265" t="n">
-        <v>3901416</v>
+        <v>3942998</v>
       </c>
       <c r="F265" t="n">
-        <v>765.4314528067075</v>
+        <v>793.7711964299316</v>
       </c>
       <c r="G265" t="n">
-        <v>371.0939907835441</v>
+        <v>607.1689029437553</v>
       </c>
       <c r="H265" t="n">
         <v>0.76</v>
       </c>
       <c r="I265" t="n">
-        <v>34371</v>
+        <v>30226</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38964697</v>
+        <v>34480735</v>
       </c>
       <c r="E266" t="n">
-        <v>276253346</v>
+        <v>244462788</v>
       </c>
       <c r="F266" t="n">
-        <v>24174.17215205938</v>
+        <v>5557.081761615212</v>
       </c>
       <c r="G266" t="n">
-        <v>522.9021486180029</v>
+        <v>15720.89906041342</v>
       </c>
       <c r="H266" t="n">
-        <v>0.23</v>
+        <v>0.53</v>
       </c>
       <c r="I266" t="n">
-        <v>2340896</v>
+        <v>3811875</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>63913</v>
+        <v>59640</v>
       </c>
       <c r="E267" t="n">
-        <v>333471</v>
+        <v>311176</v>
       </c>
       <c r="F267" t="n">
-        <v>37.30302820092741</v>
+        <v>4.099810058953571</v>
       </c>
       <c r="G267" t="n">
-        <v>6.501058658482893</v>
+        <v>3.908669888989463</v>
       </c>
       <c r="H267" t="n">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
       <c r="I267" t="n">
-        <v>225627</v>
+        <v>218449</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1313067</v>
+        <v>1290076</v>
       </c>
       <c r="E268" t="n">
-        <v>8142975</v>
+        <v>8000395</v>
       </c>
       <c r="F268" t="n">
-        <v>1445.857377321181</v>
+        <v>1007.919096293399</v>
       </c>
       <c r="G268" t="n">
-        <v>2705.001181351727</v>
+        <v>1183.739641977277</v>
       </c>
       <c r="H268" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="I268" t="n">
-        <v>797088</v>
+        <v>800362</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>614991370</v>
+        <v>606544836</v>
       </c>
       <c r="E269" t="n">
-        <v>2381770842</v>
+        <v>2349058660</v>
       </c>
       <c r="F269" t="n">
-        <v>211094.5545520632</v>
+        <v>205293.7891216635</v>
       </c>
       <c r="G269" t="n">
-        <v>296385.8658894108</v>
+        <v>272483.8401778283</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>44379456</v>
+        <v>52489674</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3373497</v>
+        <v>3384847</v>
       </c>
       <c r="F270" t="n">
-        <v>138.2132976044264</v>
+        <v>183.9041533390036</v>
       </c>
       <c r="G270" t="n">
-        <v>289.8954846947552</v>
+        <v>155.4583429746228</v>
       </c>
       <c r="H270" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I270" t="n">
-        <v>37432</v>
+        <v>37962</v>
       </c>
     </row>
     <row r="271">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>805111</v>
+        <v>807111</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>12.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I271" t="n">
-        <v>175907</v>
+        <v>174137</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5597854</v>
+        <v>5474284</v>
       </c>
       <c r="E272" t="n">
-        <v>25058396</v>
+        <v>24505244</v>
       </c>
       <c r="F272" t="n">
-        <v>713.6253316389065</v>
+        <v>1811.915730944301</v>
       </c>
       <c r="G272" t="n">
-        <v>153.6730225632093</v>
+        <v>112.3194095606818</v>
       </c>
       <c r="H272" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="I272" t="n">
-        <v>162890</v>
+        <v>180921</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6620287</v>
+        <v>6657249</v>
       </c>
       <c r="E273" t="n">
-        <v>12675077</v>
+        <v>12745844</v>
       </c>
       <c r="F273" t="n">
-        <v>5124.020345593009</v>
+        <v>43.14080348825591</v>
       </c>
       <c r="G273" t="n">
-        <v>3983.078855619398</v>
+        <v>11.79356654255492</v>
       </c>
       <c r="H273" t="n">
-        <v>0.98</v>
+        <v>2.09</v>
       </c>
       <c r="I273" t="n">
-        <v>54314</v>
+        <v>34306</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3204530</v>
+        <v>3191068</v>
       </c>
       <c r="E274" t="n">
-        <v>21072245</v>
+        <v>20983722</v>
       </c>
       <c r="F274" t="n">
-        <v>307.7871067880238</v>
+        <v>301.1400098057986</v>
       </c>
       <c r="G274" t="n">
-        <v>180.3935968263489</v>
+        <v>142.9903650980595</v>
       </c>
       <c r="H274" t="n">
-        <v>0.9</v>
+        <v>0.11</v>
       </c>
       <c r="I274" t="n">
-        <v>1593542</v>
+        <v>1622755</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3707151</v>
+        <v>3701323</v>
       </c>
       <c r="E275" t="n">
-        <v>6319342</v>
+        <v>6309407</v>
       </c>
       <c r="F275" t="n">
-        <v>480.6002869011531</v>
+        <v>946.0956890286787</v>
       </c>
       <c r="G275" t="n">
-        <v>510.4651276642477</v>
+        <v>443.4190526268626</v>
       </c>
       <c r="H275" t="n">
         <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1286670</v>
+        <v>1224910</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>433833</v>
+        <v>435937</v>
       </c>
       <c r="E276" t="n">
-        <v>433833</v>
+        <v>435937</v>
       </c>
       <c r="F276" t="n">
-        <v>5.323042123537214</v>
+        <v>5.390501889461381</v>
       </c>
       <c r="G276" t="n">
-        <v>3.94430218740181</v>
+        <v>2.75063346034585</v>
       </c>
       <c r="H276" t="n">
         <v>0.19</v>
       </c>
       <c r="I276" t="n">
-        <v>110.54</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7746112</v>
+        <v>7613179</v>
       </c>
       <c r="E277" t="n">
-        <v>11098071</v>
+        <v>10907552</v>
       </c>
       <c r="F277" t="n">
-        <v>1504.571371810025</v>
+        <v>592.1753783204668</v>
       </c>
       <c r="G277" t="n">
-        <v>787.1167837650528</v>
+        <v>824.0783072153813</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>201627</v>
+        <v>189339</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>115530057</v>
+        <v>114760483</v>
       </c>
       <c r="E278" t="n">
-        <v>1073423122</v>
+        <v>1066272788</v>
       </c>
       <c r="F278" t="n">
-        <v>5004.388829098363</v>
+        <v>16031.00910370714</v>
       </c>
       <c r="G278" t="n">
-        <v>5696.895373432761</v>
+        <v>14784.42818697515</v>
       </c>
       <c r="H278" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I278" t="n">
-        <v>12701019</v>
+        <v>14682591</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>109926735</v>
+        <v>102476292</v>
       </c>
       <c r="E279" t="n">
-        <v>167695811</v>
+        <v>156329985</v>
       </c>
       <c r="F279" t="n">
-        <v>39635.67563478438</v>
+        <v>28781.18215388017</v>
       </c>
       <c r="G279" t="n">
-        <v>40718.21320431151</v>
+        <v>21254.96061695827</v>
       </c>
       <c r="H279" t="n">
         <v>0.33</v>
       </c>
       <c r="I279" t="n">
-        <v>9527395</v>
+        <v>10608180</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16880536</v>
+        <v>16760315</v>
       </c>
       <c r="E280" t="n">
-        <v>23158633</v>
+        <v>22993701</v>
       </c>
       <c r="F280" t="n">
-        <v>473.2198359436953</v>
+        <v>4134.460340445529</v>
       </c>
       <c r="G280" t="n">
-        <v>2937.482248042927</v>
+        <v>3686.448006430631</v>
       </c>
       <c r="H280" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I280" t="n">
-        <v>781750</v>
+        <v>517059</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5756558</v>
+        <v>5535869</v>
       </c>
       <c r="E281" t="n">
-        <v>5756558</v>
+        <v>5535869</v>
       </c>
       <c r="F281" t="n">
-        <v>54.14810699895433</v>
+        <v>24.42145606500637</v>
       </c>
       <c r="G281" t="n">
-        <v>2006.63607009159</v>
+        <v>221.5502475635062</v>
       </c>
       <c r="H281" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="I281" t="n">
-        <v>704353</v>
+        <v>707131</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>125935566</v>
+        <v>125937067</v>
       </c>
       <c r="E282" t="n">
-        <v>483109101</v>
+        <v>483114860</v>
       </c>
       <c r="F282" t="n">
-        <v>40757.34348498343</v>
+        <v>56736.05750780171</v>
       </c>
       <c r="G282" t="n">
-        <v>51205.57346429789</v>
+        <v>61132.24106626814</v>
       </c>
       <c r="H282" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I282" t="n">
-        <v>38943335</v>
+        <v>40778724</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>671353</v>
+        <v>663508</v>
       </c>
       <c r="F283" t="n">
-        <v>10.92473892943543</v>
+        <v>3.967965243837982</v>
       </c>
       <c r="G283" t="n">
-        <v>3.920199081335945</v>
+        <v>6.447845375596335</v>
       </c>
       <c r="H283" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="I283" t="n">
-        <v>43163</v>
+        <v>41244</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3247833</v>
+        <v>3172187</v>
       </c>
       <c r="E284" t="n">
-        <v>30773700</v>
+        <v>30056945</v>
       </c>
       <c r="F284" t="n">
-        <v>1376.284447401515</v>
+        <v>1007.116937773848</v>
       </c>
       <c r="G284" t="n">
-        <v>454.4304306655238</v>
+        <v>358.4179717108258</v>
       </c>
       <c r="H284" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>202106</v>
+        <v>205251</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93791</v>
+        <v>94349</v>
       </c>
       <c r="F285" t="n">
-        <v>1249.682294179535</v>
+        <v>1437.653687991248</v>
       </c>
       <c r="G285" t="n">
-        <v>123.4674988052255</v>
+        <v>123.675682264601</v>
       </c>
       <c r="H285" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="I285" t="n">
-        <v>44386</v>
+        <v>49401</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>130381</v>
+        <v>130291</v>
       </c>
       <c r="F286" t="n">
-        <v>4.021326158249084</v>
+        <v>4.020974287885015</v>
       </c>
       <c r="G286" t="n">
-        <v>3.952874221632522</v>
+        <v>3.952528340886532</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>69184</v>
+        <v>68346</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22273083</v>
+        <v>21886008</v>
       </c>
       <c r="E287" t="n">
-        <v>22273083</v>
+        <v>21886008</v>
       </c>
       <c r="F287" t="n">
-        <v>1416.531003841982</v>
+        <v>1852.089964686568</v>
       </c>
       <c r="G287" t="n">
-        <v>3173.841368017216</v>
+        <v>1764.298320815607</v>
       </c>
       <c r="H287" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I287" t="n">
-        <v>570242</v>
+        <v>541667</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>571459</v>
+        <v>564142</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>7710.73</v>
+        <v>7873.17</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6789068</v>
+        <v>6795443</v>
       </c>
       <c r="E289" t="n">
-        <v>42429735</v>
+        <v>42469573</v>
       </c>
       <c r="F289" t="n">
-        <v>841.9421698227658</v>
+        <v>1086.249212069867</v>
       </c>
       <c r="G289" t="n">
-        <v>351.8540182173716</v>
+        <v>340.9909022066128</v>
       </c>
       <c r="H289" t="n">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="I289" t="n">
-        <v>412185</v>
+        <v>411435</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>492370931</v>
+        <v>495339015</v>
       </c>
       <c r="E290" t="n">
-        <v>492370931</v>
+        <v>495339015</v>
       </c>
       <c r="F290" t="n">
-        <v>1055292.376177347</v>
+        <v>961001.3461101296</v>
       </c>
       <c r="G290" t="n">
-        <v>1362316.676620546</v>
+        <v>1701982.004899826</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>35434646</v>
+        <v>39417087</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5295796</v>
+        <v>5119926</v>
       </c>
       <c r="E291" t="n">
-        <v>19679278</v>
+        <v>19025740</v>
       </c>
       <c r="F291" t="n">
-        <v>794.6402543514635</v>
+        <v>445.5392684226977</v>
       </c>
       <c r="G291" t="n">
-        <v>7254.038350665763</v>
+        <v>626.3488224545165</v>
       </c>
       <c r="H291" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I291" t="n">
-        <v>78737</v>
+        <v>85003</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>36083741</v>
+        <v>35447030</v>
       </c>
       <c r="F292" t="n">
-        <v>3711.470498323491</v>
+        <v>3557.881610058354</v>
       </c>
       <c r="G292" t="n">
-        <v>5065.591023082223</v>
+        <v>15697.09911303844</v>
       </c>
       <c r="H292" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I292" t="n">
-        <v>6461184</v>
+        <v>7197933</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31479003</v>
+        <v>31464423</v>
       </c>
       <c r="E293" t="n">
-        <v>112832086</v>
+        <v>112779826</v>
       </c>
       <c r="F293" t="n">
-        <v>2125.793089752057</v>
+        <v>2125.815990442824</v>
       </c>
       <c r="G293" t="n">
-        <v>3854.90965537982</v>
+        <v>3878.353226083089</v>
       </c>
       <c r="H293" t="n">
         <v>0.82</v>
       </c>
       <c r="I293" t="n">
-        <v>76287</v>
+        <v>75390</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>792545</v>
+        <v>819335</v>
       </c>
       <c r="E294" t="n">
-        <v>12640811</v>
+        <v>13068109</v>
       </c>
       <c r="F294" t="n">
-        <v>19.03684586220824</v>
+        <v>19.03527289882641</v>
       </c>
       <c r="G294" t="n">
-        <v>7.747099393150154</v>
+        <v>7.746459271159932</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>328577</v>
+        <v>328937</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>82680</v>
+        <v>82647</v>
       </c>
       <c r="F295" t="n">
-        <v>25.41707153397074</v>
+        <v>25.4146196135221</v>
       </c>
       <c r="G295" t="n">
-        <v>301.6487616920737</v>
+        <v>220.9247472224218</v>
       </c>
       <c r="H295" t="n">
         <v>0.36</v>
       </c>
       <c r="I295" t="n">
-        <v>53137</v>
+        <v>53599</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1541956</v>
+        <v>1537206</v>
       </c>
       <c r="F296" t="n">
-        <v>4.918345478799428</v>
+        <v>4.859198093271595</v>
       </c>
       <c r="G296" t="n">
-        <v>6.374276263593994</v>
+        <v>7.279367867343495</v>
       </c>
       <c r="H296" t="n">
         <v>0.13</v>
       </c>
       <c r="I296" t="n">
-        <v>597376</v>
+        <v>602885</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2686132935</v>
+        <v>2684061714</v>
       </c>
       <c r="E297" t="n">
-        <v>2851974237</v>
+        <v>2849775140</v>
       </c>
       <c r="F297" t="n">
-        <v>29847.82208283439</v>
+        <v>19780.95066817352</v>
       </c>
       <c r="G297" t="n">
-        <v>54322.71187237502</v>
+        <v>39466.50743502208</v>
       </c>
       <c r="H297" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I297" t="n">
-        <v>49339926</v>
+        <v>51371318</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2190530</v>
+        <v>2141194</v>
       </c>
       <c r="E298" t="n">
-        <v>16848937</v>
+        <v>16469460</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>50.54901035320284</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>10.00062671881431</v>
       </c>
       <c r="H298" t="n">
-        <v>6.07</v>
+        <v>2.32</v>
       </c>
       <c r="I298" t="n">
-        <v>221153</v>
+        <v>209221</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1764319</v>
+        <v>1742759</v>
       </c>
       <c r="E299" t="n">
-        <v>1770547</v>
+        <v>1748911</v>
       </c>
       <c r="F299" t="n">
-        <v>403.0426435036024</v>
+        <v>896.4470954802014</v>
       </c>
       <c r="G299" t="n">
-        <v>1853.487551306963</v>
+        <v>1596.679054916497</v>
       </c>
       <c r="H299" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="I299" t="n">
-        <v>450763</v>
+        <v>432132</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88899590</v>
+        <v>88925713</v>
       </c>
       <c r="E300" t="n">
-        <v>328615497</v>
+        <v>328710443</v>
       </c>
       <c r="F300" t="n">
-        <v>4300.330111559392</v>
+        <v>3069.362080553326</v>
       </c>
       <c r="G300" t="n">
-        <v>5492.550804361225</v>
+        <v>14026.04361504096</v>
       </c>
       <c r="H300" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="I300" t="n">
-        <v>178826</v>
+        <v>206982</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2146387</v>
+        <v>2186359</v>
       </c>
       <c r="E301" t="n">
-        <v>8604538</v>
+        <v>8764781</v>
       </c>
       <c r="F301" t="n">
-        <v>79.49789285802419</v>
+        <v>78.52743137919096</v>
       </c>
       <c r="G301" t="n">
-        <v>4.162042176993848</v>
+        <v>4.161720465575327</v>
       </c>
       <c r="H301" t="n">
         <v>0.57</v>
       </c>
       <c r="I301" t="n">
-        <v>14961.85</v>
+        <v>14500.12</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60563057</v>
+        <v>62532958</v>
       </c>
       <c r="E302" t="n">
-        <v>148557073</v>
+        <v>153389107</v>
       </c>
       <c r="F302" t="n">
-        <v>2101.485046222243</v>
+        <v>759.5597902443666</v>
       </c>
       <c r="G302" t="n">
-        <v>2921.256260498199</v>
+        <v>2615.59266641451</v>
       </c>
       <c r="H302" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="I302" t="n">
-        <v>22165092</v>
+        <v>22255210</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>818509876</v>
+        <v>817911179</v>
       </c>
       <c r="E303" t="n">
-        <v>1262214496</v>
+        <v>1261291253</v>
       </c>
       <c r="F303" t="n">
-        <v>22977.62016467542</v>
+        <v>10913.85968276154</v>
       </c>
       <c r="G303" t="n">
-        <v>44624.29698989488</v>
+        <v>26769.96074393147</v>
       </c>
       <c r="H303" t="n">
-        <v>0.15</v>
+        <v>0.83</v>
       </c>
       <c r="I303" t="n">
-        <v>312275243</v>
+        <v>333654058</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>21713596</v>
+        <v>21663816</v>
       </c>
       <c r="E304" t="n">
-        <v>21713596</v>
+        <v>21663816</v>
       </c>
       <c r="F304" t="n">
-        <v>2006.064374006962</v>
+        <v>2306.826783315887</v>
       </c>
       <c r="G304" t="n">
-        <v>3265.676076637797</v>
+        <v>27620.45345932438</v>
       </c>
       <c r="H304" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I304" t="n">
-        <v>7230596</v>
+        <v>7320334</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2006967</v>
+        <v>2041272</v>
       </c>
       <c r="E305" t="n">
-        <v>3293092</v>
+        <v>3349381</v>
       </c>
       <c r="F305" t="n">
-        <v>909.9077695388133</v>
+        <v>519.2021607017409</v>
       </c>
       <c r="G305" t="n">
-        <v>5.096744500827909</v>
+        <v>12.24383579878837</v>
       </c>
       <c r="H305" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I305" t="n">
-        <v>161936</v>
+        <v>161684</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5889826</v>
+        <v>5889233</v>
       </c>
       <c r="E306" t="n">
-        <v>5889826</v>
+        <v>5889233</v>
       </c>
       <c r="F306" t="n">
-        <v>41.86402317716733</v>
+        <v>41.91867184453904</v>
       </c>
       <c r="G306" t="n">
-        <v>5.306734705503896</v>
+        <v>5.439888116125623</v>
       </c>
       <c r="H306" t="n">
         <v>0.33</v>
       </c>
       <c r="I306" t="n">
-        <v>364.3</v>
+        <v>353.83</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39796572</v>
+        <v>39882473</v>
       </c>
       <c r="E307" t="n">
-        <v>189788729</v>
+        <v>190197014</v>
       </c>
       <c r="F307" t="n">
-        <v>1088.086077511306</v>
+        <v>1082.515834631027</v>
       </c>
       <c r="G307" t="n">
-        <v>135.3800360277862</v>
+        <v>253.7888201546258</v>
       </c>
       <c r="H307" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
       <c r="I307" t="n">
-        <v>270588</v>
+        <v>270579</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>394760</v>
+        <v>386830</v>
       </c>
       <c r="E308" t="n">
-        <v>738313</v>
+        <v>723481</v>
       </c>
       <c r="F308" t="n">
-        <v>31.61844706113361</v>
+        <v>96.21060042914658</v>
       </c>
       <c r="G308" t="n">
-        <v>697.7421975493863</v>
+        <v>161.1065239029045</v>
       </c>
       <c r="H308" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I308" t="n">
-        <v>2205.5</v>
+        <v>2293.08</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23103000</v>
+        <v>23321039</v>
       </c>
       <c r="E309" t="n">
-        <v>38504999</v>
+        <v>38868398</v>
       </c>
       <c r="F309" t="n">
-        <v>4637.910090485425</v>
+        <v>3508.046923143542</v>
       </c>
       <c r="G309" t="n">
-        <v>2395.169241183216</v>
+        <v>2891.005835211772</v>
       </c>
       <c r="H309" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>401898</v>
+        <v>498762</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107867</v>
+        <v>107936</v>
       </c>
       <c r="F310" t="n">
-        <v>15.4211612511997</v>
+        <v>15.37986153587493</v>
       </c>
       <c r="G310" t="n">
-        <v>66.55288668279663</v>
+        <v>66.52670458967056</v>
       </c>
       <c r="H310" t="n">
         <v>0.09</v>
       </c>
       <c r="I310" t="n">
-        <v>53133</v>
+        <v>53558</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>24007333</v>
+        <v>23241570</v>
       </c>
       <c r="E311" t="n">
-        <v>24007333</v>
+        <v>23241570</v>
       </c>
       <c r="F311" t="n">
-        <v>4737.440864259604</v>
+        <v>3356.587763049558</v>
       </c>
       <c r="G311" t="n">
-        <v>6995.232549724169</v>
+        <v>2989.967955559628</v>
       </c>
       <c r="H311" t="n">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="I311" t="n">
-        <v>5272278</v>
+        <v>5552882</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3825997</v>
+        <v>3811881</v>
       </c>
       <c r="E312" t="n">
-        <v>8340137</v>
+        <v>8309367</v>
       </c>
       <c r="F312" t="n">
-        <v>1911.882951972043</v>
+        <v>1798.814941197782</v>
       </c>
       <c r="G312" t="n">
-        <v>1794.454913302586</v>
+        <v>1815.169129615219</v>
       </c>
       <c r="H312" t="n">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1792767</v>
+        <v>1820804</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9241638</v>
+        <v>9245331</v>
       </c>
       <c r="E313" t="n">
-        <v>9241638</v>
+        <v>9245331</v>
       </c>
       <c r="F313" t="n">
-        <v>15944.5565921787</v>
+        <v>15431.15816009731</v>
       </c>
       <c r="G313" t="n">
-        <v>113424.9895293804</v>
+        <v>113502.9997383009</v>
       </c>
       <c r="H313" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I313" t="n">
-        <v>3877026</v>
+        <v>4750527</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>498142154</v>
+        <v>494947356</v>
       </c>
       <c r="E314" t="n">
-        <v>1733991379</v>
+        <v>1722870554</v>
       </c>
       <c r="F314" t="n">
-        <v>368942.9674721191</v>
+        <v>452374.2871375165</v>
       </c>
       <c r="G314" t="n">
-        <v>495041.6037665648</v>
+        <v>481805.2058938215</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>39180813</v>
+        <v>42902942</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22316125</v>
+        <v>22429774</v>
       </c>
       <c r="E315" t="n">
-        <v>22296740</v>
+        <v>22410291</v>
       </c>
       <c r="F315" t="n">
-        <v>134.0309913408587</v>
+        <v>261.0022361601089</v>
       </c>
       <c r="G315" t="n">
-        <v>852.1594194411151</v>
+        <v>805.8803998051285</v>
       </c>
       <c r="H315" t="n">
-        <v>0.79</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I315" t="n">
-        <v>398837</v>
+        <v>404877</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>49563957</v>
+        <v>49467872</v>
       </c>
       <c r="E316" t="n">
-        <v>122008449</v>
+        <v>121771928</v>
       </c>
       <c r="F316" t="n">
-        <v>1125.589404727077</v>
+        <v>1173.172970797433</v>
       </c>
       <c r="G316" t="n">
-        <v>1695.698349164649</v>
+        <v>1624.866059936388</v>
       </c>
       <c r="H316" t="n">
         <v>0.16</v>
       </c>
       <c r="I316" t="n">
-        <v>38677</v>
+        <v>148070</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11977823</v>
+        <v>11902934</v>
       </c>
       <c r="E317" t="n">
-        <v>24195445</v>
+        <v>24040204</v>
       </c>
       <c r="F317" t="n">
-        <v>165.7004208127329</v>
+        <v>166.2662669530706</v>
       </c>
       <c r="G317" t="n">
-        <v>304.1854463125744</v>
+        <v>1839.99665128983</v>
       </c>
       <c r="H317" t="n">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="I317" t="n">
-        <v>59762</v>
+        <v>56065</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7505665</v>
+        <v>7297289</v>
       </c>
       <c r="E318" t="n">
-        <v>19498911</v>
+        <v>18957572</v>
       </c>
       <c r="F318" t="n">
-        <v>139.241480523733</v>
+        <v>537.490040478924</v>
       </c>
       <c r="G318" t="n">
-        <v>129.3985554865897</v>
+        <v>159.6691345136067</v>
       </c>
       <c r="H318" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I318" t="n">
-        <v>729150</v>
+        <v>734781</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>148036</v>
+        <v>148450</v>
       </c>
       <c r="F319" t="n">
-        <v>177.4878358568491</v>
+        <v>177.4616118055201</v>
       </c>
       <c r="G319" t="n">
-        <v>303.6776440420718</v>
+        <v>303.6539234218861</v>
       </c>
       <c r="H319" t="n">
         <v>0.19</v>
       </c>
       <c r="I319" t="n">
-        <v>54316</v>
+        <v>55340</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19086710903</v>
+        <v>19126485753</v>
       </c>
       <c r="F320" t="n">
-        <v>51936.1393187811</v>
+        <v>669.5198389772614</v>
       </c>
       <c r="G320" t="n">
-        <v>49863.88054844319</v>
+        <v>15138.18209978941</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>1.69</v>
       </c>
       <c r="I320" t="n">
-        <v>43968315</v>
+        <v>42607775</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>109292595</v>
+        <v>106625174</v>
       </c>
       <c r="E321" t="n">
-        <v>165590910</v>
+        <v>161549458</v>
       </c>
       <c r="F321" t="n">
-        <v>15824.18951435479</v>
+        <v>12267.53528110339</v>
       </c>
       <c r="G321" t="n">
-        <v>20056.26826352076</v>
+        <v>14573.61728240548</v>
       </c>
       <c r="H321" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="I321" t="n">
-        <v>9111840</v>
+        <v>9489059</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2628252</v>
+        <v>2572400</v>
       </c>
       <c r="E322" t="n">
-        <v>10513007</v>
+        <v>10289601</v>
       </c>
       <c r="F322" t="n">
-        <v>4272.537918939815</v>
+        <v>7991.592143587024</v>
       </c>
       <c r="G322" t="n">
-        <v>37179.05296182774</v>
+        <v>4771.578595022565</v>
       </c>
       <c r="H322" t="n">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="I322" t="n">
-        <v>7050866</v>
+        <v>7111796</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>226825438</v>
+        <v>221184646</v>
       </c>
       <c r="E323" t="n">
-        <v>697402861</v>
+        <v>680059549</v>
       </c>
       <c r="F323" t="n">
-        <v>53167.61147213259</v>
+        <v>126202.0449567715</v>
       </c>
       <c r="G323" t="n">
-        <v>99412.57876726538</v>
+        <v>144758.9299244474</v>
       </c>
       <c r="H323" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I323" t="n">
-        <v>22732360</v>
+        <v>19988850</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>144372079</v>
+        <v>141913369</v>
       </c>
       <c r="E324" t="n">
-        <v>377168052</v>
+        <v>370744741</v>
       </c>
       <c r="F324" t="n">
-        <v>9733.289040758043</v>
+        <v>9515.383894252443</v>
       </c>
       <c r="G324" t="n">
-        <v>9674.991746995916</v>
+        <v>8751.756284331088</v>
       </c>
       <c r="H324" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="I324" t="n">
-        <v>8462653</v>
+        <v>8808615</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2465206</v>
+        <v>2387295</v>
       </c>
       <c r="E325" t="n">
-        <v>3383506</v>
+        <v>3276284</v>
       </c>
       <c r="F325" t="n">
-        <v>114.2525370377306</v>
+        <v>206.0281747941112</v>
       </c>
       <c r="G325" t="n">
-        <v>542.1695327949536</v>
+        <v>116.7288998299002</v>
       </c>
       <c r="H325" t="n">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="I325" t="n">
-        <v>2038648</v>
+        <v>1820841</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>401207005</v>
+        <v>397288993</v>
       </c>
       <c r="E326" t="n">
-        <v>2292611458</v>
+        <v>2270222818</v>
       </c>
       <c r="F326" t="n">
-        <v>199419.1109669247</v>
+        <v>253526.7187964254</v>
       </c>
       <c r="G326" t="n">
-        <v>266863.6070133898</v>
+        <v>282820.0526972649</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>45196198</v>
+        <v>52305950</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99435</v>
+        <v>99224</v>
       </c>
       <c r="F2" t="n">
-        <v>2.66904457948234</v>
+        <v>3.987849520196363</v>
       </c>
       <c r="G2" t="n">
-        <v>2.544744714563599</v>
+        <v>4.084936165986049</v>
       </c>
       <c r="H2" t="n">
-        <v>1.86</v>
+        <v>0.89</v>
       </c>
       <c r="I2" t="n">
-        <v>388.96</v>
+        <v>426.58</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>640704918</v>
+        <v>625922984</v>
       </c>
       <c r="E3" t="n">
-        <v>1243306620</v>
+        <v>1214623761</v>
       </c>
       <c r="F3" t="n">
-        <v>17189.92493167311</v>
+        <v>20737.8113776724</v>
       </c>
       <c r="G3" t="n">
-        <v>31184.49486293807</v>
+        <v>27486.98550169822</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36640077</v>
+        <v>36468205</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253579119</v>
+        <v>256604405</v>
       </c>
       <c r="E4" t="n">
-        <v>1590159011</v>
+        <v>1609130154</v>
       </c>
       <c r="F4" t="n">
-        <v>54625.92650795321</v>
+        <v>36394.61105175147</v>
       </c>
       <c r="G4" t="n">
-        <v>74361.61291856649</v>
+        <v>55650.28736857676</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>22844715</v>
+        <v>22258133</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148253321</v>
+        <v>146033158</v>
       </c>
       <c r="E5" t="n">
-        <v>164287848</v>
+        <v>161827561</v>
       </c>
       <c r="F5" t="n">
-        <v>164305.1374055683</v>
+        <v>182509.471484006</v>
       </c>
       <c r="G5" t="n">
-        <v>221298.5028780518</v>
+        <v>217009.5043367159</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>49173491</v>
+        <v>49232917</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49356680</v>
+        <v>49313156</v>
       </c>
       <c r="E6" t="n">
-        <v>61743941</v>
+        <v>61689494</v>
       </c>
       <c r="F6" t="n">
-        <v>8984.260287943922</v>
+        <v>7161.64213631505</v>
       </c>
       <c r="G6" t="n">
-        <v>8902.819325087326</v>
+        <v>11702.25467970129</v>
       </c>
       <c r="H6" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="n">
-        <v>861453</v>
+        <v>859331</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8667227</v>
+        <v>8635970</v>
       </c>
       <c r="E7" t="n">
-        <v>8885783</v>
+        <v>8853738</v>
       </c>
       <c r="F7" t="n">
-        <v>305.9223099274272</v>
+        <v>504.6295479757472</v>
       </c>
       <c r="G7" t="n">
-        <v>628.1979233612122</v>
+        <v>758.1460216532281</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>2.07</v>
       </c>
       <c r="I7" t="n">
-        <v>99836</v>
+        <v>98633</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68650431</v>
+        <v>68119768</v>
       </c>
       <c r="E8" t="n">
-        <v>136728425</v>
+        <v>135671524</v>
       </c>
       <c r="F8" t="n">
-        <v>24897.97356644636</v>
+        <v>16132.71682523625</v>
       </c>
       <c r="G8" t="n">
-        <v>20553.34588840215</v>
+        <v>13707.19137920922</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>884520</v>
+        <v>922959</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5032013</v>
+        <v>5037583</v>
       </c>
       <c r="E9" t="n">
-        <v>8039644</v>
+        <v>8048543</v>
       </c>
       <c r="F9" t="n">
-        <v>276.2022743238402</v>
+        <v>285.0266805963207</v>
       </c>
       <c r="G9" t="n">
-        <v>402.0688581966423</v>
+        <v>407.112448868463</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.57</v>
       </c>
       <c r="I9" t="n">
-        <v>97134</v>
+        <v>97380</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13952965</v>
+        <v>13976690</v>
       </c>
       <c r="E10" t="n">
-        <v>41118487</v>
+        <v>41188404</v>
       </c>
       <c r="F10" t="n">
-        <v>3757.190359438743</v>
+        <v>3742.856302145228</v>
       </c>
       <c r="G10" t="n">
-        <v>2883.962443005511</v>
+        <v>3917.052177482426</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>947443</v>
+        <v>932303</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>124010686</v>
+        <v>121883829</v>
       </c>
       <c r="E11" t="n">
-        <v>486084759</v>
+        <v>477748117</v>
       </c>
       <c r="F11" t="n">
-        <v>58736.50104005478</v>
+        <v>83682.61956166776</v>
       </c>
       <c r="G11" t="n">
-        <v>43217.01138023432</v>
+        <v>54505.05998060691</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>27304096</v>
+        <v>27510524</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8799981</v>
+        <v>8606686</v>
       </c>
       <c r="E12" t="n">
-        <v>37827213</v>
+        <v>36996324</v>
       </c>
       <c r="F12" t="n">
-        <v>46.53379661458123</v>
+        <v>1360.828768573039</v>
       </c>
       <c r="G12" t="n">
-        <v>625.799253249241</v>
+        <v>3066.230989069236</v>
       </c>
       <c r="H12" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>952282</v>
+        <v>933859</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1006524</v>
+        <v>1003668</v>
       </c>
       <c r="E13" t="n">
-        <v>12317144</v>
+        <v>12282186</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7552910062355</v>
+        <v>208.7708996398001</v>
       </c>
       <c r="G13" t="n">
-        <v>243.5069922260111</v>
+        <v>243.5251992443518</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>475.08</v>
+        <v>446.81</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>576275</v>
+        <v>573733</v>
       </c>
       <c r="E14" t="n">
-        <v>576275</v>
+        <v>573733</v>
       </c>
       <c r="F14" t="n">
-        <v>526.9036086880187</v>
+        <v>663.637109041446</v>
       </c>
       <c r="G14" t="n">
-        <v>206.6562783774564</v>
+        <v>162.3434925766801</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I14" t="n">
-        <v>27851</v>
+        <v>27792</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>588119439</v>
+        <v>578087936</v>
       </c>
       <c r="E15" t="n">
-        <v>735650008</v>
+        <v>723102089</v>
       </c>
       <c r="F15" t="n">
-        <v>567088.0214785931</v>
+        <v>512068.1123856649</v>
       </c>
       <c r="G15" t="n">
-        <v>581919.1014763159</v>
+        <v>326539.5610707566</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>88141363</v>
+        <v>87923656</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3372642</v>
+        <v>3330225</v>
       </c>
       <c r="E16" t="n">
-        <v>9594867</v>
+        <v>9474196</v>
       </c>
       <c r="F16" t="n">
-        <v>186.7706390362557</v>
+        <v>178.4628071697427</v>
       </c>
       <c r="G16" t="n">
-        <v>504.8820359730278</v>
+        <v>74.02706508543588</v>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>1.26</v>
       </c>
       <c r="I16" t="n">
-        <v>113396</v>
+        <v>113317</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>316875</v>
+        <v>315099</v>
       </c>
       <c r="E17" t="n">
-        <v>3657118</v>
+        <v>3636619</v>
       </c>
       <c r="F17" t="n">
-        <v>5.337819448507387</v>
+        <v>5.338318894926284</v>
       </c>
       <c r="G17" t="n">
-        <v>3.444800554134272</v>
+        <v>3.445122875508603</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>2644.27</v>
+        <v>2631.53</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1385885</v>
+        <v>1382889</v>
       </c>
       <c r="E18" t="n">
-        <v>10630562</v>
+        <v>10607576</v>
       </c>
       <c r="F18" t="n">
-        <v>841.4659372817033</v>
+        <v>954.3899901821393</v>
       </c>
       <c r="G18" t="n">
-        <v>34.54148460122313</v>
+        <v>147.3158948586383</v>
       </c>
       <c r="H18" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="I18" t="n">
-        <v>122873</v>
+        <v>123553</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24426377</v>
+        <v>24380076</v>
       </c>
       <c r="E19" t="n">
-        <v>24471430</v>
+        <v>24425044</v>
       </c>
       <c r="F19" t="n">
-        <v>1144.31184997698</v>
+        <v>272.9364584872605</v>
       </c>
       <c r="G19" t="n">
-        <v>787.9545247706989</v>
+        <v>195.3302135281215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.96</v>
+        <v>2.36</v>
       </c>
       <c r="I19" t="n">
-        <v>840622</v>
+        <v>886568</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3917965</v>
+        <v>3683515</v>
       </c>
       <c r="E20" t="n">
-        <v>21739191</v>
+        <v>20438324</v>
       </c>
       <c r="F20" t="n">
-        <v>19.9701369150671</v>
+        <v>20.09814000769424</v>
       </c>
       <c r="G20" t="n">
-        <v>6.180949718147552</v>
+        <v>6.101332490076882</v>
       </c>
       <c r="H20" t="n">
         <v>1.05</v>
       </c>
       <c r="I20" t="n">
-        <v>682.4</v>
+        <v>1746.75</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7049681</v>
+        <v>7021648</v>
       </c>
       <c r="E21" t="n">
-        <v>13078645</v>
+        <v>13026638</v>
       </c>
       <c r="F21" t="n">
-        <v>322.3423610728282</v>
+        <v>1147.356277615988</v>
       </c>
       <c r="G21" t="n">
-        <v>110.8179595197328</v>
+        <v>41.97195441794622</v>
       </c>
       <c r="H21" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>57643</v>
+        <v>54657</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72191685</v>
+        <v>71980342</v>
       </c>
       <c r="E22" t="n">
-        <v>124991690</v>
+        <v>124622796</v>
       </c>
       <c r="F22" t="n">
-        <v>1742.329642862179</v>
+        <v>1721.927787602731</v>
       </c>
       <c r="G22" t="n">
-        <v>755.5941624484607</v>
+        <v>971.8655412178431</v>
       </c>
       <c r="H22" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>929768</v>
+        <v>906085</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>180560</v>
+        <v>180210</v>
       </c>
       <c r="E23" t="n">
-        <v>543037</v>
+        <v>541985</v>
       </c>
       <c r="F23" t="n">
-        <v>3.962330609112061</v>
+        <v>4.066262406053167</v>
       </c>
       <c r="G23" t="n">
-        <v>5.227045770152805</v>
+        <v>5.421681374437815</v>
       </c>
       <c r="H23" t="n">
         <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>203.16</v>
+        <v>202.14</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81899076</v>
+        <v>80576642</v>
       </c>
       <c r="E24" t="n">
-        <v>240957239</v>
+        <v>237066474</v>
       </c>
       <c r="F24" t="n">
-        <v>198.1182214651502</v>
+        <v>366.1582129407061</v>
       </c>
       <c r="G24" t="n">
-        <v>575.1872820364464</v>
+        <v>547.7128485526896</v>
       </c>
       <c r="H24" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I24" t="n">
-        <v>423787</v>
+        <v>445311</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6940540</v>
+        <v>6709702</v>
       </c>
       <c r="F25" t="n">
-        <v>363.3117514205251</v>
+        <v>370.3739656481226</v>
       </c>
       <c r="G25" t="n">
-        <v>4.08607001068016</v>
+        <v>4.086463668189016</v>
       </c>
       <c r="H25" t="n">
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>19249.66</v>
+        <v>19193.25</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2461715</v>
+        <v>2450620</v>
       </c>
       <c r="E26" t="n">
-        <v>2461715</v>
+        <v>2450620</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>318730</v>
+        <v>316791</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18075885</v>
+        <v>17954157</v>
       </c>
       <c r="E27" t="n">
-        <v>23265147</v>
+        <v>23108473</v>
       </c>
       <c r="F27" t="n">
-        <v>312.5645595788753</v>
+        <v>341.6960364641897</v>
       </c>
       <c r="G27" t="n">
-        <v>6481.266002218676</v>
+        <v>6273.755561578982</v>
       </c>
       <c r="H27" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2008143</v>
+        <v>2013726</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4702811</v>
+        <v>4736538</v>
       </c>
       <c r="E28" t="n">
-        <v>4702811</v>
+        <v>4736538</v>
       </c>
       <c r="F28" t="n">
-        <v>805.2102459021295</v>
+        <v>1934.398328687156</v>
       </c>
       <c r="G28" t="n">
-        <v>1870.928960523915</v>
+        <v>2152.712497597917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="I28" t="n">
-        <v>2234423</v>
+        <v>2253455</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1737610</v>
+        <v>2052065</v>
       </c>
       <c r="F29" t="n">
-        <v>31.99830136309811</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>102.9487310269565</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.35</v>
+        <v>7.9</v>
       </c>
       <c r="I29" t="n">
-        <v>160152</v>
+        <v>323346</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3372453</v>
+        <v>3397513</v>
       </c>
       <c r="E30" t="n">
-        <v>3372453</v>
+        <v>3397513</v>
       </c>
       <c r="F30" t="n">
-        <v>385.1836738752124</v>
+        <v>384.1743022662326</v>
       </c>
       <c r="G30" t="n">
-        <v>688.7328828050522</v>
+        <v>512.6354938312594</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="I30" t="n">
-        <v>579481</v>
+        <v>575800</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>315309</v>
+        <v>302241</v>
       </c>
       <c r="E31" t="n">
-        <v>1471896</v>
+        <v>1410891</v>
       </c>
       <c r="F31" t="n">
-        <v>19.39217884912015</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>107.0236046157023</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.34</v>
+        <v>4.08</v>
       </c>
       <c r="I31" t="n">
-        <v>685489</v>
+        <v>660740</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>401732</v>
+        <v>395305</v>
       </c>
       <c r="E32" t="n">
-        <v>401732</v>
+        <v>395305</v>
       </c>
       <c r="F32" t="n">
-        <v>121.7090184156431</v>
+        <v>122.2636950593999</v>
       </c>
       <c r="G32" t="n">
-        <v>4.017615229523902</v>
+        <v>5.40269820754927</v>
       </c>
       <c r="H32" t="n">
-        <v>0.68</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>59808</v>
+        <v>58762</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1860116</v>
+        <v>1856426</v>
       </c>
       <c r="F33" t="n">
-        <v>3.901247098152751</v>
+        <v>3.901612875913947</v>
       </c>
       <c r="G33" t="n">
-        <v>23.33359515631589</v>
+        <v>23.33578289525737</v>
       </c>
       <c r="H33" t="n">
         <v>0.43</v>
       </c>
       <c r="I33" t="n">
-        <v>1423173</v>
+        <v>1227043</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2155190</v>
+        <v>1998848</v>
       </c>
       <c r="F34" t="n">
-        <v>142.8321669204102</v>
+        <v>43.33832717175714</v>
       </c>
       <c r="G34" t="n">
-        <v>21.55600587482577</v>
+        <v>119.6949055406758</v>
       </c>
       <c r="H34" t="n">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>1194848</v>
+        <v>1204003</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12074068</v>
+        <v>12091893</v>
       </c>
       <c r="E35" t="n">
-        <v>30050171</v>
+        <v>30094535</v>
       </c>
       <c r="F35" t="n">
-        <v>694.1963317572404</v>
+        <v>1452.111749795299</v>
       </c>
       <c r="G35" t="n">
-        <v>942.6193275227636</v>
+        <v>898.2263566117133</v>
       </c>
       <c r="H35" t="n">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="I35" t="n">
-        <v>1410490</v>
+        <v>1442515</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6761557</v>
+        <v>6996686</v>
       </c>
       <c r="E36" t="n">
-        <v>9312392</v>
+        <v>9636224</v>
       </c>
       <c r="F36" t="n">
-        <v>267.1191175031033</v>
+        <v>2072.388898859287</v>
       </c>
       <c r="G36" t="n">
-        <v>548.516997860972</v>
+        <v>218.6371868380407</v>
       </c>
       <c r="H36" t="n">
-        <v>1.71</v>
+        <v>2.59</v>
       </c>
       <c r="I36" t="n">
-        <v>250650</v>
+        <v>269982</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>911050</v>
+        <v>908539</v>
       </c>
       <c r="E37" t="n">
-        <v>6377348</v>
+        <v>6359774</v>
       </c>
       <c r="F37" t="n">
-        <v>1488.617895732948</v>
+        <v>500.0332716689987</v>
       </c>
       <c r="G37" t="n">
-        <v>1491.717193582315</v>
+        <v>220.3227129994662</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>140585</v>
+        <v>216758</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>114551704</v>
+        <v>112286277</v>
       </c>
       <c r="E38" t="n">
-        <v>445410433</v>
+        <v>436576551</v>
       </c>
       <c r="F38" t="n">
-        <v>21014.81112297083</v>
+        <v>14655.49912596937</v>
       </c>
       <c r="G38" t="n">
-        <v>18374.23841778178</v>
+        <v>11412.28865392924</v>
       </c>
       <c r="H38" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>12800080</v>
+        <v>20308203</v>
       </c>
     </row>
     <row r="39">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5699832</v>
+        <v>5634248</v>
       </c>
       <c r="E39" t="n">
-        <v>5972512</v>
+        <v>5903791</v>
       </c>
       <c r="F39" t="n">
         <v>2148.640929873271</v>
@@ -1807,7 +1807,7 @@
         <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>194667</v>
+        <v>157400</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4892514</v>
+        <v>4951490</v>
       </c>
       <c r="E40" t="n">
-        <v>7202045</v>
+        <v>7288862</v>
       </c>
       <c r="F40" t="n">
-        <v>1820.669827536</v>
+        <v>1961.724668206801</v>
       </c>
       <c r="G40" t="n">
-        <v>2403.48611099737</v>
+        <v>2458.821612662614</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="I40" t="n">
-        <v>550570</v>
+        <v>571468</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7504938</v>
+        <v>7465247</v>
       </c>
       <c r="E41" t="n">
-        <v>7504938</v>
+        <v>7465247</v>
       </c>
       <c r="F41" t="n">
-        <v>248.4556396662555</v>
+        <v>208.1638500369579</v>
       </c>
       <c r="G41" t="n">
-        <v>2280.267612975159</v>
+        <v>2271.586528160122</v>
       </c>
       <c r="H41" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I41" t="n">
-        <v>429714</v>
+        <v>102531</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1610052</v>
+        <v>1621693</v>
       </c>
       <c r="E42" t="n">
-        <v>1610073</v>
+        <v>1621693</v>
       </c>
       <c r="F42" t="n">
-        <v>34.97459159008341</v>
+        <v>440.1100082613173</v>
       </c>
       <c r="G42" t="n">
-        <v>22.93805617327287</v>
+        <v>60.76429653947314</v>
       </c>
       <c r="H42" t="n">
-        <v>2.1</v>
+        <v>0.13</v>
       </c>
       <c r="I42" t="n">
-        <v>279467</v>
+        <v>284107</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15803672</v>
+        <v>15846189</v>
       </c>
       <c r="F43" t="n">
-        <v>435.6208151890561</v>
+        <v>497.4023208166921</v>
       </c>
       <c r="G43" t="n">
-        <v>251.9662737034154</v>
+        <v>334.4080778900187</v>
       </c>
       <c r="H43" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>9481.35</v>
+        <v>9528.110000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>145697335</v>
+        <v>143677499</v>
       </c>
       <c r="E44" t="n">
-        <v>145697335</v>
+        <v>143677499</v>
       </c>
       <c r="F44" t="n">
-        <v>272771.6457148679</v>
+        <v>290241.8059637865</v>
       </c>
       <c r="G44" t="n">
-        <v>246271.6860647198</v>
+        <v>358024.8118350256</v>
       </c>
       <c r="H44" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>86801332</v>
+        <v>87514825</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>67519461</v>
+        <v>66477369</v>
       </c>
       <c r="E45" t="n">
-        <v>346253646</v>
+        <v>340909587</v>
       </c>
       <c r="F45" t="n">
-        <v>34649.13880521692</v>
+        <v>44387.93118379528</v>
       </c>
       <c r="G45" t="n">
-        <v>51859.35872812366</v>
+        <v>74213.99504047923</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I45" t="n">
-        <v>26238245</v>
+        <v>26571417</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>601663</v>
+        <v>601085</v>
       </c>
       <c r="F46" t="n">
-        <v>60.31707355447306</v>
+        <v>60.61132235247963</v>
       </c>
       <c r="G46" t="n">
-        <v>467.577018288663</v>
+        <v>498.2231016820858</v>
       </c>
       <c r="H46" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1638.28</v>
+        <v>1637.25</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2638757</v>
+        <v>2629177</v>
       </c>
       <c r="E47" t="n">
-        <v>10604565</v>
+        <v>10566062</v>
       </c>
       <c r="F47" t="n">
-        <v>378.4975417511559</v>
+        <v>199.5659627602172</v>
       </c>
       <c r="G47" t="n">
-        <v>374.1778494510164</v>
+        <v>191.0049833092487</v>
       </c>
       <c r="H47" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>49709</v>
+        <v>51773</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18000201</v>
+        <v>17893065</v>
       </c>
       <c r="E48" t="n">
-        <v>125906628</v>
+        <v>125153891</v>
       </c>
       <c r="F48" t="n">
-        <v>789.6166248172935</v>
+        <v>668.2565347803931</v>
       </c>
       <c r="G48" t="n">
-        <v>1677.737862980935</v>
+        <v>972.4376632395711</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>976554</v>
+        <v>992980</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1020985</v>
+        <v>1033058</v>
       </c>
       <c r="E49" t="n">
-        <v>1198393</v>
+        <v>1212563</v>
       </c>
       <c r="F49" t="n">
-        <v>255.5195733099635</v>
+        <v>1803.478984060097</v>
       </c>
       <c r="G49" t="n">
-        <v>2372.896302919406</v>
+        <v>3695.609238481837</v>
       </c>
       <c r="H49" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>189844</v>
+        <v>185055</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>173249</v>
+        <v>172213</v>
       </c>
       <c r="E50" t="n">
-        <v>2318168</v>
+        <v>2304307</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>51517</v>
+        <v>50532</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>267266041</v>
+        <v>263617511</v>
       </c>
       <c r="E51" t="n">
-        <v>267266041</v>
+        <v>263617511</v>
       </c>
       <c r="F51" t="n">
-        <v>22975.13460650451</v>
+        <v>22027.63329027098</v>
       </c>
       <c r="G51" t="n">
-        <v>29255.08937319895</v>
+        <v>36008.5436331623</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I51" t="n">
-        <v>20962085</v>
+        <v>22247895</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1134027</v>
+        <v>1132798</v>
       </c>
       <c r="F52" t="n">
-        <v>45.51130161945684</v>
+        <v>45.5109073250682</v>
       </c>
       <c r="G52" t="n">
-        <v>5.430702945571683</v>
+        <v>5.430655895814334</v>
       </c>
       <c r="H52" t="n">
         <v>0.35</v>
       </c>
       <c r="I52" t="n">
-        <v>144339</v>
+        <v>138092</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2881654</v>
+        <v>2587965</v>
       </c>
       <c r="E53" t="n">
-        <v>3184255</v>
+        <v>2864761</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>267762</v>
+        <v>279408</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116003</v>
+        <v>115076</v>
       </c>
       <c r="E54" t="n">
-        <v>116003</v>
+        <v>115076</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>363.9</v>
+        <v>360.8</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6989340</v>
+        <v>7041865</v>
       </c>
       <c r="E55" t="n">
-        <v>16976569</v>
+        <v>17104149</v>
       </c>
       <c r="F55" t="n">
-        <v>289.435262246095</v>
+        <v>270.5632982540918</v>
       </c>
       <c r="G55" t="n">
-        <v>138.0741898922804</v>
+        <v>118.4748462356703</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="I55" t="n">
-        <v>458469</v>
+        <v>456027</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>455780520</v>
+        <v>451635345</v>
       </c>
       <c r="E56" t="n">
-        <v>455780520</v>
+        <v>451635345</v>
       </c>
       <c r="F56" t="n">
-        <v>4118.341539421726</v>
+        <v>4011.667618280786</v>
       </c>
       <c r="G56" t="n">
-        <v>2958.302380672213</v>
+        <v>3197.743698245251</v>
       </c>
       <c r="H56" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>4050568</v>
+        <v>4118425</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2452480</v>
+        <v>2483587</v>
       </c>
       <c r="E57" t="n">
-        <v>2452480</v>
+        <v>2483587</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>58543</v>
+        <v>111002</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>178673339</v>
+        <v>176337449</v>
       </c>
       <c r="E58" t="n">
-        <v>235113217</v>
+        <v>232039460</v>
       </c>
       <c r="F58" t="n">
-        <v>2623.692207435573</v>
+        <v>13690.3958847187</v>
       </c>
       <c r="G58" t="n">
-        <v>8270.899037241965</v>
+        <v>8126.534176859466</v>
       </c>
       <c r="H58" t="n">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="I58" t="n">
-        <v>15600923</v>
+        <v>15698716</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1158297</v>
+        <v>1156805</v>
       </c>
       <c r="E59" t="n">
-        <v>12587936</v>
+        <v>12571726</v>
       </c>
       <c r="F59" t="n">
-        <v>6.960116417531609</v>
+        <v>3.936454613242537</v>
       </c>
       <c r="G59" t="n">
-        <v>4.087626262549125</v>
+        <v>4.088016500088872</v>
       </c>
       <c r="H59" t="n">
         <v>0.45</v>
       </c>
       <c r="I59" t="n">
-        <v>14808.81</v>
+        <v>14772.72</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2573058</v>
+        <v>2571122</v>
       </c>
       <c r="E60" t="n">
-        <v>6578246</v>
+        <v>6573297</v>
       </c>
       <c r="F60" t="n">
-        <v>205.1588171663242</v>
+        <v>272.4090672361127</v>
       </c>
       <c r="G60" t="n">
-        <v>50.96878787435521</v>
+        <v>50.97356666653386</v>
       </c>
       <c r="H60" t="n">
         <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>78110</v>
+        <v>81069</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84909674</v>
+        <v>83836007</v>
       </c>
       <c r="E61" t="n">
-        <v>237534055</v>
+        <v>234520679</v>
       </c>
       <c r="F61" t="n">
-        <v>73341.9215236132</v>
+        <v>73091.4218308743</v>
       </c>
       <c r="G61" t="n">
-        <v>78553.83970768884</v>
+        <v>63652.22898882325</v>
       </c>
       <c r="H61" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I61" t="n">
-        <v>54779272</v>
+        <v>48916838</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>73107075</v>
+        <v>72021434</v>
       </c>
       <c r="E62" t="n">
-        <v>73107075</v>
+        <v>72021434</v>
       </c>
       <c r="F62" t="n">
-        <v>7837.70940806957</v>
+        <v>7329.317966764283</v>
       </c>
       <c r="G62" t="n">
-        <v>4932.265187085104</v>
+        <v>2407.330466809058</v>
       </c>
       <c r="H62" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I62" t="n">
-        <v>3596122</v>
+        <v>3663095</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4087715</v>
+        <v>4074696</v>
       </c>
       <c r="E63" t="n">
-        <v>8061319</v>
+        <v>8035643</v>
       </c>
       <c r="F63" t="n">
-        <v>2444.429814044727</v>
+        <v>1698.161032451851</v>
       </c>
       <c r="G63" t="n">
-        <v>1545.966251933532</v>
+        <v>936.8536159397868</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>1641662</v>
+        <v>1636025</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1598147</v>
+        <v>1593562</v>
       </c>
       <c r="E64" t="n">
-        <v>9175964</v>
+        <v>9149636</v>
       </c>
       <c r="F64" t="n">
-        <v>16.26014126592409</v>
+        <v>9.455773071655804</v>
       </c>
       <c r="G64" t="n">
-        <v>5.332146156567848</v>
+        <v>5.429142288370795</v>
       </c>
       <c r="H64" t="n">
-        <v>0.33</v>
+        <v>0.98</v>
       </c>
       <c r="I64" t="n">
-        <v>236373</v>
+        <v>239336</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>534316</v>
+        <v>698367</v>
       </c>
       <c r="F65" t="n">
-        <v>6.287981034428984</v>
+        <v>3.933819950333186</v>
       </c>
       <c r="G65" t="n">
-        <v>5.396571654632994</v>
+        <v>4.163057909746005</v>
       </c>
       <c r="H65" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="I65" t="n">
-        <v>1447.07</v>
+        <v>5401.32</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31233142</v>
+        <v>31222413</v>
       </c>
       <c r="F66" t="n">
-        <v>290.2746305046636</v>
+        <v>290.5441569635108</v>
       </c>
       <c r="G66" t="n">
-        <v>988.3674921293872</v>
+        <v>923.5146333973499</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I66" t="n">
-        <v>237919</v>
+        <v>236770</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>170789</v>
+        <v>171834</v>
       </c>
       <c r="E67" t="n">
-        <v>1153355</v>
+        <v>1160415</v>
       </c>
       <c r="F67" t="n">
-        <v>239.695030739025</v>
+        <v>259.6927362851677</v>
       </c>
       <c r="G67" t="n">
-        <v>46.66489703744802</v>
+        <v>61.29209358423626</v>
       </c>
       <c r="H67" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I67" t="n">
-        <v>2989811</v>
+        <v>3026954</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17432139</v>
+        <v>17567696</v>
       </c>
       <c r="E68" t="n">
-        <v>18373065</v>
+        <v>18515939</v>
       </c>
       <c r="F68" t="n">
-        <v>1533.457322247754</v>
+        <v>1206.755785872297</v>
       </c>
       <c r="G68" t="n">
-        <v>1432.742730116438</v>
+        <v>1727.122002151514</v>
       </c>
       <c r="H68" t="n">
-        <v>0.38</v>
+        <v>1.17</v>
       </c>
       <c r="I68" t="n">
-        <v>38006</v>
+        <v>43062</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3001671</v>
+        <v>2958445</v>
       </c>
       <c r="E69" t="n">
-        <v>3001671</v>
+        <v>2958445</v>
       </c>
       <c r="F69" t="n">
-        <v>861.7722468111946</v>
+        <v>9.675581618234903</v>
       </c>
       <c r="G69" t="n">
-        <v>5.138024096569406</v>
+        <v>99.22616866555103</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>18308.65</v>
+        <v>16009.93</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3407095</v>
+        <v>3387562</v>
       </c>
       <c r="E70" t="n">
-        <v>8406832</v>
+        <v>8358637</v>
       </c>
       <c r="F70" t="n">
-        <v>1107.022936283151</v>
+        <v>1178.502300670981</v>
       </c>
       <c r="G70" t="n">
-        <v>1173.061506996287</v>
+        <v>1197.676163825328</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>37117</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23221382</v>
+        <v>23169206</v>
       </c>
       <c r="F71" t="n">
-        <v>4.123085013076968</v>
+        <v>4.114839205548113</v>
       </c>
       <c r="G71" t="n">
-        <v>398.1354468287672</v>
+        <v>623.2787228712696</v>
       </c>
       <c r="H71" t="n">
         <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>125172</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>251877</v>
+        <v>250156</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3884.6</v>
+        <v>4056.66</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>90400736</v>
+        <v>89760137</v>
       </c>
       <c r="E73" t="n">
-        <v>188478273</v>
+        <v>187142677</v>
       </c>
       <c r="F73" t="n">
-        <v>18395.58532480314</v>
+        <v>13482.69766646126</v>
       </c>
       <c r="G73" t="n">
-        <v>5243.014385612061</v>
+        <v>581.4920346835235</v>
       </c>
       <c r="H73" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I73" t="n">
-        <v>65482373</v>
+        <v>66970289</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199869966</v>
+        <v>199090668</v>
       </c>
       <c r="F75" t="n">
-        <v>7551.640161992678</v>
+        <v>8377.418694367247</v>
       </c>
       <c r="G75" t="n">
-        <v>12877.52152220396</v>
+        <v>13095.66456805283</v>
       </c>
       <c r="H75" t="n">
         <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3333305</v>
+        <v>3362772</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>84344777</v>
+        <v>85840406</v>
       </c>
       <c r="E76" t="n">
-        <v>115818504</v>
+        <v>117872236</v>
       </c>
       <c r="F76" t="n">
-        <v>732.0761053759213</v>
+        <v>1107.669180526258</v>
       </c>
       <c r="G76" t="n">
-        <v>4360.624298207167</v>
+        <v>2179.092832263727</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I76" t="n">
-        <v>1046804</v>
+        <v>1136340</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>187673</v>
+        <v>186957</v>
       </c>
       <c r="E77" t="n">
-        <v>195984</v>
+        <v>195236</v>
       </c>
       <c r="F77" t="n">
-        <v>4.010399929512206</v>
+        <v>4.01039937494177</v>
       </c>
       <c r="G77" t="n">
-        <v>87.50422216650517</v>
+        <v>85.67131592799672</v>
       </c>
       <c r="H77" t="n">
         <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>206.55</v>
+        <v>205.77</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7651102</v>
+        <v>7601607</v>
       </c>
       <c r="E78" t="n">
-        <v>8416723</v>
+        <v>8362276</v>
       </c>
       <c r="F78" t="n">
-        <v>631.6481881208581</v>
+        <v>626.2748030803504</v>
       </c>
       <c r="G78" t="n">
-        <v>359.7468237018434</v>
+        <v>400.9046518571056</v>
       </c>
       <c r="H78" t="n">
-        <v>1.96</v>
+        <v>0.87</v>
       </c>
       <c r="I78" t="n">
-        <v>673280</v>
+        <v>661002</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30029889</v>
+        <v>30133613</v>
       </c>
       <c r="E79" t="n">
-        <v>30029889</v>
+        <v>30133613</v>
       </c>
       <c r="F79" t="n">
-        <v>69.79806998768846</v>
+        <v>109.5645106427837</v>
       </c>
       <c r="G79" t="n">
-        <v>696.0754502258999</v>
+        <v>851.9185174512974</v>
       </c>
       <c r="H79" t="n">
-        <v>0.99</v>
+        <v>0.03</v>
       </c>
       <c r="I79" t="n">
-        <v>248825</v>
+        <v>249735</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>285273572</v>
+        <v>280629120</v>
       </c>
       <c r="E80" t="n">
-        <v>285273572</v>
+        <v>280629120</v>
       </c>
       <c r="F80" t="n">
-        <v>2222.499774790294</v>
+        <v>2639.695681717239</v>
       </c>
       <c r="G80" t="n">
-        <v>2036.440644590394</v>
+        <v>2939.803564724699</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="I80" t="n">
-        <v>11870055</v>
+        <v>12021193</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>688776186</v>
+        <v>677096341</v>
       </c>
       <c r="E81" t="n">
-        <v>688776186</v>
+        <v>677096341</v>
       </c>
       <c r="F81" t="n">
-        <v>1194287.280840659</v>
+        <v>1477151.740277878</v>
       </c>
       <c r="G81" t="n">
-        <v>1183702.594793143</v>
+        <v>1293673.639674646</v>
       </c>
       <c r="H81" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>490308820</v>
+        <v>499808812</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113495</v>
+        <v>113286</v>
       </c>
       <c r="E82" t="n">
-        <v>113495</v>
+        <v>113286</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1403.98</v>
+        <v>1404.39</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>207776642</v>
+        <v>203953181</v>
       </c>
       <c r="E83" t="n">
-        <v>721834832</v>
+        <v>708551784</v>
       </c>
       <c r="F83" t="n">
-        <v>1259.306281733202</v>
+        <v>3202.874768183531</v>
       </c>
       <c r="G83" t="n">
-        <v>1288.480134712869</v>
+        <v>1666.826223617494</v>
       </c>
       <c r="H83" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I83" t="n">
-        <v>36897993</v>
+        <v>37552593</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3571487</v>
+        <v>3423312</v>
       </c>
       <c r="E84" t="n">
-        <v>3571487</v>
+        <v>3423312</v>
       </c>
       <c r="F84" t="n">
-        <v>903.9853173039949</v>
+        <v>796.6883791315373</v>
       </c>
       <c r="G84" t="n">
-        <v>1367.842010469125</v>
+        <v>943.9074476467174</v>
       </c>
       <c r="H84" t="n">
-        <v>0.66</v>
+        <v>0.03</v>
       </c>
       <c r="I84" t="n">
-        <v>2527833</v>
+        <v>2133455</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>116834697</v>
+        <v>115150422</v>
       </c>
       <c r="E85" t="n">
-        <v>495841779</v>
+        <v>488642602</v>
       </c>
       <c r="F85" t="n">
-        <v>389230.2237443298</v>
+        <v>244356.0132726431</v>
       </c>
       <c r="G85" t="n">
-        <v>355060.1680242553</v>
+        <v>200166.8632067784</v>
       </c>
       <c r="H85" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I85" t="n">
-        <v>15800542</v>
+        <v>15193177</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>72178009</v>
+        <v>71733981</v>
       </c>
       <c r="E86" t="n">
-        <v>82815072</v>
+        <v>82305605</v>
       </c>
       <c r="F86" t="n">
-        <v>4127.191367506292</v>
+        <v>3375.87855607089</v>
       </c>
       <c r="G86" t="n">
-        <v>4863.648135444867</v>
+        <v>4442.317619500479</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="I86" t="n">
-        <v>1489933</v>
+        <v>1381359</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3304962</v>
+        <v>3252562</v>
       </c>
       <c r="E87" t="n">
-        <v>16570414</v>
+        <v>16307691</v>
       </c>
       <c r="F87" t="n">
-        <v>3.519989771436564</v>
+        <v>4.157541418272937</v>
       </c>
       <c r="G87" t="n">
-        <v>4.024549554572596</v>
+        <v>4.082538768684908</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I87" t="n">
-        <v>31517</v>
+        <v>33266</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>523698</v>
+        <v>523088</v>
       </c>
       <c r="E88" t="n">
-        <v>8957821</v>
+        <v>8947389</v>
       </c>
       <c r="F88" t="n">
-        <v>372.3083534446242</v>
+        <v>261.543453718207</v>
       </c>
       <c r="G88" t="n">
-        <v>243.4212601339845</v>
+        <v>1160.112044922664</v>
       </c>
       <c r="H88" t="n">
-        <v>3.7</v>
+        <v>2.19</v>
       </c>
       <c r="I88" t="n">
-        <v>161403</v>
+        <v>148282</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5819371</v>
+        <v>5807773</v>
       </c>
       <c r="E89" t="n">
-        <v>7899793</v>
+        <v>7883953</v>
       </c>
       <c r="F89" t="n">
-        <v>79.9356408940794</v>
+        <v>81.20237063242861</v>
       </c>
       <c r="G89" t="n">
-        <v>738.8922786279064</v>
+        <v>690.0282376547759</v>
       </c>
       <c r="H89" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I89" t="n">
-        <v>5323413</v>
+        <v>5315386</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40542628</v>
+        <v>40591071</v>
       </c>
       <c r="E90" t="n">
-        <v>47352827</v>
+        <v>47409406</v>
       </c>
       <c r="F90" t="n">
-        <v>291.6169914526561</v>
+        <v>321.4329253516707</v>
       </c>
       <c r="G90" t="n">
-        <v>129.3699923779068</v>
+        <v>96.93071092964814</v>
       </c>
       <c r="H90" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="I90" t="n">
-        <v>962165</v>
+        <v>965167</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14653326</v>
+        <v>14637712</v>
       </c>
       <c r="F91" t="n">
-        <v>69.47200685514075</v>
+        <v>48.48461962290132</v>
       </c>
       <c r="G91" t="n">
-        <v>329.3923819313866</v>
+        <v>215.4687095790422</v>
       </c>
       <c r="H91" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="I91" t="n">
-        <v>226677</v>
+        <v>225632</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36211072</v>
+        <v>36022276</v>
       </c>
       <c r="E92" t="n">
-        <v>36211072</v>
+        <v>36022276</v>
       </c>
       <c r="F92" t="n">
-        <v>681.0249442892372</v>
+        <v>684.8555690270772</v>
       </c>
       <c r="G92" t="n">
-        <v>294.765540891805</v>
+        <v>230.307023239019</v>
       </c>
       <c r="H92" t="n">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="I92" t="n">
-        <v>914943</v>
+        <v>859495</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17166896</v>
+        <v>17151483</v>
       </c>
       <c r="F93" t="n">
-        <v>250.4293502299716</v>
+        <v>250.5739916293413</v>
       </c>
       <c r="G93" t="n">
-        <v>329.588474225545</v>
+        <v>205.8151411965702</v>
       </c>
       <c r="H93" t="n">
         <v>0.35</v>
       </c>
       <c r="I93" t="n">
-        <v>198996</v>
+        <v>192892</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>546263</v>
+        <v>555067</v>
       </c>
       <c r="E94" t="n">
-        <v>6625638</v>
+        <v>6732419</v>
       </c>
       <c r="F94" t="n">
-        <v>882.1756813068654</v>
+        <v>558.6699524334</v>
       </c>
       <c r="G94" t="n">
-        <v>706.8551029820575</v>
+        <v>747.4365391832035</v>
       </c>
       <c r="H94" t="n">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="I94" t="n">
-        <v>2763221</v>
+        <v>2780235</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25848176</v>
+        <v>25860109</v>
       </c>
       <c r="E95" t="n">
-        <v>36527641</v>
+        <v>36544504</v>
       </c>
       <c r="F95" t="n">
-        <v>649.8343377794935</v>
+        <v>5.33831619448978</v>
       </c>
       <c r="G95" t="n">
-        <v>4.917218910101878</v>
+        <v>593.2051112809653</v>
       </c>
       <c r="H95" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="I95" t="n">
-        <v>91493</v>
+        <v>101594</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1367568162</v>
+        <v>1406597859</v>
       </c>
       <c r="E96" t="n">
-        <v>6557769406</v>
+        <v>6744924799</v>
       </c>
       <c r="F96" t="n">
-        <v>148562.2823578164</v>
+        <v>218504.3745341225</v>
       </c>
       <c r="G96" t="n">
-        <v>230045.9331489496</v>
+        <v>243937.5194219395</v>
       </c>
       <c r="H96" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>386811102</v>
+        <v>422408739</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>270304248</v>
+        <v>267068291</v>
       </c>
       <c r="E97" t="n">
-        <v>1166783190</v>
+        <v>1152815002</v>
       </c>
       <c r="F97" t="n">
-        <v>261097.0116339089</v>
+        <v>262490.7674179961</v>
       </c>
       <c r="G97" t="n">
-        <v>802673.7607083066</v>
+        <v>663870.44272862</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>132648404</v>
+        <v>134854594</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4993914</v>
+        <v>4937441</v>
       </c>
       <c r="E98" t="n">
-        <v>5534252</v>
+        <v>5471668</v>
       </c>
       <c r="F98" t="n">
-        <v>543.90051228856</v>
+        <v>188.6652714395233</v>
       </c>
       <c r="G98" t="n">
-        <v>492.5562511633</v>
+        <v>489.4092515557959</v>
       </c>
       <c r="H98" t="n">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="I98" t="n">
-        <v>672029</v>
+        <v>705216</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94865</v>
+        <v>90679</v>
       </c>
       <c r="E99" t="n">
-        <v>94865</v>
+        <v>90679</v>
       </c>
       <c r="F99" t="n">
-        <v>743.7172705759581</v>
+        <v>4.051973890216872</v>
       </c>
       <c r="G99" t="n">
-        <v>5.408165586745618</v>
+        <v>237.1504643767882</v>
       </c>
       <c r="H99" t="n">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
       <c r="I99" t="n">
-        <v>809.11</v>
+        <v>1433.86</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>116076528</v>
+        <v>114660409</v>
       </c>
       <c r="E100" t="n">
-        <v>116076528</v>
+        <v>114660409</v>
       </c>
       <c r="F100" t="n">
-        <v>8664.069630600479</v>
+        <v>8317.443321475019</v>
       </c>
       <c r="G100" t="n">
-        <v>7480.701900136745</v>
+        <v>9745.403067947154</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6766189</v>
+        <v>6773166</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3877030</v>
+        <v>3884836</v>
       </c>
       <c r="F101" t="n">
-        <v>1215.528860987094</v>
+        <v>1766.521641388246</v>
       </c>
       <c r="G101" t="n">
-        <v>936.6479981268642</v>
+        <v>1012.68628056884</v>
       </c>
       <c r="H101" t="n">
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
       <c r="I101" t="n">
-        <v>348372</v>
+        <v>350079</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2040096587</v>
+        <v>2042861387</v>
       </c>
       <c r="E102" t="n">
-        <v>2040096587</v>
+        <v>2042861387</v>
       </c>
       <c r="F102" t="n">
-        <v>8149863.057806147</v>
+        <v>8080056.048301161</v>
       </c>
       <c r="G102" t="n">
-        <v>4345596.067456866</v>
+        <v>4202854.253109481</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>8478567149</v>
+        <v>8556972536</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5342357</v>
+        <v>5332058</v>
       </c>
       <c r="E103" t="n">
-        <v>5348404</v>
+        <v>5338093</v>
       </c>
       <c r="F103" t="n">
-        <v>236.8835604142366</v>
+        <v>236.8888531062773</v>
       </c>
       <c r="G103" t="n">
-        <v>103.9107616387903</v>
+        <v>103.9719171589803</v>
       </c>
       <c r="H103" t="n">
         <v>0.47</v>
       </c>
       <c r="I103" t="n">
-        <v>145062</v>
+        <v>146142</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2461945</v>
+        <v>2394592</v>
       </c>
       <c r="F104" t="n">
-        <v>3.828622241972317</v>
+        <v>5.507879491227997</v>
       </c>
       <c r="G104" t="n">
-        <v>220.1861230046532</v>
+        <v>308.5356814209729</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="I104" t="n">
-        <v>34840</v>
+        <v>37543</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4352095</v>
+        <v>4315939</v>
       </c>
       <c r="E105" t="n">
-        <v>5713733</v>
+        <v>5666265</v>
       </c>
       <c r="F105" t="n">
-        <v>516.7111356171114</v>
+        <v>1868.101609795819</v>
       </c>
       <c r="G105" t="n">
-        <v>312.2244040025908</v>
+        <v>415.8686020814458</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I105" t="n">
-        <v>639061</v>
+        <v>629375</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19902105</v>
+        <v>19805468</v>
       </c>
       <c r="F106" t="n">
-        <v>944.8296622397314</v>
+        <v>937.5202428214983</v>
       </c>
       <c r="G106" t="n">
-        <v>75.18017097863907</v>
+        <v>95.13096350565445</v>
       </c>
       <c r="H106" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>55893</v>
+        <v>56575</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1419316</v>
+        <v>1442236</v>
       </c>
       <c r="E107" t="n">
-        <v>5291168</v>
+        <v>5376611</v>
       </c>
       <c r="F107" t="n">
-        <v>1854.602556453208</v>
+        <v>147.0795503020426</v>
       </c>
       <c r="G107" t="n">
-        <v>138.4253962137899</v>
+        <v>235.8118955465939</v>
       </c>
       <c r="H107" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="I107" t="n">
-        <v>593122</v>
+        <v>597343</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4189890</v>
+        <v>4189361</v>
       </c>
       <c r="E108" t="n">
-        <v>12068240</v>
+        <v>12066715</v>
       </c>
       <c r="F108" t="n">
-        <v>1383.508793857255</v>
+        <v>1128.678229251126</v>
       </c>
       <c r="G108" t="n">
-        <v>426.4462918497533</v>
+        <v>482.0065321178516</v>
       </c>
       <c r="H108" t="n">
-        <v>1.73</v>
+        <v>0.98</v>
       </c>
       <c r="I108" t="n">
-        <v>530895</v>
+        <v>530025</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80733629</v>
+        <v>80047532</v>
       </c>
       <c r="E109" t="n">
-        <v>102739818</v>
+        <v>101866706</v>
       </c>
       <c r="F109" t="n">
-        <v>6838.569101237469</v>
+        <v>4530.466696159086</v>
       </c>
       <c r="G109" t="n">
-        <v>1776.046512488937</v>
+        <v>673.9699601344659</v>
       </c>
       <c r="H109" t="n">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="I109" t="n">
-        <v>6400481</v>
+        <v>7289310</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22995974</v>
+        <v>23046270</v>
       </c>
       <c r="E110" t="n">
-        <v>29831039</v>
+        <v>29896285</v>
       </c>
       <c r="F110" t="n">
-        <v>20232.47440092532</v>
+        <v>19327.23602082166</v>
       </c>
       <c r="G110" t="n">
-        <v>13786.73561687974</v>
+        <v>9188.799181867051</v>
       </c>
       <c r="H110" t="n">
-        <v>0.57</v>
+        <v>0.03</v>
       </c>
       <c r="I110" t="n">
-        <v>177297</v>
+        <v>432506</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>707874</v>
+        <v>703368</v>
       </c>
       <c r="E111" t="n">
-        <v>707874</v>
+        <v>703368</v>
       </c>
       <c r="F111" t="n">
-        <v>17.27739160666522</v>
+        <v>17.34533843366636</v>
       </c>
       <c r="G111" t="n">
-        <v>2.980860530842456</v>
+        <v>4.294756438110994</v>
       </c>
       <c r="H111" t="n">
         <v>0.19</v>
       </c>
       <c r="I111" t="n">
-        <v>75704</v>
+        <v>73438</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14378267</v>
+        <v>14290175</v>
       </c>
       <c r="E112" t="n">
-        <v>14378267</v>
+        <v>14290175</v>
       </c>
       <c r="F112" t="n">
-        <v>2811.478778199635</v>
+        <v>2497.510132050657</v>
       </c>
       <c r="G112" t="n">
-        <v>1697.479731908571</v>
+        <v>3499.762694290852</v>
       </c>
       <c r="H112" t="n">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>5355339</v>
+        <v>5370252</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99901804</v>
+        <v>99269352</v>
       </c>
       <c r="E113" t="n">
-        <v>123574956</v>
+        <v>122792635</v>
       </c>
       <c r="F113" t="n">
-        <v>852.4127243350109</v>
+        <v>852.1557527450645</v>
       </c>
       <c r="G113" t="n">
-        <v>1217.337891509301</v>
+        <v>1396.172412578759</v>
       </c>
       <c r="H113" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="I113" t="n">
-        <v>1038320</v>
+        <v>1007646</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>884410</v>
+        <v>883397</v>
       </c>
       <c r="F114" t="n">
-        <v>219.2815624200644</v>
+        <v>33.00545847486337</v>
       </c>
       <c r="G114" t="n">
-        <v>231.7892535931585</v>
+        <v>282.1261483368313</v>
       </c>
       <c r="H114" t="n">
-        <v>1.6</v>
+        <v>0.61</v>
       </c>
       <c r="I114" t="n">
-        <v>39449</v>
+        <v>40456</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2770813</v>
+        <v>2743277</v>
       </c>
       <c r="F115" t="n">
-        <v>787.2230032337328</v>
+        <v>861.767434051726</v>
       </c>
       <c r="G115" t="n">
-        <v>1138.208379316162</v>
+        <v>1132.927152727409</v>
       </c>
       <c r="H115" t="n">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="I115" t="n">
-        <v>79509</v>
+        <v>80852</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11332692</v>
+        <v>11194232</v>
       </c>
       <c r="E116" t="n">
-        <v>16665722</v>
+        <v>16462105</v>
       </c>
       <c r="F116" t="n">
-        <v>2254.737601629065</v>
+        <v>2246.917529894232</v>
       </c>
       <c r="G116" t="n">
-        <v>2827.637555358223</v>
+        <v>1942.807201481276</v>
       </c>
       <c r="H116" t="n">
-        <v>1.03</v>
+        <v>0.4</v>
       </c>
       <c r="I116" t="n">
-        <v>526767</v>
+        <v>487876</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3203566</v>
+        <v>3205301</v>
       </c>
       <c r="F117" t="n">
-        <v>3.910278131736015</v>
+        <v>3.910646410309354</v>
       </c>
       <c r="G117" t="n">
-        <v>212.2782448579704</v>
+        <v>4.159166235196301</v>
       </c>
       <c r="H117" t="n">
         <v>0.58</v>
       </c>
       <c r="I117" t="n">
-        <v>33841</v>
+        <v>33991</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1167015</v>
+        <v>1164263</v>
       </c>
       <c r="F118" t="n">
-        <v>5.13765578600164</v>
+        <v>5.241916370683532</v>
       </c>
       <c r="G118" t="n">
-        <v>30.48867119998254</v>
+        <v>5.238409651658054</v>
       </c>
       <c r="H118" t="n">
         <v>0.31</v>
       </c>
       <c r="I118" t="n">
-        <v>5379.81</v>
+        <v>5404.03</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5148542</v>
+        <v>5122037</v>
       </c>
       <c r="E119" t="n">
-        <v>7203557</v>
+        <v>7166472</v>
       </c>
       <c r="F119" t="n">
-        <v>950.7007413876745</v>
+        <v>1362.270966426187</v>
       </c>
       <c r="G119" t="n">
-        <v>1626.141211994171</v>
+        <v>1285.984674423329</v>
       </c>
       <c r="H119" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="I119" t="n">
-        <v>76947</v>
+        <v>76807</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10529449</v>
+        <v>10272343</v>
       </c>
       <c r="E120" t="n">
-        <v>29002916</v>
+        <v>28294731</v>
       </c>
       <c r="F120" t="n">
-        <v>252.2208049786118</v>
+        <v>28.7539819785557</v>
       </c>
       <c r="G120" t="n">
-        <v>43.51458547146208</v>
+        <v>44.33140171484953</v>
       </c>
       <c r="H120" t="n">
-        <v>0.73</v>
+        <v>0.25</v>
       </c>
       <c r="I120" t="n">
-        <v>337190</v>
+        <v>335010</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51220710</v>
+        <v>50891137</v>
       </c>
       <c r="E121" t="n">
-        <v>130487686</v>
+        <v>129648080</v>
       </c>
       <c r="F121" t="n">
-        <v>327.0503544629061</v>
+        <v>1289.400918980874</v>
       </c>
       <c r="G121" t="n">
-        <v>11198.90958544218</v>
+        <v>11746.98133360104</v>
       </c>
       <c r="H121" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I121" t="n">
-        <v>2190914</v>
+        <v>2158193</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15212714</v>
+        <v>14719995</v>
       </c>
       <c r="E122" t="n">
-        <v>73677603</v>
+        <v>71291284</v>
       </c>
       <c r="F122" t="n">
-        <v>683.8709458350828</v>
+        <v>381.6110661479209</v>
       </c>
       <c r="G122" t="n">
-        <v>1335.422054168568</v>
+        <v>1652.493896921995</v>
       </c>
       <c r="H122" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I122" t="n">
-        <v>5067864</v>
+        <v>5127443</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>592523</v>
+        <v>624253</v>
       </c>
       <c r="F123" t="n">
-        <v>4.095862374492222</v>
+        <v>3.927609323436914</v>
       </c>
       <c r="G123" t="n">
-        <v>1815.278269448669</v>
+        <v>1806.379820303912</v>
       </c>
       <c r="H123" t="n">
         <v>0.63</v>
       </c>
       <c r="I123" t="n">
-        <v>8358.75</v>
+        <v>8250.32</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4610599</v>
+        <v>4610231</v>
       </c>
       <c r="E124" t="n">
-        <v>10509657</v>
+        <v>10508817</v>
       </c>
       <c r="F124" t="n">
-        <v>1503.923833354203</v>
+        <v>2722.578846465458</v>
       </c>
       <c r="G124" t="n">
-        <v>3505.49955618817</v>
+        <v>2530.996997750283</v>
       </c>
       <c r="H124" t="n">
         <v>1.61</v>
       </c>
       <c r="I124" t="n">
-        <v>66574</v>
+        <v>65976</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1891496798</v>
+        <v>1873025386</v>
       </c>
       <c r="F125" t="n">
-        <v>71144.39301538692</v>
+        <v>76456.05096314159</v>
       </c>
       <c r="G125" t="n">
-        <v>77438.74624579318</v>
+        <v>75247.5177799853</v>
       </c>
       <c r="H125" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I125" t="n">
-        <v>29239524</v>
+        <v>29434966</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9683808</v>
+        <v>9651701</v>
       </c>
       <c r="E126" t="n">
-        <v>35236921</v>
+        <v>35116749</v>
       </c>
       <c r="F126" t="n">
-        <v>1532.708465572379</v>
+        <v>2139.589531792515</v>
       </c>
       <c r="G126" t="n">
-        <v>4.124167123250506</v>
+        <v>4.042296796282652</v>
       </c>
       <c r="H126" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I126" t="n">
-        <v>120448</v>
+        <v>122139</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>625672</v>
+        <v>626417</v>
       </c>
       <c r="F127" t="n">
-        <v>19.81401393228994</v>
+        <v>23.49082861655617</v>
       </c>
       <c r="G127" t="n">
-        <v>4.10658019405183</v>
+        <v>5.381691806400275</v>
       </c>
       <c r="H127" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>947.6799999999999</v>
+        <v>937.58</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12343563</v>
+        <v>12330505</v>
       </c>
       <c r="E128" t="n">
-        <v>17896385</v>
+        <v>17877453</v>
       </c>
       <c r="F128" t="n">
-        <v>3167.141912095661</v>
+        <v>63.44452289698484</v>
       </c>
       <c r="G128" t="n">
-        <v>3431.09109184122</v>
+        <v>1671.649609281861</v>
       </c>
       <c r="H128" t="n">
-        <v>0.72</v>
+        <v>3.61</v>
       </c>
       <c r="I128" t="n">
-        <v>1456027</v>
+        <v>2011693</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31467303</v>
+        <v>31258276</v>
       </c>
       <c r="E129" t="n">
-        <v>97979085</v>
+        <v>97328243</v>
       </c>
       <c r="F129" t="n">
-        <v>6773.866774122453</v>
+        <v>7801.045137208194</v>
       </c>
       <c r="G129" t="n">
-        <v>7442.585710193469</v>
+        <v>6135.046439664156</v>
       </c>
       <c r="H129" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I129" t="n">
-        <v>10026371</v>
+        <v>9993096</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1951685</v>
+        <v>1935811</v>
       </c>
       <c r="E130" t="n">
-        <v>13995341</v>
+        <v>13881504</v>
       </c>
       <c r="F130" t="n">
-        <v>143.454791670082</v>
+        <v>3.955227233697239</v>
       </c>
       <c r="G130" t="n">
-        <v>3.838658920840326</v>
+        <v>2.798496525052132</v>
       </c>
       <c r="H130" t="n">
-        <v>0.99</v>
+        <v>0.57</v>
       </c>
       <c r="I130" t="n">
-        <v>614423</v>
+        <v>594980</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7772636</v>
+        <v>8162462</v>
       </c>
       <c r="F131" t="n">
-        <v>437.3914265957155</v>
+        <v>198.6549398886727</v>
       </c>
       <c r="G131" t="n">
-        <v>128.164980851773</v>
+        <v>71.40902498234701</v>
       </c>
       <c r="H131" t="n">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="I131" t="n">
-        <v>518741</v>
+        <v>547620</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>203752230</v>
+        <v>200240195</v>
       </c>
       <c r="E132" t="n">
-        <v>1153770321</v>
+        <v>1133883022</v>
       </c>
       <c r="F132" t="n">
-        <v>381784.1509010109</v>
+        <v>261217.0163819425</v>
       </c>
       <c r="G132" t="n">
-        <v>434030.8326823253</v>
+        <v>429243.147916498</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>81350767</v>
+        <v>81959750</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1041054</v>
+        <v>1039012</v>
       </c>
       <c r="E133" t="n">
-        <v>1041054</v>
+        <v>1039012</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>6073.94</v>
+        <v>5932.78</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>498759</v>
+        <v>498045</v>
       </c>
       <c r="E134" t="n">
-        <v>1678754</v>
+        <v>1676350</v>
       </c>
       <c r="F134" t="n">
-        <v>184.0773367010577</v>
+        <v>429.7874652563728</v>
       </c>
       <c r="G134" t="n">
-        <v>190.4262761960435</v>
+        <v>223.8027412179777</v>
       </c>
       <c r="H134" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="I134" t="n">
-        <v>629106</v>
+        <v>631723</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14273913</v>
+        <v>14238448</v>
       </c>
       <c r="F135" t="n">
-        <v>5.19914840515836</v>
+        <v>5.384478112392419</v>
       </c>
       <c r="G135" t="n">
-        <v>90.86621773226605</v>
+        <v>4.008392304420976</v>
       </c>
       <c r="H135" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>185.44</v>
+        <v>211.53</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>123554933</v>
+        <v>126206911</v>
       </c>
       <c r="E136" t="n">
-        <v>915221724</v>
+        <v>934866009</v>
       </c>
       <c r="F136" t="n">
-        <v>123.5652573746015</v>
+        <v>84.35549876598729</v>
       </c>
       <c r="G136" t="n">
-        <v>1520.325511433344</v>
+        <v>120.7914341324184</v>
       </c>
       <c r="H136" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="I136" t="n">
-        <v>18834385</v>
+        <v>20747521</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31392753</v>
+        <v>31204265</v>
       </c>
       <c r="E137" t="n">
-        <v>149068954</v>
+        <v>148173917</v>
       </c>
       <c r="F137" t="n">
-        <v>1187.825778213118</v>
+        <v>1064.467746061913</v>
       </c>
       <c r="G137" t="n">
-        <v>899.3624359950379</v>
+        <v>1318.829230229632</v>
       </c>
       <c r="H137" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>724363</v>
+        <v>776713</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8778728</v>
+        <v>8655585</v>
       </c>
       <c r="E138" t="n">
-        <v>11760568</v>
+        <v>11595597</v>
       </c>
       <c r="F138" t="n">
-        <v>481.583230099765</v>
+        <v>78.74895295687811</v>
       </c>
       <c r="G138" t="n">
-        <v>14.541956675938</v>
+        <v>161.1977009897013</v>
       </c>
       <c r="H138" t="n">
         <v>0.83</v>
       </c>
       <c r="I138" t="n">
-        <v>79606</v>
+        <v>37697</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1219643</v>
+        <v>1212065</v>
       </c>
       <c r="F139" t="n">
-        <v>125.9665155800104</v>
+        <v>126.2348922776644</v>
       </c>
       <c r="G139" t="n">
-        <v>5.454081806469137</v>
+        <v>5.300266266156315</v>
       </c>
       <c r="H139" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I139" t="n">
-        <v>4828.71</v>
+        <v>4712.75</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2493848</v>
+        <v>2505741</v>
       </c>
       <c r="E140" t="n">
-        <v>2493848</v>
+        <v>2505741</v>
       </c>
       <c r="F140" t="n">
-        <v>106.3126226726912</v>
+        <v>292.2863596632395</v>
       </c>
       <c r="G140" t="n">
-        <v>384.2542153528609</v>
+        <v>527.4963083985475</v>
       </c>
       <c r="H140" t="n">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="I140" t="n">
-        <v>303882</v>
+        <v>305301</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>37407630</v>
+        <v>35952132</v>
       </c>
       <c r="E141" t="n">
-        <v>37407630</v>
+        <v>35952132</v>
       </c>
       <c r="F141" t="n">
-        <v>734.7184965825735</v>
+        <v>780.52502413771</v>
       </c>
       <c r="G141" t="n">
-        <v>1385.925777864943</v>
+        <v>633.2232218720172</v>
       </c>
       <c r="H141" t="n">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="I141" t="n">
-        <v>941139</v>
+        <v>956056</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6574978</v>
+        <v>6534542</v>
       </c>
       <c r="E142" t="n">
-        <v>6943912</v>
+        <v>6901208</v>
       </c>
       <c r="F142" t="n">
-        <v>612.8094557529378</v>
+        <v>493.913780427385</v>
       </c>
       <c r="G142" t="n">
-        <v>135.1833645775665</v>
+        <v>136.8548710958127</v>
       </c>
       <c r="H142" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I142" t="n">
-        <v>31272</v>
+        <v>30727</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3460297</v>
+        <v>3455981</v>
       </c>
       <c r="E143" t="n">
-        <v>8080371</v>
+        <v>8070293</v>
       </c>
       <c r="F143" t="n">
-        <v>252.0589934819119</v>
+        <v>1261.191875605661</v>
       </c>
       <c r="G143" t="n">
-        <v>1087.959417493615</v>
+        <v>1427.380362072459</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
       <c r="I143" t="n">
-        <v>630330</v>
+        <v>636773</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1592359</v>
+        <v>1575832</v>
       </c>
       <c r="E144" t="n">
-        <v>12366445</v>
+        <v>12238091</v>
       </c>
       <c r="F144" t="n">
-        <v>300.5308100552388</v>
+        <v>300.3419838246195</v>
       </c>
       <c r="G144" t="n">
-        <v>50.00164244301268</v>
+        <v>50.00645966884372</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="I144" t="n">
-        <v>507326</v>
+        <v>461004</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>336759066</v>
+        <v>333511388</v>
       </c>
       <c r="E145" t="n">
-        <v>3029693376</v>
+        <v>3000475249</v>
       </c>
       <c r="F145" t="n">
-        <v>553423.2635648136</v>
+        <v>506024.2754339035</v>
       </c>
       <c r="G145" t="n">
-        <v>564968.9214408309</v>
+        <v>667660.5878137962</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>56049421</v>
+        <v>57273948</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>247973</v>
+        <v>247421</v>
       </c>
       <c r="E146" t="n">
-        <v>2188546</v>
+        <v>2183676</v>
       </c>
       <c r="F146" t="n">
-        <v>3.991456275551729</v>
+        <v>5.345239513586828</v>
       </c>
       <c r="G146" t="n">
-        <v>29.75188898595027</v>
+        <v>13.9872853285395</v>
       </c>
       <c r="H146" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="I146" t="n">
-        <v>73464</v>
+        <v>70827</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>628327</v>
+        <v>628067</v>
       </c>
       <c r="F147" t="n">
-        <v>553.2881197604664</v>
+        <v>552.4737396850202</v>
       </c>
       <c r="G147" t="n">
-        <v>488.7446566872273</v>
+        <v>483.5702125132084</v>
       </c>
       <c r="H147" t="n">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="I147" t="n">
-        <v>12427</v>
+        <v>12479.15</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4878288</v>
+        <v>4823425</v>
       </c>
       <c r="E148" t="n">
-        <v>17234976</v>
+        <v>17041148</v>
       </c>
       <c r="F148" t="n">
-        <v>1672.806002286737</v>
+        <v>1566.835675878001</v>
       </c>
       <c r="G148" t="n">
-        <v>2027.653895951466</v>
+        <v>1617.780722859491</v>
       </c>
       <c r="H148" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I148" t="n">
-        <v>121279</v>
+        <v>125060</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9570924</v>
+        <v>9624848</v>
       </c>
       <c r="E149" t="n">
-        <v>44361784</v>
+        <v>44611722</v>
       </c>
       <c r="F149" t="n">
-        <v>3241.919217081579</v>
+        <v>1738.584236166595</v>
       </c>
       <c r="G149" t="n">
-        <v>3287.866229582509</v>
+        <v>3755.972812334738</v>
       </c>
       <c r="H149" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I149" t="n">
-        <v>74623</v>
+        <v>133908</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50871556</v>
+        <v>47276540</v>
       </c>
       <c r="E150" t="n">
-        <v>294525289</v>
+        <v>273711634</v>
       </c>
       <c r="F150" t="n">
-        <v>47742.66560045561</v>
+        <v>26754.81410672764</v>
       </c>
       <c r="G150" t="n">
-        <v>67739.53846140865</v>
+        <v>44969.09561530788</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I150" t="n">
-        <v>46317933</v>
+        <v>48519973</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>82218</v>
+        <v>82050</v>
       </c>
       <c r="E151" t="n">
-        <v>82218</v>
+        <v>82050</v>
       </c>
       <c r="F151" t="n">
-        <v>4.050367173562416</v>
+        <v>3.050615224841194</v>
       </c>
       <c r="G151" t="n">
-        <v>8.469712342676857</v>
+        <v>8.470531283933306</v>
       </c>
       <c r="H151" t="n">
         <v>0.98</v>
       </c>
       <c r="I151" t="n">
-        <v>23199</v>
+        <v>22650</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4269605</v>
+        <v>4256851</v>
       </c>
       <c r="F152" t="n">
-        <v>364.1774053590757</v>
+        <v>270.0984734708168</v>
       </c>
       <c r="G152" t="n">
-        <v>290.51371315819</v>
+        <v>291.9724158640536</v>
       </c>
       <c r="H152" t="n">
         <v>0.3</v>
       </c>
       <c r="I152" t="n">
-        <v>269001</v>
+        <v>271307</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39892902</v>
+        <v>39523211</v>
       </c>
       <c r="E153" t="n">
-        <v>55097779</v>
+        <v>54587182</v>
       </c>
       <c r="F153" t="n">
-        <v>552.6241278022014</v>
+        <v>524.0538089470937</v>
       </c>
       <c r="G153" t="n">
-        <v>2309.951563035857</v>
+        <v>2425.46417614589</v>
       </c>
       <c r="H153" t="n">
-        <v>0.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>338083</v>
+        <v>324618</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2094038</v>
+        <v>2095561</v>
       </c>
       <c r="E154" t="n">
-        <v>8551507</v>
+        <v>8557730</v>
       </c>
       <c r="F154" t="n">
-        <v>1599.633533920392</v>
+        <v>1572.322584383712</v>
       </c>
       <c r="G154" t="n">
-        <v>298.962032637619</v>
+        <v>784.4154296133465</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>215689</v>
+        <v>245234</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7507399</v>
+        <v>7610186</v>
       </c>
       <c r="E155" t="n">
-        <v>7563203</v>
+        <v>7666755</v>
       </c>
       <c r="F155" t="n">
-        <v>6548.609830411397</v>
+        <v>26114.88832897237</v>
       </c>
       <c r="G155" t="n">
-        <v>1114.35207532367</v>
+        <v>1198.656625220631</v>
       </c>
       <c r="H155" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>5043543</v>
+        <v>5607913</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>491188</v>
+        <v>505526</v>
       </c>
       <c r="E156" t="n">
-        <v>491188</v>
+        <v>505526</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>10166.24</v>
+        <v>12820.23</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13989270</v>
+        <v>13902230</v>
       </c>
       <c r="E157" t="n">
-        <v>14036877</v>
+        <v>13949540</v>
       </c>
       <c r="F157" t="n">
-        <v>2409.679875437632</v>
+        <v>1236.457506540147</v>
       </c>
       <c r="G157" t="n">
-        <v>6719.106202140119</v>
+        <v>1571.295485062107</v>
       </c>
       <c r="H157" t="n">
         <v>0.25</v>
       </c>
       <c r="I157" t="n">
-        <v>6758023</v>
+        <v>6795257</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42790414</v>
+        <v>42720832</v>
       </c>
       <c r="E158" t="n">
-        <v>72648169</v>
+        <v>72530034</v>
       </c>
       <c r="F158" t="n">
-        <v>305.7721030052457</v>
+        <v>381.0849314325433</v>
       </c>
       <c r="G158" t="n">
-        <v>342.4869529656476</v>
+        <v>411.8077915129458</v>
       </c>
       <c r="H158" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I158" t="n">
-        <v>1094704</v>
+        <v>1078800</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>21254831</v>
+        <v>19946678</v>
       </c>
       <c r="E159" t="n">
-        <v>63714938</v>
+        <v>59790103</v>
       </c>
       <c r="F159" t="n">
-        <v>5180.178296623606</v>
+        <v>5475.700239380702</v>
       </c>
       <c r="G159" t="n">
-        <v>6256.921124230927</v>
+        <v>2628.581890646548</v>
       </c>
       <c r="H159" t="n">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
       <c r="I159" t="n">
-        <v>3186136</v>
+        <v>4143690</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100378596</v>
+        <v>100100931</v>
       </c>
       <c r="E160" t="n">
-        <v>106711520</v>
+        <v>106416337</v>
       </c>
       <c r="F160" t="n">
-        <v>484.8874330411683</v>
+        <v>424.6099963488197</v>
       </c>
       <c r="G160" t="n">
-        <v>949.9838507581453</v>
+        <v>1399.32104255631</v>
       </c>
       <c r="H160" t="n">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="I160" t="n">
-        <v>486512</v>
+        <v>489342</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10413400</v>
+        <v>10421482</v>
       </c>
       <c r="E161" t="n">
-        <v>45364871</v>
+        <v>45367490</v>
       </c>
       <c r="F161" t="n">
-        <v>3329.173536436771</v>
+        <v>3505.041578052256</v>
       </c>
       <c r="G161" t="n">
-        <v>6505.236152906737</v>
+        <v>7078.160799757792</v>
       </c>
       <c r="H161" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I161" t="n">
-        <v>119337</v>
+        <v>119510</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15831959</v>
+        <v>15801379</v>
       </c>
       <c r="E162" t="n">
-        <v>97039285</v>
+        <v>96851849</v>
       </c>
       <c r="F162" t="n">
-        <v>2005.583543654727</v>
+        <v>3274.124833389484</v>
       </c>
       <c r="G162" t="n">
-        <v>715.2114776008609</v>
+        <v>897.8573592407485</v>
       </c>
       <c r="H162" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>11228476</v>
+        <v>11343985</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1512352</v>
+        <v>1496309</v>
       </c>
       <c r="E163" t="n">
-        <v>1554893</v>
+        <v>1538398</v>
       </c>
       <c r="F163" t="n">
-        <v>102.2740145947394</v>
+        <v>102.3949148803083</v>
       </c>
       <c r="G163" t="n">
-        <v>71.21754649596998</v>
+        <v>71.22343274098615</v>
       </c>
       <c r="H163" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="I163" t="n">
-        <v>147668</v>
+        <v>150574</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>91855</v>
+        <v>91767</v>
       </c>
       <c r="E164" t="n">
-        <v>260572</v>
+        <v>260323</v>
       </c>
       <c r="F164" t="n">
-        <v>5.347361273235641</v>
+        <v>5.412725713843811</v>
       </c>
       <c r="G164" t="n">
-        <v>99.34488464000127</v>
+        <v>99.09170070152143</v>
       </c>
       <c r="H164" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I164" t="n">
-        <v>229.33</v>
+        <v>229.11</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50366905</v>
+        <v>49675355</v>
       </c>
       <c r="E165" t="n">
-        <v>216975119</v>
+        <v>213995998</v>
       </c>
       <c r="F165" t="n">
-        <v>4475.840435640793</v>
+        <v>3952.366835283146</v>
       </c>
       <c r="G165" t="n">
-        <v>4768.900977634412</v>
+        <v>5120.04850493</v>
       </c>
       <c r="H165" t="n">
         <v>0.13</v>
       </c>
       <c r="I165" t="n">
-        <v>11708347</v>
+        <v>11994434</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7634677</v>
+        <v>7571615</v>
       </c>
       <c r="F166" t="n">
-        <v>213.3967177400893</v>
+        <v>164.951098042456</v>
       </c>
       <c r="G166" t="n">
-        <v>429.4829309801647</v>
+        <v>352.7035593899686</v>
       </c>
       <c r="H166" t="n">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="I166" t="n">
-        <v>6858780</v>
+        <v>6880364</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>671816</v>
+        <v>669209</v>
       </c>
       <c r="E167" t="n">
-        <v>2424898</v>
+        <v>2415488</v>
       </c>
       <c r="F167" t="n">
-        <v>50.97285478761685</v>
+        <v>50.97356519635186</v>
       </c>
       <c r="G167" t="n">
-        <v>50.61775914406515</v>
+        <v>10.61836571980875</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>339022</v>
+        <v>362667</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1774107</v>
+        <v>1656567</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>164.7106870650015</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>13.16071000950208</v>
       </c>
       <c r="H168" t="n">
-        <v>11.97</v>
+        <v>1.45</v>
       </c>
       <c r="I168" t="n">
-        <v>87331</v>
+        <v>90186</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12977242</v>
+        <v>12798932</v>
       </c>
       <c r="E169" t="n">
-        <v>12977242</v>
+        <v>12798932</v>
       </c>
       <c r="F169" t="n">
-        <v>141.6233329197339</v>
+        <v>481.1956075617298</v>
       </c>
       <c r="G169" t="n">
-        <v>55.54921286792744</v>
+        <v>10.18468974995459</v>
       </c>
       <c r="H169" t="n">
-        <v>3.27</v>
+        <v>2.1</v>
       </c>
       <c r="I169" t="n">
-        <v>4442524</v>
+        <v>4174421</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2174395</v>
+        <v>2261014</v>
       </c>
       <c r="E170" t="n">
-        <v>7894260</v>
+        <v>8208663</v>
       </c>
       <c r="F170" t="n">
-        <v>169.2678670541849</v>
+        <v>250.332821228524</v>
       </c>
       <c r="G170" t="n">
-        <v>183.2434846935189</v>
+        <v>169.4982601864293</v>
       </c>
       <c r="H170" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I170" t="n">
-        <v>200884</v>
+        <v>206445</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8937342</v>
+        <v>8806448</v>
       </c>
       <c r="E171" t="n">
-        <v>19834587</v>
+        <v>19542285</v>
       </c>
       <c r="F171" t="n">
-        <v>462.8828410826848</v>
+        <v>369.411758559473</v>
       </c>
       <c r="G171" t="n">
-        <v>1586.889314097511</v>
+        <v>572.4012557827516</v>
       </c>
       <c r="H171" t="n">
-        <v>0.43</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="n">
-        <v>335704</v>
+        <v>320618</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1037375</v>
+        <v>1030479</v>
       </c>
       <c r="E172" t="n">
-        <v>3032068</v>
+        <v>3011912</v>
       </c>
       <c r="F172" t="n">
-        <v>105.268769639156</v>
+        <v>105.2823690345489</v>
       </c>
       <c r="G172" t="n">
-        <v>632.2899901767597</v>
+        <v>632.2386908443208</v>
       </c>
       <c r="H172" t="n">
         <v>0.78</v>
       </c>
       <c r="I172" t="n">
-        <v>19357.47</v>
+        <v>19469.22</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>19421497</v>
+        <v>18932890</v>
       </c>
       <c r="E173" t="n">
-        <v>77685989</v>
+        <v>75731560</v>
       </c>
       <c r="F173" t="n">
-        <v>9193.522675748634</v>
+        <v>20454.63815471924</v>
       </c>
       <c r="G173" t="n">
-        <v>13883.53749510031</v>
+        <v>19179.00242449541</v>
       </c>
       <c r="H173" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="I173" t="n">
-        <v>2316572</v>
+        <v>2376371</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4659933</v>
+        <v>4638073</v>
       </c>
       <c r="E174" t="n">
-        <v>4659933</v>
+        <v>4638073</v>
       </c>
       <c r="F174" t="n">
-        <v>1414.857085924493</v>
+        <v>602.7393252169879</v>
       </c>
       <c r="G174" t="n">
-        <v>1574.312028519205</v>
+        <v>1589.646348932926</v>
       </c>
       <c r="H174" t="n">
-        <v>1.59</v>
+        <v>0.75</v>
       </c>
       <c r="I174" t="n">
-        <v>2921524</v>
+        <v>2901519</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>308832633</v>
+        <v>302769029</v>
       </c>
       <c r="E175" t="n">
-        <v>308832633</v>
+        <v>302769029</v>
       </c>
       <c r="F175" t="n">
-        <v>1747.225444459153</v>
+        <v>11350.17660931676</v>
       </c>
       <c r="G175" t="n">
-        <v>4097.230956899872</v>
+        <v>2584.987396118707</v>
       </c>
       <c r="H175" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="I175" t="n">
-        <v>18945881</v>
+        <v>19458184</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12657458</v>
+        <v>12597282</v>
       </c>
       <c r="E176" t="n">
-        <v>40034101</v>
+        <v>39843770</v>
       </c>
       <c r="F176" t="n">
-        <v>1426.12936782626</v>
+        <v>3582.479533193714</v>
       </c>
       <c r="G176" t="n">
-        <v>1357.891968238273</v>
+        <v>3029.993486788371</v>
       </c>
       <c r="H176" t="n">
         <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>921824</v>
+        <v>934892</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24888</v>
+        <v>24903</v>
       </c>
       <c r="E177" t="n">
-        <v>195734</v>
+        <v>195858</v>
       </c>
       <c r="F177" t="n">
-        <v>71.67390663844844</v>
+        <v>84.77494573070923</v>
       </c>
       <c r="G177" t="n">
-        <v>1107.694751346729</v>
+        <v>1079.119032824272</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>46992</v>
+        <v>46962</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8774602</v>
+        <v>8672277</v>
       </c>
       <c r="E178" t="n">
-        <v>8774602</v>
+        <v>8672277</v>
       </c>
       <c r="F178" t="n">
-        <v>2317.538793214482</v>
+        <v>1402.295919382183</v>
       </c>
       <c r="G178" t="n">
-        <v>2725.198390752006</v>
+        <v>1845.920369171971</v>
       </c>
       <c r="H178" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="I178" t="n">
-        <v>3911377</v>
+        <v>3938909</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1106082</v>
+        <v>1106762</v>
       </c>
       <c r="E179" t="n">
-        <v>2519210</v>
+        <v>2520759</v>
       </c>
       <c r="F179" t="n">
-        <v>22.83572070030144</v>
+        <v>22.95147504524316</v>
       </c>
       <c r="G179" t="n">
-        <v>260.7236801285099</v>
+        <v>260.9230389356342</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>604.1</v>
+        <v>604.3200000000001</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9944284</v>
+        <v>9956158</v>
       </c>
       <c r="E180" t="n">
-        <v>9944284</v>
+        <v>9956158</v>
       </c>
       <c r="F180" t="n">
-        <v>2972.633479703537</v>
+        <v>1897.944005080541</v>
       </c>
       <c r="G180" t="n">
-        <v>2794.764914518586</v>
+        <v>16193.44268955108</v>
       </c>
       <c r="H180" t="n">
-        <v>0.24</v>
+        <v>0.93</v>
       </c>
       <c r="I180" t="n">
-        <v>2616989</v>
+        <v>2266126</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18847441</v>
+        <v>18529793</v>
       </c>
       <c r="E181" t="n">
-        <v>18847441</v>
+        <v>18529793</v>
       </c>
       <c r="F181" t="n">
-        <v>1201.332873522353</v>
+        <v>1370.422235096185</v>
       </c>
       <c r="G181" t="n">
-        <v>2093.817286638777</v>
+        <v>1462.88201502891</v>
       </c>
       <c r="H181" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="I181" t="n">
-        <v>6323342</v>
+        <v>6448985</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32336833</v>
+        <v>31797559</v>
       </c>
       <c r="E182" t="n">
-        <v>89569818</v>
+        <v>88076084</v>
       </c>
       <c r="F182" t="n">
-        <v>5430.103198177188</v>
+        <v>5693.283119113587</v>
       </c>
       <c r="G182" t="n">
-        <v>6832.634337415696</v>
+        <v>5900.51305363454</v>
       </c>
       <c r="H182" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I182" t="n">
-        <v>12202147</v>
+        <v>12059354</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>36849735</v>
+        <v>32029296</v>
       </c>
       <c r="E183" t="n">
-        <v>92917340</v>
+        <v>80762507</v>
       </c>
       <c r="F183" t="n">
-        <v>6983.367738491901</v>
+        <v>720.8280108700091</v>
       </c>
       <c r="G183" t="n">
-        <v>3411.668479870032</v>
+        <v>4140.437893051195</v>
       </c>
       <c r="H183" t="n">
-        <v>0.64</v>
+        <v>1.34</v>
       </c>
       <c r="I183" t="n">
-        <v>3792190</v>
+        <v>5234509</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>315060611</v>
+        <v>309549726</v>
       </c>
       <c r="E184" t="n">
-        <v>319986299</v>
+        <v>314390649</v>
       </c>
       <c r="F184" t="n">
-        <v>19361.61456693389</v>
+        <v>15520.87320458208</v>
       </c>
       <c r="G184" t="n">
-        <v>22067.06611583603</v>
+        <v>25553.27633728741</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>23249323</v>
+        <v>23812745</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>409049</v>
+        <v>405868</v>
       </c>
       <c r="F185" t="n">
-        <v>1.234731107578749</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>444.1101069606549</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>2.88</v>
+        <v>5.11</v>
       </c>
       <c r="I185" t="n">
-        <v>70246</v>
+        <v>69044</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27437334</v>
+        <v>27178812</v>
       </c>
       <c r="E186" t="n">
-        <v>65156641</v>
+        <v>64542717</v>
       </c>
       <c r="F186" t="n">
-        <v>954.0839253653493</v>
+        <v>2598.329819636273</v>
       </c>
       <c r="G186" t="n">
-        <v>3420.690644293913</v>
+        <v>1466.228465208236</v>
       </c>
       <c r="H186" t="n">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="I186" t="n">
-        <v>532806</v>
+        <v>569854</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22202213</v>
+        <v>22205814</v>
       </c>
       <c r="F187" t="n">
-        <v>5.593435463892358</v>
+        <v>4.095484731447257</v>
       </c>
       <c r="G187" t="n">
-        <v>324.67069174528</v>
+        <v>295.1138875787177</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03</v>
+        <v>0.46</v>
       </c>
       <c r="I187" t="n">
-        <v>1033.04</v>
+        <v>1034.14</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12639292</v>
+        <v>12637907</v>
       </c>
       <c r="E188" t="n">
-        <v>19239853</v>
+        <v>19237744</v>
       </c>
       <c r="F188" t="n">
-        <v>3621.751844485006</v>
+        <v>2629.714189564709</v>
       </c>
       <c r="G188" t="n">
-        <v>2664.717794692383</v>
+        <v>3771.223933537076</v>
       </c>
       <c r="H188" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>655940</v>
+        <v>660703</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>84348956</v>
+        <v>83276278</v>
       </c>
       <c r="E189" t="n">
-        <v>84348956</v>
+        <v>83276278</v>
       </c>
       <c r="F189" t="n">
-        <v>11087.50543575349</v>
+        <v>10192.93316185389</v>
       </c>
       <c r="G189" t="n">
-        <v>8729.200112244305</v>
+        <v>10074.8063422712</v>
       </c>
       <c r="H189" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I189" t="n">
-        <v>5304309</v>
+        <v>4879216</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>304993523</v>
+        <v>300354551</v>
       </c>
       <c r="E190" t="n">
-        <v>304993523</v>
+        <v>300354551</v>
       </c>
       <c r="F190" t="n">
-        <v>187067.2591255264</v>
+        <v>214603.4840218828</v>
       </c>
       <c r="G190" t="n">
-        <v>326056.5730885844</v>
+        <v>294277.7620953271</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>84683029</v>
+        <v>85005752</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10203644</v>
+        <v>10152301</v>
       </c>
       <c r="E191" t="n">
-        <v>28969846</v>
+        <v>28824076</v>
       </c>
       <c r="F191" t="n">
-        <v>745.7422995875905</v>
+        <v>632.5726577179853</v>
       </c>
       <c r="G191" t="n">
-        <v>6905.403776761527</v>
+        <v>6878.046096644368</v>
       </c>
       <c r="H191" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="I191" t="n">
-        <v>113141</v>
+        <v>111959</v>
       </c>
     </row>
     <row r="192">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4322758</v>
+        <v>4284783</v>
       </c>
       <c r="E192" t="n">
-        <v>29537104</v>
+        <v>29277620</v>
       </c>
       <c r="F192" t="n">
         <v>5905.845000506944</v>
@@ -7140,7 +7140,7 @@
         <v>0.84</v>
       </c>
       <c r="I192" t="n">
-        <v>2681612</v>
+        <v>2676941</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2935360</v>
+        <v>2875249</v>
       </c>
       <c r="E193" t="n">
-        <v>4347147</v>
+        <v>4257953</v>
       </c>
       <c r="F193" t="n">
-        <v>211.9043587152498</v>
+        <v>242.7385680111293</v>
       </c>
       <c r="G193" t="n">
-        <v>621.2143238366015</v>
+        <v>511.5764397234074</v>
       </c>
       <c r="H193" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I193" t="n">
-        <v>102533</v>
+        <v>95943</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89223950</v>
+        <v>87727897</v>
       </c>
       <c r="E194" t="n">
-        <v>514146886</v>
+        <v>505525982</v>
       </c>
       <c r="F194" t="n">
-        <v>581326.7764145483</v>
+        <v>118908.9146535399</v>
       </c>
       <c r="G194" t="n">
-        <v>453031.925818678</v>
+        <v>94371.91403759606</v>
       </c>
       <c r="H194" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I194" t="n">
-        <v>20012467</v>
+        <v>20088188</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>715612</v>
+        <v>708005</v>
       </c>
       <c r="E195" t="n">
-        <v>780442</v>
+        <v>772145</v>
       </c>
       <c r="F195" t="n">
-        <v>5.406116134894539</v>
+        <v>5.406087437132156</v>
       </c>
       <c r="G195" t="n">
-        <v>4.021316804185013</v>
+        <v>4.010007364322055</v>
       </c>
       <c r="H195" t="n">
         <v>0.79</v>
       </c>
       <c r="I195" t="n">
-        <v>127057</v>
+        <v>126671</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>109205914</v>
+        <v>107785267</v>
       </c>
       <c r="E196" t="n">
-        <v>268689215</v>
+        <v>265193867</v>
       </c>
       <c r="F196" t="n">
-        <v>49772.27275367665</v>
+        <v>60579.73615508885</v>
       </c>
       <c r="G196" t="n">
-        <v>46485.04349755769</v>
+        <v>37190.16883806932</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I196" t="n">
-        <v>2514420</v>
+        <v>2561589</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19686378</v>
+        <v>20236425</v>
       </c>
       <c r="E197" t="n">
-        <v>19686378</v>
+        <v>20236425</v>
       </c>
       <c r="F197" t="n">
-        <v>3.879213675806396</v>
+        <v>3.879599504607142</v>
       </c>
       <c r="G197" t="n">
-        <v>5.517516520783905</v>
+        <v>5.518065296118347</v>
       </c>
       <c r="H197" t="n">
         <v>0.4</v>
       </c>
       <c r="I197" t="n">
-        <v>147575</v>
+        <v>153832</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1327647</v>
+        <v>1338266</v>
       </c>
       <c r="F198" t="n">
-        <v>4.180967213044443</v>
+        <v>4.181383671819619</v>
       </c>
       <c r="G198" t="n">
-        <v>108.7960437898221</v>
+        <v>53.68198826702111</v>
       </c>
       <c r="H198" t="n">
         <v>0.53</v>
       </c>
       <c r="I198" t="n">
-        <v>37009</v>
+        <v>38564</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>146748</v>
+        <v>126736</v>
       </c>
       <c r="E199" t="n">
-        <v>319467</v>
+        <v>275901</v>
       </c>
       <c r="F199" t="n">
-        <v>4.021682469625514</v>
+        <v>4.02207368335813</v>
       </c>
       <c r="G199" t="n">
-        <v>29.76536829592052</v>
+        <v>29.76826375594793</v>
       </c>
       <c r="H199" t="n">
         <v>0.84</v>
       </c>
       <c r="I199" t="n">
-        <v>50362</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3145519</v>
+        <v>3056513</v>
       </c>
       <c r="F200" t="n">
-        <v>1429.309122306324</v>
+        <v>1469.156906754273</v>
       </c>
       <c r="G200" t="n">
-        <v>863.9527829087458</v>
+        <v>1448.403798107813</v>
       </c>
       <c r="H200" t="n">
-        <v>1.27</v>
+        <v>0.99</v>
       </c>
       <c r="I200" t="n">
-        <v>492138</v>
+        <v>493681</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>196001</v>
+        <v>194229</v>
       </c>
       <c r="E201" t="n">
-        <v>1513524</v>
+        <v>1499841</v>
       </c>
       <c r="F201" t="n">
-        <v>20.6610396803896</v>
+        <v>40.79760633812738</v>
       </c>
       <c r="G201" t="n">
-        <v>5.305463156590182</v>
+        <v>1.226871312781378</v>
       </c>
       <c r="H201" t="n">
-        <v>0.13</v>
+        <v>2.32</v>
       </c>
       <c r="I201" t="n">
-        <v>90227</v>
+        <v>84591</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30678622</v>
+        <v>30277478</v>
       </c>
       <c r="E202" t="n">
-        <v>137360775</v>
+        <v>135564688</v>
       </c>
       <c r="F202" t="n">
-        <v>10304.64315267457</v>
+        <v>5388.374085420228</v>
       </c>
       <c r="G202" t="n">
-        <v>8145.144075860929</v>
+        <v>8256.700519116021</v>
       </c>
       <c r="H202" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I202" t="n">
-        <v>11748063</v>
+        <v>12197086</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12797051</v>
+        <v>12820194</v>
       </c>
       <c r="E203" t="n">
-        <v>25576162</v>
+        <v>25622415</v>
       </c>
       <c r="F203" t="n">
-        <v>694.9157179793325</v>
+        <v>696.5595099218286</v>
       </c>
       <c r="G203" t="n">
-        <v>1214.532770067168</v>
+        <v>1214.511250132547</v>
       </c>
       <c r="H203" t="n">
         <v>0.35</v>
       </c>
       <c r="I203" t="n">
-        <v>14501.54</v>
+        <v>14696.44</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1262361</v>
+        <v>1279168</v>
       </c>
       <c r="F204" t="n">
-        <v>193.3405288370452</v>
+        <v>535.5917168049841</v>
       </c>
       <c r="G204" t="n">
-        <v>382.7355355891679</v>
+        <v>172.5704275158447</v>
       </c>
       <c r="H204" t="n">
-        <v>0.25</v>
+        <v>3.56</v>
       </c>
       <c r="I204" t="n">
-        <v>90998</v>
+        <v>92680</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>967842</v>
+        <v>958751</v>
       </c>
       <c r="E205" t="n">
-        <v>4476405</v>
+        <v>4434360</v>
       </c>
       <c r="F205" t="n">
-        <v>3233.508118304401</v>
+        <v>1136.576528264364</v>
       </c>
       <c r="G205" t="n">
-        <v>2680.035754286223</v>
+        <v>2110.420960881234</v>
       </c>
       <c r="H205" t="n">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="I205" t="n">
-        <v>484790</v>
+        <v>482483</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3113722</v>
+        <v>3094835</v>
       </c>
       <c r="E206" t="n">
-        <v>3113722</v>
+        <v>3094835</v>
       </c>
       <c r="F206" t="n">
-        <v>1246.790571815532</v>
+        <v>1067.341381167738</v>
       </c>
       <c r="G206" t="n">
-        <v>862.5806655478469</v>
+        <v>742.715692106552</v>
       </c>
       <c r="H206" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I206" t="n">
-        <v>397541</v>
+        <v>385120</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>560139</v>
+        <v>564438</v>
       </c>
       <c r="E207" t="n">
-        <v>560139</v>
+        <v>564438</v>
       </c>
       <c r="F207" t="n">
-        <v>5.572453993027473</v>
+        <v>63.37728080215527</v>
       </c>
       <c r="G207" t="n">
-        <v>80.04099665403582</v>
+        <v>4.157619387777482</v>
       </c>
       <c r="H207" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="I207" t="n">
-        <v>1182757</v>
+        <v>1151391</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14951236</v>
+        <v>14900822</v>
       </c>
       <c r="E208" t="n">
-        <v>19035310</v>
+        <v>18971125</v>
       </c>
       <c r="F208" t="n">
-        <v>568.3262159467163</v>
+        <v>551.6525698992895</v>
       </c>
       <c r="G208" t="n">
-        <v>179.0830748864508</v>
+        <v>140.1169127964091</v>
       </c>
       <c r="H208" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I208" t="n">
-        <v>972091</v>
+        <v>986845</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1819297</v>
+        <v>1784238</v>
       </c>
       <c r="E209" t="n">
-        <v>1819297</v>
+        <v>1784238</v>
       </c>
       <c r="F209" t="n">
-        <v>5.390947822295743</v>
+        <v>4.169096182183177</v>
       </c>
       <c r="G209" t="n">
-        <v>5.404026097719226</v>
+        <v>942.6844747424863</v>
       </c>
       <c r="H209" t="n">
         <v>0.57</v>
       </c>
       <c r="I209" t="n">
-        <v>3789.37</v>
+        <v>4117.72</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5826865</v>
+        <v>5799248</v>
       </c>
       <c r="E210" t="n">
-        <v>15292602</v>
+        <v>15220120</v>
       </c>
       <c r="F210" t="n">
-        <v>153.6104266964449</v>
+        <v>169.7387957417843</v>
       </c>
       <c r="G210" t="n">
-        <v>276.0606273822497</v>
+        <v>768.9985630791858</v>
       </c>
       <c r="H210" t="n">
-        <v>1.26</v>
+        <v>0.43</v>
       </c>
       <c r="I210" t="n">
-        <v>26021</v>
+        <v>23842</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29086117</v>
+        <v>28981856</v>
       </c>
       <c r="F211" t="n">
-        <v>804.2376540851299</v>
+        <v>1426.537462628644</v>
       </c>
       <c r="G211" t="n">
-        <v>2322.456170238358</v>
+        <v>2357.236396710936</v>
       </c>
       <c r="H211" t="n">
-        <v>0.72</v>
+        <v>1.37</v>
       </c>
       <c r="I211" t="n">
-        <v>517121</v>
+        <v>525179</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17961124</v>
+        <v>17795134</v>
       </c>
       <c r="E212" t="n">
-        <v>17961177</v>
+        <v>17795193</v>
       </c>
       <c r="F212" t="n">
-        <v>23055.5194571418</v>
+        <v>11617.62691959845</v>
       </c>
       <c r="G212" t="n">
-        <v>26130.33762259631</v>
+        <v>15822.09035086272</v>
       </c>
       <c r="H212" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2404280</v>
+        <v>2362227</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>51069762</v>
+        <v>50219955</v>
       </c>
       <c r="E213" t="n">
-        <v>331173817</v>
+        <v>325663045</v>
       </c>
       <c r="F213" t="n">
-        <v>123009.1305233928</v>
+        <v>125296.0144756897</v>
       </c>
       <c r="G213" t="n">
-        <v>166933.1919769589</v>
+        <v>169517.4987427439</v>
       </c>
       <c r="H213" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I213" t="n">
-        <v>19053033</v>
+        <v>19242471</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9084523</v>
+        <v>9091006</v>
       </c>
       <c r="F214" t="n">
-        <v>180.8696136423237</v>
+        <v>182.3373938564436</v>
       </c>
       <c r="G214" t="n">
-        <v>3.974360624266811</v>
+        <v>4.254465890275915</v>
       </c>
       <c r="H214" t="n">
         <v>0.44</v>
       </c>
       <c r="I214" t="n">
-        <v>292791</v>
+        <v>287726</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7185470</v>
+        <v>7144016</v>
       </c>
       <c r="E215" t="n">
-        <v>7195761</v>
+        <v>7154248</v>
       </c>
       <c r="F215" t="n">
-        <v>10.61938690015722</v>
+        <v>4.256619706968703</v>
       </c>
       <c r="G215" t="n">
-        <v>187.1179779077658</v>
+        <v>1351.194862993304</v>
       </c>
       <c r="H215" t="n">
-        <v>0.99</v>
+        <v>1.47</v>
       </c>
       <c r="I215" t="n">
-        <v>702862</v>
+        <v>418469</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4789109</v>
+        <v>4727566</v>
       </c>
       <c r="F216" t="n">
-        <v>77.68665505314473</v>
+        <v>133.1035480539888</v>
       </c>
       <c r="G216" t="n">
-        <v>113.8257098513225</v>
+        <v>63.4242737790798</v>
       </c>
       <c r="H216" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>238160</v>
+        <v>238084</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2473292</v>
+        <v>2471178</v>
       </c>
       <c r="E217" t="n">
-        <v>4480833</v>
+        <v>4477004</v>
       </c>
       <c r="F217" t="n">
-        <v>605.702682680059</v>
+        <v>549.8205195205562</v>
       </c>
       <c r="G217" t="n">
-        <v>504.6489800797978</v>
+        <v>597.1460510837833</v>
       </c>
       <c r="H217" t="n">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="I217" t="n">
-        <v>141575</v>
+        <v>140297</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123454323</v>
+        <v>123612660</v>
       </c>
       <c r="E218" t="n">
-        <v>2044504694</v>
+        <v>2047126895</v>
       </c>
       <c r="F218" t="n">
-        <v>12303.5418081084</v>
+        <v>8432.92569986924</v>
       </c>
       <c r="G218" t="n">
-        <v>10601.96132107399</v>
+        <v>11165.84996622519</v>
       </c>
       <c r="H218" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I218" t="n">
-        <v>12310034</v>
+        <v>21419449</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>105796066</v>
+        <v>100598168</v>
       </c>
       <c r="E219" t="n">
-        <v>106934885</v>
+        <v>101681034</v>
       </c>
       <c r="F219" t="n">
-        <v>15204.13153353428</v>
+        <v>10170.05520230584</v>
       </c>
       <c r="G219" t="n">
-        <v>18123.41419299903</v>
+        <v>15137.58156255201</v>
       </c>
       <c r="H219" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I219" t="n">
-        <v>79758018</v>
+        <v>78953683</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>249172535</v>
+        <v>246566128</v>
       </c>
       <c r="E220" t="n">
-        <v>249172535</v>
+        <v>246566128</v>
       </c>
       <c r="F220" t="n">
-        <v>69075.9441123237</v>
+        <v>86222.62973990318</v>
       </c>
       <c r="G220" t="n">
-        <v>52118.76510451672</v>
+        <v>44033.56797609005</v>
       </c>
       <c r="H220" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I220" t="n">
-        <v>71098659</v>
+        <v>74332788</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24228621</v>
+        <v>24009723</v>
       </c>
       <c r="E221" t="n">
-        <v>144964710</v>
+        <v>143654997</v>
       </c>
       <c r="F221" t="n">
-        <v>59969.66290553544</v>
+        <v>55476.77336805814</v>
       </c>
       <c r="G221" t="n">
-        <v>91894.05909518579</v>
+        <v>105976.1546651995</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>15776742</v>
+        <v>16254296</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1094916</v>
+        <v>1102822</v>
       </c>
       <c r="F222" t="n">
-        <v>74.31222155512016</v>
+        <v>77.01697455287389</v>
       </c>
       <c r="G222" t="n">
-        <v>80.45477932146062</v>
+        <v>107.7583270059636</v>
       </c>
       <c r="H222" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="I222" t="n">
-        <v>81594</v>
+        <v>82751</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2183360</v>
+        <v>2201279</v>
       </c>
       <c r="F223" t="n">
-        <v>128.7940628935616</v>
+        <v>139.47233754194</v>
       </c>
       <c r="G223" t="n">
-        <v>127.7425693422641</v>
+        <v>119.4864939849075</v>
       </c>
       <c r="H223" t="n">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="I223" t="n">
-        <v>175482</v>
+        <v>175701</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13932252</v>
+        <v>13939841</v>
       </c>
       <c r="E224" t="n">
-        <v>42107132</v>
+        <v>42130070</v>
       </c>
       <c r="F224" t="n">
-        <v>1533.462223891014</v>
+        <v>1782.011960833259</v>
       </c>
       <c r="G224" t="n">
-        <v>6288.465056626756</v>
+        <v>1269.843044742202</v>
       </c>
       <c r="H224" t="n">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="I224" t="n">
-        <v>2550240</v>
+        <v>2563973</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>53922993</v>
+        <v>53431097</v>
       </c>
       <c r="E225" t="n">
-        <v>93136732</v>
+        <v>92287120</v>
       </c>
       <c r="F225" t="n">
-        <v>6495.860401096888</v>
+        <v>3182.195358404005</v>
       </c>
       <c r="G225" t="n">
-        <v>7955.616554932052</v>
+        <v>12087.07222446305</v>
       </c>
       <c r="H225" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I225" t="n">
-        <v>2374647</v>
+        <v>2336841</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4221344</v>
+        <v>4210708</v>
       </c>
       <c r="E226" t="n">
-        <v>4221344</v>
+        <v>4210708</v>
       </c>
       <c r="F226" t="n">
-        <v>5.517275480978729</v>
+        <v>31.93284766766972</v>
       </c>
       <c r="G226" t="n">
-        <v>23.03211817658492</v>
+        <v>55.19191692507667</v>
       </c>
       <c r="H226" t="n">
-        <v>0.09</v>
+        <v>0.59</v>
       </c>
       <c r="I226" t="n">
-        <v>1754105</v>
+        <v>1758245</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>213224</v>
+        <v>197886</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>58317</v>
+        <v>59218</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6525574</v>
+        <v>6362384</v>
       </c>
       <c r="E228" t="n">
-        <v>33572093</v>
+        <v>32732531</v>
       </c>
       <c r="F228" t="n">
-        <v>789.9375034577786</v>
+        <v>1176.4009261141</v>
       </c>
       <c r="G228" t="n">
-        <v>136.5615493449346</v>
+        <v>192.1691253361513</v>
       </c>
       <c r="H228" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I228" t="n">
-        <v>958312</v>
+        <v>945674</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176782215</v>
+        <v>176187261</v>
       </c>
       <c r="E230" t="n">
-        <v>206533826</v>
+        <v>205838744</v>
       </c>
       <c r="F230" t="n">
-        <v>24017.94231136812</v>
+        <v>17227.68019233347</v>
       </c>
       <c r="G230" t="n">
-        <v>77819.52539511128</v>
+        <v>88146.41715667829</v>
       </c>
       <c r="H230" t="n">
         <v>0.26</v>
       </c>
       <c r="I230" t="n">
-        <v>4368807</v>
+        <v>4313955</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>306524</v>
+        <v>304932</v>
       </c>
       <c r="F231" t="n">
-        <v>3.791031630572099</v>
+        <v>217.7528789072308</v>
       </c>
       <c r="G231" t="n">
-        <v>483.5532413440932</v>
+        <v>47.45289541269288</v>
       </c>
       <c r="H231" t="n">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="I231" t="n">
-        <v>258892</v>
+        <v>252122</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29496292</v>
+        <v>29381454</v>
       </c>
       <c r="E232" t="n">
-        <v>40444573</v>
+        <v>40287111</v>
       </c>
       <c r="F232" t="n">
-        <v>4822.815138745086</v>
+        <v>6023.855253963533</v>
       </c>
       <c r="G232" t="n">
-        <v>6263.170646994515</v>
+        <v>6471.052806696256</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I232" t="n">
-        <v>208405</v>
+        <v>203466</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1126504</v>
+        <v>1133282</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>562830</v>
+        <v>531404</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7676283</v>
+        <v>7642822</v>
       </c>
       <c r="F234" t="n">
-        <v>5.133734797103974</v>
+        <v>876.047868764321</v>
       </c>
       <c r="G234" t="n">
-        <v>957.0776655317728</v>
+        <v>3096.742255673947</v>
       </c>
       <c r="H234" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I234" t="n">
-        <v>651686</v>
+        <v>653505</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23368194</v>
+        <v>23276905</v>
       </c>
       <c r="E235" t="n">
-        <v>23368194</v>
+        <v>23276905</v>
       </c>
       <c r="F235" t="n">
-        <v>24876.02477887339</v>
+        <v>25056.78665307918</v>
       </c>
       <c r="G235" t="n">
-        <v>33650.12247433821</v>
+        <v>12393.2118329817</v>
       </c>
       <c r="H235" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="I235" t="n">
-        <v>2441690</v>
+        <v>2408477</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3449884</v>
+        <v>3415632</v>
       </c>
       <c r="E236" t="n">
-        <v>4621337</v>
+        <v>4575454</v>
       </c>
       <c r="F236" t="n">
-        <v>364.1567540324619</v>
+        <v>389.3147942707612</v>
       </c>
       <c r="G236" t="n">
-        <v>745.0750825415893</v>
+        <v>624.3133627653972</v>
       </c>
       <c r="H236" t="n">
-        <v>1.06</v>
+        <v>0.21</v>
       </c>
       <c r="I236" t="n">
-        <v>149943</v>
+        <v>149831</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33924700</v>
+        <v>33325207</v>
       </c>
       <c r="E237" t="n">
-        <v>169299890</v>
+        <v>166308146</v>
       </c>
       <c r="F237" t="n">
-        <v>126193.1444144673</v>
+        <v>113403.9307834819</v>
       </c>
       <c r="G237" t="n">
-        <v>99926.33935279622</v>
+        <v>103282.2850766396</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>13303074</v>
+        <v>13362664</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26681719</v>
+        <v>26348978</v>
       </c>
       <c r="E238" t="n">
-        <v>60150360</v>
+        <v>59400240</v>
       </c>
       <c r="F238" t="n">
-        <v>365.0198954319744</v>
+        <v>286.0448280912468</v>
       </c>
       <c r="G238" t="n">
-        <v>90.66481436066475</v>
+        <v>85.34781909800205</v>
       </c>
       <c r="H238" t="n">
-        <v>0.85</v>
+        <v>1.21</v>
       </c>
       <c r="I238" t="n">
-        <v>408934</v>
+        <v>408013</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1967018</v>
+        <v>1964447</v>
       </c>
       <c r="E239" t="n">
-        <v>1967018</v>
+        <v>1964447</v>
       </c>
       <c r="F239" t="n">
-        <v>181.6871310678446</v>
+        <v>181.7056116695759</v>
       </c>
       <c r="G239" t="n">
-        <v>53.27492354324746</v>
+        <v>86.79109759978056</v>
       </c>
       <c r="H239" t="n">
         <v>0.1</v>
       </c>
       <c r="I239" t="n">
-        <v>9101.33</v>
+        <v>9916.469999999999</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72035380</v>
+        <v>71897819</v>
       </c>
       <c r="F240" t="n">
-        <v>375.9981009019973</v>
+        <v>320.899893738304</v>
       </c>
       <c r="G240" t="n">
-        <v>6.188071692240453</v>
+        <v>6.010986868180612</v>
       </c>
       <c r="H240" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="I240" t="n">
-        <v>61116</v>
+        <v>60311</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>905697</v>
+        <v>911823</v>
       </c>
       <c r="E241" t="n">
-        <v>905697</v>
+        <v>911823</v>
       </c>
       <c r="F241" t="n">
-        <v>4.33010442400675</v>
+        <v>4.330510860059468</v>
       </c>
       <c r="G241" t="n">
-        <v>11.31823237475643</v>
+        <v>16.32010669056837</v>
       </c>
       <c r="H241" t="n">
         <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>11031.16</v>
+        <v>10757.23</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>121558</v>
+        <v>122747</v>
       </c>
       <c r="E242" t="n">
-        <v>121558</v>
+        <v>122747</v>
       </c>
       <c r="F242" t="n">
-        <v>287.9330006122433</v>
+        <v>516.7344854217773</v>
       </c>
       <c r="G242" t="n">
-        <v>651.0913295132322</v>
+        <v>511.3115387554186</v>
       </c>
       <c r="H242" t="n">
-        <v>0.88</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I242" t="n">
-        <v>39117</v>
+        <v>39701</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3503037</v>
+        <v>3414198</v>
       </c>
       <c r="E243" t="n">
-        <v>5032178</v>
+        <v>4904559</v>
       </c>
       <c r="F243" t="n">
-        <v>344.5686643349214</v>
+        <v>344.6011165676894</v>
       </c>
       <c r="G243" t="n">
-        <v>24.27899708956924</v>
+        <v>24.28128373878165</v>
       </c>
       <c r="H243" t="n">
         <v>2.78</v>
       </c>
       <c r="I243" t="n">
-        <v>144151</v>
+        <v>145674</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>323261079</v>
+        <v>315783005</v>
       </c>
       <c r="E244" t="n">
-        <v>598106714</v>
+        <v>584270572</v>
       </c>
       <c r="F244" t="n">
-        <v>5517.229601962068</v>
+        <v>4066.878807747957</v>
       </c>
       <c r="G244" t="n">
-        <v>3190.480140130906</v>
+        <v>9534.871837822317</v>
       </c>
       <c r="H244" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I244" t="n">
-        <v>14764441</v>
+        <v>15629707</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72607006</v>
+        <v>71648698</v>
       </c>
       <c r="E245" t="n">
-        <v>692572595</v>
+        <v>683426337</v>
       </c>
       <c r="F245" t="n">
-        <v>70015.90029690765</v>
+        <v>49075.69176659554</v>
       </c>
       <c r="G245" t="n">
-        <v>61687.82789279754</v>
+        <v>62166.21150647016</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22399366</v>
+        <v>22555720</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>83414</v>
+        <v>83388</v>
       </c>
       <c r="E246" t="n">
-        <v>693441</v>
+        <v>693219</v>
       </c>
       <c r="F246" t="n">
-        <v>21.21856419422871</v>
+        <v>21.2313680697061</v>
       </c>
       <c r="G246" t="n">
-        <v>4.204068916264832</v>
+        <v>5.402027909491726</v>
       </c>
       <c r="H246" t="n">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
       <c r="I246" t="n">
-        <v>118.12</v>
+        <v>118.31</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1882873</v>
+        <v>1877546</v>
       </c>
       <c r="E247" t="n">
-        <v>5377244</v>
+        <v>5362030</v>
       </c>
       <c r="F247" t="n">
-        <v>424.1392574656937</v>
+        <v>537.6713964384371</v>
       </c>
       <c r="G247" t="n">
-        <v>265.3980158424405</v>
+        <v>127.3957575755074</v>
       </c>
       <c r="H247" t="n">
         <v>0.47</v>
       </c>
       <c r="I247" t="n">
-        <v>79097</v>
+        <v>79415</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37769975</v>
+        <v>37592143</v>
       </c>
       <c r="E248" t="n">
-        <v>49379024</v>
+        <v>49146310</v>
       </c>
       <c r="F248" t="n">
-        <v>306.7612967245</v>
+        <v>1617.883700155811</v>
       </c>
       <c r="G248" t="n">
-        <v>2925.327574992292</v>
+        <v>1133.136647245754</v>
       </c>
       <c r="H248" t="n">
-        <v>1.31</v>
+        <v>3.22</v>
       </c>
       <c r="I248" t="n">
-        <v>330172</v>
+        <v>358746</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9772680</v>
+        <v>9612681</v>
       </c>
       <c r="E249" t="n">
-        <v>28971485</v>
+        <v>28497162</v>
       </c>
       <c r="F249" t="n">
-        <v>433.026673521832</v>
+        <v>1221.328441253786</v>
       </c>
       <c r="G249" t="n">
-        <v>1263.087945325528</v>
+        <v>2093.171120728693</v>
       </c>
       <c r="H249" t="n">
-        <v>0.51</v>
+        <v>0.87</v>
       </c>
       <c r="I249" t="n">
-        <v>6132985</v>
+        <v>6143270</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2020542</v>
+        <v>2006246</v>
       </c>
       <c r="E250" t="n">
-        <v>5844927</v>
+        <v>5803570</v>
       </c>
       <c r="F250" t="n">
-        <v>107.79782260042</v>
+        <v>37.47232488799534</v>
       </c>
       <c r="G250" t="n">
-        <v>161.3858223818775</v>
+        <v>203.8433433241755</v>
       </c>
       <c r="H250" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I250" t="n">
-        <v>53775</v>
+        <v>52503</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7347104</v>
+        <v>7283261</v>
       </c>
       <c r="E251" t="n">
-        <v>7347115</v>
+        <v>7283272</v>
       </c>
       <c r="F251" t="n">
-        <v>710.230626167113</v>
+        <v>832.3566149345828</v>
       </c>
       <c r="G251" t="n">
-        <v>954.2788879776955</v>
+        <v>998.7713276401306</v>
       </c>
       <c r="H251" t="n">
-        <v>1.7</v>
+        <v>0.98</v>
       </c>
       <c r="I251" t="n">
-        <v>279556</v>
+        <v>273807</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6280114</v>
+        <v>6356189</v>
       </c>
       <c r="E252" t="n">
-        <v>6280114</v>
+        <v>6356189</v>
       </c>
       <c r="F252" t="n">
-        <v>273.8778950756064</v>
+        <v>1015.557996351596</v>
       </c>
       <c r="G252" t="n">
-        <v>267.4625513575695</v>
+        <v>998.1298484837025</v>
       </c>
       <c r="H252" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I252" t="n">
-        <v>510552</v>
+        <v>489615</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6274901</v>
+        <v>6246571</v>
       </c>
       <c r="E253" t="n">
-        <v>22919786</v>
+        <v>22816307</v>
       </c>
       <c r="F253" t="n">
-        <v>4799.128898363928</v>
+        <v>37.7533708147331</v>
       </c>
       <c r="G253" t="n">
-        <v>241.7131288002678</v>
+        <v>330.3225757141419</v>
       </c>
       <c r="H253" t="n">
-        <v>1.22</v>
+        <v>2.05</v>
       </c>
       <c r="I253" t="n">
-        <v>503119</v>
+        <v>545170</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2267446</v>
+        <v>2274044</v>
       </c>
       <c r="E254" t="n">
-        <v>20000378</v>
+        <v>20058578</v>
       </c>
       <c r="F254" t="n">
-        <v>2794.007014735676</v>
+        <v>1906.646449630344</v>
       </c>
       <c r="G254" t="n">
-        <v>1798.314801468716</v>
+        <v>686.4225768147627</v>
       </c>
       <c r="H254" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="I254" t="n">
-        <v>48356</v>
+        <v>49858</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14548386</v>
+        <v>14454152</v>
       </c>
       <c r="E255" t="n">
-        <v>29452319</v>
+        <v>29261547</v>
       </c>
       <c r="F255" t="n">
-        <v>125.6813152516097</v>
+        <v>125.6659307054578</v>
       </c>
       <c r="G255" t="n">
-        <v>302.277184675506</v>
+        <v>83.16473218212853</v>
       </c>
       <c r="H255" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I255" t="n">
-        <v>546167</v>
+        <v>551736</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45364491</v>
+        <v>45008409</v>
       </c>
       <c r="E256" t="n">
-        <v>45364491</v>
+        <v>45008409</v>
       </c>
       <c r="F256" t="n">
-        <v>6533.978663844245</v>
+        <v>6555.837971485643</v>
       </c>
       <c r="G256" t="n">
-        <v>4077.748955786292</v>
+        <v>3721.729268179058</v>
       </c>
       <c r="H256" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I256" t="n">
-        <v>10081237</v>
+        <v>10181323</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8089614</v>
+        <v>8140273</v>
       </c>
       <c r="E257" t="n">
-        <v>11525846</v>
+        <v>11598024</v>
       </c>
       <c r="F257" t="n">
-        <v>30.53771675096208</v>
+        <v>43.80354461206215</v>
       </c>
       <c r="G257" t="n">
-        <v>39.241531961939</v>
+        <v>40.54189365056668</v>
       </c>
       <c r="H257" t="n">
         <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>381141</v>
+        <v>320541</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>144297214</v>
+        <v>146680377</v>
       </c>
       <c r="F258" t="n">
-        <v>209.0900684744608</v>
+        <v>15.60405996583117</v>
       </c>
       <c r="G258" t="n">
-        <v>26.85842042575448</v>
+        <v>258.1582599633571</v>
       </c>
       <c r="H258" t="n">
-        <v>3.38</v>
+        <v>1.47</v>
       </c>
       <c r="I258" t="n">
-        <v>1930318</v>
+        <v>1631649</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16295388</v>
+        <v>16446261</v>
       </c>
       <c r="F259" t="n">
-        <v>120.8710774412978</v>
+        <v>120.882463877622</v>
       </c>
       <c r="G259" t="n">
-        <v>114.3884240841196</v>
+        <v>114.3991998340726</v>
       </c>
       <c r="H259" t="n">
         <v>0.82</v>
       </c>
       <c r="I259" t="n">
-        <v>1059044</v>
+        <v>1060642</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>724922</v>
+        <v>722794</v>
       </c>
       <c r="F260" t="n">
-        <v>9.999501489949843</v>
+        <v>10.00041647584277</v>
       </c>
       <c r="G260" t="n">
-        <v>31.90779692736348</v>
+        <v>22.06600692393589</v>
       </c>
       <c r="H260" t="n">
         <v>1.83</v>
       </c>
       <c r="I260" t="n">
-        <v>208681</v>
+        <v>208334</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2998665</v>
+        <v>2905974</v>
       </c>
       <c r="F261" t="n">
-        <v>143.2784694931167</v>
+        <v>43.21647862415562</v>
       </c>
       <c r="G261" t="n">
-        <v>47.46642192139093</v>
+        <v>50.23015552799976</v>
       </c>
       <c r="H261" t="n">
-        <v>0.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>74171</v>
+        <v>72775</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2919344</v>
+        <v>2877046</v>
       </c>
       <c r="E262" t="n">
-        <v>2921873</v>
+        <v>2879538</v>
       </c>
       <c r="F262" t="n">
-        <v>5.367883513882266</v>
+        <v>5.36841740663265</v>
       </c>
       <c r="G262" t="n">
-        <v>548.311747352445</v>
+        <v>39.91833983989112</v>
       </c>
       <c r="H262" t="n">
         <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>90676</v>
+        <v>94380</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>75196333</v>
+        <v>74824419</v>
       </c>
       <c r="E263" t="n">
-        <v>104120308</v>
+        <v>103605448</v>
       </c>
       <c r="F263" t="n">
-        <v>8457.268304144431</v>
+        <v>6590.761927558341</v>
       </c>
       <c r="G263" t="n">
-        <v>7530.699894266172</v>
+        <v>8728.346570692029</v>
       </c>
       <c r="H263" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I263" t="n">
-        <v>7226184</v>
+        <v>6987561</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>630717</v>
+        <v>627294</v>
       </c>
       <c r="F264" t="n">
-        <v>132.8381203120836</v>
+        <v>122.4096325711074</v>
       </c>
       <c r="G264" t="n">
-        <v>126.8733995731237</v>
+        <v>126.8852649939014</v>
       </c>
       <c r="H264" t="n">
         <v>1.04</v>
       </c>
       <c r="I264" t="n">
-        <v>662346</v>
+        <v>648322</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1303120</v>
+        <v>1280741</v>
       </c>
       <c r="E265" t="n">
-        <v>3942998</v>
+        <v>3875019</v>
       </c>
       <c r="F265" t="n">
-        <v>793.7711964299316</v>
+        <v>520.8712862234336</v>
       </c>
       <c r="G265" t="n">
-        <v>607.1689029437553</v>
+        <v>554.4375367190578</v>
       </c>
       <c r="H265" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I265" t="n">
-        <v>30226</v>
+        <v>37035</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>34480735</v>
+        <v>33117381</v>
       </c>
       <c r="E266" t="n">
-        <v>244462788</v>
+        <v>234796825</v>
       </c>
       <c r="F266" t="n">
-        <v>5557.081761615212</v>
+        <v>27538.20567931315</v>
       </c>
       <c r="G266" t="n">
-        <v>15720.89906041342</v>
+        <v>32588.05189774769</v>
       </c>
       <c r="H266" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="I266" t="n">
-        <v>3811875</v>
+        <v>4320410</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59640</v>
+        <v>59161</v>
       </c>
       <c r="E267" t="n">
-        <v>311176</v>
+        <v>308676</v>
       </c>
       <c r="F267" t="n">
-        <v>4.099810058953571</v>
+        <v>5.292604937613373</v>
       </c>
       <c r="G267" t="n">
-        <v>3.908669888989463</v>
+        <v>4.079637890903879</v>
       </c>
       <c r="H267" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="I267" t="n">
-        <v>218449</v>
+        <v>214516</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1290076</v>
+        <v>1288670</v>
       </c>
       <c r="E268" t="n">
-        <v>8000395</v>
+        <v>7991676</v>
       </c>
       <c r="F268" t="n">
-        <v>1007.919096293399</v>
+        <v>1220.85601913895</v>
       </c>
       <c r="G268" t="n">
-        <v>1183.739641977277</v>
+        <v>1464.71184870911</v>
       </c>
       <c r="H268" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I268" t="n">
-        <v>800362</v>
+        <v>796692</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>606544836</v>
+        <v>595359427</v>
       </c>
       <c r="E269" t="n">
-        <v>2349058660</v>
+        <v>2305739222</v>
       </c>
       <c r="F269" t="n">
-        <v>205293.7891216635</v>
+        <v>252794.9800482771</v>
       </c>
       <c r="G269" t="n">
-        <v>272483.8401778283</v>
+        <v>285497.6628830808</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>52489674</v>
+        <v>52365261</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3384847</v>
+        <v>3377954</v>
       </c>
       <c r="F270" t="n">
-        <v>183.9041533390036</v>
+        <v>141.6199459168916</v>
       </c>
       <c r="G270" t="n">
-        <v>155.4583429746228</v>
+        <v>178.5554283852751</v>
       </c>
       <c r="H270" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>37962</v>
+        <v>37780</v>
       </c>
     </row>
     <row r="271">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>807111</v>
+        <v>812974</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>8.109999999999999</v>
+        <v>6.47</v>
       </c>
       <c r="I271" t="n">
-        <v>174137</v>
+        <v>175672</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5474284</v>
+        <v>5451378</v>
       </c>
       <c r="E272" t="n">
-        <v>24505244</v>
+        <v>24402708</v>
       </c>
       <c r="F272" t="n">
-        <v>1811.915730944301</v>
+        <v>549.7844463131918</v>
       </c>
       <c r="G272" t="n">
-        <v>112.3194095606818</v>
+        <v>252.8037536970182</v>
       </c>
       <c r="H272" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="I272" t="n">
-        <v>180921</v>
+        <v>177510</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6657249</v>
+        <v>6508294</v>
       </c>
       <c r="E273" t="n">
-        <v>12745844</v>
+        <v>12460657</v>
       </c>
       <c r="F273" t="n">
-        <v>43.14080348825591</v>
+        <v>98.79917818808532</v>
       </c>
       <c r="G273" t="n">
-        <v>11.79356654255492</v>
+        <v>1000.162992981636</v>
       </c>
       <c r="H273" t="n">
-        <v>2.09</v>
+        <v>3.69</v>
       </c>
       <c r="I273" t="n">
-        <v>34306</v>
+        <v>33614</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3191068</v>
+        <v>3183569</v>
       </c>
       <c r="E274" t="n">
-        <v>20983722</v>
+        <v>20934410</v>
       </c>
       <c r="F274" t="n">
-        <v>301.1400098057986</v>
+        <v>290.9622773749324</v>
       </c>
       <c r="G274" t="n">
-        <v>142.9903650980595</v>
+        <v>150.1464165173149</v>
       </c>
       <c r="H274" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I274" t="n">
-        <v>1622755</v>
+        <v>1637678</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3701323</v>
+        <v>3695142</v>
       </c>
       <c r="E275" t="n">
-        <v>6309407</v>
+        <v>6298871</v>
       </c>
       <c r="F275" t="n">
-        <v>946.0956890286787</v>
+        <v>997.3042260577083</v>
       </c>
       <c r="G275" t="n">
-        <v>443.4190526268626</v>
+        <v>392.5397864973015</v>
       </c>
       <c r="H275" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>1224910</v>
+        <v>1165255</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435937</v>
+        <v>434777</v>
       </c>
       <c r="E276" t="n">
-        <v>435937</v>
+        <v>434777</v>
       </c>
       <c r="F276" t="n">
-        <v>5.390501889461381</v>
+        <v>5.391009578755736</v>
       </c>
       <c r="G276" t="n">
-        <v>2.75063346034585</v>
+        <v>2.750892521039853</v>
       </c>
       <c r="H276" t="n">
         <v>0.19</v>
       </c>
       <c r="I276" t="n">
-        <v>84.25</v>
+        <v>79.45</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7613179</v>
+        <v>7535041</v>
       </c>
       <c r="E277" t="n">
-        <v>10907552</v>
+        <v>10795552</v>
       </c>
       <c r="F277" t="n">
-        <v>592.1753783204668</v>
+        <v>673.9462353904281</v>
       </c>
       <c r="G277" t="n">
-        <v>824.0783072153813</v>
+        <v>1148.501517454524</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I277" t="n">
-        <v>189339</v>
+        <v>184175</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>114760483</v>
+        <v>111737981</v>
       </c>
       <c r="E278" t="n">
-        <v>1066272788</v>
+        <v>1038189844</v>
       </c>
       <c r="F278" t="n">
-        <v>16031.00910370714</v>
+        <v>12681.57141300219</v>
       </c>
       <c r="G278" t="n">
-        <v>14784.42818697515</v>
+        <v>13582.58161602052</v>
       </c>
       <c r="H278" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I278" t="n">
-        <v>14682591</v>
+        <v>12176116</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>102476292</v>
+        <v>100041222</v>
       </c>
       <c r="E279" t="n">
-        <v>156329985</v>
+        <v>152615229</v>
       </c>
       <c r="F279" t="n">
-        <v>28781.18215388017</v>
+        <v>19060.25185545866</v>
       </c>
       <c r="G279" t="n">
-        <v>21254.96061695827</v>
+        <v>15896.53181698222</v>
       </c>
       <c r="H279" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I279" t="n">
-        <v>10608180</v>
+        <v>11003569</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16760315</v>
+        <v>16471194</v>
       </c>
       <c r="E280" t="n">
-        <v>22993701</v>
+        <v>22597052</v>
       </c>
       <c r="F280" t="n">
-        <v>4134.460340445529</v>
+        <v>333.0777005209812</v>
       </c>
       <c r="G280" t="n">
-        <v>3686.448006430631</v>
+        <v>660.6323867151044</v>
       </c>
       <c r="H280" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I280" t="n">
-        <v>517059</v>
+        <v>767276</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5535869</v>
+        <v>5498778</v>
       </c>
       <c r="E281" t="n">
-        <v>5535869</v>
+        <v>5498778</v>
       </c>
       <c r="F281" t="n">
-        <v>24.42145606500637</v>
+        <v>33.38238750670138</v>
       </c>
       <c r="G281" t="n">
-        <v>221.5502475635062</v>
+        <v>128.5600429751779</v>
       </c>
       <c r="H281" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="I281" t="n">
-        <v>707131</v>
+        <v>706357</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>125937067</v>
+        <v>125474164</v>
       </c>
       <c r="E282" t="n">
-        <v>483114860</v>
+        <v>481339088</v>
       </c>
       <c r="F282" t="n">
-        <v>56736.05750780171</v>
+        <v>50875.38165029028</v>
       </c>
       <c r="G282" t="n">
-        <v>61132.24106626814</v>
+        <v>64130.64086813205</v>
       </c>
       <c r="H282" t="n">
         <v>0.06</v>
       </c>
       <c r="I282" t="n">
-        <v>40778724</v>
+        <v>40427237</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>663508</v>
+        <v>653947</v>
       </c>
       <c r="F283" t="n">
-        <v>3.967965243837982</v>
+        <v>5.459649837590689</v>
       </c>
       <c r="G283" t="n">
-        <v>6.447845375596335</v>
+        <v>5.334598722349821</v>
       </c>
       <c r="H283" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="I283" t="n">
-        <v>41244</v>
+        <v>40891</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3172187</v>
+        <v>3154884</v>
       </c>
       <c r="E284" t="n">
-        <v>30056945</v>
+        <v>29892996</v>
       </c>
       <c r="F284" t="n">
-        <v>1007.116937773848</v>
+        <v>811.2876968264025</v>
       </c>
       <c r="G284" t="n">
-        <v>358.4179717108258</v>
+        <v>768.0593430912394</v>
       </c>
       <c r="H284" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I284" t="n">
-        <v>205251</v>
+        <v>194467</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>94349</v>
+        <v>94045</v>
       </c>
       <c r="F285" t="n">
-        <v>1437.653687991248</v>
+        <v>1423.005186320661</v>
       </c>
       <c r="G285" t="n">
-        <v>123.675682264601</v>
+        <v>136.1946060016409</v>
       </c>
       <c r="H285" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I285" t="n">
-        <v>49401</v>
+        <v>49039</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>130291</v>
+        <v>131828</v>
       </c>
       <c r="F286" t="n">
-        <v>4.020974287885015</v>
+        <v>4.084003998133718</v>
       </c>
       <c r="G286" t="n">
-        <v>3.952528340886532</v>
+        <v>4.120726600634732</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>68346</v>
+        <v>67833</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21886008</v>
+        <v>21888340</v>
       </c>
       <c r="E287" t="n">
-        <v>21886008</v>
+        <v>21888340</v>
       </c>
       <c r="F287" t="n">
-        <v>1852.089964686568</v>
+        <v>2718.740273433551</v>
       </c>
       <c r="G287" t="n">
-        <v>1764.298320815607</v>
+        <v>1858.806932740113</v>
       </c>
       <c r="H287" t="n">
         <v>0.05</v>
       </c>
       <c r="I287" t="n">
-        <v>541667</v>
+        <v>521380</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>564142</v>
+        <v>569523</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>7873.17</v>
+        <v>8109.46</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6795443</v>
+        <v>6800648</v>
       </c>
       <c r="E289" t="n">
-        <v>42469573</v>
+        <v>42502102</v>
       </c>
       <c r="F289" t="n">
-        <v>1086.249212069867</v>
+        <v>901.7682363985836</v>
       </c>
       <c r="G289" t="n">
-        <v>340.9909022066128</v>
+        <v>429.2152859561438</v>
       </c>
       <c r="H289" t="n">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="I289" t="n">
-        <v>411435</v>
+        <v>410204</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>495339015</v>
+        <v>493630383</v>
       </c>
       <c r="E290" t="n">
-        <v>495339015</v>
+        <v>493630383</v>
       </c>
       <c r="F290" t="n">
-        <v>961001.3461101296</v>
+        <v>969733.9130527134</v>
       </c>
       <c r="G290" t="n">
-        <v>1701982.004899826</v>
+        <v>1760124.699658804</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>39417087</v>
+        <v>39793793</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5119926</v>
+        <v>5122377</v>
       </c>
       <c r="E291" t="n">
-        <v>19025740</v>
+        <v>19034848</v>
       </c>
       <c r="F291" t="n">
-        <v>445.5392684226977</v>
+        <v>2000.954845862587</v>
       </c>
       <c r="G291" t="n">
-        <v>626.3488224545165</v>
+        <v>682.7677722326265</v>
       </c>
       <c r="H291" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I291" t="n">
-        <v>85003</v>
+        <v>87686</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35447030</v>
+        <v>35387706</v>
       </c>
       <c r="F292" t="n">
-        <v>3557.881610058354</v>
+        <v>10775.06442809309</v>
       </c>
       <c r="G292" t="n">
-        <v>15697.09911303844</v>
+        <v>12443.77836207543</v>
       </c>
       <c r="H292" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="I292" t="n">
-        <v>7197933</v>
+        <v>7362758</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31464423</v>
+        <v>36311802</v>
       </c>
       <c r="E293" t="n">
-        <v>112779826</v>
+        <v>130154579</v>
       </c>
       <c r="F293" t="n">
-        <v>2125.815990442824</v>
+        <v>121.6521280571146</v>
       </c>
       <c r="G293" t="n">
-        <v>3878.353226083089</v>
+        <v>2196.433377842096</v>
       </c>
       <c r="H293" t="n">
-        <v>0.82</v>
+        <v>0.19</v>
       </c>
       <c r="I293" t="n">
-        <v>75390</v>
+        <v>96328</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>819335</v>
+        <v>806936</v>
       </c>
       <c r="E294" t="n">
-        <v>13068109</v>
+        <v>12870340</v>
       </c>
       <c r="F294" t="n">
-        <v>19.03527289882641</v>
+        <v>19.03705398171498</v>
       </c>
       <c r="G294" t="n">
-        <v>7.746459271159932</v>
+        <v>7.747184087984374</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>328937</v>
+        <v>329502</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>82647</v>
+        <v>82556</v>
       </c>
       <c r="F295" t="n">
-        <v>25.4146196135221</v>
+        <v>22.3690543079381</v>
       </c>
       <c r="G295" t="n">
-        <v>220.9247472224218</v>
+        <v>23.01510362712517</v>
       </c>
       <c r="H295" t="n">
-        <v>0.36</v>
+        <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>53599</v>
+        <v>53529</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1537206</v>
+        <v>1537158</v>
       </c>
       <c r="F296" t="n">
-        <v>4.859198093271595</v>
+        <v>11.14888275679048</v>
       </c>
       <c r="G296" t="n">
-        <v>7.279367867343495</v>
+        <v>5.296157686453451</v>
       </c>
       <c r="H296" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="I296" t="n">
-        <v>602885</v>
+        <v>601160</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2684061714</v>
+        <v>2635787838</v>
       </c>
       <c r="E297" t="n">
-        <v>2849775140</v>
+        <v>2798520843</v>
       </c>
       <c r="F297" t="n">
-        <v>19780.95066817352</v>
+        <v>32354.03611799678</v>
       </c>
       <c r="G297" t="n">
-        <v>39466.50743502208</v>
+        <v>76769.19252781938</v>
       </c>
       <c r="H297" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I297" t="n">
-        <v>51371318</v>
+        <v>55237672</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2141194</v>
+        <v>2140760</v>
       </c>
       <c r="E298" t="n">
-        <v>16469460</v>
+        <v>16466120</v>
       </c>
       <c r="F298" t="n">
-        <v>50.54901035320284</v>
+        <v>66.31118768684874</v>
       </c>
       <c r="G298" t="n">
-        <v>10.00062671881431</v>
+        <v>10.06265478205031</v>
       </c>
       <c r="H298" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="I298" t="n">
-        <v>209221</v>
+        <v>215817</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1742759</v>
+        <v>1732069</v>
       </c>
       <c r="E299" t="n">
-        <v>1748911</v>
+        <v>1738183</v>
       </c>
       <c r="F299" t="n">
-        <v>896.4470954802014</v>
+        <v>1435.922954852661</v>
       </c>
       <c r="G299" t="n">
-        <v>1596.679054916497</v>
+        <v>1269.920010100535</v>
       </c>
       <c r="H299" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="I299" t="n">
-        <v>432132</v>
+        <v>447902</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88925713</v>
+        <v>88188680</v>
       </c>
       <c r="E300" t="n">
-        <v>328710443</v>
+        <v>325985682</v>
       </c>
       <c r="F300" t="n">
-        <v>3069.362080553326</v>
+        <v>3945.927451301953</v>
       </c>
       <c r="G300" t="n">
-        <v>14026.04361504096</v>
+        <v>10746.44106292124</v>
       </c>
       <c r="H300" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="I300" t="n">
-        <v>206982</v>
+        <v>215354</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2186359</v>
+        <v>2179616</v>
       </c>
       <c r="E301" t="n">
-        <v>8764781</v>
+        <v>8737746</v>
       </c>
       <c r="F301" t="n">
-        <v>78.52743137919096</v>
+        <v>51.52789039754668</v>
       </c>
       <c r="G301" t="n">
-        <v>4.161720465575327</v>
+        <v>6.520502837046205</v>
       </c>
       <c r="H301" t="n">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
       <c r="I301" t="n">
-        <v>14500.12</v>
+        <v>11574.29</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>62532958</v>
+        <v>58467026</v>
       </c>
       <c r="E302" t="n">
-        <v>153389107</v>
+        <v>143415651</v>
       </c>
       <c r="F302" t="n">
-        <v>759.5597902443666</v>
+        <v>173.4063290311872</v>
       </c>
       <c r="G302" t="n">
-        <v>2615.59266641451</v>
+        <v>2349.357356993549</v>
       </c>
       <c r="H302" t="n">
-        <v>0.44</v>
+        <v>1.5</v>
       </c>
       <c r="I302" t="n">
-        <v>22255210</v>
+        <v>21952009</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>817911179</v>
+        <v>816473743</v>
       </c>
       <c r="E303" t="n">
-        <v>1261291253</v>
+        <v>1259074599</v>
       </c>
       <c r="F303" t="n">
-        <v>10913.85968276154</v>
+        <v>4486.147847631842</v>
       </c>
       <c r="G303" t="n">
-        <v>26769.96074393147</v>
+        <v>31154.03000147169</v>
       </c>
       <c r="H303" t="n">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I303" t="n">
-        <v>333654058</v>
+        <v>335970760</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>21663816</v>
+        <v>21486048</v>
       </c>
       <c r="E304" t="n">
-        <v>21663816</v>
+        <v>21486048</v>
       </c>
       <c r="F304" t="n">
-        <v>2306.826783315887</v>
+        <v>4319.733121619414</v>
       </c>
       <c r="G304" t="n">
-        <v>27620.45345932438</v>
+        <v>2670.003161627317</v>
       </c>
       <c r="H304" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I304" t="n">
-        <v>7320334</v>
+        <v>7393825</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2041272</v>
+        <v>2048471</v>
       </c>
       <c r="E305" t="n">
-        <v>3349381</v>
+        <v>3361194</v>
       </c>
       <c r="F305" t="n">
-        <v>519.2021607017409</v>
+        <v>760.8680936557884</v>
       </c>
       <c r="G305" t="n">
-        <v>12.24383579878837</v>
+        <v>4.038624609302752</v>
       </c>
       <c r="H305" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="I305" t="n">
-        <v>161684</v>
+        <v>152893</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5889233</v>
+        <v>5869006</v>
       </c>
       <c r="E306" t="n">
-        <v>5889233</v>
+        <v>5869006</v>
       </c>
       <c r="F306" t="n">
-        <v>41.91867184453904</v>
+        <v>41.60675123616596</v>
       </c>
       <c r="G306" t="n">
-        <v>5.439888116125623</v>
+        <v>5.440407451411822</v>
       </c>
       <c r="H306" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="I306" t="n">
-        <v>353.83</v>
+        <v>327.38</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39882473</v>
+        <v>39545014</v>
       </c>
       <c r="E307" t="n">
-        <v>190197014</v>
+        <v>188584410</v>
       </c>
       <c r="F307" t="n">
-        <v>1082.515834631027</v>
+        <v>1059.720751695482</v>
       </c>
       <c r="G307" t="n">
-        <v>253.7888201546258</v>
+        <v>233.6219083302007</v>
       </c>
       <c r="H307" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="I307" t="n">
-        <v>270579</v>
+        <v>401329</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>386830</v>
+        <v>386507</v>
       </c>
       <c r="E308" t="n">
-        <v>723481</v>
+        <v>722878</v>
       </c>
       <c r="F308" t="n">
-        <v>96.21060042914658</v>
+        <v>59.24694498477265</v>
       </c>
       <c r="G308" t="n">
-        <v>161.1065239029045</v>
+        <v>655.3956416146751</v>
       </c>
       <c r="H308" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="I308" t="n">
-        <v>2293.08</v>
+        <v>2284.55</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23321039</v>
+        <v>22949702</v>
       </c>
       <c r="E309" t="n">
-        <v>38868398</v>
+        <v>38249503</v>
       </c>
       <c r="F309" t="n">
-        <v>3508.046923143542</v>
+        <v>4435.079466768554</v>
       </c>
       <c r="G309" t="n">
-        <v>2891.005835211772</v>
+        <v>1557.19085743552</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>498762</v>
+        <v>594171</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107936</v>
+        <v>108103</v>
       </c>
       <c r="F310" t="n">
-        <v>15.37986153587493</v>
+        <v>15.42282935684036</v>
       </c>
       <c r="G310" t="n">
-        <v>66.52670458967056</v>
+        <v>66.53279199275396</v>
       </c>
       <c r="H310" t="n">
         <v>0.09</v>
       </c>
       <c r="I310" t="n">
-        <v>53558</v>
+        <v>54086</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23241570</v>
+        <v>22913743</v>
       </c>
       <c r="E311" t="n">
-        <v>23241570</v>
+        <v>22913743</v>
       </c>
       <c r="F311" t="n">
-        <v>3356.587763049558</v>
+        <v>3395.884402993415</v>
       </c>
       <c r="G311" t="n">
-        <v>2989.967955559628</v>
+        <v>3208.600362341347</v>
       </c>
       <c r="H311" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I311" t="n">
-        <v>5552882</v>
+        <v>5536029</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3811881</v>
+        <v>3809241</v>
       </c>
       <c r="E312" t="n">
-        <v>8309367</v>
+        <v>8303612</v>
       </c>
       <c r="F312" t="n">
-        <v>1798.814941197782</v>
+        <v>1798.984357535425</v>
       </c>
       <c r="G312" t="n">
-        <v>1815.169129615219</v>
+        <v>1815.340086226207</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1820804</v>
+        <v>1881892</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9245331</v>
+        <v>9248786</v>
       </c>
       <c r="E313" t="n">
-        <v>9245331</v>
+        <v>9248786</v>
       </c>
       <c r="F313" t="n">
-        <v>15431.15816009731</v>
+        <v>16267.7345083043</v>
       </c>
       <c r="G313" t="n">
-        <v>113502.9997383009</v>
+        <v>113794.5501214224</v>
       </c>
       <c r="H313" t="n">
         <v>0.03</v>
       </c>
       <c r="I313" t="n">
-        <v>4750527</v>
+        <v>4960397</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>494947356</v>
+        <v>490399355</v>
       </c>
       <c r="E314" t="n">
-        <v>1722870554</v>
+        <v>1707039342</v>
       </c>
       <c r="F314" t="n">
-        <v>452374.2871375165</v>
+        <v>251040.8159630045</v>
       </c>
       <c r="G314" t="n">
-        <v>481805.2058938215</v>
+        <v>237668.2759167998</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>42902942</v>
+        <v>44091158</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22429774</v>
+        <v>22269941</v>
       </c>
       <c r="E315" t="n">
-        <v>22410291</v>
+        <v>22250597</v>
       </c>
       <c r="F315" t="n">
-        <v>261.0022361601089</v>
+        <v>261.4778847977591</v>
       </c>
       <c r="G315" t="n">
-        <v>805.8803998051285</v>
+        <v>819.7163832224409</v>
       </c>
       <c r="H315" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I315" t="n">
-        <v>404877</v>
+        <v>404617</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>49467872</v>
+        <v>49858394</v>
       </c>
       <c r="E316" t="n">
-        <v>121771928</v>
+        <v>122733258</v>
       </c>
       <c r="F316" t="n">
-        <v>1173.172970797433</v>
+        <v>1292.838287330233</v>
       </c>
       <c r="G316" t="n">
-        <v>1624.866059936388</v>
+        <v>1676.240305605623</v>
       </c>
       <c r="H316" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I316" t="n">
-        <v>148070</v>
+        <v>176220</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11902934</v>
+        <v>11866660</v>
       </c>
       <c r="E317" t="n">
-        <v>24040204</v>
+        <v>23965688</v>
       </c>
       <c r="F317" t="n">
-        <v>166.2662669530706</v>
+        <v>161.7123213615118</v>
       </c>
       <c r="G317" t="n">
-        <v>1839.99665128983</v>
+        <v>1789.44960649361</v>
       </c>
       <c r="H317" t="n">
         <v>0.76</v>
       </c>
       <c r="I317" t="n">
-        <v>56065</v>
+        <v>55406</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7297289</v>
+        <v>7325868</v>
       </c>
       <c r="E318" t="n">
-        <v>18957572</v>
+        <v>19031817</v>
       </c>
       <c r="F318" t="n">
-        <v>537.490040478924</v>
+        <v>296.7934577963252</v>
       </c>
       <c r="G318" t="n">
-        <v>159.6691345136067</v>
+        <v>158.4474620976368</v>
       </c>
       <c r="H318" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I318" t="n">
-        <v>734781</v>
+        <v>740668</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>148450</v>
+        <v>148323</v>
       </c>
       <c r="F319" t="n">
-        <v>177.4616118055201</v>
+        <v>110.380568840012</v>
       </c>
       <c r="G319" t="n">
-        <v>303.6539234218861</v>
+        <v>2.00030514756042</v>
       </c>
       <c r="H319" t="n">
-        <v>0.19</v>
+        <v>1.34</v>
       </c>
       <c r="I319" t="n">
-        <v>55340</v>
+        <v>55460</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19126485753</v>
+        <v>18996378480</v>
       </c>
       <c r="F320" t="n">
-        <v>669.5198389772614</v>
+        <v>826.2959074085514</v>
       </c>
       <c r="G320" t="n">
-        <v>15138.18209978941</v>
+        <v>802.0023286500403</v>
       </c>
       <c r="H320" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="I320" t="n">
-        <v>42607775</v>
+        <v>41173729</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>106625174</v>
+        <v>106017604</v>
       </c>
       <c r="E321" t="n">
-        <v>161549458</v>
+        <v>160628920</v>
       </c>
       <c r="F321" t="n">
-        <v>12267.53528110339</v>
+        <v>14287.18418760112</v>
       </c>
       <c r="G321" t="n">
-        <v>14573.61728240548</v>
+        <v>16475.11006469547</v>
       </c>
       <c r="H321" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="I321" t="n">
-        <v>9489059</v>
+        <v>9480595</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2572400</v>
+        <v>2545145</v>
       </c>
       <c r="E322" t="n">
-        <v>10289601</v>
+        <v>10180581</v>
       </c>
       <c r="F322" t="n">
-        <v>7991.592143587024</v>
+        <v>1981.456640123205</v>
       </c>
       <c r="G322" t="n">
-        <v>4771.578595022565</v>
+        <v>2987.002701393145</v>
       </c>
       <c r="H322" t="n">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="I322" t="n">
-        <v>7111796</v>
+        <v>7121949</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>221184646</v>
+        <v>217692403</v>
       </c>
       <c r="E323" t="n">
-        <v>680059549</v>
+        <v>669322217</v>
       </c>
       <c r="F323" t="n">
-        <v>126202.0449567715</v>
+        <v>75696.84514954826</v>
       </c>
       <c r="G323" t="n">
-        <v>144758.9299244474</v>
+        <v>142609.5786756877</v>
       </c>
       <c r="H323" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I323" t="n">
-        <v>19988850</v>
+        <v>24948846</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>141913369</v>
+        <v>139460330</v>
       </c>
       <c r="E324" t="n">
-        <v>370744741</v>
+        <v>364336242</v>
       </c>
       <c r="F324" t="n">
-        <v>9515.383894252443</v>
+        <v>10409.55299599033</v>
       </c>
       <c r="G324" t="n">
-        <v>8751.756284331088</v>
+        <v>9674.697910242727</v>
       </c>
       <c r="H324" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I324" t="n">
-        <v>8808615</v>
+        <v>8917468</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2387295</v>
+        <v>2402238</v>
       </c>
       <c r="E325" t="n">
-        <v>3276284</v>
+        <v>3297034</v>
       </c>
       <c r="F325" t="n">
-        <v>206.0281747941112</v>
+        <v>463.9535060417934</v>
       </c>
       <c r="G325" t="n">
-        <v>116.7288998299002</v>
+        <v>120.246806801965</v>
       </c>
       <c r="H325" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="I325" t="n">
-        <v>1820841</v>
+        <v>1789699</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>397288993</v>
+        <v>392107386</v>
       </c>
       <c r="E326" t="n">
-        <v>2270222818</v>
+        <v>2240613636</v>
       </c>
       <c r="F326" t="n">
-        <v>253526.7187964254</v>
+        <v>244131.3459500582</v>
       </c>
       <c r="G326" t="n">
-        <v>282820.0526972649</v>
+        <v>317570.9444940998</v>
       </c>
       <c r="H326" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I326" t="n">
-        <v>52305950</v>
+        <v>53739218</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99224</v>
+        <v>99234</v>
       </c>
       <c r="F2" t="n">
-        <v>3.987849520196363</v>
+        <v>3.987851747079864</v>
       </c>
       <c r="G2" t="n">
-        <v>4.084936165986049</v>
+        <v>4.084938447084396</v>
       </c>
       <c r="H2" t="n">
         <v>0.89</v>
       </c>
       <c r="I2" t="n">
-        <v>426.58</v>
+        <v>427.13</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>625922984</v>
+        <v>625421596</v>
       </c>
       <c r="E3" t="n">
-        <v>1214623761</v>
+        <v>1213650802</v>
       </c>
       <c r="F3" t="n">
-        <v>20737.8113776724</v>
+        <v>19493.47982567039</v>
       </c>
       <c r="G3" t="n">
-        <v>27486.98550169822</v>
+        <v>28746.87917858281</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I3" t="n">
-        <v>36468205</v>
+        <v>38475915</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256604405</v>
+        <v>253496905</v>
       </c>
       <c r="E4" t="n">
-        <v>1609130154</v>
+        <v>1589643460</v>
       </c>
       <c r="F4" t="n">
-        <v>36394.61105175147</v>
+        <v>33437.49409108792</v>
       </c>
       <c r="G4" t="n">
-        <v>55650.28736857676</v>
+        <v>61828.61325209179</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>22258133</v>
+        <v>24163947</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146033158</v>
+        <v>143616624</v>
       </c>
       <c r="E5" t="n">
-        <v>161827561</v>
+        <v>159149663</v>
       </c>
       <c r="F5" t="n">
-        <v>182509.471484006</v>
+        <v>149172.432584061</v>
       </c>
       <c r="G5" t="n">
-        <v>217009.5043367159</v>
+        <v>195473.5527014192</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>49232917</v>
+        <v>49154367</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49313156</v>
+        <v>48979399</v>
       </c>
       <c r="E6" t="n">
-        <v>61689494</v>
+        <v>61271972</v>
       </c>
       <c r="F6" t="n">
-        <v>7161.64213631505</v>
+        <v>9898.59767851367</v>
       </c>
       <c r="G6" t="n">
-        <v>11702.25467970129</v>
+        <v>14245.65408542135</v>
       </c>
       <c r="H6" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="n">
-        <v>859331</v>
+        <v>856868</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8635970</v>
+        <v>8433521</v>
       </c>
       <c r="E7" t="n">
-        <v>8853738</v>
+        <v>8646183</v>
       </c>
       <c r="F7" t="n">
-        <v>504.6295479757472</v>
+        <v>537.7037510605063</v>
       </c>
       <c r="G7" t="n">
-        <v>758.1460216532281</v>
+        <v>643.7551551773834</v>
       </c>
       <c r="H7" t="n">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>98633</v>
+        <v>96500</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68119768</v>
+        <v>67607718</v>
       </c>
       <c r="E8" t="n">
-        <v>135671524</v>
+        <v>134651694</v>
       </c>
       <c r="F8" t="n">
-        <v>16132.71682523625</v>
+        <v>14867.34171924936</v>
       </c>
       <c r="G8" t="n">
-        <v>13707.19137920922</v>
+        <v>14762.72664765641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I8" t="n">
-        <v>922959</v>
+        <v>925055</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5037583</v>
+        <v>5009582</v>
       </c>
       <c r="E9" t="n">
-        <v>8048543</v>
+        <v>8003806</v>
       </c>
       <c r="F9" t="n">
-        <v>285.0266805963207</v>
+        <v>268.8125446520937</v>
       </c>
       <c r="G9" t="n">
-        <v>407.112448868463</v>
+        <v>410.3923364321429</v>
       </c>
       <c r="H9" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="I9" t="n">
-        <v>97380</v>
+        <v>97098</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13976690</v>
+        <v>13999017</v>
       </c>
       <c r="E10" t="n">
-        <v>41188404</v>
+        <v>41254199</v>
       </c>
       <c r="F10" t="n">
-        <v>3742.856302145228</v>
+        <v>3743.733284974191</v>
       </c>
       <c r="G10" t="n">
-        <v>3917.052177482426</v>
+        <v>5062.316993859871</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>932303</v>
+        <v>925816</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>121883829</v>
+        <v>120339769</v>
       </c>
       <c r="E11" t="n">
-        <v>477748117</v>
+        <v>471695864</v>
       </c>
       <c r="F11" t="n">
-        <v>83682.61956166776</v>
+        <v>51312.63040013908</v>
       </c>
       <c r="G11" t="n">
-        <v>54505.05998060691</v>
+        <v>54852.17053580878</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>27510524</v>
+        <v>27536134</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8606686</v>
+        <v>8569136</v>
       </c>
       <c r="E12" t="n">
-        <v>36996324</v>
+        <v>36834913</v>
       </c>
       <c r="F12" t="n">
         <v>1360.828768573039</v>
@@ -862,7 +862,7 @@
         <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>933859</v>
+        <v>883940</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1003668</v>
+        <v>1002629</v>
       </c>
       <c r="E13" t="n">
-        <v>12282186</v>
+        <v>12269472</v>
       </c>
       <c r="F13" t="n">
         <v>208.7708996398001</v>
@@ -897,7 +897,7 @@
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>446.81</v>
+        <v>445.66</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>573733</v>
+        <v>566844</v>
       </c>
       <c r="E14" t="n">
-        <v>573733</v>
+        <v>566844</v>
       </c>
       <c r="F14" t="n">
-        <v>663.637109041446</v>
+        <v>537.657400143166</v>
       </c>
       <c r="G14" t="n">
-        <v>162.3434925766801</v>
+        <v>14.91479835866148</v>
       </c>
       <c r="H14" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>27792</v>
+        <v>27804</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>578087936</v>
+        <v>570402444</v>
       </c>
       <c r="E15" t="n">
-        <v>723102089</v>
+        <v>713488681</v>
       </c>
       <c r="F15" t="n">
-        <v>512068.1123856649</v>
+        <v>515872.9543493121</v>
       </c>
       <c r="G15" t="n">
-        <v>326539.5610707566</v>
+        <v>552215.2616904449</v>
       </c>
       <c r="H15" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I15" t="n">
-        <v>87923656</v>
+        <v>88494897</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3330225</v>
+        <v>3287191</v>
       </c>
       <c r="E16" t="n">
-        <v>9474196</v>
+        <v>9351767</v>
       </c>
       <c r="F16" t="n">
-        <v>178.4628071697427</v>
+        <v>176.3316330240093</v>
       </c>
       <c r="G16" t="n">
-        <v>74.02706508543588</v>
+        <v>74.07188888897747</v>
       </c>
       <c r="H16" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="I16" t="n">
-        <v>113317</v>
+        <v>112933</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315099</v>
+        <v>313499</v>
       </c>
       <c r="E17" t="n">
-        <v>3636619</v>
+        <v>3618150</v>
       </c>
       <c r="F17" t="n">
-        <v>5.338318894926284</v>
+        <v>5.338318049199174</v>
       </c>
       <c r="G17" t="n">
-        <v>3.445122875508603</v>
+        <v>3.445122329712469</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>2631.53</v>
+        <v>2612.1</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1382889</v>
+        <v>1378287</v>
       </c>
       <c r="E18" t="n">
-        <v>10607576</v>
+        <v>10572283</v>
       </c>
       <c r="F18" t="n">
-        <v>954.3899901821393</v>
+        <v>692.9622839212848</v>
       </c>
       <c r="G18" t="n">
-        <v>147.3158948586383</v>
+        <v>123.4779874783021</v>
       </c>
       <c r="H18" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>123553</v>
+        <v>122406</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24380076</v>
+        <v>24793848</v>
       </c>
       <c r="E19" t="n">
-        <v>24425044</v>
+        <v>24839579</v>
       </c>
       <c r="F19" t="n">
-        <v>272.9364584872605</v>
+        <v>465.7061931330841</v>
       </c>
       <c r="G19" t="n">
-        <v>195.3302135281215</v>
+        <v>136.9642732762473</v>
       </c>
       <c r="H19" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="I19" t="n">
-        <v>886568</v>
+        <v>876881</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3683515</v>
+        <v>3769218</v>
       </c>
       <c r="E20" t="n">
-        <v>20438324</v>
+        <v>20913853</v>
       </c>
       <c r="F20" t="n">
-        <v>20.09814000769424</v>
+        <v>20.09815123083998</v>
       </c>
       <c r="G20" t="n">
-        <v>6.101332490076882</v>
+        <v>6.101335897165487</v>
       </c>
       <c r="H20" t="n">
         <v>1.05</v>
       </c>
       <c r="I20" t="n">
-        <v>1746.75</v>
+        <v>2183.98</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7021648</v>
+        <v>6887655</v>
       </c>
       <c r="E21" t="n">
-        <v>13026638</v>
+        <v>12778052</v>
       </c>
       <c r="F21" t="n">
-        <v>1147.356277615988</v>
+        <v>1213.252184962955</v>
       </c>
       <c r="G21" t="n">
-        <v>41.97195441794622</v>
+        <v>374.9443642521417</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>54657</v>
+        <v>53600</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71980342</v>
+        <v>71476281</v>
       </c>
       <c r="E22" t="n">
-        <v>124622796</v>
+        <v>123750091</v>
       </c>
       <c r="F22" t="n">
         <v>1721.927787602731</v>
@@ -1212,7 +1212,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>906085</v>
+        <v>911926</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>180210</v>
+        <v>179504</v>
       </c>
       <c r="E23" t="n">
-        <v>541985</v>
+        <v>539861</v>
       </c>
       <c r="F23" t="n">
-        <v>4.066262406053167</v>
+        <v>4.066254506082114</v>
       </c>
       <c r="G23" t="n">
-        <v>5.421681374437815</v>
+        <v>5.421670841146639</v>
       </c>
       <c r="H23" t="n">
         <v>0.55</v>
       </c>
       <c r="I23" t="n">
-        <v>202.14</v>
+        <v>201.18</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80576642</v>
+        <v>80181600</v>
       </c>
       <c r="E24" t="n">
-        <v>237066474</v>
+        <v>235904211</v>
       </c>
       <c r="F24" t="n">
-        <v>366.1582129407061</v>
+        <v>463.6848020019778</v>
       </c>
       <c r="G24" t="n">
-        <v>547.7128485526896</v>
+        <v>355.0566021366086</v>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>445311</v>
+        <v>430751</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6709702</v>
+        <v>6926605</v>
       </c>
       <c r="F25" t="n">
-        <v>370.3739656481226</v>
+        <v>385.5660192708029</v>
       </c>
       <c r="G25" t="n">
-        <v>4.086463668189016</v>
+        <v>4.086456717999281</v>
       </c>
       <c r="H25" t="n">
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>19193.25</v>
+        <v>19192.51</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2450620</v>
+        <v>2442691</v>
       </c>
       <c r="E26" t="n">
-        <v>2450620</v>
+        <v>2442691</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>316791</v>
+        <v>318911</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17954157</v>
+        <v>17758450</v>
       </c>
       <c r="E27" t="n">
-        <v>23108473</v>
+        <v>22856582</v>
       </c>
       <c r="F27" t="n">
-        <v>341.6960364641897</v>
+        <v>273.1411736798085</v>
       </c>
       <c r="G27" t="n">
-        <v>6273.755561578982</v>
+        <v>6324.128894133584</v>
       </c>
       <c r="H27" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I27" t="n">
-        <v>2013726</v>
+        <v>1982869</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4736538</v>
+        <v>4684109</v>
       </c>
       <c r="E28" t="n">
-        <v>4736538</v>
+        <v>4684109</v>
       </c>
       <c r="F28" t="n">
-        <v>1934.398328687156</v>
+        <v>2342.264299128281</v>
       </c>
       <c r="G28" t="n">
-        <v>2152.712497597917</v>
+        <v>655.1954770178809</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>2253455</v>
+        <v>2232212</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2052065</v>
+        <v>2039619</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>75.78158993789297</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>84.73225826278482</v>
       </c>
       <c r="H29" t="n">
-        <v>7.9</v>
+        <v>3.01</v>
       </c>
       <c r="I29" t="n">
-        <v>323346</v>
+        <v>270817</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3397513</v>
+        <v>3372673</v>
       </c>
       <c r="E30" t="n">
-        <v>3397513</v>
+        <v>3372673</v>
       </c>
       <c r="F30" t="n">
-        <v>384.1743022662326</v>
+        <v>4452.223820951716</v>
       </c>
       <c r="G30" t="n">
-        <v>512.6354938312594</v>
+        <v>693.1637831530844</v>
       </c>
       <c r="H30" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="I30" t="n">
-        <v>575800</v>
+        <v>576279</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>302241</v>
+        <v>304421</v>
       </c>
       <c r="E31" t="n">
-        <v>1410891</v>
+        <v>1421069</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>44.00970833543926</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>51.13184164143397</v>
       </c>
       <c r="H31" t="n">
-        <v>4.08</v>
+        <v>1.4</v>
       </c>
       <c r="I31" t="n">
-        <v>660740</v>
+        <v>669760</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>395305</v>
+        <v>388086</v>
       </c>
       <c r="E32" t="n">
-        <v>395305</v>
+        <v>388086</v>
       </c>
       <c r="F32" t="n">
-        <v>122.2636950593999</v>
+        <v>121.6017295166405</v>
       </c>
       <c r="G32" t="n">
-        <v>5.40269820754927</v>
+        <v>5.386471234492753</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>58762</v>
+        <v>58106</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1856426</v>
+        <v>1856027</v>
       </c>
       <c r="F33" t="n">
-        <v>3.901612875913947</v>
+        <v>3.661644574443744</v>
       </c>
       <c r="G33" t="n">
-        <v>23.33578289525737</v>
+        <v>20.35876668710747</v>
       </c>
       <c r="H33" t="n">
-        <v>0.43</v>
+        <v>1.25</v>
       </c>
       <c r="I33" t="n">
-        <v>1227043</v>
+        <v>1398177</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1998848</v>
+        <v>1955226</v>
       </c>
       <c r="F34" t="n">
-        <v>43.33832717175714</v>
+        <v>450.0444855773406</v>
       </c>
       <c r="G34" t="n">
-        <v>119.6949055406758</v>
+        <v>34.39624975981664</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I34" t="n">
-        <v>1204003</v>
+        <v>1204818</v>
       </c>
     </row>
     <row r="35">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12091893</v>
+        <v>12098323</v>
       </c>
       <c r="E35" t="n">
-        <v>30094535</v>
+        <v>30110538</v>
       </c>
       <c r="F35" t="n">
         <v>1452.111749795299</v>
@@ -1667,7 +1667,7 @@
         <v>0.7</v>
       </c>
       <c r="I35" t="n">
-        <v>1442515</v>
+        <v>1470971</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6996686</v>
+        <v>7022190</v>
       </c>
       <c r="E36" t="n">
-        <v>9636224</v>
+        <v>9671351</v>
       </c>
       <c r="F36" t="n">
-        <v>2072.388898859287</v>
+        <v>2614.499330685725</v>
       </c>
       <c r="G36" t="n">
-        <v>218.6371868380407</v>
+        <v>281.3498624340584</v>
       </c>
       <c r="H36" t="n">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="I36" t="n">
-        <v>269982</v>
+        <v>280865</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>908539</v>
+        <v>893904</v>
       </c>
       <c r="E37" t="n">
-        <v>6359774</v>
+        <v>6257326</v>
       </c>
       <c r="F37" t="n">
-        <v>500.0332716689987</v>
+        <v>80.05711173690952</v>
       </c>
       <c r="G37" t="n">
-        <v>220.3227129994662</v>
+        <v>190.5482584896007</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>216758</v>
+        <v>256849</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>112286277</v>
+        <v>110594516</v>
       </c>
       <c r="E38" t="n">
-        <v>436576551</v>
+        <v>429998873</v>
       </c>
       <c r="F38" t="n">
-        <v>14655.49912596937</v>
+        <v>12638.54941611184</v>
       </c>
       <c r="G38" t="n">
-        <v>11412.28865392924</v>
+        <v>9480.384395394021</v>
       </c>
       <c r="H38" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I38" t="n">
-        <v>20308203</v>
+        <v>13299214</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5634248</v>
+        <v>5662422</v>
       </c>
       <c r="E39" t="n">
-        <v>5903791</v>
+        <v>5933313</v>
       </c>
       <c r="F39" t="n">
-        <v>2148.640929873271</v>
+        <v>1883.190157868419</v>
       </c>
       <c r="G39" t="n">
-        <v>92.27885950333275</v>
+        <v>279.0308998463927</v>
       </c>
       <c r="H39" t="n">
         <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>157400</v>
+        <v>157593</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4951490</v>
+        <v>4942335</v>
       </c>
       <c r="E40" t="n">
-        <v>7288862</v>
+        <v>7275385</v>
       </c>
       <c r="F40" t="n">
-        <v>1961.724668206801</v>
+        <v>2034.356900291987</v>
       </c>
       <c r="G40" t="n">
-        <v>2458.821612662614</v>
+        <v>2531.355451845099</v>
       </c>
       <c r="H40" t="n">
         <v>0.97</v>
       </c>
       <c r="I40" t="n">
-        <v>571468</v>
+        <v>566304</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7465247</v>
+        <v>7515257</v>
       </c>
       <c r="E41" t="n">
-        <v>7465247</v>
+        <v>7515257</v>
       </c>
       <c r="F41" t="n">
-        <v>208.1638500369579</v>
+        <v>145.1128965551946</v>
       </c>
       <c r="G41" t="n">
-        <v>2271.586528160122</v>
+        <v>2245.793874961009</v>
       </c>
       <c r="H41" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="I41" t="n">
-        <v>102531</v>
+        <v>402521</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1621693</v>
+        <v>1601182</v>
       </c>
       <c r="E42" t="n">
-        <v>1621693</v>
+        <v>1601182</v>
       </c>
       <c r="F42" t="n">
-        <v>440.1100082613173</v>
+        <v>354.361817920657</v>
       </c>
       <c r="G42" t="n">
-        <v>60.76429653947314</v>
+        <v>25.25599724241308</v>
       </c>
       <c r="H42" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I42" t="n">
-        <v>284107</v>
+        <v>285070</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15846189</v>
+        <v>15814703</v>
       </c>
       <c r="F43" t="n">
-        <v>497.4023208166921</v>
+        <v>388.1657774527862</v>
       </c>
       <c r="G43" t="n">
-        <v>334.4080778900187</v>
+        <v>318.2255780245986</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I43" t="n">
-        <v>9528.110000000001</v>
+        <v>9538.200000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>143677499</v>
+        <v>141808388</v>
       </c>
       <c r="E44" t="n">
-        <v>143677499</v>
+        <v>141808388</v>
       </c>
       <c r="F44" t="n">
-        <v>290241.8059637865</v>
+        <v>215615.00313358</v>
       </c>
       <c r="G44" t="n">
-        <v>358024.8118350256</v>
+        <v>298400.3155705354</v>
       </c>
       <c r="H44" t="n">
         <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>87514825</v>
+        <v>84619637</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>66477369</v>
+        <v>65142825</v>
       </c>
       <c r="E45" t="n">
-        <v>340909587</v>
+        <v>334065772</v>
       </c>
       <c r="F45" t="n">
-        <v>44387.93118379528</v>
+        <v>47876.07813221758</v>
       </c>
       <c r="G45" t="n">
-        <v>74213.99504047923</v>
+        <v>49430.31843751055</v>
       </c>
       <c r="H45" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>26571417</v>
+        <v>26843246</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>601085</v>
+        <v>600401</v>
       </c>
       <c r="F46" t="n">
-        <v>60.61132235247963</v>
+        <v>45.25623198017271</v>
       </c>
       <c r="G46" t="n">
-        <v>498.2231016820858</v>
+        <v>498.6963563880404</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1637.25</v>
+        <v>1638.83</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2629177</v>
+        <v>2601058</v>
       </c>
       <c r="E47" t="n">
-        <v>10566062</v>
+        <v>10453060</v>
       </c>
       <c r="F47" t="n">
-        <v>199.5659627602172</v>
+        <v>96.35033308998676</v>
       </c>
       <c r="G47" t="n">
-        <v>191.0049833092487</v>
+        <v>351.2063289756711</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I47" t="n">
-        <v>51773</v>
+        <v>52388</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17893065</v>
+        <v>17968924</v>
       </c>
       <c r="E48" t="n">
-        <v>125153891</v>
+        <v>125684494</v>
       </c>
       <c r="F48" t="n">
-        <v>668.2565347803931</v>
+        <v>540.7760377311441</v>
       </c>
       <c r="G48" t="n">
-        <v>972.4376632395711</v>
+        <v>1163.289007609973</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>992980</v>
+        <v>1003093</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1033058</v>
+        <v>1022567</v>
       </c>
       <c r="E49" t="n">
-        <v>1212563</v>
+        <v>1200249</v>
       </c>
       <c r="F49" t="n">
-        <v>1803.478984060097</v>
+        <v>2476.010991437607</v>
       </c>
       <c r="G49" t="n">
-        <v>3695.609238481837</v>
+        <v>3621.313481879327</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.83</v>
       </c>
       <c r="I49" t="n">
-        <v>185055</v>
+        <v>184583</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>172213</v>
+        <v>168954</v>
       </c>
       <c r="E50" t="n">
-        <v>2304307</v>
+        <v>2260702</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>50532</v>
+        <v>49292</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>263617511</v>
+        <v>261070034</v>
       </c>
       <c r="E51" t="n">
-        <v>263617511</v>
+        <v>261070034</v>
       </c>
       <c r="F51" t="n">
-        <v>22027.63329027098</v>
+        <v>21930.52666576821</v>
       </c>
       <c r="G51" t="n">
-        <v>36008.5436331623</v>
+        <v>22037.97037657807</v>
       </c>
       <c r="H51" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I51" t="n">
-        <v>22247895</v>
+        <v>27366996</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1132798</v>
+        <v>1121294</v>
       </c>
       <c r="F52" t="n">
-        <v>45.5109073250682</v>
+        <v>4.103471370688402</v>
       </c>
       <c r="G52" t="n">
-        <v>5.430655895814334</v>
+        <v>642.3669942199552</v>
       </c>
       <c r="H52" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I52" t="n">
-        <v>138092</v>
+        <v>136500</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2587965</v>
+        <v>2588025</v>
       </c>
       <c r="E53" t="n">
-        <v>2864761</v>
+        <v>2864827</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>279408</v>
+        <v>283456</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115076</v>
+        <v>113646</v>
       </c>
       <c r="E54" t="n">
-        <v>115076</v>
+        <v>113646</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>360.8</v>
+        <v>355.78</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7041865</v>
+        <v>7023556</v>
       </c>
       <c r="E55" t="n">
-        <v>17104149</v>
+        <v>17059676</v>
       </c>
       <c r="F55" t="n">
-        <v>270.5632982540918</v>
+        <v>141.0899330764539</v>
       </c>
       <c r="G55" t="n">
-        <v>118.4748462356703</v>
+        <v>112.5848105875956</v>
       </c>
       <c r="H55" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="I55" t="n">
-        <v>456027</v>
+        <v>455802</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>451635345</v>
+        <v>440206589</v>
       </c>
       <c r="E56" t="n">
-        <v>451635345</v>
+        <v>440206589</v>
       </c>
       <c r="F56" t="n">
-        <v>4011.667618280786</v>
+        <v>5158.715620895198</v>
       </c>
       <c r="G56" t="n">
-        <v>3197.743698245251</v>
+        <v>3514.840060337759</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>4118425</v>
+        <v>4131118</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2483587</v>
+        <v>2463582</v>
       </c>
       <c r="E57" t="n">
-        <v>2483587</v>
+        <v>2463582</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>111002</v>
+        <v>109489</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>176337449</v>
+        <v>172693005</v>
       </c>
       <c r="E58" t="n">
-        <v>232039460</v>
+        <v>227243797</v>
       </c>
       <c r="F58" t="n">
-        <v>13690.3958847187</v>
+        <v>1544.329126129637</v>
       </c>
       <c r="G58" t="n">
-        <v>8126.534176859466</v>
+        <v>14730.02453835043</v>
       </c>
       <c r="H58" t="n">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="I58" t="n">
-        <v>15698716</v>
+        <v>15869952</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1156805</v>
+        <v>1155012</v>
       </c>
       <c r="E59" t="n">
-        <v>12571726</v>
+        <v>12552242</v>
       </c>
       <c r="F59" t="n">
-        <v>3.936454613242537</v>
+        <v>3.936438689256542</v>
       </c>
       <c r="G59" t="n">
-        <v>4.088016500088872</v>
+        <v>4.0879999629955</v>
       </c>
       <c r="H59" t="n">
         <v>0.45</v>
       </c>
       <c r="I59" t="n">
-        <v>14772.72</v>
+        <v>14788.15</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2571122</v>
+        <v>2562681</v>
       </c>
       <c r="E60" t="n">
-        <v>6573297</v>
+        <v>6551717</v>
       </c>
       <c r="F60" t="n">
-        <v>272.4090672361127</v>
+        <v>272.4084275273315</v>
       </c>
       <c r="G60" t="n">
-        <v>50.97356666653386</v>
+        <v>50.97344696332964</v>
       </c>
       <c r="H60" t="n">
         <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>81069</v>
+        <v>81106</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83836007</v>
+        <v>82235439</v>
       </c>
       <c r="E61" t="n">
-        <v>234520679</v>
+        <v>230043294</v>
       </c>
       <c r="F61" t="n">
-        <v>73091.4218308743</v>
+        <v>67950.97603984721</v>
       </c>
       <c r="G61" t="n">
-        <v>63652.22898882325</v>
+        <v>60483.86022226569</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I61" t="n">
-        <v>48916838</v>
+        <v>49979170</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72021434</v>
+        <v>70500231</v>
       </c>
       <c r="E62" t="n">
-        <v>72021434</v>
+        <v>70500231</v>
       </c>
       <c r="F62" t="n">
-        <v>7329.317966764283</v>
+        <v>7297.447176215242</v>
       </c>
       <c r="G62" t="n">
-        <v>2407.330466809058</v>
+        <v>2377.280846144849</v>
       </c>
       <c r="H62" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="I62" t="n">
-        <v>3663095</v>
+        <v>3874174</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4074696</v>
+        <v>4073577</v>
       </c>
       <c r="E63" t="n">
-        <v>8035643</v>
+        <v>8033436</v>
       </c>
       <c r="F63" t="n">
-        <v>1698.161032451851</v>
+        <v>1115.688932734733</v>
       </c>
       <c r="G63" t="n">
-        <v>936.8536159397868</v>
+        <v>1091.674683610942</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="I63" t="n">
-        <v>1636025</v>
+        <v>1636347</v>
       </c>
     </row>
     <row r="64">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1593562</v>
+        <v>1596626</v>
       </c>
       <c r="E64" t="n">
-        <v>9149636</v>
+        <v>9167232</v>
       </c>
       <c r="F64" t="n">
         <v>9.455773071655804</v>
@@ -2678,7 +2678,7 @@
         <v>0.98</v>
       </c>
       <c r="I64" t="n">
-        <v>239336</v>
+        <v>240153</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>698367</v>
+        <v>631453</v>
       </c>
       <c r="F65" t="n">
-        <v>3.933819950333186</v>
+        <v>5.544365207373618</v>
       </c>
       <c r="G65" t="n">
-        <v>4.163057909746005</v>
+        <v>5.373023840604795</v>
       </c>
       <c r="H65" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="I65" t="n">
-        <v>5401.32</v>
+        <v>5397.85</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31222413</v>
+        <v>31187906</v>
       </c>
       <c r="F66" t="n">
-        <v>290.5441569635108</v>
+        <v>330.5351399382294</v>
       </c>
       <c r="G66" t="n">
-        <v>923.5146333973499</v>
+        <v>847.5475888736526</v>
       </c>
       <c r="H66" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>236770</v>
+        <v>236695</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>171834</v>
+        <v>170262</v>
       </c>
       <c r="E67" t="n">
-        <v>1160415</v>
+        <v>1149801</v>
       </c>
       <c r="F67" t="n">
-        <v>259.6927362851677</v>
+        <v>270.5475623628212</v>
       </c>
       <c r="G67" t="n">
-        <v>61.29209358423626</v>
+        <v>73.09800266268961</v>
       </c>
       <c r="H67" t="n">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
       <c r="I67" t="n">
-        <v>3026954</v>
+        <v>3035270</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17567696</v>
+        <v>17519611</v>
       </c>
       <c r="E68" t="n">
-        <v>18515939</v>
+        <v>18465259</v>
       </c>
       <c r="F68" t="n">
-        <v>1206.755785872297</v>
+        <v>1206.15518583517</v>
       </c>
       <c r="G68" t="n">
-        <v>1727.122002151514</v>
+        <v>1727.221990523836</v>
       </c>
       <c r="H68" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="I68" t="n">
-        <v>43062</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2958445</v>
+        <v>2945510</v>
       </c>
       <c r="E69" t="n">
-        <v>2958445</v>
+        <v>2945510</v>
       </c>
       <c r="F69" t="n">
-        <v>9.675581618234903</v>
+        <v>9.675542477982743</v>
       </c>
       <c r="G69" t="n">
-        <v>99.22616866555103</v>
+        <v>128.6891005234566</v>
       </c>
       <c r="H69" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>16009.93</v>
+        <v>15416.67</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3387562</v>
+        <v>3370110</v>
       </c>
       <c r="E70" t="n">
-        <v>8358637</v>
+        <v>8315574</v>
       </c>
       <c r="F70" t="n">
-        <v>1178.502300670981</v>
+        <v>1185.215983186573</v>
       </c>
       <c r="G70" t="n">
-        <v>1197.676163825328</v>
+        <v>1168.400007315348</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>45454</v>
+        <v>46233</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23169206</v>
+        <v>23263418</v>
       </c>
       <c r="F71" t="n">
-        <v>4.114839205548113</v>
+        <v>4.114832157302966</v>
       </c>
       <c r="G71" t="n">
-        <v>623.2787228712696</v>
+        <v>596.9245656840592</v>
       </c>
       <c r="H71" t="n">
         <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>127125</v>
+        <v>127757</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>250156</v>
+        <v>249347</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4056.66</v>
+        <v>4111.81</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>89760137</v>
+        <v>86856624</v>
       </c>
       <c r="E73" t="n">
-        <v>187142677</v>
+        <v>181089085</v>
       </c>
       <c r="F73" t="n">
-        <v>13482.69766646126</v>
+        <v>13984.54274654514</v>
       </c>
       <c r="G73" t="n">
-        <v>581.4920346835235</v>
+        <v>244.3354160114547</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>66970289</v>
+        <v>67338848</v>
       </c>
     </row>
     <row r="74">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199090668</v>
+        <v>197648682</v>
       </c>
       <c r="F75" t="n">
         <v>8377.418694367247</v>
@@ -3053,7 +3053,7 @@
         <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3362772</v>
+        <v>3329154</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>85840406</v>
+        <v>85098983</v>
       </c>
       <c r="E76" t="n">
-        <v>117872236</v>
+        <v>116854148</v>
       </c>
       <c r="F76" t="n">
-        <v>1107.669180526258</v>
+        <v>485.5306380882469</v>
       </c>
       <c r="G76" t="n">
-        <v>2179.092832263727</v>
+        <v>2227.897212187265</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04</v>
+        <v>0.92</v>
       </c>
       <c r="I76" t="n">
-        <v>1136340</v>
+        <v>1217452</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>186957</v>
+        <v>187096</v>
       </c>
       <c r="E77" t="n">
-        <v>195236</v>
+        <v>195381</v>
       </c>
       <c r="F77" t="n">
-        <v>4.01039937494177</v>
+        <v>4.010798551736438</v>
       </c>
       <c r="G77" t="n">
-        <v>85.67131592799672</v>
+        <v>85.67984325859148</v>
       </c>
       <c r="H77" t="n">
         <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>205.77</v>
+        <v>206.37</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7601607</v>
+        <v>7540343</v>
       </c>
       <c r="E78" t="n">
-        <v>8362276</v>
+        <v>8294881</v>
       </c>
       <c r="F78" t="n">
-        <v>626.2748030803504</v>
+        <v>141.2033032416712</v>
       </c>
       <c r="G78" t="n">
-        <v>400.9046518571056</v>
+        <v>288.5652216793503</v>
       </c>
       <c r="H78" t="n">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="I78" t="n">
-        <v>661002</v>
+        <v>655864</v>
       </c>
     </row>
     <row r="79">
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30133613</v>
+        <v>29979983</v>
       </c>
       <c r="E79" t="n">
-        <v>30133613</v>
+        <v>29979983</v>
       </c>
       <c r="F79" t="n">
         <v>109.5645106427837</v>
@@ -3193,7 +3193,7 @@
         <v>0.03</v>
       </c>
       <c r="I79" t="n">
-        <v>249735</v>
+        <v>251373</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>280629120</v>
+        <v>276206896</v>
       </c>
       <c r="E80" t="n">
-        <v>280629120</v>
+        <v>276206896</v>
       </c>
       <c r="F80" t="n">
-        <v>2639.695681717239</v>
+        <v>299.8814868072328</v>
       </c>
       <c r="G80" t="n">
-        <v>2939.803564724699</v>
+        <v>611.262646485225</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I80" t="n">
-        <v>12021193</v>
+        <v>12047910</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>677096341</v>
+        <v>668578616</v>
       </c>
       <c r="E81" t="n">
-        <v>677096341</v>
+        <v>668578616</v>
       </c>
       <c r="F81" t="n">
-        <v>1477151.740277878</v>
+        <v>1399346.757670323</v>
       </c>
       <c r="G81" t="n">
-        <v>1293673.639674646</v>
+        <v>1101583.558773353</v>
       </c>
       <c r="H81" t="n">
         <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>499808812</v>
+        <v>504035173</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113286</v>
+        <v>113424</v>
       </c>
       <c r="E82" t="n">
-        <v>113286</v>
+        <v>113424</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1404.39</v>
+        <v>1389.69</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>203953181</v>
+        <v>200971284</v>
       </c>
       <c r="E83" t="n">
-        <v>708551784</v>
+        <v>698192405</v>
       </c>
       <c r="F83" t="n">
-        <v>3202.874768183531</v>
+        <v>974.6038783412009</v>
       </c>
       <c r="G83" t="n">
-        <v>1666.826223617494</v>
+        <v>2099.906681148577</v>
       </c>
       <c r="H83" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="I83" t="n">
-        <v>37552593</v>
+        <v>38371239</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3423312</v>
+        <v>3385892</v>
       </c>
       <c r="E84" t="n">
-        <v>3423312</v>
+        <v>3385892</v>
       </c>
       <c r="F84" t="n">
-        <v>796.6883791315373</v>
+        <v>668.695313434564</v>
       </c>
       <c r="G84" t="n">
-        <v>943.9074476467174</v>
+        <v>9943.654328139004</v>
       </c>
       <c r="H84" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="I84" t="n">
-        <v>2133455</v>
+        <v>2446406</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115150422</v>
+        <v>113633286</v>
       </c>
       <c r="E85" t="n">
-        <v>488642602</v>
+        <v>482204613</v>
       </c>
       <c r="F85" t="n">
-        <v>244356.0132726431</v>
+        <v>221666.1106297022</v>
       </c>
       <c r="G85" t="n">
-        <v>200166.8632067784</v>
+        <v>252556.8962055923</v>
       </c>
       <c r="H85" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>15193177</v>
+        <v>15271494</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71733981</v>
+        <v>71826385</v>
       </c>
       <c r="E86" t="n">
-        <v>82305605</v>
+        <v>82411627</v>
       </c>
       <c r="F86" t="n">
-        <v>3375.87855607089</v>
+        <v>2878.19294704393</v>
       </c>
       <c r="G86" t="n">
-        <v>4442.317619500479</v>
+        <v>12632.89044955197</v>
       </c>
       <c r="H86" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1381359</v>
+        <v>1386408</v>
       </c>
     </row>
     <row r="87">
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3252562</v>
+        <v>3267237</v>
       </c>
       <c r="E87" t="n">
-        <v>16307691</v>
+        <v>16381269</v>
       </c>
       <c r="F87" t="n">
         <v>4.157541418272937</v>
@@ -3471,7 +3471,7 @@
         <v>0.76</v>
       </c>
       <c r="I87" t="n">
-        <v>33266</v>
+        <v>31787</v>
       </c>
     </row>
     <row r="88">
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>523088</v>
+        <v>513164</v>
       </c>
       <c r="E88" t="n">
-        <v>8947389</v>
+        <v>8777634</v>
       </c>
       <c r="F88" t="n">
         <v>261.543453718207</v>
@@ -3506,7 +3506,7 @@
         <v>2.19</v>
       </c>
       <c r="I88" t="n">
-        <v>148282</v>
+        <v>148025</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5807773</v>
+        <v>5801823</v>
       </c>
       <c r="E89" t="n">
-        <v>7883953</v>
+        <v>7874144</v>
       </c>
       <c r="F89" t="n">
-        <v>81.20237063242861</v>
+        <v>113.6051517766916</v>
       </c>
       <c r="G89" t="n">
-        <v>690.0282376547759</v>
+        <v>405.0815128499179</v>
       </c>
       <c r="H89" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="I89" t="n">
-        <v>5315386</v>
+        <v>5279438</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40591071</v>
+        <v>40736176</v>
       </c>
       <c r="E90" t="n">
-        <v>47409406</v>
+        <v>47578886</v>
       </c>
       <c r="F90" t="n">
-        <v>321.4329253516707</v>
+        <v>297.5237827592047</v>
       </c>
       <c r="G90" t="n">
-        <v>96.93071092964814</v>
+        <v>4.184437567025162</v>
       </c>
       <c r="H90" t="n">
-        <v>0.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>965167</v>
+        <v>958557</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14637712</v>
+        <v>14561682</v>
       </c>
       <c r="F91" t="n">
-        <v>48.48461962290132</v>
+        <v>48.14914477577069</v>
       </c>
       <c r="G91" t="n">
-        <v>215.4687095790422</v>
+        <v>266.1584095110128</v>
       </c>
       <c r="H91" t="n">
         <v>2.16</v>
       </c>
       <c r="I91" t="n">
-        <v>225632</v>
+        <v>226117</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36022276</v>
+        <v>35619794</v>
       </c>
       <c r="E92" t="n">
-        <v>36022276</v>
+        <v>35619794</v>
       </c>
       <c r="F92" t="n">
-        <v>684.8555690270772</v>
+        <v>629.3602588332857</v>
       </c>
       <c r="G92" t="n">
-        <v>230.307023239019</v>
+        <v>44.31269088249872</v>
       </c>
       <c r="H92" t="n">
-        <v>0.63</v>
+        <v>1.02</v>
       </c>
       <c r="I92" t="n">
-        <v>859495</v>
+        <v>856362</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17151483</v>
+        <v>17146058</v>
       </c>
       <c r="F93" t="n">
-        <v>250.5739916293413</v>
+        <v>250.5382341133711</v>
       </c>
       <c r="G93" t="n">
-        <v>205.8151411965702</v>
+        <v>328.4121645064981</v>
       </c>
       <c r="H93" t="n">
         <v>0.35</v>
       </c>
       <c r="I93" t="n">
-        <v>192892</v>
+        <v>192859</v>
       </c>
     </row>
     <row r="94">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>555067</v>
+        <v>557800</v>
       </c>
       <c r="E94" t="n">
-        <v>6732419</v>
+        <v>6765572</v>
       </c>
       <c r="F94" t="n">
         <v>558.6699524334</v>
@@ -3716,7 +3716,7 @@
         <v>0.46</v>
       </c>
       <c r="I94" t="n">
-        <v>2780235</v>
+        <v>2785403</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25860109</v>
+        <v>25673027</v>
       </c>
       <c r="E95" t="n">
-        <v>36544504</v>
+        <v>36280127</v>
       </c>
       <c r="F95" t="n">
-        <v>5.33831619448978</v>
+        <v>5.338315348763097</v>
       </c>
       <c r="G95" t="n">
-        <v>593.2051112809653</v>
+        <v>249.2223791514787</v>
       </c>
       <c r="H95" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="I95" t="n">
-        <v>101594</v>
+        <v>100838</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1406597859</v>
+        <v>1376836392</v>
       </c>
       <c r="E96" t="n">
-        <v>6744924799</v>
+        <v>6602212468</v>
       </c>
       <c r="F96" t="n">
-        <v>218504.3745341225</v>
+        <v>234528.3425615449</v>
       </c>
       <c r="G96" t="n">
-        <v>243937.5194219395</v>
+        <v>253597.4116064607</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I96" t="n">
-        <v>422408739</v>
+        <v>427927163</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>267068291</v>
+        <v>262442491</v>
       </c>
       <c r="E97" t="n">
-        <v>1152815002</v>
+        <v>1132847485</v>
       </c>
       <c r="F97" t="n">
-        <v>262490.7674179961</v>
+        <v>219249.5797381403</v>
       </c>
       <c r="G97" t="n">
-        <v>663870.44272862</v>
+        <v>602616.6852352702</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>134854594</v>
+        <v>135499134</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4937441</v>
+        <v>4914223</v>
       </c>
       <c r="E98" t="n">
-        <v>5471668</v>
+        <v>5445938</v>
       </c>
       <c r="F98" t="n">
-        <v>188.6652714395233</v>
+        <v>385.3142016269476</v>
       </c>
       <c r="G98" t="n">
-        <v>489.4092515557959</v>
+        <v>535.5768942494902</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="I98" t="n">
-        <v>705216</v>
+        <v>684911</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90679</v>
+        <v>90274</v>
       </c>
       <c r="E99" t="n">
-        <v>90679</v>
+        <v>90274</v>
       </c>
       <c r="F99" t="n">
-        <v>4.051973890216872</v>
+        <v>4.051964374809382</v>
       </c>
       <c r="G99" t="n">
-        <v>237.1504643767882</v>
+        <v>237.149907467152</v>
       </c>
       <c r="H99" t="n">
         <v>0.87</v>
       </c>
       <c r="I99" t="n">
-        <v>1433.86</v>
+        <v>1433.84</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114660409</v>
+        <v>113873099</v>
       </c>
       <c r="E100" t="n">
-        <v>114660409</v>
+        <v>113873099</v>
       </c>
       <c r="F100" t="n">
-        <v>8317.443321475019</v>
+        <v>8486.039965086826</v>
       </c>
       <c r="G100" t="n">
-        <v>9745.403067947154</v>
+        <v>16506.65717483933</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6773166</v>
+        <v>6800216</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3884836</v>
+        <v>3886103</v>
       </c>
       <c r="F101" t="n">
-        <v>1766.521641388246</v>
+        <v>452.1782898693485</v>
       </c>
       <c r="G101" t="n">
-        <v>1012.68628056884</v>
+        <v>815.787255477773</v>
       </c>
       <c r="H101" t="n">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="I101" t="n">
-        <v>350079</v>
+        <v>354897</v>
       </c>
     </row>
     <row r="102">
@@ -3981,10 +3981,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2042861387</v>
+        <v>2025157917</v>
       </c>
       <c r="E102" t="n">
-        <v>2042861387</v>
+        <v>2025157917</v>
       </c>
       <c r="F102" t="n">
         <v>8080056.048301161</v>
@@ -3996,7 +3996,7 @@
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>8556972536</v>
+        <v>4370951249</v>
       </c>
     </row>
     <row r="103">
@@ -4016,10 +4016,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5332058</v>
+        <v>5351095</v>
       </c>
       <c r="E103" t="n">
-        <v>5338093</v>
+        <v>5357151</v>
       </c>
       <c r="F103" t="n">
         <v>236.8888531062773</v>
@@ -4031,7 +4031,7 @@
         <v>0.47</v>
       </c>
       <c r="I103" t="n">
-        <v>146142</v>
+        <v>146874</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2394592</v>
+        <v>2291790</v>
       </c>
       <c r="F104" t="n">
-        <v>5.507879491227997</v>
+        <v>5.507870123517769</v>
       </c>
       <c r="G104" t="n">
-        <v>308.5356814209729</v>
+        <v>308.5351566685953</v>
       </c>
       <c r="H104" t="n">
         <v>0.21</v>
       </c>
       <c r="I104" t="n">
-        <v>37543</v>
+        <v>37418</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4315939</v>
+        <v>4307161</v>
       </c>
       <c r="E105" t="n">
-        <v>5666265</v>
+        <v>5654740</v>
       </c>
       <c r="F105" t="n">
-        <v>1868.101609795819</v>
+        <v>2164.205174885787</v>
       </c>
       <c r="G105" t="n">
-        <v>415.8686020814458</v>
+        <v>236.7630705934541</v>
       </c>
       <c r="H105" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>629375</v>
+        <v>630029</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19805468</v>
+        <v>19700079</v>
       </c>
       <c r="F106" t="n">
-        <v>937.5202428214983</v>
+        <v>193.4299480166649</v>
       </c>
       <c r="G106" t="n">
-        <v>95.13096350565445</v>
+        <v>749.628690145046</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="I106" t="n">
-        <v>56575</v>
+        <v>57597</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1442236</v>
+        <v>1445533</v>
       </c>
       <c r="E107" t="n">
-        <v>5376611</v>
+        <v>5388903</v>
       </c>
       <c r="F107" t="n">
-        <v>147.0795503020426</v>
+        <v>135.1126072510578</v>
       </c>
       <c r="G107" t="n">
-        <v>235.8118955465939</v>
+        <v>3259.365158942815</v>
       </c>
       <c r="H107" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I107" t="n">
-        <v>597343</v>
+        <v>595751</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4189361</v>
+        <v>4189359</v>
       </c>
       <c r="E108" t="n">
-        <v>12066715</v>
+        <v>12066710</v>
       </c>
       <c r="F108" t="n">
-        <v>1128.678229251126</v>
+        <v>1012.728137239253</v>
       </c>
       <c r="G108" t="n">
-        <v>482.0065321178516</v>
+        <v>353.5450076346567</v>
       </c>
       <c r="H108" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I108" t="n">
-        <v>530025</v>
+        <v>530490</v>
       </c>
     </row>
     <row r="109">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80047532</v>
+        <v>79629971</v>
       </c>
       <c r="E109" t="n">
-        <v>101866706</v>
+        <v>101335327</v>
       </c>
       <c r="F109" t="n">
         <v>4530.466696159086</v>
@@ -4241,7 +4241,7 @@
         <v>0.71</v>
       </c>
       <c r="I109" t="n">
-        <v>7289310</v>
+        <v>6382450</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23046270</v>
+        <v>22805391</v>
       </c>
       <c r="E110" t="n">
-        <v>29896285</v>
+        <v>29583810</v>
       </c>
       <c r="F110" t="n">
-        <v>19327.23602082166</v>
+        <v>15751.89125287742</v>
       </c>
       <c r="G110" t="n">
-        <v>9188.799181867051</v>
+        <v>11434.74872320941</v>
       </c>
       <c r="H110" t="n">
         <v>0.03</v>
       </c>
       <c r="I110" t="n">
-        <v>432506</v>
+        <v>431693</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>703368</v>
+        <v>702951</v>
       </c>
       <c r="E111" t="n">
-        <v>703368</v>
+        <v>702951</v>
       </c>
       <c r="F111" t="n">
-        <v>17.34533843366636</v>
+        <v>8.359964716053247</v>
       </c>
       <c r="G111" t="n">
-        <v>4.294756438110994</v>
+        <v>4.294749133660365</v>
       </c>
       <c r="H111" t="n">
         <v>0.19</v>
       </c>
       <c r="I111" t="n">
-        <v>73438</v>
+        <v>73186</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14290175</v>
+        <v>14179415</v>
       </c>
       <c r="E112" t="n">
-        <v>14290175</v>
+        <v>14179415</v>
       </c>
       <c r="F112" t="n">
-        <v>2497.510132050657</v>
+        <v>2152.946453899488</v>
       </c>
       <c r="G112" t="n">
-        <v>3499.762694290852</v>
+        <v>4104.405204226174</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="I112" t="n">
-        <v>5370252</v>
+        <v>5370989</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99269352</v>
+        <v>98484862</v>
       </c>
       <c r="E113" t="n">
-        <v>122792635</v>
+        <v>121822249</v>
       </c>
       <c r="F113" t="n">
-        <v>852.1557527450645</v>
+        <v>735.7260336294833</v>
       </c>
       <c r="G113" t="n">
-        <v>1396.172412578759</v>
+        <v>1259.561674708553</v>
       </c>
       <c r="H113" t="n">
-        <v>0.52</v>
+        <v>0.02</v>
       </c>
       <c r="I113" t="n">
-        <v>1007646</v>
+        <v>1002701</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>883397</v>
+        <v>891575</v>
       </c>
       <c r="F114" t="n">
-        <v>33.00545847486337</v>
+        <v>570.2228865681789</v>
       </c>
       <c r="G114" t="n">
-        <v>282.1261483368313</v>
+        <v>197.387721349624</v>
       </c>
       <c r="H114" t="n">
-        <v>0.61</v>
+        <v>1.2</v>
       </c>
       <c r="I114" t="n">
-        <v>40456</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="115">
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2743277</v>
+        <v>2722013</v>
       </c>
       <c r="F115" t="n">
         <v>861.767434051726</v>
@@ -4451,7 +4451,7 @@
         <v>2.43</v>
       </c>
       <c r="I115" t="n">
-        <v>80852</v>
+        <v>81117</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11194232</v>
+        <v>11206591</v>
       </c>
       <c r="E116" t="n">
-        <v>16462105</v>
+        <v>16480280</v>
       </c>
       <c r="F116" t="n">
-        <v>2246.917529894232</v>
+        <v>2139.208589103022</v>
       </c>
       <c r="G116" t="n">
-        <v>1942.807201481276</v>
+        <v>1971.538941157072</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4</v>
+        <v>1.23</v>
       </c>
       <c r="I116" t="n">
-        <v>487876</v>
+        <v>416326</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3205301</v>
+        <v>3192250</v>
       </c>
       <c r="F117" t="n">
-        <v>3.910646410309354</v>
+        <v>3.910639759146699</v>
       </c>
       <c r="G117" t="n">
-        <v>4.159166235196301</v>
+        <v>212.2983026847354</v>
       </c>
       <c r="H117" t="n">
         <v>0.58</v>
       </c>
       <c r="I117" t="n">
-        <v>33991</v>
+        <v>34203</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1164263</v>
+        <v>1162083</v>
       </c>
       <c r="F118" t="n">
-        <v>5.241916370683532</v>
+        <v>5.241919297859449</v>
       </c>
       <c r="G118" t="n">
-        <v>5.238409651658054</v>
+        <v>30.88459088851101</v>
       </c>
       <c r="H118" t="n">
         <v>0.31</v>
       </c>
       <c r="I118" t="n">
-        <v>5404.03</v>
+        <v>5508.67</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5122037</v>
+        <v>5090844</v>
       </c>
       <c r="E119" t="n">
-        <v>7166472</v>
+        <v>7122829</v>
       </c>
       <c r="F119" t="n">
-        <v>1362.270966426187</v>
+        <v>850.42253855633</v>
       </c>
       <c r="G119" t="n">
-        <v>1285.984674423329</v>
+        <v>1308.222124170214</v>
       </c>
       <c r="H119" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I119" t="n">
-        <v>76807</v>
+        <v>75566</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10272343</v>
+        <v>10200644</v>
       </c>
       <c r="E120" t="n">
-        <v>28294731</v>
+        <v>28097237</v>
       </c>
       <c r="F120" t="n">
-        <v>28.7539819785557</v>
+        <v>64.68829588280711</v>
       </c>
       <c r="G120" t="n">
-        <v>44.33140171484953</v>
+        <v>121.449083577551</v>
       </c>
       <c r="H120" t="n">
-        <v>0.25</v>
+        <v>0.72</v>
       </c>
       <c r="I120" t="n">
-        <v>335010</v>
+        <v>332585</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50891137</v>
+        <v>50609048</v>
       </c>
       <c r="E121" t="n">
-        <v>129648080</v>
+        <v>128929442</v>
       </c>
       <c r="F121" t="n">
-        <v>1289.400918980874</v>
+        <v>1873.223913858683</v>
       </c>
       <c r="G121" t="n">
-        <v>11746.98133360104</v>
+        <v>11006.12582884335</v>
       </c>
       <c r="H121" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I121" t="n">
-        <v>2158193</v>
+        <v>2160768</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14719995</v>
+        <v>14201645</v>
       </c>
       <c r="E122" t="n">
-        <v>71291284</v>
+        <v>68780835</v>
       </c>
       <c r="F122" t="n">
-        <v>381.6110661479209</v>
+        <v>991.8422834110952</v>
       </c>
       <c r="G122" t="n">
-        <v>1652.493896921995</v>
+        <v>1200.756500874959</v>
       </c>
       <c r="H122" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I122" t="n">
-        <v>5127443</v>
+        <v>5147501</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>624253</v>
+        <v>627891</v>
       </c>
       <c r="F123" t="n">
-        <v>3.927609323436914</v>
+        <v>5.42740289891442</v>
       </c>
       <c r="G123" t="n">
-        <v>1806.379820303912</v>
+        <v>1807.315970732726</v>
       </c>
       <c r="H123" t="n">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="I123" t="n">
-        <v>8250.32</v>
+        <v>8159.7</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4610231</v>
+        <v>4580165</v>
       </c>
       <c r="E124" t="n">
-        <v>10508817</v>
+        <v>10440283</v>
       </c>
       <c r="F124" t="n">
-        <v>2722.578846465458</v>
+        <v>1414.699218494106</v>
       </c>
       <c r="G124" t="n">
-        <v>2530.996997750283</v>
+        <v>1258.847383525948</v>
       </c>
       <c r="H124" t="n">
-        <v>1.61</v>
+        <v>0.86</v>
       </c>
       <c r="I124" t="n">
-        <v>65976</v>
+        <v>66315</v>
       </c>
     </row>
     <row r="125">
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1873025386</v>
+        <v>1860530458</v>
       </c>
       <c r="F125" t="n">
         <v>76456.05096314159</v>
@@ -4801,7 +4801,7 @@
         <v>0.42</v>
       </c>
       <c r="I125" t="n">
-        <v>29434966</v>
+        <v>29631586</v>
       </c>
     </row>
     <row r="126">
@@ -4821,10 +4821,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9651701</v>
+        <v>9616966</v>
       </c>
       <c r="E126" t="n">
-        <v>35116749</v>
+        <v>34990228</v>
       </c>
       <c r="F126" t="n">
         <v>2139.589531792515</v>
@@ -4836,7 +4836,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I126" t="n">
-        <v>122139</v>
+        <v>116554</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>626417</v>
+        <v>622503</v>
       </c>
       <c r="F127" t="n">
-        <v>23.49082861655617</v>
+        <v>23.49080709182632</v>
       </c>
       <c r="G127" t="n">
-        <v>5.381691806400275</v>
+        <v>5.381686875136923</v>
       </c>
       <c r="H127" t="n">
         <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>937.58</v>
+        <v>936.79</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12330505</v>
+        <v>12336569</v>
       </c>
       <c r="E128" t="n">
-        <v>17877453</v>
+        <v>17886245</v>
       </c>
       <c r="F128" t="n">
-        <v>63.44452289698484</v>
+        <v>3346.620548048038</v>
       </c>
       <c r="G128" t="n">
-        <v>1671.649609281861</v>
+        <v>4023.440661185557</v>
       </c>
       <c r="H128" t="n">
-        <v>3.61</v>
+        <v>0.7</v>
       </c>
       <c r="I128" t="n">
-        <v>2011693</v>
+        <v>2012890</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31258276</v>
+        <v>30563955</v>
       </c>
       <c r="E129" t="n">
-        <v>97328243</v>
+        <v>95166349</v>
       </c>
       <c r="F129" t="n">
-        <v>7801.045137208194</v>
+        <v>6420.946816016482</v>
       </c>
       <c r="G129" t="n">
-        <v>6135.046439664156</v>
+        <v>4539.092682913828</v>
       </c>
       <c r="H129" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I129" t="n">
-        <v>9993096</v>
+        <v>10202903</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1935811</v>
+        <v>1920787</v>
       </c>
       <c r="E130" t="n">
-        <v>13881504</v>
+        <v>13773773</v>
       </c>
       <c r="F130" t="n">
-        <v>3.955227233697239</v>
+        <v>3.955220506712259</v>
       </c>
       <c r="G130" t="n">
-        <v>2.798496525052132</v>
+        <v>2.798491765415585</v>
       </c>
       <c r="H130" t="n">
         <v>0.57</v>
       </c>
       <c r="I130" t="n">
-        <v>594980</v>
+        <v>2016889</v>
       </c>
     </row>
     <row r="131">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8162462</v>
+        <v>8117074</v>
       </c>
       <c r="F131" t="n">
         <v>198.6549398886727</v>
@@ -5011,7 +5011,7 @@
         <v>0.4</v>
       </c>
       <c r="I131" t="n">
-        <v>547620</v>
+        <v>545999</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>200240195</v>
+        <v>196770073</v>
       </c>
       <c r="E132" t="n">
-        <v>1133883022</v>
+        <v>1114233055</v>
       </c>
       <c r="F132" t="n">
-        <v>261217.0163819425</v>
+        <v>262582.6121877526</v>
       </c>
       <c r="G132" t="n">
-        <v>429243.147916498</v>
+        <v>379147.2115066525</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>81959750</v>
+        <v>82895118</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1039012</v>
+        <v>1041376</v>
       </c>
       <c r="E133" t="n">
-        <v>1039012</v>
+        <v>1041376</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5932.78</v>
+        <v>5873.23</v>
       </c>
     </row>
     <row r="134">
@@ -5099,10 +5099,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>498045</v>
+        <v>494060</v>
       </c>
       <c r="E134" t="n">
-        <v>1676350</v>
+        <v>1662938</v>
       </c>
       <c r="F134" t="n">
         <v>429.7874652563728</v>
@@ -5114,7 +5114,7 @@
         <v>0.6</v>
       </c>
       <c r="I134" t="n">
-        <v>631723</v>
+        <v>630519</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14238448</v>
+        <v>15212127</v>
       </c>
       <c r="F135" t="n">
-        <v>5.384478112392419</v>
+        <v>5.384456330773559</v>
       </c>
       <c r="G135" t="n">
-        <v>4.008392304420976</v>
+        <v>4.008376089428251</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>211.53</v>
+        <v>203.73</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>126206911</v>
+        <v>126229997</v>
       </c>
       <c r="E136" t="n">
-        <v>934866009</v>
+        <v>935037017</v>
       </c>
       <c r="F136" t="n">
-        <v>84.35549876598729</v>
+        <v>62.92035248596964</v>
       </c>
       <c r="G136" t="n">
-        <v>120.7914341324184</v>
+        <v>777.6634368557621</v>
       </c>
       <c r="H136" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="I136" t="n">
-        <v>20747521</v>
+        <v>21099321</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31204265</v>
+        <v>31099972</v>
       </c>
       <c r="E137" t="n">
-        <v>148173917</v>
+        <v>147607783</v>
       </c>
       <c r="F137" t="n">
-        <v>1064.467746061913</v>
+        <v>888.3955523591134</v>
       </c>
       <c r="G137" t="n">
-        <v>1318.829230229632</v>
+        <v>1527.574492259817</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I137" t="n">
-        <v>776713</v>
+        <v>829253</v>
       </c>
     </row>
     <row r="138">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8655585</v>
+        <v>8610337</v>
       </c>
       <c r="E138" t="n">
-        <v>11595597</v>
+        <v>11534981</v>
       </c>
       <c r="F138" t="n">
         <v>78.74895295687811</v>
@@ -5254,7 +5254,7 @@
         <v>0.83</v>
       </c>
       <c r="I138" t="n">
-        <v>37697</v>
+        <v>37464</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1212065</v>
+        <v>1208090</v>
       </c>
       <c r="F139" t="n">
-        <v>126.2348922776644</v>
+        <v>126.4794812575872</v>
       </c>
       <c r="G139" t="n">
-        <v>5.300266266156315</v>
+        <v>5.300257251551223</v>
       </c>
       <c r="H139" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I139" t="n">
-        <v>4712.75</v>
+        <v>4549.46</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2505741</v>
+        <v>2494626</v>
       </c>
       <c r="E140" t="n">
-        <v>2505741</v>
+        <v>2494626</v>
       </c>
       <c r="F140" t="n">
-        <v>292.2863596632395</v>
+        <v>222.7932323857213</v>
       </c>
       <c r="G140" t="n">
-        <v>527.4963083985475</v>
+        <v>490.3549671368077</v>
       </c>
       <c r="H140" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I140" t="n">
-        <v>305301</v>
+        <v>306883</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>35952132</v>
+        <v>35123355</v>
       </c>
       <c r="E141" t="n">
-        <v>35952132</v>
+        <v>35123355</v>
       </c>
       <c r="F141" t="n">
-        <v>780.52502413771</v>
+        <v>241.9087081825631</v>
       </c>
       <c r="G141" t="n">
-        <v>633.2232218720172</v>
+        <v>1019.909472755101</v>
       </c>
       <c r="H141" t="n">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="I141" t="n">
-        <v>956056</v>
+        <v>958448</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6534542</v>
+        <v>6381043</v>
       </c>
       <c r="E142" t="n">
-        <v>6901208</v>
+        <v>6739096</v>
       </c>
       <c r="F142" t="n">
-        <v>493.913780427385</v>
+        <v>146.3988747027369</v>
       </c>
       <c r="G142" t="n">
-        <v>136.8548710958127</v>
+        <v>13.95246189038341</v>
       </c>
       <c r="H142" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="I142" t="n">
-        <v>30727</v>
+        <v>30121</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3455981</v>
+        <v>3450413</v>
       </c>
       <c r="E143" t="n">
-        <v>8070293</v>
+        <v>8057290</v>
       </c>
       <c r="F143" t="n">
-        <v>1261.191875605661</v>
+        <v>1312.600691836018</v>
       </c>
       <c r="G143" t="n">
-        <v>1427.380362072459</v>
+        <v>1160.45171526853</v>
       </c>
       <c r="H143" t="n">
-        <v>0.74</v>
+        <v>1.04</v>
       </c>
       <c r="I143" t="n">
-        <v>636773</v>
+        <v>630406</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1575832</v>
+        <v>1543692</v>
       </c>
       <c r="E144" t="n">
-        <v>12238091</v>
+        <v>11988491</v>
       </c>
       <c r="F144" t="n">
-        <v>300.3419838246195</v>
+        <v>300.0692487520014</v>
       </c>
       <c r="G144" t="n">
-        <v>50.00645966884372</v>
+        <v>16.26074353585903</v>
       </c>
       <c r="H144" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="I144" t="n">
-        <v>461004</v>
+        <v>516563</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>333511388</v>
+        <v>327759833</v>
       </c>
       <c r="E145" t="n">
-        <v>3000475249</v>
+        <v>2948730692</v>
       </c>
       <c r="F145" t="n">
-        <v>506024.2754339035</v>
+        <v>554097.5834458688</v>
       </c>
       <c r="G145" t="n">
-        <v>667660.5878137962</v>
+        <v>687841.7002266601</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>57273948</v>
+        <v>59869338</v>
       </c>
     </row>
     <row r="146">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>247421</v>
+        <v>247582</v>
       </c>
       <c r="E146" t="n">
-        <v>2183676</v>
+        <v>2185094</v>
       </c>
       <c r="F146" t="n">
         <v>5.345239513586828</v>
@@ -5534,7 +5534,7 @@
         <v>0.28</v>
       </c>
       <c r="I146" t="n">
-        <v>70827</v>
+        <v>70354</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>628067</v>
+        <v>628146</v>
       </c>
       <c r="F147" t="n">
-        <v>552.4737396850202</v>
+        <v>552.4740481958227</v>
       </c>
       <c r="G147" t="n">
-        <v>483.5702125132084</v>
+        <v>483.5704825471007</v>
       </c>
       <c r="H147" t="n">
         <v>0.49</v>
       </c>
       <c r="I147" t="n">
-        <v>12479.15</v>
+        <v>12460.25</v>
       </c>
     </row>
     <row r="148">
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4823425</v>
+        <v>4803447</v>
       </c>
       <c r="E148" t="n">
-        <v>17041148</v>
+        <v>16970566</v>
       </c>
       <c r="F148" t="n">
         <v>1566.835675878001</v>
@@ -5604,7 +5604,7 @@
         <v>0.18</v>
       </c>
       <c r="I148" t="n">
-        <v>125060</v>
+        <v>125063</v>
       </c>
     </row>
     <row r="149">
@@ -5624,10 +5624,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9624848</v>
+        <v>9547988</v>
       </c>
       <c r="E149" t="n">
-        <v>44611722</v>
+        <v>44255471</v>
       </c>
       <c r="F149" t="n">
         <v>1738.584236166595</v>
@@ -5639,7 +5639,7 @@
         <v>0.6</v>
       </c>
       <c r="I149" t="n">
-        <v>133908</v>
+        <v>133504</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>47276540</v>
+        <v>46285646</v>
       </c>
       <c r="E150" t="n">
-        <v>273711634</v>
+        <v>267974762</v>
       </c>
       <c r="F150" t="n">
-        <v>26754.81410672764</v>
+        <v>53023.10571231852</v>
       </c>
       <c r="G150" t="n">
-        <v>44969.09561530788</v>
+        <v>44304.76173904103</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I150" t="n">
-        <v>48519973</v>
+        <v>49599069</v>
       </c>
     </row>
     <row r="151">
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>82050</v>
+        <v>81821</v>
       </c>
       <c r="E151" t="n">
-        <v>82050</v>
+        <v>81821</v>
       </c>
       <c r="F151" t="n">
         <v>3.050615224841194</v>
@@ -5709,7 +5709,7 @@
         <v>0.98</v>
       </c>
       <c r="I151" t="n">
-        <v>22650</v>
+        <v>21899</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4256851</v>
+        <v>4278585</v>
       </c>
       <c r="F152" t="n">
-        <v>270.0984734708168</v>
+        <v>249.9516041686346</v>
       </c>
       <c r="G152" t="n">
-        <v>291.9724158640536</v>
+        <v>366.4826230398991</v>
       </c>
       <c r="H152" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I152" t="n">
-        <v>271307</v>
+        <v>269507</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39523211</v>
+        <v>39506272</v>
       </c>
       <c r="E153" t="n">
-        <v>54587182</v>
+        <v>54563787</v>
       </c>
       <c r="F153" t="n">
-        <v>524.0538089470937</v>
+        <v>586.034174730707</v>
       </c>
       <c r="G153" t="n">
-        <v>2425.46417614589</v>
+        <v>1582.224962903651</v>
       </c>
       <c r="H153" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>324618</v>
+        <v>320284</v>
       </c>
     </row>
     <row r="154">
@@ -5799,10 +5799,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2095561</v>
+        <v>2114032</v>
       </c>
       <c r="E154" t="n">
-        <v>8557730</v>
+        <v>8633161</v>
       </c>
       <c r="F154" t="n">
         <v>1572.322584383712</v>
@@ -5814,7 +5814,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>245234</v>
+        <v>460330</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7610186</v>
+        <v>7466978</v>
       </c>
       <c r="E155" t="n">
-        <v>7666755</v>
+        <v>7522482</v>
       </c>
       <c r="F155" t="n">
-        <v>26114.88832897237</v>
+        <v>11598.33270864379</v>
       </c>
       <c r="G155" t="n">
-        <v>1198.656625220631</v>
+        <v>1855.127688483622</v>
       </c>
       <c r="H155" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>5607913</v>
+        <v>5590636</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>505526</v>
+        <v>509386</v>
       </c>
       <c r="E156" t="n">
-        <v>505526</v>
+        <v>509386</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>12820.23</v>
+        <v>12742.45</v>
       </c>
     </row>
     <row r="157">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13902230</v>
+        <v>13724717</v>
       </c>
       <c r="E157" t="n">
-        <v>13949540</v>
+        <v>13771424</v>
       </c>
       <c r="F157" t="n">
         <v>1236.457506540147</v>
@@ -5919,7 +5919,7 @@
         <v>0.25</v>
       </c>
       <c r="I157" t="n">
-        <v>6795257</v>
+        <v>6790074</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42720832</v>
+        <v>42633941</v>
       </c>
       <c r="E158" t="n">
-        <v>72530034</v>
+        <v>72382513</v>
       </c>
       <c r="F158" t="n">
-        <v>381.0849314325433</v>
+        <v>347.3598707963177</v>
       </c>
       <c r="G158" t="n">
-        <v>411.8077915129458</v>
+        <v>506.366492264663</v>
       </c>
       <c r="H158" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I158" t="n">
-        <v>1078800</v>
+        <v>1085918</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19946678</v>
+        <v>19664451</v>
       </c>
       <c r="E159" t="n">
-        <v>59790103</v>
+        <v>58954259</v>
       </c>
       <c r="F159" t="n">
-        <v>5475.700239380702</v>
+        <v>5706.631201976333</v>
       </c>
       <c r="G159" t="n">
-        <v>2628.581890646548</v>
+        <v>3102.41139318363</v>
       </c>
       <c r="H159" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I159" t="n">
-        <v>4143690</v>
+        <v>4056635</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100100931</v>
+        <v>101339174</v>
       </c>
       <c r="E160" t="n">
-        <v>106416337</v>
+        <v>107732701</v>
       </c>
       <c r="F160" t="n">
-        <v>424.6099963488197</v>
+        <v>858.2329285658598</v>
       </c>
       <c r="G160" t="n">
-        <v>1399.32104255631</v>
+        <v>1485.596911071578</v>
       </c>
       <c r="H160" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="I160" t="n">
-        <v>489342</v>
+        <v>1717469</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10421482</v>
+        <v>10443749</v>
       </c>
       <c r="E161" t="n">
-        <v>45367490</v>
+        <v>45463024</v>
       </c>
       <c r="F161" t="n">
-        <v>3505.041578052256</v>
+        <v>3342.979371653798</v>
       </c>
       <c r="G161" t="n">
-        <v>7078.160799757792</v>
+        <v>6507.267898636739</v>
       </c>
       <c r="H161" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="I161" t="n">
-        <v>119510</v>
+        <v>120124</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15801379</v>
+        <v>15656341</v>
       </c>
       <c r="E162" t="n">
-        <v>96851849</v>
+        <v>95962864</v>
       </c>
       <c r="F162" t="n">
-        <v>3274.124833389484</v>
+        <v>2043.98390775409</v>
       </c>
       <c r="G162" t="n">
-        <v>897.8573592407485</v>
+        <v>1399.279628717154</v>
       </c>
       <c r="H162" t="n">
         <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>11343985</v>
+        <v>8878047</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1496309</v>
+        <v>1475316</v>
       </c>
       <c r="E163" t="n">
-        <v>1538398</v>
+        <v>1516815</v>
       </c>
       <c r="F163" t="n">
-        <v>102.3949148803083</v>
+        <v>102.3784390129983</v>
       </c>
       <c r="G163" t="n">
-        <v>71.22343274098615</v>
+        <v>71.22405669906678</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="I163" t="n">
-        <v>150574</v>
+        <v>148580</v>
       </c>
     </row>
     <row r="164">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>91767</v>
+        <v>91768</v>
       </c>
       <c r="E164" t="n">
-        <v>260323</v>
+        <v>260324</v>
       </c>
       <c r="F164" t="n">
         <v>5.412725713843811</v>
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>49675355</v>
+        <v>48956813</v>
       </c>
       <c r="E165" t="n">
-        <v>213995998</v>
+        <v>210900597</v>
       </c>
       <c r="F165" t="n">
-        <v>3952.366835283146</v>
+        <v>4069.499316266846</v>
       </c>
       <c r="G165" t="n">
-        <v>5120.04850493</v>
+        <v>5414.404411075747</v>
       </c>
       <c r="H165" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I165" t="n">
-        <v>11994434</v>
+        <v>11683345</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7571615</v>
+        <v>7591856</v>
       </c>
       <c r="F166" t="n">
-        <v>164.951098042456</v>
+        <v>106.2884693188279</v>
       </c>
       <c r="G166" t="n">
-        <v>352.7035593899686</v>
+        <v>550.2562046190902</v>
       </c>
       <c r="H166" t="n">
-        <v>0.59</v>
+        <v>0.22</v>
       </c>
       <c r="I166" t="n">
-        <v>6880364</v>
+        <v>6888244</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>669209</v>
+        <v>669030</v>
       </c>
       <c r="E167" t="n">
-        <v>2415488</v>
+        <v>2414836</v>
       </c>
       <c r="F167" t="n">
-        <v>50.97356519635186</v>
+        <v>50.37230804908572</v>
       </c>
       <c r="G167" t="n">
-        <v>10.61836571980875</v>
+        <v>10.97732935551364</v>
       </c>
       <c r="H167" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="I167" t="n">
-        <v>362667</v>
+        <v>370911</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1656567</v>
+        <v>1616978</v>
       </c>
       <c r="F168" t="n">
-        <v>164.7106870650015</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>13.16071000950208</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.45</v>
+        <v>11.4</v>
       </c>
       <c r="I168" t="n">
-        <v>90186</v>
+        <v>86488</v>
       </c>
     </row>
     <row r="169">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12798932</v>
+        <v>12663613</v>
       </c>
       <c r="E169" t="n">
-        <v>12798932</v>
+        <v>12663613</v>
       </c>
       <c r="F169" t="n">
         <v>481.1956075617298</v>
@@ -6335,7 +6335,7 @@
         <v>2.1</v>
       </c>
       <c r="I169" t="n">
-        <v>4174421</v>
+        <v>4034259</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2261014</v>
+        <v>2337725</v>
       </c>
       <c r="E170" t="n">
-        <v>8208663</v>
+        <v>8487092</v>
       </c>
       <c r="F170" t="n">
-        <v>250.332821228524</v>
+        <v>227.9799266505258</v>
       </c>
       <c r="G170" t="n">
-        <v>169.4982601864293</v>
+        <v>218.6928987591695</v>
       </c>
       <c r="H170" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I170" t="n">
-        <v>206445</v>
+        <v>220481</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8806448</v>
+        <v>8881164</v>
       </c>
       <c r="E171" t="n">
-        <v>19542285</v>
+        <v>19697158</v>
       </c>
       <c r="F171" t="n">
-        <v>369.411758559473</v>
+        <v>1064.281585641951</v>
       </c>
       <c r="G171" t="n">
-        <v>572.4012557827516</v>
+        <v>1760.871899804321</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="I171" t="n">
-        <v>320618</v>
+        <v>238453</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1030479</v>
+        <v>1027294</v>
       </c>
       <c r="E172" t="n">
-        <v>3011912</v>
+        <v>3002602</v>
       </c>
       <c r="F172" t="n">
-        <v>105.2823690345489</v>
+        <v>150.4763926440091</v>
       </c>
       <c r="G172" t="n">
-        <v>632.2386908443208</v>
+        <v>160.160626516024</v>
       </c>
       <c r="H172" t="n">
-        <v>0.78</v>
+        <v>0.1</v>
       </c>
       <c r="I172" t="n">
-        <v>19469.22</v>
+        <v>19480.92</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>18932890</v>
+        <v>18659276</v>
       </c>
       <c r="E173" t="n">
-        <v>75731560</v>
+        <v>74637103</v>
       </c>
       <c r="F173" t="n">
-        <v>20454.63815471924</v>
+        <v>11913.7623501879</v>
       </c>
       <c r="G173" t="n">
-        <v>19179.00242449541</v>
+        <v>17200.25828646806</v>
       </c>
       <c r="H173" t="n">
-        <v>0.65</v>
+        <v>0.11</v>
       </c>
       <c r="I173" t="n">
-        <v>2376371</v>
+        <v>2423720</v>
       </c>
     </row>
     <row r="174">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4638073</v>
+        <v>4618210</v>
       </c>
       <c r="E174" t="n">
-        <v>4638073</v>
+        <v>4618210</v>
       </c>
       <c r="F174" t="n">
         <v>602.7393252169879</v>
@@ -6510,7 +6510,7 @@
         <v>0.75</v>
       </c>
       <c r="I174" t="n">
-        <v>2901519</v>
+        <v>2891036</v>
       </c>
     </row>
     <row r="175">
@@ -6530,10 +6530,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>302769029</v>
+        <v>294910335</v>
       </c>
       <c r="E175" t="n">
-        <v>302769029</v>
+        <v>294910335</v>
       </c>
       <c r="F175" t="n">
         <v>11350.17660931676</v>
@@ -6545,7 +6545,7 @@
         <v>0.18</v>
       </c>
       <c r="I175" t="n">
-        <v>19458184</v>
+        <v>19440060</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12597282</v>
+        <v>12529713</v>
       </c>
       <c r="E176" t="n">
-        <v>39843770</v>
+        <v>39630058</v>
       </c>
       <c r="F176" t="n">
-        <v>3582.479533193714</v>
+        <v>306.865499671011</v>
       </c>
       <c r="G176" t="n">
-        <v>3029.993486788371</v>
+        <v>860.5377925314979</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I176" t="n">
-        <v>934892</v>
+        <v>939660</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24903</v>
+        <v>24972</v>
       </c>
       <c r="E177" t="n">
-        <v>195858</v>
+        <v>196401</v>
       </c>
       <c r="F177" t="n">
-        <v>84.77494573070923</v>
+        <v>113.3235246069656</v>
       </c>
       <c r="G177" t="n">
-        <v>1079.119032824272</v>
+        <v>1091.95527233997</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>46962</v>
+        <v>46801</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8672277</v>
+        <v>8583543</v>
       </c>
       <c r="E178" t="n">
-        <v>8672277</v>
+        <v>8583543</v>
       </c>
       <c r="F178" t="n">
-        <v>1402.295919382183</v>
+        <v>1804.577055240708</v>
       </c>
       <c r="G178" t="n">
-        <v>1845.920369171971</v>
+        <v>1715.649706483909</v>
       </c>
       <c r="H178" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I178" t="n">
-        <v>3938909</v>
+        <v>3928400</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1106762</v>
+        <v>1104524</v>
       </c>
       <c r="E179" t="n">
-        <v>2520759</v>
+        <v>2515662</v>
       </c>
       <c r="F179" t="n">
-        <v>22.95147504524316</v>
+        <v>22.95143600975448</v>
       </c>
       <c r="G179" t="n">
-        <v>260.9230389356342</v>
+        <v>266.9235469926735</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>604.3200000000001</v>
+        <v>604.84</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9956158</v>
+        <v>9705276</v>
       </c>
       <c r="E180" t="n">
-        <v>9956158</v>
+        <v>9705276</v>
       </c>
       <c r="F180" t="n">
-        <v>1897.944005080541</v>
+        <v>1547.393095424648</v>
       </c>
       <c r="G180" t="n">
-        <v>16193.44268955108</v>
+        <v>17713.6853317208</v>
       </c>
       <c r="H180" t="n">
-        <v>0.93</v>
+        <v>0.48</v>
       </c>
       <c r="I180" t="n">
-        <v>2266126</v>
+        <v>2207891</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18529793</v>
+        <v>18197937</v>
       </c>
       <c r="E181" t="n">
-        <v>18529793</v>
+        <v>18197937</v>
       </c>
       <c r="F181" t="n">
-        <v>1370.422235096185</v>
+        <v>1491.632696754632</v>
       </c>
       <c r="G181" t="n">
-        <v>1462.88201502891</v>
+        <v>8045.811510928479</v>
       </c>
       <c r="H181" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="I181" t="n">
-        <v>6448985</v>
+        <v>6539466</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31797559</v>
+        <v>31352307</v>
       </c>
       <c r="E182" t="n">
-        <v>88076084</v>
+        <v>86842780</v>
       </c>
       <c r="F182" t="n">
-        <v>5693.283119113587</v>
+        <v>4000.105374481896</v>
       </c>
       <c r="G182" t="n">
-        <v>5900.51305363454</v>
+        <v>3700.521863728056</v>
       </c>
       <c r="H182" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I182" t="n">
-        <v>12059354</v>
+        <v>12027144</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>32029296</v>
+        <v>30835697</v>
       </c>
       <c r="E183" t="n">
-        <v>80762507</v>
+        <v>77752824</v>
       </c>
       <c r="F183" t="n">
-        <v>720.8280108700091</v>
+        <v>733.2220796211442</v>
       </c>
       <c r="G183" t="n">
-        <v>4140.437893051195</v>
+        <v>193.7340488634152</v>
       </c>
       <c r="H183" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="I183" t="n">
-        <v>5234509</v>
+        <v>5418686</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>309549726</v>
+        <v>306709164</v>
       </c>
       <c r="E184" t="n">
-        <v>314390649</v>
+        <v>311505665</v>
       </c>
       <c r="F184" t="n">
-        <v>15520.87320458208</v>
+        <v>11881.25510890225</v>
       </c>
       <c r="G184" t="n">
-        <v>25553.27633728741</v>
+        <v>21123.50982645732</v>
       </c>
       <c r="H184" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>23812745</v>
+        <v>27042663</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>405868</v>
+        <v>395718</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>3.801973655431304</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>5.352899404112239</v>
       </c>
       <c r="H185" t="n">
-        <v>5.11</v>
+        <v>2.74</v>
       </c>
       <c r="I185" t="n">
-        <v>69044</v>
+        <v>68105</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27178812</v>
+        <v>27256754</v>
       </c>
       <c r="E186" t="n">
-        <v>64542717</v>
+        <v>64658075</v>
       </c>
       <c r="F186" t="n">
-        <v>2598.329819636273</v>
+        <v>2506.68334634027</v>
       </c>
       <c r="G186" t="n">
-        <v>1466.228465208236</v>
+        <v>1056.612684364401</v>
       </c>
       <c r="H186" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="I186" t="n">
-        <v>569854</v>
+        <v>581350</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22205814</v>
+        <v>22260918</v>
       </c>
       <c r="F187" t="n">
-        <v>4.095484731447257</v>
+        <v>4.095484352561481</v>
       </c>
       <c r="G187" t="n">
-        <v>295.1138875787177</v>
+        <v>220.1065661471825</v>
       </c>
       <c r="H187" t="n">
         <v>0.46</v>
       </c>
       <c r="I187" t="n">
-        <v>1034.14</v>
+        <v>1036.49</v>
       </c>
     </row>
     <row r="188">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12637907</v>
+        <v>12636933</v>
       </c>
       <c r="E188" t="n">
-        <v>19237744</v>
+        <v>19236262</v>
       </c>
       <c r="F188" t="n">
         <v>2629.714189564709</v>
@@ -7000,7 +7000,7 @@
         <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>660703</v>
+        <v>662055</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>83276278</v>
+        <v>81368104</v>
       </c>
       <c r="E189" t="n">
-        <v>83276278</v>
+        <v>81368104</v>
       </c>
       <c r="F189" t="n">
-        <v>10192.93316185389</v>
+        <v>10647.4855087562</v>
       </c>
       <c r="G189" t="n">
-        <v>10074.8063422712</v>
+        <v>19238.74920848617</v>
       </c>
       <c r="H189" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="I189" t="n">
-        <v>4879216</v>
+        <v>4834627</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>300354551</v>
+        <v>295177574</v>
       </c>
       <c r="E190" t="n">
-        <v>300354551</v>
+        <v>295177574</v>
       </c>
       <c r="F190" t="n">
-        <v>214603.4840218828</v>
+        <v>187068.1628285328</v>
       </c>
       <c r="G190" t="n">
-        <v>294277.7620953271</v>
+        <v>235238.4288993737</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>85005752</v>
+        <v>86195434</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10152301</v>
+        <v>10146733</v>
       </c>
       <c r="E191" t="n">
-        <v>28824076</v>
+        <v>28808267</v>
       </c>
       <c r="F191" t="n">
-        <v>632.5726577179853</v>
+        <v>694.7100416680075</v>
       </c>
       <c r="G191" t="n">
-        <v>6878.046096644368</v>
+        <v>6705.542329883795</v>
       </c>
       <c r="H191" t="n">
         <v>0.34</v>
       </c>
       <c r="I191" t="n">
-        <v>111959</v>
+        <v>112112</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4284783</v>
+        <v>4290715</v>
       </c>
       <c r="E192" t="n">
-        <v>29277620</v>
+        <v>29318156</v>
       </c>
       <c r="F192" t="n">
-        <v>5905.845000506944</v>
+        <v>3751.833227407271</v>
       </c>
       <c r="G192" t="n">
-        <v>3363.338914847594</v>
+        <v>1176.351340074876</v>
       </c>
       <c r="H192" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="I192" t="n">
-        <v>2676941</v>
+        <v>2673854</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2875249</v>
+        <v>2857108</v>
       </c>
       <c r="E193" t="n">
-        <v>4257953</v>
+        <v>4230850</v>
       </c>
       <c r="F193" t="n">
-        <v>242.7385680111293</v>
+        <v>250.663115074244</v>
       </c>
       <c r="G193" t="n">
-        <v>511.5764397234074</v>
+        <v>234.792150851399</v>
       </c>
       <c r="H193" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="I193" t="n">
-        <v>95943</v>
+        <v>95964</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>87727897</v>
+        <v>86233951</v>
       </c>
       <c r="E194" t="n">
-        <v>505525982</v>
+        <v>496917223</v>
       </c>
       <c r="F194" t="n">
-        <v>118908.9146535399</v>
+        <v>74492.81507045482</v>
       </c>
       <c r="G194" t="n">
-        <v>94371.91403759606</v>
+        <v>90845.98248590289</v>
       </c>
       <c r="H194" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I194" t="n">
-        <v>20088188</v>
+        <v>20288406</v>
       </c>
     </row>
     <row r="195">
@@ -7230,10 +7230,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>708005</v>
+        <v>697136</v>
       </c>
       <c r="E195" t="n">
-        <v>772145</v>
+        <v>760292</v>
       </c>
       <c r="F195" t="n">
         <v>5.406087437132156</v>
@@ -7245,7 +7245,7 @@
         <v>0.79</v>
       </c>
       <c r="I195" t="n">
-        <v>126671</v>
+        <v>125223</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107785267</v>
+        <v>106706186</v>
       </c>
       <c r="E196" t="n">
-        <v>265193867</v>
+        <v>262538906</v>
       </c>
       <c r="F196" t="n">
-        <v>60579.73615508885</v>
+        <v>25526.24802346283</v>
       </c>
       <c r="G196" t="n">
-        <v>37190.16883806932</v>
+        <v>37195.17805456674</v>
       </c>
       <c r="H196" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2561589</v>
+        <v>2567448</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>20236425</v>
+        <v>20002098</v>
       </c>
       <c r="E197" t="n">
-        <v>20236425</v>
+        <v>20002098</v>
       </c>
       <c r="F197" t="n">
-        <v>3.879599504607142</v>
+        <v>30.0442824815915</v>
       </c>
       <c r="G197" t="n">
-        <v>5.518065296118347</v>
+        <v>4.036115075411309</v>
       </c>
       <c r="H197" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="I197" t="n">
-        <v>153832</v>
+        <v>152740</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1338266</v>
+        <v>1329409</v>
       </c>
       <c r="F198" t="n">
-        <v>4.181383671819619</v>
+        <v>415.3785805666595</v>
       </c>
       <c r="G198" t="n">
-        <v>53.68198826702111</v>
+        <v>49.96731751736391</v>
       </c>
       <c r="H198" t="n">
         <v>0.53</v>
       </c>
       <c r="I198" t="n">
-        <v>38564</v>
+        <v>38914</v>
       </c>
     </row>
     <row r="199">
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>126736</v>
+        <v>125201</v>
       </c>
       <c r="E199" t="n">
-        <v>275901</v>
+        <v>272560</v>
       </c>
       <c r="F199" t="n">
         <v>4.02207368335813</v>
@@ -7385,7 +7385,7 @@
         <v>0.84</v>
       </c>
       <c r="I199" t="n">
-        <v>43042</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3056513</v>
+        <v>3032260</v>
       </c>
       <c r="F200" t="n">
-        <v>1469.156906754273</v>
+        <v>1694.037735725216</v>
       </c>
       <c r="G200" t="n">
-        <v>1448.403798107813</v>
+        <v>1163.121820726803</v>
       </c>
       <c r="H200" t="n">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="I200" t="n">
-        <v>493681</v>
+        <v>492546</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>194229</v>
+        <v>193862</v>
       </c>
       <c r="E201" t="n">
-        <v>1499841</v>
+        <v>1497006</v>
       </c>
       <c r="F201" t="n">
-        <v>40.79760633812738</v>
+        <v>3.822587174209026</v>
       </c>
       <c r="G201" t="n">
-        <v>1.226871312781378</v>
+        <v>143.5610377482991</v>
       </c>
       <c r="H201" t="n">
-        <v>2.32</v>
+        <v>0.66</v>
       </c>
       <c r="I201" t="n">
-        <v>84591</v>
+        <v>88399</v>
       </c>
     </row>
     <row r="202">
@@ -7475,10 +7475,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30277478</v>
+        <v>29514229</v>
       </c>
       <c r="E202" t="n">
-        <v>135564688</v>
+        <v>132147312</v>
       </c>
       <c r="F202" t="n">
         <v>5388.374085420228</v>
@@ -7490,7 +7490,7 @@
         <v>0.44</v>
       </c>
       <c r="I202" t="n">
-        <v>12197086</v>
+        <v>12505849</v>
       </c>
     </row>
     <row r="203">
@@ -7510,10 +7510,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12820194</v>
+        <v>12830456</v>
       </c>
       <c r="E203" t="n">
-        <v>25622415</v>
+        <v>25642925</v>
       </c>
       <c r="F203" t="n">
         <v>696.5595099218286</v>
@@ -7525,7 +7525,7 @@
         <v>0.35</v>
       </c>
       <c r="I203" t="n">
-        <v>14696.44</v>
+        <v>14681.35</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1279168</v>
+        <v>1282128</v>
       </c>
       <c r="F204" t="n">
-        <v>535.5917168049841</v>
+        <v>151.6478516410143</v>
       </c>
       <c r="G204" t="n">
-        <v>172.5704275158447</v>
+        <v>291.0502545192542</v>
       </c>
       <c r="H204" t="n">
-        <v>3.56</v>
+        <v>2.64</v>
       </c>
       <c r="I204" t="n">
-        <v>92680</v>
+        <v>88812</v>
       </c>
     </row>
     <row r="205">
@@ -7580,10 +7580,10 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>958751</v>
+        <v>945980</v>
       </c>
       <c r="E205" t="n">
-        <v>4434360</v>
+        <v>4375293</v>
       </c>
       <c r="F205" t="n">
         <v>1136.576528264364</v>
@@ -7595,7 +7595,7 @@
         <v>0.84</v>
       </c>
       <c r="I205" t="n">
-        <v>482483</v>
+        <v>398258</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3094835</v>
+        <v>3062720</v>
       </c>
       <c r="E206" t="n">
-        <v>3094835</v>
+        <v>3062720</v>
       </c>
       <c r="F206" t="n">
-        <v>1067.341381167738</v>
+        <v>913.6440681209803</v>
       </c>
       <c r="G206" t="n">
-        <v>742.715692106552</v>
+        <v>706.8032615703803</v>
       </c>
       <c r="H206" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="I206" t="n">
-        <v>385120</v>
+        <v>381803</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>564438</v>
+        <v>559392</v>
       </c>
       <c r="E207" t="n">
-        <v>564438</v>
+        <v>559392</v>
       </c>
       <c r="F207" t="n">
-        <v>63.37728080215527</v>
+        <v>63.73964922274565</v>
       </c>
       <c r="G207" t="n">
-        <v>4.157619387777482</v>
+        <v>4.157619003143439</v>
       </c>
       <c r="H207" t="n">
         <v>0.54</v>
       </c>
       <c r="I207" t="n">
-        <v>1151391</v>
+        <v>1168440</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14900822</v>
+        <v>14595525</v>
       </c>
       <c r="E208" t="n">
-        <v>18971125</v>
+        <v>18582433</v>
       </c>
       <c r="F208" t="n">
-        <v>551.6525698992895</v>
+        <v>551.6503383207092</v>
       </c>
       <c r="G208" t="n">
-        <v>140.1169127964091</v>
+        <v>140.1163459869381</v>
       </c>
       <c r="H208" t="n">
         <v>0.18</v>
       </c>
       <c r="I208" t="n">
-        <v>986845</v>
+        <v>898894</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1784238</v>
+        <v>1784942</v>
       </c>
       <c r="E209" t="n">
-        <v>1784238</v>
+        <v>1784942</v>
       </c>
       <c r="F209" t="n">
-        <v>4.169096182183177</v>
+        <v>4.169075394349544</v>
       </c>
       <c r="G209" t="n">
-        <v>942.6844747424863</v>
+        <v>942.6797739984211</v>
       </c>
       <c r="H209" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="I209" t="n">
-        <v>4117.72</v>
+        <v>4098.92</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5799248</v>
+        <v>5788658</v>
       </c>
       <c r="E210" t="n">
-        <v>15220120</v>
+        <v>15192327</v>
       </c>
       <c r="F210" t="n">
-        <v>169.7387957417843</v>
+        <v>411.0223142386857</v>
       </c>
       <c r="G210" t="n">
-        <v>768.9985630791858</v>
+        <v>1813.090403908989</v>
       </c>
       <c r="H210" t="n">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="I210" t="n">
-        <v>23842</v>
+        <v>23774</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28981856</v>
+        <v>28755172</v>
       </c>
       <c r="F211" t="n">
-        <v>1426.537462628644</v>
+        <v>1145.441283875058</v>
       </c>
       <c r="G211" t="n">
-        <v>2357.236396710936</v>
+        <v>2334.506187268591</v>
       </c>
       <c r="H211" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="I211" t="n">
-        <v>525179</v>
+        <v>543623</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17795134</v>
+        <v>17615053</v>
       </c>
       <c r="E212" t="n">
-        <v>17795193</v>
+        <v>17615102</v>
       </c>
       <c r="F212" t="n">
-        <v>11617.62691959845</v>
+        <v>5219.277759581835</v>
       </c>
       <c r="G212" t="n">
-        <v>15822.09035086272</v>
+        <v>23752.38493033971</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2362227</v>
+        <v>2363188</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>50219955</v>
+        <v>49500733</v>
       </c>
       <c r="E213" t="n">
-        <v>325663045</v>
+        <v>320999077</v>
       </c>
       <c r="F213" t="n">
-        <v>125296.0144756897</v>
+        <v>193621.8211024934</v>
       </c>
       <c r="G213" t="n">
-        <v>169517.4987427439</v>
+        <v>152238.4716819769</v>
       </c>
       <c r="H213" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I213" t="n">
-        <v>19242471</v>
+        <v>19653911</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9091006</v>
+        <v>9064520</v>
       </c>
       <c r="F214" t="n">
-        <v>182.3373938564436</v>
+        <v>98.6054637526513</v>
       </c>
       <c r="G214" t="n">
-        <v>4.254465890275915</v>
+        <v>4.254458654350783</v>
       </c>
       <c r="H214" t="n">
         <v>0.44</v>
       </c>
       <c r="I214" t="n">
-        <v>287726</v>
+        <v>261351</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7144016</v>
+        <v>7039370</v>
       </c>
       <c r="E215" t="n">
-        <v>7154248</v>
+        <v>7049451</v>
       </c>
       <c r="F215" t="n">
-        <v>4.256619706968703</v>
+        <v>5.286658267271749</v>
       </c>
       <c r="G215" t="n">
-        <v>1351.194862993304</v>
+        <v>1399.1130665579</v>
       </c>
       <c r="H215" t="n">
-        <v>1.47</v>
+        <v>0.51</v>
       </c>
       <c r="I215" t="n">
-        <v>418469</v>
+        <v>700945</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4727566</v>
+        <v>4724396</v>
       </c>
       <c r="F216" t="n">
-        <v>133.1035480539888</v>
+        <v>113.7202459549774</v>
       </c>
       <c r="G216" t="n">
-        <v>63.4242737790798</v>
+        <v>70.85211890147214</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="I216" t="n">
-        <v>238084</v>
+        <v>240594</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2471178</v>
+        <v>2466761</v>
       </c>
       <c r="E217" t="n">
-        <v>4477004</v>
+        <v>4469002</v>
       </c>
       <c r="F217" t="n">
-        <v>549.8205195205562</v>
+        <v>532.2808900049445</v>
       </c>
       <c r="G217" t="n">
-        <v>597.1460510837833</v>
+        <v>599.6531146979513</v>
       </c>
       <c r="H217" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="I217" t="n">
-        <v>140297</v>
+        <v>142952</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123612660</v>
+        <v>123198170</v>
       </c>
       <c r="E218" t="n">
-        <v>2047126895</v>
+        <v>2040262602</v>
       </c>
       <c r="F218" t="n">
-        <v>8432.92569986924</v>
+        <v>4246.373701966759</v>
       </c>
       <c r="G218" t="n">
-        <v>11165.84996622519</v>
+        <v>6745.675394559421</v>
       </c>
       <c r="H218" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I218" t="n">
-        <v>21419449</v>
+        <v>23114349</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>100598168</v>
+        <v>97394155</v>
       </c>
       <c r="E219" t="n">
-        <v>101681034</v>
+        <v>98442533</v>
       </c>
       <c r="F219" t="n">
-        <v>10170.05520230584</v>
+        <v>889.5731857515159</v>
       </c>
       <c r="G219" t="n">
-        <v>15137.58156255201</v>
+        <v>10964.88979532133</v>
       </c>
       <c r="H219" t="n">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="I219" t="n">
-        <v>78953683</v>
+        <v>78295300</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>246566128</v>
+        <v>239749307</v>
       </c>
       <c r="E220" t="n">
-        <v>246566128</v>
+        <v>239749307</v>
       </c>
       <c r="F220" t="n">
-        <v>86222.62973990318</v>
+        <v>63581.45983563756</v>
       </c>
       <c r="G220" t="n">
-        <v>44033.56797609005</v>
+        <v>72697.12819575878</v>
       </c>
       <c r="H220" t="n">
         <v>0.16</v>
       </c>
       <c r="I220" t="n">
-        <v>74332788</v>
+        <v>75794958</v>
       </c>
     </row>
     <row r="221">
@@ -8140,10 +8140,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24009723</v>
+        <v>23688935</v>
       </c>
       <c r="E221" t="n">
-        <v>143654997</v>
+        <v>141735659</v>
       </c>
       <c r="F221" t="n">
         <v>55476.77336805814</v>
@@ -8155,7 +8155,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>16254296</v>
+        <v>16630540</v>
       </c>
     </row>
     <row r="222">
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1102822</v>
+        <v>1094739</v>
       </c>
       <c r="F222" t="n">
         <v>77.01697455287389</v>
@@ -8190,7 +8190,7 @@
         <v>2.56</v>
       </c>
       <c r="I222" t="n">
-        <v>82751</v>
+        <v>82616</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2201279</v>
+        <v>2203808</v>
       </c>
       <c r="F223" t="n">
-        <v>139.47233754194</v>
+        <v>133.4782442098347</v>
       </c>
       <c r="G223" t="n">
-        <v>119.4864939849075</v>
+        <v>127.9015433194387</v>
       </c>
       <c r="H223" t="n">
         <v>0.36</v>
       </c>
       <c r="I223" t="n">
-        <v>175701</v>
+        <v>176699</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13939841</v>
+        <v>13930730</v>
       </c>
       <c r="E224" t="n">
-        <v>42130070</v>
+        <v>42102534</v>
       </c>
       <c r="F224" t="n">
-        <v>1782.011960833259</v>
+        <v>2207.697943330857</v>
       </c>
       <c r="G224" t="n">
-        <v>1269.843044742202</v>
+        <v>1094.432701186827</v>
       </c>
       <c r="H224" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="I224" t="n">
-        <v>2563973</v>
+        <v>2565623</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>53431097</v>
+        <v>53200092</v>
       </c>
       <c r="E225" t="n">
-        <v>92287120</v>
+        <v>91888124</v>
       </c>
       <c r="F225" t="n">
-        <v>3182.195358404005</v>
+        <v>6526.755707159159</v>
       </c>
       <c r="G225" t="n">
-        <v>12087.07222446305</v>
+        <v>12116.21091549944</v>
       </c>
       <c r="H225" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I225" t="n">
-        <v>2336841</v>
+        <v>2343319</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4210708</v>
+        <v>4213152</v>
       </c>
       <c r="E226" t="n">
-        <v>4210708</v>
+        <v>4213152</v>
       </c>
       <c r="F226" t="n">
-        <v>31.93284766766972</v>
+        <v>33.25004684488037</v>
       </c>
       <c r="G226" t="n">
-        <v>55.19191692507667</v>
+        <v>3.997582913638526</v>
       </c>
       <c r="H226" t="n">
         <v>0.59</v>
       </c>
       <c r="I226" t="n">
-        <v>1758245</v>
+        <v>1755472</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>197886</v>
+        <v>197300</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>59218</v>
+        <v>60255</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6362384</v>
+        <v>6310656</v>
       </c>
       <c r="E228" t="n">
-        <v>32732531</v>
+        <v>32466408</v>
       </c>
       <c r="F228" t="n">
-        <v>1176.4009261141</v>
+        <v>781.6502765728867</v>
       </c>
       <c r="G228" t="n">
-        <v>192.1691253361513</v>
+        <v>173.0330103614901</v>
       </c>
       <c r="H228" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="I228" t="n">
-        <v>945674</v>
+        <v>887541</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176187261</v>
+        <v>175607006</v>
       </c>
       <c r="E230" t="n">
-        <v>205838744</v>
+        <v>205160835</v>
       </c>
       <c r="F230" t="n">
-        <v>17227.68019233347</v>
+        <v>15188.42781664178</v>
       </c>
       <c r="G230" t="n">
-        <v>88146.41715667829</v>
+        <v>79606.92155061426</v>
       </c>
       <c r="H230" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I230" t="n">
-        <v>4313955</v>
+        <v>4320403</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>304932</v>
+        <v>300321</v>
       </c>
       <c r="F231" t="n">
-        <v>217.7528789072308</v>
+        <v>200.7551809865364</v>
       </c>
       <c r="G231" t="n">
-        <v>47.45289541269288</v>
+        <v>69.21783924697472</v>
       </c>
       <c r="H231" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>252122</v>
+        <v>251889</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29381454</v>
+        <v>29436955</v>
       </c>
       <c r="E232" t="n">
-        <v>40287111</v>
+        <v>40363212</v>
       </c>
       <c r="F232" t="n">
-        <v>6023.855253963533</v>
+        <v>5292.080272835356</v>
       </c>
       <c r="G232" t="n">
-        <v>6471.052806696256</v>
+        <v>5708.510193332732</v>
       </c>
       <c r="H232" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I232" t="n">
-        <v>203466</v>
+        <v>206612</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1133282</v>
+        <v>1130503</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>531404</v>
+        <v>539654</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7642822</v>
+        <v>7640154</v>
       </c>
       <c r="F234" t="n">
-        <v>876.047868764321</v>
+        <v>634.2264758684819</v>
       </c>
       <c r="G234" t="n">
-        <v>3096.742255673947</v>
+        <v>3185.250002807755</v>
       </c>
       <c r="H234" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I234" t="n">
-        <v>653505</v>
+        <v>653977</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23276905</v>
+        <v>22945494</v>
       </c>
       <c r="E235" t="n">
-        <v>23276905</v>
+        <v>22945494</v>
       </c>
       <c r="F235" t="n">
-        <v>25056.78665307918</v>
+        <v>23860.62017884449</v>
       </c>
       <c r="G235" t="n">
-        <v>12393.2118329817</v>
+        <v>11424.65695798043</v>
       </c>
       <c r="H235" t="n">
         <v>0.25</v>
       </c>
       <c r="I235" t="n">
-        <v>2408477</v>
+        <v>2388132</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3415632</v>
+        <v>3415599</v>
       </c>
       <c r="E236" t="n">
-        <v>4575454</v>
+        <v>4575410</v>
       </c>
       <c r="F236" t="n">
-        <v>389.3147942707612</v>
+        <v>345.1127645677397</v>
       </c>
       <c r="G236" t="n">
-        <v>624.3133627653972</v>
+        <v>681.7344665701926</v>
       </c>
       <c r="H236" t="n">
         <v>0.21</v>
       </c>
       <c r="I236" t="n">
-        <v>149831</v>
+        <v>149332</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33325207</v>
+        <v>33010113</v>
       </c>
       <c r="E237" t="n">
-        <v>166308146</v>
+        <v>164735683</v>
       </c>
       <c r="F237" t="n">
-        <v>113403.9307834819</v>
+        <v>106579.3135989542</v>
       </c>
       <c r="G237" t="n">
-        <v>103282.2850766396</v>
+        <v>77490.94582589508</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>13362664</v>
+        <v>13380009</v>
       </c>
     </row>
     <row r="238">
@@ -8727,10 +8727,10 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26348978</v>
+        <v>26099582</v>
       </c>
       <c r="E238" t="n">
-        <v>59400240</v>
+        <v>58838010</v>
       </c>
       <c r="F238" t="n">
         <v>286.0448280912468</v>
@@ -8742,7 +8742,7 @@
         <v>1.21</v>
       </c>
       <c r="I238" t="n">
-        <v>408013</v>
+        <v>391740</v>
       </c>
     </row>
     <row r="239">
@@ -8762,10 +8762,10 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1964447</v>
+        <v>1942977</v>
       </c>
       <c r="E239" t="n">
-        <v>1964447</v>
+        <v>1942977</v>
       </c>
       <c r="F239" t="n">
         <v>181.7056116695759</v>
@@ -8777,7 +8777,7 @@
         <v>0.1</v>
       </c>
       <c r="I239" t="n">
-        <v>9916.469999999999</v>
+        <v>9778.4</v>
       </c>
     </row>
     <row r="240">
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71897819</v>
+        <v>71920818</v>
       </c>
       <c r="F240" t="n">
         <v>320.899893738304</v>
@@ -8812,7 +8812,7 @@
         <v>0.31</v>
       </c>
       <c r="I240" t="n">
-        <v>60311</v>
+        <v>60411</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>911823</v>
+        <v>905871</v>
       </c>
       <c r="E241" t="n">
-        <v>911823</v>
+        <v>905871</v>
       </c>
       <c r="F241" t="n">
-        <v>4.330510860059468</v>
+        <v>4.330500330954026</v>
       </c>
       <c r="G241" t="n">
-        <v>16.32010669056837</v>
+        <v>16.32006701023279</v>
       </c>
       <c r="H241" t="n">
         <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>10757.23</v>
+        <v>10642.74</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>122747</v>
+        <v>123363</v>
       </c>
       <c r="E242" t="n">
-        <v>122747</v>
+        <v>123363</v>
       </c>
       <c r="F242" t="n">
-        <v>516.7344854217773</v>
+        <v>524.6081032525631</v>
       </c>
       <c r="G242" t="n">
-        <v>511.3115387554186</v>
+        <v>471.1665446497733</v>
       </c>
       <c r="H242" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="I242" t="n">
-        <v>39701</v>
+        <v>40024</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3414198</v>
+        <v>3486990</v>
       </c>
       <c r="E243" t="n">
-        <v>4904559</v>
+        <v>5009127</v>
       </c>
       <c r="F243" t="n">
-        <v>344.6011165676894</v>
+        <v>344.6005304758169</v>
       </c>
       <c r="G243" t="n">
-        <v>24.28128373878165</v>
+        <v>24.28124244157637</v>
       </c>
       <c r="H243" t="n">
         <v>2.78</v>
       </c>
       <c r="I243" t="n">
-        <v>145674</v>
+        <v>145296</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>315783005</v>
+        <v>307500677</v>
       </c>
       <c r="E244" t="n">
-        <v>584270572</v>
+        <v>568946378</v>
       </c>
       <c r="F244" t="n">
-        <v>4066.878807747957</v>
+        <v>5135.584606029895</v>
       </c>
       <c r="G244" t="n">
-        <v>9534.871837822317</v>
+        <v>1782.500952016914</v>
       </c>
       <c r="H244" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I244" t="n">
-        <v>15629707</v>
+        <v>16612067</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71648698</v>
+        <v>70371142</v>
       </c>
       <c r="E245" t="n">
-        <v>683426337</v>
+        <v>671238322</v>
       </c>
       <c r="F245" t="n">
-        <v>49075.69176659554</v>
+        <v>36762.94675880533</v>
       </c>
       <c r="G245" t="n">
-        <v>62166.21150647016</v>
+        <v>53843.35031214344</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22555720</v>
+        <v>22707179</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>83388</v>
+        <v>82048</v>
       </c>
       <c r="E246" t="n">
-        <v>693219</v>
+        <v>682084</v>
       </c>
       <c r="F246" t="n">
-        <v>21.2313680697061</v>
+        <v>4.020820150813353</v>
       </c>
       <c r="G246" t="n">
-        <v>5.402027909491726</v>
+        <v>5.315627044479258</v>
       </c>
       <c r="H246" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="I246" t="n">
-        <v>118.31</v>
+        <v>120.53</v>
       </c>
     </row>
     <row r="247">
@@ -9042,10 +9042,10 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1877546</v>
+        <v>1811183</v>
       </c>
       <c r="E247" t="n">
-        <v>5362030</v>
+        <v>5172506</v>
       </c>
       <c r="F247" t="n">
         <v>537.6713964384371</v>
@@ -9057,7 +9057,7 @@
         <v>0.47</v>
       </c>
       <c r="I247" t="n">
-        <v>79415</v>
+        <v>125489</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37592143</v>
+        <v>37134172</v>
       </c>
       <c r="E248" t="n">
-        <v>49146310</v>
+        <v>48547580</v>
       </c>
       <c r="F248" t="n">
-        <v>1617.883700155811</v>
+        <v>425.549358950695</v>
       </c>
       <c r="G248" t="n">
-        <v>1133.136647245754</v>
+        <v>1245.025440348588</v>
       </c>
       <c r="H248" t="n">
-        <v>3.22</v>
+        <v>1.21</v>
       </c>
       <c r="I248" t="n">
-        <v>358746</v>
+        <v>422082</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9612681</v>
+        <v>9525480</v>
       </c>
       <c r="E249" t="n">
-        <v>28497162</v>
+        <v>28238652</v>
       </c>
       <c r="F249" t="n">
-        <v>1221.328441253786</v>
+        <v>1220.047812182318</v>
       </c>
       <c r="G249" t="n">
-        <v>2093.171120728693</v>
+        <v>1163.575878447037</v>
       </c>
       <c r="H249" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="I249" t="n">
-        <v>6143270</v>
+        <v>6120362</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2006246</v>
+        <v>1988094</v>
       </c>
       <c r="E250" t="n">
-        <v>5803570</v>
+        <v>5751063</v>
       </c>
       <c r="F250" t="n">
-        <v>37.47232488799534</v>
+        <v>217.7316251897254</v>
       </c>
       <c r="G250" t="n">
-        <v>203.8433433241755</v>
+        <v>126.6780083341961</v>
       </c>
       <c r="H250" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>52503</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7283261</v>
+        <v>7303497</v>
       </c>
       <c r="E251" t="n">
-        <v>7283272</v>
+        <v>7303507</v>
       </c>
       <c r="F251" t="n">
-        <v>832.3566149345828</v>
+        <v>210.6330230955703</v>
       </c>
       <c r="G251" t="n">
-        <v>998.7713276401306</v>
+        <v>1666.120111262167</v>
       </c>
       <c r="H251" t="n">
-        <v>0.98</v>
+        <v>1.69</v>
       </c>
       <c r="I251" t="n">
-        <v>273807</v>
+        <v>271027</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6356189</v>
+        <v>6178866</v>
       </c>
       <c r="E252" t="n">
-        <v>6356189</v>
+        <v>6178866</v>
       </c>
       <c r="F252" t="n">
-        <v>1015.557996351596</v>
+        <v>776.1123892339638</v>
       </c>
       <c r="G252" t="n">
-        <v>998.1298484837025</v>
+        <v>543.4160608497125</v>
       </c>
       <c r="H252" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I252" t="n">
-        <v>489615</v>
+        <v>480411</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6246571</v>
+        <v>6230113</v>
       </c>
       <c r="E253" t="n">
-        <v>22816307</v>
+        <v>22756191</v>
       </c>
       <c r="F253" t="n">
-        <v>37.7533708147331</v>
+        <v>51.47885343633136</v>
       </c>
       <c r="G253" t="n">
-        <v>330.3225757141419</v>
+        <v>476.3230163315877</v>
       </c>
       <c r="H253" t="n">
-        <v>2.05</v>
+        <v>2.74</v>
       </c>
       <c r="I253" t="n">
-        <v>545170</v>
+        <v>551027</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2274044</v>
+        <v>2270493</v>
       </c>
       <c r="E254" t="n">
-        <v>20058578</v>
+        <v>20027255</v>
       </c>
       <c r="F254" t="n">
-        <v>1906.646449630344</v>
+        <v>1795.934615350503</v>
       </c>
       <c r="G254" t="n">
-        <v>686.4225768147627</v>
+        <v>391.1488584307164</v>
       </c>
       <c r="H254" t="n">
-        <v>0.55</v>
+        <v>1.34</v>
       </c>
       <c r="I254" t="n">
-        <v>49858</v>
+        <v>49908</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14454152</v>
+        <v>14343524</v>
       </c>
       <c r="E255" t="n">
-        <v>29261547</v>
+        <v>29037588</v>
       </c>
       <c r="F255" t="n">
-        <v>125.6659307054578</v>
+        <v>125.7270134922152</v>
       </c>
       <c r="G255" t="n">
-        <v>83.16473218212853</v>
+        <v>21.85716750854894</v>
       </c>
       <c r="H255" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I255" t="n">
-        <v>551736</v>
+        <v>554546</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45008409</v>
+        <v>44383621</v>
       </c>
       <c r="E256" t="n">
-        <v>45008409</v>
+        <v>44383621</v>
       </c>
       <c r="F256" t="n">
-        <v>6555.837971485643</v>
+        <v>6232.451410898268</v>
       </c>
       <c r="G256" t="n">
-        <v>3721.729268179058</v>
+        <v>4035.393620065203</v>
       </c>
       <c r="H256" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="I256" t="n">
-        <v>10181323</v>
+        <v>10300133</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8140273</v>
+        <v>8091742</v>
       </c>
       <c r="E257" t="n">
-        <v>11598024</v>
+        <v>11528878</v>
       </c>
       <c r="F257" t="n">
-        <v>43.80354461206215</v>
+        <v>466.6560167733198</v>
       </c>
       <c r="G257" t="n">
-        <v>40.54189365056668</v>
+        <v>652.1111915099586</v>
       </c>
       <c r="H257" t="n">
         <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>320541</v>
+        <v>314547</v>
       </c>
     </row>
     <row r="258">
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>146680377</v>
+        <v>146474657</v>
       </c>
       <c r="F258" t="n">
         <v>15.60405996583117</v>
@@ -9442,7 +9442,7 @@
         <v>1.47</v>
       </c>
       <c r="I258" t="n">
-        <v>1631649</v>
+        <v>1616684</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16446261</v>
+        <v>16001959</v>
       </c>
       <c r="F259" t="n">
-        <v>120.882463877622</v>
+        <v>120.8822582827293</v>
       </c>
       <c r="G259" t="n">
-        <v>114.3991998340726</v>
+        <v>114.399005265808</v>
       </c>
       <c r="H259" t="n">
         <v>0.82</v>
       </c>
       <c r="I259" t="n">
-        <v>1060642</v>
+        <v>1061798</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>722794</v>
+        <v>722477</v>
       </c>
       <c r="F260" t="n">
-        <v>10.00041647584277</v>
+        <v>10.00041555067376</v>
       </c>
       <c r="G260" t="n">
-        <v>22.06600692393589</v>
+        <v>22.06600488254233</v>
       </c>
       <c r="H260" t="n">
         <v>1.83</v>
       </c>
       <c r="I260" t="n">
-        <v>208334</v>
+        <v>208442</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2905974</v>
+        <v>2903842</v>
       </c>
       <c r="F261" t="n">
-        <v>43.21647862415562</v>
+        <v>43.21630380222372</v>
       </c>
       <c r="G261" t="n">
-        <v>50.23015552799976</v>
+        <v>50.2299523339148</v>
       </c>
       <c r="H261" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>72775</v>
+        <v>72628</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2877046</v>
+        <v>2862932</v>
       </c>
       <c r="E262" t="n">
-        <v>2879538</v>
+        <v>2865412</v>
       </c>
       <c r="F262" t="n">
-        <v>5.36841740663265</v>
+        <v>579.7236357187842</v>
       </c>
       <c r="G262" t="n">
-        <v>39.91833983989112</v>
+        <v>26.84793549475017</v>
       </c>
       <c r="H262" t="n">
         <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>94380</v>
+        <v>94616</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>74824419</v>
+        <v>74894875</v>
       </c>
       <c r="E263" t="n">
-        <v>103605448</v>
+        <v>103701522</v>
       </c>
       <c r="F263" t="n">
-        <v>6590.761927558341</v>
+        <v>6459.544482585787</v>
       </c>
       <c r="G263" t="n">
-        <v>8728.346570692029</v>
+        <v>15523.04257539885</v>
       </c>
       <c r="H263" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I263" t="n">
-        <v>6987561</v>
+        <v>6987201</v>
       </c>
     </row>
     <row r="264">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>627294</v>
+        <v>625505</v>
       </c>
       <c r="F264" t="n">
         <v>122.4096325711074</v>
@@ -9652,7 +9652,7 @@
         <v>1.04</v>
       </c>
       <c r="I264" t="n">
-        <v>648322</v>
+        <v>637873</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1280741</v>
+        <v>1274788</v>
       </c>
       <c r="E265" t="n">
-        <v>3875019</v>
+        <v>3856644</v>
       </c>
       <c r="F265" t="n">
-        <v>520.8712862234336</v>
+        <v>520.8712380360432</v>
       </c>
       <c r="G265" t="n">
-        <v>554.4375367190578</v>
+        <v>554.4374854263513</v>
       </c>
       <c r="H265" t="n">
         <v>0.51</v>
       </c>
       <c r="I265" t="n">
-        <v>37035</v>
+        <v>37143</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>33117381</v>
+        <v>31793695</v>
       </c>
       <c r="E266" t="n">
-        <v>234796825</v>
+        <v>225412113</v>
       </c>
       <c r="F266" t="n">
-        <v>27538.20567931315</v>
+        <v>32708.07692618275</v>
       </c>
       <c r="G266" t="n">
-        <v>32588.05189774769</v>
+        <v>54521.82985431098</v>
       </c>
       <c r="H266" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I266" t="n">
-        <v>4320410</v>
+        <v>4483896</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59161</v>
+        <v>59041</v>
       </c>
       <c r="E267" t="n">
-        <v>308676</v>
+        <v>308052</v>
       </c>
       <c r="F267" t="n">
-        <v>5.292604937613373</v>
+        <v>5.292595936038541</v>
       </c>
       <c r="G267" t="n">
-        <v>4.079637890903879</v>
+        <v>4.079630952323313</v>
       </c>
       <c r="H267" t="n">
         <v>0.71</v>
       </c>
       <c r="I267" t="n">
-        <v>214516</v>
+        <v>213483</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1288670</v>
+        <v>1284715</v>
       </c>
       <c r="E268" t="n">
-        <v>7991676</v>
+        <v>7967151</v>
       </c>
       <c r="F268" t="n">
-        <v>1220.85601913895</v>
+        <v>1174.154227809124</v>
       </c>
       <c r="G268" t="n">
-        <v>1464.71184870911</v>
+        <v>1409.818961802729</v>
       </c>
       <c r="H268" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I268" t="n">
-        <v>796692</v>
+        <v>794665</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>595359427</v>
+        <v>588147265</v>
       </c>
       <c r="E269" t="n">
-        <v>2305739222</v>
+        <v>2277807583</v>
       </c>
       <c r="F269" t="n">
-        <v>252794.9800482771</v>
+        <v>324712.9985732793</v>
       </c>
       <c r="G269" t="n">
-        <v>285497.6628830808</v>
+        <v>287071.3209560049</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>52365261</v>
+        <v>53864417</v>
       </c>
     </row>
     <row r="270">
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3377954</v>
+        <v>3345440</v>
       </c>
       <c r="F270" t="n">
         <v>141.6199459168916</v>
@@ -9862,7 +9862,7 @@
         <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>37780</v>
+        <v>37517</v>
       </c>
     </row>
     <row r="271">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>812974</v>
+        <v>811840</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>6.47</v>
+        <v>5.8</v>
       </c>
       <c r="I271" t="n">
-        <v>175672</v>
+        <v>175248</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5451378</v>
+        <v>5476230</v>
       </c>
       <c r="E272" t="n">
-        <v>24402708</v>
+        <v>24513954</v>
       </c>
       <c r="F272" t="n">
-        <v>549.7844463131918</v>
+        <v>4028.729379660807</v>
       </c>
       <c r="G272" t="n">
-        <v>252.8037536970182</v>
+        <v>85.11225004867532</v>
       </c>
       <c r="H272" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="I272" t="n">
-        <v>177510</v>
+        <v>182930</v>
       </c>
     </row>
     <row r="273">
@@ -9952,10 +9952,10 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6508294</v>
+        <v>6488344</v>
       </c>
       <c r="E273" t="n">
-        <v>12460657</v>
+        <v>12422461</v>
       </c>
       <c r="F273" t="n">
         <v>98.79917818808532</v>
@@ -9967,7 +9967,7 @@
         <v>3.69</v>
       </c>
       <c r="I273" t="n">
-        <v>33614</v>
+        <v>33337</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3183569</v>
+        <v>3168803</v>
       </c>
       <c r="E274" t="n">
-        <v>20934410</v>
+        <v>20837308</v>
       </c>
       <c r="F274" t="n">
-        <v>290.9622773749324</v>
+        <v>291.2086673396405</v>
       </c>
       <c r="G274" t="n">
-        <v>150.1464165173149</v>
+        <v>150.1458091358845</v>
       </c>
       <c r="H274" t="n">
         <v>0.17</v>
       </c>
       <c r="I274" t="n">
-        <v>1637678</v>
+        <v>1531356</v>
       </c>
     </row>
     <row r="275">
@@ -10022,10 +10022,10 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3695142</v>
+        <v>3690919</v>
       </c>
       <c r="E275" t="n">
-        <v>6298871</v>
+        <v>6291673</v>
       </c>
       <c r="F275" t="n">
         <v>997.3042260577083</v>
@@ -10037,7 +10037,7 @@
         <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>1165255</v>
+        <v>1153018</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>434777</v>
+        <v>434797</v>
       </c>
       <c r="E276" t="n">
-        <v>434777</v>
+        <v>434797</v>
       </c>
       <c r="F276" t="n">
-        <v>5.391009578755736</v>
+        <v>5.39100040981592</v>
       </c>
       <c r="G276" t="n">
-        <v>2.750892521039853</v>
+        <v>2.750887842367408</v>
       </c>
       <c r="H276" t="n">
         <v>0.19</v>
       </c>
       <c r="I276" t="n">
-        <v>79.45</v>
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7535041</v>
+        <v>7537531</v>
       </c>
       <c r="E277" t="n">
-        <v>10795552</v>
+        <v>10799119</v>
       </c>
       <c r="F277" t="n">
-        <v>673.9462353904281</v>
+        <v>1243.005693302864</v>
       </c>
       <c r="G277" t="n">
-        <v>1148.501517454524</v>
+        <v>1148.499239903077</v>
       </c>
       <c r="H277" t="n">
         <v>0.19</v>
       </c>
       <c r="I277" t="n">
-        <v>184175</v>
+        <v>184225</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>111737981</v>
+        <v>110350355</v>
       </c>
       <c r="E278" t="n">
-        <v>1038189844</v>
+        <v>1025297014</v>
       </c>
       <c r="F278" t="n">
-        <v>12681.57141300219</v>
+        <v>9155.34730742652</v>
       </c>
       <c r="G278" t="n">
-        <v>13582.58161602052</v>
+        <v>8862.721048140233</v>
       </c>
       <c r="H278" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="I278" t="n">
-        <v>12176116</v>
+        <v>15963168</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>100041222</v>
+        <v>97793318</v>
       </c>
       <c r="E279" t="n">
-        <v>152615229</v>
+        <v>149185999</v>
       </c>
       <c r="F279" t="n">
-        <v>19060.25185545866</v>
+        <v>19685.78151432942</v>
       </c>
       <c r="G279" t="n">
-        <v>15896.53181698222</v>
+        <v>15980.38295457036</v>
       </c>
       <c r="H279" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I279" t="n">
-        <v>11003569</v>
+        <v>11397111</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16471194</v>
+        <v>16369904</v>
       </c>
       <c r="E280" t="n">
-        <v>22597052</v>
+        <v>22458091</v>
       </c>
       <c r="F280" t="n">
-        <v>333.0777005209812</v>
+        <v>445.6345017163545</v>
       </c>
       <c r="G280" t="n">
-        <v>660.6323867151044</v>
+        <v>5487.68288226568</v>
       </c>
       <c r="H280" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I280" t="n">
-        <v>767276</v>
+        <v>833795</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5498778</v>
+        <v>5475458</v>
       </c>
       <c r="E281" t="n">
-        <v>5498778</v>
+        <v>5475458</v>
       </c>
       <c r="F281" t="n">
-        <v>33.38238750670138</v>
+        <v>141.0763875606869</v>
       </c>
       <c r="G281" t="n">
-        <v>128.5600429751779</v>
+        <v>1054.817897652969</v>
       </c>
       <c r="H281" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="I281" t="n">
-        <v>706357</v>
+        <v>697152</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>125474164</v>
+        <v>123471334</v>
       </c>
       <c r="E282" t="n">
-        <v>481339088</v>
+        <v>473655913</v>
       </c>
       <c r="F282" t="n">
-        <v>50875.38165029028</v>
+        <v>55174.70755199277</v>
       </c>
       <c r="G282" t="n">
-        <v>64130.64086813205</v>
+        <v>52673.31647896535</v>
       </c>
       <c r="H282" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I282" t="n">
-        <v>40427237</v>
+        <v>40367280</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>653947</v>
+        <v>637456</v>
       </c>
       <c r="F283" t="n">
-        <v>5.459649837590689</v>
+        <v>5.441505842630191</v>
       </c>
       <c r="G283" t="n">
-        <v>5.334598722349821</v>
+        <v>6.467042269695081</v>
       </c>
       <c r="H283" t="n">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="I283" t="n">
-        <v>40891</v>
+        <v>39895</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3154884</v>
+        <v>3086360</v>
       </c>
       <c r="E284" t="n">
-        <v>29892996</v>
+        <v>29243716</v>
       </c>
       <c r="F284" t="n">
-        <v>811.2876968264025</v>
+        <v>917.0037062892245</v>
       </c>
       <c r="G284" t="n">
-        <v>768.0593430912394</v>
+        <v>766.6872782073071</v>
       </c>
       <c r="H284" t="n">
         <v>0.68</v>
       </c>
       <c r="I284" t="n">
-        <v>194467</v>
+        <v>182290</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>94045</v>
+        <v>93883</v>
       </c>
       <c r="F285" t="n">
-        <v>1423.005186320661</v>
+        <v>688.9030364997568</v>
       </c>
       <c r="G285" t="n">
-        <v>136.1946060016409</v>
+        <v>149.7241595898515</v>
       </c>
       <c r="H285" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="I285" t="n">
-        <v>49039</v>
+        <v>48905</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>131828</v>
+        <v>131842</v>
       </c>
       <c r="F286" t="n">
-        <v>4.084003998133718</v>
+        <v>4.083997052127349</v>
       </c>
       <c r="G286" t="n">
-        <v>4.120726600634732</v>
+        <v>4.120719592171168</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>67833</v>
+        <v>67684</v>
       </c>
     </row>
     <row r="287">
@@ -10442,10 +10442,10 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21888340</v>
+        <v>21834316</v>
       </c>
       <c r="E287" t="n">
-        <v>21888340</v>
+        <v>21834316</v>
       </c>
       <c r="F287" t="n">
         <v>2718.740273433551</v>
@@ -10457,7 +10457,7 @@
         <v>0.05</v>
       </c>
       <c r="I287" t="n">
-        <v>521380</v>
+        <v>519468</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>569523</v>
+        <v>575224</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8109.46</v>
+        <v>8109.16</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6800648</v>
+        <v>6788293</v>
       </c>
       <c r="E289" t="n">
-        <v>42502102</v>
+        <v>42424891</v>
       </c>
       <c r="F289" t="n">
-        <v>901.7682363985836</v>
+        <v>893.2989912836929</v>
       </c>
       <c r="G289" t="n">
-        <v>429.2152859561438</v>
+        <v>428.9819122579745</v>
       </c>
       <c r="H289" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I289" t="n">
-        <v>410204</v>
+        <v>409704</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493630383</v>
+        <v>492256581</v>
       </c>
       <c r="E290" t="n">
-        <v>493630383</v>
+        <v>492256581</v>
       </c>
       <c r="F290" t="n">
-        <v>969733.9130527134</v>
+        <v>885550.612086127</v>
       </c>
       <c r="G290" t="n">
-        <v>1760124.699658804</v>
+        <v>1695203.076506298</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>39793793</v>
+        <v>40487663</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5122377</v>
+        <v>5063551</v>
       </c>
       <c r="E291" t="n">
-        <v>19034848</v>
+        <v>18816250</v>
       </c>
       <c r="F291" t="n">
-        <v>2000.954845862587</v>
+        <v>1983.325214646799</v>
       </c>
       <c r="G291" t="n">
-        <v>682.7677722326265</v>
+        <v>495.4675701789484</v>
       </c>
       <c r="H291" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>87686</v>
+        <v>88594</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35387706</v>
+        <v>35122568</v>
       </c>
       <c r="F292" t="n">
-        <v>10775.06442809309</v>
+        <v>5690.216108174828</v>
       </c>
       <c r="G292" t="n">
-        <v>12443.77836207543</v>
+        <v>12910.15872543779</v>
       </c>
       <c r="H292" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I292" t="n">
-        <v>7362758</v>
+        <v>7410266</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>36311802</v>
+        <v>41452077</v>
       </c>
       <c r="E293" t="n">
-        <v>130154579</v>
+        <v>148579175</v>
       </c>
       <c r="F293" t="n">
-        <v>121.6521280571146</v>
+        <v>76.53716177245059</v>
       </c>
       <c r="G293" t="n">
-        <v>2196.433377842096</v>
+        <v>17.73043246560901</v>
       </c>
       <c r="H293" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I293" t="n">
-        <v>96328</v>
+        <v>114668</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>806936</v>
+        <v>803955</v>
       </c>
       <c r="E294" t="n">
-        <v>12870340</v>
+        <v>12822799</v>
       </c>
       <c r="F294" t="n">
-        <v>19.03705398171498</v>
+        <v>19.03706769606731</v>
       </c>
       <c r="G294" t="n">
-        <v>7.747184087984374</v>
+        <v>7.747189669079654</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>329502</v>
+        <v>329808</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>82556</v>
+        <v>85408</v>
       </c>
       <c r="F295" t="n">
-        <v>22.3690543079381</v>
+        <v>22.36905321869995</v>
       </c>
       <c r="G295" t="n">
-        <v>23.01510362712517</v>
+        <v>23.01510250642831</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>53529</v>
+        <v>55513</v>
       </c>
     </row>
     <row r="296">
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1537158</v>
+        <v>1545104</v>
       </c>
       <c r="F296" t="n">
         <v>11.14888275679048</v>
@@ -10770,7 +10770,7 @@
         <v>0.38</v>
       </c>
       <c r="I296" t="n">
-        <v>601160</v>
+        <v>603485</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2635787838</v>
+        <v>2599441298</v>
       </c>
       <c r="E297" t="n">
-        <v>2798520843</v>
+        <v>2759930276</v>
       </c>
       <c r="F297" t="n">
-        <v>32354.03611799678</v>
+        <v>32308.41301288391</v>
       </c>
       <c r="G297" t="n">
-        <v>76769.19252781938</v>
+        <v>49773.56084427304</v>
       </c>
       <c r="H297" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I297" t="n">
-        <v>55237672</v>
+        <v>56545714</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2140760</v>
+        <v>2144513</v>
       </c>
       <c r="E298" t="n">
-        <v>16466120</v>
+        <v>16494986</v>
       </c>
       <c r="F298" t="n">
-        <v>66.31118768684874</v>
+        <v>60.89714777584994</v>
       </c>
       <c r="G298" t="n">
-        <v>10.06265478205031</v>
+        <v>10.06265385112344</v>
       </c>
       <c r="H298" t="n">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="I298" t="n">
-        <v>215817</v>
+        <v>216059</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1732069</v>
+        <v>1735116</v>
       </c>
       <c r="E299" t="n">
-        <v>1738183</v>
+        <v>1741240</v>
       </c>
       <c r="F299" t="n">
-        <v>1435.922954852661</v>
+        <v>1683.405297084758</v>
       </c>
       <c r="G299" t="n">
-        <v>1269.920010100535</v>
+        <v>1514.003108998298</v>
       </c>
       <c r="H299" t="n">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
       <c r="I299" t="n">
-        <v>447902</v>
+        <v>451026</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88188680</v>
+        <v>88137977</v>
       </c>
       <c r="E300" t="n">
-        <v>325985682</v>
+        <v>325797512</v>
       </c>
       <c r="F300" t="n">
-        <v>3945.927451301953</v>
+        <v>3259.53398040784</v>
       </c>
       <c r="G300" t="n">
-        <v>10746.44106292124</v>
+        <v>10899.27815910208</v>
       </c>
       <c r="H300" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I300" t="n">
-        <v>215354</v>
+        <v>217582</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2179616</v>
+        <v>2181351</v>
       </c>
       <c r="E301" t="n">
-        <v>8737746</v>
+        <v>8744703</v>
       </c>
       <c r="F301" t="n">
-        <v>51.52789039754668</v>
+        <v>51.52780275976399</v>
       </c>
       <c r="G301" t="n">
-        <v>6.520502837046205</v>
+        <v>6.52049174708296</v>
       </c>
       <c r="H301" t="n">
         <v>0.23</v>
       </c>
       <c r="I301" t="n">
-        <v>11574.29</v>
+        <v>11103.07</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>58467026</v>
+        <v>58335285</v>
       </c>
       <c r="E302" t="n">
-        <v>143415651</v>
+        <v>143092500</v>
       </c>
       <c r="F302" t="n">
-        <v>173.4063290311872</v>
+        <v>1248.227419087426</v>
       </c>
       <c r="G302" t="n">
-        <v>2349.357356993549</v>
+        <v>2738.589298272838</v>
       </c>
       <c r="H302" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="I302" t="n">
-        <v>21952009</v>
+        <v>21927814</v>
       </c>
     </row>
     <row r="303">
@@ -11000,10 +11000,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>816473743</v>
+        <v>794502895</v>
       </c>
       <c r="E303" t="n">
-        <v>1259074599</v>
+        <v>1225193611</v>
       </c>
       <c r="F303" t="n">
         <v>4486.147847631842</v>
@@ -11015,7 +11015,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I303" t="n">
-        <v>335970760</v>
+        <v>338621423</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>21486048</v>
+        <v>21311660</v>
       </c>
       <c r="E304" t="n">
-        <v>21486048</v>
+        <v>21311660</v>
       </c>
       <c r="F304" t="n">
-        <v>4319.733121619414</v>
+        <v>3553.122158252851</v>
       </c>
       <c r="G304" t="n">
-        <v>2670.003161627317</v>
+        <v>2494.357619515708</v>
       </c>
       <c r="H304" t="n">
-        <v>0.28</v>
+        <v>0.61</v>
       </c>
       <c r="I304" t="n">
-        <v>7393825</v>
+        <v>7326067</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2048471</v>
+        <v>2045478</v>
       </c>
       <c r="E305" t="n">
-        <v>3361194</v>
+        <v>3356281</v>
       </c>
       <c r="F305" t="n">
-        <v>760.8680936557884</v>
+        <v>740.733682730769</v>
       </c>
       <c r="G305" t="n">
-        <v>4.038624609302752</v>
+        <v>4.03862441264607</v>
       </c>
       <c r="H305" t="n">
         <v>0.36</v>
       </c>
       <c r="I305" t="n">
-        <v>152893</v>
+        <v>150101</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5869006</v>
+        <v>5860905</v>
       </c>
       <c r="E306" t="n">
-        <v>5869006</v>
+        <v>5860905</v>
       </c>
       <c r="F306" t="n">
-        <v>41.60675123616596</v>
+        <v>41.97519195780283</v>
       </c>
       <c r="G306" t="n">
-        <v>5.440407451411822</v>
+        <v>5.440385443544193</v>
       </c>
       <c r="H306" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="I306" t="n">
-        <v>327.38</v>
+        <v>327.45</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39545014</v>
+        <v>39543757</v>
       </c>
       <c r="E307" t="n">
-        <v>188584410</v>
+        <v>188578391</v>
       </c>
       <c r="F307" t="n">
-        <v>1059.720751695482</v>
+        <v>1059.720700093467</v>
       </c>
       <c r="G307" t="n">
-        <v>233.6219083302007</v>
+        <v>225.6648154060875</v>
       </c>
       <c r="H307" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="I307" t="n">
-        <v>401329</v>
+        <v>401340</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>386507</v>
+        <v>381024</v>
       </c>
       <c r="E308" t="n">
-        <v>722878</v>
+        <v>712623</v>
       </c>
       <c r="F308" t="n">
-        <v>59.24694498477265</v>
+        <v>31.45746369713677</v>
       </c>
       <c r="G308" t="n">
-        <v>655.3956416146751</v>
+        <v>685.6589631675866</v>
       </c>
       <c r="H308" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="I308" t="n">
-        <v>2284.55</v>
+        <v>2293.9</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>22949702</v>
+        <v>22628079</v>
       </c>
       <c r="E309" t="n">
-        <v>38249503</v>
+        <v>37713464</v>
       </c>
       <c r="F309" t="n">
-        <v>4435.079466768554</v>
+        <v>3258.25816508763</v>
       </c>
       <c r="G309" t="n">
-        <v>1557.19085743552</v>
+        <v>2097.86506492744</v>
       </c>
       <c r="H309" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I309" t="n">
-        <v>594171</v>
+        <v>611160</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>108103</v>
+        <v>107934</v>
       </c>
       <c r="F310" t="n">
-        <v>15.42282935684036</v>
+        <v>15.4228279300274</v>
       </c>
       <c r="G310" t="n">
-        <v>66.53279199275396</v>
+        <v>66.53278583760257</v>
       </c>
       <c r="H310" t="n">
         <v>0.09</v>
       </c>
       <c r="I310" t="n">
-        <v>54086</v>
+        <v>54268</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>22913743</v>
+        <v>22227072</v>
       </c>
       <c r="E311" t="n">
-        <v>22913743</v>
+        <v>22227072</v>
       </c>
       <c r="F311" t="n">
-        <v>3395.884402993415</v>
+        <v>2028.667784707496</v>
       </c>
       <c r="G311" t="n">
-        <v>3208.600362341347</v>
+        <v>3334.525067283349</v>
       </c>
       <c r="H311" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="I311" t="n">
-        <v>5536029</v>
+        <v>5660475</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3809241</v>
+        <v>3814126</v>
       </c>
       <c r="E312" t="n">
-        <v>8303612</v>
+        <v>8314259</v>
       </c>
       <c r="F312" t="n">
-        <v>1798.984357535425</v>
+        <v>1798.981297852621</v>
       </c>
       <c r="G312" t="n">
-        <v>1815.340086226207</v>
+        <v>1815.33699872585</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1881892</v>
+        <v>1896972</v>
       </c>
     </row>
     <row r="313">
@@ -11350,10 +11350,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9248786</v>
+        <v>9243873</v>
       </c>
       <c r="E313" t="n">
-        <v>9248786</v>
+        <v>9243873</v>
       </c>
       <c r="F313" t="n">
         <v>16267.7345083043</v>
@@ -11365,7 +11365,7 @@
         <v>0.03</v>
       </c>
       <c r="I313" t="n">
-        <v>4960397</v>
+        <v>5012095</v>
       </c>
     </row>
     <row r="314">
@@ -11385,10 +11385,10 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>490399355</v>
+        <v>482274629</v>
       </c>
       <c r="E314" t="n">
-        <v>1707039342</v>
+        <v>1678757846</v>
       </c>
       <c r="F314" t="n">
         <v>251040.8159630045</v>
@@ -11400,7 +11400,7 @@
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>44091158</v>
+        <v>44509898</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22269941</v>
+        <v>22230598</v>
       </c>
       <c r="E315" t="n">
-        <v>22250597</v>
+        <v>22211287</v>
       </c>
       <c r="F315" t="n">
-        <v>261.4778847977591</v>
+        <v>277.1215782488116</v>
       </c>
       <c r="G315" t="n">
-        <v>819.7163832224409</v>
+        <v>801.1587374440021</v>
       </c>
       <c r="H315" t="n">
         <v>0.6</v>
       </c>
       <c r="I315" t="n">
-        <v>404617</v>
+        <v>405287</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>49858394</v>
+        <v>49093640</v>
       </c>
       <c r="E316" t="n">
-        <v>122733258</v>
+        <v>120850712</v>
       </c>
       <c r="F316" t="n">
-        <v>1292.838287330233</v>
+        <v>1045.95946935369</v>
       </c>
       <c r="G316" t="n">
-        <v>1676.240305605623</v>
+        <v>1563.170419189682</v>
       </c>
       <c r="H316" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I316" t="n">
-        <v>176220</v>
+        <v>200626</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11866660</v>
+        <v>11736329</v>
       </c>
       <c r="E317" t="n">
-        <v>23965688</v>
+        <v>23700784</v>
       </c>
       <c r="F317" t="n">
-        <v>161.7123213615118</v>
+        <v>161.8828934686219</v>
       </c>
       <c r="G317" t="n">
-        <v>1789.44960649361</v>
+        <v>1760.096049313719</v>
       </c>
       <c r="H317" t="n">
         <v>0.76</v>
       </c>
       <c r="I317" t="n">
-        <v>55406</v>
+        <v>55707</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7325868</v>
+        <v>7355864</v>
       </c>
       <c r="E318" t="n">
-        <v>19031817</v>
+        <v>19109745</v>
       </c>
       <c r="F318" t="n">
-        <v>296.7934577963252</v>
+        <v>466.132519248806</v>
       </c>
       <c r="G318" t="n">
-        <v>158.4474620976368</v>
+        <v>140.4015602914309</v>
       </c>
       <c r="H318" t="n">
         <v>0.16</v>
       </c>
       <c r="I318" t="n">
-        <v>740668</v>
+        <v>741836</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>148323</v>
+        <v>139994</v>
       </c>
       <c r="F319" t="n">
-        <v>110.380568840012</v>
+        <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>2.00030514756042</v>
+        <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1.34</v>
+        <v>4.18</v>
       </c>
       <c r="I319" t="n">
-        <v>55460</v>
+        <v>53154</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18996378480</v>
+        <v>18906336305</v>
       </c>
       <c r="F320" t="n">
-        <v>826.2959074085514</v>
+        <v>817.7021731890992</v>
       </c>
       <c r="G320" t="n">
-        <v>802.0023286500403</v>
+        <v>1336.459239379774</v>
       </c>
       <c r="H320" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="I320" t="n">
-        <v>41173729</v>
+        <v>40929754</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>106017604</v>
+        <v>104846350</v>
       </c>
       <c r="E321" t="n">
-        <v>160628920</v>
+        <v>158854334</v>
       </c>
       <c r="F321" t="n">
-        <v>14287.18418760112</v>
+        <v>11166.2712257402</v>
       </c>
       <c r="G321" t="n">
-        <v>16475.11006469547</v>
+        <v>15771.71642153314</v>
       </c>
       <c r="H321" t="n">
         <v>0.97</v>
       </c>
       <c r="I321" t="n">
-        <v>9480595</v>
+        <v>9560232</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2545145</v>
+        <v>2531373</v>
       </c>
       <c r="E322" t="n">
-        <v>10180581</v>
+        <v>10125493</v>
       </c>
       <c r="F322" t="n">
-        <v>1981.456640123205</v>
+        <v>1683.421879138023</v>
       </c>
       <c r="G322" t="n">
-        <v>2987.002701393145</v>
+        <v>3503.639183698625</v>
       </c>
       <c r="H322" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="I322" t="n">
-        <v>7121949</v>
+        <v>7112777</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>217692403</v>
+        <v>214610941</v>
       </c>
       <c r="E323" t="n">
-        <v>669322217</v>
+        <v>659847879</v>
       </c>
       <c r="F323" t="n">
-        <v>75696.84514954826</v>
+        <v>82350.20291807657</v>
       </c>
       <c r="G323" t="n">
-        <v>142609.5786756877</v>
+        <v>114511.0427109158</v>
       </c>
       <c r="H323" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>24948846</v>
+        <v>20484547</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>139460330</v>
+        <v>137279800</v>
       </c>
       <c r="E324" t="n">
-        <v>364336242</v>
+        <v>358639670</v>
       </c>
       <c r="F324" t="n">
-        <v>10409.55299599033</v>
+        <v>8463.42041146261</v>
       </c>
       <c r="G324" t="n">
-        <v>9674.697910242727</v>
+        <v>12166.04856231277</v>
       </c>
       <c r="H324" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="I324" t="n">
-        <v>8917468</v>
+        <v>8895046</v>
       </c>
     </row>
     <row r="325">
@@ -11770,10 +11770,10 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2402238</v>
+        <v>2362213</v>
       </c>
       <c r="E325" t="n">
-        <v>3297034</v>
+        <v>3242101</v>
       </c>
       <c r="F325" t="n">
         <v>463.9535060417934</v>
@@ -11785,7 +11785,7 @@
         <v>1.51</v>
       </c>
       <c r="I325" t="n">
-        <v>1789699</v>
+        <v>1771575</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>392107386</v>
+        <v>385311940</v>
       </c>
       <c r="E326" t="n">
-        <v>2240613636</v>
+        <v>2201782516</v>
       </c>
       <c r="F326" t="n">
-        <v>244131.3459500582</v>
+        <v>244161.2955929727</v>
       </c>
       <c r="G326" t="n">
-        <v>317570.9444940998</v>
+        <v>288508.3312686046</v>
       </c>
       <c r="H326" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I326" t="n">
-        <v>53739218</v>
+        <v>54940286</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99234</v>
+        <v>97355</v>
       </c>
       <c r="F2" t="n">
-        <v>3.987851747079864</v>
+        <v>4.250510091767802</v>
       </c>
       <c r="G2" t="n">
-        <v>4.084938447084396</v>
+        <v>5.27254011595866</v>
       </c>
       <c r="H2" t="n">
-        <v>0.89</v>
+        <v>0.52</v>
       </c>
       <c r="I2" t="n">
-        <v>427.13</v>
+        <v>428.96</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>625421596</v>
+        <v>608288346</v>
       </c>
       <c r="E3" t="n">
-        <v>1213650802</v>
+        <v>1180413077</v>
       </c>
       <c r="F3" t="n">
-        <v>19493.47982567039</v>
+        <v>19750.14185202818</v>
       </c>
       <c r="G3" t="n">
-        <v>28746.87917858281</v>
+        <v>27678.33732313714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>38475915</v>
+        <v>40151478</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253496905</v>
+        <v>249364390</v>
       </c>
       <c r="E4" t="n">
-        <v>1589643460</v>
+        <v>1563729037</v>
       </c>
       <c r="F4" t="n">
-        <v>33437.49409108792</v>
+        <v>37179.63234145792</v>
       </c>
       <c r="G4" t="n">
-        <v>61828.61325209179</v>
+        <v>71450.17579153799</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>24163947</v>
+        <v>24045096</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143616624</v>
+        <v>143147457</v>
       </c>
       <c r="E5" t="n">
-        <v>159149663</v>
+        <v>158629754</v>
       </c>
       <c r="F5" t="n">
-        <v>149172.432584061</v>
+        <v>124647.6171019755</v>
       </c>
       <c r="G5" t="n">
-        <v>195473.5527014192</v>
+        <v>188190.5273273835</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>49154367</v>
+        <v>50771331</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48979399</v>
+        <v>48322751</v>
       </c>
       <c r="E6" t="n">
-        <v>61271972</v>
+        <v>60450522</v>
       </c>
       <c r="F6" t="n">
-        <v>9898.59767851367</v>
+        <v>7293.99444259275</v>
       </c>
       <c r="G6" t="n">
-        <v>14245.65408542135</v>
+        <v>7589.674909391516</v>
       </c>
       <c r="H6" t="n">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>856868</v>
+        <v>855136</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8433521</v>
+        <v>8354286</v>
       </c>
       <c r="E7" t="n">
-        <v>8646183</v>
+        <v>8564950</v>
       </c>
       <c r="F7" t="n">
-        <v>537.7037510605063</v>
+        <v>768.3469300672431</v>
       </c>
       <c r="G7" t="n">
-        <v>643.7551551773834</v>
+        <v>536.1213823238708</v>
       </c>
       <c r="H7" t="n">
-        <v>1.55</v>
+        <v>0.93</v>
       </c>
       <c r="I7" t="n">
-        <v>96500</v>
+        <v>98055</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67607718</v>
+        <v>66504739</v>
       </c>
       <c r="E8" t="n">
-        <v>134651694</v>
+        <v>132454932</v>
       </c>
       <c r="F8" t="n">
-        <v>14867.34171924936</v>
+        <v>14509.58080745843</v>
       </c>
       <c r="G8" t="n">
-        <v>14762.72664765641</v>
+        <v>43255.64738699628</v>
       </c>
       <c r="H8" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="I8" t="n">
-        <v>925055</v>
+        <v>1002182</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5009582</v>
+        <v>5101321</v>
       </c>
       <c r="E9" t="n">
-        <v>8003806</v>
+        <v>8150378</v>
       </c>
       <c r="F9" t="n">
-        <v>268.8125446520937</v>
+        <v>336.7342176015941</v>
       </c>
       <c r="G9" t="n">
-        <v>410.3923364321429</v>
+        <v>269.8137317790881</v>
       </c>
       <c r="H9" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I9" t="n">
-        <v>97098</v>
+        <v>99785</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13999017</v>
+        <v>13881244</v>
       </c>
       <c r="E10" t="n">
-        <v>41254199</v>
+        <v>40907130</v>
       </c>
       <c r="F10" t="n">
-        <v>3743.733284974191</v>
+        <v>2805.409052375716</v>
       </c>
       <c r="G10" t="n">
-        <v>5062.316993859871</v>
+        <v>5036.570706781785</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="I10" t="n">
-        <v>925816</v>
+        <v>918172</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>120339769</v>
+        <v>119445329</v>
       </c>
       <c r="E11" t="n">
-        <v>471695864</v>
+        <v>468189924</v>
       </c>
       <c r="F11" t="n">
-        <v>51312.63040013908</v>
+        <v>73946.79016377179</v>
       </c>
       <c r="G11" t="n">
-        <v>54852.17053580878</v>
+        <v>48436.08249162416</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>27536134</v>
+        <v>27881017</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8569136</v>
+        <v>8802298</v>
       </c>
       <c r="E12" t="n">
-        <v>36834913</v>
+        <v>37837176</v>
       </c>
       <c r="F12" t="n">
-        <v>1360.828768573039</v>
+        <v>2618.171720340803</v>
       </c>
       <c r="G12" t="n">
-        <v>3066.230989069236</v>
+        <v>2278.29015905641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="I12" t="n">
-        <v>883940</v>
+        <v>941999</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1002629</v>
+        <v>1000837</v>
       </c>
       <c r="E13" t="n">
-        <v>12269472</v>
+        <v>12247540</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7708996398001</v>
+        <v>208.7296680225201</v>
       </c>
       <c r="G13" t="n">
-        <v>243.5251992443518</v>
+        <v>243.4771037586754</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>445.66</v>
+        <v>403.57</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>566844</v>
+        <v>571007</v>
       </c>
       <c r="E14" t="n">
-        <v>566844</v>
+        <v>571007</v>
       </c>
       <c r="F14" t="n">
-        <v>537.657400143166</v>
+        <v>683.4492118655338</v>
       </c>
       <c r="G14" t="n">
-        <v>14.91479835866148</v>
+        <v>72.7285184025101</v>
       </c>
       <c r="H14" t="n">
         <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>27804</v>
+        <v>27767</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>570402444</v>
+        <v>563756387</v>
       </c>
       <c r="E15" t="n">
-        <v>713488681</v>
+        <v>705175451</v>
       </c>
       <c r="F15" t="n">
-        <v>515872.9543493121</v>
+        <v>610480.8722271851</v>
       </c>
       <c r="G15" t="n">
-        <v>552215.2616904449</v>
+        <v>560977.6817669378</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>88494897</v>
+        <v>91740297</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3287191</v>
+        <v>3271326</v>
       </c>
       <c r="E16" t="n">
-        <v>9351767</v>
+        <v>9306634</v>
       </c>
       <c r="F16" t="n">
-        <v>176.3316330240093</v>
+        <v>205.7074677103131</v>
       </c>
       <c r="G16" t="n">
-        <v>74.07188888897747</v>
+        <v>527.5608784347188</v>
       </c>
       <c r="H16" t="n">
         <v>1.17</v>
       </c>
       <c r="I16" t="n">
-        <v>112933</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>313499</v>
+        <v>312760</v>
       </c>
       <c r="E17" t="n">
-        <v>3618150</v>
+        <v>3609625</v>
       </c>
       <c r="F17" t="n">
-        <v>5.338318049199174</v>
+        <v>5.40808542493317</v>
       </c>
       <c r="G17" t="n">
-        <v>3.445122329712469</v>
+        <v>4.039371231035061</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>2612.1</v>
+        <v>2477.22</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1378287</v>
+        <v>1376985</v>
       </c>
       <c r="E18" t="n">
-        <v>10572283</v>
+        <v>10562293</v>
       </c>
       <c r="F18" t="n">
-        <v>692.9622839212848</v>
+        <v>131.203588946029</v>
       </c>
       <c r="G18" t="n">
-        <v>123.4779874783021</v>
+        <v>296.1516176120221</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>122406</v>
+        <v>58281</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24793848</v>
+        <v>24458823</v>
       </c>
       <c r="E19" t="n">
-        <v>24839579</v>
+        <v>24503937</v>
       </c>
       <c r="F19" t="n">
-        <v>465.7061931330841</v>
+        <v>1155.248109605787</v>
       </c>
       <c r="G19" t="n">
-        <v>136.9642732762473</v>
+        <v>1211.64853053611</v>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>0.91</v>
       </c>
       <c r="I19" t="n">
-        <v>876881</v>
+        <v>891781</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3769218</v>
+        <v>3874516</v>
       </c>
       <c r="E20" t="n">
-        <v>20913853</v>
+        <v>21498108</v>
       </c>
       <c r="F20" t="n">
-        <v>20.09815123083998</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.101335897165487</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.05</v>
+        <v>7.53</v>
       </c>
       <c r="I20" t="n">
-        <v>2183.98</v>
+        <v>563.11</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6887655</v>
+        <v>6938398</v>
       </c>
       <c r="E21" t="n">
-        <v>12778052</v>
+        <v>12872191</v>
       </c>
       <c r="F21" t="n">
-        <v>1213.252184962955</v>
+        <v>1139.256864725422</v>
       </c>
       <c r="G21" t="n">
-        <v>374.9443642521417</v>
+        <v>160.7087705763166</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.7</v>
       </c>
       <c r="I21" t="n">
-        <v>53600</v>
+        <v>52479</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71476281</v>
+        <v>70935418</v>
       </c>
       <c r="E22" t="n">
-        <v>123750091</v>
+        <v>122810737</v>
       </c>
       <c r="F22" t="n">
-        <v>1721.927787602731</v>
+        <v>457.3679059010331</v>
       </c>
       <c r="G22" t="n">
-        <v>971.8655412178431</v>
+        <v>862.2421989642054</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="n">
-        <v>911926</v>
+        <v>853194</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>179504</v>
+        <v>181861</v>
       </c>
       <c r="E23" t="n">
-        <v>539861</v>
+        <v>546951</v>
       </c>
       <c r="F23" t="n">
-        <v>4.066254506082114</v>
+        <v>35.48952017448177</v>
       </c>
       <c r="G23" t="n">
-        <v>5.421670841146639</v>
+        <v>3.984302721566996</v>
       </c>
       <c r="H23" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I23" t="n">
-        <v>201.18</v>
+        <v>182.77</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80181600</v>
+        <v>79734341</v>
       </c>
       <c r="E24" t="n">
-        <v>235904211</v>
+        <v>234588320</v>
       </c>
       <c r="F24" t="n">
-        <v>463.6848020019778</v>
+        <v>693.8761156028165</v>
       </c>
       <c r="G24" t="n">
-        <v>355.0566021366086</v>
+        <v>285.9829566605718</v>
       </c>
       <c r="H24" t="n">
         <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>430751</v>
+        <v>462381</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6926605</v>
+        <v>6908677</v>
       </c>
       <c r="F25" t="n">
-        <v>385.5660192708029</v>
+        <v>325.3683890947152</v>
       </c>
       <c r="G25" t="n">
-        <v>4.086456717999281</v>
+        <v>4.063472668948659</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.87</v>
       </c>
       <c r="I25" t="n">
-        <v>19192.51</v>
+        <v>19008.44</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2442691</v>
+        <v>2437118</v>
       </c>
       <c r="E26" t="n">
-        <v>2442691</v>
+        <v>2437118</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.869999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>318911</v>
+        <v>318356</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17758450</v>
+        <v>17402922</v>
       </c>
       <c r="E27" t="n">
-        <v>22856582</v>
+        <v>22398988</v>
       </c>
       <c r="F27" t="n">
-        <v>273.1411736798085</v>
+        <v>802.1644429987189</v>
       </c>
       <c r="G27" t="n">
-        <v>6324.128894133584</v>
+        <v>6737.718738627548</v>
       </c>
       <c r="H27" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>1982869</v>
+        <v>1999049</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4684109</v>
+        <v>4623945</v>
       </c>
       <c r="E28" t="n">
-        <v>4684109</v>
+        <v>4623945</v>
       </c>
       <c r="F28" t="n">
-        <v>2342.264299128281</v>
+        <v>847.6015846510983</v>
       </c>
       <c r="G28" t="n">
-        <v>655.1954770178809</v>
+        <v>1837.871879504346</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="I28" t="n">
-        <v>2232212</v>
+        <v>2156985</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2039619</v>
+        <v>2055865</v>
       </c>
       <c r="F29" t="n">
-        <v>75.78158993789297</v>
+        <v>87.58475061374199</v>
       </c>
       <c r="G29" t="n">
-        <v>84.73225826278482</v>
+        <v>126.5714746637161</v>
       </c>
       <c r="H29" t="n">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="I29" t="n">
-        <v>270817</v>
+        <v>352273</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3372673</v>
+        <v>3373901</v>
       </c>
       <c r="E30" t="n">
-        <v>3372673</v>
+        <v>3373901</v>
       </c>
       <c r="F30" t="n">
-        <v>4452.223820951716</v>
+        <v>4034.563032903714</v>
       </c>
       <c r="G30" t="n">
-        <v>693.1637831530844</v>
+        <v>601.4462224040003</v>
       </c>
       <c r="H30" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>576279</v>
+        <v>606691</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>304421</v>
+        <v>304578</v>
       </c>
       <c r="E31" t="n">
-        <v>1421069</v>
+        <v>1421801</v>
       </c>
       <c r="F31" t="n">
-        <v>44.00970833543926</v>
+        <v>227.7067919950859</v>
       </c>
       <c r="G31" t="n">
-        <v>51.13184164143397</v>
+        <v>10.39480258164237</v>
       </c>
       <c r="H31" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="I31" t="n">
-        <v>669760</v>
+        <v>664214</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>388086</v>
+        <v>387822</v>
       </c>
       <c r="E32" t="n">
-        <v>388086</v>
+        <v>387822</v>
       </c>
       <c r="F32" t="n">
-        <v>121.6017295166405</v>
+        <v>122.1013708220309</v>
       </c>
       <c r="G32" t="n">
-        <v>5.386471234492753</v>
+        <v>5.385289292392974</v>
       </c>
       <c r="H32" t="n">
         <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>58106</v>
+        <v>57427</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1856027</v>
+        <v>1831527</v>
       </c>
       <c r="F33" t="n">
-        <v>3.661644574443744</v>
+        <v>5.308203605034079</v>
       </c>
       <c r="G33" t="n">
-        <v>20.35876668710747</v>
+        <v>26.87687622478209</v>
       </c>
       <c r="H33" t="n">
-        <v>1.25</v>
+        <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1398177</v>
+        <v>1373995</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1955226</v>
+        <v>1897859</v>
       </c>
       <c r="F34" t="n">
-        <v>450.0444855773406</v>
+        <v>31.17929937230636</v>
       </c>
       <c r="G34" t="n">
-        <v>34.39624975981664</v>
+        <v>193.2237726909286</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="I34" t="n">
-        <v>1204818</v>
+        <v>1214595</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12098323</v>
+        <v>11956992</v>
       </c>
       <c r="E35" t="n">
-        <v>30110538</v>
+        <v>29758790</v>
       </c>
       <c r="F35" t="n">
-        <v>1452.111749795299</v>
+        <v>255.5776921857941</v>
       </c>
       <c r="G35" t="n">
-        <v>898.2263566117133</v>
+        <v>992.2550407664784</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7</v>
+        <v>1.54</v>
       </c>
       <c r="I35" t="n">
-        <v>1470971</v>
+        <v>1506232</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7022190</v>
+        <v>6953682</v>
       </c>
       <c r="E36" t="n">
-        <v>9671351</v>
+        <v>9576998</v>
       </c>
       <c r="F36" t="n">
-        <v>2614.499330685725</v>
+        <v>1932.467886465973</v>
       </c>
       <c r="G36" t="n">
-        <v>281.3498624340584</v>
+        <v>229.9922198864172</v>
       </c>
       <c r="H36" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>280865</v>
+        <v>298844</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>893904</v>
+        <v>892227</v>
       </c>
       <c r="E37" t="n">
-        <v>6257326</v>
+        <v>6245592</v>
       </c>
       <c r="F37" t="n">
-        <v>80.05711173690952</v>
+        <v>291.5910446358097</v>
       </c>
       <c r="G37" t="n">
-        <v>190.5482584896007</v>
+        <v>147.230675601648</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I37" t="n">
-        <v>256849</v>
+        <v>256620</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>110594516</v>
+        <v>109857920</v>
       </c>
       <c r="E38" t="n">
-        <v>429998873</v>
+        <v>427110348</v>
       </c>
       <c r="F38" t="n">
-        <v>12638.54941611184</v>
+        <v>3825.93706424312</v>
       </c>
       <c r="G38" t="n">
-        <v>9480.384395394021</v>
+        <v>9932.24667463812</v>
       </c>
       <c r="H38" t="n">
-        <v>0.19</v>
+        <v>0.89</v>
       </c>
       <c r="I38" t="n">
-        <v>13299214</v>
+        <v>13177701</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5662422</v>
+        <v>5579896</v>
       </c>
       <c r="E39" t="n">
-        <v>5933313</v>
+        <v>5846838</v>
       </c>
       <c r="F39" t="n">
-        <v>1883.190157868419</v>
+        <v>1602.105929038633</v>
       </c>
       <c r="G39" t="n">
-        <v>279.0308998463927</v>
+        <v>83.02472134283832</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>157593</v>
+        <v>193295</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4942335</v>
+        <v>4772065</v>
       </c>
       <c r="E40" t="n">
-        <v>7275385</v>
+        <v>7024738</v>
       </c>
       <c r="F40" t="n">
-        <v>2034.356900291987</v>
+        <v>528.2454238780298</v>
       </c>
       <c r="G40" t="n">
-        <v>2531.355451845099</v>
+        <v>790.4764159681491</v>
       </c>
       <c r="H40" t="n">
-        <v>0.97</v>
+        <v>1.27</v>
       </c>
       <c r="I40" t="n">
-        <v>566304</v>
+        <v>558676</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7515257</v>
+        <v>7525196</v>
       </c>
       <c r="E41" t="n">
-        <v>7515257</v>
+        <v>7525196</v>
       </c>
       <c r="F41" t="n">
-        <v>145.1128965551946</v>
+        <v>1721.952830849335</v>
       </c>
       <c r="G41" t="n">
-        <v>2245.793874961009</v>
+        <v>2178.687493025804</v>
       </c>
       <c r="H41" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I41" t="n">
-        <v>402521</v>
+        <v>277675</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1601182</v>
+        <v>1562947</v>
       </c>
       <c r="E42" t="n">
-        <v>1601182</v>
+        <v>1562986</v>
       </c>
       <c r="F42" t="n">
-        <v>354.361817920657</v>
+        <v>331.6956468661077</v>
       </c>
       <c r="G42" t="n">
-        <v>25.25599724241308</v>
+        <v>68.48505708913733</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>285070</v>
+        <v>285699</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15814703</v>
+        <v>15811930</v>
       </c>
       <c r="F43" t="n">
-        <v>388.1657774527862</v>
+        <v>441.5773491382345</v>
       </c>
       <c r="G43" t="n">
-        <v>318.2255780245986</v>
+        <v>151.8700755023252</v>
       </c>
       <c r="H43" t="n">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
-        <v>9538.200000000001</v>
+        <v>10297.56</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="E44" t="n">
-        <v>141808388</v>
+        <v>141657584</v>
       </c>
       <c r="F44" t="n">
-        <v>215615.00313358</v>
+        <v>316172.5369631599</v>
       </c>
       <c r="G44" t="n">
-        <v>298400.3155705354</v>
+        <v>350395.3819728754</v>
       </c>
       <c r="H44" t="n">
         <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>84619637</v>
+        <v>86886381</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65142825</v>
+        <v>65330391</v>
       </c>
       <c r="E45" t="n">
-        <v>334065772</v>
+        <v>335027647</v>
       </c>
       <c r="F45" t="n">
-        <v>47876.07813221758</v>
+        <v>50925.33794504673</v>
       </c>
       <c r="G45" t="n">
-        <v>49430.31843751055</v>
+        <v>64572.31002625936</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>26843246</v>
+        <v>27072676</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>600401</v>
+        <v>599300</v>
       </c>
       <c r="F46" t="n">
-        <v>45.25623198017271</v>
+        <v>60.44940272379537</v>
       </c>
       <c r="G46" t="n">
-        <v>498.6963563880404</v>
+        <v>497.1839953856903</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1638.83</v>
+        <v>1634.01</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2601058</v>
+        <v>2631652</v>
       </c>
       <c r="E47" t="n">
-        <v>10453060</v>
+        <v>10576011</v>
       </c>
       <c r="F47" t="n">
-        <v>96.35033308998676</v>
+        <v>346.4919474794194</v>
       </c>
       <c r="G47" t="n">
-        <v>351.2063289756711</v>
+        <v>23.60710697325987</v>
       </c>
       <c r="H47" t="n">
-        <v>0.95</v>
+        <v>2.73</v>
       </c>
       <c r="I47" t="n">
-        <v>52388</v>
+        <v>54994</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17968924</v>
+        <v>18027394</v>
       </c>
       <c r="E48" t="n">
-        <v>125684494</v>
+        <v>126084165</v>
       </c>
       <c r="F48" t="n">
-        <v>540.7760377311441</v>
+        <v>614.3858054606528</v>
       </c>
       <c r="G48" t="n">
-        <v>1163.289007609973</v>
+        <v>1230.257035774794</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>1003093</v>
+        <v>1072099</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1022567</v>
+        <v>1026054</v>
       </c>
       <c r="E49" t="n">
-        <v>1200249</v>
+        <v>1204342</v>
       </c>
       <c r="F49" t="n">
-        <v>2476.010991437607</v>
+        <v>2179.98838856394</v>
       </c>
       <c r="G49" t="n">
-        <v>3621.313481879327</v>
+        <v>2371.736128224078</v>
       </c>
       <c r="H49" t="n">
-        <v>0.83</v>
+        <v>1.39</v>
       </c>
       <c r="I49" t="n">
-        <v>184583</v>
+        <v>192180</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>168954</v>
+        <v>168764</v>
       </c>
       <c r="E50" t="n">
-        <v>2260702</v>
+        <v>2258153</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>49292</v>
+        <v>48173</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="E51" t="n">
-        <v>261070034</v>
+        <v>257452844</v>
       </c>
       <c r="F51" t="n">
-        <v>21930.52666576821</v>
+        <v>17093.9325851778</v>
       </c>
       <c r="G51" t="n">
-        <v>22037.97037657807</v>
+        <v>28128.47341146232</v>
       </c>
       <c r="H51" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I51" t="n">
-        <v>27366996</v>
+        <v>24087322</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1121294</v>
+        <v>1120383</v>
       </c>
       <c r="F52" t="n">
-        <v>4.103471370688402</v>
+        <v>4.10257104544327</v>
       </c>
       <c r="G52" t="n">
-        <v>642.3669942199552</v>
+        <v>633.0887858697344</v>
       </c>
       <c r="H52" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="I52" t="n">
-        <v>136500</v>
+        <v>137386</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2588025</v>
+        <v>2751830</v>
       </c>
       <c r="E53" t="n">
-        <v>2864827</v>
+        <v>3051289</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>283456</v>
+        <v>298331</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>113646</v>
+        <v>113476</v>
       </c>
       <c r="E54" t="n">
-        <v>113646</v>
+        <v>113476</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>355.78</v>
+        <v>360.55</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7023556</v>
+        <v>6966288</v>
       </c>
       <c r="E55" t="n">
-        <v>17059676</v>
+        <v>16920578</v>
       </c>
       <c r="F55" t="n">
-        <v>141.0899330764539</v>
+        <v>178.8428154906221</v>
       </c>
       <c r="G55" t="n">
-        <v>112.5848105875956</v>
+        <v>109.6941116275223</v>
       </c>
       <c r="H55" t="n">
-        <v>1.19</v>
+        <v>0.84</v>
       </c>
       <c r="I55" t="n">
-        <v>455802</v>
+        <v>450500</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>440206589</v>
+        <v>429793962</v>
       </c>
       <c r="E56" t="n">
-        <v>440206589</v>
+        <v>429738051</v>
       </c>
       <c r="F56" t="n">
-        <v>5158.715620895198</v>
+        <v>13759.4050702159</v>
       </c>
       <c r="G56" t="n">
-        <v>3514.840060337759</v>
+        <v>9740.994691321257</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I56" t="n">
-        <v>4131118</v>
+        <v>4028048</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2463582</v>
+        <v>2313780</v>
       </c>
       <c r="E57" t="n">
-        <v>2463582</v>
+        <v>2313780</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>109489</v>
+        <v>104479</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>172693005</v>
+        <v>161233500</v>
       </c>
       <c r="E58" t="n">
-        <v>227243797</v>
+        <v>212164429</v>
       </c>
       <c r="F58" t="n">
-        <v>1544.329126129637</v>
+        <v>648.7682253331629</v>
       </c>
       <c r="G58" t="n">
-        <v>14730.02453835043</v>
+        <v>12381.27559708291</v>
       </c>
       <c r="H58" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="I58" t="n">
-        <v>15869952</v>
+        <v>16522386</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1155012</v>
+        <v>1124950</v>
       </c>
       <c r="E59" t="n">
-        <v>12552242</v>
+        <v>12225533</v>
       </c>
       <c r="F59" t="n">
-        <v>3.936438689256542</v>
+        <v>308.1107399810676</v>
       </c>
       <c r="G59" t="n">
-        <v>4.0879999629955</v>
+        <v>4.130047128199235</v>
       </c>
       <c r="H59" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="I59" t="n">
-        <v>14788.15</v>
+        <v>14495.62</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2562681</v>
+        <v>2571832</v>
       </c>
       <c r="E60" t="n">
-        <v>6551717</v>
+        <v>6575112</v>
       </c>
       <c r="F60" t="n">
-        <v>272.4084275273315</v>
+        <v>273.5938055249285</v>
       </c>
       <c r="G60" t="n">
-        <v>50.97344696332964</v>
+        <v>82.65117365882161</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>81106</v>
+        <v>81068</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>82235439</v>
+        <v>84456825</v>
       </c>
       <c r="E61" t="n">
-        <v>230043294</v>
+        <v>236255948</v>
       </c>
       <c r="F61" t="n">
-        <v>67950.97603984721</v>
+        <v>67221.40950501966</v>
       </c>
       <c r="G61" t="n">
-        <v>60483.86022226569</v>
+        <v>64050.2436136386</v>
       </c>
       <c r="H61" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>49979170</v>
+        <v>58472165</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>70500231</v>
+        <v>64487432</v>
       </c>
       <c r="E62" t="n">
-        <v>70500231</v>
+        <v>64487432</v>
       </c>
       <c r="F62" t="n">
-        <v>7297.447176215242</v>
+        <v>1925.516466284128</v>
       </c>
       <c r="G62" t="n">
-        <v>2377.280846144849</v>
+        <v>2692.340937223293</v>
       </c>
       <c r="H62" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="I62" t="n">
-        <v>3874174</v>
+        <v>5547545</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4073577</v>
+        <v>4128525</v>
       </c>
       <c r="E63" t="n">
-        <v>8033436</v>
+        <v>8141799</v>
       </c>
       <c r="F63" t="n">
-        <v>1115.688932734733</v>
+        <v>136.5807979513779</v>
       </c>
       <c r="G63" t="n">
-        <v>1091.674683610942</v>
+        <v>782.7344833458151</v>
       </c>
       <c r="H63" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="I63" t="n">
-        <v>1636347</v>
+        <v>1658291</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1596626</v>
+        <v>1593207</v>
       </c>
       <c r="E64" t="n">
-        <v>9167232</v>
+        <v>9147600</v>
       </c>
       <c r="F64" t="n">
-        <v>9.455773071655804</v>
+        <v>242.6816881559337</v>
       </c>
       <c r="G64" t="n">
-        <v>5.429142288370795</v>
+        <v>5.415981394527011</v>
       </c>
       <c r="H64" t="n">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
       <c r="I64" t="n">
-        <v>240153</v>
+        <v>243115</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>631453</v>
+        <v>591313</v>
       </c>
       <c r="F65" t="n">
-        <v>5.544365207373618</v>
+        <v>3.843162453443408</v>
       </c>
       <c r="G65" t="n">
-        <v>5.373023840604795</v>
+        <v>33.93537121570933</v>
       </c>
       <c r="H65" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="I65" t="n">
-        <v>5397.85</v>
+        <v>5494.51</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31187906</v>
+        <v>31202730</v>
       </c>
       <c r="F66" t="n">
-        <v>330.5351399382294</v>
+        <v>319.7411924014772</v>
       </c>
       <c r="G66" t="n">
-        <v>847.5475888736526</v>
+        <v>907.7620230320127</v>
       </c>
       <c r="H66" t="n">
         <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>236695</v>
+        <v>235492</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>170262</v>
+        <v>163583</v>
       </c>
       <c r="E67" t="n">
-        <v>1149801</v>
+        <v>1104694</v>
       </c>
       <c r="F67" t="n">
-        <v>270.5475623628212</v>
+        <v>198.5156545773678</v>
       </c>
       <c r="G67" t="n">
-        <v>73.09800266268961</v>
+        <v>134.8619708436203</v>
       </c>
       <c r="H67" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>3035270</v>
+        <v>3077152</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17519611</v>
+        <v>17406111</v>
       </c>
       <c r="E68" t="n">
-        <v>18465259</v>
+        <v>18345632</v>
       </c>
       <c r="F68" t="n">
-        <v>1206.15518583517</v>
+        <v>893.4071181249863</v>
       </c>
       <c r="G68" t="n">
-        <v>1727.221990523836</v>
+        <v>2162.764043549144</v>
       </c>
       <c r="H68" t="n">
-        <v>1.23</v>
+        <v>0.05</v>
       </c>
       <c r="I68" t="n">
-        <v>43459</v>
+        <v>42519</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2945510</v>
+        <v>2942840</v>
       </c>
       <c r="E69" t="n">
-        <v>2945510</v>
+        <v>2942840</v>
       </c>
       <c r="F69" t="n">
-        <v>9.675542477982743</v>
+        <v>4.019990774042543</v>
       </c>
       <c r="G69" t="n">
-        <v>128.6891005234566</v>
+        <v>357.3202040511076</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="I69" t="n">
-        <v>15416.67</v>
+        <v>16410.91</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3370110</v>
+        <v>3354034</v>
       </c>
       <c r="E70" t="n">
-        <v>8315574</v>
+        <v>8275909</v>
       </c>
       <c r="F70" t="n">
-        <v>1185.215983186573</v>
+        <v>1119.79103096478</v>
       </c>
       <c r="G70" t="n">
-        <v>1168.400007315348</v>
+        <v>1220.561271078894</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>46233</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23263418</v>
+        <v>23189648</v>
       </c>
       <c r="F71" t="n">
-        <v>4.114832157302966</v>
+        <v>4.11393384615553</v>
       </c>
       <c r="G71" t="n">
-        <v>596.9245656840592</v>
+        <v>597.5148165106988</v>
       </c>
       <c r="H71" t="n">
         <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>127757</v>
+        <v>130066</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>249347</v>
+        <v>249189</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4111.81</v>
+        <v>3463.69</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>86856624</v>
+        <v>86106886</v>
       </c>
       <c r="E73" t="n">
-        <v>181089085</v>
+        <v>179525942</v>
       </c>
       <c r="F73" t="n">
-        <v>13984.54274654514</v>
+        <v>12487.81261386974</v>
       </c>
       <c r="G73" t="n">
-        <v>244.3354160114547</v>
+        <v>265.0007348811063</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="I73" t="n">
-        <v>67338848</v>
+        <v>68567397</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>197648682</v>
+        <v>198650188</v>
       </c>
       <c r="F75" t="n">
-        <v>8377.418694367247</v>
+        <v>10430.87569139847</v>
       </c>
       <c r="G75" t="n">
-        <v>13095.66456805283</v>
+        <v>14533.93298045442</v>
       </c>
       <c r="H75" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I75" t="n">
-        <v>3329154</v>
+        <v>2950835</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>85098983</v>
+        <v>83336099</v>
       </c>
       <c r="E76" t="n">
-        <v>116854148</v>
+        <v>114433432</v>
       </c>
       <c r="F76" t="n">
-        <v>485.5306380882469</v>
+        <v>1475.543021244445</v>
       </c>
       <c r="G76" t="n">
-        <v>2227.897212187265</v>
+        <v>4646.76895214413</v>
       </c>
       <c r="H76" t="n">
-        <v>0.92</v>
+        <v>0.23</v>
       </c>
       <c r="I76" t="n">
-        <v>1217452</v>
+        <v>822520</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>187096</v>
+        <v>187581</v>
       </c>
       <c r="E77" t="n">
-        <v>195381</v>
+        <v>195888</v>
       </c>
       <c r="F77" t="n">
-        <v>4.010798551736438</v>
+        <v>4.050474357916511</v>
       </c>
       <c r="G77" t="n">
-        <v>85.67984325859148</v>
+        <v>92.42714912225368</v>
       </c>
       <c r="H77" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>206.37</v>
+        <v>200.7</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7540343</v>
+        <v>7463988</v>
       </c>
       <c r="E78" t="n">
-        <v>8294881</v>
+        <v>8210886</v>
       </c>
       <c r="F78" t="n">
-        <v>141.2033032416712</v>
+        <v>789.7325732458711</v>
       </c>
       <c r="G78" t="n">
-        <v>288.5652216793503</v>
+        <v>113.268265924258</v>
       </c>
       <c r="H78" t="n">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
       <c r="I78" t="n">
-        <v>655864</v>
+        <v>661140</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29979983</v>
+        <v>29874684</v>
       </c>
       <c r="E79" t="n">
-        <v>29979983</v>
+        <v>29874684</v>
       </c>
       <c r="F79" t="n">
-        <v>109.5645106427837</v>
+        <v>1166.895729417494</v>
       </c>
       <c r="G79" t="n">
-        <v>851.9185174512974</v>
+        <v>979.7715911219916</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>251373</v>
+        <v>249732</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>276206896</v>
+        <v>272179306</v>
       </c>
       <c r="E80" t="n">
-        <v>276206896</v>
+        <v>272179306</v>
       </c>
       <c r="F80" t="n">
-        <v>299.8814868072328</v>
+        <v>148.6100686179311</v>
       </c>
       <c r="G80" t="n">
-        <v>611.262646485225</v>
+        <v>6634.811565289065</v>
       </c>
       <c r="H80" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="I80" t="n">
-        <v>12047910</v>
+        <v>12331648</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>668578616</v>
+        <v>656203888</v>
       </c>
       <c r="E81" t="n">
-        <v>668578616</v>
+        <v>656203888</v>
       </c>
       <c r="F81" t="n">
-        <v>1399346.757670323</v>
+        <v>686887.1982534952</v>
       </c>
       <c r="G81" t="n">
-        <v>1101583.558773353</v>
+        <v>646860.5840496229</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="I81" t="n">
-        <v>504035173</v>
+        <v>523488298</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113424</v>
+        <v>113496</v>
       </c>
       <c r="E82" t="n">
-        <v>113424</v>
+        <v>113496</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1389.69</v>
+        <v>1388.01</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>200971284</v>
+        <v>200881953</v>
       </c>
       <c r="E83" t="n">
-        <v>698192405</v>
+        <v>697882060</v>
       </c>
       <c r="F83" t="n">
-        <v>974.6038783412009</v>
+        <v>210.7609715584011</v>
       </c>
       <c r="G83" t="n">
-        <v>2099.906681148577</v>
+        <v>1703.904250211538</v>
       </c>
       <c r="H83" t="n">
-        <v>0.29</v>
+        <v>1.01</v>
       </c>
       <c r="I83" t="n">
-        <v>38371239</v>
+        <v>38986607</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3385892</v>
+        <v>3357814</v>
       </c>
       <c r="E84" t="n">
-        <v>3385892</v>
+        <v>3357814</v>
       </c>
       <c r="F84" t="n">
-        <v>668.695313434564</v>
+        <v>787.5979007508454</v>
       </c>
       <c r="G84" t="n">
-        <v>9943.654328139004</v>
+        <v>8689.227385137472</v>
       </c>
       <c r="H84" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="I84" t="n">
-        <v>2446406</v>
+        <v>2242857</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>113633286</v>
+        <v>111373393</v>
       </c>
       <c r="E85" t="n">
-        <v>482204613</v>
+        <v>472553172</v>
       </c>
       <c r="F85" t="n">
-        <v>221666.1106297022</v>
+        <v>237417.8428524002</v>
       </c>
       <c r="G85" t="n">
-        <v>252556.8962055923</v>
+        <v>424.1218150879633</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="I85" t="n">
-        <v>15271494</v>
+        <v>15277406</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71826385</v>
+        <v>72692199</v>
       </c>
       <c r="E86" t="n">
-        <v>82411627</v>
+        <v>83405039</v>
       </c>
       <c r="F86" t="n">
-        <v>2878.19294704393</v>
+        <v>2620.990128895497</v>
       </c>
       <c r="G86" t="n">
-        <v>12632.89044955197</v>
+        <v>5092.666862043534</v>
       </c>
       <c r="H86" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>1386408</v>
+        <v>1572034</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3267237</v>
+        <v>3188655</v>
       </c>
       <c r="E87" t="n">
-        <v>16381269</v>
+        <v>15987277</v>
       </c>
       <c r="F87" t="n">
-        <v>4.157541418272937</v>
+        <v>2.864114009380994</v>
       </c>
       <c r="G87" t="n">
-        <v>4.082538768684908</v>
+        <v>5.030600605059333</v>
       </c>
       <c r="H87" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="I87" t="n">
-        <v>31787</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>513164</v>
+        <v>523927</v>
       </c>
       <c r="E88" t="n">
-        <v>8777634</v>
+        <v>8961735</v>
       </c>
       <c r="F88" t="n">
-        <v>261.543453718207</v>
+        <v>40.50253431394355</v>
       </c>
       <c r="G88" t="n">
-        <v>1160.112044922664</v>
+        <v>99.27639445227054</v>
       </c>
       <c r="H88" t="n">
-        <v>2.19</v>
+        <v>3.8</v>
       </c>
       <c r="I88" t="n">
-        <v>148025</v>
+        <v>149807</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5801823</v>
+        <v>5790282</v>
       </c>
       <c r="E89" t="n">
-        <v>7874144</v>
+        <v>7858475</v>
       </c>
       <c r="F89" t="n">
-        <v>113.6051517766916</v>
+        <v>66.40048375129194</v>
       </c>
       <c r="G89" t="n">
-        <v>405.0815128499179</v>
+        <v>283.0297863433877</v>
       </c>
       <c r="H89" t="n">
-        <v>0.35</v>
+        <v>0.14</v>
       </c>
       <c r="I89" t="n">
-        <v>5279438</v>
+        <v>5133892</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40736176</v>
+        <v>41006949</v>
       </c>
       <c r="E90" t="n">
-        <v>47578886</v>
+        <v>47895143</v>
       </c>
       <c r="F90" t="n">
-        <v>297.5237827592047</v>
+        <v>283.8904270802763</v>
       </c>
       <c r="G90" t="n">
-        <v>4.184437567025162</v>
+        <v>16.5914475597205</v>
       </c>
       <c r="H90" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>958557</v>
+        <v>951447</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14561682</v>
+        <v>14496607</v>
       </c>
       <c r="F91" t="n">
-        <v>48.14914477577069</v>
+        <v>184.4200851555698</v>
       </c>
       <c r="G91" t="n">
-        <v>266.1584095110128</v>
+        <v>267.9502605889105</v>
       </c>
       <c r="H91" t="n">
-        <v>2.16</v>
+        <v>1.19</v>
       </c>
       <c r="I91" t="n">
-        <v>226117</v>
+        <v>227159</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35619794</v>
+        <v>35353895</v>
       </c>
       <c r="E92" t="n">
-        <v>35619794</v>
+        <v>35353895</v>
       </c>
       <c r="F92" t="n">
-        <v>629.3602588332857</v>
+        <v>618.7969208284495</v>
       </c>
       <c r="G92" t="n">
-        <v>44.31269088249872</v>
+        <v>12.71487415665201</v>
       </c>
       <c r="H92" t="n">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
       <c r="I92" t="n">
-        <v>856362</v>
+        <v>865387</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17146058</v>
+        <v>17165092</v>
       </c>
       <c r="F93" t="n">
-        <v>250.5382341133711</v>
+        <v>250.3281071983197</v>
       </c>
       <c r="G93" t="n">
-        <v>328.4121645064981</v>
+        <v>315.6705937151193</v>
       </c>
       <c r="H93" t="n">
         <v>0.35</v>
       </c>
       <c r="I93" t="n">
-        <v>192859</v>
+        <v>189215</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>557800</v>
+        <v>560708</v>
       </c>
       <c r="E94" t="n">
-        <v>6765572</v>
+        <v>6800841</v>
       </c>
       <c r="F94" t="n">
-        <v>558.6699524334</v>
+        <v>425.7424077304717</v>
       </c>
       <c r="G94" t="n">
-        <v>747.4365391832035</v>
+        <v>689.7913246329471</v>
       </c>
       <c r="H94" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I94" t="n">
-        <v>2785403</v>
+        <v>2813923</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25673027</v>
+        <v>24918539</v>
       </c>
       <c r="E95" t="n">
-        <v>36280127</v>
+        <v>35213913</v>
       </c>
       <c r="F95" t="n">
-        <v>5.338315348763097</v>
+        <v>5.265027218308332</v>
       </c>
       <c r="G95" t="n">
-        <v>249.2223791514787</v>
+        <v>21.86463749841627</v>
       </c>
       <c r="H95" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="I95" t="n">
-        <v>100838</v>
+        <v>113364</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1376836392</v>
+        <v>1408046743</v>
       </c>
       <c r="E96" t="n">
-        <v>6602212468</v>
+        <v>6751872492</v>
       </c>
       <c r="F96" t="n">
-        <v>234528.3425615449</v>
+        <v>110953.9928417359</v>
       </c>
       <c r="G96" t="n">
-        <v>253597.4116064607</v>
+        <v>208754.5777680337</v>
       </c>
       <c r="H96" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>427927163</v>
+        <v>453605848</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>262442491</v>
+        <v>262927043</v>
       </c>
       <c r="E97" t="n">
-        <v>1132847485</v>
+        <v>1134939079</v>
       </c>
       <c r="F97" t="n">
-        <v>219249.5797381403</v>
+        <v>131342.6401690169</v>
       </c>
       <c r="G97" t="n">
-        <v>602616.6852352702</v>
+        <v>901456.5909006002</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I97" t="n">
-        <v>135499134</v>
+        <v>135807471</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4914223</v>
+        <v>4919717</v>
       </c>
       <c r="E98" t="n">
-        <v>5445938</v>
+        <v>5452026</v>
       </c>
       <c r="F98" t="n">
-        <v>385.3142016269476</v>
+        <v>170.6873111937301</v>
       </c>
       <c r="G98" t="n">
-        <v>535.5768942494902</v>
+        <v>569.3841653711245</v>
       </c>
       <c r="H98" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="I98" t="n">
-        <v>684911</v>
+        <v>699630</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90274</v>
+        <v>91904</v>
       </c>
       <c r="E99" t="n">
-        <v>90274</v>
+        <v>91904</v>
       </c>
       <c r="F99" t="n">
-        <v>4.051964374809382</v>
+        <v>3.330203009822851</v>
       </c>
       <c r="G99" t="n">
-        <v>237.149907467152</v>
+        <v>53.46593833440229</v>
       </c>
       <c r="H99" t="n">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="I99" t="n">
-        <v>1433.84</v>
+        <v>1164.96</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113873099</v>
+        <v>113351629</v>
       </c>
       <c r="E100" t="n">
-        <v>113873099</v>
+        <v>113351629</v>
       </c>
       <c r="F100" t="n">
-        <v>8486.039965086826</v>
+        <v>4930.627712553053</v>
       </c>
       <c r="G100" t="n">
-        <v>16506.65717483933</v>
+        <v>8253.053372394914</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6800216</v>
+        <v>6858614</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3886103</v>
+        <v>3787033</v>
       </c>
       <c r="F101" t="n">
-        <v>452.1782898693485</v>
+        <v>45.44771021347045</v>
       </c>
       <c r="G101" t="n">
-        <v>815.787255477773</v>
+        <v>137.7540063667352</v>
       </c>
       <c r="H101" t="n">
-        <v>0.61</v>
+        <v>3.32</v>
       </c>
       <c r="I101" t="n">
-        <v>354897</v>
+        <v>383671</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2025157917</v>
+        <v>2037856565</v>
       </c>
       <c r="E102" t="n">
-        <v>2025157917</v>
+        <v>2037856565</v>
       </c>
       <c r="F102" t="n">
-        <v>8080056.048301161</v>
+        <v>9366912.401278587</v>
       </c>
       <c r="G102" t="n">
-        <v>4202854.253109481</v>
+        <v>3026061.482998356</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>4370951249</v>
+        <v>8784506664</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5351095</v>
+        <v>5326674</v>
       </c>
       <c r="E103" t="n">
-        <v>5357151</v>
+        <v>5332702</v>
       </c>
       <c r="F103" t="n">
-        <v>236.8888531062773</v>
+        <v>237.0070894735583</v>
       </c>
       <c r="G103" t="n">
-        <v>103.9719171589803</v>
+        <v>111.6269702037202</v>
       </c>
       <c r="H103" t="n">
         <v>0.47</v>
       </c>
       <c r="I103" t="n">
-        <v>146874</v>
+        <v>146189</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2291790</v>
+        <v>2292344</v>
       </c>
       <c r="F104" t="n">
-        <v>5.507870123517769</v>
+        <v>4.081491313835472</v>
       </c>
       <c r="G104" t="n">
-        <v>308.5351566685953</v>
+        <v>210.3369219779161</v>
       </c>
       <c r="H104" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="I104" t="n">
-        <v>37418</v>
+        <v>37331</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4307161</v>
+        <v>4296993</v>
       </c>
       <c r="E105" t="n">
-        <v>5654740</v>
+        <v>5641392</v>
       </c>
       <c r="F105" t="n">
-        <v>2164.205174885787</v>
+        <v>458.7749502975194</v>
       </c>
       <c r="G105" t="n">
-        <v>236.7630705934541</v>
+        <v>265.4763192972713</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>630029</v>
+        <v>623817</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19700079</v>
+        <v>19699616</v>
       </c>
       <c r="F106" t="n">
-        <v>193.4299480166649</v>
+        <v>50.24226397331168</v>
       </c>
       <c r="G106" t="n">
-        <v>749.628690145046</v>
+        <v>867.8590961786028</v>
       </c>
       <c r="H106" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>57597</v>
+        <v>73659</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1445533</v>
+        <v>1490823</v>
       </c>
       <c r="E107" t="n">
-        <v>5388903</v>
+        <v>5557742</v>
       </c>
       <c r="F107" t="n">
-        <v>135.1126072510578</v>
+        <v>157.5771437988692</v>
       </c>
       <c r="G107" t="n">
-        <v>3259.365158942815</v>
+        <v>3287.767694732296</v>
       </c>
       <c r="H107" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="I107" t="n">
-        <v>595751</v>
+        <v>609321</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4189359</v>
+        <v>4235052</v>
       </c>
       <c r="E108" t="n">
-        <v>12066710</v>
+        <v>12198344</v>
       </c>
       <c r="F108" t="n">
-        <v>1012.728137239253</v>
+        <v>1388.08720197292</v>
       </c>
       <c r="G108" t="n">
-        <v>353.5450076346567</v>
+        <v>224.1194235594025</v>
       </c>
       <c r="H108" t="n">
-        <v>0.99</v>
+        <v>1.78</v>
       </c>
       <c r="I108" t="n">
-        <v>530490</v>
+        <v>515733</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79629971</v>
+        <v>79156016</v>
       </c>
       <c r="E109" t="n">
-        <v>101335327</v>
+        <v>100732182</v>
       </c>
       <c r="F109" t="n">
-        <v>4530.466696159086</v>
+        <v>5103.78588764074</v>
       </c>
       <c r="G109" t="n">
-        <v>673.9699601344659</v>
+        <v>500.4228628499395</v>
       </c>
       <c r="H109" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="I109" t="n">
-        <v>6382450</v>
+        <v>6472366</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22805391</v>
+        <v>22318262</v>
       </c>
       <c r="E110" t="n">
-        <v>29583810</v>
+        <v>28951892</v>
       </c>
       <c r="F110" t="n">
-        <v>15751.89125287742</v>
+        <v>19935.57290823076</v>
       </c>
       <c r="G110" t="n">
-        <v>11434.74872320941</v>
+        <v>11108.04240177716</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I110" t="n">
-        <v>431693</v>
+        <v>188516</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>702951</v>
+        <v>626564</v>
       </c>
       <c r="E111" t="n">
-        <v>702951</v>
+        <v>626564</v>
       </c>
       <c r="F111" t="n">
-        <v>8.359964716053247</v>
+        <v>8.196132009037273</v>
       </c>
       <c r="G111" t="n">
-        <v>4.294749133660365</v>
+        <v>28.26338639012016</v>
       </c>
       <c r="H111" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I111" t="n">
-        <v>73186</v>
+        <v>72354</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14179415</v>
+        <v>13526828</v>
       </c>
       <c r="E112" t="n">
-        <v>14179415</v>
+        <v>13526828</v>
       </c>
       <c r="F112" t="n">
-        <v>2152.946453899488</v>
+        <v>1933.581967199804</v>
       </c>
       <c r="G112" t="n">
-        <v>4104.405204226174</v>
+        <v>3240.37872547541</v>
       </c>
       <c r="H112" t="n">
         <v>0.4</v>
       </c>
       <c r="I112" t="n">
-        <v>5370989</v>
+        <v>5406337</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98484862</v>
+        <v>98359056</v>
       </c>
       <c r="E113" t="n">
-        <v>121822249</v>
+        <v>121666632</v>
       </c>
       <c r="F113" t="n">
-        <v>735.7260336294833</v>
+        <v>146.209030460725</v>
       </c>
       <c r="G113" t="n">
-        <v>1259.561674708553</v>
+        <v>120.4187948134149</v>
       </c>
       <c r="H113" t="n">
-        <v>0.02</v>
+        <v>0.59</v>
       </c>
       <c r="I113" t="n">
-        <v>1002701</v>
+        <v>1000719</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>891575</v>
+        <v>885713</v>
       </c>
       <c r="F114" t="n">
-        <v>570.2228865681789</v>
+        <v>217.175716767484</v>
       </c>
       <c r="G114" t="n">
-        <v>197.387721349624</v>
+        <v>238.8184102333982</v>
       </c>
       <c r="H114" t="n">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="I114" t="n">
-        <v>41150</v>
+        <v>42221</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2722013</v>
+        <v>2707283</v>
       </c>
       <c r="F115" t="n">
-        <v>861.767434051726</v>
+        <v>358.3019637867419</v>
       </c>
       <c r="G115" t="n">
-        <v>1132.927152727409</v>
+        <v>1658.73128766888</v>
       </c>
       <c r="H115" t="n">
-        <v>2.43</v>
+        <v>1.74</v>
       </c>
       <c r="I115" t="n">
-        <v>81117</v>
+        <v>80444</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11206591</v>
+        <v>11024585</v>
       </c>
       <c r="E116" t="n">
-        <v>16480280</v>
+        <v>16212623</v>
       </c>
       <c r="F116" t="n">
-        <v>2139.208589103022</v>
+        <v>3525.069940707769</v>
       </c>
       <c r="G116" t="n">
-        <v>1971.538941157072</v>
+        <v>5126.197334669929</v>
       </c>
       <c r="H116" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="I116" t="n">
-        <v>416326</v>
+        <v>484841</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3192250</v>
+        <v>3194788</v>
       </c>
       <c r="F117" t="n">
-        <v>3.910639759146699</v>
+        <v>4.043754669973007</v>
       </c>
       <c r="G117" t="n">
-        <v>212.2983026847354</v>
+        <v>212.2536890399932</v>
       </c>
       <c r="H117" t="n">
         <v>0.58</v>
       </c>
       <c r="I117" t="n">
-        <v>34203</v>
+        <v>35130</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1162083</v>
+        <v>1111233</v>
       </c>
       <c r="F118" t="n">
-        <v>5.241919297859449</v>
+        <v>3.19501720842698</v>
       </c>
       <c r="G118" t="n">
-        <v>30.88459088851101</v>
+        <v>30.88592323934238</v>
       </c>
       <c r="H118" t="n">
         <v>0.31</v>
       </c>
       <c r="I118" t="n">
-        <v>5508.67</v>
+        <v>5708.73</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5090844</v>
+        <v>5052189</v>
       </c>
       <c r="E119" t="n">
-        <v>7122829</v>
+        <v>7068744</v>
       </c>
       <c r="F119" t="n">
-        <v>850.42253855633</v>
+        <v>1413.16502355029</v>
       </c>
       <c r="G119" t="n">
-        <v>1308.222124170214</v>
+        <v>1799.365634742912</v>
       </c>
       <c r="H119" t="n">
         <v>0.22</v>
       </c>
       <c r="I119" t="n">
-        <v>75566</v>
+        <v>69595</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10200644</v>
+        <v>10073626</v>
       </c>
       <c r="E120" t="n">
-        <v>28097237</v>
+        <v>27747372</v>
       </c>
       <c r="F120" t="n">
-        <v>64.68829588280711</v>
+        <v>255.5773100876418</v>
       </c>
       <c r="G120" t="n">
-        <v>121.449083577551</v>
+        <v>39.81103623609062</v>
       </c>
       <c r="H120" t="n">
-        <v>0.72</v>
+        <v>1.56</v>
       </c>
       <c r="I120" t="n">
-        <v>332585</v>
+        <v>331277</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50609048</v>
+        <v>50487542</v>
       </c>
       <c r="E121" t="n">
-        <v>128929442</v>
+        <v>128619899</v>
       </c>
       <c r="F121" t="n">
-        <v>1873.223913858683</v>
+        <v>1907.004653560454</v>
       </c>
       <c r="G121" t="n">
-        <v>11006.12582884335</v>
+        <v>10730.72119620946</v>
       </c>
       <c r="H121" t="n">
         <v>0.16</v>
       </c>
       <c r="I121" t="n">
-        <v>2160768</v>
+        <v>2191819</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14201645</v>
+        <v>14146094</v>
       </c>
       <c r="E122" t="n">
-        <v>68780835</v>
+        <v>68511791</v>
       </c>
       <c r="F122" t="n">
-        <v>991.8422834110952</v>
+        <v>2820.926416817559</v>
       </c>
       <c r="G122" t="n">
-        <v>1200.756500874959</v>
+        <v>1746.830148969716</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I122" t="n">
-        <v>5147501</v>
+        <v>5331597</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>627891</v>
+        <v>635575</v>
       </c>
       <c r="F123" t="n">
-        <v>5.42740289891442</v>
+        <v>14.26983753816708</v>
       </c>
       <c r="G123" t="n">
-        <v>1807.315970732726</v>
+        <v>1802.861971445759</v>
       </c>
       <c r="H123" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="I123" t="n">
-        <v>8159.7</v>
+        <v>7912.15</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4580165</v>
+        <v>4522678</v>
       </c>
       <c r="E124" t="n">
-        <v>10440283</v>
+        <v>10309245</v>
       </c>
       <c r="F124" t="n">
-        <v>1414.699218494106</v>
+        <v>2791.139507453132</v>
       </c>
       <c r="G124" t="n">
-        <v>1258.847383525948</v>
+        <v>1816.369167533553</v>
       </c>
       <c r="H124" t="n">
-        <v>0.86</v>
+        <v>1.83</v>
       </c>
       <c r="I124" t="n">
-        <v>66315</v>
+        <v>65431</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1860530458</v>
+        <v>1860376759</v>
       </c>
       <c r="F125" t="n">
-        <v>76456.05096314159</v>
+        <v>75138.38282638324</v>
       </c>
       <c r="G125" t="n">
-        <v>75247.5177799853</v>
+        <v>70605.97739995687</v>
       </c>
       <c r="H125" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="I125" t="n">
-        <v>29631586</v>
+        <v>29999326</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9616966</v>
+        <v>9333514</v>
       </c>
       <c r="E126" t="n">
-        <v>34990228</v>
+        <v>33958919</v>
       </c>
       <c r="F126" t="n">
-        <v>2139.589531792515</v>
+        <v>5.380910723566004</v>
       </c>
       <c r="G126" t="n">
-        <v>4.042296796282652</v>
+        <v>173.2341466595395</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I126" t="n">
-        <v>116554</v>
+        <v>118618</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>622503</v>
+        <v>626088</v>
       </c>
       <c r="F127" t="n">
-        <v>23.49080709182632</v>
+        <v>23.48570244013689</v>
       </c>
       <c r="G127" t="n">
-        <v>5.381686875136923</v>
+        <v>5.437732962729699</v>
       </c>
       <c r="H127" t="n">
         <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>936.79</v>
+        <v>887.5700000000001</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12336569</v>
+        <v>12307991</v>
       </c>
       <c r="E128" t="n">
-        <v>17886245</v>
+        <v>17844811</v>
       </c>
       <c r="F128" t="n">
-        <v>3346.620548048038</v>
+        <v>3723.424508364209</v>
       </c>
       <c r="G128" t="n">
-        <v>4023.440661185557</v>
+        <v>3674.735769645325</v>
       </c>
       <c r="H128" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I128" t="n">
-        <v>2012890</v>
+        <v>2038048</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>30563955</v>
+        <v>29913660</v>
       </c>
       <c r="E129" t="n">
-        <v>95166349</v>
+        <v>93141539</v>
       </c>
       <c r="F129" t="n">
-        <v>6420.946816016482</v>
+        <v>9533.409058571709</v>
       </c>
       <c r="G129" t="n">
-        <v>4539.092682913828</v>
+        <v>8162.210072248923</v>
       </c>
       <c r="H129" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I129" t="n">
-        <v>10202903</v>
+        <v>10317572</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1920787</v>
+        <v>1928933</v>
       </c>
       <c r="E130" t="n">
-        <v>13773773</v>
+        <v>13832189</v>
       </c>
       <c r="F130" t="n">
-        <v>3.955220506712259</v>
+        <v>26.66891870472704</v>
       </c>
       <c r="G130" t="n">
-        <v>2.798491765415585</v>
+        <v>12.52934739752489</v>
       </c>
       <c r="H130" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="I130" t="n">
-        <v>2016889</v>
+        <v>2034602</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8117074</v>
+        <v>8437869</v>
       </c>
       <c r="F131" t="n">
-        <v>198.6549398886727</v>
+        <v>330.9077512774649</v>
       </c>
       <c r="G131" t="n">
-        <v>71.40902498234701</v>
+        <v>103.7104883772088</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I131" t="n">
-        <v>545999</v>
+        <v>385639</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>196770073</v>
+        <v>194658457</v>
       </c>
       <c r="E132" t="n">
-        <v>1114233055</v>
+        <v>1102275793</v>
       </c>
       <c r="F132" t="n">
-        <v>262582.6121877526</v>
+        <v>274438.3350464606</v>
       </c>
       <c r="G132" t="n">
-        <v>379147.2115066525</v>
+        <v>527641.8695828171</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>82895118</v>
+        <v>83455124</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1041376</v>
+        <v>1039980</v>
       </c>
       <c r="E133" t="n">
-        <v>1041376</v>
+        <v>1039980</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5873.23</v>
+        <v>5682.04</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>494060</v>
+        <v>491293</v>
       </c>
       <c r="E134" t="n">
-        <v>1662938</v>
+        <v>1653622</v>
       </c>
       <c r="F134" t="n">
-        <v>429.7874652563728</v>
+        <v>219.3268574888853</v>
       </c>
       <c r="G134" t="n">
-        <v>223.8027412179777</v>
+        <v>141.1801843626512</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6</v>
+        <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>630519</v>
+        <v>635898</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15212127</v>
+        <v>15250560</v>
       </c>
       <c r="F135" t="n">
-        <v>5.384456330773559</v>
+        <v>5.383293403199739</v>
       </c>
       <c r="G135" t="n">
-        <v>4.008376089428251</v>
+        <v>4.00751036579818</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>203.73</v>
+        <v>204.34</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>126229997</v>
+        <v>122834506</v>
       </c>
       <c r="E136" t="n">
-        <v>935037017</v>
+        <v>909885229</v>
       </c>
       <c r="F136" t="n">
-        <v>62.92035248596964</v>
+        <v>148.7579698388407</v>
       </c>
       <c r="G136" t="n">
-        <v>777.6634368557621</v>
+        <v>991.0042578663262</v>
       </c>
       <c r="H136" t="n">
-        <v>1.88</v>
+        <v>1.19</v>
       </c>
       <c r="I136" t="n">
-        <v>21099321</v>
+        <v>24695473</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31099972</v>
+        <v>30373914</v>
       </c>
       <c r="E137" t="n">
-        <v>147607783</v>
+        <v>144109270</v>
       </c>
       <c r="F137" t="n">
-        <v>888.3955523591134</v>
+        <v>892.527594297845</v>
       </c>
       <c r="G137" t="n">
-        <v>1527.574492259817</v>
+        <v>988.1814694532562</v>
       </c>
       <c r="H137" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I137" t="n">
-        <v>829253</v>
+        <v>808984</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8610337</v>
+        <v>8643390</v>
       </c>
       <c r="E138" t="n">
-        <v>11534981</v>
+        <v>11579260</v>
       </c>
       <c r="F138" t="n">
-        <v>78.74895295687811</v>
+        <v>55.11702578046409</v>
       </c>
       <c r="G138" t="n">
-        <v>161.1977009897013</v>
+        <v>7.135963113481457</v>
       </c>
       <c r="H138" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>37464</v>
+        <v>37723</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1208090</v>
+        <v>1193874</v>
       </c>
       <c r="F139" t="n">
-        <v>126.4794812575872</v>
+        <v>3.927347661816955</v>
       </c>
       <c r="G139" t="n">
-        <v>5.300257251551223</v>
+        <v>4.16388937479096</v>
       </c>
       <c r="H139" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="I139" t="n">
-        <v>4549.46</v>
+        <v>4893.91</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2494626</v>
+        <v>2509686</v>
       </c>
       <c r="E140" t="n">
-        <v>2494626</v>
+        <v>2509686</v>
       </c>
       <c r="F140" t="n">
-        <v>222.7932323857213</v>
+        <v>291.8453719922753</v>
       </c>
       <c r="G140" t="n">
-        <v>490.3549671368077</v>
+        <v>1083.408305868336</v>
       </c>
       <c r="H140" t="n">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="I140" t="n">
-        <v>306883</v>
+        <v>317399</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>35123355</v>
+        <v>35545207</v>
       </c>
       <c r="E141" t="n">
-        <v>35123355</v>
+        <v>35545207</v>
       </c>
       <c r="F141" t="n">
-        <v>241.9087081825631</v>
+        <v>935.0272114897168</v>
       </c>
       <c r="G141" t="n">
-        <v>1019.909472755101</v>
+        <v>1213.810258242974</v>
       </c>
       <c r="H141" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="I141" t="n">
-        <v>958448</v>
+        <v>971356</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6381043</v>
+        <v>6419071</v>
       </c>
       <c r="E142" t="n">
-        <v>6739096</v>
+        <v>6779258</v>
       </c>
       <c r="F142" t="n">
-        <v>146.3988747027369</v>
+        <v>554.9393961016112</v>
       </c>
       <c r="G142" t="n">
-        <v>13.95246189038341</v>
+        <v>228.3890655150553</v>
       </c>
       <c r="H142" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="I142" t="n">
-        <v>30121</v>
+        <v>28248</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3450413</v>
+        <v>3424859</v>
       </c>
       <c r="E143" t="n">
-        <v>8057290</v>
+        <v>7997616</v>
       </c>
       <c r="F143" t="n">
-        <v>1312.600691836018</v>
+        <v>1383.052734417105</v>
       </c>
       <c r="G143" t="n">
-        <v>1160.45171526853</v>
+        <v>895.9886596553446</v>
       </c>
       <c r="H143" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
       <c r="I143" t="n">
-        <v>630406</v>
+        <v>626483</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1543692</v>
+        <v>1532972</v>
       </c>
       <c r="E144" t="n">
-        <v>11988491</v>
+        <v>11905236</v>
       </c>
       <c r="F144" t="n">
-        <v>300.0692487520014</v>
+        <v>200.718157017742</v>
       </c>
       <c r="G144" t="n">
-        <v>16.26074353585903</v>
+        <v>1517.013766370632</v>
       </c>
       <c r="H144" t="n">
-        <v>0.11</v>
+        <v>2.08</v>
       </c>
       <c r="I144" t="n">
-        <v>516563</v>
+        <v>465473</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>327759833</v>
+        <v>325155934</v>
       </c>
       <c r="E145" t="n">
-        <v>2948730692</v>
+        <v>2925304404</v>
       </c>
       <c r="F145" t="n">
-        <v>554097.5834458688</v>
+        <v>573758.7054617564</v>
       </c>
       <c r="G145" t="n">
-        <v>687841.7002266601</v>
+        <v>694253.4440324578</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>59869338</v>
+        <v>62234961</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>247582</v>
+        <v>254119</v>
       </c>
       <c r="E146" t="n">
-        <v>2185094</v>
+        <v>2242790</v>
       </c>
       <c r="F146" t="n">
-        <v>5.345239513586828</v>
+        <v>4.258645355318638</v>
       </c>
       <c r="G146" t="n">
-        <v>13.9872853285395</v>
+        <v>5.813417521577088</v>
       </c>
       <c r="H146" t="n">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
       <c r="I146" t="n">
-        <v>70354</v>
+        <v>68333</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>628146</v>
+        <v>628322</v>
       </c>
       <c r="F147" t="n">
-        <v>552.4740481958227</v>
+        <v>552.2295734283617</v>
       </c>
       <c r="G147" t="n">
-        <v>483.5704825471007</v>
+        <v>483.4629511574606</v>
       </c>
       <c r="H147" t="n">
         <v>0.49</v>
       </c>
       <c r="I147" t="n">
-        <v>12460.25</v>
+        <v>12467.19</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4803447</v>
+        <v>4771256</v>
       </c>
       <c r="E148" t="n">
-        <v>16970566</v>
+        <v>16856835</v>
       </c>
       <c r="F148" t="n">
-        <v>1566.835675878001</v>
+        <v>1763.921700871932</v>
       </c>
       <c r="G148" t="n">
-        <v>1617.780722859491</v>
+        <v>2091.314406969243</v>
       </c>
       <c r="H148" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>125063</v>
+        <v>132755</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9547988</v>
+        <v>9513171</v>
       </c>
       <c r="E149" t="n">
-        <v>44255471</v>
+        <v>44094096</v>
       </c>
       <c r="F149" t="n">
-        <v>1738.584236166595</v>
+        <v>2293.893226842235</v>
       </c>
       <c r="G149" t="n">
-        <v>3755.972812334738</v>
+        <v>4337.229458906323</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="I149" t="n">
-        <v>133504</v>
+        <v>129922</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46285646</v>
+        <v>47329740</v>
       </c>
       <c r="E150" t="n">
-        <v>267974762</v>
+        <v>274019639</v>
       </c>
       <c r="F150" t="n">
-        <v>53023.10571231852</v>
+        <v>38957.4900730233</v>
       </c>
       <c r="G150" t="n">
-        <v>44304.76173904103</v>
+        <v>146522.1084478253</v>
       </c>
       <c r="H150" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>49599069</v>
+        <v>51345064</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>81821</v>
+        <v>79924</v>
       </c>
       <c r="E151" t="n">
-        <v>81821</v>
+        <v>79924</v>
       </c>
       <c r="F151" t="n">
-        <v>3.050615224841194</v>
+        <v>18.08003728210153</v>
       </c>
       <c r="G151" t="n">
-        <v>8.470531283933306</v>
+        <v>9.090811873505455</v>
       </c>
       <c r="H151" t="n">
         <v>0.98</v>
       </c>
       <c r="I151" t="n">
-        <v>21899</v>
+        <v>21998</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4278585</v>
+        <v>4264967</v>
       </c>
       <c r="F152" t="n">
-        <v>249.9516041686346</v>
+        <v>360.1387972175073</v>
       </c>
       <c r="G152" t="n">
-        <v>366.4826230398991</v>
+        <v>248.4961581064814</v>
       </c>
       <c r="H152" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I152" t="n">
-        <v>269507</v>
+        <v>297961</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39506272</v>
+        <v>39410256</v>
       </c>
       <c r="E153" t="n">
-        <v>54563787</v>
+        <v>54431176</v>
       </c>
       <c r="F153" t="n">
-        <v>586.034174730707</v>
+        <v>4773.197624274871</v>
       </c>
       <c r="G153" t="n">
-        <v>1582.224962903651</v>
+        <v>7260.26323547078</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="I153" t="n">
-        <v>320284</v>
+        <v>317926</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2114032</v>
+        <v>2071093</v>
       </c>
       <c r="E154" t="n">
-        <v>8633161</v>
+        <v>8457808</v>
       </c>
       <c r="F154" t="n">
-        <v>1572.322584383712</v>
+        <v>348.3620933135392</v>
       </c>
       <c r="G154" t="n">
-        <v>784.4154296133465</v>
+        <v>739.2703244022176</v>
       </c>
       <c r="H154" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>460330</v>
+        <v>232839</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7466978</v>
+        <v>7397267</v>
       </c>
       <c r="E155" t="n">
-        <v>7522482</v>
+        <v>7452253</v>
       </c>
       <c r="F155" t="n">
-        <v>11598.33270864379</v>
+        <v>6110.87023376399</v>
       </c>
       <c r="G155" t="n">
-        <v>1855.127688483622</v>
+        <v>1473.747994341919</v>
       </c>
       <c r="H155" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I155" t="n">
-        <v>5590636</v>
+        <v>5746736</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>509386</v>
+        <v>504977</v>
       </c>
       <c r="E156" t="n">
-        <v>509386</v>
+        <v>504977</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>12742.45</v>
+        <v>11217.2</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13724717</v>
+        <v>13675599</v>
       </c>
       <c r="E157" t="n">
-        <v>13771424</v>
+        <v>13722138</v>
       </c>
       <c r="F157" t="n">
-        <v>1236.457506540147</v>
+        <v>2589.603229477952</v>
       </c>
       <c r="G157" t="n">
-        <v>1571.295485062107</v>
+        <v>2632.128503514838</v>
       </c>
       <c r="H157" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I157" t="n">
-        <v>6790074</v>
+        <v>6069500</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42633941</v>
+        <v>42596833</v>
       </c>
       <c r="E158" t="n">
-        <v>72382513</v>
+        <v>72319513</v>
       </c>
       <c r="F158" t="n">
-        <v>347.3598707963177</v>
+        <v>310.6083253803881</v>
       </c>
       <c r="G158" t="n">
-        <v>506.366492264663</v>
+        <v>253.423788785474</v>
       </c>
       <c r="H158" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I158" t="n">
-        <v>1085918</v>
+        <v>1129456</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19664451</v>
+        <v>19669635</v>
       </c>
       <c r="E159" t="n">
-        <v>58954259</v>
+        <v>58970022</v>
       </c>
       <c r="F159" t="n">
-        <v>5706.631201976333</v>
+        <v>3296.664637157865</v>
       </c>
       <c r="G159" t="n">
-        <v>3102.41139318363</v>
+        <v>1935.282680801442</v>
       </c>
       <c r="H159" t="n">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="I159" t="n">
-        <v>4056635</v>
+        <v>4351277</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101339174</v>
+        <v>100851818</v>
       </c>
       <c r="E160" t="n">
-        <v>107732701</v>
+        <v>107214597</v>
       </c>
       <c r="F160" t="n">
-        <v>858.2329285658598</v>
+        <v>452.460302490373</v>
       </c>
       <c r="G160" t="n">
-        <v>1485.596911071578</v>
+        <v>1680.835364783787</v>
       </c>
       <c r="H160" t="n">
-        <v>1.85</v>
+        <v>1.06</v>
       </c>
       <c r="I160" t="n">
-        <v>1717469</v>
+        <v>1801777</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10443749</v>
+        <v>10443024</v>
       </c>
       <c r="E161" t="n">
-        <v>45463024</v>
+        <v>45348202</v>
       </c>
       <c r="F161" t="n">
-        <v>3342.979371653798</v>
+        <v>3365.732595532698</v>
       </c>
       <c r="G161" t="n">
-        <v>6507.267898636739</v>
+        <v>4510.344952185468</v>
       </c>
       <c r="H161" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="I161" t="n">
-        <v>120124</v>
+        <v>122365</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15656341</v>
+        <v>15655340</v>
       </c>
       <c r="E162" t="n">
-        <v>95962864</v>
+        <v>95956726</v>
       </c>
       <c r="F162" t="n">
-        <v>2043.98390775409</v>
+        <v>1217.769439965186</v>
       </c>
       <c r="G162" t="n">
-        <v>1399.279628717154</v>
+        <v>2650.960636342722</v>
       </c>
       <c r="H162" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I162" t="n">
-        <v>8878047</v>
+        <v>12100419</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1475316</v>
+        <v>1480938</v>
       </c>
       <c r="E163" t="n">
-        <v>1516815</v>
+        <v>1522595</v>
       </c>
       <c r="F163" t="n">
-        <v>102.3784390129983</v>
+        <v>102.3736815316453</v>
       </c>
       <c r="G163" t="n">
-        <v>71.22405669906678</v>
+        <v>71.20866333586345</v>
       </c>
       <c r="H163" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="I163" t="n">
-        <v>148580</v>
+        <v>150468</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>91768</v>
+        <v>76768</v>
       </c>
       <c r="E164" t="n">
-        <v>260324</v>
+        <v>217774</v>
       </c>
       <c r="F164" t="n">
-        <v>5.412725713843811</v>
+        <v>2.896291896722952</v>
       </c>
       <c r="G164" t="n">
-        <v>99.09170070152143</v>
+        <v>5.51696580868498</v>
       </c>
       <c r="H164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I164" t="n">
-        <v>229.11</v>
+        <v>383.42</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>48956813</v>
+        <v>47458332</v>
       </c>
       <c r="E165" t="n">
-        <v>210900597</v>
+        <v>204445306</v>
       </c>
       <c r="F165" t="n">
-        <v>4069.499316266846</v>
+        <v>3550.01850886044</v>
       </c>
       <c r="G165" t="n">
-        <v>5414.404411075747</v>
+        <v>4882.641322307307</v>
       </c>
       <c r="H165" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I165" t="n">
-        <v>11683345</v>
+        <v>11776614</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7591856</v>
+        <v>7610854</v>
       </c>
       <c r="F166" t="n">
-        <v>106.2884693188279</v>
+        <v>210.1056928226243</v>
       </c>
       <c r="G166" t="n">
-        <v>550.2562046190902</v>
+        <v>363.2966008823758</v>
       </c>
       <c r="H166" t="n">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="I166" t="n">
-        <v>6888244</v>
+        <v>6938728</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>669030</v>
+        <v>665880</v>
       </c>
       <c r="E167" t="n">
-        <v>2414836</v>
+        <v>2403466</v>
       </c>
       <c r="F167" t="n">
-        <v>50.37230804908572</v>
+        <v>50.3572143897855</v>
       </c>
       <c r="G167" t="n">
-        <v>10.97732935551364</v>
+        <v>10.97494676659512</v>
       </c>
       <c r="H167" t="n">
         <v>1.24</v>
       </c>
       <c r="I167" t="n">
-        <v>370911</v>
+        <v>374256</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1616978</v>
+        <v>1686403</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>592.4980600894546</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>13.30969831789406</v>
       </c>
       <c r="H168" t="n">
-        <v>11.4</v>
+        <v>1.2</v>
       </c>
       <c r="I168" t="n">
-        <v>86488</v>
+        <v>89844</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12663613</v>
+        <v>12593829</v>
       </c>
       <c r="E169" t="n">
-        <v>12663613</v>
+        <v>12593829</v>
       </c>
       <c r="F169" t="n">
-        <v>481.1956075617298</v>
+        <v>136.9133891559831</v>
       </c>
       <c r="G169" t="n">
-        <v>10.18468974995459</v>
+        <v>434.1561712029007</v>
       </c>
       <c r="H169" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="I169" t="n">
-        <v>4034259</v>
+        <v>3751078</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2337725</v>
+        <v>2380612</v>
       </c>
       <c r="E170" t="n">
-        <v>8487092</v>
+        <v>8641632</v>
       </c>
       <c r="F170" t="n">
-        <v>227.9799266505258</v>
+        <v>250.8937337820076</v>
       </c>
       <c r="G170" t="n">
-        <v>218.6928987591695</v>
+        <v>154.8733044608518</v>
       </c>
       <c r="H170" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I170" t="n">
-        <v>220481</v>
+        <v>226066</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8881164</v>
+        <v>8877520</v>
       </c>
       <c r="E171" t="n">
-        <v>19697158</v>
+        <v>19689077</v>
       </c>
       <c r="F171" t="n">
-        <v>1064.281585641951</v>
+        <v>1642.978691117033</v>
       </c>
       <c r="G171" t="n">
-        <v>1760.871899804321</v>
+        <v>1519.761504729245</v>
       </c>
       <c r="H171" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I171" t="n">
-        <v>238453</v>
+        <v>334157</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1027294</v>
+        <v>1022555</v>
       </c>
       <c r="E172" t="n">
-        <v>3002602</v>
+        <v>2988750</v>
       </c>
       <c r="F172" t="n">
-        <v>150.4763926440091</v>
+        <v>111.5792433657232</v>
       </c>
       <c r="G172" t="n">
-        <v>160.160626516024</v>
+        <v>147.7214848771899</v>
       </c>
       <c r="H172" t="n">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="I172" t="n">
-        <v>19480.92</v>
+        <v>9455.16</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>18659276</v>
+        <v>18452422</v>
       </c>
       <c r="E173" t="n">
-        <v>74637103</v>
+        <v>73809686</v>
       </c>
       <c r="F173" t="n">
-        <v>11913.7623501879</v>
+        <v>76.84592177694887</v>
       </c>
       <c r="G173" t="n">
-        <v>17200.25828646806</v>
+        <v>6529.948526319798</v>
       </c>
       <c r="H173" t="n">
-        <v>0.11</v>
+        <v>1.17</v>
       </c>
       <c r="I173" t="n">
-        <v>2423720</v>
+        <v>2689144</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4618210</v>
+        <v>4591877</v>
       </c>
       <c r="E174" t="n">
-        <v>4618210</v>
+        <v>4591877</v>
       </c>
       <c r="F174" t="n">
-        <v>602.7393252169879</v>
+        <v>1332.688162433382</v>
       </c>
       <c r="G174" t="n">
-        <v>1589.646348932926</v>
+        <v>450.7362244729467</v>
       </c>
       <c r="H174" t="n">
-        <v>0.75</v>
+        <v>1.04</v>
       </c>
       <c r="I174" t="n">
-        <v>2891036</v>
+        <v>2883351</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>294910335</v>
+        <v>294970327</v>
       </c>
       <c r="E175" t="n">
-        <v>294910335</v>
+        <v>294970327</v>
       </c>
       <c r="F175" t="n">
-        <v>11350.17660931676</v>
+        <v>1391.476955322635</v>
       </c>
       <c r="G175" t="n">
-        <v>2584.987396118707</v>
+        <v>4773.475886007122</v>
       </c>
       <c r="H175" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="I175" t="n">
-        <v>19440060</v>
+        <v>19268140</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12529713</v>
+        <v>12421807</v>
       </c>
       <c r="E176" t="n">
-        <v>39630058</v>
+        <v>39288763</v>
       </c>
       <c r="F176" t="n">
-        <v>306.865499671011</v>
+        <v>2688.261491875987</v>
       </c>
       <c r="G176" t="n">
-        <v>860.5377925314979</v>
+        <v>3095.632330919393</v>
       </c>
       <c r="H176" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="I176" t="n">
-        <v>939660</v>
+        <v>980225</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24972</v>
+        <v>24817</v>
       </c>
       <c r="E177" t="n">
-        <v>196401</v>
+        <v>195181</v>
       </c>
       <c r="F177" t="n">
-        <v>113.3235246069656</v>
+        <v>65.14276075128856</v>
       </c>
       <c r="G177" t="n">
-        <v>1091.95527233997</v>
+        <v>819.0511829365494</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>46801</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8583543</v>
+        <v>8577797</v>
       </c>
       <c r="E178" t="n">
-        <v>8583543</v>
+        <v>8577797</v>
       </c>
       <c r="F178" t="n">
-        <v>1804.577055240708</v>
+        <v>1727.524096682186</v>
       </c>
       <c r="G178" t="n">
-        <v>1715.649706483909</v>
+        <v>2029.011537063914</v>
       </c>
       <c r="H178" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I178" t="n">
-        <v>3928400</v>
+        <v>3929252</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1104524</v>
+        <v>1106391</v>
       </c>
       <c r="E179" t="n">
-        <v>2515662</v>
+        <v>2519913</v>
       </c>
       <c r="F179" t="n">
-        <v>22.95143600975448</v>
+        <v>22.94632074844397</v>
       </c>
       <c r="G179" t="n">
-        <v>266.9235469926735</v>
+        <v>266.8640568722202</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>604.84</v>
+        <v>604.34</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9705276</v>
+        <v>9383140</v>
       </c>
       <c r="E180" t="n">
-        <v>9705276</v>
+        <v>9383140</v>
       </c>
       <c r="F180" t="n">
-        <v>1547.393095424648</v>
+        <v>3564.419129822432</v>
       </c>
       <c r="G180" t="n">
-        <v>17713.6853317208</v>
+        <v>4653.204270463878</v>
       </c>
       <c r="H180" t="n">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="I180" t="n">
-        <v>2207891</v>
+        <v>2207039</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18197937</v>
+        <v>18057981</v>
       </c>
       <c r="E181" t="n">
-        <v>18197937</v>
+        <v>18057981</v>
       </c>
       <c r="F181" t="n">
-        <v>1491.632696754632</v>
+        <v>1865.783268826562</v>
       </c>
       <c r="G181" t="n">
-        <v>8045.811510928479</v>
+        <v>3141.277963001479</v>
       </c>
       <c r="H181" t="n">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>6539466</v>
+        <v>6845541</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31352307</v>
+        <v>31296431</v>
       </c>
       <c r="E182" t="n">
-        <v>86842780</v>
+        <v>86688009</v>
       </c>
       <c r="F182" t="n">
-        <v>4000.105374481896</v>
+        <v>2696.372597649784</v>
       </c>
       <c r="G182" t="n">
-        <v>3700.521863728056</v>
+        <v>3269.545962112471</v>
       </c>
       <c r="H182" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I182" t="n">
-        <v>12027144</v>
+        <v>12277786</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>30835697</v>
+        <v>31979502</v>
       </c>
       <c r="E183" t="n">
-        <v>77752824</v>
+        <v>80636952</v>
       </c>
       <c r="F183" t="n">
-        <v>733.2220796211442</v>
+        <v>2397.768464478944</v>
       </c>
       <c r="G183" t="n">
-        <v>193.7340488634152</v>
+        <v>2596.616844970457</v>
       </c>
       <c r="H183" t="n">
-        <v>2.84</v>
+        <v>0.97</v>
       </c>
       <c r="I183" t="n">
-        <v>5418686</v>
+        <v>5898652</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>306709164</v>
+        <v>305238637</v>
       </c>
       <c r="E184" t="n">
-        <v>311505665</v>
+        <v>310012782</v>
       </c>
       <c r="F184" t="n">
-        <v>11881.25510890225</v>
+        <v>16366.0890371588</v>
       </c>
       <c r="G184" t="n">
-        <v>21123.50982645732</v>
+        <v>19419.0826731954</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>27042663</v>
+        <v>24308058</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>395718</v>
+        <v>399336</v>
       </c>
       <c r="F185" t="n">
-        <v>3.801973655431304</v>
+        <v>23.47455701303914</v>
       </c>
       <c r="G185" t="n">
-        <v>5.352899404112239</v>
+        <v>43.53723160033898</v>
       </c>
       <c r="H185" t="n">
-        <v>2.74</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>68105</v>
+        <v>69212</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27256754</v>
+        <v>27652179</v>
       </c>
       <c r="E186" t="n">
-        <v>64658075</v>
+        <v>65596096</v>
       </c>
       <c r="F186" t="n">
-        <v>2506.68334634027</v>
+        <v>1997.467244306838</v>
       </c>
       <c r="G186" t="n">
-        <v>1056.612684364401</v>
+        <v>2516.818644368298</v>
       </c>
       <c r="H186" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I186" t="n">
-        <v>581350</v>
+        <v>625906</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22260918</v>
+        <v>22250025</v>
       </c>
       <c r="F187" t="n">
-        <v>4.095484352561481</v>
+        <v>4.2032844724733</v>
       </c>
       <c r="G187" t="n">
-        <v>220.1065661471825</v>
+        <v>3.983190801536523</v>
       </c>
       <c r="H187" t="n">
         <v>0.46</v>
       </c>
       <c r="I187" t="n">
-        <v>1036.49</v>
+        <v>1035.9</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12636933</v>
+        <v>12434373</v>
       </c>
       <c r="E188" t="n">
-        <v>19236262</v>
+        <v>18927920</v>
       </c>
       <c r="F188" t="n">
-        <v>2629.714189564709</v>
+        <v>1311.479076123459</v>
       </c>
       <c r="G188" t="n">
-        <v>3771.223933537076</v>
+        <v>2407.199170140436</v>
       </c>
       <c r="H188" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="I188" t="n">
-        <v>662055</v>
+        <v>651737</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>81368104</v>
+        <v>81270644</v>
       </c>
       <c r="E189" t="n">
-        <v>81368104</v>
+        <v>81270644</v>
       </c>
       <c r="F189" t="n">
-        <v>10647.4855087562</v>
+        <v>9535.946392684897</v>
       </c>
       <c r="G189" t="n">
-        <v>19238.74920848617</v>
+        <v>9470.877963063587</v>
       </c>
       <c r="H189" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="I189" t="n">
-        <v>4834627</v>
+        <v>4736286</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>295177574</v>
+        <v>294148073</v>
       </c>
       <c r="E190" t="n">
-        <v>295177574</v>
+        <v>294148073</v>
       </c>
       <c r="F190" t="n">
-        <v>187068.1628285328</v>
+        <v>230427.7313823083</v>
       </c>
       <c r="G190" t="n">
-        <v>235238.4288993737</v>
+        <v>341404.6735561833</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>86195434</v>
+        <v>88064522</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10146733</v>
+        <v>10130431</v>
       </c>
       <c r="E191" t="n">
-        <v>28808267</v>
+        <v>28761983</v>
       </c>
       <c r="F191" t="n">
-        <v>694.7100416680075</v>
+        <v>736.8381073367158</v>
       </c>
       <c r="G191" t="n">
-        <v>6705.542329883795</v>
+        <v>6136.553411532889</v>
       </c>
       <c r="H191" t="n">
         <v>0.34</v>
       </c>
       <c r="I191" t="n">
-        <v>112112</v>
+        <v>100899</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4290715</v>
+        <v>4165583</v>
       </c>
       <c r="E192" t="n">
-        <v>29318156</v>
+        <v>28463138</v>
       </c>
       <c r="F192" t="n">
-        <v>3751.833227407271</v>
+        <v>1457.816312695744</v>
       </c>
       <c r="G192" t="n">
-        <v>1176.351340074876</v>
+        <v>1465.778180681448</v>
       </c>
       <c r="H192" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="I192" t="n">
-        <v>2673854</v>
+        <v>2687909</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2857108</v>
+        <v>2796057</v>
       </c>
       <c r="E193" t="n">
-        <v>4230850</v>
+        <v>4140060</v>
       </c>
       <c r="F193" t="n">
-        <v>250.663115074244</v>
+        <v>1041.563453673247</v>
       </c>
       <c r="G193" t="n">
-        <v>234.792150851399</v>
+        <v>179.3930173117808</v>
       </c>
       <c r="H193" t="n">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="I193" t="n">
-        <v>95964</v>
+        <v>93576</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>86233951</v>
+        <v>86060245</v>
       </c>
       <c r="E194" t="n">
-        <v>496917223</v>
+        <v>495916251</v>
       </c>
       <c r="F194" t="n">
-        <v>74492.81507045482</v>
+        <v>190713.2640622958</v>
       </c>
       <c r="G194" t="n">
-        <v>90845.98248590289</v>
+        <v>132539.5667632834</v>
       </c>
       <c r="H194" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>20288406</v>
+        <v>20809000</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>697136</v>
+        <v>700602</v>
       </c>
       <c r="E195" t="n">
-        <v>760292</v>
+        <v>764072</v>
       </c>
       <c r="F195" t="n">
-        <v>5.406087437132156</v>
+        <v>68.96311087121447</v>
       </c>
       <c r="G195" t="n">
-        <v>4.010007364322055</v>
+        <v>4.071868083292486</v>
       </c>
       <c r="H195" t="n">
         <v>0.79</v>
       </c>
       <c r="I195" t="n">
-        <v>125223</v>
+        <v>126548</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>106706186</v>
+        <v>106101914</v>
       </c>
       <c r="E196" t="n">
-        <v>262538906</v>
+        <v>261052161</v>
       </c>
       <c r="F196" t="n">
-        <v>25526.24802346283</v>
+        <v>24686.12323571474</v>
       </c>
       <c r="G196" t="n">
-        <v>37195.17805456674</v>
+        <v>35762.69498784949</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2567448</v>
+        <v>2604885</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>20002098</v>
+        <v>20154944</v>
       </c>
       <c r="E197" t="n">
-        <v>20002098</v>
+        <v>20154944</v>
       </c>
       <c r="F197" t="n">
-        <v>30.0442824815915</v>
+        <v>4.001707480364717</v>
       </c>
       <c r="G197" t="n">
-        <v>4.036115075411309</v>
+        <v>4.035242767524497</v>
       </c>
       <c r="H197" t="n">
-        <v>0.48</v>
+        <v>0.14</v>
       </c>
       <c r="I197" t="n">
-        <v>152740</v>
+        <v>154120</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1329409</v>
+        <v>1337528</v>
       </c>
       <c r="F198" t="n">
-        <v>415.3785805666595</v>
+        <v>4.235767699188264</v>
       </c>
       <c r="G198" t="n">
-        <v>49.96731751736391</v>
+        <v>65.81716248790407</v>
       </c>
       <c r="H198" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="I198" t="n">
-        <v>38914</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>125201</v>
+        <v>143062</v>
       </c>
       <c r="E199" t="n">
-        <v>272560</v>
+        <v>311443</v>
       </c>
       <c r="F199" t="n">
-        <v>4.02207368335813</v>
+        <v>3.916059354558066</v>
       </c>
       <c r="G199" t="n">
-        <v>29.76826375594793</v>
+        <v>5.493959707535262</v>
       </c>
       <c r="H199" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="I199" t="n">
-        <v>43001</v>
+        <v>49468</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3032260</v>
+        <v>3054880</v>
       </c>
       <c r="F200" t="n">
-        <v>1694.037735725216</v>
+        <v>583.2902992142291</v>
       </c>
       <c r="G200" t="n">
-        <v>1163.121820726803</v>
+        <v>1180.010530236338</v>
       </c>
       <c r="H200" t="n">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="I200" t="n">
-        <v>492546</v>
+        <v>489069</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>193862</v>
+        <v>195810</v>
       </c>
       <c r="E201" t="n">
-        <v>1497006</v>
+        <v>1512043</v>
       </c>
       <c r="F201" t="n">
-        <v>3.822587174209026</v>
+        <v>3.983265328303546</v>
       </c>
       <c r="G201" t="n">
-        <v>143.5610377482991</v>
+        <v>4.010842211114425</v>
       </c>
       <c r="H201" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="I201" t="n">
-        <v>88399</v>
+        <v>91746</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>29514229</v>
+        <v>29339533</v>
       </c>
       <c r="E202" t="n">
-        <v>132147312</v>
+        <v>131365127</v>
       </c>
       <c r="F202" t="n">
-        <v>5388.374085420228</v>
+        <v>5643.65365611885</v>
       </c>
       <c r="G202" t="n">
-        <v>8256.700519116021</v>
+        <v>11477.18256674056</v>
       </c>
       <c r="H202" t="n">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="I202" t="n">
-        <v>12505849</v>
+        <v>13241789</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12830456</v>
+        <v>12789906</v>
       </c>
       <c r="E203" t="n">
-        <v>25642925</v>
+        <v>25561881</v>
       </c>
       <c r="F203" t="n">
-        <v>696.5595099218286</v>
+        <v>690.2601815117532</v>
       </c>
       <c r="G203" t="n">
-        <v>1214.511250132547</v>
+        <v>1214.075167507692</v>
       </c>
       <c r="H203" t="n">
         <v>0.35</v>
       </c>
       <c r="I203" t="n">
-        <v>14681.35</v>
+        <v>14674.33</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1282128</v>
+        <v>1275768</v>
       </c>
       <c r="F204" t="n">
-        <v>151.6478516410143</v>
+        <v>72.95791977851748</v>
       </c>
       <c r="G204" t="n">
-        <v>291.0502545192542</v>
+        <v>809.6730137537053</v>
       </c>
       <c r="H204" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I204" t="n">
-        <v>88812</v>
+        <v>90808</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>945980</v>
+        <v>943401</v>
       </c>
       <c r="E205" t="n">
-        <v>4375293</v>
+        <v>4363365</v>
       </c>
       <c r="F205" t="n">
-        <v>1136.576528264364</v>
+        <v>3684.781822452187</v>
       </c>
       <c r="G205" t="n">
-        <v>2110.420960881234</v>
+        <v>2497.756358285304</v>
       </c>
       <c r="H205" t="n">
-        <v>0.84</v>
+        <v>0.32</v>
       </c>
       <c r="I205" t="n">
-        <v>398258</v>
+        <v>477936</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3062720</v>
+        <v>2999866</v>
       </c>
       <c r="E206" t="n">
-        <v>3062720</v>
+        <v>2999866</v>
       </c>
       <c r="F206" t="n">
-        <v>913.6440681209803</v>
+        <v>873.8476073049017</v>
       </c>
       <c r="G206" t="n">
-        <v>706.8032615703803</v>
+        <v>1235.659848823263</v>
       </c>
       <c r="H206" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I206" t="n">
-        <v>381803</v>
+        <v>373372</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>559392</v>
+        <v>565783</v>
       </c>
       <c r="E207" t="n">
-        <v>559392</v>
+        <v>565783</v>
       </c>
       <c r="F207" t="n">
-        <v>63.73964922274565</v>
+        <v>63.32689616179966</v>
       </c>
       <c r="G207" t="n">
-        <v>4.157619003143439</v>
+        <v>4.012661140646076</v>
       </c>
       <c r="H207" t="n">
         <v>0.54</v>
       </c>
       <c r="I207" t="n">
-        <v>1168440</v>
+        <v>1190867</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14595525</v>
+        <v>14708400</v>
       </c>
       <c r="E208" t="n">
-        <v>18582433</v>
+        <v>18726142</v>
       </c>
       <c r="F208" t="n">
-        <v>551.6503383207092</v>
+        <v>442.8461124693287</v>
       </c>
       <c r="G208" t="n">
-        <v>140.1163459869381</v>
+        <v>122.5149938851279</v>
       </c>
       <c r="H208" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I208" t="n">
-        <v>898894</v>
+        <v>946430</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1784942</v>
+        <v>1793797</v>
       </c>
       <c r="E209" t="n">
-        <v>1784942</v>
+        <v>1793797</v>
       </c>
       <c r="F209" t="n">
-        <v>4.169075394349544</v>
+        <v>4.168170686592321</v>
       </c>
       <c r="G209" t="n">
-        <v>942.6797739984211</v>
+        <v>934.962928707458</v>
       </c>
       <c r="H209" t="n">
         <v>0.58</v>
       </c>
       <c r="I209" t="n">
-        <v>4098.92</v>
+        <v>3787.77</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5788658</v>
+        <v>5870131</v>
       </c>
       <c r="E210" t="n">
-        <v>15192327</v>
+        <v>15406152</v>
       </c>
       <c r="F210" t="n">
-        <v>411.0223142386857</v>
+        <v>96.03430682444372</v>
       </c>
       <c r="G210" t="n">
-        <v>1813.090403908989</v>
+        <v>958.002896807351</v>
       </c>
       <c r="H210" t="n">
-        <v>0.85</v>
+        <v>2.21</v>
       </c>
       <c r="I210" t="n">
-        <v>23774</v>
+        <v>24494</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28755172</v>
+        <v>28739371</v>
       </c>
       <c r="F211" t="n">
-        <v>1145.441283875058</v>
+        <v>1158.165044848032</v>
       </c>
       <c r="G211" t="n">
-        <v>2334.506187268591</v>
+        <v>2281.105303292763</v>
       </c>
       <c r="H211" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="I211" t="n">
-        <v>543623</v>
+        <v>560825</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17615053</v>
+        <v>17495360</v>
       </c>
       <c r="E212" t="n">
-        <v>17615102</v>
+        <v>17495408</v>
       </c>
       <c r="F212" t="n">
-        <v>5219.277759581835</v>
+        <v>15220.299038221</v>
       </c>
       <c r="G212" t="n">
-        <v>23752.38493033971</v>
+        <v>23528.38360479557</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2363188</v>
+        <v>2370628</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>49500733</v>
+        <v>49200793</v>
       </c>
       <c r="E213" t="n">
-        <v>320999077</v>
+        <v>319054049</v>
       </c>
       <c r="F213" t="n">
-        <v>193621.8211024934</v>
+        <v>158613.0796906976</v>
       </c>
       <c r="G213" t="n">
-        <v>152238.4716819769</v>
+        <v>171297.4399590389</v>
       </c>
       <c r="H213" t="n">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="I213" t="n">
-        <v>19653911</v>
+        <v>20268164</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9064520</v>
+        <v>9062221</v>
       </c>
       <c r="F214" t="n">
-        <v>98.6054637526513</v>
+        <v>180.4695207567833</v>
       </c>
       <c r="G214" t="n">
-        <v>4.254458654350783</v>
+        <v>4.253519550820237</v>
       </c>
       <c r="H214" t="n">
         <v>0.44</v>
       </c>
       <c r="I214" t="n">
-        <v>261351</v>
+        <v>293543</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7039370</v>
+        <v>7113894</v>
       </c>
       <c r="E215" t="n">
-        <v>7049451</v>
+        <v>7124082</v>
       </c>
       <c r="F215" t="n">
-        <v>5.286658267271749</v>
+        <v>5.06320177630397</v>
       </c>
       <c r="G215" t="n">
-        <v>1399.1130665579</v>
+        <v>745.515549870259</v>
       </c>
       <c r="H215" t="n">
-        <v>0.51</v>
+        <v>0.97</v>
       </c>
       <c r="I215" t="n">
-        <v>700945</v>
+        <v>720242</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4724396</v>
+        <v>4536139</v>
       </c>
       <c r="F216" t="n">
-        <v>113.7202459549774</v>
+        <v>158.7647059159217</v>
       </c>
       <c r="G216" t="n">
-        <v>70.85211890147214</v>
+        <v>0.004121751905614771</v>
       </c>
       <c r="H216" t="n">
-        <v>2.96</v>
+        <v>0.35</v>
       </c>
       <c r="I216" t="n">
-        <v>240594</v>
+        <v>234997</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2466761</v>
+        <v>2474917</v>
       </c>
       <c r="E217" t="n">
-        <v>4469002</v>
+        <v>4483777</v>
       </c>
       <c r="F217" t="n">
-        <v>532.2808900049445</v>
+        <v>648.2219351273885</v>
       </c>
       <c r="G217" t="n">
-        <v>599.6531146979513</v>
+        <v>643.1114384368765</v>
       </c>
       <c r="H217" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I217" t="n">
-        <v>142952</v>
+        <v>143170</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123198170</v>
+        <v>123539869</v>
       </c>
       <c r="E218" t="n">
-        <v>2040262602</v>
+        <v>2045921409</v>
       </c>
       <c r="F218" t="n">
-        <v>4246.373701966759</v>
+        <v>4397.629685348711</v>
       </c>
       <c r="G218" t="n">
-        <v>6745.675394559421</v>
+        <v>7311.558998752031</v>
       </c>
       <c r="H218" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>23114349</v>
+        <v>31563390</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>97394155</v>
+        <v>98382668</v>
       </c>
       <c r="E219" t="n">
-        <v>98442533</v>
+        <v>99441686</v>
       </c>
       <c r="F219" t="n">
-        <v>889.5731857515159</v>
+        <v>25671.05189354849</v>
       </c>
       <c r="G219" t="n">
-        <v>10964.88979532133</v>
+        <v>18892.99038544819</v>
       </c>
       <c r="H219" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="I219" t="n">
-        <v>78295300</v>
+        <v>80729107</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>239749307</v>
+        <v>246351569</v>
       </c>
       <c r="E220" t="n">
-        <v>239749307</v>
+        <v>246351569</v>
       </c>
       <c r="F220" t="n">
-        <v>63581.45983563756</v>
+        <v>3914.382881289762</v>
       </c>
       <c r="G220" t="n">
-        <v>72697.12819575878</v>
+        <v>35668.3269351573</v>
       </c>
       <c r="H220" t="n">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="I220" t="n">
-        <v>75794958</v>
+        <v>85260803</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23688935</v>
+        <v>23546737</v>
       </c>
       <c r="E221" t="n">
-        <v>141735659</v>
+        <v>140884862</v>
       </c>
       <c r="F221" t="n">
-        <v>55476.77336805814</v>
+        <v>37227.57629061946</v>
       </c>
       <c r="G221" t="n">
-        <v>105976.1546651995</v>
+        <v>88725.93525047471</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>16630540</v>
+        <v>16719430</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1094739</v>
+        <v>1081757</v>
       </c>
       <c r="F222" t="n">
-        <v>77.01697455287389</v>
+        <v>174.3365352243264</v>
       </c>
       <c r="G222" t="n">
-        <v>107.7583270059636</v>
+        <v>139.9838778979282</v>
       </c>
       <c r="H222" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="I222" t="n">
-        <v>82616</v>
+        <v>86017</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2203808</v>
+        <v>2206525</v>
       </c>
       <c r="F223" t="n">
-        <v>133.4782442098347</v>
+        <v>134.5039715516862</v>
       </c>
       <c r="G223" t="n">
-        <v>127.9015433194387</v>
+        <v>116.360080444135</v>
       </c>
       <c r="H223" t="n">
         <v>0.36</v>
       </c>
       <c r="I223" t="n">
-        <v>176699</v>
+        <v>178913</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13930730</v>
+        <v>13629360</v>
       </c>
       <c r="E224" t="n">
-        <v>42102534</v>
+        <v>41191710</v>
       </c>
       <c r="F224" t="n">
-        <v>2207.697943330857</v>
+        <v>2840.789735618383</v>
       </c>
       <c r="G224" t="n">
-        <v>1094.432701186827</v>
+        <v>756.4970396362636</v>
       </c>
       <c r="H224" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I224" t="n">
-        <v>2565623</v>
+        <v>2529125</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>53200092</v>
+        <v>52564160</v>
       </c>
       <c r="E225" t="n">
-        <v>91888124</v>
+        <v>90789733</v>
       </c>
       <c r="F225" t="n">
-        <v>6526.755707159159</v>
+        <v>6570.64066468182</v>
       </c>
       <c r="G225" t="n">
-        <v>12116.21091549944</v>
+        <v>13542.37429176951</v>
       </c>
       <c r="H225" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I225" t="n">
-        <v>2343319</v>
+        <v>2229551</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4213152</v>
+        <v>4162496</v>
       </c>
       <c r="E226" t="n">
-        <v>4213152</v>
+        <v>4162496</v>
       </c>
       <c r="F226" t="n">
-        <v>33.25004684488037</v>
+        <v>37.70266197037796</v>
       </c>
       <c r="G226" t="n">
-        <v>3.997582913638526</v>
+        <v>3.899727065826826</v>
       </c>
       <c r="H226" t="n">
         <v>0.59</v>
       </c>
       <c r="I226" t="n">
-        <v>1755472</v>
+        <v>1747431</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>197300</v>
+        <v>195215</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>60255</v>
+        <v>61001</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6310656</v>
+        <v>6331371</v>
       </c>
       <c r="E228" t="n">
-        <v>32466408</v>
+        <v>32572979</v>
       </c>
       <c r="F228" t="n">
-        <v>781.6502765728867</v>
+        <v>138.1822073355643</v>
       </c>
       <c r="G228" t="n">
-        <v>173.0330103614901</v>
+        <v>116.7305539610132</v>
       </c>
       <c r="H228" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I228" t="n">
-        <v>887541</v>
+        <v>952041</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>175607006</v>
+        <v>174572740</v>
       </c>
       <c r="E230" t="n">
-        <v>205160835</v>
+        <v>203952506</v>
       </c>
       <c r="F230" t="n">
-        <v>15188.42781664178</v>
+        <v>20371.53329799357</v>
       </c>
       <c r="G230" t="n">
-        <v>79606.92155061426</v>
+        <v>76235.24765511873</v>
       </c>
       <c r="H230" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I230" t="n">
-        <v>4320403</v>
+        <v>4470935</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>300321</v>
+        <v>295088</v>
       </c>
       <c r="F231" t="n">
-        <v>200.7551809865364</v>
+        <v>4.174048536890036</v>
       </c>
       <c r="G231" t="n">
-        <v>69.21783924697472</v>
+        <v>32.37732787946359</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="I231" t="n">
-        <v>251889</v>
+        <v>268879</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29436955</v>
+        <v>29551480</v>
       </c>
       <c r="E232" t="n">
-        <v>40363212</v>
+        <v>40520246</v>
       </c>
       <c r="F232" t="n">
-        <v>5292.080272835356</v>
+        <v>5319.735374251654</v>
       </c>
       <c r="G232" t="n">
-        <v>5708.510193332732</v>
+        <v>5670.038275669712</v>
       </c>
       <c r="H232" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I232" t="n">
-        <v>206612</v>
+        <v>213063</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1130503</v>
+        <v>1178004</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>539654</v>
+        <v>513246</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7640154</v>
+        <v>7599324</v>
       </c>
       <c r="F234" t="n">
-        <v>634.2264758684819</v>
+        <v>693.4844992973636</v>
       </c>
       <c r="G234" t="n">
-        <v>3185.250002807755</v>
+        <v>3127.898273242031</v>
       </c>
       <c r="H234" t="n">
         <v>0.21</v>
       </c>
       <c r="I234" t="n">
-        <v>653977</v>
+        <v>546676</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22945494</v>
+        <v>23125747</v>
       </c>
       <c r="E235" t="n">
-        <v>22945494</v>
+        <v>23125903</v>
       </c>
       <c r="F235" t="n">
-        <v>23860.62017884449</v>
+        <v>31048.20885307103</v>
       </c>
       <c r="G235" t="n">
-        <v>11424.65695798043</v>
+        <v>8252.847953638304</v>
       </c>
       <c r="H235" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I235" t="n">
-        <v>2388132</v>
+        <v>2393215</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3415599</v>
+        <v>3380678</v>
       </c>
       <c r="E236" t="n">
-        <v>4575410</v>
+        <v>4528631</v>
       </c>
       <c r="F236" t="n">
-        <v>345.1127645677397</v>
+        <v>177.5267905368312</v>
       </c>
       <c r="G236" t="n">
-        <v>681.7344665701926</v>
+        <v>840.5598829740635</v>
       </c>
       <c r="H236" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="I236" t="n">
-        <v>149332</v>
+        <v>147348</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33010113</v>
+        <v>32887993</v>
       </c>
       <c r="E237" t="n">
-        <v>164735683</v>
+        <v>164126248</v>
       </c>
       <c r="F237" t="n">
-        <v>106579.3135989542</v>
+        <v>114194.8551005427</v>
       </c>
       <c r="G237" t="n">
-        <v>77490.94582589508</v>
+        <v>94489.0276812713</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>13380009</v>
+        <v>13466482</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26099582</v>
+        <v>26194300</v>
       </c>
       <c r="E238" t="n">
-        <v>58838010</v>
+        <v>59051541</v>
       </c>
       <c r="F238" t="n">
-        <v>286.0448280912468</v>
+        <v>215.2071935491585</v>
       </c>
       <c r="G238" t="n">
-        <v>85.34781909800205</v>
+        <v>68.81274254660633</v>
       </c>
       <c r="H238" t="n">
-        <v>1.21</v>
+        <v>0.37</v>
       </c>
       <c r="I238" t="n">
-        <v>391740</v>
+        <v>394935</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1942977</v>
+        <v>1941021</v>
       </c>
       <c r="E239" t="n">
-        <v>1942977</v>
+        <v>1941021</v>
       </c>
       <c r="F239" t="n">
-        <v>181.7056116695759</v>
+        <v>172.1768174983594</v>
       </c>
       <c r="G239" t="n">
-        <v>86.79109759978056</v>
+        <v>99.44602254828713</v>
       </c>
       <c r="H239" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="I239" t="n">
-        <v>9778.4</v>
+        <v>7568.57</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71920818</v>
+        <v>71817920</v>
       </c>
       <c r="F240" t="n">
-        <v>320.899893738304</v>
+        <v>301.1980262137326</v>
       </c>
       <c r="G240" t="n">
-        <v>6.010986868180612</v>
+        <v>6.821983148856426</v>
       </c>
       <c r="H240" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I240" t="n">
-        <v>60411</v>
+        <v>61229</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>905871</v>
+        <v>899548</v>
       </c>
       <c r="E241" t="n">
-        <v>905871</v>
+        <v>899548</v>
       </c>
       <c r="F241" t="n">
-        <v>4.330500330954026</v>
+        <v>5.349286448482617</v>
       </c>
       <c r="G241" t="n">
-        <v>16.32006701023279</v>
+        <v>21.29772531819695</v>
       </c>
       <c r="H241" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>10642.74</v>
+        <v>2075.5</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>123363</v>
+        <v>122694</v>
       </c>
       <c r="E242" t="n">
-        <v>123363</v>
+        <v>122694</v>
       </c>
       <c r="F242" t="n">
-        <v>524.6081032525631</v>
+        <v>539.5321277777688</v>
       </c>
       <c r="G242" t="n">
-        <v>471.1665446497733</v>
+        <v>436.7280398389155</v>
       </c>
       <c r="H242" t="n">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I242" t="n">
-        <v>40024</v>
+        <v>39671</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3486990</v>
+        <v>3496584</v>
       </c>
       <c r="E243" t="n">
-        <v>5009127</v>
+        <v>5022907</v>
       </c>
       <c r="F243" t="n">
-        <v>344.6005304758169</v>
+        <v>344.5244666999955</v>
       </c>
       <c r="G243" t="n">
-        <v>24.28124244157637</v>
+        <v>33.42399447659137</v>
       </c>
       <c r="H243" t="n">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="I243" t="n">
-        <v>145296</v>
+        <v>146270</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>307500677</v>
+        <v>299723122</v>
       </c>
       <c r="E244" t="n">
-        <v>568946378</v>
+        <v>554556128</v>
       </c>
       <c r="F244" t="n">
-        <v>5135.584606029895</v>
+        <v>4725.344137662512</v>
       </c>
       <c r="G244" t="n">
-        <v>1782.500952016914</v>
+        <v>4200.696887997361</v>
       </c>
       <c r="H244" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I244" t="n">
-        <v>16612067</v>
+        <v>16133210</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>70371142</v>
+        <v>70445973</v>
       </c>
       <c r="E245" t="n">
-        <v>671238322</v>
+        <v>671944750</v>
       </c>
       <c r="F245" t="n">
-        <v>36762.94675880533</v>
+        <v>37719.49726921718</v>
       </c>
       <c r="G245" t="n">
-        <v>53843.35031214344</v>
+        <v>65619.79603487682</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22707179</v>
+        <v>23053612</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82048</v>
+        <v>82005</v>
       </c>
       <c r="E246" t="n">
-        <v>682084</v>
+        <v>681726</v>
       </c>
       <c r="F246" t="n">
-        <v>4.020820150813353</v>
+        <v>4.019936944098916</v>
       </c>
       <c r="G246" t="n">
-        <v>5.315627044479258</v>
+        <v>5.314459422620773</v>
       </c>
       <c r="H246" t="n">
         <v>0.58</v>
       </c>
       <c r="I246" t="n">
-        <v>120.53</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1811183</v>
+        <v>1853735</v>
       </c>
       <c r="E247" t="n">
-        <v>5172506</v>
+        <v>5294029</v>
       </c>
       <c r="F247" t="n">
-        <v>537.6713964384371</v>
+        <v>397.3521212564143</v>
       </c>
       <c r="G247" t="n">
-        <v>127.3957575755074</v>
+        <v>276.7739779091042</v>
       </c>
       <c r="H247" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I247" t="n">
-        <v>125489</v>
+        <v>74397</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37134172</v>
+        <v>36506383</v>
       </c>
       <c r="E248" t="n">
-        <v>48547580</v>
+        <v>47726635</v>
       </c>
       <c r="F248" t="n">
-        <v>425.549358950695</v>
+        <v>314.2343595567766</v>
       </c>
       <c r="G248" t="n">
-        <v>1245.025440348588</v>
+        <v>759.8018353066489</v>
       </c>
       <c r="H248" t="n">
-        <v>1.21</v>
+        <v>0.61</v>
       </c>
       <c r="I248" t="n">
-        <v>422082</v>
+        <v>423655</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9525480</v>
+        <v>9137423</v>
       </c>
       <c r="E249" t="n">
-        <v>28238652</v>
+        <v>27088241</v>
       </c>
       <c r="F249" t="n">
-        <v>1220.047812182318</v>
+        <v>1121.461334952743</v>
       </c>
       <c r="G249" t="n">
-        <v>1163.575878447037</v>
+        <v>1453.757505303204</v>
       </c>
       <c r="H249" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="I249" t="n">
-        <v>6120362</v>
+        <v>6220788</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1988094</v>
+        <v>1975208</v>
       </c>
       <c r="E250" t="n">
-        <v>5751063</v>
+        <v>5713785</v>
       </c>
       <c r="F250" t="n">
-        <v>217.7316251897254</v>
+        <v>196.5403992500347</v>
       </c>
       <c r="G250" t="n">
-        <v>126.6780083341961</v>
+        <v>153.5196431900932</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I250" t="n">
-        <v>42587</v>
+        <v>52105</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7303497</v>
+        <v>7323059</v>
       </c>
       <c r="E251" t="n">
-        <v>7303507</v>
+        <v>7323070</v>
       </c>
       <c r="F251" t="n">
-        <v>210.6330230955703</v>
+        <v>693.2243565143607</v>
       </c>
       <c r="G251" t="n">
-        <v>1666.120111262167</v>
+        <v>1943.546294525261</v>
       </c>
       <c r="H251" t="n">
-        <v>1.69</v>
+        <v>0.98</v>
       </c>
       <c r="I251" t="n">
-        <v>271027</v>
+        <v>266329</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6178866</v>
+        <v>6157806</v>
       </c>
       <c r="E252" t="n">
-        <v>6178866</v>
+        <v>6157806</v>
       </c>
       <c r="F252" t="n">
-        <v>776.1123892339638</v>
+        <v>884.6995835593971</v>
       </c>
       <c r="G252" t="n">
-        <v>543.4160608497125</v>
+        <v>1238.154831088507</v>
       </c>
       <c r="H252" t="n">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="I252" t="n">
-        <v>480411</v>
+        <v>481102</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6230113</v>
+        <v>6214284</v>
       </c>
       <c r="E253" t="n">
-        <v>22756191</v>
+        <v>22698377</v>
       </c>
       <c r="F253" t="n">
-        <v>51.47885343633136</v>
+        <v>37.66660964748816</v>
       </c>
       <c r="G253" t="n">
-        <v>476.3230163315877</v>
+        <v>409.8846086676656</v>
       </c>
       <c r="H253" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="I253" t="n">
-        <v>551027</v>
+        <v>556007</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2270493</v>
+        <v>2266041</v>
       </c>
       <c r="E254" t="n">
-        <v>20027255</v>
+        <v>19987987</v>
       </c>
       <c r="F254" t="n">
-        <v>1795.934615350503</v>
+        <v>51.31683872546131</v>
       </c>
       <c r="G254" t="n">
-        <v>391.1488584307164</v>
+        <v>2017.313408094374</v>
       </c>
       <c r="H254" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="I254" t="n">
-        <v>49908</v>
+        <v>49697</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14343524</v>
+        <v>14552384</v>
       </c>
       <c r="E255" t="n">
-        <v>29037588</v>
+        <v>29460412</v>
       </c>
       <c r="F255" t="n">
-        <v>125.7270134922152</v>
+        <v>190.4666916861882</v>
       </c>
       <c r="G255" t="n">
-        <v>21.85716750854894</v>
+        <v>128.9278174126732</v>
       </c>
       <c r="H255" t="n">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="I255" t="n">
-        <v>554546</v>
+        <v>565472</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44383621</v>
+        <v>44367203</v>
       </c>
       <c r="E256" t="n">
-        <v>44383621</v>
+        <v>44367203</v>
       </c>
       <c r="F256" t="n">
-        <v>6232.451410898268</v>
+        <v>6865.550123600442</v>
       </c>
       <c r="G256" t="n">
-        <v>4035.393620065203</v>
+        <v>4639.742381982387</v>
       </c>
       <c r="H256" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="I256" t="n">
-        <v>10300133</v>
+        <v>10618062</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8091742</v>
+        <v>8072920</v>
       </c>
       <c r="E257" t="n">
-        <v>11528878</v>
+        <v>11502061</v>
       </c>
       <c r="F257" t="n">
-        <v>466.6560167733198</v>
+        <v>28.79982107131702</v>
       </c>
       <c r="G257" t="n">
-        <v>652.1111915099586</v>
+        <v>987.2426332869622</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I257" t="n">
-        <v>314547</v>
+        <v>309236</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>146474657</v>
+        <v>145086460</v>
       </c>
       <c r="F258" t="n">
-        <v>15.60405996583117</v>
+        <v>25.84410283542953</v>
       </c>
       <c r="G258" t="n">
-        <v>258.1582599633571</v>
+        <v>104.4942043277834</v>
       </c>
       <c r="H258" t="n">
-        <v>1.47</v>
+        <v>3.61</v>
       </c>
       <c r="I258" t="n">
-        <v>1616684</v>
+        <v>1767215</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16001959</v>
+        <v>15948633</v>
       </c>
       <c r="F259" t="n">
-        <v>120.8822582827293</v>
+        <v>121.7488859157838</v>
       </c>
       <c r="G259" t="n">
-        <v>114.399005265808</v>
+        <v>114.3741753829277</v>
       </c>
       <c r="H259" t="n">
         <v>0.82</v>
       </c>
       <c r="I259" t="n">
-        <v>1061798</v>
+        <v>1077923</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>722477</v>
+        <v>716150</v>
       </c>
       <c r="F260" t="n">
-        <v>10.00041555067376</v>
+        <v>8.998217340721938</v>
       </c>
       <c r="G260" t="n">
-        <v>22.06600488254233</v>
+        <v>30.61748891935317</v>
       </c>
       <c r="H260" t="n">
         <v>1.83</v>
       </c>
       <c r="I260" t="n">
-        <v>208442</v>
+        <v>208565</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2903842</v>
+        <v>2896393</v>
       </c>
       <c r="F261" t="n">
-        <v>43.21630380222372</v>
+        <v>43.39353110080172</v>
       </c>
       <c r="G261" t="n">
-        <v>50.2299523339148</v>
+        <v>50.17975626680666</v>
       </c>
       <c r="H261" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>72628</v>
+        <v>73159</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2862932</v>
+        <v>2814076</v>
       </c>
       <c r="E262" t="n">
-        <v>2865412</v>
+        <v>2816513</v>
       </c>
       <c r="F262" t="n">
-        <v>579.7236357187842</v>
+        <v>403.827509094382</v>
       </c>
       <c r="G262" t="n">
-        <v>26.84793549475017</v>
+        <v>3.985762161000698</v>
       </c>
       <c r="H262" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I262" t="n">
-        <v>94616</v>
+        <v>76941</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>74894875</v>
+        <v>74613312</v>
       </c>
       <c r="E263" t="n">
-        <v>103701522</v>
+        <v>103311987</v>
       </c>
       <c r="F263" t="n">
-        <v>6459.544482585787</v>
+        <v>7188.508241066759</v>
       </c>
       <c r="G263" t="n">
-        <v>15523.04257539885</v>
+        <v>9079.355095945131</v>
       </c>
       <c r="H263" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I263" t="n">
-        <v>6987201</v>
+        <v>7088407</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>625505</v>
+        <v>623054</v>
       </c>
       <c r="F264" t="n">
-        <v>122.4096325711074</v>
+        <v>451.5695497442635</v>
       </c>
       <c r="G264" t="n">
-        <v>126.8852649939014</v>
+        <v>31.90652185699094</v>
       </c>
       <c r="H264" t="n">
-        <v>1.04</v>
+        <v>0.17</v>
       </c>
       <c r="I264" t="n">
-        <v>637873</v>
+        <v>629995</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1274788</v>
+        <v>1291536</v>
       </c>
       <c r="E265" t="n">
-        <v>3856644</v>
+        <v>3909731</v>
       </c>
       <c r="F265" t="n">
-        <v>520.8712380360432</v>
+        <v>791.7669277080772</v>
       </c>
       <c r="G265" t="n">
-        <v>554.4374854263513</v>
+        <v>567.8573722785254</v>
       </c>
       <c r="H265" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="I265" t="n">
-        <v>37143</v>
+        <v>41034</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>31793695</v>
+        <v>32110033</v>
       </c>
       <c r="E266" t="n">
-        <v>225412113</v>
+        <v>227654897</v>
       </c>
       <c r="F266" t="n">
-        <v>32708.07692618275</v>
+        <v>21325.92137728177</v>
       </c>
       <c r="G266" t="n">
-        <v>54521.82985431098</v>
+        <v>26197.50572029077</v>
       </c>
       <c r="H266" t="n">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="I266" t="n">
-        <v>4483896</v>
+        <v>4927878</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59041</v>
+        <v>58288</v>
       </c>
       <c r="E267" t="n">
-        <v>308052</v>
+        <v>304121</v>
       </c>
       <c r="F267" t="n">
-        <v>5.292595936038541</v>
+        <v>22.92105766048237</v>
       </c>
       <c r="G267" t="n">
-        <v>4.079630952323313</v>
+        <v>36.55297048802803</v>
       </c>
       <c r="H267" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="I267" t="n">
-        <v>213483</v>
+        <v>209103</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1284715</v>
+        <v>1276397</v>
       </c>
       <c r="E268" t="n">
-        <v>7967151</v>
+        <v>7915566</v>
       </c>
       <c r="F268" t="n">
-        <v>1174.154227809124</v>
+        <v>1185.994543293195</v>
       </c>
       <c r="G268" t="n">
-        <v>1409.818961802729</v>
+        <v>1925.069915653522</v>
       </c>
       <c r="H268" t="n">
         <v>0.31</v>
       </c>
       <c r="I268" t="n">
-        <v>794665</v>
+        <v>791691</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>588147265</v>
+        <v>587293258</v>
       </c>
       <c r="E269" t="n">
-        <v>2277807583</v>
+        <v>2274500141</v>
       </c>
       <c r="F269" t="n">
-        <v>324712.9985732793</v>
+        <v>325778.0723060083</v>
       </c>
       <c r="G269" t="n">
-        <v>287071.3209560049</v>
+        <v>275269.992824592</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>53864417</v>
+        <v>55396641</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3345440</v>
+        <v>3343955</v>
       </c>
       <c r="F270" t="n">
-        <v>141.6199459168916</v>
+        <v>121.3622742267218</v>
       </c>
       <c r="G270" t="n">
-        <v>178.5554283852751</v>
+        <v>150.5817131152113</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="I270" t="n">
-        <v>37517</v>
+        <v>37967</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>811840</v>
+        <v>830245</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>210.5703122030848</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>10.91128621166534</v>
       </c>
       <c r="H271" t="n">
-        <v>5.8</v>
+        <v>1.92</v>
       </c>
       <c r="I271" t="n">
-        <v>175248</v>
+        <v>163062</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5476230</v>
+        <v>5461034</v>
       </c>
       <c r="E272" t="n">
-        <v>24513954</v>
+        <v>24445930</v>
       </c>
       <c r="F272" t="n">
-        <v>4028.729379660807</v>
+        <v>896.1845624218839</v>
       </c>
       <c r="G272" t="n">
-        <v>85.11225004867532</v>
+        <v>103.4335416489723</v>
       </c>
       <c r="H272" t="n">
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
       <c r="I272" t="n">
-        <v>182930</v>
+        <v>189972</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6488344</v>
+        <v>6676610</v>
       </c>
       <c r="E273" t="n">
-        <v>12422461</v>
+        <v>12782912</v>
       </c>
       <c r="F273" t="n">
-        <v>98.79917818808532</v>
+        <v>155.6515586945734</v>
       </c>
       <c r="G273" t="n">
-        <v>1000.162992981636</v>
+        <v>52.51016992189309</v>
       </c>
       <c r="H273" t="n">
-        <v>3.69</v>
+        <v>2.09</v>
       </c>
       <c r="I273" t="n">
-        <v>33337</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3168803</v>
+        <v>3184179</v>
       </c>
       <c r="E274" t="n">
-        <v>20837308</v>
+        <v>20938422</v>
       </c>
       <c r="F274" t="n">
-        <v>291.2086673396405</v>
+        <v>361.253969536646</v>
       </c>
       <c r="G274" t="n">
-        <v>150.1458091358845</v>
+        <v>54.7470920227307</v>
       </c>
       <c r="H274" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="I274" t="n">
-        <v>1531356</v>
+        <v>1673302</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3690919</v>
+        <v>3650509</v>
       </c>
       <c r="E275" t="n">
-        <v>6291673</v>
+        <v>6222788</v>
       </c>
       <c r="F275" t="n">
-        <v>997.3042260577083</v>
+        <v>696.3177715578621</v>
       </c>
       <c r="G275" t="n">
-        <v>392.5397864973015</v>
+        <v>463.4261804740083</v>
       </c>
       <c r="H275" t="n">
         <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>1153018</v>
+        <v>1128634</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>434797</v>
+        <v>437174</v>
       </c>
       <c r="E276" t="n">
-        <v>434797</v>
+        <v>437174</v>
       </c>
       <c r="F276" t="n">
-        <v>5.39100040981592</v>
+        <v>3.410185872917414</v>
       </c>
       <c r="G276" t="n">
-        <v>2.750887842367408</v>
+        <v>4.012189178866046</v>
       </c>
       <c r="H276" t="n">
-        <v>0.19</v>
+        <v>0.86</v>
       </c>
       <c r="I276" t="n">
-        <v>79.43000000000001</v>
+        <v>81.84</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7537531</v>
+        <v>7474279</v>
       </c>
       <c r="E277" t="n">
-        <v>10799119</v>
+        <v>10708450</v>
       </c>
       <c r="F277" t="n">
-        <v>1243.005693302864</v>
+        <v>803.253755182846</v>
       </c>
       <c r="G277" t="n">
-        <v>1148.499239903077</v>
+        <v>1180.680236522632</v>
       </c>
       <c r="H277" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>184225</v>
+        <v>179905</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>110350355</v>
+        <v>110733543</v>
       </c>
       <c r="E278" t="n">
-        <v>1025297014</v>
+        <v>1028857324</v>
       </c>
       <c r="F278" t="n">
-        <v>9155.34730742652</v>
+        <v>3536.219792841746</v>
       </c>
       <c r="G278" t="n">
-        <v>8862.721048140233</v>
+        <v>8954.112616968114</v>
       </c>
       <c r="H278" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="I278" t="n">
-        <v>15963168</v>
+        <v>14549944</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>97793318</v>
+        <v>96963468</v>
       </c>
       <c r="E279" t="n">
-        <v>149185999</v>
+        <v>147920044</v>
       </c>
       <c r="F279" t="n">
-        <v>19685.78151432942</v>
+        <v>12330.83069057151</v>
       </c>
       <c r="G279" t="n">
-        <v>15980.38295457036</v>
+        <v>12739.57756334547</v>
       </c>
       <c r="H279" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I279" t="n">
-        <v>11397111</v>
+        <v>11942928</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16369904</v>
+        <v>15531092</v>
       </c>
       <c r="E280" t="n">
-        <v>22458091</v>
+        <v>21307313</v>
       </c>
       <c r="F280" t="n">
-        <v>445.6345017163545</v>
+        <v>203.7027509506564</v>
       </c>
       <c r="G280" t="n">
-        <v>5487.68288226568</v>
+        <v>6186.232353868954</v>
       </c>
       <c r="H280" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I280" t="n">
-        <v>833795</v>
+        <v>864682</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5475458</v>
+        <v>5402855</v>
       </c>
       <c r="E281" t="n">
-        <v>5475458</v>
+        <v>5402855</v>
       </c>
       <c r="F281" t="n">
-        <v>141.0763875606869</v>
+        <v>149.3259340829295</v>
       </c>
       <c r="G281" t="n">
-        <v>1054.817897652969</v>
+        <v>1042.43591734844</v>
       </c>
       <c r="H281" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="I281" t="n">
-        <v>697152</v>
+        <v>691041</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>123471334</v>
+        <v>122679072</v>
       </c>
       <c r="E282" t="n">
-        <v>473655913</v>
+        <v>470616666</v>
       </c>
       <c r="F282" t="n">
-        <v>55174.70755199277</v>
+        <v>69382.15682714533</v>
       </c>
       <c r="G282" t="n">
-        <v>52673.31647896535</v>
+        <v>80169.43390145592</v>
       </c>
       <c r="H282" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I282" t="n">
-        <v>40367280</v>
+        <v>40308044</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>637456</v>
+        <v>642596</v>
       </c>
       <c r="F283" t="n">
-        <v>5.441505842630191</v>
+        <v>3.944969221993885</v>
       </c>
       <c r="G283" t="n">
-        <v>6.467042269695081</v>
+        <v>4.087503853830116</v>
       </c>
       <c r="H283" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="I283" t="n">
-        <v>39895</v>
+        <v>41558</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3086360</v>
+        <v>3034079</v>
       </c>
       <c r="E284" t="n">
-        <v>29243716</v>
+        <v>28748342</v>
       </c>
       <c r="F284" t="n">
-        <v>917.0037062892245</v>
+        <v>303.7499296393967</v>
       </c>
       <c r="G284" t="n">
-        <v>766.6872782073071</v>
+        <v>1594.135050637348</v>
       </c>
       <c r="H284" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="I284" t="n">
-        <v>182290</v>
+        <v>224986</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93883</v>
+        <v>94562</v>
       </c>
       <c r="F285" t="n">
-        <v>688.9030364997568</v>
+        <v>1386.71238404654</v>
       </c>
       <c r="G285" t="n">
-        <v>149.7241595898515</v>
+        <v>447.910812231192</v>
       </c>
       <c r="H285" t="n">
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
       <c r="I285" t="n">
-        <v>48905</v>
+        <v>47964</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>131842</v>
+        <v>130936</v>
       </c>
       <c r="F286" t="n">
-        <v>4.083997052127349</v>
+        <v>4.083110635604301</v>
       </c>
       <c r="G286" t="n">
-        <v>4.120719592171168</v>
+        <v>4.119825205156015</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>67684</v>
+        <v>67430</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21834316</v>
+        <v>21546146</v>
       </c>
       <c r="E287" t="n">
-        <v>21834316</v>
+        <v>21546146</v>
       </c>
       <c r="F287" t="n">
-        <v>2718.740273433551</v>
+        <v>3278.704994849893</v>
       </c>
       <c r="G287" t="n">
-        <v>1858.806932740113</v>
+        <v>720.6193159777486</v>
       </c>
       <c r="H287" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="I287" t="n">
-        <v>519468</v>
+        <v>532953</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>575224</v>
+        <v>575442</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8109.16</v>
+        <v>8116.04</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6788293</v>
+        <v>6577572</v>
       </c>
       <c r="E289" t="n">
-        <v>42424891</v>
+        <v>41107940</v>
       </c>
       <c r="F289" t="n">
-        <v>893.2989912836929</v>
+        <v>341.6268155788971</v>
       </c>
       <c r="G289" t="n">
-        <v>428.9819122579745</v>
+        <v>121.8267462187783</v>
       </c>
       <c r="H289" t="n">
-        <v>0.15</v>
+        <v>0.77</v>
       </c>
       <c r="I289" t="n">
-        <v>409704</v>
+        <v>415459</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>492256581</v>
+        <v>493816543</v>
       </c>
       <c r="E290" t="n">
-        <v>492256581</v>
+        <v>493816543</v>
       </c>
       <c r="F290" t="n">
-        <v>885550.612086127</v>
+        <v>1012041.894628525</v>
       </c>
       <c r="G290" t="n">
-        <v>1695203.076506298</v>
+        <v>1628887.507156486</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>40487663</v>
+        <v>41967216</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5063551</v>
+        <v>5105650</v>
       </c>
       <c r="E291" t="n">
-        <v>18816250</v>
+        <v>18972691</v>
       </c>
       <c r="F291" t="n">
-        <v>1983.325214646799</v>
+        <v>461.3551459741889</v>
       </c>
       <c r="G291" t="n">
-        <v>495.4675701789484</v>
+        <v>1646.42301757707</v>
       </c>
       <c r="H291" t="n">
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>88594</v>
+        <v>87027</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35122568</v>
+        <v>36368536</v>
       </c>
       <c r="F292" t="n">
-        <v>5690.216108174828</v>
+        <v>7114.627119251994</v>
       </c>
       <c r="G292" t="n">
-        <v>12910.15872543779</v>
+        <v>14948.11635804665</v>
       </c>
       <c r="H292" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="I292" t="n">
-        <v>7410266</v>
+        <v>7618484</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>41452077</v>
+        <v>40878137</v>
       </c>
       <c r="E293" t="n">
-        <v>148579175</v>
+        <v>146521968</v>
       </c>
       <c r="F293" t="n">
-        <v>76.53716177245059</v>
+        <v>66.8712539998204</v>
       </c>
       <c r="G293" t="n">
-        <v>17.73043246560901</v>
+        <v>22.08314339074538</v>
       </c>
       <c r="H293" t="n">
-        <v>0.11</v>
+        <v>1.42</v>
       </c>
       <c r="I293" t="n">
-        <v>114668</v>
+        <v>152839</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>803955</v>
+        <v>795933</v>
       </c>
       <c r="E294" t="n">
-        <v>12822799</v>
+        <v>12694846</v>
       </c>
       <c r="F294" t="n">
-        <v>19.03706769606731</v>
+        <v>19.03284839359177</v>
       </c>
       <c r="G294" t="n">
-        <v>7.747189669079654</v>
+        <v>7.74547261175386</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>329808</v>
+        <v>332612</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85408</v>
+        <v>84611</v>
       </c>
       <c r="F295" t="n">
-        <v>22.36905321869995</v>
+        <v>22.36409446185018</v>
       </c>
       <c r="G295" t="n">
-        <v>23.01510250642831</v>
+        <v>209.0726011487901</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>55513</v>
+        <v>55019</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1545104</v>
+        <v>1540992</v>
       </c>
       <c r="F296" t="n">
-        <v>11.14888275679048</v>
+        <v>5.351758072232619</v>
       </c>
       <c r="G296" t="n">
-        <v>5.296157686453451</v>
+        <v>3.971671988204369</v>
       </c>
       <c r="H296" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I296" t="n">
-        <v>603485</v>
+        <v>604832</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2599441298</v>
+        <v>2569881655</v>
       </c>
       <c r="E297" t="n">
-        <v>2759930276</v>
+        <v>2728545626</v>
       </c>
       <c r="F297" t="n">
-        <v>32308.41301288391</v>
+        <v>40972.9535652216</v>
       </c>
       <c r="G297" t="n">
-        <v>49773.56084427304</v>
+        <v>52293.25290097215</v>
       </c>
       <c r="H297" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I297" t="n">
-        <v>56545714</v>
+        <v>56086397</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2144513</v>
+        <v>2185372</v>
       </c>
       <c r="E298" t="n">
-        <v>16494986</v>
+        <v>16809265</v>
       </c>
       <c r="F298" t="n">
-        <v>60.89714777584994</v>
+        <v>40.01364118286806</v>
       </c>
       <c r="G298" t="n">
-        <v>10.06265385112344</v>
+        <v>1.04986322047154</v>
       </c>
       <c r="H298" t="n">
-        <v>2.02</v>
+        <v>3.34</v>
       </c>
       <c r="I298" t="n">
-        <v>216059</v>
+        <v>215421</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1735116</v>
+        <v>1716357</v>
       </c>
       <c r="E299" t="n">
-        <v>1741240</v>
+        <v>1722416</v>
       </c>
       <c r="F299" t="n">
-        <v>1683.405297084758</v>
+        <v>908.4241590433927</v>
       </c>
       <c r="G299" t="n">
-        <v>1514.003108998298</v>
+        <v>1217.187117346673</v>
       </c>
       <c r="H299" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I299" t="n">
-        <v>451026</v>
+        <v>457321</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88137977</v>
+        <v>87740649</v>
       </c>
       <c r="E300" t="n">
-        <v>325797512</v>
+        <v>324327648</v>
       </c>
       <c r="F300" t="n">
-        <v>3259.53398040784</v>
+        <v>3819.611703723005</v>
       </c>
       <c r="G300" t="n">
-        <v>10899.27815910208</v>
+        <v>7919.645423483439</v>
       </c>
       <c r="H300" t="n">
         <v>0.31</v>
       </c>
       <c r="I300" t="n">
-        <v>217582</v>
+        <v>235433</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2181351</v>
+        <v>2178443</v>
       </c>
       <c r="E301" t="n">
-        <v>8744703</v>
+        <v>8733045</v>
       </c>
       <c r="F301" t="n">
-        <v>51.52780275976399</v>
+        <v>482.2223096119289</v>
       </c>
       <c r="G301" t="n">
-        <v>6.52049174708296</v>
+        <v>5.325683797062447</v>
       </c>
       <c r="H301" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I301" t="n">
-        <v>11103.07</v>
+        <v>10786.39</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>58335285</v>
+        <v>58178535</v>
       </c>
       <c r="E302" t="n">
-        <v>143092500</v>
+        <v>142708002</v>
       </c>
       <c r="F302" t="n">
-        <v>1248.227419087426</v>
+        <v>1463.967713744248</v>
       </c>
       <c r="G302" t="n">
-        <v>2738.589298272838</v>
+        <v>3754.858459608925</v>
       </c>
       <c r="H302" t="n">
-        <v>1.63</v>
+        <v>0.58</v>
       </c>
       <c r="I302" t="n">
-        <v>21927814</v>
+        <v>21920180</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>794502895</v>
+        <v>765271157</v>
       </c>
       <c r="E303" t="n">
-        <v>1225193611</v>
+        <v>1180115691</v>
       </c>
       <c r="F303" t="n">
-        <v>4486.147847631842</v>
+        <v>1026.521865640391</v>
       </c>
       <c r="G303" t="n">
-        <v>31154.03000147169</v>
+        <v>19712.06847359765</v>
       </c>
       <c r="H303" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="I303" t="n">
-        <v>338621423</v>
+        <v>276657871</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>21311660</v>
+        <v>19946439</v>
       </c>
       <c r="E304" t="n">
-        <v>21311660</v>
+        <v>19946439</v>
       </c>
       <c r="F304" t="n">
-        <v>3553.122158252851</v>
+        <v>873.0652764428788</v>
       </c>
       <c r="G304" t="n">
-        <v>2494.357619515708</v>
+        <v>2311.668626485525</v>
       </c>
       <c r="H304" t="n">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="I304" t="n">
-        <v>7326067</v>
+        <v>7249561</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2045478</v>
+        <v>2061628</v>
       </c>
       <c r="E305" t="n">
-        <v>3356281</v>
+        <v>3382781</v>
       </c>
       <c r="F305" t="n">
-        <v>740.733682730769</v>
+        <v>290.3201087003185</v>
       </c>
       <c r="G305" t="n">
-        <v>4.03862441264607</v>
+        <v>4.003688502026851</v>
       </c>
       <c r="H305" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="I305" t="n">
-        <v>150101</v>
+        <v>142957</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5860905</v>
+        <v>9443655</v>
       </c>
       <c r="E306" t="n">
-        <v>5860905</v>
+        <v>9443655</v>
       </c>
       <c r="F306" t="n">
-        <v>41.97519195780283</v>
+        <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>5.440385443544193</v>
+        <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>0.49</v>
+        <v>11.33</v>
       </c>
       <c r="I306" t="n">
-        <v>327.45</v>
+        <v>3094.36</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39543757</v>
+        <v>39545329</v>
       </c>
       <c r="E307" t="n">
-        <v>188578391</v>
+        <v>188585889</v>
       </c>
       <c r="F307" t="n">
-        <v>1059.720700093467</v>
+        <v>1090.984529566493</v>
       </c>
       <c r="G307" t="n">
-        <v>225.6648154060875</v>
+        <v>232.0909388407661</v>
       </c>
       <c r="H307" t="n">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
       <c r="I307" t="n">
-        <v>401340</v>
+        <v>402496</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>381024</v>
+        <v>379056</v>
       </c>
       <c r="E308" t="n">
-        <v>712623</v>
+        <v>708941</v>
       </c>
       <c r="F308" t="n">
-        <v>31.45746369713677</v>
+        <v>5.38100205947276</v>
       </c>
       <c r="G308" t="n">
-        <v>685.6589631675866</v>
+        <v>773.4188949949503</v>
       </c>
       <c r="H308" t="n">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
       <c r="I308" t="n">
-        <v>2293.9</v>
+        <v>2384.57</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>22628079</v>
+        <v>23101063</v>
       </c>
       <c r="E309" t="n">
-        <v>37713464</v>
+        <v>38501772</v>
       </c>
       <c r="F309" t="n">
-        <v>3258.25816508763</v>
+        <v>237.7923512935297</v>
       </c>
       <c r="G309" t="n">
-        <v>2097.86506492744</v>
+        <v>370.3319064669504</v>
       </c>
       <c r="H309" t="n">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="I309" t="n">
-        <v>611160</v>
+        <v>701478</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107934</v>
+        <v>108011</v>
       </c>
       <c r="F310" t="n">
-        <v>15.4228279300274</v>
+        <v>15.41949465847392</v>
       </c>
       <c r="G310" t="n">
-        <v>66.53278583760257</v>
+        <v>66.51840638375582</v>
       </c>
       <c r="H310" t="n">
         <v>0.09</v>
       </c>
       <c r="I310" t="n">
-        <v>54268</v>
+        <v>54810</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>22227072</v>
+        <v>21647780</v>
       </c>
       <c r="E311" t="n">
-        <v>22227072</v>
+        <v>21647780</v>
       </c>
       <c r="F311" t="n">
-        <v>2028.667784707496</v>
+        <v>1163.489806634955</v>
       </c>
       <c r="G311" t="n">
-        <v>3334.525067283349</v>
+        <v>1751.733280629831</v>
       </c>
       <c r="H311" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I311" t="n">
-        <v>5660475</v>
+        <v>5719424</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3814126</v>
+        <v>3814155</v>
       </c>
       <c r="E312" t="n">
-        <v>8314259</v>
+        <v>8314324</v>
       </c>
       <c r="F312" t="n">
-        <v>1798.981297852621</v>
+        <v>1802.264481621596</v>
       </c>
       <c r="G312" t="n">
-        <v>1815.33699872585</v>
+        <v>1866.465628925971</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="I312" t="n">
-        <v>1896972</v>
+        <v>1974225</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9243873</v>
+        <v>9249670</v>
       </c>
       <c r="E313" t="n">
-        <v>9243873</v>
+        <v>9249670</v>
       </c>
       <c r="F313" t="n">
-        <v>16267.7345083043</v>
+        <v>16210.7190906982</v>
       </c>
       <c r="G313" t="n">
-        <v>113794.5501214224</v>
+        <v>113320.2987676957</v>
       </c>
       <c r="H313" t="n">
         <v>0.03</v>
       </c>
       <c r="I313" t="n">
-        <v>5012095</v>
+        <v>5342890</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>482274629</v>
+        <v>480862143</v>
       </c>
       <c r="E314" t="n">
-        <v>1678757846</v>
+        <v>1673841101</v>
       </c>
       <c r="F314" t="n">
-        <v>251040.8159630045</v>
+        <v>250166.2073709929</v>
       </c>
       <c r="G314" t="n">
-        <v>237668.2759167998</v>
+        <v>308586.9477642575</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>44509898</v>
+        <v>44400922</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22230598</v>
+        <v>22345218</v>
       </c>
       <c r="E315" t="n">
-        <v>22211287</v>
+        <v>22325808</v>
       </c>
       <c r="F315" t="n">
-        <v>277.1215782488116</v>
+        <v>254.8457586713152</v>
       </c>
       <c r="G315" t="n">
-        <v>801.1587374440021</v>
+        <v>777.5506652809802</v>
       </c>
       <c r="H315" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="I315" t="n">
-        <v>405287</v>
+        <v>406845</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>49093640</v>
+        <v>47531966</v>
       </c>
       <c r="E316" t="n">
-        <v>120850712</v>
+        <v>117006443</v>
       </c>
       <c r="F316" t="n">
-        <v>1045.95946935369</v>
+        <v>964.3231004122111</v>
       </c>
       <c r="G316" t="n">
-        <v>1563.170419189682</v>
+        <v>1557.39264912998</v>
       </c>
       <c r="H316" t="n">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
       <c r="I316" t="n">
-        <v>200626</v>
+        <v>105743</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11736329</v>
+        <v>11735294</v>
       </c>
       <c r="E317" t="n">
-        <v>23700784</v>
+        <v>23695781</v>
       </c>
       <c r="F317" t="n">
-        <v>161.8828934686219</v>
+        <v>15.92227975075095</v>
       </c>
       <c r="G317" t="n">
-        <v>1760.096049313719</v>
+        <v>1518.135119635246</v>
       </c>
       <c r="H317" t="n">
-        <v>0.76</v>
+        <v>0.19</v>
       </c>
       <c r="I317" t="n">
-        <v>55707</v>
+        <v>56995</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7355864</v>
+        <v>7313200</v>
       </c>
       <c r="E318" t="n">
-        <v>19109745</v>
+        <v>18998906</v>
       </c>
       <c r="F318" t="n">
-        <v>466.132519248806</v>
+        <v>434.2082809782441</v>
       </c>
       <c r="G318" t="n">
-        <v>140.4015602914309</v>
+        <v>175.0976168548555</v>
       </c>
       <c r="H318" t="n">
         <v>0.16</v>
       </c>
       <c r="I318" t="n">
-        <v>741836</v>
+        <v>751560</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>139994</v>
+        <v>147961</v>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>40.01186619356972</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>254.0580497668148</v>
       </c>
       <c r="H319" t="n">
-        <v>4.18</v>
+        <v>2.68</v>
       </c>
       <c r="I319" t="n">
-        <v>53154</v>
+        <v>56337</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18906336305</v>
+        <v>18897904443</v>
       </c>
       <c r="F320" t="n">
-        <v>817.7021731890992</v>
+        <v>547.0962727105496</v>
       </c>
       <c r="G320" t="n">
-        <v>1336.459239379774</v>
+        <v>1606.915899428695</v>
       </c>
       <c r="H320" t="n">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="I320" t="n">
-        <v>40929754</v>
+        <v>38957589</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>104846350</v>
+        <v>106456308</v>
       </c>
       <c r="E321" t="n">
-        <v>158854334</v>
+        <v>161293607</v>
       </c>
       <c r="F321" t="n">
-        <v>11166.2712257402</v>
+        <v>12383.49322508757</v>
       </c>
       <c r="G321" t="n">
-        <v>15771.71642153314</v>
+        <v>14872.48359511218</v>
       </c>
       <c r="H321" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="I321" t="n">
-        <v>9560232</v>
+        <v>9656687</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2531373</v>
+        <v>2366284</v>
       </c>
       <c r="E322" t="n">
-        <v>10125493</v>
+        <v>9465138</v>
       </c>
       <c r="F322" t="n">
-        <v>1683.421879138023</v>
+        <v>3.844961356368646</v>
       </c>
       <c r="G322" t="n">
-        <v>3503.639183698625</v>
+        <v>480.1647600531631</v>
       </c>
       <c r="H322" t="n">
-        <v>0.59</v>
+        <v>0.21</v>
       </c>
       <c r="I322" t="n">
-        <v>7112777</v>
+        <v>7273599</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>214610941</v>
+        <v>214109161</v>
       </c>
       <c r="E323" t="n">
-        <v>659847879</v>
+        <v>658305097</v>
       </c>
       <c r="F323" t="n">
-        <v>82350.20291807657</v>
+        <v>98307.86858993689</v>
       </c>
       <c r="G323" t="n">
-        <v>114511.0427109158</v>
+        <v>169727.3726637224</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>20484547</v>
+        <v>21537453</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>137279800</v>
+        <v>138604093</v>
       </c>
       <c r="E324" t="n">
-        <v>358639670</v>
+        <v>362099349</v>
       </c>
       <c r="F324" t="n">
-        <v>8463.42041146261</v>
+        <v>9263.874073077797</v>
       </c>
       <c r="G324" t="n">
-        <v>12166.04856231277</v>
+        <v>11212.3398071985</v>
       </c>
       <c r="H324" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I324" t="n">
-        <v>8895046</v>
+        <v>9221020</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2362213</v>
+        <v>2389345</v>
       </c>
       <c r="E325" t="n">
-        <v>3242101</v>
+        <v>3279335</v>
       </c>
       <c r="F325" t="n">
-        <v>463.9535060417934</v>
+        <v>435.1997954497706</v>
       </c>
       <c r="G325" t="n">
-        <v>120.246806801965</v>
+        <v>239.5846640786477</v>
       </c>
       <c r="H325" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="I325" t="n">
-        <v>1771575</v>
+        <v>1791446</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>385311940</v>
+        <v>385594920</v>
       </c>
       <c r="E326" t="n">
-        <v>2201782516</v>
+        <v>2203399543</v>
       </c>
       <c r="F326" t="n">
-        <v>244161.2955929727</v>
+        <v>248404.5636044721</v>
       </c>
       <c r="G326" t="n">
-        <v>288508.3312686046</v>
+        <v>278328.1431304437</v>
       </c>
       <c r="H326" t="n">
         <v>0.19</v>
       </c>
       <c r="I326" t="n">
-        <v>54940286</v>
+        <v>56300273</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>97355</v>
+        <v>92565</v>
       </c>
       <c r="F2" t="n">
-        <v>4.250510091767802</v>
+        <v>3.486943521703953</v>
       </c>
       <c r="G2" t="n">
-        <v>5.27254011595866</v>
+        <v>4.067002759633994</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="I2" t="n">
-        <v>428.96</v>
+        <v>1653.25</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>608288346</v>
+        <v>600741831</v>
       </c>
       <c r="E3" t="n">
-        <v>1180413077</v>
+        <v>1165768853</v>
       </c>
       <c r="F3" t="n">
-        <v>19750.14185202818</v>
+        <v>25630.16376026566</v>
       </c>
       <c r="G3" t="n">
-        <v>27678.33732313714</v>
+        <v>21336.07333252784</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>40151478</v>
+        <v>41548460</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249364390</v>
+        <v>243832134</v>
       </c>
       <c r="E4" t="n">
-        <v>1563729037</v>
+        <v>1529037042</v>
       </c>
       <c r="F4" t="n">
-        <v>37179.63234145792</v>
+        <v>37221.13482866097</v>
       </c>
       <c r="G4" t="n">
-        <v>71450.17579153799</v>
+        <v>52539.97447113912</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>24045096</v>
+        <v>26273162</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>143147457</v>
+        <v>141184537</v>
       </c>
       <c r="E5" t="n">
-        <v>158629754</v>
+        <v>156454531</v>
       </c>
       <c r="F5" t="n">
-        <v>124647.6171019755</v>
+        <v>133308.6604816299</v>
       </c>
       <c r="G5" t="n">
-        <v>188190.5273273835</v>
+        <v>194102.9914295095</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>50771331</v>
+        <v>51074342</v>
       </c>
     </row>
     <row r="6">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48322751</v>
+        <v>48141547</v>
       </c>
       <c r="E6" t="n">
-        <v>60450522</v>
+        <v>60223841</v>
       </c>
       <c r="F6" t="n">
         <v>7293.99444259275</v>
@@ -652,7 +652,7 @@
         <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>855136</v>
+        <v>884730</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8354286</v>
+        <v>8319655</v>
       </c>
       <c r="E7" t="n">
-        <v>8564950</v>
+        <v>8529446</v>
       </c>
       <c r="F7" t="n">
-        <v>768.3469300672431</v>
+        <v>748.2243812758869</v>
       </c>
       <c r="G7" t="n">
-        <v>536.1213823238708</v>
+        <v>537.8727816481227</v>
       </c>
       <c r="H7" t="n">
         <v>0.93</v>
       </c>
       <c r="I7" t="n">
-        <v>98055</v>
+        <v>96418</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66504739</v>
+        <v>67016977</v>
       </c>
       <c r="E8" t="n">
-        <v>132454932</v>
+        <v>133475138</v>
       </c>
       <c r="F8" t="n">
-        <v>14509.58080745843</v>
+        <v>13584.20901017479</v>
       </c>
       <c r="G8" t="n">
-        <v>43255.64738699628</v>
+        <v>14066.14213400337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>1002182</v>
+        <v>1040932</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5101321</v>
+        <v>5096419</v>
       </c>
       <c r="E9" t="n">
-        <v>8150378</v>
+        <v>8142546</v>
       </c>
       <c r="F9" t="n">
-        <v>336.7342176015941</v>
+        <v>341.691996169867</v>
       </c>
       <c r="G9" t="n">
-        <v>269.8137317790881</v>
+        <v>328.0933743797615</v>
       </c>
       <c r="H9" t="n">
         <v>0.59</v>
       </c>
       <c r="I9" t="n">
-        <v>99785</v>
+        <v>99719</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13881244</v>
+        <v>13954908</v>
       </c>
       <c r="E10" t="n">
-        <v>40907130</v>
+        <v>41124211</v>
       </c>
       <c r="F10" t="n">
-        <v>2805.409052375716</v>
+        <v>3850.243435670212</v>
       </c>
       <c r="G10" t="n">
-        <v>5036.570706781785</v>
+        <v>5095.39737097825</v>
       </c>
       <c r="H10" t="n">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="I10" t="n">
-        <v>918172</v>
+        <v>690874</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>119445329</v>
+        <v>118449489</v>
       </c>
       <c r="E11" t="n">
-        <v>468189924</v>
+        <v>464286529</v>
       </c>
       <c r="F11" t="n">
-        <v>73946.79016377179</v>
+        <v>64985.98871117481</v>
       </c>
       <c r="G11" t="n">
-        <v>48436.08249162416</v>
+        <v>39604.19217150878</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>27881017</v>
+        <v>27325440</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8802298</v>
+        <v>8741302</v>
       </c>
       <c r="E12" t="n">
-        <v>37837176</v>
+        <v>37574982</v>
       </c>
       <c r="F12" t="n">
-        <v>2618.171720340803</v>
+        <v>2893.730503784977</v>
       </c>
       <c r="G12" t="n">
-        <v>2278.29015905641</v>
+        <v>3185.409385585382</v>
       </c>
       <c r="H12" t="n">
-        <v>0.52</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>941999</v>
+        <v>884056</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1000837</v>
+        <v>999693</v>
       </c>
       <c r="E13" t="n">
-        <v>12247540</v>
+        <v>12233550</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7296680225201</v>
+        <v>208.7068035524877</v>
       </c>
       <c r="G13" t="n">
-        <v>243.4771037586754</v>
+        <v>243.450433017543</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>403.57</v>
+        <v>403.51</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>571007</v>
+        <v>570008</v>
       </c>
       <c r="E14" t="n">
-        <v>571007</v>
+        <v>570008</v>
       </c>
       <c r="F14" t="n">
-        <v>683.4492118655338</v>
+        <v>196.50549352822</v>
       </c>
       <c r="G14" t="n">
-        <v>72.7285184025101</v>
+        <v>442.8868925669015</v>
       </c>
       <c r="H14" t="n">
         <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>27767</v>
+        <v>28346</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>563756387</v>
+        <v>552741622</v>
       </c>
       <c r="E15" t="n">
-        <v>705175451</v>
+        <v>691397616</v>
       </c>
       <c r="F15" t="n">
-        <v>610480.8722271851</v>
+        <v>200862.7611001155</v>
       </c>
       <c r="G15" t="n">
-        <v>560977.6817669378</v>
+        <v>208655.2368868155</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.58</v>
       </c>
       <c r="I15" t="n">
-        <v>91740297</v>
+        <v>83898773</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3271326</v>
+        <v>3244614</v>
       </c>
       <c r="E16" t="n">
-        <v>9306634</v>
+        <v>9230639</v>
       </c>
       <c r="F16" t="n">
-        <v>205.7074677103131</v>
+        <v>197.0559000900588</v>
       </c>
       <c r="G16" t="n">
-        <v>527.5608784347188</v>
+        <v>74.12202979410884</v>
       </c>
       <c r="H16" t="n">
-        <v>1.17</v>
+        <v>0.65</v>
       </c>
       <c r="I16" t="n">
-        <v>113400</v>
+        <v>113177</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>312760</v>
+        <v>310705</v>
       </c>
       <c r="E17" t="n">
-        <v>3609625</v>
+        <v>3585910</v>
       </c>
       <c r="F17" t="n">
-        <v>5.40808542493317</v>
+        <v>5.407413596797873</v>
       </c>
       <c r="G17" t="n">
-        <v>4.039371231035061</v>
+        <v>4.038869433628273</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>2477.22</v>
+        <v>890.79</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1376985</v>
+        <v>1360230</v>
       </c>
       <c r="E18" t="n">
-        <v>10562293</v>
+        <v>10433772</v>
       </c>
       <c r="F18" t="n">
-        <v>131.203588946029</v>
+        <v>113.9089270506436</v>
       </c>
       <c r="G18" t="n">
-        <v>296.1516176120221</v>
+        <v>282.4252832632857</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>0.37</v>
       </c>
       <c r="I18" t="n">
-        <v>58281</v>
+        <v>124098</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24458823</v>
+        <v>24299953</v>
       </c>
       <c r="E19" t="n">
-        <v>24503937</v>
+        <v>24344774</v>
       </c>
       <c r="F19" t="n">
-        <v>1155.248109605787</v>
+        <v>2385.345401572241</v>
       </c>
       <c r="G19" t="n">
-        <v>1211.64853053611</v>
+        <v>615.0584144743203</v>
       </c>
       <c r="H19" t="n">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="I19" t="n">
-        <v>891781</v>
+        <v>892553</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3874516</v>
+        <v>4171194</v>
       </c>
       <c r="E20" t="n">
-        <v>21498108</v>
+        <v>23144254</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>102.2364178511133</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.102060616098055</v>
       </c>
       <c r="H20" t="n">
-        <v>7.53</v>
+        <v>0.5</v>
       </c>
       <c r="I20" t="n">
-        <v>563.11</v>
+        <v>3657.91</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6938398</v>
+        <v>6886409</v>
       </c>
       <c r="E21" t="n">
-        <v>12872191</v>
+        <v>12775740</v>
       </c>
       <c r="F21" t="n">
-        <v>1139.256864725422</v>
+        <v>3563.270914690567</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7087705763166</v>
+        <v>736.8156843699512</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I21" t="n">
-        <v>52479</v>
+        <v>53048</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70935418</v>
+        <v>70169793</v>
       </c>
       <c r="E22" t="n">
-        <v>122810737</v>
+        <v>121482304</v>
       </c>
       <c r="F22" t="n">
-        <v>457.3679059010331</v>
+        <v>336.4796930128123</v>
       </c>
       <c r="G22" t="n">
-        <v>862.2421989642054</v>
+        <v>732.1022829872671</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>853194</v>
+        <v>791068</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>181861</v>
+        <v>181188</v>
       </c>
       <c r="E23" t="n">
-        <v>546951</v>
+        <v>544926</v>
       </c>
       <c r="F23" t="n">
-        <v>35.48952017448177</v>
+        <v>35.48563261466249</v>
       </c>
       <c r="G23" t="n">
-        <v>3.984302721566996</v>
+        <v>3.983866276805498</v>
       </c>
       <c r="H23" t="n">
         <v>0.54</v>
       </c>
       <c r="I23" t="n">
-        <v>182.77</v>
+        <v>182.58</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79734341</v>
+        <v>79157864</v>
       </c>
       <c r="E24" t="n">
-        <v>234588320</v>
+        <v>232892253</v>
       </c>
       <c r="F24" t="n">
-        <v>693.8761156028165</v>
+        <v>305.3813594561353</v>
       </c>
       <c r="G24" t="n">
-        <v>285.9829566605718</v>
+        <v>795.9787355266964</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>462381</v>
+        <v>464743</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6908677</v>
+        <v>6723481</v>
       </c>
       <c r="F25" t="n">
-        <v>325.3683890947152</v>
+        <v>3.996703520957666</v>
       </c>
       <c r="G25" t="n">
-        <v>4.063472668948659</v>
+        <v>146.5198628730895</v>
       </c>
       <c r="H25" t="n">
-        <v>0.87</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>19008.44</v>
+        <v>22077</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2437118</v>
+        <v>2421781</v>
       </c>
       <c r="E26" t="n">
-        <v>2437118</v>
+        <v>2421781</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>318356</v>
+        <v>314378</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17402922</v>
+        <v>17275336</v>
       </c>
       <c r="E27" t="n">
-        <v>22398988</v>
+        <v>22234775</v>
       </c>
       <c r="F27" t="n">
-        <v>802.1644429987189</v>
+        <v>419.5471062757229</v>
       </c>
       <c r="G27" t="n">
-        <v>6737.718738627548</v>
+        <v>6550.941291271806</v>
       </c>
       <c r="H27" t="n">
         <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>1999049</v>
+        <v>1927350</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4623945</v>
+        <v>4607605</v>
       </c>
       <c r="E28" t="n">
-        <v>4623945</v>
+        <v>4607605</v>
       </c>
       <c r="F28" t="n">
-        <v>847.6015846510983</v>
+        <v>905.4266556192962</v>
       </c>
       <c r="G28" t="n">
-        <v>1837.871879504346</v>
+        <v>1851.906197569197</v>
       </c>
       <c r="H28" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>2156985</v>
+        <v>2070050</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2055865</v>
+        <v>1991764</v>
       </c>
       <c r="F29" t="n">
-        <v>87.58475061374199</v>
+        <v>108.3266392896444</v>
       </c>
       <c r="G29" t="n">
-        <v>126.5714746637161</v>
+        <v>171.2873032421976</v>
       </c>
       <c r="H29" t="n">
-        <v>3.22</v>
+        <v>3.52</v>
       </c>
       <c r="I29" t="n">
-        <v>352273</v>
+        <v>362562</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3373901</v>
+        <v>3344639</v>
       </c>
       <c r="E30" t="n">
-        <v>3373901</v>
+        <v>3344639</v>
       </c>
       <c r="F30" t="n">
-        <v>4034.563032903714</v>
+        <v>4179.839825614315</v>
       </c>
       <c r="G30" t="n">
-        <v>601.4462224040003</v>
+        <v>345.6828064949246</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>606691</v>
+        <v>603747</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>304578</v>
+        <v>310359</v>
       </c>
       <c r="E31" t="n">
-        <v>1421801</v>
+        <v>1448787</v>
       </c>
       <c r="F31" t="n">
-        <v>227.7067919950859</v>
+        <v>311.4647683434278</v>
       </c>
       <c r="G31" t="n">
-        <v>10.39480258164237</v>
+        <v>59.5030648202717</v>
       </c>
       <c r="H31" t="n">
-        <v>1.38</v>
+        <v>2.03</v>
       </c>
       <c r="I31" t="n">
-        <v>664214</v>
+        <v>692447</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>387822</v>
+        <v>383771</v>
       </c>
       <c r="E32" t="n">
-        <v>387822</v>
+        <v>383771</v>
       </c>
       <c r="F32" t="n">
-        <v>122.1013708220309</v>
+        <v>122.9762587553766</v>
       </c>
       <c r="G32" t="n">
-        <v>5.385289292392974</v>
+        <v>5.384727129816333</v>
       </c>
       <c r="H32" t="n">
         <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>57427</v>
+        <v>56457</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1831527</v>
+        <v>1821515</v>
       </c>
       <c r="F33" t="n">
-        <v>5.308203605034079</v>
+        <v>5.30754418487897</v>
       </c>
       <c r="G33" t="n">
-        <v>26.87687622478209</v>
+        <v>26.87353740147996</v>
       </c>
       <c r="H33" t="n">
         <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1373995</v>
+        <v>1370071</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1897859</v>
+        <v>1876152</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17929937230636</v>
+        <v>39.55237960694928</v>
       </c>
       <c r="G34" t="n">
-        <v>193.2237726909286</v>
+        <v>112.2868655894044</v>
       </c>
       <c r="H34" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="I34" t="n">
-        <v>1214595</v>
+        <v>1220567</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11956992</v>
+        <v>11886209</v>
       </c>
       <c r="E35" t="n">
-        <v>29758790</v>
+        <v>29582623</v>
       </c>
       <c r="F35" t="n">
-        <v>255.5776921857941</v>
+        <v>1029.077416998833</v>
       </c>
       <c r="G35" t="n">
-        <v>992.2550407664784</v>
+        <v>1716.879244147499</v>
       </c>
       <c r="H35" t="n">
-        <v>1.54</v>
+        <v>0.82</v>
       </c>
       <c r="I35" t="n">
-        <v>1506232</v>
+        <v>1525659</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6953682</v>
+        <v>6921167</v>
       </c>
       <c r="E36" t="n">
-        <v>9576998</v>
+        <v>9532216</v>
       </c>
       <c r="F36" t="n">
-        <v>1932.467886465973</v>
+        <v>332.5210181872012</v>
       </c>
       <c r="G36" t="n">
-        <v>229.9922198864172</v>
+        <v>725.5209972867106</v>
       </c>
       <c r="H36" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="I36" t="n">
-        <v>298844</v>
+        <v>307415</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>892227</v>
+        <v>904782</v>
       </c>
       <c r="E37" t="n">
-        <v>6245592</v>
+        <v>6333473</v>
       </c>
       <c r="F37" t="n">
-        <v>291.5910446358097</v>
+        <v>705.8416316638391</v>
       </c>
       <c r="G37" t="n">
-        <v>147.230675601648</v>
+        <v>132.213032657495</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="I37" t="n">
-        <v>256620</v>
+        <v>96642</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>109857920</v>
+        <v>108841221</v>
       </c>
       <c r="E38" t="n">
-        <v>427110348</v>
+        <v>423142035</v>
       </c>
       <c r="F38" t="n">
-        <v>3825.93706424312</v>
+        <v>3922.545545957086</v>
       </c>
       <c r="G38" t="n">
-        <v>9932.24667463812</v>
+        <v>11457.20735522754</v>
       </c>
       <c r="H38" t="n">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="I38" t="n">
-        <v>13177701</v>
+        <v>12047388</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5579896</v>
+        <v>5522254</v>
       </c>
       <c r="E39" t="n">
-        <v>5846838</v>
+        <v>5786439</v>
       </c>
       <c r="F39" t="n">
-        <v>1602.105929038633</v>
+        <v>80.40741886132164</v>
       </c>
       <c r="G39" t="n">
-        <v>83.02472134283832</v>
+        <v>1220.832838187551</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>193295</v>
+        <v>192440</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4772065</v>
+        <v>4756099</v>
       </c>
       <c r="E40" t="n">
-        <v>7024738</v>
+        <v>7001235</v>
       </c>
       <c r="F40" t="n">
-        <v>528.2454238780298</v>
+        <v>104.6693233535676</v>
       </c>
       <c r="G40" t="n">
-        <v>790.4764159681491</v>
+        <v>1072.216269871945</v>
       </c>
       <c r="H40" t="n">
-        <v>1.27</v>
+        <v>0.85</v>
       </c>
       <c r="I40" t="n">
-        <v>558676</v>
+        <v>556145</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7525196</v>
+        <v>7486141</v>
       </c>
       <c r="E41" t="n">
-        <v>7525196</v>
+        <v>7486141</v>
       </c>
       <c r="F41" t="n">
-        <v>1721.952830849335</v>
+        <v>1721.78143256778</v>
       </c>
       <c r="G41" t="n">
-        <v>2178.687493025804</v>
+        <v>2178.435428269341</v>
       </c>
       <c r="H41" t="n">
         <v>0.76</v>
       </c>
       <c r="I41" t="n">
-        <v>277675</v>
+        <v>278718</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1562947</v>
+        <v>1574446</v>
       </c>
       <c r="E42" t="n">
-        <v>1562986</v>
+        <v>1574470</v>
       </c>
       <c r="F42" t="n">
-        <v>331.6956468661077</v>
+        <v>407.0561420275207</v>
       </c>
       <c r="G42" t="n">
-        <v>68.48505708913733</v>
+        <v>68.47751837276004</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>285699</v>
+        <v>286591</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15811930</v>
+        <v>15670495</v>
       </c>
       <c r="F43" t="n">
-        <v>441.5773491382345</v>
+        <v>398.9375380569139</v>
       </c>
       <c r="G43" t="n">
-        <v>151.8700755023252</v>
+        <v>342.6333448931412</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>0.66</v>
       </c>
       <c r="I43" t="n">
-        <v>10297.56</v>
+        <v>11089.42</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="E44" t="n">
-        <v>141657584</v>
+        <v>139959609</v>
       </c>
       <c r="F44" t="n">
-        <v>316172.5369631599</v>
+        <v>325909.7304124564</v>
       </c>
       <c r="G44" t="n">
-        <v>350395.3819728754</v>
+        <v>380755.7239738087</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>86886381</v>
+        <v>88088122</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65330391</v>
+        <v>64137406</v>
       </c>
       <c r="E45" t="n">
-        <v>335027647</v>
+        <v>328909776</v>
       </c>
       <c r="F45" t="n">
-        <v>50925.33794504673</v>
+        <v>50583.85438802632</v>
       </c>
       <c r="G45" t="n">
-        <v>64572.31002625936</v>
+        <v>61675.207094247</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I45" t="n">
-        <v>27072676</v>
+        <v>25881496</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>599300</v>
+        <v>596558</v>
       </c>
       <c r="F46" t="n">
-        <v>60.44940272379537</v>
+        <v>60.77244429604792</v>
       </c>
       <c r="G46" t="n">
-        <v>497.1839953856903</v>
+        <v>497.1128549342802</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1634.01</v>
+        <v>1231.59</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2631652</v>
+        <v>2625075</v>
       </c>
       <c r="E47" t="n">
-        <v>10576011</v>
+        <v>10549579</v>
       </c>
       <c r="F47" t="n">
-        <v>346.4919474794194</v>
+        <v>340.1566657525827</v>
       </c>
       <c r="G47" t="n">
-        <v>23.60710697325987</v>
+        <v>138.6562433114798</v>
       </c>
       <c r="H47" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="I47" t="n">
-        <v>54994</v>
+        <v>53580</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18027394</v>
+        <v>17968888</v>
       </c>
       <c r="E48" t="n">
-        <v>126084165</v>
+        <v>125671818</v>
       </c>
       <c r="F48" t="n">
-        <v>614.3858054606528</v>
+        <v>1151.338299033126</v>
       </c>
       <c r="G48" t="n">
-        <v>1230.257035774794</v>
+        <v>934.9136817392363</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1072099</v>
+        <v>1139190</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1026054</v>
+        <v>1027719</v>
       </c>
       <c r="E49" t="n">
-        <v>1204342</v>
+        <v>1206296</v>
       </c>
       <c r="F49" t="n">
-        <v>2179.98838856394</v>
+        <v>2178.661417114607</v>
       </c>
       <c r="G49" t="n">
-        <v>2371.736128224078</v>
+        <v>2370.418274769618</v>
       </c>
       <c r="H49" t="n">
         <v>1.39</v>
       </c>
       <c r="I49" t="n">
-        <v>192180</v>
+        <v>199598</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>168764</v>
+        <v>168139</v>
       </c>
       <c r="E50" t="n">
-        <v>2258153</v>
+        <v>2249794</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>48173</v>
+        <v>47317</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="E51" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="F51" t="n">
-        <v>17093.9325851778</v>
+        <v>25736.21944862215</v>
       </c>
       <c r="G51" t="n">
-        <v>28128.47341146232</v>
+        <v>23615.18830401894</v>
       </c>
       <c r="H51" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I51" t="n">
-        <v>24087322</v>
+        <v>29461556</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1120383</v>
+        <v>1118139</v>
       </c>
       <c r="F52" t="n">
-        <v>4.10257104544327</v>
+        <v>4.102142783973079</v>
       </c>
       <c r="G52" t="n">
-        <v>633.0887858697344</v>
+        <v>653.5318456593205</v>
       </c>
       <c r="H52" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="I52" t="n">
-        <v>137386</v>
+        <v>136157</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2751830</v>
+        <v>2347956</v>
       </c>
       <c r="E53" t="n">
-        <v>3051289</v>
+        <v>2596817</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>298331</v>
+        <v>318745</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>113476</v>
+        <v>112338</v>
       </c>
       <c r="E54" t="n">
-        <v>113476</v>
+        <v>112338</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>360.55</v>
+        <v>355.55</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6966288</v>
+        <v>6909177</v>
       </c>
       <c r="E55" t="n">
-        <v>16920578</v>
+        <v>16781858</v>
       </c>
       <c r="F55" t="n">
-        <v>178.8428154906221</v>
+        <v>480.6012911585781</v>
       </c>
       <c r="G55" t="n">
-        <v>109.6941116275223</v>
+        <v>53.89967512367661</v>
       </c>
       <c r="H55" t="n">
-        <v>0.84</v>
+        <v>0.14</v>
       </c>
       <c r="I55" t="n">
-        <v>450500</v>
+        <v>441567</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>429793962</v>
+        <v>424078438</v>
       </c>
       <c r="E56" t="n">
-        <v>429738051</v>
+        <v>424078438</v>
       </c>
       <c r="F56" t="n">
-        <v>13759.4050702159</v>
+        <v>8983.968911516033</v>
       </c>
       <c r="G56" t="n">
-        <v>9740.994691321257</v>
+        <v>14179.82561845127</v>
       </c>
       <c r="H56" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>4028048</v>
+        <v>3866000</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2313780</v>
+        <v>2312374</v>
       </c>
       <c r="E57" t="n">
-        <v>2313780</v>
+        <v>2312374</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>104479</v>
+        <v>118989</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>161233500</v>
+        <v>162893921</v>
       </c>
       <c r="E58" t="n">
-        <v>212164429</v>
+        <v>214349348</v>
       </c>
       <c r="F58" t="n">
-        <v>648.7682253331629</v>
+        <v>844.6273557966281</v>
       </c>
       <c r="G58" t="n">
-        <v>12381.27559708291</v>
+        <v>13822.92089885818</v>
       </c>
       <c r="H58" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I58" t="n">
-        <v>16522386</v>
+        <v>16196633</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1124950</v>
+        <v>1119419</v>
       </c>
       <c r="E59" t="n">
-        <v>12225533</v>
+        <v>12165426</v>
       </c>
       <c r="F59" t="n">
-        <v>308.1107399810676</v>
+        <v>302.8184476605417</v>
       </c>
       <c r="G59" t="n">
-        <v>4.130047128199235</v>
+        <v>4.156197238085618</v>
       </c>
       <c r="H59" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="I59" t="n">
-        <v>14495.62</v>
+        <v>14400.71</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2571832</v>
+        <v>2568785</v>
       </c>
       <c r="E60" t="n">
-        <v>6575112</v>
+        <v>6567322</v>
       </c>
       <c r="F60" t="n">
-        <v>273.5938055249285</v>
+        <v>206.3518416102479</v>
       </c>
       <c r="G60" t="n">
-        <v>82.65117365882161</v>
+        <v>279.2021137287539</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>81068</v>
+        <v>81688</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84456825</v>
+        <v>82974868</v>
       </c>
       <c r="E61" t="n">
-        <v>236255948</v>
+        <v>232121454</v>
       </c>
       <c r="F61" t="n">
-        <v>67221.40950501966</v>
+        <v>73037.95874938088</v>
       </c>
       <c r="G61" t="n">
-        <v>64050.2436136386</v>
+        <v>75298.17566120732</v>
       </c>
       <c r="H61" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>58472165</v>
+        <v>58600365</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>64487432</v>
+        <v>61449193</v>
       </c>
       <c r="E62" t="n">
-        <v>64487432</v>
+        <v>61449193</v>
       </c>
       <c r="F62" t="n">
-        <v>1925.516466284128</v>
+        <v>29.1171873819304</v>
       </c>
       <c r="G62" t="n">
-        <v>2692.340937223293</v>
+        <v>2344.257544218623</v>
       </c>
       <c r="H62" t="n">
-        <v>0.41</v>
+        <v>1.22</v>
       </c>
       <c r="I62" t="n">
-        <v>5547545</v>
+        <v>5673774</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4128525</v>
+        <v>4186122</v>
       </c>
       <c r="E63" t="n">
-        <v>8141799</v>
+        <v>8255385</v>
       </c>
       <c r="F63" t="n">
-        <v>136.5807979513779</v>
+        <v>1459.368894788289</v>
       </c>
       <c r="G63" t="n">
-        <v>782.7344833458151</v>
+        <v>1186.682764828378</v>
       </c>
       <c r="H63" t="n">
-        <v>0.68</v>
+        <v>0.13</v>
       </c>
       <c r="I63" t="n">
-        <v>1658291</v>
+        <v>1670897</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1593207</v>
+        <v>1591726</v>
       </c>
       <c r="E64" t="n">
-        <v>9147600</v>
+        <v>9139094</v>
       </c>
       <c r="F64" t="n">
-        <v>242.6816881559337</v>
+        <v>8.038785231035929</v>
       </c>
       <c r="G64" t="n">
-        <v>5.415981394527011</v>
+        <v>5.371953348688021</v>
       </c>
       <c r="H64" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="I64" t="n">
-        <v>243115</v>
+        <v>243453</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>591313</v>
+        <v>605364</v>
       </c>
       <c r="F65" t="n">
-        <v>3.843162453443408</v>
+        <v>4.073235791708092</v>
       </c>
       <c r="G65" t="n">
-        <v>33.93537121570933</v>
+        <v>7.791922349839381</v>
       </c>
       <c r="H65" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
       <c r="I65" t="n">
-        <v>5494.51</v>
+        <v>5659.04</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31202730</v>
+        <v>31183860</v>
       </c>
       <c r="F66" t="n">
-        <v>319.7411924014772</v>
+        <v>326.5099410863975</v>
       </c>
       <c r="G66" t="n">
-        <v>907.7620230320127</v>
+        <v>897.7954417663634</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I66" t="n">
-        <v>235492</v>
+        <v>235352</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>163583</v>
+        <v>162356</v>
       </c>
       <c r="E67" t="n">
-        <v>1104694</v>
+        <v>1096409</v>
       </c>
       <c r="F67" t="n">
-        <v>198.5156545773678</v>
+        <v>159.9256019837209</v>
       </c>
       <c r="G67" t="n">
-        <v>134.8619708436203</v>
+        <v>21.74226959463621</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>3077152</v>
+        <v>3092401</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17406111</v>
+        <v>17385235</v>
       </c>
       <c r="E68" t="n">
-        <v>18345632</v>
+        <v>18323629</v>
       </c>
       <c r="F68" t="n">
-        <v>893.4071181249863</v>
+        <v>1062.905509283801</v>
       </c>
       <c r="G68" t="n">
-        <v>2162.764043549144</v>
+        <v>1890.401259455063</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="I68" t="n">
-        <v>42519</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2942840</v>
+        <v>2937731</v>
       </c>
       <c r="E69" t="n">
-        <v>2942840</v>
+        <v>2937731</v>
       </c>
       <c r="F69" t="n">
-        <v>4.019990774042543</v>
+        <v>176.6012889270074</v>
       </c>
       <c r="G69" t="n">
-        <v>357.3202040511076</v>
+        <v>5.743001950657727</v>
       </c>
       <c r="H69" t="n">
-        <v>0.36</v>
+        <v>1.07</v>
       </c>
       <c r="I69" t="n">
-        <v>16410.91</v>
+        <v>13445.9</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3354034</v>
+        <v>3335904</v>
       </c>
       <c r="E70" t="n">
-        <v>8275909</v>
+        <v>8231174</v>
       </c>
       <c r="F70" t="n">
-        <v>1119.79103096478</v>
+        <v>1137.641898317654</v>
       </c>
       <c r="G70" t="n">
-        <v>1220.561271078894</v>
+        <v>1208.477705279482</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>45066</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23189648</v>
+        <v>23202011</v>
       </c>
       <c r="F71" t="n">
-        <v>4.11393384615553</v>
+        <v>4.113480991448543</v>
       </c>
       <c r="G71" t="n">
-        <v>597.5148165106988</v>
+        <v>596.9717796647802</v>
       </c>
       <c r="H71" t="n">
         <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>130066</v>
+        <v>129615</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>249189</v>
+        <v>245970</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3463.69</v>
+        <v>3505.55</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>86106886</v>
+        <v>83272686</v>
       </c>
       <c r="E73" t="n">
-        <v>179525942</v>
+        <v>173616862</v>
       </c>
       <c r="F73" t="n">
-        <v>12487.81261386974</v>
+        <v>9374.809755144077</v>
       </c>
       <c r="G73" t="n">
-        <v>265.0007348811063</v>
+        <v>107.5087526497837</v>
       </c>
       <c r="H73" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I73" t="n">
-        <v>68567397</v>
+        <v>69078024</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>198650188</v>
+        <v>192091601</v>
       </c>
       <c r="F75" t="n">
-        <v>10430.87569139847</v>
+        <v>8567.972560671842</v>
       </c>
       <c r="G75" t="n">
-        <v>14533.93298045442</v>
+        <v>7959.505358609335</v>
       </c>
       <c r="H75" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I75" t="n">
-        <v>2950835</v>
+        <v>2997054</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83336099</v>
+        <v>82668021</v>
       </c>
       <c r="E76" t="n">
-        <v>114433432</v>
+        <v>113516059</v>
       </c>
       <c r="F76" t="n">
-        <v>1475.543021244445</v>
+        <v>813.3210084990997</v>
       </c>
       <c r="G76" t="n">
-        <v>4646.76895214413</v>
+        <v>4143.536621490307</v>
       </c>
       <c r="H76" t="n">
         <v>0.23</v>
       </c>
       <c r="I76" t="n">
-        <v>822520</v>
+        <v>1231880</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>187581</v>
+        <v>186952</v>
       </c>
       <c r="E77" t="n">
-        <v>195888</v>
+        <v>195231</v>
       </c>
       <c r="F77" t="n">
-        <v>4.050474357916511</v>
+        <v>4.050020231447741</v>
       </c>
       <c r="G77" t="n">
-        <v>92.42714912225368</v>
+        <v>92.41678648046398</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>200.7</v>
+        <v>192.36</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7463988</v>
+        <v>7146341</v>
       </c>
       <c r="E78" t="n">
-        <v>8210886</v>
+        <v>7861452</v>
       </c>
       <c r="F78" t="n">
-        <v>789.7325732458711</v>
+        <v>104.0307219456619</v>
       </c>
       <c r="G78" t="n">
-        <v>113.268265924258</v>
+        <v>1076.723214570208</v>
       </c>
       <c r="H78" t="n">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="n">
-        <v>661140</v>
+        <v>619374</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29874684</v>
+        <v>29120759</v>
       </c>
       <c r="E79" t="n">
-        <v>29874684</v>
+        <v>29120759</v>
       </c>
       <c r="F79" t="n">
-        <v>1166.895729417494</v>
+        <v>52.25338139549368</v>
       </c>
       <c r="G79" t="n">
-        <v>979.7715911219916</v>
+        <v>948.8475108980259</v>
       </c>
       <c r="H79" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="I79" t="n">
-        <v>249732</v>
+        <v>241054</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>272179306</v>
+        <v>268943681</v>
       </c>
       <c r="E80" t="n">
-        <v>272179306</v>
+        <v>268943681</v>
       </c>
       <c r="F80" t="n">
-        <v>148.6100686179311</v>
+        <v>1732.922260162318</v>
       </c>
       <c r="G80" t="n">
-        <v>6634.811565289065</v>
+        <v>4310.947846414701</v>
       </c>
       <c r="H80" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I80" t="n">
-        <v>12331648</v>
+        <v>12447226</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>656203888</v>
+        <v>643090774</v>
       </c>
       <c r="E81" t="n">
-        <v>656203888</v>
+        <v>643090774</v>
       </c>
       <c r="F81" t="n">
-        <v>686887.1982534952</v>
+        <v>1258669.146442984</v>
       </c>
       <c r="G81" t="n">
-        <v>646860.5840496229</v>
+        <v>1451346.661667844</v>
       </c>
       <c r="H81" t="n">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>523488298</v>
+        <v>507665282</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113496</v>
+        <v>113340</v>
       </c>
       <c r="E82" t="n">
-        <v>113496</v>
+        <v>113340</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1388.01</v>
+        <v>1337.14</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>200881953</v>
+        <v>197870879</v>
       </c>
       <c r="E83" t="n">
-        <v>697882060</v>
+        <v>687421316</v>
       </c>
       <c r="F83" t="n">
-        <v>210.7609715584011</v>
+        <v>2590.026134225251</v>
       </c>
       <c r="G83" t="n">
-        <v>1703.904250211538</v>
+        <v>1041.044762836451</v>
       </c>
       <c r="H83" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="I83" t="n">
-        <v>38986607</v>
+        <v>40043038</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3357814</v>
+        <v>3367997</v>
       </c>
       <c r="E84" t="n">
-        <v>3357814</v>
+        <v>3367997</v>
       </c>
       <c r="F84" t="n">
-        <v>787.5979007508454</v>
+        <v>344.9126208732751</v>
       </c>
       <c r="G84" t="n">
-        <v>8689.227385137472</v>
+        <v>2617.014648164037</v>
       </c>
       <c r="H84" t="n">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="I84" t="n">
-        <v>2242857</v>
+        <v>2489733</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>111373393</v>
+        <v>109635591</v>
       </c>
       <c r="E85" t="n">
-        <v>472553172</v>
+        <v>465147393</v>
       </c>
       <c r="F85" t="n">
-        <v>237417.8428524002</v>
+        <v>229380.0331627664</v>
       </c>
       <c r="G85" t="n">
-        <v>424.1218150879633</v>
+        <v>512.978740755075</v>
       </c>
       <c r="H85" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I85" t="n">
-        <v>15277406</v>
+        <v>14943705</v>
       </c>
     </row>
     <row r="86">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>72692199</v>
+        <v>74030503</v>
       </c>
       <c r="E86" t="n">
-        <v>83405039</v>
+        <v>84940572</v>
       </c>
       <c r="F86" t="n">
         <v>2620.990128895497</v>
@@ -3436,7 +3436,7 @@
         <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>1572034</v>
+        <v>1595458</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3188655</v>
+        <v>3248983</v>
       </c>
       <c r="E87" t="n">
-        <v>15987277</v>
+        <v>16289750</v>
       </c>
       <c r="F87" t="n">
-        <v>2.864114009380994</v>
+        <v>3.9460314408641</v>
       </c>
       <c r="G87" t="n">
-        <v>5.030600605059333</v>
+        <v>5.477813275404738</v>
       </c>
       <c r="H87" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="I87" t="n">
-        <v>28592</v>
+        <v>30690</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>523927</v>
+        <v>519529</v>
       </c>
       <c r="E88" t="n">
-        <v>8961735</v>
+        <v>8886511</v>
       </c>
       <c r="F88" t="n">
-        <v>40.50253431394355</v>
+        <v>29.28874387415982</v>
       </c>
       <c r="G88" t="n">
-        <v>99.27639445227054</v>
+        <v>2570.576390532475</v>
       </c>
       <c r="H88" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="I88" t="n">
-        <v>149807</v>
+        <v>137300</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5790282</v>
+        <v>5672048</v>
       </c>
       <c r="E89" t="n">
-        <v>7858475</v>
+        <v>7698008</v>
       </c>
       <c r="F89" t="n">
-        <v>66.40048375129194</v>
+        <v>101.0957414850844</v>
       </c>
       <c r="G89" t="n">
-        <v>283.0297863433877</v>
+        <v>314.3964733765677</v>
       </c>
       <c r="H89" t="n">
         <v>0.14</v>
       </c>
       <c r="I89" t="n">
-        <v>5133892</v>
+        <v>5101028</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41006949</v>
+        <v>40452159</v>
       </c>
       <c r="E90" t="n">
-        <v>47895143</v>
+        <v>47247161</v>
       </c>
       <c r="F90" t="n">
-        <v>283.8904270802763</v>
+        <v>290.7584429806411</v>
       </c>
       <c r="G90" t="n">
-        <v>16.5914475597205</v>
+        <v>164.9978196366683</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="I90" t="n">
-        <v>951447</v>
+        <v>962911</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14496607</v>
+        <v>14366964</v>
       </c>
       <c r="F91" t="n">
-        <v>184.4200851555698</v>
+        <v>184.6753519134233</v>
       </c>
       <c r="G91" t="n">
-        <v>267.9502605889105</v>
+        <v>288.3554386156181</v>
       </c>
       <c r="H91" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I91" t="n">
-        <v>227159</v>
+        <v>224213</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35353895</v>
+        <v>35617883</v>
       </c>
       <c r="E92" t="n">
-        <v>35353895</v>
+        <v>35617883</v>
       </c>
       <c r="F92" t="n">
-        <v>618.7969208284495</v>
+        <v>419.1609169084864</v>
       </c>
       <c r="G92" t="n">
-        <v>12.71487415665201</v>
+        <v>11.22867090156381</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="I92" t="n">
-        <v>865387</v>
+        <v>865343</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17165092</v>
+        <v>17096987</v>
       </c>
       <c r="F93" t="n">
-        <v>250.3281071983197</v>
+        <v>250.2751181507744</v>
       </c>
       <c r="G93" t="n">
-        <v>315.6705937151193</v>
+        <v>279.0157918039104</v>
       </c>
       <c r="H93" t="n">
         <v>0.35</v>
       </c>
       <c r="I93" t="n">
-        <v>189215</v>
+        <v>182689</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>560708</v>
+        <v>553690</v>
       </c>
       <c r="E94" t="n">
-        <v>6800841</v>
+        <v>6715724</v>
       </c>
       <c r="F94" t="n">
-        <v>425.7424077304717</v>
+        <v>875.0589209992825</v>
       </c>
       <c r="G94" t="n">
-        <v>689.7913246329471</v>
+        <v>568.2313422745052</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="I94" t="n">
-        <v>2813923</v>
+        <v>2832690</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24918539</v>
+        <v>24725399</v>
       </c>
       <c r="E95" t="n">
-        <v>35213913</v>
+        <v>34940976</v>
       </c>
       <c r="F95" t="n">
-        <v>5.265027218308332</v>
+        <v>4.072700139176583</v>
       </c>
       <c r="G95" t="n">
-        <v>21.86463749841627</v>
+        <v>6973.629836950224</v>
       </c>
       <c r="H95" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I95" t="n">
-        <v>113364</v>
+        <v>116286</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1408046743</v>
+        <v>1377469078</v>
       </c>
       <c r="E96" t="n">
-        <v>6751872492</v>
+        <v>6605246329</v>
       </c>
       <c r="F96" t="n">
-        <v>110953.9928417359</v>
+        <v>242385.3125801636</v>
       </c>
       <c r="G96" t="n">
-        <v>208754.5777680337</v>
+        <v>265488.0411240482</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>453605848</v>
+        <v>460279764</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>262927043</v>
+        <v>257988816</v>
       </c>
       <c r="E97" t="n">
-        <v>1134939079</v>
+        <v>1113622951</v>
       </c>
       <c r="F97" t="n">
-        <v>131342.6401690169</v>
+        <v>264387.7960112224</v>
       </c>
       <c r="G97" t="n">
-        <v>901456.5909006002</v>
+        <v>761571.4879298471</v>
       </c>
       <c r="H97" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>135807471</v>
+        <v>137613377</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4919717</v>
+        <v>4892219</v>
       </c>
       <c r="E98" t="n">
-        <v>5452026</v>
+        <v>5421554</v>
       </c>
       <c r="F98" t="n">
-        <v>170.6873111937301</v>
+        <v>241.409207345092</v>
       </c>
       <c r="G98" t="n">
-        <v>569.3841653711245</v>
+        <v>485.9279145560065</v>
       </c>
       <c r="H98" t="n">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
       <c r="I98" t="n">
-        <v>699630</v>
+        <v>709494</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91904</v>
+        <v>93093</v>
       </c>
       <c r="E99" t="n">
-        <v>91904</v>
+        <v>93093</v>
       </c>
       <c r="F99" t="n">
-        <v>3.330203009822851</v>
+        <v>5.31335123986868</v>
       </c>
       <c r="G99" t="n">
-        <v>53.46593833440229</v>
+        <v>83.49090673020142</v>
       </c>
       <c r="H99" t="n">
-        <v>1.29</v>
+        <v>0.36</v>
       </c>
       <c r="I99" t="n">
-        <v>1164.96</v>
+        <v>1178.38</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113351629</v>
+        <v>112829468</v>
       </c>
       <c r="E100" t="n">
-        <v>113351629</v>
+        <v>112829468</v>
       </c>
       <c r="F100" t="n">
-        <v>4930.627712553053</v>
+        <v>12613.62237562956</v>
       </c>
       <c r="G100" t="n">
-        <v>8253.053372394914</v>
+        <v>5507.536525108995</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6858614</v>
+        <v>6908311</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3787033</v>
+        <v>3767596</v>
       </c>
       <c r="F101" t="n">
-        <v>45.44771021347045</v>
+        <v>1208.057553607723</v>
       </c>
       <c r="G101" t="n">
-        <v>137.7540063667352</v>
+        <v>894.6126070799772</v>
       </c>
       <c r="H101" t="n">
-        <v>3.32</v>
+        <v>0.83</v>
       </c>
       <c r="I101" t="n">
-        <v>383671</v>
+        <v>379676</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2037856565</v>
+        <v>2030332740</v>
       </c>
       <c r="E102" t="n">
-        <v>2037856565</v>
+        <v>2030332740</v>
       </c>
       <c r="F102" t="n">
-        <v>9366912.401278587</v>
+        <v>10251900.68101182</v>
       </c>
       <c r="G102" t="n">
-        <v>3026061.482998356</v>
+        <v>3536309.378318315</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>8784506664</v>
+        <v>8770249179</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5326674</v>
+        <v>5357292</v>
       </c>
       <c r="E103" t="n">
-        <v>5332702</v>
+        <v>5363355</v>
       </c>
       <c r="F103" t="n">
-        <v>237.0070894735583</v>
+        <v>80.44471536562416</v>
       </c>
       <c r="G103" t="n">
-        <v>111.6269702037202</v>
+        <v>90.13043934330312</v>
       </c>
       <c r="H103" t="n">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>146189</v>
+        <v>146186</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2292344</v>
+        <v>2297044</v>
       </c>
       <c r="F104" t="n">
-        <v>4.081491313835472</v>
+        <v>232.9747916376516</v>
       </c>
       <c r="G104" t="n">
-        <v>210.3369219779161</v>
+        <v>4.036012241478581</v>
       </c>
       <c r="H104" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="I104" t="n">
-        <v>37331</v>
+        <v>37488</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4296993</v>
+        <v>4220210</v>
       </c>
       <c r="E105" t="n">
-        <v>5641392</v>
+        <v>5540586</v>
       </c>
       <c r="F105" t="n">
-        <v>458.7749502975194</v>
+        <v>512.0760846575755</v>
       </c>
       <c r="G105" t="n">
-        <v>265.4763192972713</v>
+        <v>210.3499729144364</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I105" t="n">
-        <v>623817</v>
+        <v>614977</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19699616</v>
+        <v>19616217</v>
       </c>
       <c r="F106" t="n">
-        <v>50.24226397331168</v>
+        <v>135.2199608416776</v>
       </c>
       <c r="G106" t="n">
-        <v>867.8590961786028</v>
+        <v>770.9676999075186</v>
       </c>
       <c r="H106" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I106" t="n">
-        <v>73659</v>
+        <v>73716</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1490823</v>
+        <v>1587685</v>
       </c>
       <c r="E107" t="n">
-        <v>5557742</v>
+        <v>5918842</v>
       </c>
       <c r="F107" t="n">
-        <v>157.5771437988692</v>
+        <v>143.3779369608336</v>
       </c>
       <c r="G107" t="n">
-        <v>3287.767694732296</v>
+        <v>177.8332535031069</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="I107" t="n">
-        <v>609321</v>
+        <v>675082</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4235052</v>
+        <v>4174541</v>
       </c>
       <c r="E108" t="n">
-        <v>12198344</v>
+        <v>12024053</v>
       </c>
       <c r="F108" t="n">
-        <v>1388.08720197292</v>
+        <v>661.4487089677228</v>
       </c>
       <c r="G108" t="n">
-        <v>224.1194235594025</v>
+        <v>297.2909295427096</v>
       </c>
       <c r="H108" t="n">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="I108" t="n">
-        <v>515733</v>
+        <v>505109</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79156016</v>
+        <v>78708570</v>
       </c>
       <c r="E109" t="n">
-        <v>100732182</v>
+        <v>100162773</v>
       </c>
       <c r="F109" t="n">
-        <v>5103.78588764074</v>
+        <v>10470.27547728054</v>
       </c>
       <c r="G109" t="n">
-        <v>500.4228628499395</v>
+        <v>503.7631527620047</v>
       </c>
       <c r="H109" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="I109" t="n">
-        <v>6472366</v>
+        <v>6485029</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22318262</v>
+        <v>22178756</v>
       </c>
       <c r="E110" t="n">
-        <v>28951892</v>
+        <v>28770920</v>
       </c>
       <c r="F110" t="n">
-        <v>19935.57290823076</v>
+        <v>19439.62846117814</v>
       </c>
       <c r="G110" t="n">
-        <v>11108.04240177716</v>
+        <v>18720.515621014</v>
       </c>
       <c r="H110" t="n">
-        <v>0.06</v>
+        <v>0.48</v>
       </c>
       <c r="I110" t="n">
-        <v>188516</v>
+        <v>200589</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>626564</v>
+        <v>621840</v>
       </c>
       <c r="E111" t="n">
-        <v>626564</v>
+        <v>621840</v>
       </c>
       <c r="F111" t="n">
-        <v>8.196132009037273</v>
+        <v>4.183251602380404</v>
       </c>
       <c r="G111" t="n">
-        <v>28.26338639012016</v>
+        <v>34.48766367155282</v>
       </c>
       <c r="H111" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I111" t="n">
-        <v>72354</v>
+        <v>70761</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13526828</v>
+        <v>13576163</v>
       </c>
       <c r="E112" t="n">
-        <v>13526828</v>
+        <v>13576163</v>
       </c>
       <c r="F112" t="n">
-        <v>1933.581967199804</v>
+        <v>2027.067599763324</v>
       </c>
       <c r="G112" t="n">
-        <v>3240.37872547541</v>
+        <v>7808.86366235014</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="I112" t="n">
-        <v>5406337</v>
+        <v>5263535</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98359056</v>
+        <v>100057048</v>
       </c>
       <c r="E113" t="n">
-        <v>121666632</v>
+        <v>123766987</v>
       </c>
       <c r="F113" t="n">
-        <v>146.209030460725</v>
+        <v>994.1350131606474</v>
       </c>
       <c r="G113" t="n">
-        <v>120.4187948134149</v>
+        <v>1340.369037502908</v>
       </c>
       <c r="H113" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>1000719</v>
+        <v>1108150</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>885713</v>
+        <v>886371</v>
       </c>
       <c r="F114" t="n">
-        <v>217.175716767484</v>
+        <v>224.0647446491657</v>
       </c>
       <c r="G114" t="n">
-        <v>238.8184102333982</v>
+        <v>180.7402943961511</v>
       </c>
       <c r="H114" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="I114" t="n">
-        <v>42221</v>
+        <v>42963</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2707283</v>
+        <v>2739003</v>
       </c>
       <c r="F115" t="n">
-        <v>358.3019637867419</v>
+        <v>109.1244559244445</v>
       </c>
       <c r="G115" t="n">
-        <v>1658.73128766888</v>
+        <v>1110.830079102644</v>
       </c>
       <c r="H115" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="I115" t="n">
-        <v>80444</v>
+        <v>79855</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11024585</v>
+        <v>10947795</v>
       </c>
       <c r="E116" t="n">
-        <v>16212623</v>
+        <v>16099697</v>
       </c>
       <c r="F116" t="n">
-        <v>3525.069940707769</v>
+        <v>5399.717216574682</v>
       </c>
       <c r="G116" t="n">
-        <v>5126.197334669929</v>
+        <v>4054.687557737833</v>
       </c>
       <c r="H116" t="n">
-        <v>1.18</v>
+        <v>0.02</v>
       </c>
       <c r="I116" t="n">
-        <v>484841</v>
+        <v>484603</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3194788</v>
+        <v>3183325</v>
       </c>
       <c r="F117" t="n">
-        <v>4.043754669973007</v>
+        <v>4.043755172174917</v>
       </c>
       <c r="G117" t="n">
-        <v>212.2536890399932</v>
+        <v>212.2537154001997</v>
       </c>
       <c r="H117" t="n">
         <v>0.58</v>
       </c>
       <c r="I117" t="n">
-        <v>35130</v>
+        <v>34843</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1111233</v>
+        <v>1159210</v>
       </c>
       <c r="F118" t="n">
-        <v>3.19501720842698</v>
+        <v>3.194663497819671</v>
       </c>
       <c r="G118" t="n">
-        <v>30.88592323934238</v>
+        <v>5.208387443468839</v>
       </c>
       <c r="H118" t="n">
         <v>0.31</v>
       </c>
       <c r="I118" t="n">
-        <v>5708.73</v>
+        <v>4485.48</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5052189</v>
+        <v>5003895</v>
       </c>
       <c r="E119" t="n">
-        <v>7068744</v>
+        <v>7001175</v>
       </c>
       <c r="F119" t="n">
-        <v>1413.16502355029</v>
+        <v>1442.332199999066</v>
       </c>
       <c r="G119" t="n">
-        <v>1799.365634742912</v>
+        <v>1213.406239989192</v>
       </c>
       <c r="H119" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I119" t="n">
-        <v>69595</v>
+        <v>68471</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10073626</v>
+        <v>10021649</v>
       </c>
       <c r="E120" t="n">
-        <v>27747372</v>
+        <v>27604203</v>
       </c>
       <c r="F120" t="n">
-        <v>255.5773100876418</v>
+        <v>21.8471396348229</v>
       </c>
       <c r="G120" t="n">
-        <v>39.81103623609062</v>
+        <v>43.78605606475646</v>
       </c>
       <c r="H120" t="n">
-        <v>1.56</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I120" t="n">
-        <v>331277</v>
+        <v>331325</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50487542</v>
+        <v>50387742</v>
       </c>
       <c r="E121" t="n">
-        <v>128619899</v>
+        <v>128365654</v>
       </c>
       <c r="F121" t="n">
-        <v>1907.004653560454</v>
+        <v>645.9618728096513</v>
       </c>
       <c r="G121" t="n">
-        <v>10730.72119620946</v>
+        <v>11829.385892639</v>
       </c>
       <c r="H121" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I121" t="n">
-        <v>2191819</v>
+        <v>2162844</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14146094</v>
+        <v>13867712</v>
       </c>
       <c r="E122" t="n">
-        <v>68511791</v>
+        <v>67163542</v>
       </c>
       <c r="F122" t="n">
-        <v>2820.926416817559</v>
+        <v>299.068358208769</v>
       </c>
       <c r="G122" t="n">
-        <v>1746.830148969716</v>
+        <v>1943.879899315124</v>
       </c>
       <c r="H122" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I122" t="n">
-        <v>5331597</v>
+        <v>5253341</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>635575</v>
+        <v>625709</v>
       </c>
       <c r="F123" t="n">
-        <v>14.26983753816708</v>
+        <v>3.987844791096383</v>
       </c>
       <c r="G123" t="n">
-        <v>1802.861971445759</v>
+        <v>1390.53491667703</v>
       </c>
       <c r="H123" t="n">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="I123" t="n">
-        <v>7912.15</v>
+        <v>8893.68</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4522678</v>
+        <v>4494458</v>
       </c>
       <c r="E124" t="n">
-        <v>10309245</v>
+        <v>10244918</v>
       </c>
       <c r="F124" t="n">
-        <v>2791.139507453132</v>
+        <v>2250.287083526615</v>
       </c>
       <c r="G124" t="n">
-        <v>1816.369167533553</v>
+        <v>1816.168633011423</v>
       </c>
       <c r="H124" t="n">
         <v>1.83</v>
       </c>
       <c r="I124" t="n">
-        <v>65431</v>
+        <v>64982</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1860376759</v>
+        <v>1847299797</v>
       </c>
       <c r="F125" t="n">
-        <v>75138.38282638324</v>
+        <v>76283.21660783271</v>
       </c>
       <c r="G125" t="n">
-        <v>70605.97739995687</v>
+        <v>78732.04006904809</v>
       </c>
       <c r="H125" t="n">
         <v>0.75</v>
       </c>
       <c r="I125" t="n">
-        <v>29999326</v>
+        <v>30146500</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9333514</v>
+        <v>9379118</v>
       </c>
       <c r="E126" t="n">
-        <v>33958919</v>
+        <v>34124663</v>
       </c>
       <c r="F126" t="n">
-        <v>5.380910723566004</v>
+        <v>3.937086009977639</v>
       </c>
       <c r="G126" t="n">
-        <v>173.2341466595395</v>
+        <v>156.989781772961</v>
       </c>
       <c r="H126" t="n">
-        <v>0.76</v>
+        <v>1.02</v>
       </c>
       <c r="I126" t="n">
-        <v>118618</v>
+        <v>127125</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>626088</v>
+        <v>620178</v>
       </c>
       <c r="F127" t="n">
-        <v>23.48570244013689</v>
+        <v>17.81721486145127</v>
       </c>
       <c r="G127" t="n">
-        <v>5.437732962729699</v>
+        <v>9.864200391483335</v>
       </c>
       <c r="H127" t="n">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
       <c r="I127" t="n">
-        <v>887.5700000000001</v>
+        <v>892.11</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12307991</v>
+        <v>12287630</v>
       </c>
       <c r="E128" t="n">
-        <v>17844811</v>
+        <v>17815290</v>
       </c>
       <c r="F128" t="n">
-        <v>3723.424508364209</v>
+        <v>1188.878848904319</v>
       </c>
       <c r="G128" t="n">
-        <v>3674.735769645325</v>
+        <v>1119.025015312167</v>
       </c>
       <c r="H128" t="n">
-        <v>0.65</v>
+        <v>1.91</v>
       </c>
       <c r="I128" t="n">
-        <v>2038048</v>
+        <v>1790111</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>29913660</v>
+        <v>28976068</v>
       </c>
       <c r="E129" t="n">
-        <v>93141539</v>
+        <v>90222179</v>
       </c>
       <c r="F129" t="n">
-        <v>9533.409058571709</v>
+        <v>3090.843599149781</v>
       </c>
       <c r="G129" t="n">
-        <v>8162.210072248923</v>
+        <v>6082.089049970057</v>
       </c>
       <c r="H129" t="n">
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c r="I129" t="n">
-        <v>10317572</v>
+        <v>10287284</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1928933</v>
+        <v>1937770</v>
       </c>
       <c r="E130" t="n">
-        <v>13832189</v>
+        <v>13895552</v>
       </c>
       <c r="F130" t="n">
-        <v>26.66891870472704</v>
+        <v>3.820038567048084</v>
       </c>
       <c r="G130" t="n">
-        <v>12.52934739752489</v>
+        <v>3.95155526165162</v>
       </c>
       <c r="H130" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="I130" t="n">
-        <v>2034602</v>
+        <v>2045770</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8437869</v>
+        <v>8434282</v>
       </c>
       <c r="F131" t="n">
-        <v>330.9077512774649</v>
+        <v>217.0128771443555</v>
       </c>
       <c r="G131" t="n">
-        <v>103.7104883772088</v>
+        <v>267.1532996763647</v>
       </c>
       <c r="H131" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="I131" t="n">
-        <v>385639</v>
+        <v>549244</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>194658457</v>
+        <v>191785265</v>
       </c>
       <c r="E132" t="n">
-        <v>1102275793</v>
+        <v>1086006011</v>
       </c>
       <c r="F132" t="n">
-        <v>274438.3350464606</v>
+        <v>288756.8754516037</v>
       </c>
       <c r="G132" t="n">
-        <v>527641.8695828171</v>
+        <v>472214.8042171922</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>83455124</v>
+        <v>83988092</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1039980</v>
+        <v>1032178</v>
       </c>
       <c r="E133" t="n">
-        <v>1039980</v>
+        <v>1032178</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5682.04</v>
+        <v>5655.33</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>491293</v>
+        <v>495188</v>
       </c>
       <c r="E134" t="n">
-        <v>1653622</v>
+        <v>1666734</v>
       </c>
       <c r="F134" t="n">
-        <v>219.3268574888853</v>
+        <v>259.3011829187</v>
       </c>
       <c r="G134" t="n">
-        <v>141.1801843626512</v>
+        <v>158.0885053657073</v>
       </c>
       <c r="H134" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I134" t="n">
-        <v>635898</v>
+        <v>225677</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15250560</v>
+        <v>15267501</v>
       </c>
       <c r="F135" t="n">
-        <v>5.383293403199739</v>
+        <v>5.382700819592931</v>
       </c>
       <c r="G135" t="n">
-        <v>4.00751036579818</v>
+        <v>4.007069226003445</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>204.34</v>
+        <v>204.43</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>122834506</v>
+        <v>121332245</v>
       </c>
       <c r="E136" t="n">
-        <v>909885229</v>
+        <v>898757369</v>
       </c>
       <c r="F136" t="n">
-        <v>148.7579698388407</v>
+        <v>146.3280743114322</v>
       </c>
       <c r="G136" t="n">
-        <v>991.0042578663262</v>
+        <v>14257.27064413881</v>
       </c>
       <c r="H136" t="n">
-        <v>1.19</v>
+        <v>0.65</v>
       </c>
       <c r="I136" t="n">
-        <v>24695473</v>
+        <v>25147457</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>30373914</v>
+        <v>30273511</v>
       </c>
       <c r="E137" t="n">
-        <v>144109270</v>
+        <v>143632906</v>
       </c>
       <c r="F137" t="n">
-        <v>892.527594297845</v>
+        <v>1058.331757710534</v>
       </c>
       <c r="G137" t="n">
-        <v>988.1814694532562</v>
+        <v>975.9058386057477</v>
       </c>
       <c r="H137" t="n">
         <v>0.35</v>
       </c>
       <c r="I137" t="n">
-        <v>808984</v>
+        <v>772311</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8643390</v>
+        <v>8632535</v>
       </c>
       <c r="E138" t="n">
-        <v>11579260</v>
+        <v>11564719</v>
       </c>
       <c r="F138" t="n">
-        <v>55.11702578046409</v>
+        <v>146.2812675417854</v>
       </c>
       <c r="G138" t="n">
-        <v>7.135963113481457</v>
+        <v>7.129185711792414</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I138" t="n">
-        <v>37723</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1193874</v>
+        <v>1204542</v>
       </c>
       <c r="F139" t="n">
-        <v>3.927347661816955</v>
+        <v>1.301021372471227</v>
       </c>
       <c r="G139" t="n">
-        <v>4.16388937479096</v>
+        <v>21.02818524838787</v>
       </c>
       <c r="H139" t="n">
-        <v>0.75</v>
+        <v>2.99</v>
       </c>
       <c r="I139" t="n">
-        <v>4893.91</v>
+        <v>5317.06</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2509686</v>
+        <v>2496222</v>
       </c>
       <c r="E140" t="n">
-        <v>2509686</v>
+        <v>2496222</v>
       </c>
       <c r="F140" t="n">
-        <v>291.8453719922753</v>
+        <v>488.6074462941169</v>
       </c>
       <c r="G140" t="n">
-        <v>1083.408305868336</v>
+        <v>463.2424308471933</v>
       </c>
       <c r="H140" t="n">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="I140" t="n">
-        <v>317399</v>
+        <v>316649</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>35545207</v>
+        <v>35547673</v>
       </c>
       <c r="E141" t="n">
-        <v>35545207</v>
+        <v>35547673</v>
       </c>
       <c r="F141" t="n">
-        <v>935.0272114897168</v>
+        <v>670.1173663432951</v>
       </c>
       <c r="G141" t="n">
-        <v>1213.810258242974</v>
+        <v>1093.349530798088</v>
       </c>
       <c r="H141" t="n">
-        <v>0.52</v>
+        <v>1.16</v>
       </c>
       <c r="I141" t="n">
-        <v>971356</v>
+        <v>978595</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6419071</v>
+        <v>6360873</v>
       </c>
       <c r="E142" t="n">
-        <v>6779258</v>
+        <v>6717794</v>
       </c>
       <c r="F142" t="n">
-        <v>554.9393961016112</v>
+        <v>428.3079469089203</v>
       </c>
       <c r="G142" t="n">
-        <v>228.3890655150553</v>
+        <v>232.6120935306365</v>
       </c>
       <c r="H142" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="I142" t="n">
-        <v>28248</v>
+        <v>27524</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3424859</v>
+        <v>3422630</v>
       </c>
       <c r="E143" t="n">
-        <v>7997616</v>
+        <v>7992412</v>
       </c>
       <c r="F143" t="n">
-        <v>1383.052734417105</v>
+        <v>794.7397294245247</v>
       </c>
       <c r="G143" t="n">
-        <v>895.9886596553446</v>
+        <v>1175.327711457399</v>
       </c>
       <c r="H143" t="n">
-        <v>0.88</v>
+        <v>0.42</v>
       </c>
       <c r="I143" t="n">
-        <v>626483</v>
+        <v>669539</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1532972</v>
+        <v>1540352</v>
       </c>
       <c r="E144" t="n">
-        <v>11905236</v>
+        <v>11962548</v>
       </c>
       <c r="F144" t="n">
-        <v>200.718157017742</v>
+        <v>199.9563710439556</v>
       </c>
       <c r="G144" t="n">
-        <v>1517.013766370632</v>
+        <v>220.5591024448868</v>
       </c>
       <c r="H144" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="I144" t="n">
-        <v>465473</v>
+        <v>510426</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>325155934</v>
+        <v>321161329</v>
       </c>
       <c r="E145" t="n">
-        <v>2925304404</v>
+        <v>2889366465</v>
       </c>
       <c r="F145" t="n">
-        <v>573758.7054617564</v>
+        <v>568484.8783154183</v>
       </c>
       <c r="G145" t="n">
-        <v>694253.4440324578</v>
+        <v>601835.8585425987</v>
       </c>
       <c r="H145" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I145" t="n">
-        <v>62234961</v>
+        <v>62554836</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>254119</v>
+        <v>250334</v>
       </c>
       <c r="E146" t="n">
-        <v>2242790</v>
+        <v>2209389</v>
       </c>
       <c r="F146" t="n">
-        <v>4.258645355318638</v>
+        <v>4.242959982518195</v>
       </c>
       <c r="G146" t="n">
-        <v>5.813417521577088</v>
+        <v>45.18863707811365</v>
       </c>
       <c r="H146" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I146" t="n">
-        <v>68333</v>
+        <v>67144</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>628322</v>
+        <v>627629</v>
       </c>
       <c r="F147" t="n">
-        <v>552.2295734283617</v>
+        <v>550.7769576298864</v>
       </c>
       <c r="G147" t="n">
-        <v>483.4629511574606</v>
+        <v>485.5006146300191</v>
       </c>
       <c r="H147" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="I147" t="n">
-        <v>12467.19</v>
+        <v>12442.98</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4771256</v>
+        <v>4806878</v>
       </c>
       <c r="E148" t="n">
-        <v>16856835</v>
+        <v>16982686</v>
       </c>
       <c r="F148" t="n">
-        <v>1763.921700871932</v>
+        <v>1937.54195131066</v>
       </c>
       <c r="G148" t="n">
-        <v>2091.314406969243</v>
+        <v>2005.099575281117</v>
       </c>
       <c r="H148" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>132755</v>
+        <v>134920</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9513171</v>
+        <v>9544540</v>
       </c>
       <c r="E149" t="n">
-        <v>44094096</v>
+        <v>44239492</v>
       </c>
       <c r="F149" t="n">
-        <v>2293.893226842235</v>
+        <v>2297.035187285425</v>
       </c>
       <c r="G149" t="n">
-        <v>4337.229458906323</v>
+        <v>4337.230754471196</v>
       </c>
       <c r="H149" t="n">
         <v>0.41</v>
       </c>
       <c r="I149" t="n">
-        <v>129922</v>
+        <v>70692</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>47329740</v>
+        <v>46818321</v>
       </c>
       <c r="E150" t="n">
-        <v>274019639</v>
+        <v>271058735</v>
       </c>
       <c r="F150" t="n">
-        <v>38957.4900730233</v>
+        <v>59758.58454950566</v>
       </c>
       <c r="G150" t="n">
-        <v>146522.1084478253</v>
+        <v>50673.37267804764</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I150" t="n">
-        <v>51345064</v>
+        <v>51678113</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79924</v>
+        <v>79798</v>
       </c>
       <c r="E151" t="n">
-        <v>79924</v>
+        <v>79798</v>
       </c>
       <c r="F151" t="n">
-        <v>18.08003728210153</v>
+        <v>18.87706915757805</v>
       </c>
       <c r="G151" t="n">
-        <v>9.090811873505455</v>
+        <v>15.66308112498713</v>
       </c>
       <c r="H151" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="I151" t="n">
-        <v>21998</v>
+        <v>21920</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4264967</v>
+        <v>4256508</v>
       </c>
       <c r="F152" t="n">
-        <v>360.1387972175073</v>
+        <v>329.6532414908689</v>
       </c>
       <c r="G152" t="n">
-        <v>248.4961581064814</v>
+        <v>288.3228283323289</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I152" t="n">
-        <v>297961</v>
+        <v>296338</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39410256</v>
+        <v>39260184</v>
       </c>
       <c r="E153" t="n">
-        <v>54431176</v>
+        <v>54223904</v>
       </c>
       <c r="F153" t="n">
-        <v>4773.197624274871</v>
+        <v>800.8686653476609</v>
       </c>
       <c r="G153" t="n">
-        <v>7260.26323547078</v>
+        <v>2403.207026826882</v>
       </c>
       <c r="H153" t="n">
-        <v>0.39</v>
+        <v>0.77</v>
       </c>
       <c r="I153" t="n">
-        <v>317926</v>
+        <v>315565</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2071093</v>
+        <v>2098223</v>
       </c>
       <c r="E154" t="n">
-        <v>8457808</v>
+        <v>8568598</v>
       </c>
       <c r="F154" t="n">
-        <v>348.3620933135392</v>
+        <v>1714.740864668197</v>
       </c>
       <c r="G154" t="n">
-        <v>739.2703244022176</v>
+        <v>1059.437516034435</v>
       </c>
       <c r="H154" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>232839</v>
+        <v>452329</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7397267</v>
+        <v>7264025</v>
       </c>
       <c r="E155" t="n">
-        <v>7452253</v>
+        <v>7318021</v>
       </c>
       <c r="F155" t="n">
-        <v>6110.87023376399</v>
+        <v>529.7439120512983</v>
       </c>
       <c r="G155" t="n">
-        <v>1473.747994341919</v>
+        <v>4307.114515030124</v>
       </c>
       <c r="H155" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>5746736</v>
+        <v>5812301</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>504977</v>
+        <v>504286</v>
       </c>
       <c r="E156" t="n">
-        <v>504977</v>
+        <v>504286</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>11217.2</v>
+        <v>10936.62</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13675599</v>
+        <v>13564970</v>
       </c>
       <c r="E157" t="n">
-        <v>13722138</v>
+        <v>13611133</v>
       </c>
       <c r="F157" t="n">
-        <v>2589.603229477952</v>
+        <v>2405.990783624922</v>
       </c>
       <c r="G157" t="n">
-        <v>2632.128503514838</v>
+        <v>2734.557613445259</v>
       </c>
       <c r="H157" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I157" t="n">
-        <v>6069500</v>
+        <v>6841150</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42596833</v>
+        <v>42423114</v>
       </c>
       <c r="E158" t="n">
-        <v>72319513</v>
+        <v>72024578</v>
       </c>
       <c r="F158" t="n">
-        <v>310.6083253803881</v>
+        <v>354.9130484180779</v>
       </c>
       <c r="G158" t="n">
-        <v>253.423788785474</v>
+        <v>272.1789812891815</v>
       </c>
       <c r="H158" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I158" t="n">
-        <v>1129456</v>
+        <v>1134617</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19669635</v>
+        <v>19092268</v>
       </c>
       <c r="E159" t="n">
-        <v>58970022</v>
+        <v>57242067</v>
       </c>
       <c r="F159" t="n">
-        <v>3296.664637157865</v>
+        <v>2249.064095025633</v>
       </c>
       <c r="G159" t="n">
-        <v>1935.282680801442</v>
+        <v>3695.829690827019</v>
       </c>
       <c r="H159" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I159" t="n">
-        <v>4351277</v>
+        <v>4412950</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100851818</v>
+        <v>98679594</v>
       </c>
       <c r="E160" t="n">
-        <v>107214597</v>
+        <v>104905327</v>
       </c>
       <c r="F160" t="n">
-        <v>452.460302490373</v>
+        <v>455.6624385496229</v>
       </c>
       <c r="G160" t="n">
-        <v>1680.835364783787</v>
+        <v>1224.916381580168</v>
       </c>
       <c r="H160" t="n">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="I160" t="n">
-        <v>1801777</v>
+        <v>1812294</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10443024</v>
+        <v>10421572</v>
       </c>
       <c r="E161" t="n">
-        <v>45348202</v>
+        <v>45235733</v>
       </c>
       <c r="F161" t="n">
-        <v>3365.732595532698</v>
+        <v>4425.88138580664</v>
       </c>
       <c r="G161" t="n">
-        <v>4510.344952185468</v>
+        <v>5089.485933782404</v>
       </c>
       <c r="H161" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="I161" t="n">
-        <v>122365</v>
+        <v>123065</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15655340</v>
+        <v>15210033</v>
       </c>
       <c r="E162" t="n">
-        <v>95956726</v>
+        <v>93227296</v>
       </c>
       <c r="F162" t="n">
-        <v>1217.769439965186</v>
+        <v>1370.292732144676</v>
       </c>
       <c r="G162" t="n">
-        <v>2650.960636342722</v>
+        <v>1195.82270130602</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I162" t="n">
-        <v>12100419</v>
+        <v>12145501</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1480938</v>
+        <v>1461999</v>
       </c>
       <c r="E163" t="n">
-        <v>1522595</v>
+        <v>1503124</v>
       </c>
       <c r="F163" t="n">
-        <v>102.3736815316453</v>
+        <v>72.11860860375552</v>
       </c>
       <c r="G163" t="n">
-        <v>71.20866333586345</v>
+        <v>52.2695875978624</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="I163" t="n">
-        <v>150468</v>
+        <v>149344</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>76768</v>
+        <v>74003</v>
       </c>
       <c r="E164" t="n">
-        <v>217774</v>
+        <v>209929</v>
       </c>
       <c r="F164" t="n">
-        <v>2.896291896722952</v>
+        <v>4.042344134318518</v>
       </c>
       <c r="G164" t="n">
-        <v>5.51696580868498</v>
+        <v>4.129315333511405</v>
       </c>
       <c r="H164" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I164" t="n">
-        <v>383.42</v>
+        <v>416.45</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47458332</v>
+        <v>47411665</v>
       </c>
       <c r="E165" t="n">
-        <v>204445306</v>
+        <v>204244268</v>
       </c>
       <c r="F165" t="n">
-        <v>3550.01850886044</v>
+        <v>3729.463749372737</v>
       </c>
       <c r="G165" t="n">
-        <v>4882.641322307307</v>
+        <v>3001.635882454137</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I165" t="n">
-        <v>11776614</v>
+        <v>12090262</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7610854</v>
+        <v>7398200</v>
       </c>
       <c r="F166" t="n">
-        <v>210.1056928226243</v>
+        <v>218.6648778419387</v>
       </c>
       <c r="G166" t="n">
-        <v>363.2966008823758</v>
+        <v>321.3293399033881</v>
       </c>
       <c r="H166" t="n">
-        <v>0.65</v>
+        <v>0.18</v>
       </c>
       <c r="I166" t="n">
-        <v>6938728</v>
+        <v>589820</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>665880</v>
+        <v>665209</v>
       </c>
       <c r="E167" t="n">
-        <v>2403466</v>
+        <v>2401044</v>
       </c>
       <c r="F167" t="n">
-        <v>50.3572143897855</v>
+        <v>50.35866122446529</v>
       </c>
       <c r="G167" t="n">
-        <v>10.97494676659512</v>
+        <v>10.97373866347824</v>
       </c>
       <c r="H167" t="n">
         <v>1.24</v>
       </c>
       <c r="I167" t="n">
-        <v>374256</v>
+        <v>371762</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1686403</v>
+        <v>1689065</v>
       </c>
       <c r="F168" t="n">
-        <v>592.4980600894546</v>
+        <v>454.2008775626609</v>
       </c>
       <c r="G168" t="n">
-        <v>13.30969831789406</v>
+        <v>421.2286256116433</v>
       </c>
       <c r="H168" t="n">
-        <v>1.2</v>
+        <v>0.21</v>
       </c>
       <c r="I168" t="n">
-        <v>89844</v>
+        <v>88022</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12593829</v>
+        <v>12471254</v>
       </c>
       <c r="E169" t="n">
-        <v>12593829</v>
+        <v>12471254</v>
       </c>
       <c r="F169" t="n">
-        <v>136.9133891559831</v>
+        <v>465.299563111332</v>
       </c>
       <c r="G169" t="n">
-        <v>434.1561712029007</v>
+        <v>25.57452411867529</v>
       </c>
       <c r="H169" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="I169" t="n">
-        <v>3751078</v>
+        <v>3713622</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2380612</v>
+        <v>2295454</v>
       </c>
       <c r="E170" t="n">
-        <v>8641632</v>
+        <v>8332401</v>
       </c>
       <c r="F170" t="n">
-        <v>250.8937337820076</v>
+        <v>147.400844399845</v>
       </c>
       <c r="G170" t="n">
-        <v>154.8733044608518</v>
+        <v>1170.086885217587</v>
       </c>
       <c r="H170" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I170" t="n">
-        <v>226066</v>
+        <v>218442</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8877520</v>
+        <v>8899408</v>
       </c>
       <c r="E171" t="n">
-        <v>19689077</v>
+        <v>19737621</v>
       </c>
       <c r="F171" t="n">
-        <v>1642.978691117033</v>
+        <v>1027.439254787658</v>
       </c>
       <c r="G171" t="n">
-        <v>1519.761504729245</v>
+        <v>1599.945269798465</v>
       </c>
       <c r="H171" t="n">
         <v>0.51</v>
       </c>
       <c r="I171" t="n">
-        <v>334157</v>
+        <v>332900</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1022555</v>
+        <v>1022262</v>
       </c>
       <c r="E172" t="n">
-        <v>2988750</v>
+        <v>2987895</v>
       </c>
       <c r="F172" t="n">
-        <v>111.5792433657232</v>
+        <v>117.6526345066379</v>
       </c>
       <c r="G172" t="n">
-        <v>147.7214848771899</v>
+        <v>147.7118931173281</v>
       </c>
       <c r="H172" t="n">
         <v>0.39</v>
       </c>
       <c r="I172" t="n">
-        <v>9455.16</v>
+        <v>8012.6</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>18452422</v>
+        <v>19897270</v>
       </c>
       <c r="E173" t="n">
-        <v>73809686</v>
+        <v>79589079</v>
       </c>
       <c r="F173" t="n">
-        <v>76.84592177694887</v>
+        <v>816.8963247481753</v>
       </c>
       <c r="G173" t="n">
-        <v>6529.948526319798</v>
+        <v>6931.474397305469</v>
       </c>
       <c r="H173" t="n">
-        <v>1.17</v>
+        <v>0.37</v>
       </c>
       <c r="I173" t="n">
-        <v>2689144</v>
+        <v>2899598</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4591877</v>
+        <v>4590306</v>
       </c>
       <c r="E174" t="n">
-        <v>4591877</v>
+        <v>4590306</v>
       </c>
       <c r="F174" t="n">
-        <v>1332.688162433382</v>
+        <v>752.3225064791101</v>
       </c>
       <c r="G174" t="n">
-        <v>450.7362244729467</v>
+        <v>341.0375231761944</v>
       </c>
       <c r="H174" t="n">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="I174" t="n">
-        <v>2883351</v>
+        <v>2887163</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>294970327</v>
+        <v>286352971</v>
       </c>
       <c r="E175" t="n">
-        <v>294970327</v>
+        <v>286352971</v>
       </c>
       <c r="F175" t="n">
-        <v>1391.476955322635</v>
+        <v>2160.244273539025</v>
       </c>
       <c r="G175" t="n">
-        <v>4773.475886007122</v>
+        <v>7662.26200879587</v>
       </c>
       <c r="H175" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I175" t="n">
-        <v>19268140</v>
+        <v>19528120</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12421807</v>
+        <v>12543446</v>
       </c>
       <c r="E176" t="n">
-        <v>39288763</v>
+        <v>39673495</v>
       </c>
       <c r="F176" t="n">
-        <v>2688.261491875987</v>
+        <v>3032.584592133195</v>
       </c>
       <c r="G176" t="n">
-        <v>3095.632330919393</v>
+        <v>2143.678991124934</v>
       </c>
       <c r="H176" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="I176" t="n">
-        <v>980225</v>
+        <v>993349</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24817</v>
+        <v>24806</v>
       </c>
       <c r="E177" t="n">
-        <v>195181</v>
+        <v>195090</v>
       </c>
       <c r="F177" t="n">
-        <v>65.14276075128856</v>
+        <v>65.13559179666316</v>
       </c>
       <c r="G177" t="n">
-        <v>819.0511829365494</v>
+        <v>816.8727436306524</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>43974</v>
+        <v>43654</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8577797</v>
+        <v>8023035</v>
       </c>
       <c r="E178" t="n">
-        <v>8577797</v>
+        <v>8023035</v>
       </c>
       <c r="F178" t="n">
-        <v>1727.524096682186</v>
+        <v>1810.772992708316</v>
       </c>
       <c r="G178" t="n">
-        <v>2029.011537063914</v>
+        <v>2220.208794264353</v>
       </c>
       <c r="H178" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I178" t="n">
-        <v>3929252</v>
+        <v>3860148</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1106391</v>
+        <v>1095581</v>
       </c>
       <c r="E179" t="n">
-        <v>2519913</v>
+        <v>2495292</v>
       </c>
       <c r="F179" t="n">
-        <v>22.94632074844397</v>
+        <v>24.12330510497733</v>
       </c>
       <c r="G179" t="n">
-        <v>266.8640568722202</v>
+        <v>267.9759409117578</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>604.34</v>
+        <v>434.18</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9383140</v>
+        <v>9264016</v>
       </c>
       <c r="E180" t="n">
-        <v>9383140</v>
+        <v>9264016</v>
       </c>
       <c r="F180" t="n">
-        <v>3564.419129822432</v>
+        <v>3822.30705716254</v>
       </c>
       <c r="G180" t="n">
-        <v>4653.204270463878</v>
+        <v>5765.529817601497</v>
       </c>
       <c r="H180" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="I180" t="n">
-        <v>2207039</v>
+        <v>2172087</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18057981</v>
+        <v>17590472</v>
       </c>
       <c r="E181" t="n">
-        <v>18057981</v>
+        <v>17590472</v>
       </c>
       <c r="F181" t="n">
-        <v>1865.783268826562</v>
+        <v>1726.271325198746</v>
       </c>
       <c r="G181" t="n">
-        <v>3141.277963001479</v>
+        <v>2518.320556052331</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>6845541</v>
+        <v>6706714</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31296431</v>
+        <v>31228358</v>
       </c>
       <c r="E182" t="n">
-        <v>86688009</v>
+        <v>86499452</v>
       </c>
       <c r="F182" t="n">
-        <v>2696.372597649784</v>
+        <v>3415.765343024927</v>
       </c>
       <c r="G182" t="n">
-        <v>3269.545962112471</v>
+        <v>2195.078046439408</v>
       </c>
       <c r="H182" t="n">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I182" t="n">
-        <v>12277786</v>
+        <v>12370510</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>31979502</v>
+        <v>30959704</v>
       </c>
       <c r="E183" t="n">
-        <v>80636952</v>
+        <v>78065511</v>
       </c>
       <c r="F183" t="n">
-        <v>2397.768464478944</v>
+        <v>678.5799722997455</v>
       </c>
       <c r="G183" t="n">
-        <v>2596.616844970457</v>
+        <v>5859.165103862747</v>
       </c>
       <c r="H183" t="n">
-        <v>0.97</v>
+        <v>0.24</v>
       </c>
       <c r="I183" t="n">
-        <v>5898652</v>
+        <v>5923468</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>305238637</v>
+        <v>301274250</v>
       </c>
       <c r="E184" t="n">
-        <v>310012782</v>
+        <v>305986474</v>
       </c>
       <c r="F184" t="n">
-        <v>16366.0890371588</v>
+        <v>12394.9589288843</v>
       </c>
       <c r="G184" t="n">
-        <v>19419.0826731954</v>
+        <v>27229.48989230637</v>
       </c>
       <c r="H184" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I184" t="n">
-        <v>24308058</v>
+        <v>24185167</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>399336</v>
+        <v>397077</v>
       </c>
       <c r="F185" t="n">
-        <v>23.47455701303914</v>
+        <v>20.69637476338776</v>
       </c>
       <c r="G185" t="n">
-        <v>43.53723160033898</v>
+        <v>443.3018703176917</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="I185" t="n">
-        <v>69212</v>
+        <v>69011</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27652179</v>
+        <v>27176404</v>
       </c>
       <c r="E186" t="n">
-        <v>65596096</v>
+        <v>64467469</v>
       </c>
       <c r="F186" t="n">
-        <v>1997.467244306838</v>
+        <v>643.2279749869016</v>
       </c>
       <c r="G186" t="n">
-        <v>2516.818644368298</v>
+        <v>2587.857850000093</v>
       </c>
       <c r="H186" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I186" t="n">
-        <v>625906</v>
+        <v>647105</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22250025</v>
+        <v>22194570</v>
       </c>
       <c r="F187" t="n">
-        <v>4.2032844724733</v>
+        <v>4.002612162512958</v>
       </c>
       <c r="G187" t="n">
-        <v>3.983190801536523</v>
+        <v>4.092628402940738</v>
       </c>
       <c r="H187" t="n">
         <v>0.46</v>
       </c>
       <c r="I187" t="n">
-        <v>1035.9</v>
+        <v>1033.24</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12434373</v>
+        <v>12448306</v>
       </c>
       <c r="E188" t="n">
-        <v>18927920</v>
+        <v>18949129</v>
       </c>
       <c r="F188" t="n">
-        <v>1311.479076123459</v>
+        <v>1310.66854292192</v>
       </c>
       <c r="G188" t="n">
-        <v>2407.199170140436</v>
+        <v>8819.639248859974</v>
       </c>
       <c r="H188" t="n">
         <v>0.55</v>
       </c>
       <c r="I188" t="n">
-        <v>651737</v>
+        <v>654352</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>81270644</v>
+        <v>76579931</v>
       </c>
       <c r="E189" t="n">
-        <v>81270644</v>
+        <v>76579931</v>
       </c>
       <c r="F189" t="n">
-        <v>9535.946392684897</v>
+        <v>6985.071167177362</v>
       </c>
       <c r="G189" t="n">
-        <v>9470.877963063587</v>
+        <v>8095.438264785742</v>
       </c>
       <c r="H189" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="I189" t="n">
-        <v>4736286</v>
+        <v>5267287</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>294148073</v>
+        <v>289498223</v>
       </c>
       <c r="E190" t="n">
-        <v>294148073</v>
+        <v>289498223</v>
       </c>
       <c r="F190" t="n">
-        <v>230427.7313823083</v>
+        <v>222030.7867397846</v>
       </c>
       <c r="G190" t="n">
-        <v>341404.6735561833</v>
+        <v>263725.2840044436</v>
       </c>
       <c r="H190" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I190" t="n">
-        <v>88064522</v>
+        <v>88324947</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10130431</v>
+        <v>10007751</v>
       </c>
       <c r="E191" t="n">
-        <v>28761983</v>
+        <v>28413675</v>
       </c>
       <c r="F191" t="n">
-        <v>736.8381073367158</v>
+        <v>4411.358170728387</v>
       </c>
       <c r="G191" t="n">
-        <v>6136.553411532889</v>
+        <v>865.7962406450952</v>
       </c>
       <c r="H191" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I191" t="n">
-        <v>100899</v>
+        <v>91135</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4165583</v>
+        <v>4409223</v>
       </c>
       <c r="E192" t="n">
-        <v>28463138</v>
+        <v>30127913</v>
       </c>
       <c r="F192" t="n">
-        <v>1457.816312695744</v>
+        <v>642.7306919311796</v>
       </c>
       <c r="G192" t="n">
-        <v>1465.778180681448</v>
+        <v>4014.482247447022</v>
       </c>
       <c r="H192" t="n">
-        <v>1.04</v>
+        <v>0.46</v>
       </c>
       <c r="I192" t="n">
-        <v>2687909</v>
+        <v>2818058</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2796057</v>
+        <v>2768247</v>
       </c>
       <c r="E193" t="n">
-        <v>4140060</v>
+        <v>4098704</v>
       </c>
       <c r="F193" t="n">
-        <v>1041.563453673247</v>
+        <v>831.1408131806103</v>
       </c>
       <c r="G193" t="n">
-        <v>179.3930173117808</v>
+        <v>69.8064850077761</v>
       </c>
       <c r="H193" t="n">
         <v>0.97</v>
       </c>
       <c r="I193" t="n">
-        <v>93576</v>
+        <v>94326</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>86060245</v>
+        <v>84910387</v>
       </c>
       <c r="E194" t="n">
-        <v>495916251</v>
+        <v>489290274</v>
       </c>
       <c r="F194" t="n">
-        <v>190713.2640622958</v>
+        <v>531787.2730986507</v>
       </c>
       <c r="G194" t="n">
-        <v>132539.5667632834</v>
+        <v>569529.3759546373</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>20809000</v>
+        <v>21036450</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>700602</v>
+        <v>691543</v>
       </c>
       <c r="E195" t="n">
-        <v>764072</v>
+        <v>754192</v>
       </c>
       <c r="F195" t="n">
-        <v>68.96311087121447</v>
+        <v>93.77194692097017</v>
       </c>
       <c r="G195" t="n">
-        <v>4.071868083292486</v>
+        <v>4.071428598301272</v>
       </c>
       <c r="H195" t="n">
         <v>0.79</v>
       </c>
       <c r="I195" t="n">
-        <v>126548</v>
+        <v>125362</v>
       </c>
     </row>
     <row r="196">
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>106101914</v>
+        <v>105438695</v>
       </c>
       <c r="E196" t="n">
-        <v>261052161</v>
+        <v>259420385</v>
       </c>
       <c r="F196" t="n">
         <v>24686.12323571474</v>
@@ -7280,7 +7280,7 @@
         <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2604885</v>
+        <v>3277630</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>20154944</v>
+        <v>19901006</v>
       </c>
       <c r="E197" t="n">
-        <v>20154944</v>
+        <v>19901006</v>
       </c>
       <c r="F197" t="n">
-        <v>4.001707480364717</v>
+        <v>3.966328433101299</v>
       </c>
       <c r="G197" t="n">
-        <v>4.035242767524497</v>
+        <v>533.1811595177933</v>
       </c>
       <c r="H197" t="n">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
       <c r="I197" t="n">
-        <v>154120</v>
+        <v>154437</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1337528</v>
+        <v>1315550</v>
       </c>
       <c r="F198" t="n">
-        <v>4.235767699188264</v>
+        <v>73.60048736511904</v>
       </c>
       <c r="G198" t="n">
-        <v>65.81716248790407</v>
+        <v>116.8880222302413</v>
       </c>
       <c r="H198" t="n">
         <v>0.46</v>
       </c>
       <c r="I198" t="n">
-        <v>40700</v>
+        <v>43309</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>143062</v>
+        <v>141142</v>
       </c>
       <c r="E199" t="n">
-        <v>311443</v>
+        <v>307263</v>
       </c>
       <c r="F199" t="n">
-        <v>3.916059354558066</v>
+        <v>217.0946086316337</v>
       </c>
       <c r="G199" t="n">
-        <v>5.493959707535262</v>
+        <v>15.37774605814206</v>
       </c>
       <c r="H199" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="I199" t="n">
-        <v>49468</v>
+        <v>48313</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3054880</v>
+        <v>3014905</v>
       </c>
       <c r="F200" t="n">
-        <v>583.2902992142291</v>
+        <v>1419.579277818874</v>
       </c>
       <c r="G200" t="n">
-        <v>1180.010530236338</v>
+        <v>762.2941673716863</v>
       </c>
       <c r="H200" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="I200" t="n">
-        <v>489069</v>
+        <v>474008</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>195810</v>
+        <v>196374</v>
       </c>
       <c r="E201" t="n">
-        <v>1512043</v>
+        <v>1516401</v>
       </c>
       <c r="F201" t="n">
-        <v>3.983265328303546</v>
+        <v>5.279623891253055</v>
       </c>
       <c r="G201" t="n">
-        <v>4.010842211114425</v>
+        <v>313.9112948849811</v>
       </c>
       <c r="H201" t="n">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="I201" t="n">
-        <v>91746</v>
+        <v>88631</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>29339533</v>
+        <v>28925701</v>
       </c>
       <c r="E202" t="n">
-        <v>131365127</v>
+        <v>129512231</v>
       </c>
       <c r="F202" t="n">
-        <v>5643.65365611885</v>
+        <v>7861.259054172066</v>
       </c>
       <c r="G202" t="n">
-        <v>11477.18256674056</v>
+        <v>7740.550063387989</v>
       </c>
       <c r="H202" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I202" t="n">
-        <v>13241789</v>
+        <v>13485862</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12789906</v>
+        <v>12812889</v>
       </c>
       <c r="E203" t="n">
-        <v>25561881</v>
+        <v>25607815</v>
       </c>
       <c r="F203" t="n">
-        <v>690.2601815117532</v>
+        <v>693.3735897650539</v>
       </c>
       <c r="G203" t="n">
-        <v>1214.075167507692</v>
+        <v>1214.271013698737</v>
       </c>
       <c r="H203" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="I203" t="n">
-        <v>14674.33</v>
+        <v>14798.27</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1275768</v>
+        <v>1267328</v>
       </c>
       <c r="F204" t="n">
-        <v>72.95791977851748</v>
+        <v>164.1311757023947</v>
       </c>
       <c r="G204" t="n">
-        <v>809.6730137537053</v>
+        <v>157.1149963624319</v>
       </c>
       <c r="H204" t="n">
-        <v>2.7</v>
+        <v>1.49</v>
       </c>
       <c r="I204" t="n">
-        <v>90808</v>
+        <v>89634</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>943401</v>
+        <v>950285</v>
       </c>
       <c r="E205" t="n">
-        <v>4363365</v>
+        <v>4395203</v>
       </c>
       <c r="F205" t="n">
-        <v>3684.781822452187</v>
+        <v>3297.301155367295</v>
       </c>
       <c r="G205" t="n">
-        <v>2497.756358285304</v>
+        <v>2348.050319324121</v>
       </c>
       <c r="H205" t="n">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="I205" t="n">
-        <v>477936</v>
+        <v>482901</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2999866</v>
+        <v>2951758</v>
       </c>
       <c r="E206" t="n">
-        <v>2999866</v>
+        <v>2951758</v>
       </c>
       <c r="F206" t="n">
-        <v>873.8476073049017</v>
+        <v>950.2838646440327</v>
       </c>
       <c r="G206" t="n">
-        <v>1235.659848823263</v>
+        <v>1266.135006953145</v>
       </c>
       <c r="H206" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I206" t="n">
-        <v>373372</v>
+        <v>351503</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>565783</v>
+        <v>559884</v>
       </c>
       <c r="E207" t="n">
-        <v>565783</v>
+        <v>559884</v>
       </c>
       <c r="F207" t="n">
-        <v>63.32689616179966</v>
+        <v>64.12266681950638</v>
       </c>
       <c r="G207" t="n">
-        <v>4.012661140646076</v>
+        <v>4.01216266134335</v>
       </c>
       <c r="H207" t="n">
         <v>0.54</v>
       </c>
       <c r="I207" t="n">
-        <v>1190867</v>
+        <v>1183290</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14708400</v>
+        <v>14662405</v>
       </c>
       <c r="E208" t="n">
-        <v>18726142</v>
+        <v>18667583</v>
       </c>
       <c r="F208" t="n">
-        <v>442.8461124693287</v>
+        <v>461.5664595469459</v>
       </c>
       <c r="G208" t="n">
-        <v>122.5149938851279</v>
+        <v>126.4534560978888</v>
       </c>
       <c r="H208" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="I208" t="n">
-        <v>946430</v>
+        <v>949806</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1793797</v>
+        <v>1769346</v>
       </c>
       <c r="E209" t="n">
-        <v>1793797</v>
+        <v>1769346</v>
       </c>
       <c r="F209" t="n">
-        <v>4.168170686592321</v>
+        <v>5.545320359046856</v>
       </c>
       <c r="G209" t="n">
-        <v>934.962928707458</v>
+        <v>937.3358936642567</v>
       </c>
       <c r="H209" t="n">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="I209" t="n">
-        <v>3787.77</v>
+        <v>3766.75</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5870131</v>
+        <v>5851400</v>
       </c>
       <c r="E210" t="n">
-        <v>15406152</v>
+        <v>15356992</v>
       </c>
       <c r="F210" t="n">
-        <v>96.03430682444372</v>
+        <v>346.6606576929707</v>
       </c>
       <c r="G210" t="n">
-        <v>958.002896807351</v>
+        <v>1043.37366949496</v>
       </c>
       <c r="H210" t="n">
-        <v>2.21</v>
+        <v>1.47</v>
       </c>
       <c r="I210" t="n">
-        <v>24494</v>
+        <v>25669</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28739371</v>
+        <v>28635134</v>
       </c>
       <c r="F211" t="n">
-        <v>1158.165044848032</v>
+        <v>1458.442968120314</v>
       </c>
       <c r="G211" t="n">
-        <v>2281.105303292763</v>
+        <v>1850.996021244053</v>
       </c>
       <c r="H211" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="I211" t="n">
-        <v>560825</v>
+        <v>541068</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17495360</v>
+        <v>17331064</v>
       </c>
       <c r="E212" t="n">
-        <v>17495408</v>
+        <v>17331116</v>
       </c>
       <c r="F212" t="n">
-        <v>15220.299038221</v>
+        <v>9283.176225114421</v>
       </c>
       <c r="G212" t="n">
-        <v>23528.38360479557</v>
+        <v>36357.67563800635</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2370628</v>
+        <v>2328720</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>49200793</v>
+        <v>48539290</v>
       </c>
       <c r="E213" t="n">
-        <v>319054049</v>
+        <v>314764378</v>
       </c>
       <c r="F213" t="n">
-        <v>158613.0796906976</v>
+        <v>176128.0273432802</v>
       </c>
       <c r="G213" t="n">
-        <v>171297.4399590389</v>
+        <v>160188.1642857608</v>
       </c>
       <c r="H213" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I213" t="n">
-        <v>20268164</v>
+        <v>20460304</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9062221</v>
+        <v>8132211</v>
       </c>
       <c r="F214" t="n">
-        <v>180.4695207567833</v>
+        <v>4.098127961960229</v>
       </c>
       <c r="G214" t="n">
-        <v>4.253519550820237</v>
+        <v>67.97165337415709</v>
       </c>
       <c r="H214" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="I214" t="n">
-        <v>293543</v>
+        <v>292997</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7113894</v>
+        <v>7040426</v>
       </c>
       <c r="E215" t="n">
-        <v>7124082</v>
+        <v>7050509</v>
       </c>
       <c r="F215" t="n">
-        <v>5.06320177630397</v>
+        <v>5.424607259958225</v>
       </c>
       <c r="G215" t="n">
-        <v>745.515549870259</v>
+        <v>591.7860474429971</v>
       </c>
       <c r="H215" t="n">
-        <v>0.97</v>
+        <v>0.39</v>
       </c>
       <c r="I215" t="n">
-        <v>720242</v>
+        <v>728000</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4536139</v>
+        <v>4464914</v>
       </c>
       <c r="F216" t="n">
-        <v>158.7647059159217</v>
+        <v>620.6023173358374</v>
       </c>
       <c r="G216" t="n">
-        <v>0.004121751905614771</v>
+        <v>8.875969679204042</v>
       </c>
       <c r="H216" t="n">
-        <v>0.35</v>
+        <v>2.62</v>
       </c>
       <c r="I216" t="n">
-        <v>234997</v>
+        <v>238718</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2474917</v>
+        <v>2470055</v>
       </c>
       <c r="E217" t="n">
-        <v>4483777</v>
+        <v>4474970</v>
       </c>
       <c r="F217" t="n">
-        <v>648.2219351273885</v>
+        <v>616.0631101497423</v>
       </c>
       <c r="G217" t="n">
-        <v>643.1114384368765</v>
+        <v>705.9597799661639</v>
       </c>
       <c r="H217" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="I217" t="n">
-        <v>143170</v>
+        <v>141469</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123539869</v>
+        <v>123308680</v>
       </c>
       <c r="E218" t="n">
-        <v>2045921409</v>
+        <v>2042092741</v>
       </c>
       <c r="F218" t="n">
-        <v>4397.629685348711</v>
+        <v>6402.762558423216</v>
       </c>
       <c r="G218" t="n">
-        <v>7311.558998752031</v>
+        <v>7219.823819956876</v>
       </c>
       <c r="H218" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I218" t="n">
-        <v>31563390</v>
+        <v>33559497</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>98382668</v>
+        <v>94325277</v>
       </c>
       <c r="E219" t="n">
-        <v>99441686</v>
+        <v>95340621</v>
       </c>
       <c r="F219" t="n">
-        <v>25671.05189354849</v>
+        <v>661.5146789034192</v>
       </c>
       <c r="G219" t="n">
-        <v>18892.99038544819</v>
+        <v>15094.99535897974</v>
       </c>
       <c r="H219" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="I219" t="n">
-        <v>80729107</v>
+        <v>79501823</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>246351569</v>
+        <v>237693243</v>
       </c>
       <c r="E220" t="n">
-        <v>246351569</v>
+        <v>237693243</v>
       </c>
       <c r="F220" t="n">
-        <v>3914.382881289762</v>
+        <v>3785.592518278021</v>
       </c>
       <c r="G220" t="n">
-        <v>35668.3269351573</v>
+        <v>54312.21602902636</v>
       </c>
       <c r="H220" t="n">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="I220" t="n">
-        <v>85260803</v>
+        <v>87823408</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23546737</v>
+        <v>23165032</v>
       </c>
       <c r="E221" t="n">
-        <v>140884862</v>
+        <v>138601044</v>
       </c>
       <c r="F221" t="n">
-        <v>37227.57629061946</v>
+        <v>58669.52230267985</v>
       </c>
       <c r="G221" t="n">
-        <v>88725.93525047471</v>
+        <v>87693.59545173607</v>
       </c>
       <c r="H221" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>16719430</v>
+        <v>16882911</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1081757</v>
+        <v>1059205</v>
       </c>
       <c r="F222" t="n">
-        <v>174.3365352243264</v>
+        <v>174.2535957000042</v>
       </c>
       <c r="G222" t="n">
-        <v>139.9838778979282</v>
+        <v>96.50637740349507</v>
       </c>
       <c r="H222" t="n">
         <v>2.76</v>
       </c>
       <c r="I222" t="n">
-        <v>86017</v>
+        <v>89118</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2206525</v>
+        <v>2191178</v>
       </c>
       <c r="F223" t="n">
-        <v>134.5039715516862</v>
+        <v>164.7828768349874</v>
       </c>
       <c r="G223" t="n">
-        <v>116.360080444135</v>
+        <v>145.1921454035173</v>
       </c>
       <c r="H223" t="n">
         <v>0.36</v>
       </c>
       <c r="I223" t="n">
-        <v>178913</v>
+        <v>178956</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13629360</v>
+        <v>13454140</v>
       </c>
       <c r="E224" t="n">
-        <v>41191710</v>
+        <v>40662147</v>
       </c>
       <c r="F224" t="n">
-        <v>2840.789735618383</v>
+        <v>1191.001969374909</v>
       </c>
       <c r="G224" t="n">
-        <v>756.4970396362636</v>
+        <v>5688.040375319244</v>
       </c>
       <c r="H224" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="I224" t="n">
-        <v>2529125</v>
+        <v>2456961</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52564160</v>
+        <v>52410954</v>
       </c>
       <c r="E225" t="n">
-        <v>90789733</v>
+        <v>90525111</v>
       </c>
       <c r="F225" t="n">
-        <v>6570.64066468182</v>
+        <v>6527.862471188699</v>
       </c>
       <c r="G225" t="n">
-        <v>13542.37429176951</v>
+        <v>13422.01609715898</v>
       </c>
       <c r="H225" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I225" t="n">
-        <v>2229551</v>
+        <v>2294216</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4162496</v>
+        <v>4142861</v>
       </c>
       <c r="E226" t="n">
-        <v>4162496</v>
+        <v>4142861</v>
       </c>
       <c r="F226" t="n">
-        <v>37.70266197037796</v>
+        <v>31.4619785501882</v>
       </c>
       <c r="G226" t="n">
-        <v>3.899727065826826</v>
+        <v>4.096529034553046</v>
       </c>
       <c r="H226" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
       <c r="I226" t="n">
-        <v>1747431</v>
+        <v>1747531</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>195215</v>
+        <v>192466</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>61001</v>
+        <v>60274</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6331371</v>
+        <v>6329970</v>
       </c>
       <c r="E228" t="n">
-        <v>32572979</v>
+        <v>32565774</v>
       </c>
       <c r="F228" t="n">
-        <v>138.1822073355643</v>
+        <v>365.0450923271036</v>
       </c>
       <c r="G228" t="n">
-        <v>116.7305539610132</v>
+        <v>130.0689730737162</v>
       </c>
       <c r="H228" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I228" t="n">
-        <v>952041</v>
+        <v>945514</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>174572740</v>
+        <v>173693156</v>
       </c>
       <c r="E230" t="n">
-        <v>203952506</v>
+        <v>202924893</v>
       </c>
       <c r="F230" t="n">
-        <v>20371.53329799357</v>
+        <v>19249.76529049786</v>
       </c>
       <c r="G230" t="n">
-        <v>76235.24765511873</v>
+        <v>80881.16781822457</v>
       </c>
       <c r="H230" t="n">
         <v>0.13</v>
       </c>
       <c r="I230" t="n">
-        <v>4470935</v>
+        <v>4433964</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>295088</v>
+        <v>295026</v>
       </c>
       <c r="F231" t="n">
-        <v>4.174048536890036</v>
+        <v>11.38878126050301</v>
       </c>
       <c r="G231" t="n">
-        <v>32.37732787946359</v>
+        <v>413.6575447370398</v>
       </c>
       <c r="H231" t="n">
-        <v>1.35</v>
+        <v>0.54</v>
       </c>
       <c r="I231" t="n">
-        <v>268879</v>
+        <v>241952</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29551480</v>
+        <v>29488884</v>
       </c>
       <c r="E232" t="n">
-        <v>40520246</v>
+        <v>40434416</v>
       </c>
       <c r="F232" t="n">
-        <v>5319.735374251654</v>
+        <v>6346.440940147992</v>
       </c>
       <c r="G232" t="n">
-        <v>5670.038275669712</v>
+        <v>4675.23381190558</v>
       </c>
       <c r="H232" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I232" t="n">
-        <v>213063</v>
+        <v>240933</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1178004</v>
+        <v>1176078</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>513246</v>
+        <v>489856</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7599324</v>
+        <v>7596377</v>
       </c>
       <c r="F234" t="n">
-        <v>693.4844992973636</v>
+        <v>630.4955429757231</v>
       </c>
       <c r="G234" t="n">
-        <v>3127.898273242031</v>
+        <v>3154.599978099088</v>
       </c>
       <c r="H234" t="n">
         <v>0.21</v>
       </c>
       <c r="I234" t="n">
-        <v>546676</v>
+        <v>536803</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23125747</v>
+        <v>22632641</v>
       </c>
       <c r="E235" t="n">
-        <v>23125903</v>
+        <v>22632641</v>
       </c>
       <c r="F235" t="n">
-        <v>31048.20885307103</v>
+        <v>5075.639042163274</v>
       </c>
       <c r="G235" t="n">
-        <v>8252.847953638304</v>
+        <v>27324.36904585765</v>
       </c>
       <c r="H235" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="I235" t="n">
-        <v>2393215</v>
+        <v>2346966</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3380678</v>
+        <v>3407333</v>
       </c>
       <c r="E236" t="n">
-        <v>4528631</v>
+        <v>4564337</v>
       </c>
       <c r="F236" t="n">
-        <v>177.5267905368312</v>
+        <v>711.441022394678</v>
       </c>
       <c r="G236" t="n">
-        <v>840.5598829740635</v>
+        <v>283.4095185436802</v>
       </c>
       <c r="H236" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I236" t="n">
-        <v>147348</v>
+        <v>148665</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>32887993</v>
+        <v>32622183</v>
       </c>
       <c r="E237" t="n">
-        <v>164126248</v>
+        <v>162799732</v>
       </c>
       <c r="F237" t="n">
-        <v>114194.8551005427</v>
+        <v>112810.7549698174</v>
       </c>
       <c r="G237" t="n">
-        <v>94489.0276812713</v>
+        <v>94441.99686299768</v>
       </c>
       <c r="H237" t="n">
         <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>13466482</v>
+        <v>13683190</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26194300</v>
+        <v>25949071</v>
       </c>
       <c r="E238" t="n">
-        <v>59051541</v>
+        <v>58498704</v>
       </c>
       <c r="F238" t="n">
-        <v>215.2071935491585</v>
+        <v>241.0193741155526</v>
       </c>
       <c r="G238" t="n">
-        <v>68.81274254660633</v>
+        <v>68.0023958835186</v>
       </c>
       <c r="H238" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="I238" t="n">
-        <v>394935</v>
+        <v>407226</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1941021</v>
+        <v>1927495</v>
       </c>
       <c r="E239" t="n">
-        <v>1941021</v>
+        <v>1927495</v>
       </c>
       <c r="F239" t="n">
-        <v>172.1768174983594</v>
+        <v>170.7137382783787</v>
       </c>
       <c r="G239" t="n">
-        <v>99.44602254828713</v>
+        <v>99.89210039086495</v>
       </c>
       <c r="H239" t="n">
         <v>0.68</v>
       </c>
       <c r="I239" t="n">
-        <v>7568.57</v>
+        <v>7512.61</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71817920</v>
+        <v>71535613</v>
       </c>
       <c r="F240" t="n">
-        <v>301.1980262137326</v>
+        <v>301.6351385688494</v>
       </c>
       <c r="G240" t="n">
-        <v>6.821983148856426</v>
+        <v>6.821248774549341</v>
       </c>
       <c r="H240" t="n">
         <v>0.25</v>
       </c>
       <c r="I240" t="n">
-        <v>61229</v>
+        <v>60651</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>899548</v>
+        <v>902520</v>
       </c>
       <c r="E241" t="n">
-        <v>899548</v>
+        <v>902520</v>
       </c>
       <c r="F241" t="n">
-        <v>5.349286448482617</v>
+        <v>5.37338926804965</v>
       </c>
       <c r="G241" t="n">
-        <v>21.29772531819695</v>
+        <v>15.34370737101665</v>
       </c>
       <c r="H241" t="n">
         <v>0.55</v>
       </c>
       <c r="I241" t="n">
-        <v>2075.5</v>
+        <v>11273.53</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>122694</v>
+        <v>123562</v>
       </c>
       <c r="E242" t="n">
-        <v>122694</v>
+        <v>123562</v>
       </c>
       <c r="F242" t="n">
-        <v>539.5321277777688</v>
+        <v>617.8070412917218</v>
       </c>
       <c r="G242" t="n">
-        <v>436.7280398389155</v>
+        <v>421.7071167299629</v>
       </c>
       <c r="H242" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I242" t="n">
-        <v>39671</v>
+        <v>39687</v>
       </c>
     </row>
     <row r="243">
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3496584</v>
+        <v>3496595</v>
       </c>
       <c r="E243" t="n">
-        <v>5022907</v>
+        <v>5022923</v>
       </c>
       <c r="F243" t="n">
         <v>344.5244666999955</v>
@@ -8917,7 +8917,7 @@
         <v>2.38</v>
       </c>
       <c r="I243" t="n">
-        <v>146270</v>
+        <v>147983</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>299723122</v>
+        <v>292832402</v>
       </c>
       <c r="E244" t="n">
-        <v>554556128</v>
+        <v>541806722</v>
       </c>
       <c r="F244" t="n">
-        <v>4725.344137662512</v>
+        <v>3573.116617527529</v>
       </c>
       <c r="G244" t="n">
-        <v>4200.696887997361</v>
+        <v>3590.907400726688</v>
       </c>
       <c r="H244" t="n">
         <v>0.09</v>
       </c>
       <c r="I244" t="n">
-        <v>16133210</v>
+        <v>16499618</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>70445973</v>
+        <v>69379061</v>
       </c>
       <c r="E245" t="n">
-        <v>671944750</v>
+        <v>661763148</v>
       </c>
       <c r="F245" t="n">
-        <v>37719.49726921718</v>
+        <v>42150.07432774237</v>
       </c>
       <c r="G245" t="n">
-        <v>65619.79603487682</v>
+        <v>64676.37502997107</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>23053612</v>
+        <v>23327929</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82005</v>
+        <v>81663</v>
       </c>
       <c r="E246" t="n">
-        <v>681726</v>
+        <v>678879</v>
       </c>
       <c r="F246" t="n">
-        <v>4.019936944098916</v>
+        <v>5.429931343266089</v>
       </c>
       <c r="G246" t="n">
-        <v>5.314459422620773</v>
+        <v>4.114314924190656</v>
       </c>
       <c r="H246" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I246" t="n">
-        <v>120.5</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1853735</v>
+        <v>1850098</v>
       </c>
       <c r="E247" t="n">
-        <v>5294029</v>
+        <v>5283643</v>
       </c>
       <c r="F247" t="n">
-        <v>397.3521212564143</v>
+        <v>397.4151865531135</v>
       </c>
       <c r="G247" t="n">
-        <v>276.7739779091042</v>
+        <v>152.9561330429651</v>
       </c>
       <c r="H247" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I247" t="n">
-        <v>74397</v>
+        <v>75242</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>36506383</v>
+        <v>36404270</v>
       </c>
       <c r="E248" t="n">
-        <v>47726635</v>
+        <v>47593106</v>
       </c>
       <c r="F248" t="n">
-        <v>314.2343595567766</v>
+        <v>505.0285949389871</v>
       </c>
       <c r="G248" t="n">
-        <v>759.8018353066489</v>
+        <v>1885.636422325578</v>
       </c>
       <c r="H248" t="n">
-        <v>0.61</v>
+        <v>1.89</v>
       </c>
       <c r="I248" t="n">
-        <v>423655</v>
+        <v>434726</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>9137423</v>
+        <v>8744574</v>
       </c>
       <c r="E249" t="n">
-        <v>27088241</v>
+        <v>25923625</v>
       </c>
       <c r="F249" t="n">
-        <v>1121.461334952743</v>
+        <v>544.2629106892167</v>
       </c>
       <c r="G249" t="n">
-        <v>1453.757505303204</v>
+        <v>810.1047537229279</v>
       </c>
       <c r="H249" t="n">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="I249" t="n">
-        <v>6220788</v>
+        <v>6250363</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1975208</v>
+        <v>1972984</v>
       </c>
       <c r="E250" t="n">
-        <v>5713785</v>
+        <v>5707353</v>
       </c>
       <c r="F250" t="n">
-        <v>196.5403992500347</v>
+        <v>3.032457651318631</v>
       </c>
       <c r="G250" t="n">
-        <v>153.5196431900932</v>
+        <v>170.0644245238958</v>
       </c>
       <c r="H250" t="n">
-        <v>0.04</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I250" t="n">
-        <v>52105</v>
+        <v>52534</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7323059</v>
+        <v>7264357</v>
       </c>
       <c r="E251" t="n">
-        <v>7323070</v>
+        <v>7264368</v>
       </c>
       <c r="F251" t="n">
-        <v>693.2243565143607</v>
+        <v>1001.158110074265</v>
       </c>
       <c r="G251" t="n">
-        <v>1943.546294525261</v>
+        <v>1032.708590748626</v>
       </c>
       <c r="H251" t="n">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="I251" t="n">
-        <v>266329</v>
+        <v>264352</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6157806</v>
+        <v>6114375</v>
       </c>
       <c r="E252" t="n">
-        <v>6157806</v>
+        <v>6114375</v>
       </c>
       <c r="F252" t="n">
-        <v>884.6995835593971</v>
+        <v>1226.989190196925</v>
       </c>
       <c r="G252" t="n">
-        <v>1238.154831088507</v>
+        <v>561.3951231569143</v>
       </c>
       <c r="H252" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="I252" t="n">
-        <v>481102</v>
+        <v>495364</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6214284</v>
+        <v>6200013</v>
       </c>
       <c r="E253" t="n">
-        <v>22698377</v>
+        <v>22646248</v>
       </c>
       <c r="F253" t="n">
-        <v>37.66660964748816</v>
+        <v>78.01570418689825</v>
       </c>
       <c r="G253" t="n">
-        <v>409.8846086676656</v>
+        <v>404.7373031202156</v>
       </c>
       <c r="H253" t="n">
-        <v>1.8</v>
+        <v>3.22</v>
       </c>
       <c r="I253" t="n">
-        <v>556007</v>
+        <v>517006</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2266041</v>
+        <v>2174711</v>
       </c>
       <c r="E254" t="n">
-        <v>19987987</v>
+        <v>19182397</v>
       </c>
       <c r="F254" t="n">
-        <v>51.31683872546131</v>
+        <v>51.30970562744834</v>
       </c>
       <c r="G254" t="n">
-        <v>2017.313408094374</v>
+        <v>2116.545706640909</v>
       </c>
       <c r="H254" t="n">
-        <v>1.46</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I254" t="n">
-        <v>49697</v>
+        <v>96095</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14552384</v>
+        <v>14533875</v>
       </c>
       <c r="E255" t="n">
-        <v>29460412</v>
+        <v>29422942</v>
       </c>
       <c r="F255" t="n">
-        <v>190.4666916861882</v>
+        <v>126.1138461836401</v>
       </c>
       <c r="G255" t="n">
-        <v>128.9278174126732</v>
+        <v>298.2851558184717</v>
       </c>
       <c r="H255" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="I255" t="n">
-        <v>565472</v>
+        <v>570462</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44367203</v>
+        <v>43814706</v>
       </c>
       <c r="E256" t="n">
-        <v>44367203</v>
+        <v>43814706</v>
       </c>
       <c r="F256" t="n">
-        <v>6865.550123600442</v>
+        <v>5357.884250453886</v>
       </c>
       <c r="G256" t="n">
-        <v>4639.742381982387</v>
+        <v>1439.820522958926</v>
       </c>
       <c r="H256" t="n">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="I256" t="n">
-        <v>10618062</v>
+        <v>10643250</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8072920</v>
+        <v>8152145</v>
       </c>
       <c r="E257" t="n">
-        <v>11502061</v>
+        <v>11614939</v>
       </c>
       <c r="F257" t="n">
-        <v>28.79982107131702</v>
+        <v>43.5963447879849</v>
       </c>
       <c r="G257" t="n">
-        <v>987.2426332869622</v>
+        <v>700.8897605441259</v>
       </c>
       <c r="H257" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I257" t="n">
-        <v>309236</v>
+        <v>324232</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>145086460</v>
+        <v>144067703</v>
       </c>
       <c r="F258" t="n">
-        <v>25.84410283542953</v>
+        <v>64.62824629704703</v>
       </c>
       <c r="G258" t="n">
-        <v>104.4942043277834</v>
+        <v>25.32005275277736</v>
       </c>
       <c r="H258" t="n">
-        <v>3.61</v>
+        <v>2.08</v>
       </c>
       <c r="I258" t="n">
-        <v>1767215</v>
+        <v>1466827</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>15948633</v>
+        <v>15704100</v>
       </c>
       <c r="F259" t="n">
-        <v>121.7488859157838</v>
+        <v>99.96367781743508</v>
       </c>
       <c r="G259" t="n">
-        <v>114.3741753829277</v>
+        <v>108.1939149811935</v>
       </c>
       <c r="H259" t="n">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="I259" t="n">
-        <v>1077923</v>
+        <v>1081534</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>716150</v>
+        <v>716015</v>
       </c>
       <c r="F260" t="n">
-        <v>8.998217340721938</v>
+        <v>9.997012153263871</v>
       </c>
       <c r="G260" t="n">
-        <v>30.61748891935317</v>
+        <v>30.0588576063764</v>
       </c>
       <c r="H260" t="n">
         <v>1.83</v>
       </c>
       <c r="I260" t="n">
-        <v>208565</v>
+        <v>210565</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2896393</v>
+        <v>2902472</v>
       </c>
       <c r="F261" t="n">
-        <v>43.39353110080172</v>
+        <v>111.3327905483103</v>
       </c>
       <c r="G261" t="n">
-        <v>50.17975626680666</v>
+        <v>50.10910405146191</v>
       </c>
       <c r="H261" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>73159</v>
+        <v>73053</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2814076</v>
+        <v>2803130</v>
       </c>
       <c r="E262" t="n">
-        <v>2816513</v>
+        <v>2805558</v>
       </c>
       <c r="F262" t="n">
-        <v>403.827509094382</v>
+        <v>15.88195189506329</v>
       </c>
       <c r="G262" t="n">
-        <v>3.985762161000698</v>
+        <v>730.9479150774422</v>
       </c>
       <c r="H262" t="n">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="I262" t="n">
-        <v>76941</v>
+        <v>74685</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>74613312</v>
+        <v>74418771</v>
       </c>
       <c r="E263" t="n">
-        <v>103311987</v>
+        <v>103042822</v>
       </c>
       <c r="F263" t="n">
-        <v>7188.508241066759</v>
+        <v>6581.870466098007</v>
       </c>
       <c r="G263" t="n">
-        <v>9079.355095945131</v>
+        <v>15218.93431224904</v>
       </c>
       <c r="H263" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="I263" t="n">
-        <v>7088407</v>
+        <v>7278551</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>623054</v>
+        <v>619422</v>
       </c>
       <c r="F264" t="n">
-        <v>451.5695497442635</v>
+        <v>69.46670503891463</v>
       </c>
       <c r="G264" t="n">
-        <v>31.90652185699094</v>
+        <v>215.2533451496382</v>
       </c>
       <c r="H264" t="n">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>629995</v>
+        <v>620396</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1291536</v>
+        <v>1310976</v>
       </c>
       <c r="E265" t="n">
-        <v>3909731</v>
+        <v>3968178</v>
       </c>
       <c r="F265" t="n">
-        <v>791.7669277080772</v>
+        <v>507.6992846924051</v>
       </c>
       <c r="G265" t="n">
-        <v>567.8573722785254</v>
+        <v>324.7662355653616</v>
       </c>
       <c r="H265" t="n">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="I265" t="n">
-        <v>41034</v>
+        <v>36311</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>32110033</v>
+        <v>31633757</v>
       </c>
       <c r="E266" t="n">
-        <v>227654897</v>
+        <v>224278175</v>
       </c>
       <c r="F266" t="n">
-        <v>21325.92137728177</v>
+        <v>23294.0126527043</v>
       </c>
       <c r="G266" t="n">
-        <v>26197.50572029077</v>
+        <v>19296.25918839457</v>
       </c>
       <c r="H266" t="n">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="I266" t="n">
-        <v>4927878</v>
+        <v>5283937</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58288</v>
+        <v>58167</v>
       </c>
       <c r="E267" t="n">
-        <v>304121</v>
+        <v>303491</v>
       </c>
       <c r="F267" t="n">
-        <v>22.92105766048237</v>
+        <v>15.97658461558552</v>
       </c>
       <c r="G267" t="n">
-        <v>36.55297048802803</v>
+        <v>21.12033196915191</v>
       </c>
       <c r="H267" t="n">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="I267" t="n">
-        <v>209103</v>
+        <v>203304</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1276397</v>
+        <v>1274840</v>
       </c>
       <c r="E268" t="n">
-        <v>7915566</v>
+        <v>7905198</v>
       </c>
       <c r="F268" t="n">
-        <v>1185.994543293195</v>
+        <v>1397.759124807279</v>
       </c>
       <c r="G268" t="n">
-        <v>1925.069915653522</v>
+        <v>2030.989065499113</v>
       </c>
       <c r="H268" t="n">
         <v>0.31</v>
       </c>
       <c r="I268" t="n">
-        <v>791691</v>
+        <v>788373</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>587293258</v>
+        <v>578120375</v>
       </c>
       <c r="E269" t="n">
-        <v>2274500141</v>
+        <v>2238974916</v>
       </c>
       <c r="F269" t="n">
-        <v>325778.0723060083</v>
+        <v>288437.1180112226</v>
       </c>
       <c r="G269" t="n">
-        <v>275269.992824592</v>
+        <v>286816.3456880691</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>55396641</v>
+        <v>57103862</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3343955</v>
+        <v>3288398</v>
       </c>
       <c r="F270" t="n">
-        <v>121.3622742267218</v>
+        <v>74.51140055399229</v>
       </c>
       <c r="G270" t="n">
-        <v>150.5817131152113</v>
+        <v>113.2923088054748</v>
       </c>
       <c r="H270" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="I270" t="n">
-        <v>37967</v>
+        <v>37757</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>830245</v>
+        <v>829371</v>
       </c>
       <c r="F271" t="n">
-        <v>210.5703122030848</v>
+        <v>226.0357383627682</v>
       </c>
       <c r="G271" t="n">
-        <v>10.91128621166534</v>
+        <v>2.317357849129894</v>
       </c>
       <c r="H271" t="n">
-        <v>1.92</v>
+        <v>1.45</v>
       </c>
       <c r="I271" t="n">
-        <v>163062</v>
+        <v>141434</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5461034</v>
+        <v>5451612</v>
       </c>
       <c r="E272" t="n">
-        <v>24445930</v>
+        <v>24403721</v>
       </c>
       <c r="F272" t="n">
-        <v>896.1845624218839</v>
+        <v>1841.468499239596</v>
       </c>
       <c r="G272" t="n">
-        <v>103.4335416489723</v>
+        <v>173.2687011680191</v>
       </c>
       <c r="H272" t="n">
         <v>0.7</v>
       </c>
       <c r="I272" t="n">
-        <v>189972</v>
+        <v>190542</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6676610</v>
+        <v>6665709</v>
       </c>
       <c r="E273" t="n">
-        <v>12782912</v>
+        <v>12762040</v>
       </c>
       <c r="F273" t="n">
-        <v>155.6515586945734</v>
+        <v>1433.254797339138</v>
       </c>
       <c r="G273" t="n">
-        <v>52.51016992189309</v>
+        <v>173.9386350952867</v>
       </c>
       <c r="H273" t="n">
-        <v>2.09</v>
+        <v>1.59</v>
       </c>
       <c r="I273" t="n">
-        <v>34415</v>
+        <v>33832</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3184179</v>
+        <v>3185685</v>
       </c>
       <c r="E274" t="n">
-        <v>20938422</v>
+        <v>20948323</v>
       </c>
       <c r="F274" t="n">
-        <v>361.253969536646</v>
+        <v>265.4119367388678</v>
       </c>
       <c r="G274" t="n">
-        <v>54.7470920227307</v>
+        <v>54.74106555773553</v>
       </c>
       <c r="H274" t="n">
         <v>0.28</v>
       </c>
       <c r="I274" t="n">
-        <v>1673302</v>
+        <v>1680416</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3650509</v>
+        <v>3646156</v>
       </c>
       <c r="E275" t="n">
-        <v>6222788</v>
+        <v>6215368</v>
       </c>
       <c r="F275" t="n">
-        <v>696.3177715578621</v>
+        <v>696.3177711986525</v>
       </c>
       <c r="G275" t="n">
-        <v>463.4261804740083</v>
+        <v>463.4261802349407</v>
       </c>
       <c r="H275" t="n">
         <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>1128634</v>
+        <v>1127144</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>437174</v>
+        <v>437632</v>
       </c>
       <c r="E276" t="n">
-        <v>437174</v>
+        <v>437632</v>
       </c>
       <c r="F276" t="n">
-        <v>3.410185872917414</v>
+        <v>3.425634890141405</v>
       </c>
       <c r="G276" t="n">
-        <v>4.012189178866046</v>
+        <v>4.011747524035678</v>
       </c>
       <c r="H276" t="n">
         <v>0.86</v>
       </c>
       <c r="I276" t="n">
-        <v>81.84</v>
+        <v>81.86</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7474279</v>
+        <v>7426001</v>
       </c>
       <c r="E277" t="n">
-        <v>10708450</v>
+        <v>10639202</v>
       </c>
       <c r="F277" t="n">
-        <v>803.253755182846</v>
+        <v>1194.971748847168</v>
       </c>
       <c r="G277" t="n">
-        <v>1180.680236522632</v>
+        <v>511.9570143897548</v>
       </c>
       <c r="H277" t="n">
         <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>179905</v>
+        <v>176725</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>110733543</v>
+        <v>109089076</v>
       </c>
       <c r="E278" t="n">
-        <v>1028857324</v>
+        <v>1013578103</v>
       </c>
       <c r="F278" t="n">
-        <v>3536.219792841746</v>
+        <v>2301.800133392817</v>
       </c>
       <c r="G278" t="n">
-        <v>8954.112616968114</v>
+        <v>4148.689424292608</v>
       </c>
       <c r="H278" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I278" t="n">
-        <v>14549944</v>
+        <v>14921865</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>96963468</v>
+        <v>95408464</v>
       </c>
       <c r="E279" t="n">
-        <v>147920044</v>
+        <v>145547848</v>
       </c>
       <c r="F279" t="n">
-        <v>12330.83069057151</v>
+        <v>13220.62672728874</v>
       </c>
       <c r="G279" t="n">
-        <v>12739.57756334547</v>
+        <v>21308.84393843083</v>
       </c>
       <c r="H279" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="I279" t="n">
-        <v>11942928</v>
+        <v>12411713</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15531092</v>
+        <v>15668747</v>
       </c>
       <c r="E280" t="n">
-        <v>21307313</v>
+        <v>21496164</v>
       </c>
       <c r="F280" t="n">
-        <v>203.7027509506564</v>
+        <v>178.9485207670964</v>
       </c>
       <c r="G280" t="n">
-        <v>6186.232353868954</v>
+        <v>6195.390220086299</v>
       </c>
       <c r="H280" t="n">
         <v>0.14</v>
       </c>
       <c r="I280" t="n">
-        <v>864682</v>
+        <v>875697</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5402855</v>
+        <v>5353663</v>
       </c>
       <c r="E281" t="n">
-        <v>5402855</v>
+        <v>5353663</v>
       </c>
       <c r="F281" t="n">
-        <v>149.3259340829295</v>
+        <v>37.01422696189811</v>
       </c>
       <c r="G281" t="n">
-        <v>1042.43591734844</v>
+        <v>1107.21304880683</v>
       </c>
       <c r="H281" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="I281" t="n">
-        <v>691041</v>
+        <v>678899</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>122679072</v>
+        <v>121124474</v>
       </c>
       <c r="E282" t="n">
-        <v>470616666</v>
+        <v>464652977</v>
       </c>
       <c r="F282" t="n">
-        <v>69382.15682714533</v>
+        <v>56329.24028333584</v>
       </c>
       <c r="G282" t="n">
-        <v>80169.43390145592</v>
+        <v>80907.04465408555</v>
       </c>
       <c r="H282" t="n">
         <v>0.04</v>
       </c>
       <c r="I282" t="n">
-        <v>40308044</v>
+        <v>39727316</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>642596</v>
+        <v>640342</v>
       </c>
       <c r="F283" t="n">
-        <v>3.944969221993885</v>
+        <v>2.81221008880688</v>
       </c>
       <c r="G283" t="n">
-        <v>4.087503853830116</v>
+        <v>4.062376470263457</v>
       </c>
       <c r="H283" t="n">
         <v>0.62</v>
       </c>
       <c r="I283" t="n">
-        <v>41558</v>
+        <v>40934</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3034079</v>
+        <v>3011952</v>
       </c>
       <c r="E284" t="n">
-        <v>28748342</v>
+        <v>28538695</v>
       </c>
       <c r="F284" t="n">
-        <v>303.7499296393967</v>
+        <v>680.8238806674792</v>
       </c>
       <c r="G284" t="n">
-        <v>1594.135050637348</v>
+        <v>1135.232224182604</v>
       </c>
       <c r="H284" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I284" t="n">
-        <v>224986</v>
+        <v>246641</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>94562</v>
+        <v>93922</v>
       </c>
       <c r="F285" t="n">
-        <v>1386.71238404654</v>
+        <v>1378.357218224071</v>
       </c>
       <c r="G285" t="n">
-        <v>447.910812231192</v>
+        <v>428.3020865025969</v>
       </c>
       <c r="H285" t="n">
-        <v>0.84</v>
+        <v>0.11</v>
       </c>
       <c r="I285" t="n">
-        <v>47964</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>130936</v>
+        <v>131071</v>
       </c>
       <c r="F286" t="n">
-        <v>4.083110635604301</v>
+        <v>4.082661173862905</v>
       </c>
       <c r="G286" t="n">
-        <v>4.119825205156015</v>
+        <v>4.119371701938442</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>67430</v>
+        <v>67338</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21546146</v>
+        <v>21176018</v>
       </c>
       <c r="E287" t="n">
-        <v>21546146</v>
+        <v>21176018</v>
       </c>
       <c r="F287" t="n">
-        <v>3278.704994849893</v>
+        <v>2249.993517440573</v>
       </c>
       <c r="G287" t="n">
-        <v>720.6193159777486</v>
+        <v>2038.257909014582</v>
       </c>
       <c r="H287" t="n">
         <v>0.19</v>
       </c>
       <c r="I287" t="n">
-        <v>532953</v>
+        <v>498108</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>575442</v>
+        <v>559680</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8116.04</v>
+        <v>8124.84</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6577572</v>
+        <v>6575656</v>
       </c>
       <c r="E289" t="n">
-        <v>41107940</v>
+        <v>41095968</v>
       </c>
       <c r="F289" t="n">
-        <v>341.6268155788971</v>
+        <v>12.26220959750972</v>
       </c>
       <c r="G289" t="n">
-        <v>121.8267462187783</v>
+        <v>125.8190270490815</v>
       </c>
       <c r="H289" t="n">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="I289" t="n">
-        <v>415459</v>
+        <v>415619</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493816543</v>
+        <v>493968478</v>
       </c>
       <c r="E290" t="n">
-        <v>493816543</v>
+        <v>493968478</v>
       </c>
       <c r="F290" t="n">
-        <v>1012041.894628525</v>
+        <v>1033286.51679283</v>
       </c>
       <c r="G290" t="n">
-        <v>1628887.507156486</v>
+        <v>1633137.257813715</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>41967216</v>
+        <v>42093628</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5105650</v>
+        <v>5094978</v>
       </c>
       <c r="E291" t="n">
-        <v>18972691</v>
+        <v>18933033</v>
       </c>
       <c r="F291" t="n">
-        <v>461.3551459741889</v>
+        <v>568.3082717728369</v>
       </c>
       <c r="G291" t="n">
-        <v>1646.42301757707</v>
+        <v>1957.197702497766</v>
       </c>
       <c r="H291" t="n">
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>87027</v>
+        <v>87596</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>36368536</v>
+        <v>35320073</v>
       </c>
       <c r="F292" t="n">
-        <v>7114.627119251994</v>
+        <v>9100.243708222481</v>
       </c>
       <c r="G292" t="n">
-        <v>14948.11635804665</v>
+        <v>11150.56975352679</v>
       </c>
       <c r="H292" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="I292" t="n">
-        <v>7618484</v>
+        <v>7576056</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>40878137</v>
+        <v>39763911</v>
       </c>
       <c r="E293" t="n">
-        <v>146521968</v>
+        <v>142528183</v>
       </c>
       <c r="F293" t="n">
-        <v>66.8712539998204</v>
+        <v>2.720519082515042</v>
       </c>
       <c r="G293" t="n">
-        <v>22.08314339074538</v>
+        <v>67.27775846200073</v>
       </c>
       <c r="H293" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>152839</v>
+        <v>157570</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>795933</v>
+        <v>795788</v>
       </c>
       <c r="E294" t="n">
-        <v>12694846</v>
+        <v>12692539</v>
       </c>
       <c r="F294" t="n">
-        <v>19.03284839359177</v>
+        <v>19.03085158854578</v>
       </c>
       <c r="G294" t="n">
-        <v>7.74547261175386</v>
+        <v>7.744660006174553</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>332612</v>
+        <v>333627</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84611</v>
+        <v>84474</v>
       </c>
       <c r="F295" t="n">
-        <v>22.36409446185018</v>
+        <v>22.36110963237181</v>
       </c>
       <c r="G295" t="n">
-        <v>209.0726011487901</v>
+        <v>203.6911936120673</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>55019</v>
+        <v>54817</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1540992</v>
+        <v>1578131</v>
       </c>
       <c r="F296" t="n">
-        <v>5.351758072232619</v>
+        <v>5.35118044611575</v>
       </c>
       <c r="G296" t="n">
-        <v>3.971671988204369</v>
+        <v>3.971243317581172</v>
       </c>
       <c r="H296" t="n">
         <v>0.45</v>
       </c>
       <c r="I296" t="n">
-        <v>604832</v>
+        <v>606395</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2569881655</v>
+        <v>2539254254</v>
       </c>
       <c r="E297" t="n">
-        <v>2728545626</v>
+        <v>2696027296</v>
       </c>
       <c r="F297" t="n">
-        <v>40972.9535652216</v>
+        <v>35485.47170341455</v>
       </c>
       <c r="G297" t="n">
-        <v>52293.25290097215</v>
+        <v>57921.48757146906</v>
       </c>
       <c r="H297" t="n">
         <v>0.16</v>
       </c>
       <c r="I297" t="n">
-        <v>56086397</v>
+        <v>56507906</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2185372</v>
+        <v>2125756</v>
       </c>
       <c r="E298" t="n">
-        <v>16809265</v>
+        <v>16350711</v>
       </c>
       <c r="F298" t="n">
-        <v>40.01364118286806</v>
+        <v>92.07211321102552</v>
       </c>
       <c r="G298" t="n">
-        <v>1.04986322047154</v>
+        <v>9.842539438915521</v>
       </c>
       <c r="H298" t="n">
-        <v>3.34</v>
+        <v>3.01</v>
       </c>
       <c r="I298" t="n">
-        <v>215421</v>
+        <v>217399</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1716357</v>
+        <v>1695081</v>
       </c>
       <c r="E299" t="n">
-        <v>1722416</v>
+        <v>1701065</v>
       </c>
       <c r="F299" t="n">
-        <v>908.4241590433927</v>
+        <v>518.3684313796531</v>
       </c>
       <c r="G299" t="n">
-        <v>1217.187117346673</v>
+        <v>1067.401704100688</v>
       </c>
       <c r="H299" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I299" t="n">
-        <v>457321</v>
+        <v>457899</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87740649</v>
+        <v>87537016</v>
       </c>
       <c r="E300" t="n">
-        <v>324327648</v>
+        <v>323574835</v>
       </c>
       <c r="F300" t="n">
-        <v>3819.611703723005</v>
+        <v>2826.901154048052</v>
       </c>
       <c r="G300" t="n">
-        <v>7919.645423483439</v>
+        <v>14646.60731303009</v>
       </c>
       <c r="H300" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I300" t="n">
-        <v>235433</v>
+        <v>236937</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2178443</v>
+        <v>2181334</v>
       </c>
       <c r="E301" t="n">
-        <v>8733045</v>
+        <v>8744635</v>
       </c>
       <c r="F301" t="n">
-        <v>482.2223096119289</v>
+        <v>3.869674209802693</v>
       </c>
       <c r="G301" t="n">
-        <v>5.325683797062447</v>
+        <v>5.461212955767839</v>
       </c>
       <c r="H301" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="I301" t="n">
-        <v>10786.39</v>
+        <v>9177.33</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>58178535</v>
+        <v>57772667</v>
       </c>
       <c r="E302" t="n">
-        <v>142708002</v>
+        <v>141712436</v>
       </c>
       <c r="F302" t="n">
-        <v>1463.967713744248</v>
+        <v>52.76068426814622</v>
       </c>
       <c r="G302" t="n">
-        <v>3754.858459608925</v>
+        <v>3387.980471390202</v>
       </c>
       <c r="H302" t="n">
-        <v>0.58</v>
+        <v>1.65</v>
       </c>
       <c r="I302" t="n">
-        <v>21920180</v>
+        <v>21848785</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>765271157</v>
+        <v>754606332</v>
       </c>
       <c r="E303" t="n">
-        <v>1180115691</v>
+        <v>1163669590</v>
       </c>
       <c r="F303" t="n">
-        <v>1026.521865640391</v>
+        <v>2.655289115578303</v>
       </c>
       <c r="G303" t="n">
-        <v>19712.06847359765</v>
+        <v>46340.40069762588</v>
       </c>
       <c r="H303" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I303" t="n">
-        <v>276657871</v>
+        <v>333239200</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19946439</v>
+        <v>19448634</v>
       </c>
       <c r="E304" t="n">
-        <v>19946439</v>
+        <v>19448634</v>
       </c>
       <c r="F304" t="n">
-        <v>873.0652764428788</v>
+        <v>205.8743938379301</v>
       </c>
       <c r="G304" t="n">
-        <v>2311.668626485525</v>
+        <v>2948.950702803114</v>
       </c>
       <c r="H304" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I304" t="n">
-        <v>7249561</v>
+        <v>7185024</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2061628</v>
+        <v>2001862</v>
       </c>
       <c r="E305" t="n">
-        <v>3382781</v>
+        <v>3284715</v>
       </c>
       <c r="F305" t="n">
-        <v>290.3201087003185</v>
+        <v>833.656994604139</v>
       </c>
       <c r="G305" t="n">
-        <v>4.003688502026851</v>
+        <v>5.281816704061014</v>
       </c>
       <c r="H305" t="n">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="I305" t="n">
-        <v>142957</v>
+        <v>133335</v>
       </c>
     </row>
     <row r="306">
@@ -11105,10 +11105,10 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>9443655</v>
+        <v>14375183</v>
       </c>
       <c r="E306" t="n">
-        <v>9443655</v>
+        <v>14375183</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -11117,10 +11117,10 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>11.33</v>
+        <v>6.47</v>
       </c>
       <c r="I306" t="n">
-        <v>3094.36</v>
+        <v>25940</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39545329</v>
+        <v>39533751</v>
       </c>
       <c r="E307" t="n">
-        <v>188585889</v>
+        <v>188530676</v>
       </c>
       <c r="F307" t="n">
-        <v>1090.984529566493</v>
+        <v>1090.838921042533</v>
       </c>
       <c r="G307" t="n">
-        <v>232.0909388407661</v>
+        <v>250.9603020987101</v>
       </c>
       <c r="H307" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I307" t="n">
-        <v>402496</v>
+        <v>401323</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>379056</v>
+        <v>379226</v>
       </c>
       <c r="E308" t="n">
-        <v>708941</v>
+        <v>709260</v>
       </c>
       <c r="F308" t="n">
-        <v>5.38100205947276</v>
+        <v>5.380406947880472</v>
       </c>
       <c r="G308" t="n">
-        <v>773.4188949949503</v>
+        <v>771.1331035950451</v>
       </c>
       <c r="H308" t="n">
         <v>0.06</v>
       </c>
       <c r="I308" t="n">
-        <v>2384.57</v>
+        <v>2431.63</v>
       </c>
     </row>
     <row r="309">
@@ -11210,10 +11210,10 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23101063</v>
+        <v>24458606</v>
       </c>
       <c r="E309" t="n">
-        <v>38501772</v>
+        <v>40764343</v>
       </c>
       <c r="F309" t="n">
         <v>237.7923512935297</v>
@@ -11225,7 +11225,7 @@
         <v>0.52</v>
       </c>
       <c r="I309" t="n">
-        <v>701478</v>
+        <v>914879</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>108011</v>
+        <v>107971</v>
       </c>
       <c r="F310" t="n">
-        <v>15.41949465847392</v>
+        <v>15.26788962680116</v>
       </c>
       <c r="G310" t="n">
-        <v>66.51840638375582</v>
+        <v>66.59508013191324</v>
       </c>
       <c r="H310" t="n">
         <v>0.09</v>
       </c>
       <c r="I310" t="n">
-        <v>54810</v>
+        <v>55166</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>21647780</v>
+        <v>21413949</v>
       </c>
       <c r="E311" t="n">
-        <v>21647780</v>
+        <v>21413949</v>
       </c>
       <c r="F311" t="n">
-        <v>1163.489806634955</v>
+        <v>438.0719834547899</v>
       </c>
       <c r="G311" t="n">
-        <v>1751.733280629831</v>
+        <v>1195.71885132039</v>
       </c>
       <c r="H311" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I311" t="n">
-        <v>5719424</v>
+        <v>5639157</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3814155</v>
+        <v>3811893</v>
       </c>
       <c r="E312" t="n">
-        <v>8314324</v>
+        <v>8309392</v>
       </c>
       <c r="F312" t="n">
-        <v>1802.264481621596</v>
+        <v>1889.757523762832</v>
       </c>
       <c r="G312" t="n">
-        <v>1866.465628925971</v>
+        <v>1791.804463459674</v>
       </c>
       <c r="H312" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1974225</v>
+        <v>2008060</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9249670</v>
+        <v>9252660</v>
       </c>
       <c r="E313" t="n">
-        <v>9249670</v>
+        <v>9252660</v>
       </c>
       <c r="F313" t="n">
-        <v>16210.7190906982</v>
+        <v>116924.9366031031</v>
       </c>
       <c r="G313" t="n">
-        <v>113320.2987676957</v>
+        <v>15484.67522754367</v>
       </c>
       <c r="H313" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I313" t="n">
-        <v>5342890</v>
+        <v>5439670</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>480862143</v>
+        <v>472922845</v>
       </c>
       <c r="E314" t="n">
-        <v>1673841101</v>
+        <v>1646205064</v>
       </c>
       <c r="F314" t="n">
-        <v>250166.2073709929</v>
+        <v>224276.8804560885</v>
       </c>
       <c r="G314" t="n">
-        <v>308586.9477642575</v>
+        <v>344685.9417774447</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>44400922</v>
+        <v>46210150</v>
       </c>
     </row>
     <row r="315">
@@ -11420,10 +11420,10 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22345218</v>
+        <v>22267419</v>
       </c>
       <c r="E315" t="n">
-        <v>22325808</v>
+        <v>22248076</v>
       </c>
       <c r="F315" t="n">
         <v>254.8457586713152</v>
@@ -11435,7 +11435,7 @@
         <v>0.38</v>
       </c>
       <c r="I315" t="n">
-        <v>406845</v>
+        <v>407448</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>47531966</v>
+        <v>47087440</v>
       </c>
       <c r="E316" t="n">
-        <v>117006443</v>
+        <v>115912189</v>
       </c>
       <c r="F316" t="n">
-        <v>964.3231004122111</v>
+        <v>521.4086159981788</v>
       </c>
       <c r="G316" t="n">
-        <v>1557.39264912998</v>
+        <v>1586.125612869184</v>
       </c>
       <c r="H316" t="n">
-        <v>0.51</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I316" t="n">
-        <v>105743</v>
+        <v>100485</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11735294</v>
+        <v>11892238</v>
       </c>
       <c r="E317" t="n">
-        <v>23695781</v>
+        <v>24011443</v>
       </c>
       <c r="F317" t="n">
-        <v>15.92227975075095</v>
+        <v>194.6265791969265</v>
       </c>
       <c r="G317" t="n">
-        <v>1518.135119635246</v>
+        <v>2013.217278300775</v>
       </c>
       <c r="H317" t="n">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
       <c r="I317" t="n">
-        <v>56995</v>
+        <v>68946</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7313200</v>
+        <v>7159158</v>
       </c>
       <c r="E318" t="n">
-        <v>18998906</v>
+        <v>18598723</v>
       </c>
       <c r="F318" t="n">
-        <v>434.2082809782441</v>
+        <v>197.7840478036829</v>
       </c>
       <c r="G318" t="n">
-        <v>175.0976168548555</v>
+        <v>197.515586854425</v>
       </c>
       <c r="H318" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I318" t="n">
-        <v>751560</v>
+        <v>754726</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>147961</v>
+        <v>145116</v>
       </c>
       <c r="F319" t="n">
-        <v>40.01186619356972</v>
+        <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>254.0580497668148</v>
+        <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>2.68</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I319" t="n">
-        <v>56337</v>
+        <v>55549</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18897904443</v>
+        <v>18801722349</v>
       </c>
       <c r="F320" t="n">
-        <v>547.0962727105496</v>
+        <v>412.3695152042708</v>
       </c>
       <c r="G320" t="n">
-        <v>1606.915899428695</v>
+        <v>17932.81800836269</v>
       </c>
       <c r="H320" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="I320" t="n">
-        <v>38957589</v>
+        <v>37724967</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>106456308</v>
+        <v>104972832</v>
       </c>
       <c r="E321" t="n">
-        <v>161293607</v>
+        <v>159045970</v>
       </c>
       <c r="F321" t="n">
-        <v>12383.49322508757</v>
+        <v>10009.75088742957</v>
       </c>
       <c r="G321" t="n">
-        <v>14872.48359511218</v>
+        <v>20933.60562768722</v>
       </c>
       <c r="H321" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="I321" t="n">
-        <v>9656687</v>
+        <v>9730231</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2366284</v>
+        <v>2385515</v>
       </c>
       <c r="E322" t="n">
-        <v>9465138</v>
+        <v>9542061</v>
       </c>
       <c r="F322" t="n">
-        <v>3.844961356368646</v>
+        <v>767.4038782249368</v>
       </c>
       <c r="G322" t="n">
-        <v>480.1647600531631</v>
+        <v>9445.513265983654</v>
       </c>
       <c r="H322" t="n">
         <v>0.21</v>
       </c>
       <c r="I322" t="n">
-        <v>7273599</v>
+        <v>7461982</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>214109161</v>
+        <v>212201081</v>
       </c>
       <c r="E323" t="n">
-        <v>658305097</v>
+        <v>652438467</v>
       </c>
       <c r="F323" t="n">
-        <v>98307.86858993689</v>
+        <v>171377.8132265743</v>
       </c>
       <c r="G323" t="n">
-        <v>169727.3726637224</v>
+        <v>169199.2909074288</v>
       </c>
       <c r="H323" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I323" t="n">
-        <v>21537453</v>
+        <v>21773937</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>138604093</v>
+        <v>135385233</v>
       </c>
       <c r="E324" t="n">
-        <v>362099349</v>
+        <v>353690165</v>
       </c>
       <c r="F324" t="n">
-        <v>9263.874073077797</v>
+        <v>9209.49925666178</v>
       </c>
       <c r="G324" t="n">
-        <v>11212.3398071985</v>
+        <v>25721.85636533425</v>
       </c>
       <c r="H324" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I324" t="n">
-        <v>9221020</v>
+        <v>9431834</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2389345</v>
+        <v>2350646</v>
       </c>
       <c r="E325" t="n">
-        <v>3279335</v>
+        <v>3226224</v>
       </c>
       <c r="F325" t="n">
-        <v>435.1997954497706</v>
+        <v>63.35677209628828</v>
       </c>
       <c r="G325" t="n">
-        <v>239.5846640786477</v>
+        <v>1608.585802435596</v>
       </c>
       <c r="H325" t="n">
-        <v>1.53</v>
+        <v>2.19</v>
       </c>
       <c r="I325" t="n">
-        <v>1791446</v>
+        <v>1790919</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>385594920</v>
+        <v>381279680</v>
       </c>
       <c r="E326" t="n">
-        <v>2203399543</v>
+        <v>2178741029</v>
       </c>
       <c r="F326" t="n">
-        <v>248404.5636044721</v>
+        <v>243087.708716626</v>
       </c>
       <c r="G326" t="n">
-        <v>278328.1431304437</v>
+        <v>314076.5247087894</v>
       </c>
       <c r="H326" t="n">
         <v>0.19</v>
       </c>
       <c r="I326" t="n">
-        <v>56300273</v>
+        <v>57305354</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92565</v>
+        <v>92420</v>
       </c>
       <c r="F2" t="n">
-        <v>3.486943521703953</v>
+        <v>3.486656885432801</v>
       </c>
       <c r="G2" t="n">
-        <v>4.067002759633994</v>
+        <v>4.06666844091087</v>
       </c>
       <c r="H2" t="n">
         <v>0.82</v>
       </c>
       <c r="I2" t="n">
-        <v>1653.25</v>
+        <v>1578.44</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600741831</v>
+        <v>593409668</v>
       </c>
       <c r="E3" t="n">
-        <v>1165768853</v>
+        <v>1151540835</v>
       </c>
       <c r="F3" t="n">
-        <v>25630.16376026566</v>
+        <v>25985.18099293172</v>
       </c>
       <c r="G3" t="n">
-        <v>21336.07333252784</v>
+        <v>22972.01606143494</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I3" t="n">
-        <v>41548460</v>
+        <v>41088650</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243832134</v>
+        <v>240025346</v>
       </c>
       <c r="E4" t="n">
-        <v>1529037042</v>
+        <v>1505165208</v>
       </c>
       <c r="F4" t="n">
-        <v>37221.13482866097</v>
+        <v>30115.40824604886</v>
       </c>
       <c r="G4" t="n">
-        <v>52539.97447113912</v>
+        <v>63699.33648740494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>26273162</v>
+        <v>26543935</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141184537</v>
+        <v>138809750</v>
       </c>
       <c r="E5" t="n">
-        <v>156454531</v>
+        <v>153822896</v>
       </c>
       <c r="F5" t="n">
-        <v>133308.6604816299</v>
+        <v>147504.0364680119</v>
       </c>
       <c r="G5" t="n">
-        <v>194102.9914295095</v>
+        <v>171868.3898717467</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>51074342</v>
+        <v>51227214</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48141547</v>
+        <v>47282720</v>
       </c>
       <c r="E6" t="n">
-        <v>60223841</v>
+        <v>59149470</v>
       </c>
       <c r="F6" t="n">
-        <v>7293.99444259275</v>
+        <v>5905.965999081737</v>
       </c>
       <c r="G6" t="n">
-        <v>7589.674909391516</v>
+        <v>14792.08406436677</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="I6" t="n">
-        <v>884730</v>
+        <v>849796</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8319655</v>
+        <v>8305683</v>
       </c>
       <c r="E7" t="n">
-        <v>8529446</v>
+        <v>8515122</v>
       </c>
       <c r="F7" t="n">
-        <v>748.2243812758869</v>
+        <v>780.6464669764679</v>
       </c>
       <c r="G7" t="n">
-        <v>537.8727816481227</v>
+        <v>488.5254488312272</v>
       </c>
       <c r="H7" t="n">
         <v>0.93</v>
       </c>
       <c r="I7" t="n">
-        <v>96418</v>
+        <v>95444</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67016977</v>
+        <v>66402492</v>
       </c>
       <c r="E8" t="n">
-        <v>133475138</v>
+        <v>132251291</v>
       </c>
       <c r="F8" t="n">
-        <v>13584.20901017479</v>
+        <v>14560.28806532143</v>
       </c>
       <c r="G8" t="n">
-        <v>14066.14213400337</v>
+        <v>42858.66238937913</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1040932</v>
+        <v>1071252</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5096419</v>
+        <v>5075360</v>
       </c>
       <c r="E9" t="n">
-        <v>8142546</v>
+        <v>8108900</v>
       </c>
       <c r="F9" t="n">
-        <v>341.691996169867</v>
+        <v>342.7826533899174</v>
       </c>
       <c r="G9" t="n">
-        <v>328.0933743797615</v>
+        <v>308.2913133727047</v>
       </c>
       <c r="H9" t="n">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="I9" t="n">
-        <v>99719</v>
+        <v>99969</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13954908</v>
+        <v>13829682</v>
       </c>
       <c r="E10" t="n">
-        <v>41124211</v>
+        <v>40755179</v>
       </c>
       <c r="F10" t="n">
-        <v>3850.243435670212</v>
+        <v>3849.761463999482</v>
       </c>
       <c r="G10" t="n">
-        <v>5095.39737097825</v>
+        <v>5056.185973432688</v>
       </c>
       <c r="H10" t="n">
         <v>0.79</v>
       </c>
       <c r="I10" t="n">
-        <v>690874</v>
+        <v>907702</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>118449489</v>
+        <v>116373185</v>
       </c>
       <c r="E11" t="n">
-        <v>464286529</v>
+        <v>456148039</v>
       </c>
       <c r="F11" t="n">
-        <v>64985.98871117481</v>
+        <v>65405.18842537298</v>
       </c>
       <c r="G11" t="n">
-        <v>39604.19217150878</v>
+        <v>41828.94087200325</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>27325440</v>
+        <v>27105282</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8741302</v>
+        <v>8507156</v>
       </c>
       <c r="E12" t="n">
-        <v>37574982</v>
+        <v>36568489</v>
       </c>
       <c r="F12" t="n">
-        <v>2893.730503784977</v>
+        <v>1559.763166942165</v>
       </c>
       <c r="G12" t="n">
-        <v>3185.409385585382</v>
+        <v>3473.004946773228</v>
       </c>
       <c r="H12" t="n">
         <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>884056</v>
+        <v>890469</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>999693</v>
+        <v>998997</v>
       </c>
       <c r="E13" t="n">
-        <v>12233550</v>
+        <v>12225027</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7068035524877</v>
+        <v>208.6969067051913</v>
       </c>
       <c r="G13" t="n">
-        <v>243.450433017543</v>
+        <v>224.7468447669854</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>403.51</v>
+        <v>421.92</v>
       </c>
     </row>
     <row r="14">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>570008</v>
+        <v>566771</v>
       </c>
       <c r="E14" t="n">
-        <v>570008</v>
+        <v>566771</v>
       </c>
       <c r="F14" t="n">
         <v>196.50549352822</v>
@@ -932,7 +932,7 @@
         <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>28346</v>
+        <v>28241</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>552741622</v>
+        <v>546331005</v>
       </c>
       <c r="E15" t="n">
-        <v>691397616</v>
+        <v>683378888</v>
       </c>
       <c r="F15" t="n">
-        <v>200862.7611001155</v>
+        <v>449093.9513399409</v>
       </c>
       <c r="G15" t="n">
-        <v>208655.2368868155</v>
+        <v>379664.2860079083</v>
       </c>
       <c r="H15" t="n">
-        <v>0.58</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>83898773</v>
+        <v>93490947</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3244614</v>
+        <v>3227868</v>
       </c>
       <c r="E16" t="n">
-        <v>9230639</v>
+        <v>9182998</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0559000900588</v>
+        <v>172.3732009403209</v>
       </c>
       <c r="G16" t="n">
-        <v>74.12202979410884</v>
+        <v>48.27471418061423</v>
       </c>
       <c r="H16" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="I16" t="n">
-        <v>113177</v>
+        <v>113234</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>310705</v>
+        <v>308480</v>
       </c>
       <c r="E17" t="n">
-        <v>3585910</v>
+        <v>3560222</v>
       </c>
       <c r="F17" t="n">
-        <v>5.407413596797873</v>
+        <v>5.407204835654461</v>
       </c>
       <c r="G17" t="n">
-        <v>4.038869433628273</v>
+        <v>4.03871350714217</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>890.79</v>
+        <v>889.8</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1360230</v>
+        <v>1262326</v>
       </c>
       <c r="E18" t="n">
-        <v>10433772</v>
+        <v>9682789</v>
       </c>
       <c r="F18" t="n">
-        <v>113.9089270506436</v>
+        <v>952.3056983015192</v>
       </c>
       <c r="G18" t="n">
-        <v>282.4252832632857</v>
+        <v>125.5218187765102</v>
       </c>
       <c r="H18" t="n">
         <v>0.37</v>
       </c>
       <c r="I18" t="n">
-        <v>124098</v>
+        <v>124121</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24299953</v>
+        <v>24201258</v>
       </c>
       <c r="E19" t="n">
-        <v>24344774</v>
+        <v>24245896</v>
       </c>
       <c r="F19" t="n">
-        <v>2385.345401572241</v>
+        <v>1974.912106854687</v>
       </c>
       <c r="G19" t="n">
-        <v>615.0584144743203</v>
+        <v>982.4454551288794</v>
       </c>
       <c r="H19" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="I19" t="n">
-        <v>892553</v>
+        <v>895094</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4171194</v>
+        <v>4339295</v>
       </c>
       <c r="E20" t="n">
-        <v>23144254</v>
+        <v>24076975</v>
       </c>
       <c r="F20" t="n">
-        <v>102.2364178511133</v>
+        <v>4.23568290488828</v>
       </c>
       <c r="G20" t="n">
-        <v>4.102060616098055</v>
+        <v>438.6508491899391</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3657.91</v>
+        <v>2946.59</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6886409</v>
+        <v>6823707</v>
       </c>
       <c r="E21" t="n">
-        <v>12775740</v>
+        <v>12659416</v>
       </c>
       <c r="F21" t="n">
-        <v>3563.270914690567</v>
+        <v>255.7092313851989</v>
       </c>
       <c r="G21" t="n">
-        <v>736.8156843699512</v>
+        <v>751.2505387803909</v>
       </c>
       <c r="H21" t="n">
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="I21" t="n">
-        <v>53048</v>
+        <v>58169</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70169793</v>
+        <v>69502878</v>
       </c>
       <c r="E22" t="n">
-        <v>121482304</v>
+        <v>120327700</v>
       </c>
       <c r="F22" t="n">
-        <v>336.4796930128123</v>
+        <v>1889.896987814825</v>
       </c>
       <c r="G22" t="n">
-        <v>732.1022829872671</v>
+        <v>679.3357360696353</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>791068</v>
+        <v>823383</v>
       </c>
     </row>
     <row r="23">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>181188</v>
+        <v>182408</v>
       </c>
       <c r="E23" t="n">
-        <v>544926</v>
+        <v>548597</v>
       </c>
       <c r="F23" t="n">
         <v>35.48563261466249</v>
@@ -1247,7 +1247,7 @@
         <v>0.54</v>
       </c>
       <c r="I23" t="n">
-        <v>182.58</v>
+        <v>158.21</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79157864</v>
+        <v>78485767</v>
       </c>
       <c r="E24" t="n">
-        <v>232892253</v>
+        <v>230914862</v>
       </c>
       <c r="F24" t="n">
-        <v>305.3813594561353</v>
+        <v>363.6583136063444</v>
       </c>
       <c r="G24" t="n">
-        <v>795.9787355266964</v>
+        <v>791.8628763471577</v>
       </c>
       <c r="H24" t="n">
         <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>464743</v>
+        <v>462700</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6723481</v>
+        <v>6731376</v>
       </c>
       <c r="F25" t="n">
-        <v>3.996703520957666</v>
+        <v>3.996371683509637</v>
       </c>
       <c r="G25" t="n">
-        <v>146.5198628730895</v>
+        <v>114.9858832694938</v>
       </c>
       <c r="H25" t="n">
         <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>22077</v>
+        <v>19346.8</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2421781</v>
+        <v>2425304</v>
       </c>
       <c r="E26" t="n">
-        <v>2421781</v>
+        <v>2425304</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>27.49320151070926</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.997527822073117</v>
       </c>
       <c r="H26" t="n">
-        <v>8.779999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="I26" t="n">
-        <v>314378</v>
+        <v>317331</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17275336</v>
+        <v>16993043</v>
       </c>
       <c r="E27" t="n">
-        <v>22234775</v>
+        <v>21871441</v>
       </c>
       <c r="F27" t="n">
-        <v>419.5471062757229</v>
+        <v>542.1678096788286</v>
       </c>
       <c r="G27" t="n">
-        <v>6550.941291271806</v>
+        <v>6514.343712964155</v>
       </c>
       <c r="H27" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="I27" t="n">
-        <v>1927350</v>
+        <v>1903000</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4607605</v>
+        <v>4616739</v>
       </c>
       <c r="E28" t="n">
-        <v>4607605</v>
+        <v>4616739</v>
       </c>
       <c r="F28" t="n">
-        <v>905.4266556192962</v>
+        <v>2019.021199760593</v>
       </c>
       <c r="G28" t="n">
-        <v>1851.906197569197</v>
+        <v>1938.399695224321</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I28" t="n">
-        <v>2070050</v>
+        <v>2171739</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1991764</v>
+        <v>2003140</v>
       </c>
       <c r="F29" t="n">
-        <v>108.3266392896444</v>
+        <v>161.0137086437814</v>
       </c>
       <c r="G29" t="n">
-        <v>171.2873032421976</v>
+        <v>91.74417732559914</v>
       </c>
       <c r="H29" t="n">
-        <v>3.52</v>
+        <v>1.91</v>
       </c>
       <c r="I29" t="n">
-        <v>362562</v>
+        <v>359551</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3344639</v>
+        <v>3321321</v>
       </c>
       <c r="E30" t="n">
-        <v>3344639</v>
+        <v>3321321</v>
       </c>
       <c r="F30" t="n">
-        <v>4179.839825614315</v>
+        <v>4619.507818851314</v>
       </c>
       <c r="G30" t="n">
-        <v>345.6828064949246</v>
+        <v>449.5971800929426</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I30" t="n">
-        <v>603747</v>
+        <v>606416</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>310359</v>
+        <v>301990</v>
       </c>
       <c r="E31" t="n">
-        <v>1448787</v>
+        <v>1409718</v>
       </c>
       <c r="F31" t="n">
-        <v>311.4647683434278</v>
+        <v>72.08219163987677</v>
       </c>
       <c r="G31" t="n">
-        <v>59.5030648202717</v>
+        <v>117.3570427223777</v>
       </c>
       <c r="H31" t="n">
-        <v>2.03</v>
+        <v>1.38</v>
       </c>
       <c r="I31" t="n">
-        <v>692447</v>
+        <v>677064</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>383771</v>
+        <v>385883</v>
       </c>
       <c r="E32" t="n">
-        <v>383771</v>
+        <v>385883</v>
       </c>
       <c r="F32" t="n">
-        <v>122.9762587553766</v>
+        <v>123.4468675783328</v>
       </c>
       <c r="G32" t="n">
-        <v>5.384727129816333</v>
+        <v>5.384461568171038</v>
       </c>
       <c r="H32" t="n">
         <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>56457</v>
+        <v>53253</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1821515</v>
+        <v>1820592</v>
       </c>
       <c r="F33" t="n">
-        <v>5.30754418487897</v>
+        <v>3.917436380478402</v>
       </c>
       <c r="G33" t="n">
-        <v>26.87353740147996</v>
+        <v>4.127211932882187</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>1.02</v>
       </c>
       <c r="I33" t="n">
-        <v>1370071</v>
+        <v>1365180</v>
       </c>
     </row>
     <row r="34">
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1876152</v>
+        <v>1775208</v>
       </c>
       <c r="F34" t="n">
         <v>39.55237960694928</v>
@@ -1632,7 +1632,7 @@
         <v>0.11</v>
       </c>
       <c r="I34" t="n">
-        <v>1220567</v>
+        <v>1140953</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11886209</v>
+        <v>11830458</v>
       </c>
       <c r="E35" t="n">
-        <v>29582623</v>
+        <v>29443871</v>
       </c>
       <c r="F35" t="n">
-        <v>1029.077416998833</v>
+        <v>882.0120929542646</v>
       </c>
       <c r="G35" t="n">
-        <v>1716.879244147499</v>
+        <v>738.9636046888647</v>
       </c>
       <c r="H35" t="n">
-        <v>0.82</v>
+        <v>0.47</v>
       </c>
       <c r="I35" t="n">
-        <v>1525659</v>
+        <v>1523532</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6921167</v>
+        <v>6915745</v>
       </c>
       <c r="E36" t="n">
-        <v>9532216</v>
+        <v>9524749</v>
       </c>
       <c r="F36" t="n">
-        <v>332.5210181872012</v>
+        <v>1918.180598915193</v>
       </c>
       <c r="G36" t="n">
-        <v>725.5209972867106</v>
+        <v>799.8485842626084</v>
       </c>
       <c r="H36" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="I36" t="n">
-        <v>307415</v>
+        <v>334134</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>904782</v>
+        <v>880201</v>
       </c>
       <c r="E37" t="n">
-        <v>6333473</v>
+        <v>6161409</v>
       </c>
       <c r="F37" t="n">
-        <v>705.8416316638391</v>
+        <v>118.8788035131882</v>
       </c>
       <c r="G37" t="n">
-        <v>132.213032657495</v>
+        <v>75.873154872717</v>
       </c>
       <c r="H37" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="I37" t="n">
-        <v>96642</v>
+        <v>257644</v>
       </c>
     </row>
     <row r="38">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>108841221</v>
+        <v>107880943</v>
       </c>
       <c r="E38" t="n">
-        <v>423142035</v>
+        <v>419400001</v>
       </c>
       <c r="F38" t="n">
         <v>3922.545545957086</v>
@@ -1772,7 +1772,7 @@
         <v>0.63</v>
       </c>
       <c r="I38" t="n">
-        <v>12047388</v>
+        <v>18911195</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5522254</v>
+        <v>5515273</v>
       </c>
       <c r="E39" t="n">
-        <v>5786439</v>
+        <v>5779124</v>
       </c>
       <c r="F39" t="n">
-        <v>80.40741886132164</v>
+        <v>2127.43161534402</v>
       </c>
       <c r="G39" t="n">
-        <v>1220.832838187551</v>
+        <v>94.69803247400111</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>192440</v>
+        <v>155684</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4756099</v>
+        <v>4768213</v>
       </c>
       <c r="E40" t="n">
-        <v>7001235</v>
+        <v>7019067</v>
       </c>
       <c r="F40" t="n">
-        <v>104.6693233535676</v>
+        <v>176.5255887223375</v>
       </c>
       <c r="G40" t="n">
-        <v>1072.216269871945</v>
+        <v>96.6530301326939</v>
       </c>
       <c r="H40" t="n">
-        <v>0.85</v>
+        <v>1.19</v>
       </c>
       <c r="I40" t="n">
-        <v>556145</v>
+        <v>556592</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7486141</v>
+        <v>7495032</v>
       </c>
       <c r="E41" t="n">
-        <v>7486141</v>
+        <v>7495032</v>
       </c>
       <c r="F41" t="n">
-        <v>1721.78143256778</v>
+        <v>1327.244890704135</v>
       </c>
       <c r="G41" t="n">
-        <v>2178.435428269341</v>
+        <v>2159.23814068093</v>
       </c>
       <c r="H41" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>278718</v>
+        <v>283001</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1574446</v>
+        <v>1518642</v>
       </c>
       <c r="E42" t="n">
-        <v>1574470</v>
+        <v>1518660</v>
       </c>
       <c r="F42" t="n">
-        <v>407.0561420275207</v>
+        <v>363.6824058626672</v>
       </c>
       <c r="G42" t="n">
-        <v>68.47751837276004</v>
+        <v>15.72359282317334</v>
       </c>
       <c r="H42" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="I42" t="n">
-        <v>286591</v>
+        <v>284712</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15670495</v>
+        <v>15649474</v>
       </c>
       <c r="F43" t="n">
-        <v>398.9375380569139</v>
+        <v>401.2629451493614</v>
       </c>
       <c r="G43" t="n">
-        <v>342.6333448931412</v>
+        <v>327.0743215299012</v>
       </c>
       <c r="H43" t="n">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="I43" t="n">
-        <v>11089.42</v>
+        <v>11980.98</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>139959609</v>
+        <v>136538771</v>
       </c>
       <c r="E44" t="n">
-        <v>139959609</v>
+        <v>136538771</v>
       </c>
       <c r="F44" t="n">
-        <v>325909.7304124564</v>
+        <v>344763.8041292662</v>
       </c>
       <c r="G44" t="n">
-        <v>380755.7239738087</v>
+        <v>339495.1038752225</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>88088122</v>
+        <v>92203765</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64137406</v>
+        <v>63995135</v>
       </c>
       <c r="E45" t="n">
-        <v>328909776</v>
+        <v>328180181</v>
       </c>
       <c r="F45" t="n">
-        <v>50583.85438802632</v>
+        <v>52054.9231575054</v>
       </c>
       <c r="G45" t="n">
-        <v>61675.207094247</v>
+        <v>56458.42285993654</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>25881496</v>
+        <v>27492877</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>596558</v>
+        <v>597594</v>
       </c>
       <c r="F46" t="n">
-        <v>60.77244429604792</v>
+        <v>59.55768096713781</v>
       </c>
       <c r="G46" t="n">
-        <v>497.1128549342802</v>
+        <v>478.0837938100705</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1231.59</v>
+        <v>1243.61</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2625075</v>
+        <v>2614560</v>
       </c>
       <c r="E47" t="n">
-        <v>10549579</v>
+        <v>10507320</v>
       </c>
       <c r="F47" t="n">
-        <v>340.1566657525827</v>
+        <v>270.2981119297959</v>
       </c>
       <c r="G47" t="n">
-        <v>138.6562433114798</v>
+        <v>138.6494051227998</v>
       </c>
       <c r="H47" t="n">
         <v>2.78</v>
       </c>
       <c r="I47" t="n">
-        <v>53580</v>
+        <v>53436</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17968888</v>
+        <v>17953915</v>
       </c>
       <c r="E48" t="n">
-        <v>125671818</v>
+        <v>125563934</v>
       </c>
       <c r="F48" t="n">
-        <v>1151.338299033126</v>
+        <v>959.9987301868234</v>
       </c>
       <c r="G48" t="n">
-        <v>934.9136817392363</v>
+        <v>1018.512738215871</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="I48" t="n">
-        <v>1139190</v>
+        <v>1154609</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1027719</v>
+        <v>1025208</v>
       </c>
       <c r="E49" t="n">
-        <v>1206296</v>
+        <v>1203349</v>
       </c>
       <c r="F49" t="n">
-        <v>2178.661417114607</v>
+        <v>2179.575373953791</v>
       </c>
       <c r="G49" t="n">
-        <v>2370.418274769618</v>
+        <v>2371.300490115377</v>
       </c>
       <c r="H49" t="n">
         <v>1.39</v>
       </c>
       <c r="I49" t="n">
-        <v>199598</v>
+        <v>199463</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>168139</v>
+        <v>165966</v>
       </c>
       <c r="E50" t="n">
-        <v>2249794</v>
+        <v>2220712</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>47317</v>
+        <v>47261</v>
       </c>
     </row>
     <row r="51">
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>253478088</v>
+        <v>250219624</v>
       </c>
       <c r="E51" t="n">
-        <v>253478088</v>
+        <v>250219624</v>
       </c>
       <c r="F51" t="n">
         <v>25736.21944862215</v>
@@ -2225,7 +2225,7 @@
         <v>0.42</v>
       </c>
       <c r="I51" t="n">
-        <v>29461556</v>
+        <v>29816394</v>
       </c>
     </row>
     <row r="52">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1118139</v>
+        <v>1113996</v>
       </c>
       <c r="F52" t="n">
         <v>4.102142783973079</v>
@@ -2260,7 +2260,7 @@
         <v>0.36</v>
       </c>
       <c r="I52" t="n">
-        <v>136157</v>
+        <v>136959</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2347956</v>
+        <v>2324048</v>
       </c>
       <c r="E53" t="n">
-        <v>2596817</v>
+        <v>2577613</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>318745</v>
+        <v>321856</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>112338</v>
+        <v>111487</v>
       </c>
       <c r="E54" t="n">
-        <v>112338</v>
+        <v>111487</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>355.55</v>
+        <v>353.42</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6909177</v>
+        <v>6902664</v>
       </c>
       <c r="E55" t="n">
-        <v>16781858</v>
+        <v>16766040</v>
       </c>
       <c r="F55" t="n">
-        <v>480.6012911585781</v>
+        <v>489.2375942540439</v>
       </c>
       <c r="G55" t="n">
-        <v>53.89967512367661</v>
+        <v>68.19637377406288</v>
       </c>
       <c r="H55" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I55" t="n">
-        <v>441567</v>
+        <v>437876</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>424078438</v>
+        <v>417306817</v>
       </c>
       <c r="E56" t="n">
-        <v>424078438</v>
+        <v>417306817</v>
       </c>
       <c r="F56" t="n">
-        <v>8983.968911516033</v>
+        <v>3437.411537405123</v>
       </c>
       <c r="G56" t="n">
-        <v>14179.82561845127</v>
+        <v>15165.59019013276</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>3866000</v>
+        <v>3853913</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2312374</v>
+        <v>2289868</v>
       </c>
       <c r="E57" t="n">
-        <v>2312374</v>
+        <v>2289868</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>118989</v>
+        <v>136335</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>162893921</v>
+        <v>159819292</v>
       </c>
       <c r="E58" t="n">
-        <v>214349348</v>
+        <v>210303497</v>
       </c>
       <c r="F58" t="n">
-        <v>844.6273557966281</v>
+        <v>1252.964374917194</v>
       </c>
       <c r="G58" t="n">
-        <v>13822.92089885818</v>
+        <v>4080.02355351074</v>
       </c>
       <c r="H58" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="I58" t="n">
-        <v>16196633</v>
+        <v>16695943</v>
       </c>
     </row>
     <row r="59">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1119419</v>
+        <v>1119234</v>
       </c>
       <c r="E59" t="n">
-        <v>12165426</v>
+        <v>12163415</v>
       </c>
       <c r="F59" t="n">
         <v>302.8184476605417</v>
@@ -2503,7 +2503,7 @@
         <v>0.4</v>
       </c>
       <c r="I59" t="n">
-        <v>14400.71</v>
+        <v>14326.26</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2568785</v>
+        <v>2563752</v>
       </c>
       <c r="E60" t="n">
-        <v>6567322</v>
+        <v>6554454</v>
       </c>
       <c r="F60" t="n">
-        <v>206.3518416102479</v>
+        <v>273.2793154316805</v>
       </c>
       <c r="G60" t="n">
-        <v>279.2021137287539</v>
+        <v>343.8290416268064</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>81688</v>
+        <v>81586</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>82974868</v>
+        <v>81654224</v>
       </c>
       <c r="E61" t="n">
-        <v>232121454</v>
+        <v>228441594</v>
       </c>
       <c r="F61" t="n">
-        <v>73037.95874938088</v>
+        <v>66309.30244195311</v>
       </c>
       <c r="G61" t="n">
-        <v>75298.17566120732</v>
+        <v>82760.45599488607</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I61" t="n">
-        <v>58600365</v>
+        <v>58848218</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>61449193</v>
+        <v>60570108</v>
       </c>
       <c r="E62" t="n">
-        <v>61449193</v>
+        <v>60570108</v>
       </c>
       <c r="F62" t="n">
-        <v>29.1171873819304</v>
+        <v>539.8563014167612</v>
       </c>
       <c r="G62" t="n">
-        <v>2344.257544218623</v>
+        <v>1528.291764059064</v>
       </c>
       <c r="H62" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="I62" t="n">
-        <v>5673774</v>
+        <v>5763721</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4186122</v>
+        <v>4149899</v>
       </c>
       <c r="E63" t="n">
-        <v>8255385</v>
+        <v>8183950</v>
       </c>
       <c r="F63" t="n">
-        <v>1459.368894788289</v>
+        <v>1289.095320005563</v>
       </c>
       <c r="G63" t="n">
-        <v>1186.682764828378</v>
+        <v>1006.596104594082</v>
       </c>
       <c r="H63" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I63" t="n">
-        <v>1670897</v>
+        <v>1663540</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1591726</v>
+        <v>1592541</v>
       </c>
       <c r="E64" t="n">
-        <v>9139094</v>
+        <v>9143777</v>
       </c>
       <c r="F64" t="n">
-        <v>8.038785231035929</v>
+        <v>28.31258674792837</v>
       </c>
       <c r="G64" t="n">
-        <v>5.371953348688021</v>
+        <v>11.49803817950544</v>
       </c>
       <c r="H64" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="I64" t="n">
-        <v>243453</v>
+        <v>242657</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>605364</v>
+        <v>576814</v>
       </c>
       <c r="F65" t="n">
-        <v>4.073235791708092</v>
+        <v>4.0226058812811</v>
       </c>
       <c r="G65" t="n">
-        <v>7.791922349839381</v>
+        <v>264.103271416754</v>
       </c>
       <c r="H65" t="n">
-        <v>0.93</v>
+        <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>5659.04</v>
+        <v>5603.45</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31183860</v>
+        <v>31091664</v>
       </c>
       <c r="F66" t="n">
-        <v>326.5099410863975</v>
+        <v>349.7515945752431</v>
       </c>
       <c r="G66" t="n">
-        <v>897.7954417663634</v>
+        <v>811.2883250947541</v>
       </c>
       <c r="H66" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>235352</v>
+        <v>234020</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>162356</v>
+        <v>160678</v>
       </c>
       <c r="E67" t="n">
-        <v>1096409</v>
+        <v>1085080</v>
       </c>
       <c r="F67" t="n">
-        <v>159.9256019837209</v>
+        <v>207.148575273844</v>
       </c>
       <c r="G67" t="n">
-        <v>21.74226959463621</v>
+        <v>7.397581011386616</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.91</v>
       </c>
       <c r="I67" t="n">
-        <v>3092401</v>
+        <v>3107602</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17385235</v>
+        <v>17322706</v>
       </c>
       <c r="E68" t="n">
-        <v>18323629</v>
+        <v>18257726</v>
       </c>
       <c r="F68" t="n">
-        <v>1062.905509283801</v>
+        <v>1665.078161363648</v>
       </c>
       <c r="G68" t="n">
-        <v>1890.401259455063</v>
+        <v>1212.311818637765</v>
       </c>
       <c r="H68" t="n">
-        <v>0.33</v>
+        <v>0.77</v>
       </c>
       <c r="I68" t="n">
-        <v>42249</v>
+        <v>41210</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2937731</v>
+        <v>2936969</v>
       </c>
       <c r="E69" t="n">
-        <v>2937731</v>
+        <v>2936969</v>
       </c>
       <c r="F69" t="n">
-        <v>176.6012889270074</v>
+        <v>5.595005014905426</v>
       </c>
       <c r="G69" t="n">
-        <v>5.743001950657727</v>
+        <v>357.3718054929929</v>
       </c>
       <c r="H69" t="n">
-        <v>1.07</v>
+        <v>0.17</v>
       </c>
       <c r="I69" t="n">
-        <v>13445.9</v>
+        <v>13954.23</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3335904</v>
+        <v>3343244</v>
       </c>
       <c r="E70" t="n">
-        <v>8231174</v>
+        <v>8249283</v>
       </c>
       <c r="F70" t="n">
-        <v>1137.641898317654</v>
+        <v>1134.706848916361</v>
       </c>
       <c r="G70" t="n">
-        <v>1208.477705279482</v>
+        <v>1209.591509375046</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>44329</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23202011</v>
+        <v>23172999</v>
       </c>
       <c r="F71" t="n">
-        <v>4.113480991448543</v>
+        <v>4.11313772582111</v>
       </c>
       <c r="G71" t="n">
-        <v>596.9717796647802</v>
+        <v>623.4278861416691</v>
       </c>
       <c r="H71" t="n">
         <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>129615</v>
+        <v>129675</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>245970</v>
+        <v>245891</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3505.55</v>
+        <v>3501.92</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>83272686</v>
+        <v>82528057</v>
       </c>
       <c r="E73" t="n">
-        <v>173616862</v>
+        <v>172064372</v>
       </c>
       <c r="F73" t="n">
-        <v>9374.809755144077</v>
+        <v>14227.07598474971</v>
       </c>
       <c r="G73" t="n">
-        <v>107.5087526497837</v>
+        <v>183.6145862086629</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>69078024</v>
+        <v>69223729</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>192091601</v>
+        <v>185114111</v>
       </c>
       <c r="F75" t="n">
-        <v>8567.972560671842</v>
+        <v>4389.319427814184</v>
       </c>
       <c r="G75" t="n">
-        <v>7959.505358609335</v>
+        <v>46629.92339171096</v>
       </c>
       <c r="H75" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I75" t="n">
-        <v>2997054</v>
+        <v>3234667</v>
       </c>
     </row>
     <row r="76">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82668021</v>
+        <v>82445769</v>
       </c>
       <c r="E76" t="n">
-        <v>113516059</v>
+        <v>113210871</v>
       </c>
       <c r="F76" t="n">
         <v>813.3210084990997</v>
@@ -3088,7 +3088,7 @@
         <v>0.23</v>
       </c>
       <c r="I76" t="n">
-        <v>1231880</v>
+        <v>924691</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>186952</v>
+        <v>187050</v>
       </c>
       <c r="E77" t="n">
-        <v>195231</v>
+        <v>195334</v>
       </c>
       <c r="F77" t="n">
-        <v>4.050020231447741</v>
+        <v>4.049727528079234</v>
       </c>
       <c r="G77" t="n">
-        <v>92.41678648046398</v>
+        <v>92.78501176632263</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>192.36</v>
+        <v>192.28</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7146341</v>
+        <v>7027873</v>
       </c>
       <c r="E78" t="n">
-        <v>7861452</v>
+        <v>7731130</v>
       </c>
       <c r="F78" t="n">
-        <v>104.0307219456619</v>
+        <v>544.532536943162</v>
       </c>
       <c r="G78" t="n">
-        <v>1076.723214570208</v>
+        <v>288.681145644976</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="I78" t="n">
-        <v>619374</v>
+        <v>606844</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29120759</v>
+        <v>29148513</v>
       </c>
       <c r="E79" t="n">
-        <v>29120759</v>
+        <v>29148513</v>
       </c>
       <c r="F79" t="n">
-        <v>52.25338139549368</v>
+        <v>1322.232364503442</v>
       </c>
       <c r="G79" t="n">
-        <v>948.8475108980259</v>
+        <v>619.2498843548227</v>
       </c>
       <c r="H79" t="n">
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
       <c r="I79" t="n">
-        <v>241054</v>
+        <v>241548</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>268943681</v>
+        <v>265592025</v>
       </c>
       <c r="E80" t="n">
-        <v>268943681</v>
+        <v>265592025</v>
       </c>
       <c r="F80" t="n">
-        <v>1732.922260162318</v>
+        <v>452.7303185635017</v>
       </c>
       <c r="G80" t="n">
-        <v>4310.947846414701</v>
+        <v>2654.75898561305</v>
       </c>
       <c r="H80" t="n">
-        <v>0.19</v>
+        <v>0.86</v>
       </c>
       <c r="I80" t="n">
-        <v>12447226</v>
+        <v>12480787</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>643090774</v>
+        <v>633939657</v>
       </c>
       <c r="E81" t="n">
-        <v>643090774</v>
+        <v>633939657</v>
       </c>
       <c r="F81" t="n">
-        <v>1258669.146442984</v>
+        <v>611904.4718329682</v>
       </c>
       <c r="G81" t="n">
-        <v>1451346.661667844</v>
+        <v>678856.484952433</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="I81" t="n">
-        <v>507665282</v>
+        <v>539817123</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113340</v>
+        <v>113277</v>
       </c>
       <c r="E82" t="n">
-        <v>113340</v>
+        <v>113277</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1337.14</v>
+        <v>1334.94</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>197870879</v>
+        <v>194624750</v>
       </c>
       <c r="E83" t="n">
-        <v>687421316</v>
+        <v>676143972</v>
       </c>
       <c r="F83" t="n">
-        <v>2590.026134225251</v>
+        <v>398.2015529972392</v>
       </c>
       <c r="G83" t="n">
-        <v>1041.044762836451</v>
+        <v>1565.38468266499</v>
       </c>
       <c r="H83" t="n">
-        <v>1.87</v>
+        <v>0.89</v>
       </c>
       <c r="I83" t="n">
-        <v>40043038</v>
+        <v>44632534</v>
       </c>
     </row>
     <row r="84">
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3367997</v>
+        <v>3329834</v>
       </c>
       <c r="E84" t="n">
-        <v>3367997</v>
+        <v>3329834</v>
       </c>
       <c r="F84" t="n">
         <v>344.9126208732751</v>
@@ -3366,7 +3366,7 @@
         <v>0.59</v>
       </c>
       <c r="I84" t="n">
-        <v>2489733</v>
+        <v>2416617</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>109635591</v>
+        <v>108365883</v>
       </c>
       <c r="E85" t="n">
-        <v>465147393</v>
+        <v>459744475</v>
       </c>
       <c r="F85" t="n">
-        <v>229380.0331627664</v>
+        <v>214061.5962557781</v>
       </c>
       <c r="G85" t="n">
-        <v>512.978740755075</v>
+        <v>690.1002577507144</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="I85" t="n">
-        <v>14943705</v>
+        <v>14916777</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>74030503</v>
+        <v>74079299</v>
       </c>
       <c r="E86" t="n">
-        <v>84940572</v>
+        <v>84996559</v>
       </c>
       <c r="F86" t="n">
-        <v>2620.990128895497</v>
+        <v>2164.702311818249</v>
       </c>
       <c r="G86" t="n">
-        <v>5092.666862043534</v>
+        <v>5008.51518509449</v>
       </c>
       <c r="H86" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="I86" t="n">
-        <v>1595458</v>
+        <v>1599950</v>
       </c>
     </row>
     <row r="87">
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3248983</v>
+        <v>3179936</v>
       </c>
       <c r="E87" t="n">
-        <v>16289750</v>
+        <v>15943561</v>
       </c>
       <c r="F87" t="n">
         <v>3.9460314408641</v>
@@ -3471,7 +3471,7 @@
         <v>0.79</v>
       </c>
       <c r="I87" t="n">
-        <v>30690</v>
+        <v>30672</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>519529</v>
+        <v>517112</v>
       </c>
       <c r="E88" t="n">
-        <v>8886511</v>
+        <v>8845165</v>
       </c>
       <c r="F88" t="n">
-        <v>29.28874387415982</v>
+        <v>29.28789174353485</v>
       </c>
       <c r="G88" t="n">
-        <v>2570.576390532475</v>
+        <v>2381.285560403934</v>
       </c>
       <c r="H88" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I88" t="n">
-        <v>137300</v>
+        <v>132847</v>
       </c>
     </row>
     <row r="89">
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5672048</v>
+        <v>5648799</v>
       </c>
       <c r="E89" t="n">
-        <v>7698008</v>
+        <v>7666420</v>
       </c>
       <c r="F89" t="n">
         <v>101.0957414850844</v>
@@ -3541,7 +3541,7 @@
         <v>0.14</v>
       </c>
       <c r="I89" t="n">
-        <v>5101028</v>
+        <v>5151834</v>
       </c>
     </row>
     <row r="90">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40452159</v>
+        <v>39331616</v>
       </c>
       <c r="E90" t="n">
-        <v>47247161</v>
+        <v>45938393</v>
       </c>
       <c r="F90" t="n">
         <v>290.7584429806411</v>
@@ -3576,7 +3576,7 @@
         <v>0.88</v>
       </c>
       <c r="I90" t="n">
-        <v>962911</v>
+        <v>968886</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14366964</v>
+        <v>14350848</v>
       </c>
       <c r="F91" t="n">
-        <v>184.6753519134233</v>
+        <v>185.4974299250974</v>
       </c>
       <c r="G91" t="n">
-        <v>288.3554386156181</v>
+        <v>124.6864680943148</v>
       </c>
       <c r="H91" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="I91" t="n">
-        <v>224213</v>
+        <v>223501</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35617883</v>
+        <v>35009069</v>
       </c>
       <c r="E92" t="n">
-        <v>35617883</v>
+        <v>35009069</v>
       </c>
       <c r="F92" t="n">
-        <v>419.1609169084864</v>
+        <v>357.6293834654974</v>
       </c>
       <c r="G92" t="n">
-        <v>11.22867090156381</v>
+        <v>32.32696412971077</v>
       </c>
       <c r="H92" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I92" t="n">
-        <v>865343</v>
+        <v>878684</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17096987</v>
+        <v>17085277</v>
       </c>
       <c r="F93" t="n">
-        <v>250.2751181507744</v>
+        <v>255.6913634147429</v>
       </c>
       <c r="G93" t="n">
-        <v>279.0157918039104</v>
+        <v>161.8981855908468</v>
       </c>
       <c r="H93" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>182689</v>
+        <v>180148</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>553690</v>
+        <v>547755</v>
       </c>
       <c r="E94" t="n">
-        <v>6715724</v>
+        <v>6643737</v>
       </c>
       <c r="F94" t="n">
-        <v>875.0589209992825</v>
+        <v>908.6335860743239</v>
       </c>
       <c r="G94" t="n">
-        <v>568.2313422745052</v>
+        <v>486.4204793140263</v>
       </c>
       <c r="H94" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>2832690</v>
+        <v>2830049</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24725399</v>
+        <v>24597956</v>
       </c>
       <c r="E95" t="n">
-        <v>34940976</v>
+        <v>34760878</v>
       </c>
       <c r="F95" t="n">
-        <v>4.072700139176583</v>
+        <v>5.353352612811257</v>
       </c>
       <c r="G95" t="n">
-        <v>6973.629836950224</v>
+        <v>6921.723240642021</v>
       </c>
       <c r="H95" t="n">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="I95" t="n">
-        <v>116286</v>
+        <v>121355</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1377469078</v>
+        <v>1332427233</v>
       </c>
       <c r="E96" t="n">
-        <v>6605246329</v>
+        <v>6389261458</v>
       </c>
       <c r="F96" t="n">
-        <v>242385.3125801636</v>
+        <v>157137.0667721861</v>
       </c>
       <c r="G96" t="n">
-        <v>265488.0411240482</v>
+        <v>125505.2835785028</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>460279764</v>
+        <v>463941730</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>257988816</v>
+        <v>255080292</v>
       </c>
       <c r="E97" t="n">
-        <v>1113622951</v>
+        <v>1101068144</v>
       </c>
       <c r="F97" t="n">
-        <v>264387.7960112224</v>
+        <v>241058.3341009842</v>
       </c>
       <c r="G97" t="n">
-        <v>761571.4879298471</v>
+        <v>754030.1061169025</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I97" t="n">
-        <v>137613377</v>
+        <v>138727917</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4892219</v>
+        <v>4840129</v>
       </c>
       <c r="E98" t="n">
-        <v>5421554</v>
+        <v>5363828</v>
       </c>
       <c r="F98" t="n">
-        <v>241.409207345092</v>
+        <v>270.3716683129679</v>
       </c>
       <c r="G98" t="n">
-        <v>485.9279145560065</v>
+        <v>172.6820303728581</v>
       </c>
       <c r="H98" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="I98" t="n">
-        <v>709494</v>
+        <v>731632</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93093</v>
+        <v>92959</v>
       </c>
       <c r="E99" t="n">
-        <v>93093</v>
+        <v>92959</v>
       </c>
       <c r="F99" t="n">
-        <v>5.31335123986868</v>
+        <v>5.313080668886785</v>
       </c>
       <c r="G99" t="n">
-        <v>83.49090673020142</v>
+        <v>87.89688852944299</v>
       </c>
       <c r="H99" t="n">
         <v>0.36</v>
       </c>
       <c r="I99" t="n">
-        <v>1178.38</v>
+        <v>1172.34</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112829468</v>
+        <v>112216242</v>
       </c>
       <c r="E100" t="n">
-        <v>112829468</v>
+        <v>112216242</v>
       </c>
       <c r="F100" t="n">
-        <v>12613.62237562956</v>
+        <v>10641.48215317892</v>
       </c>
       <c r="G100" t="n">
-        <v>5507.536525108995</v>
+        <v>7630.018130136921</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6908311</v>
+        <v>8145145</v>
       </c>
     </row>
     <row r="101">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3767596</v>
+        <v>3851999</v>
       </c>
       <c r="F101" t="n">
         <v>1208.057553607723</v>
@@ -3961,7 +3961,7 @@
         <v>0.83</v>
       </c>
       <c r="I101" t="n">
-        <v>379676</v>
+        <v>378681</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2030332740</v>
+        <v>2036390261</v>
       </c>
       <c r="E102" t="n">
-        <v>2030332740</v>
+        <v>2036390261</v>
       </c>
       <c r="F102" t="n">
-        <v>10251900.68101182</v>
+        <v>9666564.141542813</v>
       </c>
       <c r="G102" t="n">
-        <v>3536309.378318315</v>
+        <v>3392361.401674956</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>8770249179</v>
+        <v>8838452157</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5357292</v>
+        <v>5306677</v>
       </c>
       <c r="E103" t="n">
-        <v>5363355</v>
+        <v>5312683</v>
       </c>
       <c r="F103" t="n">
-        <v>80.44471536562416</v>
+        <v>236.9145598725216</v>
       </c>
       <c r="G103" t="n">
-        <v>90.13043934330312</v>
+        <v>100.1772081977335</v>
       </c>
       <c r="H103" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>146186</v>
+        <v>145230</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2297044</v>
+        <v>2281459</v>
       </c>
       <c r="F104" t="n">
-        <v>232.9747916376516</v>
+        <v>346.6400085447935</v>
       </c>
       <c r="G104" t="n">
-        <v>4.036012241478581</v>
+        <v>4.035894817199529</v>
       </c>
       <c r="H104" t="n">
         <v>0.42</v>
       </c>
       <c r="I104" t="n">
-        <v>37488</v>
+        <v>37161</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4220210</v>
+        <v>4176406</v>
       </c>
       <c r="E105" t="n">
-        <v>5540586</v>
+        <v>5483076</v>
       </c>
       <c r="F105" t="n">
-        <v>512.0760846575755</v>
+        <v>2049.702845320339</v>
       </c>
       <c r="G105" t="n">
-        <v>210.3499729144364</v>
+        <v>242.8561420410975</v>
       </c>
       <c r="H105" t="n">
         <v>0.14</v>
       </c>
       <c r="I105" t="n">
-        <v>614977</v>
+        <v>605928</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19616217</v>
+        <v>19479155</v>
       </c>
       <c r="F106" t="n">
-        <v>135.2199608416776</v>
+        <v>209.5532991384395</v>
       </c>
       <c r="G106" t="n">
-        <v>770.9676999075186</v>
+        <v>752.5782851986654</v>
       </c>
       <c r="H106" t="n">
         <v>1.02</v>
       </c>
       <c r="I106" t="n">
-        <v>73716</v>
+        <v>70557</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1587685</v>
+        <v>1520221</v>
       </c>
       <c r="E107" t="n">
-        <v>5918842</v>
+        <v>5667337</v>
       </c>
       <c r="F107" t="n">
-        <v>143.3779369608336</v>
+        <v>1551.040945688979</v>
       </c>
       <c r="G107" t="n">
-        <v>177.8332535031069</v>
+        <v>136.1116837001954</v>
       </c>
       <c r="H107" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I107" t="n">
-        <v>675082</v>
+        <v>658468</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4174541</v>
+        <v>4164290</v>
       </c>
       <c r="E108" t="n">
-        <v>12024053</v>
+        <v>11994525</v>
       </c>
       <c r="F108" t="n">
-        <v>661.4487089677228</v>
+        <v>1076.156531960017</v>
       </c>
       <c r="G108" t="n">
-        <v>297.2909295427096</v>
+        <v>423.2383425263964</v>
       </c>
       <c r="H108" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="I108" t="n">
-        <v>505109</v>
+        <v>503526</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>78708570</v>
+        <v>78462428</v>
       </c>
       <c r="E109" t="n">
-        <v>100162773</v>
+        <v>99849538</v>
       </c>
       <c r="F109" t="n">
-        <v>10470.27547728054</v>
+        <v>4419.347257094864</v>
       </c>
       <c r="G109" t="n">
-        <v>503.7631527620047</v>
+        <v>393.1370060541032</v>
       </c>
       <c r="H109" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="I109" t="n">
-        <v>6485029</v>
+        <v>7411500</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22178756</v>
+        <v>22044833</v>
       </c>
       <c r="E110" t="n">
-        <v>28770920</v>
+        <v>28597191</v>
       </c>
       <c r="F110" t="n">
-        <v>19439.62846117814</v>
+        <v>17113.2481726976</v>
       </c>
       <c r="G110" t="n">
-        <v>18720.515621014</v>
+        <v>18512.69183971933</v>
       </c>
       <c r="H110" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="I110" t="n">
-        <v>200589</v>
+        <v>215197</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>621840</v>
+        <v>613904</v>
       </c>
       <c r="E111" t="n">
-        <v>621840</v>
+        <v>613904</v>
       </c>
       <c r="F111" t="n">
-        <v>4.183251602380404</v>
+        <v>4.182902514469463</v>
       </c>
       <c r="G111" t="n">
-        <v>34.48766367155282</v>
+        <v>6.917893449705208</v>
       </c>
       <c r="H111" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="I111" t="n">
-        <v>70761</v>
+        <v>68790</v>
       </c>
     </row>
     <row r="112">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13576163</v>
+        <v>13415188</v>
       </c>
       <c r="E112" t="n">
-        <v>13576163</v>
+        <v>13415188</v>
       </c>
       <c r="F112" t="n">
         <v>2027.067599763324</v>
@@ -4346,7 +4346,7 @@
         <v>0.76</v>
       </c>
       <c r="I112" t="n">
-        <v>5263535</v>
+        <v>5385360</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>100057048</v>
+        <v>97964834</v>
       </c>
       <c r="E113" t="n">
-        <v>123766987</v>
+        <v>121178993</v>
       </c>
       <c r="F113" t="n">
-        <v>994.1350131606474</v>
+        <v>292.2909968598501</v>
       </c>
       <c r="G113" t="n">
-        <v>1340.369037502908</v>
+        <v>399.7096584385755</v>
       </c>
       <c r="H113" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="I113" t="n">
-        <v>1108150</v>
+        <v>1104602</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>886371</v>
+        <v>883888</v>
       </c>
       <c r="F114" t="n">
-        <v>224.0647446491657</v>
+        <v>176.5668884487884</v>
       </c>
       <c r="G114" t="n">
-        <v>180.7402943961511</v>
+        <v>269.3269804599807</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4</v>
+        <v>1.12</v>
       </c>
       <c r="I114" t="n">
-        <v>42963</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2739003</v>
+        <v>2735881</v>
       </c>
       <c r="F115" t="n">
-        <v>109.1244559244445</v>
+        <v>165.8177856563596</v>
       </c>
       <c r="G115" t="n">
-        <v>1110.830079102644</v>
+        <v>1131.128489664011</v>
       </c>
       <c r="H115" t="n">
         <v>2.09</v>
       </c>
       <c r="I115" t="n">
-        <v>79855</v>
+        <v>77705</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10947795</v>
+        <v>10853700</v>
       </c>
       <c r="E116" t="n">
-        <v>16099697</v>
+        <v>15961322</v>
       </c>
       <c r="F116" t="n">
-        <v>5399.717216574682</v>
+        <v>2839.624615793013</v>
       </c>
       <c r="G116" t="n">
-        <v>4054.687557737833</v>
+        <v>4163.096925839612</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="I116" t="n">
-        <v>484603</v>
+        <v>482386</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3183325</v>
+        <v>3165541</v>
       </c>
       <c r="F117" t="n">
-        <v>4.043755172174917</v>
+        <v>5.291160607497525</v>
       </c>
       <c r="G117" t="n">
-        <v>212.2537154001997</v>
+        <v>164.0132889703587</v>
       </c>
       <c r="H117" t="n">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="I117" t="n">
-        <v>34843</v>
+        <v>34719</v>
       </c>
     </row>
     <row r="118">
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1159210</v>
+        <v>1099351</v>
       </c>
       <c r="F118" t="n">
         <v>3.194663497819671</v>
@@ -4556,7 +4556,7 @@
         <v>0.31</v>
       </c>
       <c r="I118" t="n">
-        <v>4485.48</v>
+        <v>3950.07</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5003895</v>
+        <v>4968197</v>
       </c>
       <c r="E119" t="n">
-        <v>7001175</v>
+        <v>6951228</v>
       </c>
       <c r="F119" t="n">
-        <v>1442.332199999066</v>
+        <v>938.9945310138378</v>
       </c>
       <c r="G119" t="n">
-        <v>1213.406239989192</v>
+        <v>819.2472832148894</v>
       </c>
       <c r="H119" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I119" t="n">
-        <v>68471</v>
+        <v>69048</v>
       </c>
     </row>
     <row r="120">
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10021649</v>
+        <v>9864420</v>
       </c>
       <c r="E120" t="n">
-        <v>27604203</v>
+        <v>27171122</v>
       </c>
       <c r="F120" t="n">
         <v>21.8471396348229</v>
@@ -4626,7 +4626,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="I120" t="n">
-        <v>331325</v>
+        <v>329643</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50387742</v>
+        <v>49645907</v>
       </c>
       <c r="E121" t="n">
-        <v>128365654</v>
+        <v>126475785</v>
       </c>
       <c r="F121" t="n">
-        <v>645.9618728096513</v>
+        <v>741.9066205053075</v>
       </c>
       <c r="G121" t="n">
-        <v>11829.385892639</v>
+        <v>10932.5130639888</v>
       </c>
       <c r="H121" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I121" t="n">
-        <v>2162844</v>
+        <v>2185148</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13867712</v>
+        <v>13759997</v>
       </c>
       <c r="E122" t="n">
-        <v>67163542</v>
+        <v>66641860</v>
       </c>
       <c r="F122" t="n">
-        <v>299.068358208769</v>
+        <v>454.1315633380476</v>
       </c>
       <c r="G122" t="n">
-        <v>1943.879899315124</v>
+        <v>2352.201948882519</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I122" t="n">
-        <v>5253341</v>
+        <v>5299152</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>625709</v>
+        <v>630181</v>
       </c>
       <c r="F123" t="n">
-        <v>3.987844791096383</v>
+        <v>3.987785149363198</v>
       </c>
       <c r="G123" t="n">
-        <v>1390.53491667703</v>
+        <v>1390.514120001926</v>
       </c>
       <c r="H123" t="n">
         <v>0.91</v>
       </c>
       <c r="I123" t="n">
-        <v>8893.68</v>
+        <v>9345.9</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4494458</v>
+        <v>4487527</v>
       </c>
       <c r="E124" t="n">
-        <v>10244918</v>
+        <v>10229120</v>
       </c>
       <c r="F124" t="n">
-        <v>2250.287083526615</v>
+        <v>2986.689978888832</v>
       </c>
       <c r="G124" t="n">
-        <v>1816.168633011423</v>
+        <v>1342.281646864325</v>
       </c>
       <c r="H124" t="n">
         <v>1.83</v>
       </c>
       <c r="I124" t="n">
-        <v>64982</v>
+        <v>64246</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1847299797</v>
+        <v>1834959821</v>
       </c>
       <c r="F125" t="n">
-        <v>76283.21660783271</v>
+        <v>75748.26916061957</v>
       </c>
       <c r="G125" t="n">
-        <v>78732.04006904809</v>
+        <v>72409.69616086694</v>
       </c>
       <c r="H125" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="I125" t="n">
-        <v>30146500</v>
+        <v>30321666</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9379118</v>
+        <v>9254372</v>
       </c>
       <c r="E126" t="n">
-        <v>34124663</v>
+        <v>33670285</v>
       </c>
       <c r="F126" t="n">
-        <v>3.937086009977639</v>
+        <v>5.379898064594603</v>
       </c>
       <c r="G126" t="n">
-        <v>156.989781772961</v>
+        <v>156.7170152850659</v>
       </c>
       <c r="H126" t="n">
-        <v>1.02</v>
+        <v>0.71</v>
       </c>
       <c r="I126" t="n">
-        <v>127125</v>
+        <v>133591</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>620178</v>
+        <v>599012</v>
       </c>
       <c r="F127" t="n">
-        <v>17.81721486145127</v>
+        <v>18.73377069172248</v>
       </c>
       <c r="G127" t="n">
-        <v>9.864200391483335</v>
+        <v>8.889178969817491</v>
       </c>
       <c r="H127" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="I127" t="n">
-        <v>892.11</v>
+        <v>885.65</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12287630</v>
+        <v>11995751</v>
       </c>
       <c r="E128" t="n">
-        <v>17815290</v>
+        <v>17392109</v>
       </c>
       <c r="F128" t="n">
-        <v>1188.878848904319</v>
+        <v>2040.491135918565</v>
       </c>
       <c r="G128" t="n">
-        <v>1119.025015312167</v>
+        <v>1638.971962728826</v>
       </c>
       <c r="H128" t="n">
-        <v>1.91</v>
+        <v>0.7</v>
       </c>
       <c r="I128" t="n">
-        <v>1790111</v>
+        <v>2051720</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>28976068</v>
+        <v>29364650</v>
       </c>
       <c r="E129" t="n">
-        <v>90222179</v>
+        <v>91432099</v>
       </c>
       <c r="F129" t="n">
-        <v>3090.843599149781</v>
+        <v>10936.95296982476</v>
       </c>
       <c r="G129" t="n">
-        <v>6082.089049970057</v>
+        <v>5202.924248866621</v>
       </c>
       <c r="H129" t="n">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="I129" t="n">
-        <v>10287284</v>
+        <v>10398531</v>
       </c>
     </row>
     <row r="130">
@@ -4961,10 +4961,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1937770</v>
+        <v>1804925</v>
       </c>
       <c r="E130" t="n">
-        <v>13895552</v>
+        <v>12942937</v>
       </c>
       <c r="F130" t="n">
         <v>3.820038567048084</v>
@@ -4976,7 +4976,7 @@
         <v>0.72</v>
       </c>
       <c r="I130" t="n">
-        <v>2045770</v>
+        <v>2025951</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8434282</v>
+        <v>8400409</v>
       </c>
       <c r="F131" t="n">
-        <v>217.0128771443555</v>
+        <v>403.9847283989797</v>
       </c>
       <c r="G131" t="n">
-        <v>267.1532996763647</v>
+        <v>69.38433803121519</v>
       </c>
       <c r="H131" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="I131" t="n">
-        <v>549244</v>
+        <v>548352</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>191785265</v>
+        <v>188625579</v>
       </c>
       <c r="E132" t="n">
-        <v>1086006011</v>
+        <v>1068113930</v>
       </c>
       <c r="F132" t="n">
-        <v>288756.8754516037</v>
+        <v>401270.1538570478</v>
       </c>
       <c r="G132" t="n">
-        <v>472214.8042171922</v>
+        <v>551833.3067075317</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>83988092</v>
+        <v>83810865</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1032178</v>
+        <v>1024613</v>
       </c>
       <c r="E133" t="n">
-        <v>1032178</v>
+        <v>1024613</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5655.33</v>
+        <v>5432.24</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>495188</v>
+        <v>491011</v>
       </c>
       <c r="E134" t="n">
-        <v>1666734</v>
+        <v>1652674</v>
       </c>
       <c r="F134" t="n">
-        <v>259.3011829187</v>
+        <v>209.846051523505</v>
       </c>
       <c r="G134" t="n">
-        <v>158.0885053657073</v>
+        <v>183.3668732102454</v>
       </c>
       <c r="H134" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I134" t="n">
-        <v>225677</v>
+        <v>637860</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15267501</v>
+        <v>15210457</v>
       </c>
       <c r="F135" t="n">
-        <v>5.382700819592931</v>
+        <v>5.382251638916524</v>
       </c>
       <c r="G135" t="n">
-        <v>4.007069226003445</v>
+        <v>4.006734840325016</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>204.43</v>
+        <v>204.12</v>
       </c>
     </row>
     <row r="136">
@@ -5169,10 +5169,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>121332245</v>
+        <v>122642682</v>
       </c>
       <c r="E136" t="n">
-        <v>898757369</v>
+        <v>908464311</v>
       </c>
       <c r="F136" t="n">
         <v>146.3280743114322</v>
@@ -5184,7 +5184,7 @@
         <v>0.65</v>
       </c>
       <c r="I136" t="n">
-        <v>25147457</v>
+        <v>25357900</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>30273511</v>
+        <v>30094885</v>
       </c>
       <c r="E137" t="n">
-        <v>143632906</v>
+        <v>142785415</v>
       </c>
       <c r="F137" t="n">
-        <v>1058.331757710534</v>
+        <v>1000.297459694156</v>
       </c>
       <c r="G137" t="n">
-        <v>975.9058386057477</v>
+        <v>1018.579560772909</v>
       </c>
       <c r="H137" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I137" t="n">
-        <v>772311</v>
+        <v>727059</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8632535</v>
+        <v>8562181</v>
       </c>
       <c r="E138" t="n">
-        <v>11564719</v>
+        <v>11470468</v>
       </c>
       <c r="F138" t="n">
-        <v>146.2812675417854</v>
+        <v>464.6035153172072</v>
       </c>
       <c r="G138" t="n">
-        <v>7.129185711792414</v>
+        <v>180.8379366957276</v>
       </c>
       <c r="H138" t="n">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="I138" t="n">
-        <v>44915</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1204542</v>
+        <v>1185273</v>
       </c>
       <c r="F139" t="n">
-        <v>1.301021372471227</v>
+        <v>4.110962775547681</v>
       </c>
       <c r="G139" t="n">
-        <v>21.02818524838787</v>
+        <v>25.22706009971931</v>
       </c>
       <c r="H139" t="n">
-        <v>2.99</v>
+        <v>0.6</v>
       </c>
       <c r="I139" t="n">
-        <v>5317.06</v>
+        <v>5259.72</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2496222</v>
+        <v>2464167</v>
       </c>
       <c r="E140" t="n">
-        <v>2496222</v>
+        <v>2464167</v>
       </c>
       <c r="F140" t="n">
-        <v>488.6074462941169</v>
+        <v>1219.422915738357</v>
       </c>
       <c r="G140" t="n">
-        <v>463.2424308471933</v>
+        <v>283.5158667896031</v>
       </c>
       <c r="H140" t="n">
-        <v>1.06</v>
+        <v>0.44</v>
       </c>
       <c r="I140" t="n">
-        <v>316649</v>
+        <v>314178</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>35547673</v>
+        <v>35138056</v>
       </c>
       <c r="E141" t="n">
-        <v>35547673</v>
+        <v>35138056</v>
       </c>
       <c r="F141" t="n">
-        <v>670.1173663432951</v>
+        <v>2451.491855200279</v>
       </c>
       <c r="G141" t="n">
-        <v>1093.349530798088</v>
+        <v>1747.828567168511</v>
       </c>
       <c r="H141" t="n">
-        <v>1.16</v>
+        <v>0.24</v>
       </c>
       <c r="I141" t="n">
-        <v>978595</v>
+        <v>974396</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6360873</v>
+        <v>6301687</v>
       </c>
       <c r="E142" t="n">
-        <v>6717794</v>
+        <v>6655287</v>
       </c>
       <c r="F142" t="n">
-        <v>428.3079469089203</v>
+        <v>548.149927541336</v>
       </c>
       <c r="G142" t="n">
-        <v>232.6120935306365</v>
+        <v>233.0145650703857</v>
       </c>
       <c r="H142" t="n">
         <v>1.19</v>
       </c>
       <c r="I142" t="n">
-        <v>27524</v>
+        <v>27262</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3422630</v>
+        <v>3318065</v>
       </c>
       <c r="E143" t="n">
-        <v>7992412</v>
+        <v>7748234</v>
       </c>
       <c r="F143" t="n">
-        <v>794.7397294245247</v>
+        <v>870.2003375639987</v>
       </c>
       <c r="G143" t="n">
-        <v>1175.327711457399</v>
+        <v>696.9604251353225</v>
       </c>
       <c r="H143" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="I143" t="n">
-        <v>669539</v>
+        <v>645809</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1540352</v>
+        <v>1533821</v>
       </c>
       <c r="E144" t="n">
-        <v>11962548</v>
+        <v>11911832</v>
       </c>
       <c r="F144" t="n">
-        <v>199.9563710439556</v>
+        <v>99.99269991274369</v>
       </c>
       <c r="G144" t="n">
-        <v>220.5591024448868</v>
+        <v>4717.719273453664</v>
       </c>
       <c r="H144" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="I144" t="n">
-        <v>510426</v>
+        <v>462324</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>321161329</v>
+        <v>317455794</v>
       </c>
       <c r="E145" t="n">
-        <v>2889366465</v>
+        <v>2856029172</v>
       </c>
       <c r="F145" t="n">
-        <v>568484.8783154183</v>
+        <v>579894.6444265018</v>
       </c>
       <c r="G145" t="n">
-        <v>601835.8585425987</v>
+        <v>612173.6528995842</v>
       </c>
       <c r="H145" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I145" t="n">
-        <v>62554836</v>
+        <v>65647031</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>250334</v>
+        <v>250302</v>
       </c>
       <c r="E146" t="n">
-        <v>2209389</v>
+        <v>2209105</v>
       </c>
       <c r="F146" t="n">
-        <v>4.242959982518195</v>
+        <v>214.2386512543459</v>
       </c>
       <c r="G146" t="n">
-        <v>45.18863707811365</v>
+        <v>22.91893313399006</v>
       </c>
       <c r="H146" t="n">
-        <v>0.63</v>
+        <v>1.44</v>
       </c>
       <c r="I146" t="n">
-        <v>67144</v>
+        <v>67739</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>627629</v>
+        <v>628010</v>
       </c>
       <c r="F147" t="n">
-        <v>550.7769576298864</v>
+        <v>1137.558252949125</v>
       </c>
       <c r="G147" t="n">
-        <v>485.5006146300191</v>
+        <v>546.3080393640332</v>
       </c>
       <c r="H147" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="I147" t="n">
-        <v>12442.98</v>
+        <v>14768.27</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4806878</v>
+        <v>4771200</v>
       </c>
       <c r="E148" t="n">
-        <v>16982686</v>
+        <v>16856634</v>
       </c>
       <c r="F148" t="n">
-        <v>1937.54195131066</v>
+        <v>1825.014222046632</v>
       </c>
       <c r="G148" t="n">
-        <v>2005.099575281117</v>
+        <v>1937.523440488139</v>
       </c>
       <c r="H148" t="n">
         <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>134920</v>
+        <v>138699</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9544540</v>
+        <v>9375957</v>
       </c>
       <c r="E149" t="n">
-        <v>44239492</v>
+        <v>43458099</v>
       </c>
       <c r="F149" t="n">
-        <v>2297.035187285425</v>
+        <v>1850.374412310254</v>
       </c>
       <c r="G149" t="n">
-        <v>4337.230754471196</v>
+        <v>1594.810876921067</v>
       </c>
       <c r="H149" t="n">
         <v>0.41</v>
       </c>
       <c r="I149" t="n">
-        <v>70692</v>
+        <v>117663</v>
       </c>
     </row>
     <row r="150">
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46818321</v>
+        <v>46097870</v>
       </c>
       <c r="E150" t="n">
-        <v>271058735</v>
+        <v>266887619</v>
       </c>
       <c r="F150" t="n">
         <v>59758.58454950566</v>
@@ -5674,7 +5674,7 @@
         <v>0.1</v>
       </c>
       <c r="I150" t="n">
-        <v>51678113</v>
+        <v>51619143</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79798</v>
+        <v>79727</v>
       </c>
       <c r="E151" t="n">
-        <v>79798</v>
+        <v>79727</v>
       </c>
       <c r="F151" t="n">
-        <v>18.87706915757805</v>
+        <v>3.909778369621925</v>
       </c>
       <c r="G151" t="n">
-        <v>15.66308112498713</v>
+        <v>5.271126283840911</v>
       </c>
       <c r="H151" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="I151" t="n">
-        <v>21920</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4256508</v>
+        <v>4254677</v>
       </c>
       <c r="F152" t="n">
-        <v>329.6532414908689</v>
+        <v>407.8652481142963</v>
       </c>
       <c r="G152" t="n">
-        <v>288.3228283323289</v>
+        <v>268.2231834493647</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I152" t="n">
-        <v>296338</v>
+        <v>296068</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39260184</v>
+        <v>39158864</v>
       </c>
       <c r="E153" t="n">
-        <v>54223904</v>
+        <v>54083968</v>
       </c>
       <c r="F153" t="n">
-        <v>800.8686653476609</v>
+        <v>612.6016954829964</v>
       </c>
       <c r="G153" t="n">
-        <v>2403.207026826882</v>
+        <v>594.2970879102936</v>
       </c>
       <c r="H153" t="n">
         <v>0.77</v>
       </c>
       <c r="I153" t="n">
-        <v>315565</v>
+        <v>310797</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2098223</v>
+        <v>2080810</v>
       </c>
       <c r="E154" t="n">
-        <v>8568598</v>
+        <v>8497489</v>
       </c>
       <c r="F154" t="n">
-        <v>1714.740864668197</v>
+        <v>386.6656128432541</v>
       </c>
       <c r="G154" t="n">
-        <v>1059.437516034435</v>
+        <v>915.3334044405203</v>
       </c>
       <c r="H154" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I154" t="n">
-        <v>452329</v>
+        <v>436469</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7264025</v>
+        <v>7248550</v>
       </c>
       <c r="E155" t="n">
-        <v>7318021</v>
+        <v>7302430</v>
       </c>
       <c r="F155" t="n">
-        <v>529.7439120512983</v>
+        <v>343.2338291598531</v>
       </c>
       <c r="G155" t="n">
-        <v>4307.114515030124</v>
+        <v>6615.688842006269</v>
       </c>
       <c r="H155" t="n">
         <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>5812301</v>
+        <v>5787465</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>504286</v>
+        <v>503596</v>
       </c>
       <c r="E156" t="n">
-        <v>504286</v>
+        <v>503596</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>10936.62</v>
+        <v>10918.86</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13564970</v>
+        <v>13416120</v>
       </c>
       <c r="E157" t="n">
-        <v>13611133</v>
+        <v>13461776</v>
       </c>
       <c r="F157" t="n">
-        <v>2405.990783624922</v>
+        <v>2385.398644839458</v>
       </c>
       <c r="G157" t="n">
-        <v>2734.557613445259</v>
+        <v>2212.912016317388</v>
       </c>
       <c r="H157" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="I157" t="n">
-        <v>6841150</v>
+        <v>6055930</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42423114</v>
+        <v>42185327</v>
       </c>
       <c r="E158" t="n">
-        <v>72024578</v>
+        <v>71620871</v>
       </c>
       <c r="F158" t="n">
-        <v>354.9130484180779</v>
+        <v>394.8722785165283</v>
       </c>
       <c r="G158" t="n">
-        <v>272.1789812891815</v>
+        <v>310.7363065551675</v>
       </c>
       <c r="H158" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="I158" t="n">
-        <v>1134617</v>
+        <v>1128534</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19092268</v>
+        <v>18871553</v>
       </c>
       <c r="E159" t="n">
-        <v>57242067</v>
+        <v>56580755</v>
       </c>
       <c r="F159" t="n">
-        <v>2249.064095025633</v>
+        <v>2027.732741929132</v>
       </c>
       <c r="G159" t="n">
-        <v>3695.829690827019</v>
+        <v>3310.214335360478</v>
       </c>
       <c r="H159" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I159" t="n">
-        <v>4412950</v>
+        <v>4385639</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>98679594</v>
+        <v>97282900</v>
       </c>
       <c r="E160" t="n">
-        <v>104905327</v>
+        <v>103420515</v>
       </c>
       <c r="F160" t="n">
-        <v>455.6624385496229</v>
+        <v>1614.385514472114</v>
       </c>
       <c r="G160" t="n">
-        <v>1224.916381580168</v>
+        <v>916.4956882988054</v>
       </c>
       <c r="H160" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="I160" t="n">
-        <v>1812294</v>
+        <v>540565</v>
       </c>
     </row>
     <row r="161">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10421572</v>
+        <v>10387198</v>
       </c>
       <c r="E161" t="n">
-        <v>45235733</v>
+        <v>45085909</v>
       </c>
       <c r="F161" t="n">
         <v>4425.88138580664</v>
@@ -6059,7 +6059,7 @@
         <v>0.43</v>
       </c>
       <c r="I161" t="n">
-        <v>123065</v>
+        <v>122888</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15210033</v>
+        <v>15079335</v>
       </c>
       <c r="E162" t="n">
-        <v>93227296</v>
+        <v>92426205</v>
       </c>
       <c r="F162" t="n">
-        <v>1370.292732144676</v>
+        <v>2231.147483287336</v>
       </c>
       <c r="G162" t="n">
-        <v>1195.82270130602</v>
+        <v>1556.999920693012</v>
       </c>
       <c r="H162" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I162" t="n">
-        <v>12145501</v>
+        <v>11704443</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1461999</v>
+        <v>1437788</v>
       </c>
       <c r="E163" t="n">
-        <v>1503124</v>
+        <v>1478231</v>
       </c>
       <c r="F163" t="n">
-        <v>72.11860860375552</v>
+        <v>72.11155315977548</v>
       </c>
       <c r="G163" t="n">
-        <v>52.2695875978624</v>
+        <v>52.26447400576328</v>
       </c>
       <c r="H163" t="n">
         <v>0.98</v>
       </c>
       <c r="I163" t="n">
-        <v>149344</v>
+        <v>150096</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>74003</v>
+        <v>73897</v>
       </c>
       <c r="E164" t="n">
-        <v>209929</v>
+        <v>209630</v>
       </c>
       <c r="F164" t="n">
-        <v>4.042344134318518</v>
+        <v>4.042128960737606</v>
       </c>
       <c r="G164" t="n">
-        <v>4.129315333511405</v>
+        <v>4.129095530462109</v>
       </c>
       <c r="H164" t="n">
         <v>0.68</v>
       </c>
       <c r="I164" t="n">
-        <v>416.45</v>
+        <v>415.86</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47411665</v>
+        <v>47250612</v>
       </c>
       <c r="E165" t="n">
-        <v>204244268</v>
+        <v>203550469</v>
       </c>
       <c r="F165" t="n">
-        <v>3729.463749372737</v>
+        <v>4987.541903593331</v>
       </c>
       <c r="G165" t="n">
-        <v>3001.635882454137</v>
+        <v>4970.609899608861</v>
       </c>
       <c r="H165" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I165" t="n">
-        <v>12090262</v>
+        <v>12168162</v>
       </c>
     </row>
     <row r="166">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7398200</v>
+        <v>7574834</v>
       </c>
       <c r="F166" t="n">
         <v>218.6648778419387</v>
@@ -6230,7 +6230,7 @@
         <v>0.18</v>
       </c>
       <c r="I166" t="n">
-        <v>589820</v>
+        <v>6996334</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>665209</v>
+        <v>663671</v>
       </c>
       <c r="E167" t="n">
-        <v>2401044</v>
+        <v>2395492</v>
       </c>
       <c r="F167" t="n">
-        <v>50.35866122446529</v>
+        <v>50.55125825998847</v>
       </c>
       <c r="G167" t="n">
-        <v>10.97373866347824</v>
+        <v>10.54838159136205</v>
       </c>
       <c r="H167" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="I167" t="n">
-        <v>371762</v>
+        <v>376136</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1689065</v>
+        <v>1679290</v>
       </c>
       <c r="F168" t="n">
-        <v>454.2008775626609</v>
+        <v>454.2270783373903</v>
       </c>
       <c r="G168" t="n">
-        <v>421.2286256116433</v>
+        <v>411.2145561449069</v>
       </c>
       <c r="H168" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I168" t="n">
-        <v>88022</v>
+        <v>87993</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12471254</v>
+        <v>12397619</v>
       </c>
       <c r="E169" t="n">
-        <v>12471254</v>
+        <v>12397619</v>
       </c>
       <c r="F169" t="n">
-        <v>465.299563111332</v>
+        <v>67.11875129346548</v>
       </c>
       <c r="G169" t="n">
-        <v>25.57452411867529</v>
+        <v>29.99209284460707</v>
       </c>
       <c r="H169" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="I169" t="n">
-        <v>3713622</v>
+        <v>3626965</v>
       </c>
     </row>
     <row r="170">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2295454</v>
+        <v>2281209</v>
       </c>
       <c r="E170" t="n">
-        <v>8332401</v>
+        <v>8280656</v>
       </c>
       <c r="F170" t="n">
         <v>147.400844399845</v>
@@ -6370,7 +6370,7 @@
         <v>0.3</v>
       </c>
       <c r="I170" t="n">
-        <v>218442</v>
+        <v>225216</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8899408</v>
+        <v>8788731</v>
       </c>
       <c r="E171" t="n">
-        <v>19737621</v>
+        <v>19492156</v>
       </c>
       <c r="F171" t="n">
-        <v>1027.439254787658</v>
+        <v>1666.549225138234</v>
       </c>
       <c r="G171" t="n">
-        <v>1599.945269798465</v>
+        <v>1509.627391634305</v>
       </c>
       <c r="H171" t="n">
-        <v>0.51</v>
+        <v>0.02</v>
       </c>
       <c r="I171" t="n">
-        <v>332900</v>
+        <v>330397</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1022262</v>
+        <v>1020173</v>
       </c>
       <c r="E172" t="n">
-        <v>2987895</v>
+        <v>2981788</v>
       </c>
       <c r="F172" t="n">
-        <v>117.6526345066379</v>
+        <v>117.7675628341471</v>
       </c>
       <c r="G172" t="n">
-        <v>147.7118931173281</v>
+        <v>623.6221522931571</v>
       </c>
       <c r="H172" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="I172" t="n">
-        <v>8012.6</v>
+        <v>12479.05</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>19897270</v>
+        <v>19946563</v>
       </c>
       <c r="E173" t="n">
-        <v>79589079</v>
+        <v>79786251</v>
       </c>
       <c r="F173" t="n">
-        <v>816.8963247481753</v>
+        <v>420.2874071965987</v>
       </c>
       <c r="G173" t="n">
-        <v>6931.474397305469</v>
+        <v>18116.06278056747</v>
       </c>
       <c r="H173" t="n">
-        <v>0.37</v>
+        <v>0.9</v>
       </c>
       <c r="I173" t="n">
-        <v>2899598</v>
+        <v>2952239</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4590306</v>
+        <v>4576883</v>
       </c>
       <c r="E174" t="n">
-        <v>4590306</v>
+        <v>4576883</v>
       </c>
       <c r="F174" t="n">
-        <v>752.3225064791101</v>
+        <v>617.6618386025019</v>
       </c>
       <c r="G174" t="n">
-        <v>341.0375231761944</v>
+        <v>346.1178224371614</v>
       </c>
       <c r="H174" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="I174" t="n">
-        <v>2887163</v>
+        <v>2887415</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>286352971</v>
+        <v>284037865</v>
       </c>
       <c r="E175" t="n">
-        <v>286352971</v>
+        <v>284037865</v>
       </c>
       <c r="F175" t="n">
-        <v>2160.244273539025</v>
+        <v>12722.71521505647</v>
       </c>
       <c r="G175" t="n">
-        <v>7662.26200879587</v>
+        <v>3734.492426482145</v>
       </c>
       <c r="H175" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="I175" t="n">
-        <v>19528120</v>
+        <v>19584650</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12543446</v>
+        <v>12519658</v>
       </c>
       <c r="E176" t="n">
-        <v>39673495</v>
+        <v>39598254</v>
       </c>
       <c r="F176" t="n">
-        <v>3032.584592133195</v>
+        <v>3693.376419680438</v>
       </c>
       <c r="G176" t="n">
-        <v>2143.678991124934</v>
+        <v>2903.001770442982</v>
       </c>
       <c r="H176" t="n">
         <v>0.75</v>
       </c>
       <c r="I176" t="n">
-        <v>993349</v>
+        <v>1013469</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24806</v>
+        <v>24783</v>
       </c>
       <c r="E177" t="n">
-        <v>195090</v>
+        <v>194907</v>
       </c>
       <c r="F177" t="n">
-        <v>65.13559179666316</v>
+        <v>65.13369670826503</v>
       </c>
       <c r="G177" t="n">
-        <v>816.8727436306524</v>
+        <v>547.6516872618147</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>43654</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8023035</v>
+        <v>7536039</v>
       </c>
       <c r="E178" t="n">
-        <v>8023035</v>
+        <v>7536039</v>
       </c>
       <c r="F178" t="n">
-        <v>1810.772992708316</v>
+        <v>1282.244838869013</v>
       </c>
       <c r="G178" t="n">
-        <v>2220.208794264353</v>
+        <v>4267.303731878471</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I178" t="n">
-        <v>3860148</v>
+        <v>3859795</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1095581</v>
+        <v>1094103</v>
       </c>
       <c r="E179" t="n">
-        <v>2495292</v>
+        <v>2491928</v>
       </c>
       <c r="F179" t="n">
-        <v>24.12330510497733</v>
+        <v>24.12130220034303</v>
       </c>
       <c r="G179" t="n">
-        <v>267.9759409117578</v>
+        <v>267.9536914624558</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>434.18</v>
+        <v>433.59</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9264016</v>
+        <v>9121315</v>
       </c>
       <c r="E180" t="n">
-        <v>9264016</v>
+        <v>9121315</v>
       </c>
       <c r="F180" t="n">
-        <v>3822.30705716254</v>
+        <v>4570.686946011245</v>
       </c>
       <c r="G180" t="n">
-        <v>5765.529817601497</v>
+        <v>4232.120190403861</v>
       </c>
       <c r="H180" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I180" t="n">
-        <v>2172087</v>
+        <v>2133235</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17590472</v>
+        <v>17355491</v>
       </c>
       <c r="E181" t="n">
-        <v>17590472</v>
+        <v>17355491</v>
       </c>
       <c r="F181" t="n">
-        <v>1726.271325198746</v>
+        <v>1463.041540437868</v>
       </c>
       <c r="G181" t="n">
-        <v>2518.320556052331</v>
+        <v>2500.493395279313</v>
       </c>
       <c r="H181" t="n">
         <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>6706714</v>
+        <v>6779461</v>
       </c>
     </row>
     <row r="182">
@@ -6775,10 +6775,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31228358</v>
+        <v>31138590</v>
       </c>
       <c r="E182" t="n">
-        <v>86499452</v>
+        <v>86250803</v>
       </c>
       <c r="F182" t="n">
         <v>3415.765343024927</v>
@@ -6790,7 +6790,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="I182" t="n">
-        <v>12370510</v>
+        <v>12403580</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>30959704</v>
+        <v>30879533</v>
       </c>
       <c r="E183" t="n">
-        <v>78065511</v>
+        <v>77863356</v>
       </c>
       <c r="F183" t="n">
-        <v>678.5799722997455</v>
+        <v>68.23750090419038</v>
       </c>
       <c r="G183" t="n">
-        <v>5859.165103862747</v>
+        <v>16261.2157743581</v>
       </c>
       <c r="H183" t="n">
-        <v>0.24</v>
+        <v>1.08</v>
       </c>
       <c r="I183" t="n">
-        <v>5923468</v>
+        <v>5942002</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>301274250</v>
+        <v>299723500</v>
       </c>
       <c r="E184" t="n">
-        <v>305986474</v>
+        <v>304411468</v>
       </c>
       <c r="F184" t="n">
-        <v>12394.9589288843</v>
+        <v>16373.41383358775</v>
       </c>
       <c r="G184" t="n">
-        <v>27229.48989230637</v>
+        <v>27859.33043271635</v>
       </c>
       <c r="H184" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>24185167</v>
+        <v>27571711</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>397077</v>
+        <v>393259</v>
       </c>
       <c r="F185" t="n">
-        <v>20.69637476338776</v>
+        <v>117.1043728799787</v>
       </c>
       <c r="G185" t="n">
-        <v>443.3018703176917</v>
+        <v>15.15372775431978</v>
       </c>
       <c r="H185" t="n">
-        <v>1.24</v>
+        <v>3.03</v>
       </c>
       <c r="I185" t="n">
-        <v>69011</v>
+        <v>68629</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27176404</v>
+        <v>27018404</v>
       </c>
       <c r="E186" t="n">
-        <v>64467469</v>
+        <v>64092664</v>
       </c>
       <c r="F186" t="n">
-        <v>643.2279749869016</v>
+        <v>3627.762438984261</v>
       </c>
       <c r="G186" t="n">
-        <v>2587.857850000093</v>
+        <v>2118.327740865232</v>
       </c>
       <c r="H186" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>647105</v>
+        <v>653323</v>
       </c>
     </row>
     <row r="187">
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22194570</v>
+        <v>22169556</v>
       </c>
       <c r="F187" t="n">
         <v>4.002612162512958</v>
@@ -6965,7 +6965,7 @@
         <v>0.46</v>
       </c>
       <c r="I187" t="n">
-        <v>1033.24</v>
+        <v>1031.08</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12448306</v>
+        <v>12387063</v>
       </c>
       <c r="E188" t="n">
-        <v>18949129</v>
+        <v>18855904</v>
       </c>
       <c r="F188" t="n">
-        <v>1310.66854292192</v>
+        <v>1390.86011849141</v>
       </c>
       <c r="G188" t="n">
-        <v>8819.639248859974</v>
+        <v>1097.444807437086</v>
       </c>
       <c r="H188" t="n">
-        <v>0.55</v>
+        <v>0.74</v>
       </c>
       <c r="I188" t="n">
-        <v>654352</v>
+        <v>657910</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>76579931</v>
+        <v>75204216</v>
       </c>
       <c r="E189" t="n">
-        <v>76579931</v>
+        <v>75204216</v>
       </c>
       <c r="F189" t="n">
-        <v>6985.071167177362</v>
+        <v>9831.205907660145</v>
       </c>
       <c r="G189" t="n">
-        <v>8095.438264785742</v>
+        <v>12264.79262130581</v>
       </c>
       <c r="H189" t="n">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="I189" t="n">
-        <v>5267287</v>
+        <v>5176353</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>289498223</v>
+        <v>284200278</v>
       </c>
       <c r="E190" t="n">
-        <v>289498223</v>
+        <v>284200278</v>
       </c>
       <c r="F190" t="n">
-        <v>222030.7867397846</v>
+        <v>269471.2050650576</v>
       </c>
       <c r="G190" t="n">
-        <v>263725.2840044436</v>
+        <v>275117.1317234113</v>
       </c>
       <c r="H190" t="n">
         <v>0.04</v>
       </c>
       <c r="I190" t="n">
-        <v>88324947</v>
+        <v>88887362</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10007751</v>
+        <v>9819244</v>
       </c>
       <c r="E191" t="n">
-        <v>28413675</v>
+        <v>27878472</v>
       </c>
       <c r="F191" t="n">
-        <v>4411.358170728387</v>
+        <v>3586.90727772658</v>
       </c>
       <c r="G191" t="n">
-        <v>865.7962406450952</v>
+        <v>858.2269153035356</v>
       </c>
       <c r="H191" t="n">
         <v>0.35</v>
       </c>
       <c r="I191" t="n">
-        <v>91135</v>
+        <v>92601</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4409223</v>
+        <v>4568694</v>
       </c>
       <c r="E192" t="n">
-        <v>30127913</v>
+        <v>31217562</v>
       </c>
       <c r="F192" t="n">
-        <v>642.7306919311796</v>
+        <v>2347.146576076485</v>
       </c>
       <c r="G192" t="n">
-        <v>4014.482247447022</v>
+        <v>1397.900118252656</v>
       </c>
       <c r="H192" t="n">
-        <v>0.46</v>
+        <v>1.24</v>
       </c>
       <c r="I192" t="n">
-        <v>2818058</v>
+        <v>2882317</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2768247</v>
+        <v>2746419</v>
       </c>
       <c r="E193" t="n">
-        <v>4098704</v>
+        <v>4066197</v>
       </c>
       <c r="F193" t="n">
-        <v>831.1408131806103</v>
+        <v>851.264243115381</v>
       </c>
       <c r="G193" t="n">
-        <v>69.8064850077761</v>
+        <v>190.744854686267</v>
       </c>
       <c r="H193" t="n">
-        <v>0.97</v>
+        <v>1.46</v>
       </c>
       <c r="I193" t="n">
-        <v>94326</v>
+        <v>90025</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>84910387</v>
+        <v>83336360</v>
       </c>
       <c r="E194" t="n">
-        <v>489290274</v>
+        <v>480220054</v>
       </c>
       <c r="F194" t="n">
-        <v>531787.2730986507</v>
+        <v>677187.0892958418</v>
       </c>
       <c r="G194" t="n">
-        <v>569529.3759546373</v>
+        <v>657391.851984345</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I194" t="n">
-        <v>21036450</v>
+        <v>21228542</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>691543</v>
+        <v>686944</v>
       </c>
       <c r="E195" t="n">
-        <v>754192</v>
+        <v>749177</v>
       </c>
       <c r="F195" t="n">
-        <v>93.77194692097017</v>
+        <v>145.4270075105699</v>
       </c>
       <c r="G195" t="n">
-        <v>4.071428598301272</v>
+        <v>4.163057859805091</v>
       </c>
       <c r="H195" t="n">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
       <c r="I195" t="n">
-        <v>125362</v>
+        <v>125180</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>105438695</v>
+        <v>104515463</v>
       </c>
       <c r="E196" t="n">
-        <v>259420385</v>
+        <v>257148872</v>
       </c>
       <c r="F196" t="n">
-        <v>24686.12323571474</v>
+        <v>28307.31386476427</v>
       </c>
       <c r="G196" t="n">
-        <v>35762.69498784949</v>
+        <v>29468.27776879458</v>
       </c>
       <c r="H196" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>3277630</v>
+        <v>2667825</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19901006</v>
+        <v>18836746</v>
       </c>
       <c r="E197" t="n">
-        <v>19901006</v>
+        <v>18836746</v>
       </c>
       <c r="F197" t="n">
-        <v>3.966328433101299</v>
+        <v>5.406381801895334</v>
       </c>
       <c r="G197" t="n">
-        <v>533.1811595177933</v>
+        <v>436.2425936428514</v>
       </c>
       <c r="H197" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="I197" t="n">
-        <v>154437</v>
+        <v>146527</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1315550</v>
+        <v>1312724</v>
       </c>
       <c r="F198" t="n">
-        <v>73.60048736511904</v>
+        <v>5.642869588258128</v>
       </c>
       <c r="G198" t="n">
-        <v>116.8880222302413</v>
+        <v>129.0670910900451</v>
       </c>
       <c r="H198" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I198" t="n">
-        <v>43309</v>
+        <v>43312</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>141142</v>
+        <v>140335</v>
       </c>
       <c r="E199" t="n">
-        <v>307263</v>
+        <v>305507</v>
       </c>
       <c r="F199" t="n">
-        <v>217.0946086316337</v>
+        <v>217.0862273754352</v>
       </c>
       <c r="G199" t="n">
-        <v>15.37774605814206</v>
+        <v>15.37715237767122</v>
       </c>
       <c r="H199" t="n">
         <v>0.76</v>
       </c>
       <c r="I199" t="n">
-        <v>48313</v>
+        <v>47789</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3014905</v>
+        <v>3015571</v>
       </c>
       <c r="F200" t="n">
-        <v>1419.579277818874</v>
+        <v>786.7724033714686</v>
       </c>
       <c r="G200" t="n">
-        <v>762.2941673716863</v>
+        <v>2397.757698981989</v>
       </c>
       <c r="H200" t="n">
-        <v>1.64</v>
+        <v>0.99</v>
       </c>
       <c r="I200" t="n">
-        <v>474008</v>
+        <v>463034</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>196374</v>
+        <v>195891</v>
       </c>
       <c r="E201" t="n">
-        <v>1516401</v>
+        <v>1512672</v>
       </c>
       <c r="F201" t="n">
-        <v>5.279623891253055</v>
+        <v>5.279355037763835</v>
       </c>
       <c r="G201" t="n">
-        <v>313.9112948849811</v>
+        <v>36.30809724673683</v>
       </c>
       <c r="H201" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="I201" t="n">
-        <v>88631</v>
+        <v>81907</v>
       </c>
     </row>
     <row r="202">
@@ -7475,10 +7475,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>28925701</v>
+        <v>28596176</v>
       </c>
       <c r="E202" t="n">
-        <v>129512231</v>
+        <v>128036812</v>
       </c>
       <c r="F202" t="n">
         <v>7861.259054172066</v>
@@ -7490,7 +7490,7 @@
         <v>0.31</v>
       </c>
       <c r="I202" t="n">
-        <v>13485862</v>
+        <v>13644784</v>
       </c>
     </row>
     <row r="203">
@@ -7510,10 +7510,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12812889</v>
+        <v>12782515</v>
       </c>
       <c r="E203" t="n">
-        <v>25607815</v>
+        <v>25547110</v>
       </c>
       <c r="F203" t="n">
         <v>693.3735897650539</v>
@@ -7525,7 +7525,7 @@
         <v>0.16</v>
       </c>
       <c r="I203" t="n">
-        <v>14798.27</v>
+        <v>15980.12</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1267328</v>
+        <v>1282540</v>
       </c>
       <c r="F204" t="n">
-        <v>164.1311757023947</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>157.1149963624319</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1.49</v>
+        <v>4.68</v>
       </c>
       <c r="I204" t="n">
-        <v>89634</v>
+        <v>60505</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>950285</v>
+        <v>941385</v>
       </c>
       <c r="E205" t="n">
-        <v>4395203</v>
+        <v>4354038</v>
       </c>
       <c r="F205" t="n">
-        <v>3297.301155367295</v>
+        <v>3913.634163887746</v>
       </c>
       <c r="G205" t="n">
-        <v>2348.050319324121</v>
+        <v>3229.074944735765</v>
       </c>
       <c r="H205" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="I205" t="n">
-        <v>482901</v>
+        <v>480916</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2951758</v>
+        <v>2938074</v>
       </c>
       <c r="E206" t="n">
-        <v>2951758</v>
+        <v>2938074</v>
       </c>
       <c r="F206" t="n">
-        <v>950.2838646440327</v>
+        <v>1042.731498723832</v>
       </c>
       <c r="G206" t="n">
-        <v>1266.135006953145</v>
+        <v>1072.697198356518</v>
       </c>
       <c r="H206" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I206" t="n">
-        <v>351503</v>
+        <v>342168</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>559884</v>
+        <v>553296</v>
       </c>
       <c r="E207" t="n">
-        <v>559884</v>
+        <v>553296</v>
       </c>
       <c r="F207" t="n">
-        <v>64.12266681950638</v>
+        <v>62.96826858313245</v>
       </c>
       <c r="G207" t="n">
-        <v>4.01216266134335</v>
+        <v>81.3057326665417</v>
       </c>
       <c r="H207" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="I207" t="n">
-        <v>1183290</v>
+        <v>1232817</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14662405</v>
+        <v>14444052</v>
       </c>
       <c r="E208" t="n">
-        <v>18667583</v>
+        <v>18389584</v>
       </c>
       <c r="F208" t="n">
-        <v>461.5664595469459</v>
+        <v>450.397759866595</v>
       </c>
       <c r="G208" t="n">
-        <v>126.4534560978888</v>
+        <v>178.335591375015</v>
       </c>
       <c r="H208" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I208" t="n">
-        <v>949806</v>
+        <v>940480</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1769346</v>
+        <v>1739871</v>
       </c>
       <c r="E209" t="n">
-        <v>1769346</v>
+        <v>1739871</v>
       </c>
       <c r="F209" t="n">
-        <v>5.545320359046856</v>
+        <v>5.544879541827576</v>
       </c>
       <c r="G209" t="n">
-        <v>937.3358936642567</v>
+        <v>943.3845963695948</v>
       </c>
       <c r="H209" t="n">
         <v>0.24</v>
       </c>
       <c r="I209" t="n">
-        <v>3766.75</v>
+        <v>3669.28</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5851400</v>
+        <v>5825000</v>
       </c>
       <c r="E210" t="n">
-        <v>15356992</v>
+        <v>15287705</v>
       </c>
       <c r="F210" t="n">
-        <v>346.6606576929707</v>
+        <v>353.7519111423294</v>
       </c>
       <c r="G210" t="n">
-        <v>1043.37366949496</v>
+        <v>1081.352486014115</v>
       </c>
       <c r="H210" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="I210" t="n">
-        <v>25669</v>
+        <v>25454</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28635134</v>
+        <v>28543017</v>
       </c>
       <c r="F211" t="n">
-        <v>1458.442968120314</v>
+        <v>1447.944790201468</v>
       </c>
       <c r="G211" t="n">
-        <v>1850.996021244053</v>
+        <v>1707.014374037412</v>
       </c>
       <c r="H211" t="n">
         <v>1.37</v>
       </c>
       <c r="I211" t="n">
-        <v>541068</v>
+        <v>565909</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17331064</v>
+        <v>17186072</v>
       </c>
       <c r="E212" t="n">
-        <v>17331116</v>
+        <v>17186120</v>
       </c>
       <c r="F212" t="n">
-        <v>9283.176225114421</v>
+        <v>8356.297026462906</v>
       </c>
       <c r="G212" t="n">
-        <v>36357.67563800635</v>
+        <v>36600.25984430502</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2328720</v>
+        <v>2319404</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>48539290</v>
+        <v>47690116</v>
       </c>
       <c r="E213" t="n">
-        <v>314764378</v>
+        <v>309257707</v>
       </c>
       <c r="F213" t="n">
-        <v>176128.0273432802</v>
+        <v>114338.3220231221</v>
       </c>
       <c r="G213" t="n">
-        <v>160188.1642857608</v>
+        <v>138162.1706322393</v>
       </c>
       <c r="H213" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="I213" t="n">
-        <v>20460304</v>
+        <v>20673185</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>8132211</v>
+        <v>7930625</v>
       </c>
       <c r="F214" t="n">
-        <v>4.098127961960229</v>
+        <v>4.103716881028933</v>
       </c>
       <c r="G214" t="n">
-        <v>67.97165337415709</v>
+        <v>167.2687251414643</v>
       </c>
       <c r="H214" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="I214" t="n">
-        <v>292997</v>
+        <v>316884</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7040426</v>
+        <v>7050256</v>
       </c>
       <c r="E215" t="n">
-        <v>7050509</v>
+        <v>7060353</v>
       </c>
       <c r="F215" t="n">
-        <v>5.424607259958225</v>
+        <v>5.470035683569576</v>
       </c>
       <c r="G215" t="n">
-        <v>591.7860474429971</v>
+        <v>493.1006869018887</v>
       </c>
       <c r="H215" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I215" t="n">
-        <v>728000</v>
+        <v>755628</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4464914</v>
+        <v>4462943</v>
       </c>
       <c r="F216" t="n">
-        <v>620.6023173358374</v>
+        <v>75.14033152588645</v>
       </c>
       <c r="G216" t="n">
-        <v>8.875969679204042</v>
+        <v>110.8741467308582</v>
       </c>
       <c r="H216" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="I216" t="n">
-        <v>238718</v>
+        <v>218578</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2470055</v>
+        <v>2468655</v>
       </c>
       <c r="E217" t="n">
-        <v>4474970</v>
+        <v>4472433</v>
       </c>
       <c r="F217" t="n">
-        <v>616.0631101497423</v>
+        <v>603.3873925296286</v>
       </c>
       <c r="G217" t="n">
-        <v>705.9597799661639</v>
+        <v>701.6415693458785</v>
       </c>
       <c r="H217" t="n">
         <v>0.5</v>
       </c>
       <c r="I217" t="n">
-        <v>141469</v>
+        <v>134752</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123308680</v>
+        <v>123022144</v>
       </c>
       <c r="E218" t="n">
-        <v>2042092741</v>
+        <v>2037347465</v>
       </c>
       <c r="F218" t="n">
-        <v>6402.762558423216</v>
+        <v>4778.49296740001</v>
       </c>
       <c r="G218" t="n">
-        <v>7219.823819956876</v>
+        <v>6651.460015123498</v>
       </c>
       <c r="H218" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I218" t="n">
-        <v>33559497</v>
+        <v>33934575</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>94325277</v>
+        <v>90921723</v>
       </c>
       <c r="E219" t="n">
-        <v>95340621</v>
+        <v>91900429</v>
       </c>
       <c r="F219" t="n">
-        <v>661.5146789034192</v>
+        <v>1647.20043198593</v>
       </c>
       <c r="G219" t="n">
-        <v>15094.99535897974</v>
+        <v>13903.4088600346</v>
       </c>
       <c r="H219" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I219" t="n">
-        <v>79501823</v>
+        <v>79210394</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>237693243</v>
+        <v>235057828</v>
       </c>
       <c r="E220" t="n">
-        <v>237693243</v>
+        <v>235057828</v>
       </c>
       <c r="F220" t="n">
-        <v>3785.592518278021</v>
+        <v>14628.7958563201</v>
       </c>
       <c r="G220" t="n">
-        <v>54312.21602902636</v>
+        <v>49993.24382387566</v>
       </c>
       <c r="H220" t="n">
-        <v>0.98</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>87823408</v>
+        <v>88144979</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23165032</v>
+        <v>22855035</v>
       </c>
       <c r="E221" t="n">
-        <v>138601044</v>
+        <v>136746267</v>
       </c>
       <c r="F221" t="n">
-        <v>58669.52230267985</v>
+        <v>55186.34579849291</v>
       </c>
       <c r="G221" t="n">
-        <v>87693.59545173607</v>
+        <v>109896.2415047276</v>
       </c>
       <c r="H221" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I221" t="n">
-        <v>16882911</v>
+        <v>17198235</v>
       </c>
     </row>
     <row r="222">
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1059205</v>
+        <v>1057569</v>
       </c>
       <c r="F222" t="n">
         <v>174.2535957000042</v>
@@ -8190,7 +8190,7 @@
         <v>2.76</v>
       </c>
       <c r="I222" t="n">
-        <v>89118</v>
+        <v>89048</v>
       </c>
     </row>
     <row r="223">
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2191178</v>
+        <v>2178386</v>
       </c>
       <c r="F223" t="n">
         <v>164.7828768349874</v>
@@ -8225,7 +8225,7 @@
         <v>0.36</v>
       </c>
       <c r="I223" t="n">
-        <v>178956</v>
+        <v>179042</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13454140</v>
+        <v>13411124</v>
       </c>
       <c r="E224" t="n">
-        <v>40662147</v>
+        <v>40532140</v>
       </c>
       <c r="F224" t="n">
-        <v>1191.001969374909</v>
+        <v>1016.268955254431</v>
       </c>
       <c r="G224" t="n">
-        <v>5688.040375319244</v>
+        <v>1767.146006709444</v>
       </c>
       <c r="H224" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="I224" t="n">
-        <v>2456961</v>
+        <v>2449837</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52410954</v>
+        <v>52172510</v>
       </c>
       <c r="E225" t="n">
-        <v>90525111</v>
+        <v>90113267</v>
       </c>
       <c r="F225" t="n">
-        <v>6527.862471188699</v>
+        <v>13809.47342388313</v>
       </c>
       <c r="G225" t="n">
-        <v>13422.01609715898</v>
+        <v>13419.1926985083</v>
       </c>
       <c r="H225" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I225" t="n">
-        <v>2294216</v>
+        <v>2270799</v>
       </c>
     </row>
     <row r="226">
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4142861</v>
+        <v>4124560</v>
       </c>
       <c r="E226" t="n">
-        <v>4142861</v>
+        <v>4124560</v>
       </c>
       <c r="F226" t="n">
         <v>31.4619785501882</v>
@@ -8330,7 +8330,7 @@
         <v>0.31</v>
       </c>
       <c r="I226" t="n">
-        <v>1747531</v>
+        <v>1748327</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>192466</v>
+        <v>192530</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>60274</v>
+        <v>60169</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6329970</v>
+        <v>6274416</v>
       </c>
       <c r="E228" t="n">
-        <v>32565774</v>
+        <v>32279962</v>
       </c>
       <c r="F228" t="n">
-        <v>365.0450923271036</v>
+        <v>561.3211593717668</v>
       </c>
       <c r="G228" t="n">
-        <v>130.0689730737162</v>
+        <v>130.0581189558183</v>
       </c>
       <c r="H228" t="n">
         <v>0.43</v>
       </c>
       <c r="I228" t="n">
-        <v>945514</v>
+        <v>948201</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>173693156</v>
+        <v>172606357</v>
       </c>
       <c r="E230" t="n">
-        <v>202924893</v>
+        <v>201655190</v>
       </c>
       <c r="F230" t="n">
-        <v>19249.76529049786</v>
+        <v>18018.97605556269</v>
       </c>
       <c r="G230" t="n">
-        <v>80881.16781822457</v>
+        <v>31818.70198043072</v>
       </c>
       <c r="H230" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I230" t="n">
-        <v>4433964</v>
+        <v>4827992</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>295026</v>
+        <v>295364</v>
       </c>
       <c r="F231" t="n">
-        <v>11.38878126050301</v>
+        <v>57.15872357056593</v>
       </c>
       <c r="G231" t="n">
-        <v>413.6575447370398</v>
+        <v>483.8190048165264</v>
       </c>
       <c r="H231" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I231" t="n">
-        <v>241952</v>
+        <v>236435</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29488884</v>
+        <v>29860163</v>
       </c>
       <c r="E232" t="n">
-        <v>40434416</v>
+        <v>40943504</v>
       </c>
       <c r="F232" t="n">
-        <v>6346.440940147992</v>
+        <v>5905.492444931291</v>
       </c>
       <c r="G232" t="n">
-        <v>4675.23381190558</v>
+        <v>4777.748959420524</v>
       </c>
       <c r="H232" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I232" t="n">
-        <v>240933</v>
+        <v>305377</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1176078</v>
+        <v>1130075</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>489856</v>
+        <v>478355</v>
       </c>
     </row>
     <row r="234">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7596377</v>
+        <v>7597974</v>
       </c>
       <c r="F234" t="n">
         <v>630.4955429757231</v>
@@ -8602,7 +8602,7 @@
         <v>0.21</v>
       </c>
       <c r="I234" t="n">
-        <v>536803</v>
+        <v>651678</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22632641</v>
+        <v>22426295</v>
       </c>
       <c r="E235" t="n">
-        <v>22632641</v>
+        <v>22426449</v>
       </c>
       <c r="F235" t="n">
-        <v>5075.639042163274</v>
+        <v>3438.247804707044</v>
       </c>
       <c r="G235" t="n">
-        <v>27324.36904585765</v>
+        <v>39169.67237016127</v>
       </c>
       <c r="H235" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="I235" t="n">
-        <v>2346966</v>
+        <v>2373284</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3407333</v>
+        <v>3415877</v>
       </c>
       <c r="E236" t="n">
-        <v>4564337</v>
+        <v>4575783</v>
       </c>
       <c r="F236" t="n">
-        <v>711.441022394678</v>
+        <v>679.8818388551248</v>
       </c>
       <c r="G236" t="n">
-        <v>283.4095185436802</v>
+        <v>229.4532331409005</v>
       </c>
       <c r="H236" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="I236" t="n">
-        <v>148665</v>
+        <v>148662</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>32622183</v>
+        <v>32102675</v>
       </c>
       <c r="E237" t="n">
-        <v>162799732</v>
+        <v>160207147</v>
       </c>
       <c r="F237" t="n">
-        <v>112810.7549698174</v>
+        <v>153398.0577175225</v>
       </c>
       <c r="G237" t="n">
-        <v>94441.99686299768</v>
+        <v>78776.66228270337</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I237" t="n">
-        <v>13683190</v>
+        <v>13642647</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>25949071</v>
+        <v>25575290</v>
       </c>
       <c r="E238" t="n">
-        <v>58498704</v>
+        <v>57656064</v>
       </c>
       <c r="F238" t="n">
-        <v>241.0193741155526</v>
+        <v>240.9300164336967</v>
       </c>
       <c r="G238" t="n">
-        <v>68.0023958835186</v>
+        <v>225.4098514133399</v>
       </c>
       <c r="H238" t="n">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="I238" t="n">
-        <v>407226</v>
+        <v>417487</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1927495</v>
+        <v>1914933</v>
       </c>
       <c r="E239" t="n">
-        <v>1927495</v>
+        <v>1914933</v>
       </c>
       <c r="F239" t="n">
-        <v>170.7137382783787</v>
+        <v>177.119077579852</v>
       </c>
       <c r="G239" t="n">
-        <v>99.89210039086495</v>
+        <v>92.26973231201968</v>
       </c>
       <c r="H239" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="I239" t="n">
-        <v>7512.61</v>
+        <v>7470.8</v>
       </c>
     </row>
     <row r="240">
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71535613</v>
+        <v>71364239</v>
       </c>
       <c r="F240" t="n">
         <v>301.6351385688494</v>
@@ -8812,7 +8812,7 @@
         <v>0.25</v>
       </c>
       <c r="I240" t="n">
-        <v>60651</v>
+        <v>60907</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>902520</v>
+        <v>887387</v>
       </c>
       <c r="E241" t="n">
-        <v>902520</v>
+        <v>887387</v>
       </c>
       <c r="F241" t="n">
-        <v>5.37338926804965</v>
+        <v>4.228471212058778</v>
       </c>
       <c r="G241" t="n">
-        <v>15.34370737101665</v>
+        <v>494.6039536644217</v>
       </c>
       <c r="H241" t="n">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
       <c r="I241" t="n">
-        <v>11273.53</v>
+        <v>11482.33</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>123562</v>
+        <v>123224</v>
       </c>
       <c r="E242" t="n">
-        <v>123562</v>
+        <v>123224</v>
       </c>
       <c r="F242" t="n">
-        <v>617.8070412917218</v>
+        <v>596.9744931295071</v>
       </c>
       <c r="G242" t="n">
-        <v>421.7071167299629</v>
+        <v>420.7249481587569</v>
       </c>
       <c r="H242" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I242" t="n">
-        <v>39687</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3496595</v>
+        <v>3490056</v>
       </c>
       <c r="E243" t="n">
-        <v>5022923</v>
+        <v>5013530</v>
       </c>
       <c r="F243" t="n">
-        <v>344.5244666999955</v>
+        <v>720.5318201224198</v>
       </c>
       <c r="G243" t="n">
-        <v>33.42399447659137</v>
+        <v>315.7644121718569</v>
       </c>
       <c r="H243" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="I243" t="n">
-        <v>147983</v>
+        <v>148026</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>292832402</v>
+        <v>289642099</v>
       </c>
       <c r="E244" t="n">
-        <v>541806722</v>
+        <v>535903935</v>
       </c>
       <c r="F244" t="n">
-        <v>3573.116617527529</v>
+        <v>3101.246445198944</v>
       </c>
       <c r="G244" t="n">
-        <v>3590.907400726688</v>
+        <v>4149.340410857545</v>
       </c>
       <c r="H244" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I244" t="n">
-        <v>16499618</v>
+        <v>17729466</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>69379061</v>
+        <v>68745988</v>
       </c>
       <c r="E245" t="n">
-        <v>661763148</v>
+        <v>655721831</v>
       </c>
       <c r="F245" t="n">
-        <v>42150.07432774237</v>
+        <v>48123.73046470509</v>
       </c>
       <c r="G245" t="n">
-        <v>64676.37502997107</v>
+        <v>58445.52360980094</v>
       </c>
       <c r="H245" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>23327929</v>
+        <v>23515446</v>
       </c>
     </row>
     <row r="246">
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81663</v>
+        <v>81141</v>
       </c>
       <c r="E246" t="n">
-        <v>678879</v>
+        <v>674541</v>
       </c>
       <c r="F246" t="n">
         <v>5.429931343266089</v>
@@ -9022,7 +9022,7 @@
         <v>0.59</v>
       </c>
       <c r="I246" t="n">
-        <v>121.3</v>
+        <v>121.75</v>
       </c>
     </row>
     <row r="247">
@@ -9042,10 +9042,10 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1850098</v>
+        <v>1829406</v>
       </c>
       <c r="E247" t="n">
-        <v>5283643</v>
+        <v>5224549</v>
       </c>
       <c r="F247" t="n">
         <v>397.4151865531135</v>
@@ -9057,7 +9057,7 @@
         <v>0.2</v>
       </c>
       <c r="I247" t="n">
-        <v>75242</v>
+        <v>72812</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>36404270</v>
+        <v>35859668</v>
       </c>
       <c r="E248" t="n">
-        <v>47593106</v>
+        <v>46880972</v>
       </c>
       <c r="F248" t="n">
-        <v>505.0285949389871</v>
+        <v>530.1073086142169</v>
       </c>
       <c r="G248" t="n">
-        <v>1885.636422325578</v>
+        <v>975.83106267301</v>
       </c>
       <c r="H248" t="n">
-        <v>1.89</v>
+        <v>1.02</v>
       </c>
       <c r="I248" t="n">
-        <v>434726</v>
+        <v>427996</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8744574</v>
+        <v>8597669</v>
       </c>
       <c r="E249" t="n">
-        <v>25923625</v>
+        <v>25488121</v>
       </c>
       <c r="F249" t="n">
-        <v>544.2629106892167</v>
+        <v>608.843174914737</v>
       </c>
       <c r="G249" t="n">
-        <v>810.1047537229279</v>
+        <v>1782.218758862726</v>
       </c>
       <c r="H249" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="I249" t="n">
-        <v>6250363</v>
+        <v>6098933</v>
       </c>
     </row>
     <row r="250">
@@ -9147,10 +9147,10 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1972984</v>
+        <v>1957206</v>
       </c>
       <c r="E250" t="n">
-        <v>5707353</v>
+        <v>5661709</v>
       </c>
       <c r="F250" t="n">
         <v>3.032457651318631</v>
@@ -9162,7 +9162,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="I250" t="n">
-        <v>52534</v>
+        <v>52052</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7264357</v>
+        <v>7248803</v>
       </c>
       <c r="E251" t="n">
-        <v>7264368</v>
+        <v>7248814</v>
       </c>
       <c r="F251" t="n">
-        <v>1001.158110074265</v>
+        <v>894.6946445207064</v>
       </c>
       <c r="G251" t="n">
-        <v>1032.708590748626</v>
+        <v>1066.096732674606</v>
       </c>
       <c r="H251" t="n">
-        <v>0.74</v>
+        <v>1.47</v>
       </c>
       <c r="I251" t="n">
-        <v>264352</v>
+        <v>265553</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6114375</v>
+        <v>6067273</v>
       </c>
       <c r="E252" t="n">
-        <v>6114375</v>
+        <v>6067273</v>
       </c>
       <c r="F252" t="n">
-        <v>1226.989190196925</v>
+        <v>1220.514750567669</v>
       </c>
       <c r="G252" t="n">
-        <v>561.3951231569143</v>
+        <v>709.3486452930268</v>
       </c>
       <c r="H252" t="n">
-        <v>0.49</v>
+        <v>0.16</v>
       </c>
       <c r="I252" t="n">
-        <v>495364</v>
+        <v>493929</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6200013</v>
+        <v>6188377</v>
       </c>
       <c r="E253" t="n">
-        <v>22646248</v>
+        <v>22603747</v>
       </c>
       <c r="F253" t="n">
-        <v>78.01570418689825</v>
+        <v>30.91192880493134</v>
       </c>
       <c r="G253" t="n">
-        <v>404.7373031202156</v>
+        <v>1006.271659633734</v>
       </c>
       <c r="H253" t="n">
-        <v>3.22</v>
+        <v>1.24</v>
       </c>
       <c r="I253" t="n">
-        <v>517006</v>
+        <v>519844</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2174711</v>
+        <v>2166544</v>
       </c>
       <c r="E254" t="n">
-        <v>19182397</v>
+        <v>19110358</v>
       </c>
       <c r="F254" t="n">
-        <v>51.30970562744834</v>
+        <v>1129.947031666478</v>
       </c>
       <c r="G254" t="n">
-        <v>2116.545706640909</v>
+        <v>1428.960365694601</v>
       </c>
       <c r="H254" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I254" t="n">
-        <v>96095</v>
+        <v>95117</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14533875</v>
+        <v>14680804</v>
       </c>
       <c r="E255" t="n">
-        <v>29422942</v>
+        <v>29720391</v>
       </c>
       <c r="F255" t="n">
-        <v>126.1138461836401</v>
+        <v>126.1952371608672</v>
       </c>
       <c r="G255" t="n">
-        <v>298.2851558184717</v>
+        <v>299.085022290803</v>
       </c>
       <c r="H255" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="I255" t="n">
-        <v>570462</v>
+        <v>571329</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>43814706</v>
+        <v>43427561</v>
       </c>
       <c r="E256" t="n">
-        <v>43814706</v>
+        <v>43427561</v>
       </c>
       <c r="F256" t="n">
-        <v>5357.884250453886</v>
+        <v>3720.604655354532</v>
       </c>
       <c r="G256" t="n">
-        <v>1439.820522958926</v>
+        <v>4544.321600877408</v>
       </c>
       <c r="H256" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I256" t="n">
-        <v>10643250</v>
+        <v>10765694</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8152145</v>
+        <v>8216644</v>
       </c>
       <c r="E257" t="n">
-        <v>11614939</v>
+        <v>11706835</v>
       </c>
       <c r="F257" t="n">
-        <v>43.5963447879849</v>
+        <v>37.24355864141715</v>
       </c>
       <c r="G257" t="n">
-        <v>700.8897605441259</v>
+        <v>1027.571841215082</v>
       </c>
       <c r="H257" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I257" t="n">
-        <v>324232</v>
+        <v>328289</v>
       </c>
     </row>
     <row r="258">
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>144067703</v>
+        <v>143928848</v>
       </c>
       <c r="F258" t="n">
         <v>64.62824629704703</v>
@@ -9442,7 +9442,7 @@
         <v>2.08</v>
       </c>
       <c r="I258" t="n">
-        <v>1466827</v>
+        <v>1704725</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>15704100</v>
+        <v>15793057</v>
       </c>
       <c r="F259" t="n">
-        <v>99.96367781743508</v>
+        <v>99.95533595450735</v>
       </c>
       <c r="G259" t="n">
-        <v>108.1939149811935</v>
+        <v>108.1848863137005</v>
       </c>
       <c r="H259" t="n">
         <v>0.21</v>
       </c>
       <c r="I259" t="n">
-        <v>1081534</v>
+        <v>1088583</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>716015</v>
+        <v>714513</v>
       </c>
       <c r="F260" t="n">
-        <v>9.997012153263871</v>
+        <v>9.99686263913714</v>
       </c>
       <c r="G260" t="n">
-        <v>30.0588576063764</v>
+        <v>101.9657125324421</v>
       </c>
       <c r="H260" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="I260" t="n">
-        <v>210565</v>
+        <v>210248</v>
       </c>
     </row>
     <row r="261">
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2902472</v>
+        <v>2878475</v>
       </c>
       <c r="F261" t="n">
         <v>111.3327905483103</v>
@@ -9547,7 +9547,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>73053</v>
+        <v>72585</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2803130</v>
+        <v>2803842</v>
       </c>
       <c r="E262" t="n">
-        <v>2805558</v>
+        <v>2806270</v>
       </c>
       <c r="F262" t="n">
-        <v>15.88195189506329</v>
+        <v>1.58638725943955</v>
       </c>
       <c r="G262" t="n">
-        <v>730.9479150774422</v>
+        <v>1061.391960837703</v>
       </c>
       <c r="H262" t="n">
         <v>0.66</v>
       </c>
       <c r="I262" t="n">
-        <v>74685</v>
+        <v>76200</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>74418771</v>
+        <v>73968013</v>
       </c>
       <c r="E263" t="n">
-        <v>103042822</v>
+        <v>102418518</v>
       </c>
       <c r="F263" t="n">
-        <v>6581.870466098007</v>
+        <v>6922.762433674972</v>
       </c>
       <c r="G263" t="n">
-        <v>15218.93431224904</v>
+        <v>10848.00521775122</v>
       </c>
       <c r="H263" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="I263" t="n">
-        <v>7278551</v>
+        <v>7277681</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>619422</v>
+        <v>612442</v>
       </c>
       <c r="F264" t="n">
-        <v>69.46670503891463</v>
+        <v>431.7342230028213</v>
       </c>
       <c r="G264" t="n">
-        <v>215.2533451496382</v>
+        <v>215.2404016880391</v>
       </c>
       <c r="H264" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>620396</v>
+        <v>600494</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1310976</v>
+        <v>1307227</v>
       </c>
       <c r="E265" t="n">
-        <v>3968178</v>
+        <v>3956590</v>
       </c>
       <c r="F265" t="n">
-        <v>507.6992846924051</v>
+        <v>551.6317462625592</v>
       </c>
       <c r="G265" t="n">
-        <v>324.7662355653616</v>
+        <v>337.2118231120763</v>
       </c>
       <c r="H265" t="n">
         <v>0.5</v>
       </c>
       <c r="I265" t="n">
-        <v>36311</v>
+        <v>36247</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>31633757</v>
+        <v>31105596</v>
       </c>
       <c r="E266" t="n">
-        <v>224278175</v>
+        <v>220533599</v>
       </c>
       <c r="F266" t="n">
-        <v>23294.0126527043</v>
+        <v>33099.56824437502</v>
       </c>
       <c r="G266" t="n">
-        <v>19296.25918839457</v>
+        <v>19916.22888634805</v>
       </c>
       <c r="H266" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I266" t="n">
-        <v>5283937</v>
+        <v>5353606</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58167</v>
+        <v>58201</v>
       </c>
       <c r="E267" t="n">
-        <v>303491</v>
+        <v>303668</v>
       </c>
       <c r="F267" t="n">
-        <v>15.97658461558552</v>
+        <v>5.299392244202347</v>
       </c>
       <c r="G267" t="n">
-        <v>21.12033196915191</v>
+        <v>3.771631557480805</v>
       </c>
       <c r="H267" t="n">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
       <c r="I267" t="n">
-        <v>203304</v>
+        <v>201558</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1274840</v>
+        <v>1272271</v>
       </c>
       <c r="E268" t="n">
-        <v>7905198</v>
+        <v>7889270</v>
       </c>
       <c r="F268" t="n">
-        <v>1397.759124807279</v>
+        <v>1373.532837999814</v>
       </c>
       <c r="G268" t="n">
-        <v>2030.989065499113</v>
+        <v>1154.936692801421</v>
       </c>
       <c r="H268" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I268" t="n">
-        <v>788373</v>
+        <v>789329</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>578120375</v>
+        <v>572880365</v>
       </c>
       <c r="E269" t="n">
-        <v>2238974916</v>
+        <v>2218681129</v>
       </c>
       <c r="F269" t="n">
-        <v>288437.1180112226</v>
+        <v>241702.7270893723</v>
       </c>
       <c r="G269" t="n">
-        <v>286816.3456880691</v>
+        <v>264345.9598500989</v>
       </c>
       <c r="H269" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I269" t="n">
-        <v>57103862</v>
+        <v>57681383</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3288398</v>
+        <v>3318775</v>
       </c>
       <c r="F270" t="n">
-        <v>74.51140055399229</v>
+        <v>42.58048868386631</v>
       </c>
       <c r="G270" t="n">
-        <v>113.2923088054748</v>
+        <v>170.5450052781267</v>
       </c>
       <c r="H270" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="I270" t="n">
-        <v>37757</v>
+        <v>38260</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>829371</v>
+        <v>826002</v>
       </c>
       <c r="F271" t="n">
-        <v>226.0357383627682</v>
+        <v>224.2423257652049</v>
       </c>
       <c r="G271" t="n">
-        <v>2.317357849129894</v>
+        <v>2.317234496399379</v>
       </c>
       <c r="H271" t="n">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="I271" t="n">
-        <v>141434</v>
+        <v>140568</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5451612</v>
+        <v>5441223</v>
       </c>
       <c r="E272" t="n">
-        <v>24403721</v>
+        <v>24357219</v>
       </c>
       <c r="F272" t="n">
-        <v>1841.468499239596</v>
+        <v>1867.234391086747</v>
       </c>
       <c r="G272" t="n">
-        <v>173.2687011680191</v>
+        <v>154.6705089066534</v>
       </c>
       <c r="H272" t="n">
         <v>0.7</v>
       </c>
       <c r="I272" t="n">
-        <v>190542</v>
+        <v>191054</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6665709</v>
+        <v>6526128</v>
       </c>
       <c r="E273" t="n">
-        <v>12762040</v>
+        <v>12494801</v>
       </c>
       <c r="F273" t="n">
-        <v>1433.254797339138</v>
+        <v>98.61930552423053</v>
       </c>
       <c r="G273" t="n">
-        <v>173.9386350952867</v>
+        <v>86.06231660294139</v>
       </c>
       <c r="H273" t="n">
-        <v>1.59</v>
+        <v>2.84</v>
       </c>
       <c r="I273" t="n">
-        <v>33832</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3185685</v>
+        <v>3163745</v>
       </c>
       <c r="E274" t="n">
-        <v>20948323</v>
+        <v>20804050</v>
       </c>
       <c r="F274" t="n">
-        <v>265.4119367388678</v>
+        <v>265.4762626508088</v>
       </c>
       <c r="G274" t="n">
-        <v>54.74106555773553</v>
+        <v>54.73918693847666</v>
       </c>
       <c r="H274" t="n">
         <v>0.28</v>
       </c>
       <c r="I274" t="n">
-        <v>1680416</v>
+        <v>1681371</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3646156</v>
+        <v>3635254</v>
       </c>
       <c r="E275" t="n">
-        <v>6215368</v>
+        <v>6196784</v>
       </c>
       <c r="F275" t="n">
-        <v>696.3177711986525</v>
+        <v>731.85431377185</v>
       </c>
       <c r="G275" t="n">
-        <v>463.4261802349407</v>
+        <v>444.5591352670139</v>
       </c>
       <c r="H275" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1127144</v>
+        <v>1124139</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>437632</v>
+        <v>435694</v>
       </c>
       <c r="E276" t="n">
-        <v>437632</v>
+        <v>435694</v>
       </c>
       <c r="F276" t="n">
-        <v>3.425634890141405</v>
+        <v>3.425349024541839</v>
       </c>
       <c r="G276" t="n">
-        <v>4.011747524035678</v>
+        <v>4.011412747958238</v>
       </c>
       <c r="H276" t="n">
         <v>0.86</v>
       </c>
       <c r="I276" t="n">
-        <v>81.86</v>
+        <v>81.79000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7426001</v>
+        <v>7394233</v>
       </c>
       <c r="E277" t="n">
-        <v>10639202</v>
+        <v>10593663</v>
       </c>
       <c r="F277" t="n">
-        <v>1194.971748847168</v>
+        <v>1353.380653857167</v>
       </c>
       <c r="G277" t="n">
-        <v>511.9570143897548</v>
+        <v>1307.085727644421</v>
       </c>
       <c r="H277" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>176725</v>
+        <v>177378</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>109089076</v>
+        <v>105319303</v>
       </c>
       <c r="E278" t="n">
-        <v>1013578103</v>
+        <v>997080289</v>
       </c>
       <c r="F278" t="n">
-        <v>2301.800133392817</v>
+        <v>2859.925621669152</v>
       </c>
       <c r="G278" t="n">
-        <v>4148.689424292608</v>
+        <v>4464.219966489562</v>
       </c>
       <c r="H278" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I278" t="n">
-        <v>14921865</v>
+        <v>15343072</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>95408464</v>
+        <v>93862689</v>
       </c>
       <c r="E279" t="n">
-        <v>145547848</v>
+        <v>143189732</v>
       </c>
       <c r="F279" t="n">
-        <v>13220.62672728874</v>
+        <v>15931.06598665914</v>
       </c>
       <c r="G279" t="n">
-        <v>21308.84393843083</v>
+        <v>15255.60947911623</v>
       </c>
       <c r="H279" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I279" t="n">
-        <v>12411713</v>
+        <v>12491814</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15668747</v>
+        <v>15547707</v>
       </c>
       <c r="E280" t="n">
-        <v>21496164</v>
+        <v>21330107</v>
       </c>
       <c r="F280" t="n">
-        <v>178.9485207670964</v>
+        <v>208.0707884792798</v>
       </c>
       <c r="G280" t="n">
-        <v>6195.390220086299</v>
+        <v>6524.287271262781</v>
       </c>
       <c r="H280" t="n">
         <v>0.14</v>
       </c>
       <c r="I280" t="n">
-        <v>875697</v>
+        <v>948903</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5353663</v>
+        <v>5325596</v>
       </c>
       <c r="E281" t="n">
-        <v>5353663</v>
+        <v>5325596</v>
       </c>
       <c r="F281" t="n">
-        <v>37.01422696189811</v>
+        <v>37.00526673032624</v>
       </c>
       <c r="G281" t="n">
-        <v>1107.21304880683</v>
+        <v>286.5323980565382</v>
       </c>
       <c r="H281" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I281" t="n">
-        <v>678899</v>
+        <v>674471</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>121124474</v>
+        <v>120492108</v>
       </c>
       <c r="E282" t="n">
-        <v>464652977</v>
+        <v>462227122</v>
       </c>
       <c r="F282" t="n">
-        <v>56329.24028333584</v>
+        <v>74253.04951721229</v>
       </c>
       <c r="G282" t="n">
-        <v>80907.04465408555</v>
+        <v>68876.01124946866</v>
       </c>
       <c r="H282" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I282" t="n">
-        <v>39727316</v>
+        <v>39745593</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>640342</v>
+        <v>639773</v>
       </c>
       <c r="F283" t="n">
-        <v>2.81221008880688</v>
+        <v>387.1286915460862</v>
       </c>
       <c r="G283" t="n">
-        <v>4.062376470263457</v>
+        <v>1.346914793249318</v>
       </c>
       <c r="H283" t="n">
-        <v>0.62</v>
+        <v>1.47</v>
       </c>
       <c r="I283" t="n">
-        <v>40934</v>
+        <v>40617</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3011952</v>
+        <v>3008380</v>
       </c>
       <c r="E284" t="n">
-        <v>28538695</v>
+        <v>28504843</v>
       </c>
       <c r="F284" t="n">
-        <v>680.8238806674792</v>
+        <v>733.3864592824762</v>
       </c>
       <c r="G284" t="n">
-        <v>1135.232224182604</v>
+        <v>1297.852850260167</v>
       </c>
       <c r="H284" t="n">
         <v>0.71</v>
       </c>
       <c r="I284" t="n">
-        <v>246641</v>
+        <v>245524</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>93922</v>
+        <v>95049</v>
       </c>
       <c r="F285" t="n">
-        <v>1378.357218224071</v>
+        <v>769.5819571561615</v>
       </c>
       <c r="G285" t="n">
-        <v>428.3020865025969</v>
+        <v>69.9529145521193</v>
       </c>
       <c r="H285" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I285" t="n">
-        <v>46865</v>
+        <v>46963</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>131071</v>
+        <v>129187</v>
       </c>
       <c r="F286" t="n">
-        <v>4.082661173862905</v>
+        <v>5.489168907818518</v>
       </c>
       <c r="G286" t="n">
-        <v>4.119371701938442</v>
+        <v>36.91048431134413</v>
       </c>
       <c r="H286" t="n">
-        <v>0.33</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I286" t="n">
-        <v>67338</v>
+        <v>67262</v>
       </c>
     </row>
     <row r="287">
@@ -10442,10 +10442,10 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21176018</v>
+        <v>21030682</v>
       </c>
       <c r="E287" t="n">
-        <v>21176018</v>
+        <v>21030682</v>
       </c>
       <c r="F287" t="n">
         <v>2249.993517440573</v>
@@ -10457,7 +10457,7 @@
         <v>0.19</v>
       </c>
       <c r="I287" t="n">
-        <v>498108</v>
+        <v>490757</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>559680</v>
+        <v>558568</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8124.84</v>
+        <v>8108.97</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6575656</v>
+        <v>6553822</v>
       </c>
       <c r="E289" t="n">
-        <v>41095968</v>
+        <v>40959515</v>
       </c>
       <c r="F289" t="n">
-        <v>12.26220959750972</v>
+        <v>12.26100997429955</v>
       </c>
       <c r="G289" t="n">
-        <v>125.8190270490815</v>
+        <v>193.347475545685</v>
       </c>
       <c r="H289" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="I289" t="n">
-        <v>415619</v>
+        <v>417197</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493968478</v>
+        <v>493088650</v>
       </c>
       <c r="E290" t="n">
-        <v>493968478</v>
+        <v>493088650</v>
       </c>
       <c r="F290" t="n">
-        <v>1033286.51679283</v>
+        <v>943016.7524903812</v>
       </c>
       <c r="G290" t="n">
-        <v>1633137.257813715</v>
+        <v>1322610.30791824</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>42093628</v>
+        <v>42752487</v>
       </c>
     </row>
     <row r="291">
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5094978</v>
+        <v>5061591</v>
       </c>
       <c r="E291" t="n">
-        <v>18933033</v>
+        <v>18808969</v>
       </c>
       <c r="F291" t="n">
         <v>568.3082717728369</v>
@@ -10595,7 +10595,7 @@
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>87596</v>
+        <v>87607</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35320073</v>
+        <v>35189325</v>
       </c>
       <c r="F292" t="n">
-        <v>9100.243708222481</v>
+        <v>6791.974114658139</v>
       </c>
       <c r="G292" t="n">
-        <v>11150.56975352679</v>
+        <v>9499.67313176829</v>
       </c>
       <c r="H292" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="I292" t="n">
-        <v>7576056</v>
+        <v>7667723</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>39763911</v>
+        <v>44257693</v>
       </c>
       <c r="E293" t="n">
-        <v>142528183</v>
+        <v>158635514</v>
       </c>
       <c r="F293" t="n">
-        <v>2.720519082515042</v>
+        <v>2.644897972474905</v>
       </c>
       <c r="G293" t="n">
-        <v>67.27775846200073</v>
+        <v>29.16999987381403</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I293" t="n">
-        <v>157570</v>
+        <v>165149</v>
       </c>
     </row>
     <row r="294">
@@ -10685,10 +10685,10 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>795788</v>
+        <v>814072</v>
       </c>
       <c r="E294" t="n">
-        <v>12692539</v>
+        <v>12984155</v>
       </c>
       <c r="F294" t="n">
         <v>19.03085158854578</v>
@@ -10700,7 +10700,7 @@
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>333627</v>
+        <v>333658</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84474</v>
+        <v>84990</v>
       </c>
       <c r="F295" t="n">
-        <v>22.36110963237181</v>
+        <v>22.35991935270415</v>
       </c>
       <c r="G295" t="n">
-        <v>203.6911936120673</v>
+        <v>203.6803511498539</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>54817</v>
+        <v>55113</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1578131</v>
+        <v>1559987</v>
       </c>
       <c r="F296" t="n">
-        <v>5.35118044611575</v>
+        <v>5.350732707338564</v>
       </c>
       <c r="G296" t="n">
-        <v>3.971243317581172</v>
+        <v>3.970911039564232</v>
       </c>
       <c r="H296" t="n">
         <v>0.45</v>
       </c>
       <c r="I296" t="n">
-        <v>606395</v>
+        <v>605302</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2539254254</v>
+        <v>2502279568</v>
       </c>
       <c r="E297" t="n">
-        <v>2696027296</v>
+        <v>2656769801</v>
       </c>
       <c r="F297" t="n">
-        <v>35485.47170341455</v>
+        <v>33650.71428812151</v>
       </c>
       <c r="G297" t="n">
-        <v>57921.48757146906</v>
+        <v>47245.07436302388</v>
       </c>
       <c r="H297" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I297" t="n">
-        <v>56507906</v>
+        <v>60436471</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2125756</v>
+        <v>2120200</v>
       </c>
       <c r="E298" t="n">
-        <v>16350711</v>
+        <v>16307981</v>
       </c>
       <c r="F298" t="n">
-        <v>92.07211321102552</v>
+        <v>62.62832646180187</v>
       </c>
       <c r="G298" t="n">
-        <v>9.842539438915521</v>
+        <v>9.766558553061586</v>
       </c>
       <c r="H298" t="n">
-        <v>3.01</v>
+        <v>2.13</v>
       </c>
       <c r="I298" t="n">
-        <v>217399</v>
+        <v>215614</v>
       </c>
     </row>
     <row r="299">
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1695081</v>
+        <v>1688446</v>
       </c>
       <c r="E299" t="n">
-        <v>1701065</v>
+        <v>1694406</v>
       </c>
       <c r="F299" t="n">
         <v>518.3684313796531</v>
@@ -10875,7 +10875,7 @@
         <v>0.75</v>
       </c>
       <c r="I299" t="n">
-        <v>457899</v>
+        <v>457509</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87537016</v>
+        <v>87552617</v>
       </c>
       <c r="E300" t="n">
-        <v>323574835</v>
+        <v>323631757</v>
       </c>
       <c r="F300" t="n">
-        <v>2826.901154048052</v>
+        <v>3740.677924587254</v>
       </c>
       <c r="G300" t="n">
-        <v>14646.60731303009</v>
+        <v>13348.19408742685</v>
       </c>
       <c r="H300" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="I300" t="n">
-        <v>236937</v>
+        <v>240633</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2181334</v>
+        <v>2176693</v>
       </c>
       <c r="E301" t="n">
-        <v>8744635</v>
+        <v>8726031</v>
       </c>
       <c r="F301" t="n">
-        <v>3.869674209802693</v>
+        <v>3.869466862397271</v>
       </c>
       <c r="G301" t="n">
-        <v>5.461212955767839</v>
+        <v>5.460920329496106</v>
       </c>
       <c r="H301" t="n">
         <v>0.46</v>
       </c>
       <c r="I301" t="n">
-        <v>9177.33</v>
+        <v>9162.860000000001</v>
       </c>
     </row>
     <row r="302">
@@ -10965,10 +10965,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>57772667</v>
+        <v>57369923</v>
       </c>
       <c r="E302" t="n">
-        <v>141712436</v>
+        <v>140724533</v>
       </c>
       <c r="F302" t="n">
         <v>52.76068426814622</v>
@@ -10980,7 +10980,7 @@
         <v>1.65</v>
       </c>
       <c r="I302" t="n">
-        <v>21848785</v>
+        <v>21848236</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>754606332</v>
+        <v>748619135</v>
       </c>
       <c r="E303" t="n">
-        <v>1163669590</v>
+        <v>1154436803</v>
       </c>
       <c r="F303" t="n">
-        <v>2.655289115578303</v>
+        <v>2.500633003769206</v>
       </c>
       <c r="G303" t="n">
-        <v>46340.40069762588</v>
+        <v>25374.11723306194</v>
       </c>
       <c r="H303" t="n">
-        <v>0.19</v>
+        <v>0.55</v>
       </c>
       <c r="I303" t="n">
-        <v>333239200</v>
+        <v>328725652</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19448634</v>
+        <v>18965851</v>
       </c>
       <c r="E304" t="n">
-        <v>19448634</v>
+        <v>18965851</v>
       </c>
       <c r="F304" t="n">
-        <v>205.8743938379301</v>
+        <v>393.1334761536431</v>
       </c>
       <c r="G304" t="n">
-        <v>2948.950702803114</v>
+        <v>3458.483043421693</v>
       </c>
       <c r="H304" t="n">
-        <v>0.9</v>
+        <v>0.57</v>
       </c>
       <c r="I304" t="n">
-        <v>7185024</v>
+        <v>7175459</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2001862</v>
+        <v>1954986</v>
       </c>
       <c r="E305" t="n">
-        <v>3284715</v>
+        <v>3207799</v>
       </c>
       <c r="F305" t="n">
-        <v>833.656994604139</v>
+        <v>4.092708985232914</v>
       </c>
       <c r="G305" t="n">
-        <v>5.281816704061014</v>
+        <v>5.530550035417852</v>
       </c>
       <c r="H305" t="n">
-        <v>0.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I305" t="n">
-        <v>133335</v>
+        <v>127488</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>14375183</v>
+        <v>14252356</v>
       </c>
       <c r="E306" t="n">
-        <v>14375183</v>
+        <v>14252356</v>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>3.992157775384635</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>4.120347665620761</v>
       </c>
       <c r="H306" t="n">
-        <v>6.47</v>
+        <v>0.78</v>
       </c>
       <c r="I306" t="n">
-        <v>25940</v>
+        <v>32673</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39533751</v>
+        <v>39509845</v>
       </c>
       <c r="E307" t="n">
-        <v>188530676</v>
+        <v>188415009</v>
       </c>
       <c r="F307" t="n">
-        <v>1090.838921042533</v>
+        <v>1090.780855793994</v>
       </c>
       <c r="G307" t="n">
-        <v>250.9603020987101</v>
+        <v>233.0702015823587</v>
       </c>
       <c r="H307" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I307" t="n">
-        <v>401323</v>
+        <v>401449</v>
       </c>
     </row>
     <row r="308">
@@ -11175,10 +11175,10 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>379226</v>
+        <v>376222</v>
       </c>
       <c r="E308" t="n">
-        <v>709260</v>
+        <v>703642</v>
       </c>
       <c r="F308" t="n">
         <v>5.380406947880472</v>
@@ -11190,7 +11190,7 @@
         <v>0.06</v>
       </c>
       <c r="I308" t="n">
-        <v>2431.63</v>
+        <v>2446.53</v>
       </c>
     </row>
     <row r="309">
@@ -11210,10 +11210,10 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>24458606</v>
+        <v>24138400</v>
       </c>
       <c r="E309" t="n">
-        <v>40764343</v>
+        <v>40230666</v>
       </c>
       <c r="F309" t="n">
         <v>237.7923512935297</v>
@@ -11225,7 +11225,7 @@
         <v>0.52</v>
       </c>
       <c r="I309" t="n">
-        <v>914879</v>
+        <v>910997</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107971</v>
+        <v>107974</v>
       </c>
       <c r="F310" t="n">
-        <v>15.26788962680116</v>
+        <v>5.408670006517419</v>
       </c>
       <c r="G310" t="n">
-        <v>66.59508013191324</v>
+        <v>52.27420284567216</v>
       </c>
       <c r="H310" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="I310" t="n">
-        <v>55166</v>
+        <v>55337</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>21413949</v>
+        <v>21226820</v>
       </c>
       <c r="E311" t="n">
-        <v>21413949</v>
+        <v>21226820</v>
       </c>
       <c r="F311" t="n">
-        <v>438.0719834547899</v>
+        <v>3777.822973802815</v>
       </c>
       <c r="G311" t="n">
-        <v>1195.71885132039</v>
+        <v>7658.675719941743</v>
       </c>
       <c r="H311" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="I311" t="n">
-        <v>5639157</v>
+        <v>5615359</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3811893</v>
+        <v>3819494</v>
       </c>
       <c r="E312" t="n">
-        <v>8309392</v>
+        <v>8325962</v>
       </c>
       <c r="F312" t="n">
-        <v>1889.757523762832</v>
+        <v>1889.599825501082</v>
       </c>
       <c r="G312" t="n">
-        <v>1791.804463459674</v>
+        <v>1791.654939276953</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>2008060</v>
+        <v>2014394</v>
       </c>
     </row>
     <row r="313">
@@ -11350,10 +11350,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9252660</v>
+        <v>9247360</v>
       </c>
       <c r="E313" t="n">
-        <v>9252660</v>
+        <v>9247360</v>
       </c>
       <c r="F313" t="n">
         <v>116924.9366031031</v>
@@ -11365,7 +11365,7 @@
         <v>0.04</v>
       </c>
       <c r="I313" t="n">
-        <v>5439670</v>
+        <v>5646970</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>472922845</v>
+        <v>465530434</v>
       </c>
       <c r="E314" t="n">
-        <v>1646205064</v>
+        <v>1620472698</v>
       </c>
       <c r="F314" t="n">
-        <v>224276.8804560885</v>
+        <v>255943.5255913771</v>
       </c>
       <c r="G314" t="n">
-        <v>344685.9417774447</v>
+        <v>354084.8663755199</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>46210150</v>
+        <v>46818681</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22267419</v>
+        <v>22172728</v>
       </c>
       <c r="E315" t="n">
-        <v>22248076</v>
+        <v>22153468</v>
       </c>
       <c r="F315" t="n">
-        <v>254.8457586713152</v>
+        <v>247.1507840992725</v>
       </c>
       <c r="G315" t="n">
-        <v>777.5506652809802</v>
+        <v>816.9459524632207</v>
       </c>
       <c r="H315" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I315" t="n">
-        <v>407448</v>
+        <v>408207</v>
       </c>
     </row>
     <row r="316">
@@ -11455,10 +11455,10 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>47087440</v>
+        <v>46805573</v>
       </c>
       <c r="E316" t="n">
-        <v>115912189</v>
+        <v>115218334</v>
       </c>
       <c r="F316" t="n">
         <v>521.4086159981788</v>
@@ -11470,7 +11470,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I316" t="n">
-        <v>100485</v>
+        <v>106889</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11892238</v>
+        <v>11868098</v>
       </c>
       <c r="E317" t="n">
-        <v>24011443</v>
+        <v>23960981</v>
       </c>
       <c r="F317" t="n">
-        <v>194.6265791969265</v>
+        <v>101.8660031811865</v>
       </c>
       <c r="G317" t="n">
-        <v>2013.217278300775</v>
+        <v>1435.3160475371</v>
       </c>
       <c r="H317" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="I317" t="n">
-        <v>68946</v>
+        <v>69230</v>
       </c>
     </row>
     <row r="318">
@@ -11525,10 +11525,10 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7159158</v>
+        <v>7131355</v>
       </c>
       <c r="E318" t="n">
-        <v>18598723</v>
+        <v>18526493</v>
       </c>
       <c r="F318" t="n">
         <v>197.7840478036829</v>
@@ -11540,7 +11540,7 @@
         <v>0.21</v>
       </c>
       <c r="I318" t="n">
-        <v>754726</v>
+        <v>757264</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>145116</v>
+        <v>146884</v>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>39.92756436703263</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>255.946761860679</v>
       </c>
       <c r="H319" t="n">
-        <v>8.210000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="I319" t="n">
-        <v>55549</v>
+        <v>56570</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18801722349</v>
+        <v>18778424998</v>
       </c>
       <c r="F320" t="n">
-        <v>412.3695152042708</v>
+        <v>351.444947233062</v>
       </c>
       <c r="G320" t="n">
-        <v>17932.81800836269</v>
+        <v>18681.67829771417</v>
       </c>
       <c r="H320" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I320" t="n">
-        <v>37724967</v>
+        <v>37188997</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>104972832</v>
+        <v>105625304</v>
       </c>
       <c r="E321" t="n">
-        <v>159045970</v>
+        <v>160034539</v>
       </c>
       <c r="F321" t="n">
-        <v>10009.75088742957</v>
+        <v>14912.48610284588</v>
       </c>
       <c r="G321" t="n">
-        <v>20933.60562768722</v>
+        <v>23102.73585573941</v>
       </c>
       <c r="H321" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="I321" t="n">
-        <v>9730231</v>
+        <v>9831964</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2385515</v>
+        <v>2370258</v>
       </c>
       <c r="E322" t="n">
-        <v>9542061</v>
+        <v>9481033</v>
       </c>
       <c r="F322" t="n">
-        <v>767.4038782249368</v>
+        <v>873.0985197647113</v>
       </c>
       <c r="G322" t="n">
-        <v>9445.513265983654</v>
+        <v>4706.271321556019</v>
       </c>
       <c r="H322" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I322" t="n">
-        <v>7461982</v>
+        <v>7516350</v>
       </c>
     </row>
     <row r="323">
@@ -11700,10 +11700,10 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>212201081</v>
+        <v>211601755</v>
       </c>
       <c r="E323" t="n">
-        <v>652438467</v>
+        <v>650595768</v>
       </c>
       <c r="F323" t="n">
         <v>171377.8132265743</v>
@@ -11715,7 +11715,7 @@
         <v>0.1</v>
       </c>
       <c r="I323" t="n">
-        <v>21773937</v>
+        <v>21913819</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>135385233</v>
+        <v>134258525</v>
       </c>
       <c r="E324" t="n">
-        <v>353690165</v>
+        <v>350746673</v>
       </c>
       <c r="F324" t="n">
-        <v>9209.49925666178</v>
+        <v>10151.06675372325</v>
       </c>
       <c r="G324" t="n">
-        <v>25721.85636533425</v>
+        <v>37263.20553364951</v>
       </c>
       <c r="H324" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I324" t="n">
-        <v>9431834</v>
+        <v>9499499</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2350646</v>
+        <v>2327582</v>
       </c>
       <c r="E325" t="n">
-        <v>3226224</v>
+        <v>3194532</v>
       </c>
       <c r="F325" t="n">
-        <v>63.35677209628828</v>
+        <v>109.2294519481626</v>
       </c>
       <c r="G325" t="n">
-        <v>1608.585802435596</v>
+        <v>1811.04786855414</v>
       </c>
       <c r="H325" t="n">
-        <v>2.19</v>
+        <v>1.76</v>
       </c>
       <c r="I325" t="n">
-        <v>1790919</v>
+        <v>1404111</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>381279680</v>
+        <v>376258719</v>
       </c>
       <c r="E326" t="n">
-        <v>2178741029</v>
+        <v>2150049826</v>
       </c>
       <c r="F326" t="n">
-        <v>243087.708716626</v>
+        <v>250779.8117256819</v>
       </c>
       <c r="G326" t="n">
-        <v>314076.5247087894</v>
+        <v>296307.4631040179</v>
       </c>
       <c r="H326" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I326" t="n">
-        <v>57305354</v>
+        <v>58371313</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92420</v>
+        <v>93010</v>
       </c>
       <c r="F2" t="n">
-        <v>3.486656885432801</v>
+        <v>4.769857411886483</v>
       </c>
       <c r="G2" t="n">
-        <v>4.06666844091087</v>
+        <v>3.928716738816424</v>
       </c>
       <c r="H2" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I2" t="n">
-        <v>1578.44</v>
+        <v>1251.37</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>593409668</v>
+        <v>585974303</v>
       </c>
       <c r="E3" t="n">
-        <v>1151540835</v>
+        <v>1137114621</v>
       </c>
       <c r="F3" t="n">
-        <v>25985.18099293172</v>
+        <v>16942.55291126832</v>
       </c>
       <c r="G3" t="n">
-        <v>22972.01606143494</v>
+        <v>29634.60790257725</v>
       </c>
       <c r="H3" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I3" t="n">
-        <v>41088650</v>
+        <v>45711505</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>240025346</v>
+        <v>242443299</v>
       </c>
       <c r="E4" t="n">
-        <v>1505165208</v>
+        <v>1520327852</v>
       </c>
       <c r="F4" t="n">
-        <v>30115.40824604886</v>
+        <v>33302.02495071441</v>
       </c>
       <c r="G4" t="n">
-        <v>63699.33648740494</v>
+        <v>60194.93538944398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>26543935</v>
+        <v>24959240</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138809750</v>
+        <v>139469578</v>
       </c>
       <c r="E5" t="n">
-        <v>153822896</v>
+        <v>154554089</v>
       </c>
       <c r="F5" t="n">
-        <v>147504.0364680119</v>
+        <v>152753.489945246</v>
       </c>
       <c r="G5" t="n">
-        <v>171868.3898717467</v>
+        <v>240332.7771165116</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>51227214</v>
+        <v>52581865</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47282720</v>
+        <v>48199962</v>
       </c>
       <c r="E6" t="n">
-        <v>59149470</v>
+        <v>60296916</v>
       </c>
       <c r="F6" t="n">
-        <v>5905.965999081737</v>
+        <v>8720.57138704281</v>
       </c>
       <c r="G6" t="n">
-        <v>14792.08406436677</v>
+        <v>11139.63078560379</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="I6" t="n">
-        <v>849796</v>
+        <v>899874</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8305683</v>
+        <v>8260810</v>
       </c>
       <c r="E7" t="n">
-        <v>8515122</v>
+        <v>8469117</v>
       </c>
       <c r="F7" t="n">
-        <v>780.6464669764679</v>
+        <v>496.334511109115</v>
       </c>
       <c r="G7" t="n">
-        <v>488.5254488312272</v>
+        <v>1036.940633927323</v>
       </c>
       <c r="H7" t="n">
-        <v>0.93</v>
+        <v>2.33</v>
       </c>
       <c r="I7" t="n">
-        <v>95444</v>
+        <v>97850</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66402492</v>
+        <v>66555810</v>
       </c>
       <c r="E8" t="n">
-        <v>132251291</v>
+        <v>132556648</v>
       </c>
       <c r="F8" t="n">
-        <v>14560.28806532143</v>
+        <v>13017.36401137062</v>
       </c>
       <c r="G8" t="n">
-        <v>42858.66238937913</v>
+        <v>16936.06736404463</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>1071252</v>
+        <v>1058639</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5075360</v>
+        <v>5078380</v>
       </c>
       <c r="E9" t="n">
-        <v>8108900</v>
+        <v>8113725</v>
       </c>
       <c r="F9" t="n">
-        <v>342.7826533899174</v>
+        <v>311.9146320834394</v>
       </c>
       <c r="G9" t="n">
-        <v>308.2913133727047</v>
+        <v>253.5757204372719</v>
       </c>
       <c r="H9" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="I9" t="n">
-        <v>99969</v>
+        <v>100089</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13829682</v>
+        <v>13780214</v>
       </c>
       <c r="E10" t="n">
-        <v>40755179</v>
+        <v>40609400</v>
       </c>
       <c r="F10" t="n">
-        <v>3849.761463999482</v>
+        <v>3966.102036503663</v>
       </c>
       <c r="G10" t="n">
-        <v>5056.185973432688</v>
+        <v>3855.306418618132</v>
       </c>
       <c r="H10" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>907702</v>
+        <v>900580</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>116373185</v>
+        <v>117271315</v>
       </c>
       <c r="E11" t="n">
-        <v>456148039</v>
+        <v>459668441</v>
       </c>
       <c r="F11" t="n">
-        <v>65405.18842537298</v>
+        <v>92860.56049694524</v>
       </c>
       <c r="G11" t="n">
-        <v>41828.94087200325</v>
+        <v>50542.04692070423</v>
       </c>
       <c r="H11" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>27105282</v>
+        <v>27730377</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8507156</v>
+        <v>8676907</v>
       </c>
       <c r="E12" t="n">
-        <v>36568489</v>
+        <v>37298174</v>
       </c>
       <c r="F12" t="n">
-        <v>1559.763166942165</v>
+        <v>2363.012886086246</v>
       </c>
       <c r="G12" t="n">
-        <v>3473.004946773228</v>
+        <v>1790.249081258473</v>
       </c>
       <c r="H12" t="n">
         <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>890469</v>
+        <v>913035</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>998997</v>
+        <v>999624</v>
       </c>
       <c r="E13" t="n">
-        <v>12225027</v>
+        <v>12232704</v>
       </c>
       <c r="F13" t="n">
-        <v>208.6969067051913</v>
+        <v>208.6053880529858</v>
       </c>
       <c r="G13" t="n">
-        <v>224.7468447669854</v>
+        <v>224.6482878279044</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>421.92</v>
+        <v>422.51</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>566771</v>
+        <v>569585</v>
       </c>
       <c r="E14" t="n">
-        <v>566771</v>
+        <v>569585</v>
       </c>
       <c r="F14" t="n">
-        <v>196.50549352822</v>
+        <v>186.3156457531159</v>
       </c>
       <c r="G14" t="n">
-        <v>442.8868925669015</v>
+        <v>315.3465581963043</v>
       </c>
       <c r="H14" t="n">
         <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>28241</v>
+        <v>28355</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>546331005</v>
+        <v>550807813</v>
       </c>
       <c r="E15" t="n">
-        <v>683378888</v>
+        <v>688978709</v>
       </c>
       <c r="F15" t="n">
-        <v>449093.9513399409</v>
+        <v>543372.9854839646</v>
       </c>
       <c r="G15" t="n">
-        <v>379664.2860079083</v>
+        <v>585112.6428193881</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>93490947</v>
+        <v>97151937</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3227868</v>
+        <v>3209715</v>
       </c>
       <c r="E16" t="n">
-        <v>9182998</v>
+        <v>9131355</v>
       </c>
       <c r="F16" t="n">
-        <v>172.3732009403209</v>
+        <v>172.0280510624422</v>
       </c>
       <c r="G16" t="n">
-        <v>48.27471418061423</v>
+        <v>74.34127655332405</v>
       </c>
       <c r="H16" t="n">
-        <v>0.87</v>
+        <v>0.55</v>
       </c>
       <c r="I16" t="n">
-        <v>113234</v>
+        <v>112006</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>308480</v>
+        <v>308496</v>
       </c>
       <c r="E17" t="n">
-        <v>3560222</v>
+        <v>3560414</v>
       </c>
       <c r="F17" t="n">
-        <v>5.407204835654461</v>
+        <v>5.406431586652018</v>
       </c>
       <c r="G17" t="n">
-        <v>4.03871350714217</v>
+        <v>4.038135957135194</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>889.8</v>
+        <v>890.23</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1262326</v>
+        <v>1245683</v>
       </c>
       <c r="E18" t="n">
-        <v>9682789</v>
+        <v>9555126</v>
       </c>
       <c r="F18" t="n">
-        <v>952.3056983015192</v>
+        <v>83.66036570337708</v>
       </c>
       <c r="G18" t="n">
-        <v>125.5218187765102</v>
+        <v>132.9392538346297</v>
       </c>
       <c r="H18" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="I18" t="n">
-        <v>124121</v>
+        <v>127928</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24201258</v>
+        <v>24356994</v>
       </c>
       <c r="E19" t="n">
-        <v>24245896</v>
+        <v>24401919</v>
       </c>
       <c r="F19" t="n">
-        <v>1974.912106854687</v>
+        <v>2218.654091492505</v>
       </c>
       <c r="G19" t="n">
-        <v>982.4454551288794</v>
+        <v>649.4146914164729</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I19" t="n">
-        <v>895094</v>
+        <v>899886</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4339295</v>
+        <v>4121966</v>
       </c>
       <c r="E20" t="n">
-        <v>24076975</v>
+        <v>22871106</v>
       </c>
       <c r="F20" t="n">
-        <v>4.23568290488828</v>
+        <v>38.7287737594077</v>
       </c>
       <c r="G20" t="n">
-        <v>438.6508491899391</v>
+        <v>1.600908797767792</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4</v>
+        <v>0.86</v>
       </c>
       <c r="I20" t="n">
-        <v>2946.59</v>
+        <v>3164.39</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6823707</v>
+        <v>6839788</v>
       </c>
       <c r="E21" t="n">
-        <v>12659416</v>
+        <v>12689249</v>
       </c>
       <c r="F21" t="n">
-        <v>255.7092313851989</v>
+        <v>170.2662403193354</v>
       </c>
       <c r="G21" t="n">
-        <v>751.2505387803909</v>
+        <v>696.7888040202184</v>
       </c>
       <c r="H21" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>58169</v>
+        <v>57317</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69502878</v>
+        <v>68917960</v>
       </c>
       <c r="E22" t="n">
-        <v>120327700</v>
+        <v>119312202</v>
       </c>
       <c r="F22" t="n">
-        <v>1889.896987814825</v>
+        <v>1824.910752131051</v>
       </c>
       <c r="G22" t="n">
-        <v>679.3357360696353</v>
+        <v>685.2934156839079</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>823383</v>
+        <v>801458</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>182408</v>
+        <v>172167</v>
       </c>
       <c r="E23" t="n">
-        <v>548597</v>
+        <v>517796</v>
       </c>
       <c r="F23" t="n">
-        <v>35.48563261466249</v>
+        <v>8.569138106018817</v>
       </c>
       <c r="G23" t="n">
-        <v>3.983866276805498</v>
+        <v>83.67213461109419</v>
       </c>
       <c r="H23" t="n">
-        <v>0.54</v>
+        <v>0.19</v>
       </c>
       <c r="I23" t="n">
-        <v>158.21</v>
+        <v>191.13</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78485767</v>
+        <v>78730245</v>
       </c>
       <c r="E24" t="n">
-        <v>230914862</v>
+        <v>231634146</v>
       </c>
       <c r="F24" t="n">
-        <v>363.6583136063444</v>
+        <v>505.0077559899105</v>
       </c>
       <c r="G24" t="n">
-        <v>791.8628763471577</v>
+        <v>699.9930455767703</v>
       </c>
       <c r="H24" t="n">
         <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>462700</v>
+        <v>439181</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6731376</v>
+        <v>6505638</v>
       </c>
       <c r="F25" t="n">
-        <v>3.996371683509637</v>
+        <v>4.011644065622368</v>
       </c>
       <c r="G25" t="n">
-        <v>114.9858832694938</v>
+        <v>132.5538594948545</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="I25" t="n">
-        <v>19346.8</v>
+        <v>20626</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2425304</v>
+        <v>2344996</v>
       </c>
       <c r="E26" t="n">
-        <v>2425304</v>
+        <v>2344996</v>
       </c>
       <c r="F26" t="n">
-        <v>27.49320151070926</v>
+        <v>26.48036529649132</v>
       </c>
       <c r="G26" t="n">
-        <v>9.997527822073117</v>
+        <v>29.02737678876705</v>
       </c>
       <c r="H26" t="n">
-        <v>2.18</v>
+        <v>3.64</v>
       </c>
       <c r="I26" t="n">
-        <v>317331</v>
+        <v>307434</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16993043</v>
+        <v>16798288</v>
       </c>
       <c r="E27" t="n">
-        <v>21871441</v>
+        <v>21620776</v>
       </c>
       <c r="F27" t="n">
-        <v>542.1678096788286</v>
+        <v>357.895171854101</v>
       </c>
       <c r="G27" t="n">
-        <v>6514.343712964155</v>
+        <v>7106.21043946649</v>
       </c>
       <c r="H27" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I27" t="n">
-        <v>1903000</v>
+        <v>1911474</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4616739</v>
+        <v>4588896</v>
       </c>
       <c r="E28" t="n">
-        <v>4616739</v>
+        <v>4588896</v>
       </c>
       <c r="F28" t="n">
-        <v>2019.021199760593</v>
+        <v>1288.201367289013</v>
       </c>
       <c r="G28" t="n">
-        <v>1938.399695224321</v>
+        <v>1762.580678547716</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>2171739</v>
+        <v>2247801</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2003140</v>
+        <v>2011492</v>
       </c>
       <c r="F29" t="n">
-        <v>161.0137086437814</v>
+        <v>27.50961616631545</v>
       </c>
       <c r="G29" t="n">
-        <v>91.74417732559914</v>
+        <v>552.5996913716707</v>
       </c>
       <c r="H29" t="n">
-        <v>1.91</v>
+        <v>3.16</v>
       </c>
       <c r="I29" t="n">
-        <v>359551</v>
+        <v>304166</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3321321</v>
+        <v>3290391</v>
       </c>
       <c r="E30" t="n">
-        <v>3321321</v>
+        <v>3290391</v>
       </c>
       <c r="F30" t="n">
-        <v>4619.507818851314</v>
+        <v>3822.047284315381</v>
       </c>
       <c r="G30" t="n">
-        <v>449.5971800929426</v>
+        <v>557.2036383635252</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>606416</v>
+        <v>630970</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>301990</v>
+        <v>298356</v>
       </c>
       <c r="E31" t="n">
-        <v>1409718</v>
+        <v>1392758</v>
       </c>
       <c r="F31" t="n">
-        <v>72.08219163987677</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>117.3570427223777</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.38</v>
+        <v>4.23</v>
       </c>
       <c r="I31" t="n">
-        <v>677064</v>
+        <v>670689</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>385883</v>
+        <v>344580</v>
       </c>
       <c r="E32" t="n">
-        <v>385883</v>
+        <v>344580</v>
       </c>
       <c r="F32" t="n">
-        <v>123.4468675783328</v>
+        <v>5.383741844537472</v>
       </c>
       <c r="G32" t="n">
-        <v>5.384461568171038</v>
+        <v>151.9231333927698</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>53253</v>
+        <v>50891</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1820592</v>
+        <v>1821519</v>
       </c>
       <c r="F33" t="n">
-        <v>3.917436380478402</v>
+        <v>5.682842592367988</v>
       </c>
       <c r="G33" t="n">
-        <v>4.127211932882187</v>
+        <v>4.001896608825315</v>
       </c>
       <c r="H33" t="n">
-        <v>1.02</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1365180</v>
+        <v>1379164</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1775208</v>
+        <v>1666286</v>
       </c>
       <c r="F34" t="n">
-        <v>39.55237960694928</v>
+        <v>29.7968871403535</v>
       </c>
       <c r="G34" t="n">
-        <v>112.2868655894044</v>
+        <v>89.86888298502558</v>
       </c>
       <c r="H34" t="n">
-        <v>0.11</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
-        <v>1140953</v>
+        <v>1227938</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11830458</v>
+        <v>11870536</v>
       </c>
       <c r="E35" t="n">
-        <v>29443871</v>
+        <v>29543616</v>
       </c>
       <c r="F35" t="n">
-        <v>882.0120929542646</v>
+        <v>1025.127828388255</v>
       </c>
       <c r="G35" t="n">
-        <v>738.9636046888647</v>
+        <v>1377.268682911478</v>
       </c>
       <c r="H35" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="I35" t="n">
-        <v>1523532</v>
+        <v>1529765</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6915745</v>
+        <v>6890189</v>
       </c>
       <c r="E36" t="n">
-        <v>9524749</v>
+        <v>9489551</v>
       </c>
       <c r="F36" t="n">
-        <v>1918.180598915193</v>
+        <v>62.01788518070461</v>
       </c>
       <c r="G36" t="n">
-        <v>799.8485842626084</v>
+        <v>844.3628591049429</v>
       </c>
       <c r="H36" t="n">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="I36" t="n">
-        <v>334134</v>
+        <v>371894</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>880201</v>
+        <v>889409</v>
       </c>
       <c r="E37" t="n">
-        <v>6161409</v>
+        <v>6225866</v>
       </c>
       <c r="F37" t="n">
-        <v>118.8788035131882</v>
+        <v>941.2447284143238</v>
       </c>
       <c r="G37" t="n">
-        <v>75.873154872717</v>
+        <v>72.47258980790522</v>
       </c>
       <c r="H37" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="I37" t="n">
-        <v>257644</v>
+        <v>247758</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107880943</v>
+        <v>107907581</v>
       </c>
       <c r="E38" t="n">
-        <v>419400001</v>
+        <v>419479314</v>
       </c>
       <c r="F38" t="n">
-        <v>3922.545545957086</v>
+        <v>2922.866245021168</v>
       </c>
       <c r="G38" t="n">
-        <v>11457.20735522754</v>
+        <v>6520.071607241658</v>
       </c>
       <c r="H38" t="n">
-        <v>0.63</v>
+        <v>1.04</v>
       </c>
       <c r="I38" t="n">
-        <v>18911195</v>
+        <v>12378183</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5515273</v>
+        <v>5444477</v>
       </c>
       <c r="E39" t="n">
-        <v>5779124</v>
+        <v>5704941</v>
       </c>
       <c r="F39" t="n">
-        <v>2127.43161534402</v>
+        <v>72.59744705472453</v>
       </c>
       <c r="G39" t="n">
-        <v>94.69803247400111</v>
+        <v>729.7025453297231</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>155684</v>
+        <v>178764</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4768213</v>
+        <v>4797946</v>
       </c>
       <c r="E40" t="n">
-        <v>7019067</v>
+        <v>7062836</v>
       </c>
       <c r="F40" t="n">
-        <v>176.5255887223375</v>
+        <v>582.4665941908881</v>
       </c>
       <c r="G40" t="n">
-        <v>96.6530301326939</v>
+        <v>69.28921968210958</v>
       </c>
       <c r="H40" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="I40" t="n">
-        <v>556592</v>
+        <v>561800</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7495032</v>
+        <v>7502644</v>
       </c>
       <c r="E41" t="n">
-        <v>7495032</v>
+        <v>7502644</v>
       </c>
       <c r="F41" t="n">
-        <v>1327.244890704135</v>
+        <v>1613.633913603291</v>
       </c>
       <c r="G41" t="n">
-        <v>2159.23814068093</v>
+        <v>2416.107868990517</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I41" t="n">
-        <v>283001</v>
+        <v>448670</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1518642</v>
+        <v>1532587</v>
       </c>
       <c r="E42" t="n">
-        <v>1518660</v>
+        <v>1532600</v>
       </c>
       <c r="F42" t="n">
-        <v>363.6824058626672</v>
+        <v>390.4353989238487</v>
       </c>
       <c r="G42" t="n">
-        <v>15.72359282317334</v>
+        <v>57.64996532716585</v>
       </c>
       <c r="H42" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>284712</v>
+        <v>287904</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15649474</v>
+        <v>15849206</v>
       </c>
       <c r="F43" t="n">
-        <v>401.2629451493614</v>
+        <v>263.6929419232457</v>
       </c>
       <c r="G43" t="n">
-        <v>327.0743215299012</v>
+        <v>418.5781891676428</v>
       </c>
       <c r="H43" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="I43" t="n">
-        <v>11980.98</v>
+        <v>14062.77</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>136538771</v>
+        <v>137091387</v>
       </c>
       <c r="E44" t="n">
-        <v>136538771</v>
+        <v>137091387</v>
       </c>
       <c r="F44" t="n">
-        <v>344763.8041292662</v>
+        <v>277604.7989126067</v>
       </c>
       <c r="G44" t="n">
-        <v>339495.1038752225</v>
+        <v>358083.9980416734</v>
       </c>
       <c r="H44" t="n">
         <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>92203765</v>
+        <v>94771875</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>63995135</v>
+        <v>63363251</v>
       </c>
       <c r="E45" t="n">
-        <v>328180181</v>
+        <v>324939751</v>
       </c>
       <c r="F45" t="n">
-        <v>52054.9231575054</v>
+        <v>39350.0579268909</v>
       </c>
       <c r="G45" t="n">
-        <v>56458.42285993654</v>
+        <v>50392.80378174852</v>
       </c>
       <c r="H45" t="n">
         <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>27492877</v>
+        <v>27472952</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>597594</v>
+        <v>598763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.55768096713781</v>
+        <v>61.83762583800836</v>
       </c>
       <c r="G46" t="n">
-        <v>478.0837938100705</v>
+        <v>478.0147082453743</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1243.61</v>
+        <v>1247.12</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2614560</v>
+        <v>2615574</v>
       </c>
       <c r="E47" t="n">
-        <v>10507320</v>
+        <v>10511396</v>
       </c>
       <c r="F47" t="n">
-        <v>270.2981119297959</v>
+        <v>526.8342723444063</v>
       </c>
       <c r="G47" t="n">
-        <v>138.6494051227998</v>
+        <v>489.4728917054884</v>
       </c>
       <c r="H47" t="n">
-        <v>2.78</v>
+        <v>1.89</v>
       </c>
       <c r="I47" t="n">
-        <v>53436</v>
+        <v>55381</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17953915</v>
+        <v>17950279</v>
       </c>
       <c r="E48" t="n">
-        <v>125563934</v>
+        <v>125532524</v>
       </c>
       <c r="F48" t="n">
-        <v>959.9987301868234</v>
+        <v>965.9345023722052</v>
       </c>
       <c r="G48" t="n">
-        <v>1018.512738215871</v>
+        <v>941.3530490209058</v>
       </c>
       <c r="H48" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>1154609</v>
+        <v>1176733</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1025208</v>
+        <v>1021800</v>
       </c>
       <c r="E49" t="n">
-        <v>1203349</v>
+        <v>1199349</v>
       </c>
       <c r="F49" t="n">
-        <v>2179.575373953791</v>
+        <v>2178.582478265689</v>
       </c>
       <c r="G49" t="n">
-        <v>2371.300490115377</v>
+        <v>1922.951210384528</v>
       </c>
       <c r="H49" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="I49" t="n">
-        <v>199463</v>
+        <v>208406</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>165966</v>
+        <v>167490</v>
       </c>
       <c r="E50" t="n">
-        <v>2220712</v>
+        <v>2241107</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>47261</v>
+        <v>48484</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>250219624</v>
+        <v>250602084</v>
       </c>
       <c r="E51" t="n">
-        <v>250219624</v>
+        <v>250602084</v>
       </c>
       <c r="F51" t="n">
-        <v>25736.21944862215</v>
+        <v>20712.34860636937</v>
       </c>
       <c r="G51" t="n">
-        <v>23615.18830401894</v>
+        <v>41131.71399803759</v>
       </c>
       <c r="H51" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I51" t="n">
-        <v>29816394</v>
+        <v>25725804</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1113996</v>
+        <v>1116730</v>
       </c>
       <c r="F52" t="n">
-        <v>4.102142783973079</v>
+        <v>3.91557085813225</v>
       </c>
       <c r="G52" t="n">
-        <v>653.5318456593205</v>
+        <v>6.699786090818932</v>
       </c>
       <c r="H52" t="n">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="I52" t="n">
-        <v>136959</v>
+        <v>136876</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2324048</v>
+        <v>2397183</v>
       </c>
       <c r="E53" t="n">
-        <v>2577613</v>
+        <v>2661245</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>321856</v>
+        <v>330261</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>111487</v>
+        <v>111715</v>
       </c>
       <c r="E54" t="n">
-        <v>111487</v>
+        <v>111715</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>353.42</v>
+        <v>297.38</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6902664</v>
+        <v>6848983</v>
       </c>
       <c r="E55" t="n">
-        <v>16766040</v>
+        <v>16635653</v>
       </c>
       <c r="F55" t="n">
-        <v>489.2375942540439</v>
+        <v>780.5581716320299</v>
       </c>
       <c r="G55" t="n">
-        <v>68.19637377406288</v>
+        <v>190.8062071311067</v>
       </c>
       <c r="H55" t="n">
-        <v>0.21</v>
+        <v>0.72</v>
       </c>
       <c r="I55" t="n">
-        <v>437876</v>
+        <v>431351</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>417306817</v>
+        <v>411484130</v>
       </c>
       <c r="E56" t="n">
-        <v>417306817</v>
+        <v>411484130</v>
       </c>
       <c r="F56" t="n">
-        <v>3437.411537405123</v>
+        <v>9560.969342974007</v>
       </c>
       <c r="G56" t="n">
-        <v>15165.59019013276</v>
+        <v>3302.615619833509</v>
       </c>
       <c r="H56" t="n">
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="I56" t="n">
-        <v>3853913</v>
+        <v>4225924</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2289868</v>
+        <v>2380358</v>
       </c>
       <c r="E57" t="n">
-        <v>2289868</v>
+        <v>2380358</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>136335</v>
+        <v>155964</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>159819292</v>
+        <v>162924316</v>
       </c>
       <c r="E58" t="n">
-        <v>210303497</v>
+        <v>214389345</v>
       </c>
       <c r="F58" t="n">
-        <v>1252.964374917194</v>
+        <v>1340.70312167602</v>
       </c>
       <c r="G58" t="n">
-        <v>4080.02355351074</v>
+        <v>3203.525344961725</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="I58" t="n">
-        <v>16695943</v>
+        <v>17516354</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1119234</v>
+        <v>1114776</v>
       </c>
       <c r="E59" t="n">
-        <v>12163415</v>
+        <v>12114964</v>
       </c>
       <c r="F59" t="n">
-        <v>302.8184476605417</v>
+        <v>301.9500699439453</v>
       </c>
       <c r="G59" t="n">
-        <v>4.156197238085618</v>
+        <v>4.045136464208261</v>
       </c>
       <c r="H59" t="n">
         <v>0.4</v>
       </c>
       <c r="I59" t="n">
-        <v>14326.26</v>
+        <v>14411.03</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2563752</v>
+        <v>2577172</v>
       </c>
       <c r="E60" t="n">
-        <v>6554454</v>
+        <v>6588765</v>
       </c>
       <c r="F60" t="n">
-        <v>273.2793154316805</v>
+        <v>273.2510204141524</v>
       </c>
       <c r="G60" t="n">
-        <v>343.8290416268064</v>
+        <v>344.5182328586441</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>81586</v>
+        <v>82116</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>81654224</v>
+        <v>81515555</v>
       </c>
       <c r="E61" t="n">
-        <v>228441594</v>
+        <v>228039726</v>
       </c>
       <c r="F61" t="n">
-        <v>66309.30244195311</v>
+        <v>55665.10859563068</v>
       </c>
       <c r="G61" t="n">
-        <v>82760.45599488607</v>
+        <v>58693.56609173995</v>
       </c>
       <c r="H61" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>58848218</v>
+        <v>53868172</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>60570108</v>
+        <v>62372911</v>
       </c>
       <c r="E62" t="n">
-        <v>60570108</v>
+        <v>62372911</v>
       </c>
       <c r="F62" t="n">
-        <v>539.8563014167612</v>
+        <v>569.6603650709533</v>
       </c>
       <c r="G62" t="n">
-        <v>1528.291764059064</v>
+        <v>2169.855679142906</v>
       </c>
       <c r="H62" t="n">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="I62" t="n">
-        <v>5763721</v>
+        <v>6185554</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4149899</v>
+        <v>4079054</v>
       </c>
       <c r="E63" t="n">
-        <v>8183950</v>
+        <v>8044238</v>
       </c>
       <c r="F63" t="n">
-        <v>1289.095320005563</v>
+        <v>1678.673367446165</v>
       </c>
       <c r="G63" t="n">
-        <v>1006.596104594082</v>
+        <v>993.5292842783309</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
-        <v>1663540</v>
+        <v>1668378</v>
       </c>
     </row>
     <row r="64">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1592541</v>
+        <v>1596810</v>
       </c>
       <c r="E64" t="n">
-        <v>9143777</v>
+        <v>9168289</v>
       </c>
       <c r="F64" t="n">
         <v>28.31258674792837</v>
@@ -2678,7 +2678,7 @@
         <v>0.7</v>
       </c>
       <c r="I64" t="n">
-        <v>242657</v>
+        <v>244401</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>576814</v>
+        <v>578648</v>
       </c>
       <c r="F65" t="n">
-        <v>4.0226058812811</v>
+        <v>4.020841871098003</v>
       </c>
       <c r="G65" t="n">
-        <v>264.103271416754</v>
+        <v>268.2313468316697</v>
       </c>
       <c r="H65" t="n">
         <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>5603.45</v>
+        <v>5616.28</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31091664</v>
+        <v>31166062</v>
       </c>
       <c r="F66" t="n">
-        <v>349.7515945752431</v>
+        <v>774.997255530468</v>
       </c>
       <c r="G66" t="n">
-        <v>811.2883250947541</v>
+        <v>853.1315927488552</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I66" t="n">
-        <v>234020</v>
+        <v>234111</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>160678</v>
+        <v>162969</v>
       </c>
       <c r="E67" t="n">
-        <v>1085080</v>
+        <v>1100549</v>
       </c>
       <c r="F67" t="n">
-        <v>207.148575273844</v>
+        <v>105.7539376961394</v>
       </c>
       <c r="G67" t="n">
-        <v>7.397581011386616</v>
+        <v>4.004057974829276</v>
       </c>
       <c r="H67" t="n">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="I67" t="n">
-        <v>3107602</v>
+        <v>3155934</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17322706</v>
+        <v>17318324</v>
       </c>
       <c r="E68" t="n">
-        <v>18257726</v>
+        <v>18253107</v>
       </c>
       <c r="F68" t="n">
-        <v>1665.078161363648</v>
+        <v>1370.114984593407</v>
       </c>
       <c r="G68" t="n">
-        <v>1212.311818637765</v>
+        <v>1515.924468709748</v>
       </c>
       <c r="H68" t="n">
-        <v>0.77</v>
+        <v>1.14</v>
       </c>
       <c r="I68" t="n">
-        <v>41210</v>
+        <v>41217</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2936969</v>
+        <v>2927026</v>
       </c>
       <c r="E69" t="n">
-        <v>2936969</v>
+        <v>2927026</v>
       </c>
       <c r="F69" t="n">
-        <v>5.595005014905426</v>
+        <v>976.2154470448313</v>
       </c>
       <c r="G69" t="n">
-        <v>357.3718054929929</v>
+        <v>4.070972025722101</v>
       </c>
       <c r="H69" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
       <c r="I69" t="n">
-        <v>13954.23</v>
+        <v>15512.04</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3343244</v>
+        <v>3334893</v>
       </c>
       <c r="E70" t="n">
-        <v>8249283</v>
+        <v>8228678</v>
       </c>
       <c r="F70" t="n">
-        <v>1134.706848916361</v>
+        <v>1121.435988699227</v>
       </c>
       <c r="G70" t="n">
-        <v>1209.591509375046</v>
+        <v>1221.284230409015</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>44489</v>
+        <v>44295</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23172999</v>
+        <v>23196449</v>
       </c>
       <c r="F71" t="n">
-        <v>4.11313772582111</v>
+        <v>4.179427923926584</v>
       </c>
       <c r="G71" t="n">
-        <v>623.4278861416691</v>
+        <v>441.3688928405421</v>
       </c>
       <c r="H71" t="n">
-        <v>0.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>129675</v>
+        <v>131886</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>245891</v>
+        <v>246350</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3501.92</v>
+        <v>3480.4</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>82528057</v>
+        <v>83433043</v>
       </c>
       <c r="E73" t="n">
-        <v>172064372</v>
+        <v>173951194</v>
       </c>
       <c r="F73" t="n">
-        <v>14227.07598474971</v>
+        <v>12315.0731464605</v>
       </c>
       <c r="G73" t="n">
-        <v>183.6145862086629</v>
+        <v>416.803084210865</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I73" t="n">
-        <v>69223729</v>
+        <v>70198007</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>185114111</v>
+        <v>190750352</v>
       </c>
       <c r="F75" t="n">
-        <v>4389.319427814184</v>
+        <v>4351.187231199091</v>
       </c>
       <c r="G75" t="n">
-        <v>46629.92339171096</v>
+        <v>4598.701906605304</v>
       </c>
       <c r="H75" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="I75" t="n">
-        <v>3234667</v>
+        <v>3514290</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82445769</v>
+        <v>82874375</v>
       </c>
       <c r="E76" t="n">
-        <v>113210871</v>
+        <v>113799414</v>
       </c>
       <c r="F76" t="n">
-        <v>813.3210084990997</v>
+        <v>1312.809000404186</v>
       </c>
       <c r="G76" t="n">
-        <v>4143.536621490307</v>
+        <v>5677.305773989305</v>
       </c>
       <c r="H76" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I76" t="n">
-        <v>924691</v>
+        <v>1273344</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>187050</v>
+        <v>187742</v>
       </c>
       <c r="E77" t="n">
-        <v>195334</v>
+        <v>196056</v>
       </c>
       <c r="F77" t="n">
-        <v>4.049727528079234</v>
+        <v>5.722301428970346</v>
       </c>
       <c r="G77" t="n">
-        <v>92.78501176632263</v>
+        <v>93.20851871656589</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I77" t="n">
-        <v>192.28</v>
+        <v>192.93</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7027873</v>
+        <v>7356076</v>
       </c>
       <c r="E78" t="n">
-        <v>7731130</v>
+        <v>8092175</v>
       </c>
       <c r="F78" t="n">
-        <v>544.532536943162</v>
+        <v>332.4715657875801</v>
       </c>
       <c r="G78" t="n">
-        <v>288.681145644976</v>
+        <v>522.4528550898908</v>
       </c>
       <c r="H78" t="n">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="I78" t="n">
-        <v>606844</v>
+        <v>637260</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29148513</v>
+        <v>27918366</v>
       </c>
       <c r="E79" t="n">
-        <v>29148513</v>
+        <v>27918366</v>
       </c>
       <c r="F79" t="n">
-        <v>1322.232364503442</v>
+        <v>1535.261067558389</v>
       </c>
       <c r="G79" t="n">
-        <v>619.2498843548227</v>
+        <v>952.7754923276262</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="I79" t="n">
-        <v>241548</v>
+        <v>255593</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>265592025</v>
+        <v>267990617</v>
       </c>
       <c r="E80" t="n">
-        <v>265592025</v>
+        <v>267990617</v>
       </c>
       <c r="F80" t="n">
-        <v>452.7303185635017</v>
+        <v>121.7521700593651</v>
       </c>
       <c r="G80" t="n">
-        <v>2654.75898561305</v>
+        <v>2232.734231731517</v>
       </c>
       <c r="H80" t="n">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="I80" t="n">
-        <v>12480787</v>
+        <v>12611431</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>633939657</v>
+        <v>642085655</v>
       </c>
       <c r="E81" t="n">
-        <v>633939657</v>
+        <v>642085655</v>
       </c>
       <c r="F81" t="n">
-        <v>611904.4718329682</v>
+        <v>1155685.559233381</v>
       </c>
       <c r="G81" t="n">
-        <v>678856.484952433</v>
+        <v>1477475.813035568</v>
       </c>
       <c r="H81" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>539817123</v>
+        <v>550093388</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113277</v>
+        <v>113469</v>
       </c>
       <c r="E82" t="n">
-        <v>113277</v>
+        <v>113469</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1334.94</v>
+        <v>1337.05</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>194624750</v>
+        <v>195699959</v>
       </c>
       <c r="E83" t="n">
-        <v>676143972</v>
+        <v>679879344</v>
       </c>
       <c r="F83" t="n">
-        <v>398.2015529972392</v>
+        <v>319.4712592358346</v>
       </c>
       <c r="G83" t="n">
-        <v>1565.38468266499</v>
+        <v>1680.079170327388</v>
       </c>
       <c r="H83" t="n">
-        <v>0.89</v>
+        <v>1.96</v>
       </c>
       <c r="I83" t="n">
-        <v>44632534</v>
+        <v>40696045</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3329834</v>
+        <v>3427539</v>
       </c>
       <c r="E84" t="n">
-        <v>3329834</v>
+        <v>3427539</v>
       </c>
       <c r="F84" t="n">
-        <v>344.9126208732751</v>
+        <v>446.6076609149356</v>
       </c>
       <c r="G84" t="n">
-        <v>2617.014648164037</v>
+        <v>1216.180687156719</v>
       </c>
       <c r="H84" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I84" t="n">
-        <v>2416617</v>
+        <v>2342403</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>108365883</v>
+        <v>109683422</v>
       </c>
       <c r="E85" t="n">
-        <v>459744475</v>
+        <v>465285343</v>
       </c>
       <c r="F85" t="n">
-        <v>214061.5962557781</v>
+        <v>194646.1491234601</v>
       </c>
       <c r="G85" t="n">
-        <v>690.1002577507144</v>
+        <v>1682.810671801156</v>
       </c>
       <c r="H85" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="I85" t="n">
-        <v>14916777</v>
+        <v>15295958</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>74079299</v>
+        <v>73009622</v>
       </c>
       <c r="E86" t="n">
-        <v>84996559</v>
+        <v>83769241</v>
       </c>
       <c r="F86" t="n">
-        <v>2164.702311818249</v>
+        <v>1643.998850457454</v>
       </c>
       <c r="G86" t="n">
-        <v>5008.51518509449</v>
+        <v>4364.686335452961</v>
       </c>
       <c r="H86" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I86" t="n">
-        <v>1599950</v>
+        <v>1469371</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3179936</v>
+        <v>3237628</v>
       </c>
       <c r="E87" t="n">
-        <v>15943561</v>
+        <v>16232816</v>
       </c>
       <c r="F87" t="n">
-        <v>3.9460314408641</v>
+        <v>3.94522548452537</v>
       </c>
       <c r="G87" t="n">
-        <v>5.477813275404738</v>
+        <v>87.56887443312249</v>
       </c>
       <c r="H87" t="n">
         <v>0.79</v>
       </c>
       <c r="I87" t="n">
-        <v>30672</v>
+        <v>30611</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>517112</v>
+        <v>521305</v>
       </c>
       <c r="E88" t="n">
-        <v>8845165</v>
+        <v>8916881</v>
       </c>
       <c r="F88" t="n">
-        <v>29.28789174353485</v>
+        <v>129.96993483407</v>
       </c>
       <c r="G88" t="n">
-        <v>2381.285560403934</v>
+        <v>1168.919512691274</v>
       </c>
       <c r="H88" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I88" t="n">
-        <v>132847</v>
+        <v>132310</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5648799</v>
+        <v>5487565</v>
       </c>
       <c r="E89" t="n">
-        <v>7666420</v>
+        <v>7447342</v>
       </c>
       <c r="F89" t="n">
-        <v>101.0957414850844</v>
+        <v>67.70980454273385</v>
       </c>
       <c r="G89" t="n">
-        <v>314.3964733765677</v>
+        <v>1000.322427222654</v>
       </c>
       <c r="H89" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="I89" t="n">
-        <v>5151834</v>
+        <v>5340989</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>39331616</v>
+        <v>39963850</v>
       </c>
       <c r="E90" t="n">
-        <v>45938393</v>
+        <v>46676827</v>
       </c>
       <c r="F90" t="n">
-        <v>290.7584429806411</v>
+        <v>246.3195119846158</v>
       </c>
       <c r="G90" t="n">
-        <v>164.9978196366683</v>
+        <v>44.52098698283036</v>
       </c>
       <c r="H90" t="n">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="I90" t="n">
-        <v>968886</v>
+        <v>964092</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14350848</v>
+        <v>14249079</v>
       </c>
       <c r="F91" t="n">
-        <v>185.4974299250974</v>
+        <v>168.8230069981427</v>
       </c>
       <c r="G91" t="n">
-        <v>124.6864680943148</v>
+        <v>122.858570994772</v>
       </c>
       <c r="H91" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="I91" t="n">
-        <v>223501</v>
+        <v>217502</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35009069</v>
+        <v>34924083</v>
       </c>
       <c r="E92" t="n">
-        <v>35009069</v>
+        <v>34924083</v>
       </c>
       <c r="F92" t="n">
-        <v>357.6293834654974</v>
+        <v>112.9253642186007</v>
       </c>
       <c r="G92" t="n">
-        <v>32.32696412971077</v>
+        <v>825.9558532628117</v>
       </c>
       <c r="H92" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I92" t="n">
-        <v>878684</v>
+        <v>894519</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17085277</v>
+        <v>17116553</v>
       </c>
       <c r="F93" t="n">
-        <v>255.6913634147429</v>
+        <v>266.2909562199883</v>
       </c>
       <c r="G93" t="n">
-        <v>161.8981855908468</v>
+        <v>200.5531246384118</v>
       </c>
       <c r="H93" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>180148</v>
+        <v>176937</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>547755</v>
+        <v>534985</v>
       </c>
       <c r="E94" t="n">
-        <v>6643737</v>
+        <v>6488851</v>
       </c>
       <c r="F94" t="n">
-        <v>908.6335860743239</v>
+        <v>727.9080133115984</v>
       </c>
       <c r="G94" t="n">
-        <v>486.4204793140263</v>
+        <v>433.3878816240254</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I94" t="n">
-        <v>2830049</v>
+        <v>2851919</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24597956</v>
+        <v>24928580</v>
       </c>
       <c r="E95" t="n">
-        <v>34760878</v>
+        <v>35228103</v>
       </c>
       <c r="F95" t="n">
-        <v>5.353352612811257</v>
+        <v>5.351130570788293</v>
       </c>
       <c r="G95" t="n">
-        <v>6921.723240642021</v>
+        <v>2357.43539140766</v>
       </c>
       <c r="H95" t="n">
         <v>0.84</v>
       </c>
       <c r="I95" t="n">
-        <v>121355</v>
+        <v>140951</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1332427233</v>
+        <v>1384190984</v>
       </c>
       <c r="E96" t="n">
-        <v>6389261458</v>
+        <v>6637479245</v>
       </c>
       <c r="F96" t="n">
-        <v>157137.0667721861</v>
+        <v>275112.7324048066</v>
       </c>
       <c r="G96" t="n">
-        <v>125505.2835785028</v>
+        <v>322201.7010142796</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>463941730</v>
+        <v>478228586</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>255080292</v>
+        <v>259424066</v>
       </c>
       <c r="E97" t="n">
-        <v>1101068144</v>
+        <v>1119818285</v>
       </c>
       <c r="F97" t="n">
-        <v>241058.3341009842</v>
+        <v>247383.283374551</v>
       </c>
       <c r="G97" t="n">
-        <v>754030.1061169025</v>
+        <v>658548.3705371991</v>
       </c>
       <c r="H97" t="n">
         <v>0.18</v>
       </c>
       <c r="I97" t="n">
-        <v>138727917</v>
+        <v>142813891</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4840129</v>
+        <v>4786814</v>
       </c>
       <c r="E98" t="n">
-        <v>5363828</v>
+        <v>5304744</v>
       </c>
       <c r="F98" t="n">
-        <v>270.3716683129679</v>
+        <v>335.127560144503</v>
       </c>
       <c r="G98" t="n">
-        <v>172.6820303728581</v>
+        <v>506.258860164777</v>
       </c>
       <c r="H98" t="n">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="I98" t="n">
-        <v>731632</v>
+        <v>732979</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>92959</v>
+        <v>92049</v>
       </c>
       <c r="E99" t="n">
-        <v>92959</v>
+        <v>92049</v>
       </c>
       <c r="F99" t="n">
-        <v>5.313080668886785</v>
+        <v>5.190849472925803</v>
       </c>
       <c r="G99" t="n">
-        <v>87.89688852944299</v>
+        <v>171.4203440380878</v>
       </c>
       <c r="H99" t="n">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="I99" t="n">
-        <v>1172.34</v>
+        <v>1191.17</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112216242</v>
+        <v>112174198</v>
       </c>
       <c r="E100" t="n">
-        <v>112216242</v>
+        <v>112174198</v>
       </c>
       <c r="F100" t="n">
-        <v>10641.48215317892</v>
+        <v>6878.198845045757</v>
       </c>
       <c r="G100" t="n">
-        <v>7630.018130136921</v>
+        <v>17556.92731591819</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>8145145</v>
+        <v>7028418</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3851999</v>
+        <v>3820553</v>
       </c>
       <c r="F101" t="n">
-        <v>1208.057553607723</v>
+        <v>116.6321483420664</v>
       </c>
       <c r="G101" t="n">
-        <v>894.6126070799772</v>
+        <v>1.100453901287294</v>
       </c>
       <c r="H101" t="n">
-        <v>0.83</v>
+        <v>3.59</v>
       </c>
       <c r="I101" t="n">
-        <v>378681</v>
+        <v>356552</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2036390261</v>
+        <v>2043305079</v>
       </c>
       <c r="E102" t="n">
-        <v>2036390261</v>
+        <v>2043305079</v>
       </c>
       <c r="F102" t="n">
-        <v>9666564.141542813</v>
+        <v>10330868.99031877</v>
       </c>
       <c r="G102" t="n">
-        <v>3392361.401674956</v>
+        <v>4060316.037423994</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>8838452157</v>
+        <v>5720340797</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5306677</v>
+        <v>5322116</v>
       </c>
       <c r="E103" t="n">
-        <v>5312683</v>
+        <v>5328139</v>
       </c>
       <c r="F103" t="n">
-        <v>236.9145598725216</v>
+        <v>236.8271625814724</v>
       </c>
       <c r="G103" t="n">
-        <v>100.1772081977335</v>
+        <v>100.2168789473591</v>
       </c>
       <c r="H103" t="n">
         <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>145230</v>
+        <v>145598</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2281459</v>
+        <v>2386208</v>
       </c>
       <c r="F104" t="n">
-        <v>346.6400085447935</v>
+        <v>72.54389344420265</v>
       </c>
       <c r="G104" t="n">
-        <v>4.035894817199529</v>
+        <v>230.866404479927</v>
       </c>
       <c r="H104" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="I104" t="n">
-        <v>37161</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4176406</v>
+        <v>4160785</v>
       </c>
       <c r="E105" t="n">
-        <v>5483076</v>
+        <v>5462568</v>
       </c>
       <c r="F105" t="n">
-        <v>2049.702845320339</v>
+        <v>486.4115820980155</v>
       </c>
       <c r="G105" t="n">
-        <v>242.8561420410975</v>
+        <v>2101.800243823565</v>
       </c>
       <c r="H105" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I105" t="n">
-        <v>605928</v>
+        <v>589376</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19479155</v>
+        <v>19509708</v>
       </c>
       <c r="F106" t="n">
-        <v>209.5532991384395</v>
+        <v>88.36802444826296</v>
       </c>
       <c r="G106" t="n">
-        <v>752.5782851986654</v>
+        <v>1104.828732977003</v>
       </c>
       <c r="H106" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I106" t="n">
-        <v>70557</v>
+        <v>61117</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1520221</v>
+        <v>1561804</v>
       </c>
       <c r="E107" t="n">
-        <v>5667337</v>
+        <v>5822357</v>
       </c>
       <c r="F107" t="n">
-        <v>1551.040945688979</v>
+        <v>139.5503425330515</v>
       </c>
       <c r="G107" t="n">
-        <v>136.1116837001954</v>
+        <v>169.0943895100143</v>
       </c>
       <c r="H107" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I107" t="n">
-        <v>658468</v>
+        <v>693951</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4164290</v>
+        <v>4155014</v>
       </c>
       <c r="E108" t="n">
-        <v>11994525</v>
+        <v>11967808</v>
       </c>
       <c r="F108" t="n">
-        <v>1076.156531960017</v>
+        <v>1769.857085147502</v>
       </c>
       <c r="G108" t="n">
-        <v>423.2383425263964</v>
+        <v>266.8199571268581</v>
       </c>
       <c r="H108" t="n">
-        <v>1.48</v>
+        <v>0.83</v>
       </c>
       <c r="I108" t="n">
-        <v>503526</v>
+        <v>502756</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>78462428</v>
+        <v>77997704</v>
       </c>
       <c r="E109" t="n">
-        <v>99849538</v>
+        <v>99258140</v>
       </c>
       <c r="F109" t="n">
-        <v>4419.347257094864</v>
+        <v>4884.921821720412</v>
       </c>
       <c r="G109" t="n">
-        <v>393.1370060541032</v>
+        <v>470.3168497972162</v>
       </c>
       <c r="H109" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="I109" t="n">
-        <v>7411500</v>
+        <v>6525303</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22044833</v>
+        <v>21908448</v>
       </c>
       <c r="E110" t="n">
-        <v>28597191</v>
+        <v>28420268</v>
       </c>
       <c r="F110" t="n">
-        <v>17113.2481726976</v>
+        <v>15954.8035976414</v>
       </c>
       <c r="G110" t="n">
-        <v>18512.69183971933</v>
+        <v>17626.4785127134</v>
       </c>
       <c r="H110" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="I110" t="n">
-        <v>215197</v>
+        <v>223039</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>613904</v>
+        <v>599905</v>
       </c>
       <c r="E111" t="n">
-        <v>613904</v>
+        <v>599905</v>
       </c>
       <c r="F111" t="n">
-        <v>4.182902514469463</v>
+        <v>5.627245682717984</v>
       </c>
       <c r="G111" t="n">
-        <v>6.917893449705208</v>
+        <v>533.8424704906002</v>
       </c>
       <c r="H111" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>68790</v>
+        <v>67361</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13415188</v>
+        <v>13423332</v>
       </c>
       <c r="E112" t="n">
-        <v>13415188</v>
+        <v>13423332</v>
       </c>
       <c r="F112" t="n">
-        <v>2027.067599763324</v>
+        <v>2383.711169819052</v>
       </c>
       <c r="G112" t="n">
-        <v>7808.86366235014</v>
+        <v>3856.607230341344</v>
       </c>
       <c r="H112" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="I112" t="n">
-        <v>5385360</v>
+        <v>5414860</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>97964834</v>
+        <v>97560552</v>
       </c>
       <c r="E113" t="n">
-        <v>121178993</v>
+        <v>120678912</v>
       </c>
       <c r="F113" t="n">
-        <v>292.2909968598501</v>
+        <v>485.4046619571333</v>
       </c>
       <c r="G113" t="n">
-        <v>399.7096584385755</v>
+        <v>238.8973663188214</v>
       </c>
       <c r="H113" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>1104602</v>
+        <v>1094300</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>883888</v>
+        <v>881268</v>
       </c>
       <c r="F114" t="n">
-        <v>176.5668884487884</v>
+        <v>41.89768439026637</v>
       </c>
       <c r="G114" t="n">
-        <v>269.3269804599807</v>
+        <v>161.4353675018175</v>
       </c>
       <c r="H114" t="n">
-        <v>1.12</v>
+        <v>0.61</v>
       </c>
       <c r="I114" t="n">
-        <v>42999</v>
+        <v>43570</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2735881</v>
+        <v>2703231</v>
       </c>
       <c r="F115" t="n">
-        <v>165.8177856563596</v>
+        <v>400.6875525660469</v>
       </c>
       <c r="G115" t="n">
-        <v>1131.128489664011</v>
+        <v>111.0325387012615</v>
       </c>
       <c r="H115" t="n">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="I115" t="n">
-        <v>77705</v>
+        <v>72578</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10853700</v>
+        <v>10844238</v>
       </c>
       <c r="E116" t="n">
-        <v>15961322</v>
+        <v>15947407</v>
       </c>
       <c r="F116" t="n">
-        <v>2839.624615793013</v>
+        <v>3892.953084953132</v>
       </c>
       <c r="G116" t="n">
-        <v>4163.096925839612</v>
+        <v>4057.750059877506</v>
       </c>
       <c r="H116" t="n">
         <v>0.44</v>
       </c>
       <c r="I116" t="n">
-        <v>482386</v>
+        <v>481743</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3165541</v>
+        <v>3172673</v>
       </c>
       <c r="F117" t="n">
-        <v>5.291160607497525</v>
+        <v>5.289286649628252</v>
       </c>
       <c r="G117" t="n">
-        <v>164.0132889703587</v>
+        <v>163.9545341718154</v>
       </c>
       <c r="H117" t="n">
         <v>0.79</v>
       </c>
       <c r="I117" t="n">
-        <v>34719</v>
+        <v>35321</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1099351</v>
+        <v>1091919</v>
       </c>
       <c r="F118" t="n">
-        <v>3.194663497819671</v>
+        <v>3.899786282937116</v>
       </c>
       <c r="G118" t="n">
-        <v>5.208387443468839</v>
+        <v>47.38929115431461</v>
       </c>
       <c r="H118" t="n">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="I118" t="n">
-        <v>3950.07</v>
+        <v>3735.02</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4968197</v>
+        <v>4992126</v>
       </c>
       <c r="E119" t="n">
-        <v>6951228</v>
+        <v>6984709</v>
       </c>
       <c r="F119" t="n">
-        <v>938.9945310138378</v>
+        <v>764.3148769608478</v>
       </c>
       <c r="G119" t="n">
-        <v>819.2472832148894</v>
+        <v>876.2837741740933</v>
       </c>
       <c r="H119" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="I119" t="n">
-        <v>69048</v>
+        <v>69744</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9864420</v>
+        <v>9863121</v>
       </c>
       <c r="E120" t="n">
-        <v>27171122</v>
+        <v>27167545</v>
       </c>
       <c r="F120" t="n">
-        <v>21.8471396348229</v>
+        <v>14.30488772621035</v>
       </c>
       <c r="G120" t="n">
-        <v>43.78605606475646</v>
+        <v>75.03646778480875</v>
       </c>
       <c r="H120" t="n">
-        <v>0.8100000000000001</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>329643</v>
+        <v>330100</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>49645907</v>
+        <v>49249161</v>
       </c>
       <c r="E121" t="n">
-        <v>126475785</v>
+        <v>125465053</v>
       </c>
       <c r="F121" t="n">
-        <v>741.9066205053075</v>
+        <v>1759.672836614957</v>
       </c>
       <c r="G121" t="n">
-        <v>10932.5130639888</v>
+        <v>10894.78231923544</v>
       </c>
       <c r="H121" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I121" t="n">
-        <v>2185148</v>
+        <v>2206425</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13759997</v>
+        <v>14146133</v>
       </c>
       <c r="E122" t="n">
-        <v>66641860</v>
+        <v>68511978</v>
       </c>
       <c r="F122" t="n">
-        <v>454.1315633380476</v>
+        <v>3489.311915087142</v>
       </c>
       <c r="G122" t="n">
-        <v>2352.201948882519</v>
+        <v>915.9330695641418</v>
       </c>
       <c r="H122" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I122" t="n">
-        <v>5299152</v>
+        <v>5438017</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>630181</v>
+        <v>622707</v>
       </c>
       <c r="F123" t="n">
-        <v>3.987785149363198</v>
+        <v>4.023744165436602</v>
       </c>
       <c r="G123" t="n">
-        <v>1390.514120001926</v>
+        <v>1015.339340573119</v>
       </c>
       <c r="H123" t="n">
-        <v>0.91</v>
+        <v>0.18</v>
       </c>
       <c r="I123" t="n">
-        <v>9345.9</v>
+        <v>9782.9</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4487527</v>
+        <v>4469234</v>
       </c>
       <c r="E124" t="n">
-        <v>10229120</v>
+        <v>10187422</v>
       </c>
       <c r="F124" t="n">
-        <v>2986.689978888832</v>
+        <v>730.1819958171018</v>
       </c>
       <c r="G124" t="n">
-        <v>1342.281646864325</v>
+        <v>1814.170395591947</v>
       </c>
       <c r="H124" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I124" t="n">
-        <v>64246</v>
+        <v>64788</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1834959821</v>
+        <v>1843558634</v>
       </c>
       <c r="F125" t="n">
-        <v>75748.26916061957</v>
+        <v>74508.54677237874</v>
       </c>
       <c r="G125" t="n">
-        <v>72409.69616086694</v>
+        <v>78103.18003408075</v>
       </c>
       <c r="H125" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="I125" t="n">
-        <v>30321666</v>
+        <v>30593703</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9254372</v>
+        <v>9213305</v>
       </c>
       <c r="E126" t="n">
-        <v>33670285</v>
+        <v>33520819</v>
       </c>
       <c r="F126" t="n">
-        <v>5.379898064594603</v>
+        <v>3.991793090679461</v>
       </c>
       <c r="G126" t="n">
-        <v>156.7170152850659</v>
+        <v>5.145618757254508</v>
       </c>
       <c r="H126" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="I126" t="n">
-        <v>133591</v>
+        <v>147107</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>599012</v>
+        <v>632273</v>
       </c>
       <c r="F127" t="n">
-        <v>18.73377069172248</v>
+        <v>23.85686008982985</v>
       </c>
       <c r="G127" t="n">
-        <v>8.889178969817491</v>
+        <v>8.886037539734753</v>
       </c>
       <c r="H127" t="n">
         <v>0.58</v>
       </c>
       <c r="I127" t="n">
-        <v>885.65</v>
+        <v>621.3099999999999</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11995751</v>
+        <v>11836887</v>
       </c>
       <c r="E128" t="n">
-        <v>17392109</v>
+        <v>17161778</v>
       </c>
       <c r="F128" t="n">
-        <v>2040.491135918565</v>
+        <v>1476.338188518946</v>
       </c>
       <c r="G128" t="n">
-        <v>1638.971962728826</v>
+        <v>346.7094626136187</v>
       </c>
       <c r="H128" t="n">
-        <v>0.7</v>
+        <v>2.02</v>
       </c>
       <c r="I128" t="n">
-        <v>2051720</v>
+        <v>2046259</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>29364650</v>
+        <v>29417710</v>
       </c>
       <c r="E129" t="n">
-        <v>91432099</v>
+        <v>91597310</v>
       </c>
       <c r="F129" t="n">
-        <v>10936.95296982476</v>
+        <v>11781.48233733128</v>
       </c>
       <c r="G129" t="n">
-        <v>5202.924248866621</v>
+        <v>7491.729772976368</v>
       </c>
       <c r="H129" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I129" t="n">
-        <v>10398531</v>
+        <v>10386757</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1804925</v>
+        <v>1842292</v>
       </c>
       <c r="E130" t="n">
-        <v>12942937</v>
+        <v>13210893</v>
       </c>
       <c r="F130" t="n">
-        <v>3.820038567048084</v>
+        <v>4.068457972986562</v>
       </c>
       <c r="G130" t="n">
-        <v>3.95155526165162</v>
+        <v>4.012934789046161</v>
       </c>
       <c r="H130" t="n">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="I130" t="n">
-        <v>2025951</v>
+        <v>2050380</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8400409</v>
+        <v>8429403</v>
       </c>
       <c r="F131" t="n">
-        <v>403.9847283989797</v>
+        <v>120.2766925187702</v>
       </c>
       <c r="G131" t="n">
-        <v>69.38433803121519</v>
+        <v>163.1620314268308</v>
       </c>
       <c r="H131" t="n">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="I131" t="n">
-        <v>548352</v>
+        <v>543871</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>188625579</v>
+        <v>192366832</v>
       </c>
       <c r="E132" t="n">
-        <v>1068113930</v>
+        <v>1089299199</v>
       </c>
       <c r="F132" t="n">
-        <v>401270.1538570478</v>
+        <v>306977.5089082223</v>
       </c>
       <c r="G132" t="n">
-        <v>551833.3067075317</v>
+        <v>515575.062910875</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>83810865</v>
+        <v>85637078</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1024613</v>
+        <v>1006896</v>
       </c>
       <c r="E133" t="n">
-        <v>1024613</v>
+        <v>1006896</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5432.24</v>
+        <v>5613.05</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>491011</v>
+        <v>489991</v>
       </c>
       <c r="E134" t="n">
-        <v>1652674</v>
+        <v>1649242</v>
       </c>
       <c r="F134" t="n">
-        <v>209.846051523505</v>
+        <v>416.0118108014244</v>
       </c>
       <c r="G134" t="n">
-        <v>183.3668732102454</v>
+        <v>151.6160438574738</v>
       </c>
       <c r="H134" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I134" t="n">
-        <v>637860</v>
+        <v>229855</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15210457</v>
+        <v>15373972</v>
       </c>
       <c r="F135" t="n">
-        <v>5.382251638916524</v>
+        <v>5.515737255012858</v>
       </c>
       <c r="G135" t="n">
-        <v>4.006734840325016</v>
+        <v>5.309494831411284</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>204.12</v>
+        <v>199.51</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>122642682</v>
+        <v>123526834</v>
       </c>
       <c r="E136" t="n">
-        <v>908464311</v>
+        <v>915013584</v>
       </c>
       <c r="F136" t="n">
-        <v>146.3280743114322</v>
+        <v>435.3831107713064</v>
       </c>
       <c r="G136" t="n">
-        <v>14257.27064413881</v>
+        <v>1389.500458077841</v>
       </c>
       <c r="H136" t="n">
-        <v>0.65</v>
+        <v>1.67</v>
       </c>
       <c r="I136" t="n">
-        <v>25357900</v>
+        <v>26318005</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>30094885</v>
+        <v>30220248</v>
       </c>
       <c r="E137" t="n">
-        <v>142785415</v>
+        <v>143354858</v>
       </c>
       <c r="F137" t="n">
-        <v>1000.297459694156</v>
+        <v>823.6281155152016</v>
       </c>
       <c r="G137" t="n">
-        <v>1018.579560772909</v>
+        <v>997.6938969099493</v>
       </c>
       <c r="H137" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="I137" t="n">
-        <v>727059</v>
+        <v>770094</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8562181</v>
+        <v>8620358</v>
       </c>
       <c r="E138" t="n">
-        <v>11470468</v>
+        <v>11548406</v>
       </c>
       <c r="F138" t="n">
-        <v>464.6035153172072</v>
+        <v>973.2775474812958</v>
       </c>
       <c r="G138" t="n">
-        <v>180.8379366957276</v>
+        <v>240.2390622364611</v>
       </c>
       <c r="H138" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I138" t="n">
-        <v>45246</v>
+        <v>83146</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1185273</v>
+        <v>1169076</v>
       </c>
       <c r="F139" t="n">
-        <v>4.110962775547681</v>
+        <v>4.109506805560188</v>
       </c>
       <c r="G139" t="n">
-        <v>25.22706009971931</v>
+        <v>25.20737719817468</v>
       </c>
       <c r="H139" t="n">
         <v>0.6</v>
       </c>
       <c r="I139" t="n">
-        <v>5259.72</v>
+        <v>5872.28</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2464167</v>
+        <v>2465044</v>
       </c>
       <c r="E140" t="n">
-        <v>2464167</v>
+        <v>2465044</v>
       </c>
       <c r="F140" t="n">
-        <v>1219.422915738357</v>
+        <v>1230.486438225092</v>
       </c>
       <c r="G140" t="n">
-        <v>283.5158667896031</v>
+        <v>293.7854537504911</v>
       </c>
       <c r="H140" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I140" t="n">
-        <v>314178</v>
+        <v>318533</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>35138056</v>
+        <v>34245022</v>
       </c>
       <c r="E141" t="n">
-        <v>35138056</v>
+        <v>34245022</v>
       </c>
       <c r="F141" t="n">
-        <v>2451.491855200279</v>
+        <v>1406.737765770964</v>
       </c>
       <c r="G141" t="n">
-        <v>1747.828567168511</v>
+        <v>555.2502984628541</v>
       </c>
       <c r="H141" t="n">
-        <v>0.24</v>
+        <v>1.12</v>
       </c>
       <c r="I141" t="n">
-        <v>974396</v>
+        <v>969949</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6301687</v>
+        <v>6290503</v>
       </c>
       <c r="E142" t="n">
-        <v>6655287</v>
+        <v>6643476</v>
       </c>
       <c r="F142" t="n">
-        <v>548.149927541336</v>
+        <v>160.3966097452213</v>
       </c>
       <c r="G142" t="n">
-        <v>233.0145650703857</v>
+        <v>19.09767816124404</v>
       </c>
       <c r="H142" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I142" t="n">
-        <v>27262</v>
+        <v>27610</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3318065</v>
+        <v>3269929</v>
       </c>
       <c r="E143" t="n">
-        <v>7748234</v>
+        <v>7635828</v>
       </c>
       <c r="F143" t="n">
-        <v>870.2003375639987</v>
+        <v>1421.377411890263</v>
       </c>
       <c r="G143" t="n">
-        <v>696.9604251353225</v>
+        <v>339.1828980105248</v>
       </c>
       <c r="H143" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="I143" t="n">
-        <v>645809</v>
+        <v>631308</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1533821</v>
+        <v>1533911</v>
       </c>
       <c r="E144" t="n">
-        <v>11911832</v>
+        <v>11912529</v>
       </c>
       <c r="F144" t="n">
-        <v>99.99269991274369</v>
+        <v>200.2613423809352</v>
       </c>
       <c r="G144" t="n">
-        <v>4717.719273453664</v>
+        <v>3090.474728887467</v>
       </c>
       <c r="H144" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="I144" t="n">
-        <v>462324</v>
+        <v>517856</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>317455794</v>
+        <v>321245967</v>
       </c>
       <c r="E145" t="n">
-        <v>2856029172</v>
+        <v>2890127914</v>
       </c>
       <c r="F145" t="n">
-        <v>579894.6444265018</v>
+        <v>538082.1432589737</v>
       </c>
       <c r="G145" t="n">
-        <v>612173.6528995842</v>
+        <v>649276.7282638341</v>
       </c>
       <c r="H145" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>65647031</v>
+        <v>66115757</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>250302</v>
+        <v>249629</v>
       </c>
       <c r="E146" t="n">
-        <v>2209105</v>
+        <v>2203166</v>
       </c>
       <c r="F146" t="n">
-        <v>214.2386512543459</v>
+        <v>19.90868714438596</v>
       </c>
       <c r="G146" t="n">
-        <v>22.91893313399006</v>
+        <v>5.270997739790208</v>
       </c>
       <c r="H146" t="n">
-        <v>1.44</v>
+        <v>0.46</v>
       </c>
       <c r="I146" t="n">
-        <v>67739</v>
+        <v>70171</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>628010</v>
+        <v>628776</v>
       </c>
       <c r="F147" t="n">
-        <v>1137.558252949125</v>
+        <v>552.4237526025723</v>
       </c>
       <c r="G147" t="n">
-        <v>546.3080393640332</v>
+        <v>548.409516463377</v>
       </c>
       <c r="H147" t="n">
         <v>0.1</v>
       </c>
       <c r="I147" t="n">
-        <v>14768.27</v>
+        <v>15559.24</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4771200</v>
+        <v>4758283</v>
       </c>
       <c r="E148" t="n">
-        <v>16856634</v>
+        <v>16810999</v>
       </c>
       <c r="F148" t="n">
-        <v>1825.014222046632</v>
+        <v>1667.837660271583</v>
       </c>
       <c r="G148" t="n">
-        <v>1937.523440488139</v>
+        <v>1980.425158585725</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>138699</v>
+        <v>142483</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9375957</v>
+        <v>9440336</v>
       </c>
       <c r="E149" t="n">
-        <v>43458099</v>
+        <v>43756500</v>
       </c>
       <c r="F149" t="n">
-        <v>1850.374412310254</v>
+        <v>2311.525924789442</v>
       </c>
       <c r="G149" t="n">
-        <v>1594.810876921067</v>
+        <v>2727.974280260397</v>
       </c>
       <c r="H149" t="n">
         <v>0.41</v>
       </c>
       <c r="I149" t="n">
-        <v>117663</v>
+        <v>119203</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46097870</v>
+        <v>46915780</v>
       </c>
       <c r="E150" t="n">
-        <v>266887619</v>
+        <v>271622981</v>
       </c>
       <c r="F150" t="n">
-        <v>59758.58454950566</v>
+        <v>45699.12229602388</v>
       </c>
       <c r="G150" t="n">
-        <v>50673.37267804764</v>
+        <v>39908.41810859757</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>51619143</v>
+        <v>51952153</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79727</v>
+        <v>80023</v>
       </c>
       <c r="E151" t="n">
-        <v>79727</v>
+        <v>80023</v>
       </c>
       <c r="F151" t="n">
-        <v>3.909778369621925</v>
+        <v>9.876500779412622</v>
       </c>
       <c r="G151" t="n">
-        <v>5.271126283840911</v>
+        <v>10.540929204309</v>
       </c>
       <c r="H151" t="n">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
       <c r="I151" t="n">
-        <v>21681</v>
+        <v>20989</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4254677</v>
+        <v>4190583</v>
       </c>
       <c r="F152" t="n">
-        <v>407.8652481142963</v>
+        <v>383.5965014189543</v>
       </c>
       <c r="G152" t="n">
-        <v>268.2231834493647</v>
+        <v>332.3559350653409</v>
       </c>
       <c r="H152" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="I152" t="n">
-        <v>296068</v>
+        <v>297728</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39158864</v>
+        <v>39000245</v>
       </c>
       <c r="E153" t="n">
-        <v>54083968</v>
+        <v>53864891</v>
       </c>
       <c r="F153" t="n">
-        <v>612.6016954829964</v>
+        <v>852.4715034850866</v>
       </c>
       <c r="G153" t="n">
-        <v>594.2970879102936</v>
+        <v>1547.244263306638</v>
       </c>
       <c r="H153" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="I153" t="n">
-        <v>310797</v>
+        <v>314191</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2080810</v>
+        <v>2138265</v>
       </c>
       <c r="E154" t="n">
-        <v>8497489</v>
+        <v>8732119</v>
       </c>
       <c r="F154" t="n">
-        <v>386.6656128432541</v>
+        <v>1624.143464806077</v>
       </c>
       <c r="G154" t="n">
-        <v>915.3334044405203</v>
+        <v>702.3581690275399</v>
       </c>
       <c r="H154" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>436469</v>
+        <v>218761</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7248550</v>
+        <v>7276713</v>
       </c>
       <c r="E155" t="n">
-        <v>7302430</v>
+        <v>7330803</v>
       </c>
       <c r="F155" t="n">
-        <v>343.2338291598531</v>
+        <v>955.5649410298685</v>
       </c>
       <c r="G155" t="n">
-        <v>6615.688842006269</v>
+        <v>6516.151021848103</v>
       </c>
       <c r="H155" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I155" t="n">
-        <v>5787465</v>
+        <v>5820866</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>503596</v>
+        <v>499873</v>
       </c>
       <c r="E156" t="n">
-        <v>503596</v>
+        <v>499873</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>10918.86</v>
+        <v>8659.790000000001</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13416120</v>
+        <v>13443046</v>
       </c>
       <c r="E157" t="n">
-        <v>13461776</v>
+        <v>13488794</v>
       </c>
       <c r="F157" t="n">
-        <v>2385.398644839458</v>
+        <v>3066.487811436564</v>
       </c>
       <c r="G157" t="n">
-        <v>2212.912016317388</v>
+        <v>4044.793679107413</v>
       </c>
       <c r="H157" t="n">
         <v>0.39</v>
       </c>
       <c r="I157" t="n">
-        <v>6055930</v>
+        <v>6133395</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42185327</v>
+        <v>42214090</v>
       </c>
       <c r="E158" t="n">
-        <v>71620871</v>
+        <v>71669704</v>
       </c>
       <c r="F158" t="n">
-        <v>394.8722785165283</v>
+        <v>324.6140663833679</v>
       </c>
       <c r="G158" t="n">
-        <v>310.7363065551675</v>
+        <v>344.7362528656255</v>
       </c>
       <c r="H158" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="I158" t="n">
-        <v>1128534</v>
+        <v>1136601</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18871553</v>
+        <v>19608723</v>
       </c>
       <c r="E159" t="n">
-        <v>56580755</v>
+        <v>58790651</v>
       </c>
       <c r="F159" t="n">
-        <v>2027.732741929132</v>
+        <v>1759.79794746992</v>
       </c>
       <c r="G159" t="n">
-        <v>3310.214335360478</v>
+        <v>4285.678863920013</v>
       </c>
       <c r="H159" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="I159" t="n">
-        <v>4385639</v>
+        <v>4373198</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>97282900</v>
+        <v>99688764</v>
       </c>
       <c r="E160" t="n">
-        <v>103420515</v>
+        <v>105978165</v>
       </c>
       <c r="F160" t="n">
-        <v>1614.385514472114</v>
+        <v>426.9935460353163</v>
       </c>
       <c r="G160" t="n">
-        <v>916.4956882988054</v>
+        <v>1378.640514968899</v>
       </c>
       <c r="H160" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="I160" t="n">
-        <v>540565</v>
+        <v>733678</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10387198</v>
+        <v>10417829</v>
       </c>
       <c r="E161" t="n">
-        <v>45085909</v>
+        <v>45218044</v>
       </c>
       <c r="F161" t="n">
-        <v>4425.88138580664</v>
+        <v>4322.803285450749</v>
       </c>
       <c r="G161" t="n">
-        <v>5089.485933782404</v>
+        <v>5395.043668499311</v>
       </c>
       <c r="H161" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I161" t="n">
-        <v>122888</v>
+        <v>120991</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15079335</v>
+        <v>15014626</v>
       </c>
       <c r="E162" t="n">
-        <v>92426205</v>
+        <v>92029581</v>
       </c>
       <c r="F162" t="n">
-        <v>2231.147483287336</v>
+        <v>1940.302125695783</v>
       </c>
       <c r="G162" t="n">
-        <v>1556.999920693012</v>
+        <v>1589.61083929357</v>
       </c>
       <c r="H162" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I162" t="n">
-        <v>11704443</v>
+        <v>12230303</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1437788</v>
+        <v>1436745</v>
       </c>
       <c r="E163" t="n">
-        <v>1478231</v>
+        <v>1477159</v>
       </c>
       <c r="F163" t="n">
-        <v>72.11155315977548</v>
+        <v>72.10427304114577</v>
       </c>
       <c r="G163" t="n">
-        <v>52.26447400576328</v>
+        <v>52.2591975756462</v>
       </c>
       <c r="H163" t="n">
         <v>0.98</v>
       </c>
       <c r="I163" t="n">
-        <v>150096</v>
+        <v>92684</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>73897</v>
+        <v>73723</v>
       </c>
       <c r="E164" t="n">
-        <v>209630</v>
+        <v>209136</v>
       </c>
       <c r="F164" t="n">
-        <v>4.042128960737606</v>
+        <v>3.826894838538138</v>
       </c>
       <c r="G164" t="n">
-        <v>4.129095530462109</v>
+        <v>5.22511658865591</v>
       </c>
       <c r="H164" t="n">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="I164" t="n">
-        <v>415.86</v>
+        <v>437.1</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47250612</v>
+        <v>50695186</v>
       </c>
       <c r="E165" t="n">
-        <v>203550469</v>
+        <v>218389316</v>
       </c>
       <c r="F165" t="n">
-        <v>4987.541903593331</v>
+        <v>5317.832288486532</v>
       </c>
       <c r="G165" t="n">
-        <v>4970.609899608861</v>
+        <v>6946.178200873729</v>
       </c>
       <c r="H165" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I165" t="n">
-        <v>12168162</v>
+        <v>12757382</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7574834</v>
+        <v>7405213</v>
       </c>
       <c r="F166" t="n">
-        <v>218.6648778419387</v>
+        <v>224.5158987250497</v>
       </c>
       <c r="G166" t="n">
-        <v>321.3293399033881</v>
+        <v>389.4282440831563</v>
       </c>
       <c r="H166" t="n">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="I166" t="n">
-        <v>6996334</v>
+        <v>7181750</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>663671</v>
+        <v>660275</v>
       </c>
       <c r="E167" t="n">
-        <v>2395492</v>
+        <v>2383238</v>
       </c>
       <c r="F167" t="n">
-        <v>50.55125825998847</v>
+        <v>50.53308226579593</v>
       </c>
       <c r="G167" t="n">
-        <v>10.54838159136205</v>
+        <v>10.54450134740008</v>
       </c>
       <c r="H167" t="n">
         <v>1.33</v>
       </c>
       <c r="I167" t="n">
-        <v>376136</v>
+        <v>401644</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1679290</v>
+        <v>1611082</v>
       </c>
       <c r="F168" t="n">
-        <v>454.2270783373903</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>411.2145561449069</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0.24</v>
+        <v>5.16</v>
       </c>
       <c r="I168" t="n">
-        <v>87993</v>
+        <v>87304</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12397619</v>
+        <v>12545495</v>
       </c>
       <c r="E169" t="n">
-        <v>12397619</v>
+        <v>12545495</v>
       </c>
       <c r="F169" t="n">
-        <v>67.11875129346548</v>
+        <v>74.61473920048128</v>
       </c>
       <c r="G169" t="n">
-        <v>29.99209284460707</v>
+        <v>35.97650353210602</v>
       </c>
       <c r="H169" t="n">
-        <v>2.9</v>
+        <v>3.69</v>
       </c>
       <c r="I169" t="n">
-        <v>3626965</v>
+        <v>3419933</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2281209</v>
+        <v>2220656</v>
       </c>
       <c r="E170" t="n">
-        <v>8280656</v>
+        <v>8060749</v>
       </c>
       <c r="F170" t="n">
-        <v>147.400844399845</v>
+        <v>135.2743538143891</v>
       </c>
       <c r="G170" t="n">
-        <v>1170.086885217587</v>
+        <v>1348.334935821651</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I170" t="n">
-        <v>225216</v>
+        <v>217785</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8788731</v>
+        <v>8862237</v>
       </c>
       <c r="E171" t="n">
-        <v>19492156</v>
+        <v>19655181</v>
       </c>
       <c r="F171" t="n">
-        <v>1666.549225138234</v>
+        <v>1569.442336925592</v>
       </c>
       <c r="G171" t="n">
-        <v>1509.627391634305</v>
+        <v>1509.509760833978</v>
       </c>
       <c r="H171" t="n">
-        <v>0.02</v>
+        <v>0.49</v>
       </c>
       <c r="I171" t="n">
-        <v>330397</v>
+        <v>330898</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1020173</v>
+        <v>1021236</v>
       </c>
       <c r="E172" t="n">
-        <v>2981788</v>
+        <v>2984894</v>
       </c>
       <c r="F172" t="n">
-        <v>117.7675628341471</v>
+        <v>60.56270893615275</v>
       </c>
       <c r="G172" t="n">
-        <v>623.6221522931571</v>
+        <v>631.1522330101421</v>
       </c>
       <c r="H172" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="I172" t="n">
-        <v>12479.05</v>
+        <v>12934.35</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>19946563</v>
+        <v>20035446</v>
       </c>
       <c r="E173" t="n">
-        <v>79786251</v>
+        <v>80141784</v>
       </c>
       <c r="F173" t="n">
-        <v>420.2874071965987</v>
+        <v>9793.594037639032</v>
       </c>
       <c r="G173" t="n">
-        <v>18116.06278056747</v>
+        <v>11426.57951617955</v>
       </c>
       <c r="H173" t="n">
-        <v>0.9</v>
+        <v>0.13</v>
       </c>
       <c r="I173" t="n">
-        <v>2952239</v>
+        <v>3229167</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4576883</v>
+        <v>4530684</v>
       </c>
       <c r="E174" t="n">
-        <v>4576883</v>
+        <v>4530684</v>
       </c>
       <c r="F174" t="n">
-        <v>617.6618386025019</v>
+        <v>1787.372693189288</v>
       </c>
       <c r="G174" t="n">
-        <v>346.1178224371614</v>
+        <v>565.3572896754304</v>
       </c>
       <c r="H174" t="n">
-        <v>1.03</v>
+        <v>0.4</v>
       </c>
       <c r="I174" t="n">
-        <v>2887415</v>
+        <v>2789432</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>284037865</v>
+        <v>289141309</v>
       </c>
       <c r="E175" t="n">
-        <v>284037865</v>
+        <v>289141309</v>
       </c>
       <c r="F175" t="n">
-        <v>12722.71521505647</v>
+        <v>10332.90417372513</v>
       </c>
       <c r="G175" t="n">
-        <v>3734.492426482145</v>
+        <v>5342.064372463926</v>
       </c>
       <c r="H175" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I175" t="n">
-        <v>19584650</v>
+        <v>19775255</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12519658</v>
+        <v>12621624</v>
       </c>
       <c r="E176" t="n">
-        <v>39598254</v>
+        <v>39920763</v>
       </c>
       <c r="F176" t="n">
-        <v>3693.376419680438</v>
+        <v>3446.952840685692</v>
       </c>
       <c r="G176" t="n">
-        <v>2903.001770442982</v>
+        <v>902.5276354920341</v>
       </c>
       <c r="H176" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>1013469</v>
+        <v>1024226</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24783</v>
+        <v>24720</v>
       </c>
       <c r="E177" t="n">
-        <v>194907</v>
+        <v>194414</v>
       </c>
       <c r="F177" t="n">
-        <v>65.13369670826503</v>
+        <v>65.30537248213845</v>
       </c>
       <c r="G177" t="n">
-        <v>547.6516872618147</v>
+        <v>432.1341225949603</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>43613</v>
+        <v>41080</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>7536039</v>
+        <v>7393785</v>
       </c>
       <c r="E178" t="n">
-        <v>7536039</v>
+        <v>7393785</v>
       </c>
       <c r="F178" t="n">
-        <v>1282.244838869013</v>
+        <v>482.6422810324842</v>
       </c>
       <c r="G178" t="n">
-        <v>4267.303731878471</v>
+        <v>1311.460228200008</v>
       </c>
       <c r="H178" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I178" t="n">
-        <v>3859795</v>
+        <v>3965448</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1094103</v>
+        <v>1096676</v>
       </c>
       <c r="E179" t="n">
-        <v>2491928</v>
+        <v>2497788</v>
       </c>
       <c r="F179" t="n">
-        <v>24.12130220034303</v>
+        <v>24.11092258453115</v>
       </c>
       <c r="G179" t="n">
-        <v>267.9536914624558</v>
+        <v>267.8383885509605</v>
       </c>
       <c r="H179" t="n">
         <v>0.3</v>
       </c>
       <c r="I179" t="n">
-        <v>433.59</v>
+        <v>434.52</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9121315</v>
+        <v>8990882</v>
       </c>
       <c r="E180" t="n">
-        <v>9121315</v>
+        <v>8990882</v>
       </c>
       <c r="F180" t="n">
-        <v>4570.686946011245</v>
+        <v>4557.321919883321</v>
       </c>
       <c r="G180" t="n">
-        <v>4232.120190403861</v>
+        <v>3450.531009658138</v>
       </c>
       <c r="H180" t="n">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="I180" t="n">
-        <v>2133235</v>
+        <v>2146917</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17355491</v>
+        <v>17554751</v>
       </c>
       <c r="E181" t="n">
-        <v>17355491</v>
+        <v>17554751</v>
       </c>
       <c r="F181" t="n">
-        <v>1463.041540437868</v>
+        <v>2437.617452378629</v>
       </c>
       <c r="G181" t="n">
-        <v>2500.493395279313</v>
+        <v>1987.923756474809</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="I181" t="n">
-        <v>6779461</v>
+        <v>7077257</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31138590</v>
+        <v>31235210</v>
       </c>
       <c r="E182" t="n">
-        <v>86250803</v>
+        <v>86518432</v>
       </c>
       <c r="F182" t="n">
-        <v>3415.765343024927</v>
+        <v>1917.67418441464</v>
       </c>
       <c r="G182" t="n">
-        <v>2195.078046439408</v>
+        <v>2629.207725942567</v>
       </c>
       <c r="H182" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I182" t="n">
-        <v>12403580</v>
+        <v>12504280</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>30879533</v>
+        <v>31035132</v>
       </c>
       <c r="E183" t="n">
-        <v>77863356</v>
+        <v>78255703</v>
       </c>
       <c r="F183" t="n">
-        <v>68.23750090419038</v>
+        <v>1506.67129587051</v>
       </c>
       <c r="G183" t="n">
-        <v>16261.2157743581</v>
+        <v>2587.37836093244</v>
       </c>
       <c r="H183" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="I183" t="n">
-        <v>5942002</v>
+        <v>6011241</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>299723500</v>
+        <v>298590650</v>
       </c>
       <c r="E184" t="n">
-        <v>304411468</v>
+        <v>303260887</v>
       </c>
       <c r="F184" t="n">
-        <v>16373.41383358775</v>
+        <v>13221.93986652582</v>
       </c>
       <c r="G184" t="n">
-        <v>27859.33043271635</v>
+        <v>39825.43692666687</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>27571711</v>
+        <v>24897731</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>393259</v>
+        <v>394965</v>
       </c>
       <c r="F185" t="n">
-        <v>117.1043728799787</v>
+        <v>10.65377019624598</v>
       </c>
       <c r="G185" t="n">
-        <v>15.15372775431978</v>
+        <v>464.7865954609702</v>
       </c>
       <c r="H185" t="n">
-        <v>3.03</v>
+        <v>1.26</v>
       </c>
       <c r="I185" t="n">
-        <v>68629</v>
+        <v>69214</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27018404</v>
+        <v>27217456</v>
       </c>
       <c r="E186" t="n">
-        <v>64092664</v>
+        <v>64564852</v>
       </c>
       <c r="F186" t="n">
-        <v>3627.762438984261</v>
+        <v>2333.297985343124</v>
       </c>
       <c r="G186" t="n">
-        <v>2118.327740865232</v>
+        <v>3295.465190156273</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I186" t="n">
-        <v>653323</v>
+        <v>632565</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22169556</v>
+        <v>22128421</v>
       </c>
       <c r="F187" t="n">
-        <v>4.002612162512958</v>
+        <v>3.954534421842897</v>
       </c>
       <c r="G187" t="n">
-        <v>4.092628402940738</v>
+        <v>360.9534848233992</v>
       </c>
       <c r="H187" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="I187" t="n">
-        <v>1031.08</v>
+        <v>866.62</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12387063</v>
+        <v>12466318</v>
       </c>
       <c r="E188" t="n">
-        <v>18855904</v>
+        <v>18976548</v>
       </c>
       <c r="F188" t="n">
-        <v>1390.86011849141</v>
+        <v>1388.490272936276</v>
       </c>
       <c r="G188" t="n">
-        <v>1097.444807437086</v>
+        <v>1699.76824943022</v>
       </c>
       <c r="H188" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="I188" t="n">
-        <v>657910</v>
+        <v>657379</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>75204216</v>
+        <v>76477696</v>
       </c>
       <c r="E189" t="n">
-        <v>75204216</v>
+        <v>76477696</v>
       </c>
       <c r="F189" t="n">
-        <v>9831.205907660145</v>
+        <v>8102.904827700752</v>
       </c>
       <c r="G189" t="n">
-        <v>12264.79262130581</v>
+        <v>13704.39919754031</v>
       </c>
       <c r="H189" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I189" t="n">
-        <v>5176353</v>
+        <v>5035305</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>284200278</v>
+        <v>288217214</v>
       </c>
       <c r="E190" t="n">
-        <v>284200278</v>
+        <v>288217214</v>
       </c>
       <c r="F190" t="n">
-        <v>269471.2050650576</v>
+        <v>241887.4149768941</v>
       </c>
       <c r="G190" t="n">
-        <v>275117.1317234113</v>
+        <v>293434.4348500054</v>
       </c>
       <c r="H190" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I190" t="n">
-        <v>88887362</v>
+        <v>92528323</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9819244</v>
+        <v>9803503</v>
       </c>
       <c r="E191" t="n">
-        <v>27878472</v>
+        <v>27833781</v>
       </c>
       <c r="F191" t="n">
-        <v>3586.90727772658</v>
+        <v>3179.511942507323</v>
       </c>
       <c r="G191" t="n">
-        <v>858.2269153035356</v>
+        <v>633.8651917520749</v>
       </c>
       <c r="H191" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I191" t="n">
-        <v>92601</v>
+        <v>102453</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4568694</v>
+        <v>4649674</v>
       </c>
       <c r="E192" t="n">
-        <v>31217562</v>
+        <v>31770893</v>
       </c>
       <c r="F192" t="n">
-        <v>2347.146576076485</v>
+        <v>2025.629185246717</v>
       </c>
       <c r="G192" t="n">
-        <v>1397.900118252656</v>
+        <v>865.1748659900962</v>
       </c>
       <c r="H192" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="I192" t="n">
-        <v>2882317</v>
+        <v>2954313</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2746419</v>
+        <v>2651688</v>
       </c>
       <c r="E193" t="n">
-        <v>4066197</v>
+        <v>3925591</v>
       </c>
       <c r="F193" t="n">
-        <v>851.264243115381</v>
+        <v>120.7393072075589</v>
       </c>
       <c r="G193" t="n">
-        <v>190.744854686267</v>
+        <v>554.6213403687199</v>
       </c>
       <c r="H193" t="n">
-        <v>1.46</v>
+        <v>0.77</v>
       </c>
       <c r="I193" t="n">
-        <v>90025</v>
+        <v>91395</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>83336360</v>
+        <v>84534431</v>
       </c>
       <c r="E194" t="n">
-        <v>480220054</v>
+        <v>487123851</v>
       </c>
       <c r="F194" t="n">
-        <v>677187.0892958418</v>
+        <v>423442.9239698168</v>
       </c>
       <c r="G194" t="n">
-        <v>657391.851984345</v>
+        <v>659303.9824554073</v>
       </c>
       <c r="H194" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>21228542</v>
+        <v>21088499</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>686944</v>
+        <v>659942</v>
       </c>
       <c r="E195" t="n">
-        <v>749177</v>
+        <v>719728</v>
       </c>
       <c r="F195" t="n">
-        <v>145.4270075105699</v>
+        <v>139.3153683195276</v>
       </c>
       <c r="G195" t="n">
-        <v>4.163057859805091</v>
+        <v>4.162176171853659</v>
       </c>
       <c r="H195" t="n">
         <v>0.49</v>
       </c>
       <c r="I195" t="n">
-        <v>125180</v>
+        <v>119203</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>104515463</v>
+        <v>104786439</v>
       </c>
       <c r="E196" t="n">
-        <v>257148872</v>
+        <v>257815580</v>
       </c>
       <c r="F196" t="n">
-        <v>28307.31386476427</v>
+        <v>31551.56078000327</v>
       </c>
       <c r="G196" t="n">
-        <v>29468.27776879458</v>
+        <v>42952.21257237541</v>
       </c>
       <c r="H196" t="n">
         <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2667825</v>
+        <v>2755801</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18836746</v>
+        <v>18933513</v>
       </c>
       <c r="E197" t="n">
-        <v>18836746</v>
+        <v>18933513</v>
       </c>
       <c r="F197" t="n">
-        <v>5.406381801895334</v>
+        <v>5.405475653676937</v>
       </c>
       <c r="G197" t="n">
-        <v>436.2425936428514</v>
+        <v>451.3591762389725</v>
       </c>
       <c r="H197" t="n">
         <v>0.13</v>
       </c>
       <c r="I197" t="n">
-        <v>146527</v>
+        <v>131537</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1312724</v>
+        <v>1316466</v>
       </c>
       <c r="F198" t="n">
-        <v>5.642869588258128</v>
+        <v>5.546817832298503</v>
       </c>
       <c r="G198" t="n">
-        <v>129.0670910900451</v>
+        <v>128.7711026019821</v>
       </c>
       <c r="H198" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="I198" t="n">
-        <v>43312</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>140335</v>
+        <v>141275</v>
       </c>
       <c r="E199" t="n">
-        <v>305507</v>
+        <v>307554</v>
       </c>
       <c r="F199" t="n">
-        <v>217.0862273754352</v>
+        <v>215.0674440247073</v>
       </c>
       <c r="G199" t="n">
-        <v>15.37715237767122</v>
+        <v>19.99529965047153</v>
       </c>
       <c r="H199" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="I199" t="n">
-        <v>47789</v>
+        <v>48045</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3015571</v>
+        <v>3029789</v>
       </c>
       <c r="F200" t="n">
-        <v>786.7724033714686</v>
+        <v>1425.92921559383</v>
       </c>
       <c r="G200" t="n">
-        <v>2397.757698981989</v>
+        <v>694.2742820601679</v>
       </c>
       <c r="H200" t="n">
-        <v>0.99</v>
+        <v>1.63</v>
       </c>
       <c r="I200" t="n">
-        <v>463034</v>
+        <v>420435</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>195891</v>
+        <v>190246</v>
       </c>
       <c r="E201" t="n">
-        <v>1512672</v>
+        <v>1469084</v>
       </c>
       <c r="F201" t="n">
-        <v>5.279355037763835</v>
+        <v>14.50702209814112</v>
       </c>
       <c r="G201" t="n">
-        <v>36.30809724673683</v>
+        <v>36.29249701245067</v>
       </c>
       <c r="H201" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="I201" t="n">
-        <v>81907</v>
+        <v>79346</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>28596176</v>
+        <v>28837252</v>
       </c>
       <c r="E202" t="n">
-        <v>128036812</v>
+        <v>129116205</v>
       </c>
       <c r="F202" t="n">
-        <v>7861.259054172066</v>
+        <v>6533.399460075943</v>
       </c>
       <c r="G202" t="n">
-        <v>7740.550063387989</v>
+        <v>8781.374556730299</v>
       </c>
       <c r="H202" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I202" t="n">
-        <v>13644784</v>
+        <v>14216763</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12782515</v>
+        <v>12927305</v>
       </c>
       <c r="E203" t="n">
-        <v>25547110</v>
+        <v>25836487</v>
       </c>
       <c r="F203" t="n">
-        <v>693.3735897650539</v>
+        <v>9.603522086682274</v>
       </c>
       <c r="G203" t="n">
-        <v>1214.271013698737</v>
+        <v>2240.537115756968</v>
       </c>
       <c r="H203" t="n">
         <v>0.16</v>
       </c>
       <c r="I203" t="n">
-        <v>15980.12</v>
+        <v>16108.56</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1282540</v>
+        <v>1298458</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>72.52266903609234</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>149.4362912128404</v>
       </c>
       <c r="H204" t="n">
-        <v>4.68</v>
+        <v>3.24</v>
       </c>
       <c r="I204" t="n">
-        <v>60505</v>
+        <v>96102</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>941385</v>
+        <v>927166</v>
       </c>
       <c r="E205" t="n">
-        <v>4354038</v>
+        <v>4288275</v>
       </c>
       <c r="F205" t="n">
-        <v>3913.634163887746</v>
+        <v>3976.076308045907</v>
       </c>
       <c r="G205" t="n">
-        <v>3229.074944735765</v>
+        <v>2375.972131768091</v>
       </c>
       <c r="H205" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="I205" t="n">
-        <v>480916</v>
+        <v>484687</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2938074</v>
+        <v>2925521</v>
       </c>
       <c r="E206" t="n">
-        <v>2938074</v>
+        <v>2925521</v>
       </c>
       <c r="F206" t="n">
-        <v>1042.731498723832</v>
+        <v>1078.21644157611</v>
       </c>
       <c r="G206" t="n">
-        <v>1072.697198356518</v>
+        <v>677.4032913759141</v>
       </c>
       <c r="H206" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I206" t="n">
-        <v>342168</v>
+        <v>326988</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>553296</v>
+        <v>555190</v>
       </c>
       <c r="E207" t="n">
-        <v>553296</v>
+        <v>555190</v>
       </c>
       <c r="F207" t="n">
-        <v>62.96826858313245</v>
+        <v>5.495695116787692</v>
       </c>
       <c r="G207" t="n">
-        <v>81.3057326665417</v>
+        <v>609.830607670076</v>
       </c>
       <c r="H207" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="I207" t="n">
-        <v>1232817</v>
+        <v>1189394</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14444052</v>
+        <v>14627234</v>
       </c>
       <c r="E208" t="n">
-        <v>18389584</v>
+        <v>18622805</v>
       </c>
       <c r="F208" t="n">
-        <v>450.397759866595</v>
+        <v>249.4474093941045</v>
       </c>
       <c r="G208" t="n">
-        <v>178.335591375015</v>
+        <v>152.9318258697929</v>
       </c>
       <c r="H208" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I208" t="n">
-        <v>940480</v>
+        <v>937861</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1739871</v>
+        <v>1744768</v>
       </c>
       <c r="E209" t="n">
-        <v>1739871</v>
+        <v>1744768</v>
       </c>
       <c r="F209" t="n">
-        <v>5.544879541827576</v>
+        <v>5.542555201998203</v>
       </c>
       <c r="G209" t="n">
-        <v>943.3845963695948</v>
+        <v>937.0267035980854</v>
       </c>
       <c r="H209" t="n">
         <v>0.24</v>
       </c>
       <c r="I209" t="n">
-        <v>3669.28</v>
+        <v>3538.42</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5825000</v>
+        <v>5857759</v>
       </c>
       <c r="E210" t="n">
-        <v>15287705</v>
+        <v>15373682</v>
       </c>
       <c r="F210" t="n">
-        <v>353.7519111423294</v>
+        <v>109.8926134503265</v>
       </c>
       <c r="G210" t="n">
-        <v>1081.352486014115</v>
+        <v>1057.022160530463</v>
       </c>
       <c r="H210" t="n">
-        <v>1.56</v>
+        <v>2.01</v>
       </c>
       <c r="I210" t="n">
-        <v>25454</v>
+        <v>25834</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28543017</v>
+        <v>28786856</v>
       </c>
       <c r="F211" t="n">
-        <v>1447.944790201468</v>
+        <v>1271.398728719349</v>
       </c>
       <c r="G211" t="n">
-        <v>1707.014374037412</v>
+        <v>1848.000770127385</v>
       </c>
       <c r="H211" t="n">
-        <v>1.37</v>
+        <v>0.65</v>
       </c>
       <c r="I211" t="n">
-        <v>565909</v>
+        <v>588450</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17186072</v>
+        <v>17235732</v>
       </c>
       <c r="E212" t="n">
-        <v>17186120</v>
+        <v>17235732</v>
       </c>
       <c r="F212" t="n">
-        <v>8356.297026462906</v>
+        <v>5766.121721043251</v>
       </c>
       <c r="G212" t="n">
-        <v>36600.25984430502</v>
+        <v>25633.14200152148</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2319404</v>
+        <v>2290641</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47690116</v>
+        <v>47936438</v>
       </c>
       <c r="E213" t="n">
-        <v>309257707</v>
+        <v>310855045</v>
       </c>
       <c r="F213" t="n">
-        <v>114338.3220231221</v>
+        <v>151916.2450964467</v>
       </c>
       <c r="G213" t="n">
-        <v>138162.1706322393</v>
+        <v>157404.163905019</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I213" t="n">
-        <v>20673185</v>
+        <v>20994065</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>7930625</v>
+        <v>7949308</v>
       </c>
       <c r="F214" t="n">
-        <v>4.103716881028933</v>
+        <v>220.8064885591937</v>
       </c>
       <c r="G214" t="n">
-        <v>167.2687251414643</v>
+        <v>60.12460584897633</v>
       </c>
       <c r="H214" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I214" t="n">
-        <v>316884</v>
+        <v>311318</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7050256</v>
+        <v>7069297</v>
       </c>
       <c r="E215" t="n">
-        <v>7060353</v>
+        <v>7079446</v>
       </c>
       <c r="F215" t="n">
-        <v>5.470035683569576</v>
+        <v>21.24301725555209</v>
       </c>
       <c r="G215" t="n">
-        <v>493.1006869018887</v>
+        <v>135.2408627373373</v>
       </c>
       <c r="H215" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I215" t="n">
-        <v>755628</v>
+        <v>809343</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4462943</v>
+        <v>4477607</v>
       </c>
       <c r="F216" t="n">
-        <v>75.14033152588645</v>
+        <v>128.0041991492247</v>
       </c>
       <c r="G216" t="n">
-        <v>110.8741467308582</v>
+        <v>260.3354315903298</v>
       </c>
       <c r="H216" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="I216" t="n">
-        <v>218578</v>
+        <v>221325</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2468655</v>
+        <v>2482830</v>
       </c>
       <c r="E217" t="n">
-        <v>4472433</v>
+        <v>4498113</v>
       </c>
       <c r="F217" t="n">
-        <v>603.3873925296286</v>
+        <v>623.1505471695409</v>
       </c>
       <c r="G217" t="n">
-        <v>701.6415693458785</v>
+        <v>674.5459350101306</v>
       </c>
       <c r="H217" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="I217" t="n">
-        <v>134752</v>
+        <v>130595</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123022144</v>
+        <v>123816634</v>
       </c>
       <c r="E218" t="n">
-        <v>2037347465</v>
+        <v>2050504866</v>
       </c>
       <c r="F218" t="n">
-        <v>4778.49296740001</v>
+        <v>1311.1395850642</v>
       </c>
       <c r="G218" t="n">
-        <v>6651.460015123498</v>
+        <v>7750.230407975223</v>
       </c>
       <c r="H218" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>33934575</v>
+        <v>35182979</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>90921723</v>
+        <v>93570953</v>
       </c>
       <c r="E219" t="n">
-        <v>91900429</v>
+        <v>94578177</v>
       </c>
       <c r="F219" t="n">
-        <v>1647.20043198593</v>
+        <v>401.4408433775799</v>
       </c>
       <c r="G219" t="n">
-        <v>13903.4088600346</v>
+        <v>17663.67112887498</v>
       </c>
       <c r="H219" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I219" t="n">
-        <v>79210394</v>
+        <v>82712155</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>235057828</v>
+        <v>242493863</v>
       </c>
       <c r="E220" t="n">
-        <v>235057828</v>
+        <v>242493863</v>
       </c>
       <c r="F220" t="n">
-        <v>14628.7958563201</v>
+        <v>2010.315668958662</v>
       </c>
       <c r="G220" t="n">
-        <v>49993.24382387566</v>
+        <v>55610.02865421246</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="I220" t="n">
-        <v>88144979</v>
+        <v>91834071</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22855035</v>
+        <v>22895800</v>
       </c>
       <c r="E221" t="n">
-        <v>136746267</v>
+        <v>136990175</v>
       </c>
       <c r="F221" t="n">
-        <v>55186.34579849291</v>
+        <v>81879.13873923598</v>
       </c>
       <c r="G221" t="n">
-        <v>109896.2415047276</v>
+        <v>85665.45052350099</v>
       </c>
       <c r="H221" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>17198235</v>
+        <v>17857749</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1057569</v>
+        <v>1068320</v>
       </c>
       <c r="F222" t="n">
-        <v>174.2535957000042</v>
+        <v>251.5313748506079</v>
       </c>
       <c r="G222" t="n">
-        <v>96.50637740349507</v>
+        <v>267.1747020984178</v>
       </c>
       <c r="H222" t="n">
-        <v>2.76</v>
+        <v>0.97</v>
       </c>
       <c r="I222" t="n">
-        <v>89048</v>
+        <v>91412</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2178386</v>
+        <v>2182284</v>
       </c>
       <c r="F223" t="n">
-        <v>164.7828768349874</v>
+        <v>128.0018628564803</v>
       </c>
       <c r="G223" t="n">
-        <v>145.1921454035173</v>
+        <v>134.2683709322615</v>
       </c>
       <c r="H223" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I223" t="n">
-        <v>179042</v>
+        <v>179769</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13411124</v>
+        <v>13318925</v>
       </c>
       <c r="E224" t="n">
-        <v>40532140</v>
+        <v>40253487</v>
       </c>
       <c r="F224" t="n">
-        <v>1016.268955254431</v>
+        <v>1072.935500288969</v>
       </c>
       <c r="G224" t="n">
-        <v>1767.146006709444</v>
+        <v>10933.85894176599</v>
       </c>
       <c r="H224" t="n">
-        <v>0.51</v>
+        <v>0.02</v>
       </c>
       <c r="I224" t="n">
-        <v>2449837</v>
+        <v>2386754</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52172510</v>
+        <v>52192485</v>
       </c>
       <c r="E225" t="n">
-        <v>90113267</v>
+        <v>90147769</v>
       </c>
       <c r="F225" t="n">
-        <v>13809.47342388313</v>
+        <v>7241.712289432657</v>
       </c>
       <c r="G225" t="n">
-        <v>13419.1926985083</v>
+        <v>7191.322298207946</v>
       </c>
       <c r="H225" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I225" t="n">
-        <v>2270799</v>
+        <v>2261264</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4124560</v>
+        <v>4105115</v>
       </c>
       <c r="E226" t="n">
-        <v>4124560</v>
+        <v>4105115</v>
       </c>
       <c r="F226" t="n">
-        <v>31.4619785501882</v>
+        <v>31.35049362532358</v>
       </c>
       <c r="G226" t="n">
-        <v>4.096529034553046</v>
+        <v>5.481332611650621</v>
       </c>
       <c r="H226" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I226" t="n">
-        <v>1748327</v>
+        <v>1748648</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>192530</v>
+        <v>189107</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>60169</v>
+        <v>61287</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6274416</v>
+        <v>6312869</v>
       </c>
       <c r="E228" t="n">
-        <v>32279962</v>
+        <v>32477793</v>
       </c>
       <c r="F228" t="n">
-        <v>561.3211593717668</v>
+        <v>322.4695499362537</v>
       </c>
       <c r="G228" t="n">
-        <v>130.0581189558183</v>
+        <v>114.4296333134822</v>
       </c>
       <c r="H228" t="n">
         <v>0.43</v>
       </c>
       <c r="I228" t="n">
-        <v>948201</v>
+        <v>951278</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>172606357</v>
+        <v>157937914</v>
       </c>
       <c r="E230" t="n">
-        <v>201655190</v>
+        <v>184518117</v>
       </c>
       <c r="F230" t="n">
-        <v>18018.97605556269</v>
+        <v>12729.63961952639</v>
       </c>
       <c r="G230" t="n">
-        <v>31818.70198043072</v>
+        <v>12638.56927763845</v>
       </c>
       <c r="H230" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I230" t="n">
-        <v>4827992</v>
+        <v>6184269</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>295364</v>
+        <v>293806</v>
       </c>
       <c r="F231" t="n">
-        <v>57.15872357056593</v>
+        <v>3.942380688702495</v>
       </c>
       <c r="G231" t="n">
-        <v>483.8190048165264</v>
+        <v>82.70982657174777</v>
       </c>
       <c r="H231" t="n">
-        <v>0.27</v>
+        <v>1.02</v>
       </c>
       <c r="I231" t="n">
-        <v>236435</v>
+        <v>235842</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29860163</v>
+        <v>30051960</v>
       </c>
       <c r="E232" t="n">
-        <v>40943504</v>
+        <v>41206492</v>
       </c>
       <c r="F232" t="n">
-        <v>5905.492444931291</v>
+        <v>5554.519466921176</v>
       </c>
       <c r="G232" t="n">
-        <v>4777.748959420524</v>
+        <v>5763.874792327347</v>
       </c>
       <c r="H232" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I232" t="n">
-        <v>305377</v>
+        <v>348768</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1130075</v>
+        <v>1146457</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>478355</v>
+        <v>414192</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7597974</v>
+        <v>7603945</v>
       </c>
       <c r="F234" t="n">
-        <v>630.4955429757231</v>
+        <v>1345.964232517339</v>
       </c>
       <c r="G234" t="n">
-        <v>3154.599978099088</v>
+        <v>3127.524137828053</v>
       </c>
       <c r="H234" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="I234" t="n">
-        <v>651678</v>
+        <v>652337</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22426295</v>
+        <v>22761136</v>
       </c>
       <c r="E235" t="n">
-        <v>22426449</v>
+        <v>22761136</v>
       </c>
       <c r="F235" t="n">
-        <v>3438.247804707044</v>
+        <v>4473.551877569575</v>
       </c>
       <c r="G235" t="n">
-        <v>39169.67237016127</v>
+        <v>5012.174818107474</v>
       </c>
       <c r="H235" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="I235" t="n">
-        <v>2373284</v>
+        <v>2418370</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3415877</v>
+        <v>3421222</v>
       </c>
       <c r="E236" t="n">
-        <v>4575783</v>
+        <v>4582943</v>
       </c>
       <c r="F236" t="n">
-        <v>679.8818388551248</v>
+        <v>689.4458146876341</v>
       </c>
       <c r="G236" t="n">
-        <v>229.4532331409005</v>
+        <v>221.0342982794016</v>
       </c>
       <c r="H236" t="n">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
       <c r="I236" t="n">
-        <v>148662</v>
+        <v>149545</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>32102675</v>
+        <v>32312563</v>
       </c>
       <c r="E237" t="n">
-        <v>160207147</v>
+        <v>161254583</v>
       </c>
       <c r="F237" t="n">
-        <v>153398.0577175225</v>
+        <v>94736.32835649134</v>
       </c>
       <c r="G237" t="n">
-        <v>78776.66228270337</v>
+        <v>92643.54399841276</v>
       </c>
       <c r="H237" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>13642647</v>
+        <v>13977047</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>25575290</v>
+        <v>25787713</v>
       </c>
       <c r="E238" t="n">
-        <v>57656064</v>
+        <v>58134945</v>
       </c>
       <c r="F238" t="n">
-        <v>240.9300164336967</v>
+        <v>240.1445314382177</v>
       </c>
       <c r="G238" t="n">
-        <v>225.4098514133399</v>
+        <v>103.4931290449248</v>
       </c>
       <c r="H238" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="I238" t="n">
-        <v>417487</v>
+        <v>407117</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1914933</v>
+        <v>1923872</v>
       </c>
       <c r="E239" t="n">
-        <v>1914933</v>
+        <v>1923872</v>
       </c>
       <c r="F239" t="n">
-        <v>177.119077579852</v>
+        <v>180.4487335512962</v>
       </c>
       <c r="G239" t="n">
-        <v>92.26973231201968</v>
+        <v>96.0426824087323</v>
       </c>
       <c r="H239" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="I239" t="n">
-        <v>7470.8</v>
+        <v>7561.03</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71364239</v>
+        <v>71944301</v>
       </c>
       <c r="F240" t="n">
-        <v>301.6351385688494</v>
+        <v>4.115008689315657</v>
       </c>
       <c r="G240" t="n">
-        <v>6.821248774549341</v>
+        <v>4.076307264279538</v>
       </c>
       <c r="H240" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I240" t="n">
-        <v>60907</v>
+        <v>61585</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>887387</v>
+        <v>899014</v>
       </c>
       <c r="E241" t="n">
-        <v>887387</v>
+        <v>899014</v>
       </c>
       <c r="F241" t="n">
-        <v>4.228471212058778</v>
+        <v>4.096534561735593</v>
       </c>
       <c r="G241" t="n">
-        <v>494.6039536644217</v>
+        <v>4.00986925061589</v>
       </c>
       <c r="H241" t="n">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>11482.33</v>
+        <v>11901.34</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>123224</v>
+        <v>123796</v>
       </c>
       <c r="E242" t="n">
-        <v>123224</v>
+        <v>123796</v>
       </c>
       <c r="F242" t="n">
-        <v>596.9744931295071</v>
+        <v>666.6230491952088</v>
       </c>
       <c r="G242" t="n">
-        <v>420.7249481587569</v>
+        <v>190.5152040056182</v>
       </c>
       <c r="H242" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I242" t="n">
-        <v>39606</v>
+        <v>39559</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3490056</v>
+        <v>3488335</v>
       </c>
       <c r="E243" t="n">
-        <v>5013530</v>
+        <v>5011059</v>
       </c>
       <c r="F243" t="n">
-        <v>720.5318201224198</v>
+        <v>344.1834056858224</v>
       </c>
       <c r="G243" t="n">
-        <v>315.7644121718569</v>
+        <v>31.86310930873126</v>
       </c>
       <c r="H243" t="n">
-        <v>1.39</v>
+        <v>2.58</v>
       </c>
       <c r="I243" t="n">
-        <v>148026</v>
+        <v>149980</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>289642099</v>
+        <v>291996066</v>
       </c>
       <c r="E244" t="n">
-        <v>535903935</v>
+        <v>540259311</v>
       </c>
       <c r="F244" t="n">
-        <v>3101.246445198944</v>
+        <v>6480.032985727387</v>
       </c>
       <c r="G244" t="n">
-        <v>4149.340410857545</v>
+        <v>7304.051402061016</v>
       </c>
       <c r="H244" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I244" t="n">
-        <v>17729466</v>
+        <v>17221368</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>68745988</v>
+        <v>69408824</v>
       </c>
       <c r="E245" t="n">
-        <v>655721831</v>
+        <v>662036793</v>
       </c>
       <c r="F245" t="n">
-        <v>48123.73046470509</v>
+        <v>53703.61243636972</v>
       </c>
       <c r="G245" t="n">
-        <v>58445.52360980094</v>
+        <v>72395.87864779233</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>23515446</v>
+        <v>23935383</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81141</v>
+        <v>81562</v>
       </c>
       <c r="E246" t="n">
-        <v>674541</v>
+        <v>678044</v>
       </c>
       <c r="F246" t="n">
-        <v>5.429931343266089</v>
+        <v>66.55618154192716</v>
       </c>
       <c r="G246" t="n">
-        <v>4.114314924190656</v>
+        <v>4.164540528621354</v>
       </c>
       <c r="H246" t="n">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="I246" t="n">
-        <v>121.75</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1829406</v>
+        <v>1837580</v>
       </c>
       <c r="E247" t="n">
-        <v>5224549</v>
+        <v>5247891</v>
       </c>
       <c r="F247" t="n">
-        <v>397.4151865531135</v>
+        <v>403.4913769349505</v>
       </c>
       <c r="G247" t="n">
-        <v>152.9561330429651</v>
+        <v>153.8343766504441</v>
       </c>
       <c r="H247" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I247" t="n">
-        <v>72812</v>
+        <v>73069</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>35859668</v>
+        <v>35533008</v>
       </c>
       <c r="E248" t="n">
-        <v>46880972</v>
+        <v>46453873</v>
       </c>
       <c r="F248" t="n">
-        <v>530.1073086142169</v>
+        <v>472.317661566322</v>
       </c>
       <c r="G248" t="n">
-        <v>975.83106267301</v>
+        <v>1292.427410623986</v>
       </c>
       <c r="H248" t="n">
-        <v>1.02</v>
+        <v>1.83</v>
       </c>
       <c r="I248" t="n">
-        <v>427996</v>
+        <v>487686</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8597669</v>
+        <v>8988627</v>
       </c>
       <c r="E249" t="n">
-        <v>25488121</v>
+        <v>26647129</v>
       </c>
       <c r="F249" t="n">
-        <v>608.843174914737</v>
+        <v>542.5603339405864</v>
       </c>
       <c r="G249" t="n">
-        <v>1782.218758862726</v>
+        <v>1699.820781205355</v>
       </c>
       <c r="H249" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="I249" t="n">
-        <v>6098933</v>
+        <v>6507355</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1957206</v>
+        <v>1931373</v>
       </c>
       <c r="E250" t="n">
-        <v>5661709</v>
+        <v>5586982</v>
       </c>
       <c r="F250" t="n">
-        <v>3.032457651318631</v>
+        <v>86.28155138453616</v>
       </c>
       <c r="G250" t="n">
-        <v>170.0644245238958</v>
+        <v>30.12597975108231</v>
       </c>
       <c r="H250" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I250" t="n">
-        <v>52052</v>
+        <v>43556</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7248803</v>
+        <v>7241013</v>
       </c>
       <c r="E251" t="n">
-        <v>7248814</v>
+        <v>7241024</v>
       </c>
       <c r="F251" t="n">
-        <v>894.6946445207064</v>
+        <v>1030.363248883026</v>
       </c>
       <c r="G251" t="n">
-        <v>1066.096732674606</v>
+        <v>1377.230979199462</v>
       </c>
       <c r="H251" t="n">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
       <c r="I251" t="n">
-        <v>265553</v>
+        <v>266851</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6067273</v>
+        <v>5981596</v>
       </c>
       <c r="E252" t="n">
-        <v>6067273</v>
+        <v>5981596</v>
       </c>
       <c r="F252" t="n">
-        <v>1220.514750567669</v>
+        <v>580.1251112919286</v>
       </c>
       <c r="G252" t="n">
-        <v>709.3486452930268</v>
+        <v>1038.928797234088</v>
       </c>
       <c r="H252" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I252" t="n">
-        <v>493929</v>
+        <v>496939</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6188377</v>
+        <v>6166674</v>
       </c>
       <c r="E253" t="n">
-        <v>22603747</v>
+        <v>22524474</v>
       </c>
       <c r="F253" t="n">
-        <v>30.91192880493134</v>
+        <v>37.64295071944021</v>
       </c>
       <c r="G253" t="n">
-        <v>1006.271659633734</v>
+        <v>85.94281896895451</v>
       </c>
       <c r="H253" t="n">
-        <v>1.24</v>
+        <v>3.45</v>
       </c>
       <c r="I253" t="n">
-        <v>519844</v>
+        <v>568664</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2166544</v>
+        <v>2314112</v>
       </c>
       <c r="E254" t="n">
-        <v>19110358</v>
+        <v>20411999</v>
       </c>
       <c r="F254" t="n">
-        <v>1129.947031666478</v>
+        <v>51.10384211368883</v>
       </c>
       <c r="G254" t="n">
-        <v>1428.960365694601</v>
+        <v>1713.015322801644</v>
       </c>
       <c r="H254" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="I254" t="n">
-        <v>95117</v>
+        <v>101539</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14680804</v>
+        <v>14698293</v>
       </c>
       <c r="E255" t="n">
-        <v>29720391</v>
+        <v>29755798</v>
       </c>
       <c r="F255" t="n">
-        <v>126.1952371608672</v>
+        <v>125.5717490487206</v>
       </c>
       <c r="G255" t="n">
-        <v>299.085022290803</v>
+        <v>279.9350661319061</v>
       </c>
       <c r="H255" t="n">
-        <v>0.77</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I255" t="n">
-        <v>571329</v>
+        <v>572901</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>43427561</v>
+        <v>43716298</v>
       </c>
       <c r="E256" t="n">
-        <v>43427561</v>
+        <v>43716298</v>
       </c>
       <c r="F256" t="n">
-        <v>3720.604655354532</v>
+        <v>6034.769486345019</v>
       </c>
       <c r="G256" t="n">
-        <v>4544.321600877408</v>
+        <v>4799.536673159302</v>
       </c>
       <c r="H256" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I256" t="n">
-        <v>10765694</v>
+        <v>11254731</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8216644</v>
+        <v>8219074</v>
       </c>
       <c r="E257" t="n">
-        <v>11706835</v>
+        <v>11710297</v>
       </c>
       <c r="F257" t="n">
-        <v>37.24355864141715</v>
+        <v>1237.551008173384</v>
       </c>
       <c r="G257" t="n">
-        <v>1027.571841215082</v>
+        <v>251.5348725092549</v>
       </c>
       <c r="H257" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>328289</v>
+        <v>307774</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>143928848</v>
+        <v>142637413</v>
       </c>
       <c r="F258" t="n">
-        <v>64.62824629704703</v>
+        <v>151.7513108637668</v>
       </c>
       <c r="G258" t="n">
-        <v>25.32005275277736</v>
+        <v>130.5935292948286</v>
       </c>
       <c r="H258" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I258" t="n">
-        <v>1704725</v>
+        <v>1694370</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>15793057</v>
+        <v>16014575</v>
       </c>
       <c r="F259" t="n">
-        <v>99.95533595450735</v>
+        <v>110.4589925636899</v>
       </c>
       <c r="G259" t="n">
-        <v>108.1848863137005</v>
+        <v>70.8772651363516</v>
       </c>
       <c r="H259" t="n">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I259" t="n">
-        <v>1088583</v>
+        <v>1108218</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>714513</v>
+        <v>717864</v>
       </c>
       <c r="F260" t="n">
-        <v>9.99686263913714</v>
+        <v>9.992301082444335</v>
       </c>
       <c r="G260" t="n">
-        <v>101.9657125324421</v>
+        <v>20.04803284592408</v>
       </c>
       <c r="H260" t="n">
         <v>1.9</v>
       </c>
       <c r="I260" t="n">
-        <v>210248</v>
+        <v>211920</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2878475</v>
+        <v>2900617</v>
       </c>
       <c r="F261" t="n">
-        <v>111.3327905483103</v>
+        <v>111.2756432979938</v>
       </c>
       <c r="G261" t="n">
-        <v>50.10910405146191</v>
+        <v>41.49028777530865</v>
       </c>
       <c r="H261" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>72585</v>
+        <v>73008</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2803842</v>
+        <v>2662953</v>
       </c>
       <c r="E262" t="n">
-        <v>2806270</v>
+        <v>2665259</v>
       </c>
       <c r="F262" t="n">
-        <v>1.58638725943955</v>
+        <v>84.32482028505046</v>
       </c>
       <c r="G262" t="n">
-        <v>1061.391960837703</v>
+        <v>3.951050009740275</v>
       </c>
       <c r="H262" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I262" t="n">
-        <v>76200</v>
+        <v>55214</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>73968013</v>
+        <v>73363673</v>
       </c>
       <c r="E263" t="n">
-        <v>102418518</v>
+        <v>101582940</v>
       </c>
       <c r="F263" t="n">
-        <v>6922.762433674972</v>
+        <v>7639.590312876852</v>
       </c>
       <c r="G263" t="n">
-        <v>10848.00521775122</v>
+        <v>10790.8231563777</v>
       </c>
       <c r="H263" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I263" t="n">
-        <v>7277681</v>
+        <v>7294198</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>612442</v>
+        <v>612649</v>
       </c>
       <c r="F264" t="n">
-        <v>431.7342230028213</v>
+        <v>69.42981993023133</v>
       </c>
       <c r="G264" t="n">
-        <v>215.2404016880391</v>
+        <v>215.156586760997</v>
       </c>
       <c r="H264" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>600494</v>
+        <v>576107</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1307227</v>
+        <v>1297899</v>
       </c>
       <c r="E265" t="n">
-        <v>3956590</v>
+        <v>3929609</v>
       </c>
       <c r="F265" t="n">
-        <v>551.6317462625592</v>
+        <v>789.6636741024861</v>
       </c>
       <c r="G265" t="n">
-        <v>337.2118231120763</v>
+        <v>208.9295049884383</v>
       </c>
       <c r="H265" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I265" t="n">
-        <v>36247</v>
+        <v>46137</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>31105596</v>
+        <v>33439571</v>
       </c>
       <c r="E266" t="n">
-        <v>220533599</v>
+        <v>237081106</v>
       </c>
       <c r="F266" t="n">
-        <v>33099.56824437502</v>
+        <v>64.00083513175252</v>
       </c>
       <c r="G266" t="n">
-        <v>19916.22888634805</v>
+        <v>21161.79298967739</v>
       </c>
       <c r="H266" t="n">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="I266" t="n">
-        <v>5353606</v>
+        <v>6160614</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58201</v>
+        <v>57181</v>
       </c>
       <c r="E267" t="n">
-        <v>303668</v>
+        <v>298348</v>
       </c>
       <c r="F267" t="n">
-        <v>5.299392244202347</v>
+        <v>3.979220936565463</v>
       </c>
       <c r="G267" t="n">
-        <v>3.771631557480805</v>
+        <v>84.44652983226082</v>
       </c>
       <c r="H267" t="n">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="I267" t="n">
-        <v>201558</v>
+        <v>205429</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1272271</v>
+        <v>1275068</v>
       </c>
       <c r="E268" t="n">
-        <v>7889270</v>
+        <v>7905542</v>
       </c>
       <c r="F268" t="n">
-        <v>1373.532837999814</v>
+        <v>906.767493618865</v>
       </c>
       <c r="G268" t="n">
-        <v>1154.936692801421</v>
+        <v>941.8810515800984</v>
       </c>
       <c r="H268" t="n">
         <v>0.47</v>
       </c>
       <c r="I268" t="n">
-        <v>789329</v>
+        <v>781464</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>572880365</v>
+        <v>577851550</v>
       </c>
       <c r="E269" t="n">
-        <v>2218681129</v>
+        <v>2237933798</v>
       </c>
       <c r="F269" t="n">
-        <v>241702.7270893723</v>
+        <v>232402.0331894297</v>
       </c>
       <c r="G269" t="n">
-        <v>264345.9598500989</v>
+        <v>306441.1897220478</v>
       </c>
       <c r="H269" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>57681383</v>
+        <v>60373529</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3318775</v>
+        <v>3301681</v>
       </c>
       <c r="F270" t="n">
-        <v>42.58048868386631</v>
+        <v>70.96363892020537</v>
       </c>
       <c r="G270" t="n">
-        <v>170.5450052781267</v>
+        <v>144.0750618039458</v>
       </c>
       <c r="H270" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I270" t="n">
-        <v>38260</v>
+        <v>38487</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>826002</v>
+        <v>783079</v>
       </c>
       <c r="F271" t="n">
-        <v>224.2423257652049</v>
+        <v>196.4860074246728</v>
       </c>
       <c r="G271" t="n">
-        <v>2.317234496399379</v>
+        <v>23.24524212184231</v>
       </c>
       <c r="H271" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="I271" t="n">
-        <v>140568</v>
+        <v>143752</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5441223</v>
+        <v>5465483</v>
       </c>
       <c r="E272" t="n">
-        <v>24357219</v>
+        <v>24464778</v>
       </c>
       <c r="F272" t="n">
-        <v>1867.234391086747</v>
+        <v>623.7111548103533</v>
       </c>
       <c r="G272" t="n">
-        <v>154.6705089066534</v>
+        <v>113.7283006626908</v>
       </c>
       <c r="H272" t="n">
         <v>0.7</v>
       </c>
       <c r="I272" t="n">
-        <v>191054</v>
+        <v>194297</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6526128</v>
+        <v>6391291</v>
       </c>
       <c r="E273" t="n">
-        <v>12494801</v>
+        <v>12236645</v>
       </c>
       <c r="F273" t="n">
-        <v>98.61930552423053</v>
+        <v>214.1937028491063</v>
       </c>
       <c r="G273" t="n">
-        <v>86.06231660294139</v>
+        <v>513.6992141175582</v>
       </c>
       <c r="H273" t="n">
-        <v>2.84</v>
+        <v>1.63</v>
       </c>
       <c r="I273" t="n">
-        <v>34164</v>
+        <v>36205</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3163745</v>
+        <v>3186061</v>
       </c>
       <c r="E274" t="n">
-        <v>20804050</v>
+        <v>20950793</v>
       </c>
       <c r="F274" t="n">
-        <v>265.4762626508088</v>
+        <v>265.1176838518728</v>
       </c>
       <c r="G274" t="n">
-        <v>54.73918693847666</v>
+        <v>54.71298653781123</v>
       </c>
       <c r="H274" t="n">
         <v>0.28</v>
       </c>
       <c r="I274" t="n">
-        <v>1681371</v>
+        <v>1409872</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3635254</v>
+        <v>3638382</v>
       </c>
       <c r="E275" t="n">
-        <v>6196784</v>
+        <v>6202117</v>
       </c>
       <c r="F275" t="n">
-        <v>731.85431377185</v>
+        <v>777.4697083511988</v>
       </c>
       <c r="G275" t="n">
-        <v>444.5591352670139</v>
+        <v>418.5772149051346</v>
       </c>
       <c r="H275" t="n">
         <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1124139</v>
+        <v>1122935</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435694</v>
+        <v>431703</v>
       </c>
       <c r="E276" t="n">
-        <v>435694</v>
+        <v>431703</v>
       </c>
       <c r="F276" t="n">
-        <v>3.425349024541839</v>
+        <v>5.218641883749806</v>
       </c>
       <c r="G276" t="n">
-        <v>4.011412747958238</v>
+        <v>3.814407439447181</v>
       </c>
       <c r="H276" t="n">
-        <v>0.86</v>
+        <v>0.39</v>
       </c>
       <c r="I276" t="n">
-        <v>81.79000000000001</v>
+        <v>105.02</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7394233</v>
+        <v>7351490</v>
       </c>
       <c r="E277" t="n">
-        <v>10593663</v>
+        <v>10532414</v>
       </c>
       <c r="F277" t="n">
-        <v>1353.380653857167</v>
+        <v>1118.032605198014</v>
       </c>
       <c r="G277" t="n">
-        <v>1307.085727644421</v>
+        <v>524.8763809036052</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>177378</v>
+        <v>177491</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>105319303</v>
+        <v>108052137</v>
       </c>
       <c r="E278" t="n">
-        <v>997080289</v>
+        <v>1022952607</v>
       </c>
       <c r="F278" t="n">
-        <v>2859.925621669152</v>
+        <v>2956.613691090421</v>
       </c>
       <c r="G278" t="n">
-        <v>4464.219966489562</v>
+        <v>4920.059004315121</v>
       </c>
       <c r="H278" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I278" t="n">
-        <v>15343072</v>
+        <v>16110555</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>93862689</v>
+        <v>97437938</v>
       </c>
       <c r="E279" t="n">
-        <v>143189732</v>
+        <v>148643859</v>
       </c>
       <c r="F279" t="n">
-        <v>15931.06598665914</v>
+        <v>16661.80833400098</v>
       </c>
       <c r="G279" t="n">
-        <v>15255.60947911623</v>
+        <v>15108.92274716867</v>
       </c>
       <c r="H279" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I279" t="n">
-        <v>12491814</v>
+        <v>12883542</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15547707</v>
+        <v>15480402</v>
       </c>
       <c r="E280" t="n">
-        <v>21330107</v>
+        <v>21237771</v>
       </c>
       <c r="F280" t="n">
-        <v>208.0707884792798</v>
+        <v>334.7320710543073</v>
       </c>
       <c r="G280" t="n">
-        <v>6524.287271262781</v>
+        <v>11832.66044893804</v>
       </c>
       <c r="H280" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I280" t="n">
-        <v>948903</v>
+        <v>931726</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5325596</v>
+        <v>5136018</v>
       </c>
       <c r="E281" t="n">
-        <v>5325596</v>
+        <v>5136018</v>
       </c>
       <c r="F281" t="n">
-        <v>37.00526673032624</v>
+        <v>594.2654743663877</v>
       </c>
       <c r="G281" t="n">
-        <v>286.5323980565382</v>
+        <v>14.56774356840235</v>
       </c>
       <c r="H281" t="n">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="I281" t="n">
-        <v>674471</v>
+        <v>629519</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>120492108</v>
+        <v>120516139</v>
       </c>
       <c r="E282" t="n">
-        <v>462227122</v>
+        <v>462319305</v>
       </c>
       <c r="F282" t="n">
-        <v>74253.04951721229</v>
+        <v>66651.4420041383</v>
       </c>
       <c r="G282" t="n">
-        <v>68876.01124946866</v>
+        <v>69511.94920388129</v>
       </c>
       <c r="H282" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I282" t="n">
-        <v>39745593</v>
+        <v>39588398</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>639773</v>
+        <v>729978</v>
       </c>
       <c r="F283" t="n">
-        <v>387.1286915460862</v>
+        <v>3.911229912814801</v>
       </c>
       <c r="G283" t="n">
-        <v>1.346914793249318</v>
+        <v>3.083015644747761</v>
       </c>
       <c r="H283" t="n">
-        <v>1.47</v>
+        <v>0.25</v>
       </c>
       <c r="I283" t="n">
-        <v>40617</v>
+        <v>46717</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3008380</v>
+        <v>3041025</v>
       </c>
       <c r="E284" t="n">
-        <v>28504843</v>
+        <v>28814164</v>
       </c>
       <c r="F284" t="n">
-        <v>733.3864592824762</v>
+        <v>820.83770456604</v>
       </c>
       <c r="G284" t="n">
-        <v>1297.852850260167</v>
+        <v>1091.968625812856</v>
       </c>
       <c r="H284" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="I284" t="n">
-        <v>245524</v>
+        <v>260090</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>95049</v>
+        <v>95689</v>
       </c>
       <c r="F285" t="n">
-        <v>769.5819571561615</v>
+        <v>1356.790138655008</v>
       </c>
       <c r="G285" t="n">
-        <v>69.9529145521193</v>
+        <v>7.660977655158975</v>
       </c>
       <c r="H285" t="n">
         <v>0.21</v>
       </c>
       <c r="I285" t="n">
-        <v>46963</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>129187</v>
+        <v>130202</v>
       </c>
       <c r="F286" t="n">
-        <v>5.489168907818518</v>
+        <v>5.487140877955917</v>
       </c>
       <c r="G286" t="n">
-        <v>36.91048431134413</v>
+        <v>44.23604366093559</v>
       </c>
       <c r="H286" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I286" t="n">
-        <v>67262</v>
+        <v>64950</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21030682</v>
+        <v>20524228</v>
       </c>
       <c r="E287" t="n">
-        <v>21030682</v>
+        <v>20524228</v>
       </c>
       <c r="F287" t="n">
-        <v>2249.993517440573</v>
+        <v>1851.663826888172</v>
       </c>
       <c r="G287" t="n">
-        <v>2038.257909014582</v>
+        <v>8381.598769598719</v>
       </c>
       <c r="H287" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="I287" t="n">
-        <v>490757</v>
+        <v>482962</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>558568</v>
+        <v>559585</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8108.97</v>
+        <v>8123.47</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6553822</v>
+        <v>6586111</v>
       </c>
       <c r="E289" t="n">
-        <v>40959515</v>
+        <v>41161306</v>
       </c>
       <c r="F289" t="n">
-        <v>12.26100997429955</v>
+        <v>12.25622784421788</v>
       </c>
       <c r="G289" t="n">
-        <v>193.347475545685</v>
+        <v>24.27187217779364</v>
       </c>
       <c r="H289" t="n">
-        <v>0.62</v>
+        <v>0.21</v>
       </c>
       <c r="I289" t="n">
-        <v>417197</v>
+        <v>417639</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493088650</v>
+        <v>495161623</v>
       </c>
       <c r="E290" t="n">
-        <v>493088650</v>
+        <v>495161623</v>
       </c>
       <c r="F290" t="n">
-        <v>943016.7524903812</v>
+        <v>886279.856889513</v>
       </c>
       <c r="G290" t="n">
-        <v>1322610.30791824</v>
+        <v>1295447.614674298</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>42752487</v>
+        <v>43714746</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5061591</v>
+        <v>5079720</v>
       </c>
       <c r="E291" t="n">
-        <v>18808969</v>
+        <v>18876336</v>
       </c>
       <c r="F291" t="n">
-        <v>568.3082717728369</v>
+        <v>717.984024710834</v>
       </c>
       <c r="G291" t="n">
-        <v>1957.197702497766</v>
+        <v>2516.772805581053</v>
       </c>
       <c r="H291" t="n">
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>87607</v>
+        <v>92009</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35189325</v>
+        <v>35875685</v>
       </c>
       <c r="F292" t="n">
-        <v>6791.974114658139</v>
+        <v>6343.714280601356</v>
       </c>
       <c r="G292" t="n">
-        <v>9499.67313176829</v>
+        <v>12673.76732289466</v>
       </c>
       <c r="H292" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="I292" t="n">
-        <v>7667723</v>
+        <v>7915586</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>44257693</v>
+        <v>44448454</v>
       </c>
       <c r="E293" t="n">
-        <v>158635514</v>
+        <v>159319272</v>
       </c>
       <c r="F293" t="n">
-        <v>2.644897972474905</v>
+        <v>4.025837992690797</v>
       </c>
       <c r="G293" t="n">
-        <v>29.16999987381403</v>
+        <v>5.015419182215025</v>
       </c>
       <c r="H293" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="I293" t="n">
-        <v>165149</v>
+        <v>164756</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>814072</v>
+        <v>790559</v>
       </c>
       <c r="E294" t="n">
-        <v>12984155</v>
+        <v>12609130</v>
       </c>
       <c r="F294" t="n">
-        <v>19.03085158854578</v>
+        <v>19.02526518465653</v>
       </c>
       <c r="G294" t="n">
-        <v>7.744660006174553</v>
+        <v>7.742386602980893</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>333658</v>
+        <v>333704</v>
       </c>
     </row>
     <row r="295">
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84990</v>
+        <v>84674</v>
       </c>
       <c r="F295" t="n">
         <v>22.35991935270415</v>
@@ -10735,7 +10735,7 @@
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>55113</v>
+        <v>54094</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1559987</v>
+        <v>1530079</v>
       </c>
       <c r="F296" t="n">
-        <v>5.350732707338564</v>
+        <v>5.327275215682987</v>
       </c>
       <c r="G296" t="n">
-        <v>3.970911039564232</v>
+        <v>4.293292563427246</v>
       </c>
       <c r="H296" t="n">
         <v>0.45</v>
       </c>
       <c r="I296" t="n">
-        <v>605302</v>
+        <v>604074</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2502279568</v>
+        <v>2528307782</v>
       </c>
       <c r="E297" t="n">
-        <v>2656769801</v>
+        <v>2684404992</v>
       </c>
       <c r="F297" t="n">
-        <v>33650.71428812151</v>
+        <v>40459.20494528172</v>
       </c>
       <c r="G297" t="n">
-        <v>47245.07436302388</v>
+        <v>55326.12332911282</v>
       </c>
       <c r="H297" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I297" t="n">
-        <v>60436471</v>
+        <v>59119175</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2120200</v>
+        <v>2143351</v>
       </c>
       <c r="E298" t="n">
-        <v>16307981</v>
+        <v>16486045</v>
       </c>
       <c r="F298" t="n">
-        <v>62.62832646180187</v>
+        <v>87.70290254623779</v>
       </c>
       <c r="G298" t="n">
-        <v>9.766558553061586</v>
+        <v>9.910489197331605</v>
       </c>
       <c r="H298" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="I298" t="n">
-        <v>215614</v>
+        <v>213363</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1688446</v>
+        <v>1693513</v>
       </c>
       <c r="E299" t="n">
-        <v>1694406</v>
+        <v>1699491</v>
       </c>
       <c r="F299" t="n">
-        <v>518.3684313796531</v>
+        <v>981.3380873237494</v>
       </c>
       <c r="G299" t="n">
-        <v>1067.401704100688</v>
+        <v>1089.952621914272</v>
       </c>
       <c r="H299" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="I299" t="n">
-        <v>457509</v>
+        <v>470838</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87552617</v>
+        <v>88825779</v>
       </c>
       <c r="E300" t="n">
-        <v>323631757</v>
+        <v>328337477</v>
       </c>
       <c r="F300" t="n">
-        <v>3740.677924587254</v>
+        <v>2265.357048178826</v>
       </c>
       <c r="G300" t="n">
-        <v>13348.19408742685</v>
+        <v>2790.064289550744</v>
       </c>
       <c r="H300" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I300" t="n">
-        <v>240633</v>
+        <v>251115</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2176693</v>
+        <v>2272751</v>
       </c>
       <c r="E301" t="n">
-        <v>8726031</v>
+        <v>9111111</v>
       </c>
       <c r="F301" t="n">
-        <v>3.869466862397271</v>
+        <v>4.097400758649901</v>
       </c>
       <c r="G301" t="n">
-        <v>5.460920329496106</v>
+        <v>5.335288814734601</v>
       </c>
       <c r="H301" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I301" t="n">
-        <v>9162.860000000001</v>
+        <v>9877.110000000001</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>57369923</v>
+        <v>57481128</v>
       </c>
       <c r="E302" t="n">
-        <v>140724533</v>
+        <v>140997312</v>
       </c>
       <c r="F302" t="n">
-        <v>52.76068426814622</v>
+        <v>519.1638885038146</v>
       </c>
       <c r="G302" t="n">
-        <v>3387.980471390202</v>
+        <v>1330.857177202749</v>
       </c>
       <c r="H302" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="I302" t="n">
-        <v>21848236</v>
+        <v>21854858</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>748619135</v>
+        <v>753508133</v>
       </c>
       <c r="E303" t="n">
-        <v>1154436803</v>
+        <v>1161976069</v>
       </c>
       <c r="F303" t="n">
-        <v>2.500633003769206</v>
+        <v>28415.40503040032</v>
       </c>
       <c r="G303" t="n">
-        <v>25374.11723306194</v>
+        <v>30869.97844262269</v>
       </c>
       <c r="H303" t="n">
-        <v>0.55</v>
+        <v>0.32</v>
       </c>
       <c r="I303" t="n">
-        <v>328725652</v>
+        <v>269930878</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>18965851</v>
+        <v>19335474</v>
       </c>
       <c r="E304" t="n">
-        <v>18965851</v>
+        <v>19335474</v>
       </c>
       <c r="F304" t="n">
-        <v>393.1334761536431</v>
+        <v>587.5283616484662</v>
       </c>
       <c r="G304" t="n">
-        <v>3458.483043421693</v>
+        <v>2950.637721430417</v>
       </c>
       <c r="H304" t="n">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="I304" t="n">
-        <v>7175459</v>
+        <v>7180482</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1954986</v>
+        <v>1960388</v>
       </c>
       <c r="E305" t="n">
-        <v>3207799</v>
+        <v>3216664</v>
       </c>
       <c r="F305" t="n">
-        <v>4.092708985232914</v>
+        <v>323.9313320454838</v>
       </c>
       <c r="G305" t="n">
-        <v>5.530550035417852</v>
+        <v>151.2877912669786</v>
       </c>
       <c r="H305" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I305" t="n">
-        <v>127488</v>
+        <v>121179</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>14252356</v>
+        <v>9682260</v>
       </c>
       <c r="E306" t="n">
-        <v>14252356</v>
+        <v>9682260</v>
       </c>
       <c r="F306" t="n">
-        <v>3.992157775384635</v>
+        <v>4.351547738546635</v>
       </c>
       <c r="G306" t="n">
-        <v>4.120347665620761</v>
+        <v>5.09372329844809</v>
       </c>
       <c r="H306" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="I306" t="n">
-        <v>32673</v>
+        <v>49166</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39509845</v>
+        <v>39846028</v>
       </c>
       <c r="E307" t="n">
-        <v>188415009</v>
+        <v>190018204</v>
       </c>
       <c r="F307" t="n">
-        <v>1090.780855793994</v>
+        <v>1075.213926612098</v>
       </c>
       <c r="G307" t="n">
-        <v>233.0702015823587</v>
+        <v>225.8614703573419</v>
       </c>
       <c r="H307" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I307" t="n">
-        <v>401449</v>
+        <v>270749</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>376222</v>
+        <v>378395</v>
       </c>
       <c r="E308" t="n">
-        <v>703642</v>
+        <v>707705</v>
       </c>
       <c r="F308" t="n">
-        <v>5.380406947880472</v>
+        <v>135.8241523941438</v>
       </c>
       <c r="G308" t="n">
-        <v>771.1331035950451</v>
+        <v>112.5925255563353</v>
       </c>
       <c r="H308" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="I308" t="n">
-        <v>2446.53</v>
+        <v>2362.36</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>24138400</v>
+        <v>23489430</v>
       </c>
       <c r="E309" t="n">
-        <v>40230666</v>
+        <v>39149049</v>
       </c>
       <c r="F309" t="n">
-        <v>237.7923512935297</v>
+        <v>1210.499656830649</v>
       </c>
       <c r="G309" t="n">
-        <v>370.3319064669504</v>
+        <v>3089.412419971439</v>
       </c>
       <c r="H309" t="n">
-        <v>0.52</v>
+        <v>0.79</v>
       </c>
       <c r="I309" t="n">
-        <v>910997</v>
+        <v>22046</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107974</v>
+        <v>107899</v>
       </c>
       <c r="F310" t="n">
-        <v>5.408670006517419</v>
+        <v>3.785252522368627</v>
       </c>
       <c r="G310" t="n">
-        <v>52.27420284567216</v>
+        <v>13.57887254392347</v>
       </c>
       <c r="H310" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I310" t="n">
-        <v>55337</v>
+        <v>55892</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>21226820</v>
+        <v>21618282</v>
       </c>
       <c r="E311" t="n">
-        <v>21226820</v>
+        <v>21618282</v>
       </c>
       <c r="F311" t="n">
-        <v>3777.822973802815</v>
+        <v>3409.889541791517</v>
       </c>
       <c r="G311" t="n">
-        <v>7658.675719941743</v>
+        <v>3399.161390099495</v>
       </c>
       <c r="H311" t="n">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="I311" t="n">
-        <v>5615359</v>
+        <v>5975056</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3819494</v>
+        <v>3814146</v>
       </c>
       <c r="E312" t="n">
-        <v>8325962</v>
+        <v>8314303</v>
       </c>
       <c r="F312" t="n">
-        <v>1889.599825501082</v>
+        <v>1939.555535488988</v>
       </c>
       <c r="G312" t="n">
-        <v>1791.654939276953</v>
+        <v>1901.209383621425</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I312" t="n">
-        <v>2014394</v>
+        <v>2028163</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9247360</v>
+        <v>9236161</v>
       </c>
       <c r="E313" t="n">
-        <v>9247360</v>
+        <v>9236161</v>
       </c>
       <c r="F313" t="n">
-        <v>116924.9366031031</v>
+        <v>116221.8617034821</v>
       </c>
       <c r="G313" t="n">
-        <v>15484.67522754367</v>
+        <v>15534.76392231032</v>
       </c>
       <c r="H313" t="n">
         <v>0.04</v>
       </c>
       <c r="I313" t="n">
-        <v>5646970</v>
+        <v>6219958</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>465530434</v>
+        <v>469003399</v>
       </c>
       <c r="E314" t="n">
-        <v>1620472698</v>
+        <v>1632561801</v>
       </c>
       <c r="F314" t="n">
-        <v>255943.5255913771</v>
+        <v>452272.814849592</v>
       </c>
       <c r="G314" t="n">
-        <v>354084.8663755199</v>
+        <v>407853.0553329817</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>46818681</v>
+        <v>46956285</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22172728</v>
+        <v>22209184</v>
       </c>
       <c r="E315" t="n">
-        <v>22153468</v>
+        <v>22189892</v>
       </c>
       <c r="F315" t="n">
-        <v>247.1507840992725</v>
+        <v>224.6062048077042</v>
       </c>
       <c r="G315" t="n">
-        <v>816.9459524632207</v>
+        <v>817.3118158597917</v>
       </c>
       <c r="H315" t="n">
         <v>0.45</v>
       </c>
       <c r="I315" t="n">
-        <v>408207</v>
+        <v>410333</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>46805573</v>
+        <v>46150098</v>
       </c>
       <c r="E316" t="n">
-        <v>115218334</v>
+        <v>113604800</v>
       </c>
       <c r="F316" t="n">
-        <v>521.4086159981788</v>
+        <v>113.9873406332585</v>
       </c>
       <c r="G316" t="n">
-        <v>1586.125612869184</v>
+        <v>1273.331933563574</v>
       </c>
       <c r="H316" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="I316" t="n">
-        <v>106889</v>
+        <v>117074</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11868098</v>
+        <v>11897810</v>
       </c>
       <c r="E317" t="n">
-        <v>23960981</v>
+        <v>24019735</v>
       </c>
       <c r="F317" t="n">
-        <v>101.8660031811865</v>
+        <v>140.8009121998222</v>
       </c>
       <c r="G317" t="n">
-        <v>1435.3160475371</v>
+        <v>986.408216874556</v>
       </c>
       <c r="H317" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I317" t="n">
-        <v>69230</v>
+        <v>68076</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7131355</v>
+        <v>7242494</v>
       </c>
       <c r="E318" t="n">
-        <v>18526493</v>
+        <v>18815220</v>
       </c>
       <c r="F318" t="n">
-        <v>197.7840478036829</v>
+        <v>5303.292137063967</v>
       </c>
       <c r="G318" t="n">
-        <v>197.515586854425</v>
+        <v>134.5259277941907</v>
       </c>
       <c r="H318" t="n">
         <v>0.21</v>
       </c>
       <c r="I318" t="n">
-        <v>757264</v>
+        <v>764366</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>146884</v>
+        <v>144975</v>
       </c>
       <c r="F319" t="n">
-        <v>39.92756436703263</v>
+        <v>24.83720493950001</v>
       </c>
       <c r="G319" t="n">
-        <v>255.946761860679</v>
+        <v>241.5635862620117</v>
       </c>
       <c r="H319" t="n">
-        <v>3.45</v>
+        <v>2.31</v>
       </c>
       <c r="I319" t="n">
-        <v>56570</v>
+        <v>55488</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18778424998</v>
+        <v>18808587959</v>
       </c>
       <c r="F320" t="n">
-        <v>351.444947233062</v>
+        <v>64.30718492474851</v>
       </c>
       <c r="G320" t="n">
-        <v>18681.67829771417</v>
+        <v>29084.16339780359</v>
       </c>
       <c r="H320" t="n">
-        <v>1.36</v>
+        <v>0.58</v>
       </c>
       <c r="I320" t="n">
-        <v>37188997</v>
+        <v>35449147</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>105625304</v>
+        <v>106462232</v>
       </c>
       <c r="E321" t="n">
-        <v>160034539</v>
+        <v>161302582</v>
       </c>
       <c r="F321" t="n">
-        <v>14912.48610284588</v>
+        <v>9974.167541240195</v>
       </c>
       <c r="G321" t="n">
-        <v>23102.73585573941</v>
+        <v>18684.46880888423</v>
       </c>
       <c r="H321" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="I321" t="n">
-        <v>9831964</v>
+        <v>9993461</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2370258</v>
+        <v>2359905</v>
       </c>
       <c r="E322" t="n">
-        <v>9481033</v>
+        <v>9439621</v>
       </c>
       <c r="F322" t="n">
-        <v>873.0985197647113</v>
+        <v>1254.357095987638</v>
       </c>
       <c r="G322" t="n">
-        <v>4706.271321556019</v>
+        <v>1733.643906769891</v>
       </c>
       <c r="H322" t="n">
-        <v>0.42</v>
+        <v>0.85</v>
       </c>
       <c r="I322" t="n">
-        <v>7516350</v>
+        <v>7488027</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>211601755</v>
+        <v>210616658</v>
       </c>
       <c r="E323" t="n">
-        <v>650595768</v>
+        <v>647566963</v>
       </c>
       <c r="F323" t="n">
-        <v>171377.8132265743</v>
+        <v>131524.2238403409</v>
       </c>
       <c r="G323" t="n">
-        <v>169199.2909074288</v>
+        <v>173080.6144711145</v>
       </c>
       <c r="H323" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>21913819</v>
+        <v>22403400</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>134258525</v>
+        <v>135076702</v>
       </c>
       <c r="E324" t="n">
-        <v>350746673</v>
+        <v>352884138</v>
       </c>
       <c r="F324" t="n">
-        <v>10151.06675372325</v>
+        <v>9197.450946203175</v>
       </c>
       <c r="G324" t="n">
-        <v>37263.20553364951</v>
+        <v>9464.940380289489</v>
       </c>
       <c r="H324" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I324" t="n">
-        <v>9499499</v>
+        <v>9385383</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2327582</v>
+        <v>2388217</v>
       </c>
       <c r="E325" t="n">
-        <v>3194532</v>
+        <v>3277803</v>
       </c>
       <c r="F325" t="n">
-        <v>109.2294519481626</v>
+        <v>370.7196796914484</v>
       </c>
       <c r="G325" t="n">
-        <v>1811.04786855414</v>
+        <v>274.6431370789822</v>
       </c>
       <c r="H325" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I325" t="n">
-        <v>1404111</v>
+        <v>978614</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>376258719</v>
+        <v>381280420</v>
       </c>
       <c r="E326" t="n">
-        <v>2150049826</v>
+        <v>2178745258</v>
       </c>
       <c r="F326" t="n">
-        <v>250779.8117256819</v>
+        <v>251334.6259871344</v>
       </c>
       <c r="G326" t="n">
-        <v>296307.4631040179</v>
+        <v>361164.0866923435</v>
       </c>
       <c r="H326" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="I326" t="n">
-        <v>58371313</v>
+        <v>60462375</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93010</v>
+        <v>93768</v>
       </c>
       <c r="F2" t="n">
-        <v>4.769857411886483</v>
+        <v>3.888651657846813</v>
       </c>
       <c r="G2" t="n">
-        <v>3.928716738816424</v>
+        <v>4.176581260463597</v>
       </c>
       <c r="H2" t="n">
         <v>0.83</v>
       </c>
       <c r="I2" t="n">
-        <v>1251.37</v>
+        <v>862.86</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>585974303</v>
+        <v>581018232</v>
       </c>
       <c r="E3" t="n">
-        <v>1137114621</v>
+        <v>1127497495</v>
       </c>
       <c r="F3" t="n">
-        <v>16942.55291126832</v>
+        <v>17990.82693655664</v>
       </c>
       <c r="G3" t="n">
-        <v>29634.60790257725</v>
+        <v>26499.84252046833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>45711505</v>
+        <v>46548806</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>242443299</v>
+        <v>244258272</v>
       </c>
       <c r="E4" t="n">
-        <v>1520327852</v>
+        <v>1531709292</v>
       </c>
       <c r="F4" t="n">
-        <v>33302.02495071441</v>
+        <v>40210.44397843337</v>
       </c>
       <c r="G4" t="n">
-        <v>60194.93538944398</v>
+        <v>70323.53717737387</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>24959240</v>
+        <v>26209494</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139469578</v>
+        <v>138801697</v>
       </c>
       <c r="E5" t="n">
-        <v>154554089</v>
+        <v>153813972</v>
       </c>
       <c r="F5" t="n">
-        <v>152753.489945246</v>
+        <v>100468.0506598597</v>
       </c>
       <c r="G5" t="n">
-        <v>240332.7771165116</v>
+        <v>191948.2962570822</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>52581865</v>
+        <v>52429917</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48199962</v>
+        <v>48085240</v>
       </c>
       <c r="E6" t="n">
-        <v>60296916</v>
+        <v>60153403</v>
       </c>
       <c r="F6" t="n">
-        <v>8720.57138704281</v>
+        <v>9434.438804984777</v>
       </c>
       <c r="G6" t="n">
-        <v>11139.63078560379</v>
+        <v>12435.12591021622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>899874</v>
+        <v>884080</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8260810</v>
+        <v>8180894</v>
       </c>
       <c r="E7" t="n">
-        <v>8469117</v>
+        <v>8387186</v>
       </c>
       <c r="F7" t="n">
-        <v>496.334511109115</v>
+        <v>372.3685350462642</v>
       </c>
       <c r="G7" t="n">
-        <v>1036.940633927323</v>
+        <v>4798.346041147086</v>
       </c>
       <c r="H7" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="I7" t="n">
-        <v>97850</v>
+        <v>99274</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66555810</v>
+        <v>66407650</v>
       </c>
       <c r="E8" t="n">
-        <v>132556648</v>
+        <v>132261564</v>
       </c>
       <c r="F8" t="n">
-        <v>13017.36401137062</v>
+        <v>12373.9008195098</v>
       </c>
       <c r="G8" t="n">
-        <v>16936.06736404463</v>
+        <v>16434.81807438691</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="I8" t="n">
-        <v>1058639</v>
+        <v>1031817</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5078380</v>
+        <v>5071751</v>
       </c>
       <c r="E9" t="n">
-        <v>8113725</v>
+        <v>8103134</v>
       </c>
       <c r="F9" t="n">
-        <v>311.9146320834394</v>
+        <v>323.09529830926</v>
       </c>
       <c r="G9" t="n">
-        <v>253.5757204372719</v>
+        <v>245.156365923255</v>
       </c>
       <c r="H9" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="I9" t="n">
-        <v>100089</v>
+        <v>99114</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13780214</v>
+        <v>13871732</v>
       </c>
       <c r="E10" t="n">
-        <v>40609400</v>
+        <v>40879099</v>
       </c>
       <c r="F10" t="n">
-        <v>3966.102036503663</v>
+        <v>3832.241706163232</v>
       </c>
       <c r="G10" t="n">
-        <v>3855.306418618132</v>
+        <v>5247.376715204757</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.11</v>
       </c>
       <c r="I10" t="n">
-        <v>900580</v>
+        <v>690915</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>117271315</v>
+        <v>115888314</v>
       </c>
       <c r="E11" t="n">
-        <v>459668441</v>
+        <v>454247491</v>
       </c>
       <c r="F11" t="n">
-        <v>92860.56049694524</v>
+        <v>78642.37841249093</v>
       </c>
       <c r="G11" t="n">
-        <v>50542.04692070423</v>
+        <v>45540.94901116617</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>27730377</v>
+        <v>27302944</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8676907</v>
+        <v>8684863</v>
       </c>
       <c r="E12" t="n">
-        <v>37298174</v>
+        <v>37332372</v>
       </c>
       <c r="F12" t="n">
-        <v>2363.012886086246</v>
+        <v>2282.592877991974</v>
       </c>
       <c r="G12" t="n">
-        <v>1790.249081258473</v>
+        <v>4627.813686520552</v>
       </c>
       <c r="H12" t="n">
         <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>913035</v>
+        <v>969373</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>999624</v>
+        <v>997109</v>
       </c>
       <c r="E13" t="n">
-        <v>12232704</v>
+        <v>12201924</v>
       </c>
       <c r="F13" t="n">
-        <v>208.6053880529858</v>
+        <v>171.0993145969691</v>
       </c>
       <c r="G13" t="n">
-        <v>224.6482878279044</v>
+        <v>460.2010937317415</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I13" t="n">
-        <v>422.51</v>
+        <v>525.79</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>569585</v>
+        <v>568629</v>
       </c>
       <c r="E14" t="n">
-        <v>569585</v>
+        <v>568629</v>
       </c>
       <c r="F14" t="n">
-        <v>186.3156457531159</v>
+        <v>204.5548840443569</v>
       </c>
       <c r="G14" t="n">
-        <v>315.3465581963043</v>
+        <v>857.7717256297634</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I14" t="n">
-        <v>28355</v>
+        <v>26918</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>550807813</v>
+        <v>545969918</v>
       </c>
       <c r="E15" t="n">
-        <v>688978709</v>
+        <v>682927222</v>
       </c>
       <c r="F15" t="n">
-        <v>543372.9854839646</v>
+        <v>598930.2932635269</v>
       </c>
       <c r="G15" t="n">
-        <v>585112.6428193881</v>
+        <v>546810.6020188128</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>97151937</v>
+        <v>98177102</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3209715</v>
+        <v>3172019</v>
       </c>
       <c r="E16" t="n">
-        <v>9131355</v>
+        <v>9024113</v>
       </c>
       <c r="F16" t="n">
-        <v>172.0280510624422</v>
+        <v>600.8226336423412</v>
       </c>
       <c r="G16" t="n">
-        <v>74.34127655332405</v>
+        <v>52.79755951641193</v>
       </c>
       <c r="H16" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="I16" t="n">
-        <v>112006</v>
+        <v>111414</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>308496</v>
+        <v>308338</v>
       </c>
       <c r="E17" t="n">
-        <v>3560414</v>
+        <v>3558591</v>
       </c>
       <c r="F17" t="n">
-        <v>5.406431586652018</v>
+        <v>5.332993317756691</v>
       </c>
       <c r="G17" t="n">
-        <v>4.038135957135194</v>
+        <v>4.089361318056374</v>
       </c>
       <c r="H17" t="n">
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>890.23</v>
+        <v>888.0700000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1245683</v>
+        <v>1243591</v>
       </c>
       <c r="E18" t="n">
-        <v>9555126</v>
+        <v>9539080</v>
       </c>
       <c r="F18" t="n">
-        <v>83.66036570337708</v>
+        <v>83.85311491647423</v>
       </c>
       <c r="G18" t="n">
-        <v>132.9392538346297</v>
+        <v>131.843572170857</v>
       </c>
       <c r="H18" t="n">
-        <v>0.48</v>
+        <v>0.98</v>
       </c>
       <c r="I18" t="n">
-        <v>127928</v>
+        <v>122915</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24356994</v>
+        <v>24397650</v>
       </c>
       <c r="E19" t="n">
-        <v>24401919</v>
+        <v>24442650</v>
       </c>
       <c r="F19" t="n">
-        <v>2218.654091492505</v>
+        <v>2320.118932800574</v>
       </c>
       <c r="G19" t="n">
-        <v>649.4146914164729</v>
+        <v>1054.362466871205</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="I19" t="n">
-        <v>899886</v>
+        <v>886143</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4121966</v>
+        <v>4001590</v>
       </c>
       <c r="E20" t="n">
-        <v>22871106</v>
+        <v>22203192</v>
       </c>
       <c r="F20" t="n">
-        <v>38.7287737594077</v>
+        <v>4.151725719222501</v>
       </c>
       <c r="G20" t="n">
-        <v>1.600908797767792</v>
+        <v>4.256426285901627</v>
       </c>
       <c r="H20" t="n">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="I20" t="n">
-        <v>3164.39</v>
+        <v>3158.95</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6839788</v>
+        <v>6836973</v>
       </c>
       <c r="E21" t="n">
-        <v>12689249</v>
+        <v>12684027</v>
       </c>
       <c r="F21" t="n">
-        <v>170.2662403193354</v>
+        <v>385.5291766830786</v>
       </c>
       <c r="G21" t="n">
-        <v>696.7888040202184</v>
+        <v>764.3002679628418</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>1.18</v>
       </c>
       <c r="I21" t="n">
-        <v>57317</v>
+        <v>56563</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68917960</v>
+        <v>68672119</v>
       </c>
       <c r="E22" t="n">
-        <v>119312202</v>
+        <v>118883757</v>
       </c>
       <c r="F22" t="n">
-        <v>1824.910752131051</v>
+        <v>1861.281123529667</v>
       </c>
       <c r="G22" t="n">
-        <v>685.2934156839079</v>
+        <v>444.0151692135241</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>801458</v>
+        <v>838941</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172167</v>
+        <v>169386</v>
       </c>
       <c r="E23" t="n">
-        <v>517796</v>
+        <v>509433</v>
       </c>
       <c r="F23" t="n">
-        <v>8.569138106018817</v>
+        <v>8.38007378431257</v>
       </c>
       <c r="G23" t="n">
-        <v>83.67213461109419</v>
+        <v>95.88465900764319</v>
       </c>
       <c r="H23" t="n">
-        <v>0.19</v>
+        <v>0.59</v>
       </c>
       <c r="I23" t="n">
-        <v>191.13</v>
+        <v>207.63</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78730245</v>
+        <v>78550843</v>
       </c>
       <c r="E24" t="n">
-        <v>231634146</v>
+        <v>231106322</v>
       </c>
       <c r="F24" t="n">
-        <v>505.0077559899105</v>
+        <v>534.3734981274981</v>
       </c>
       <c r="G24" t="n">
-        <v>699.9930455767703</v>
+        <v>732.9774375086585</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>439181</v>
+        <v>474549</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6505638</v>
+        <v>6615211</v>
       </c>
       <c r="F25" t="n">
-        <v>4.011644065622368</v>
+        <v>4.087319294835202</v>
       </c>
       <c r="G25" t="n">
-        <v>132.5538594948545</v>
+        <v>100.9567219119957</v>
       </c>
       <c r="H25" t="n">
         <v>0.45</v>
       </c>
       <c r="I25" t="n">
-        <v>20626</v>
+        <v>21140</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2344996</v>
+        <v>2352356</v>
       </c>
       <c r="E26" t="n">
-        <v>2344996</v>
+        <v>2352356</v>
       </c>
       <c r="F26" t="n">
-        <v>26.48036529649132</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>29.02737678876705</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.64</v>
+        <v>10.12</v>
       </c>
       <c r="I26" t="n">
-        <v>307434</v>
+        <v>310557</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16798288</v>
+        <v>16543658</v>
       </c>
       <c r="E27" t="n">
-        <v>21620776</v>
+        <v>21293046</v>
       </c>
       <c r="F27" t="n">
-        <v>357.895171854101</v>
+        <v>549.2047670718945</v>
       </c>
       <c r="G27" t="n">
-        <v>7106.21043946649</v>
+        <v>4175.756671675927</v>
       </c>
       <c r="H27" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="I27" t="n">
-        <v>1911474</v>
+        <v>1923845</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4588896</v>
+        <v>4578449</v>
       </c>
       <c r="E28" t="n">
-        <v>4588896</v>
+        <v>4578449</v>
       </c>
       <c r="F28" t="n">
-        <v>1288.201367289013</v>
+        <v>2020.680561794056</v>
       </c>
       <c r="G28" t="n">
-        <v>1762.580678547716</v>
+        <v>2059.47554408504</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>2247801</v>
+        <v>2266075</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2011492</v>
+        <v>1970615</v>
       </c>
       <c r="F29" t="n">
-        <v>27.50961616631545</v>
+        <v>131.98906075025</v>
       </c>
       <c r="G29" t="n">
-        <v>552.5996913716707</v>
+        <v>80.49829149458955</v>
       </c>
       <c r="H29" t="n">
-        <v>3.16</v>
+        <v>2.83</v>
       </c>
       <c r="I29" t="n">
-        <v>304166</v>
+        <v>307867</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3290391</v>
+        <v>3233064</v>
       </c>
       <c r="E30" t="n">
-        <v>3290391</v>
+        <v>3233064</v>
       </c>
       <c r="F30" t="n">
-        <v>3822.047284315381</v>
+        <v>615.4198868036623</v>
       </c>
       <c r="G30" t="n">
-        <v>557.2036383635252</v>
+        <v>345.5035981108303</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I30" t="n">
-        <v>630970</v>
+        <v>641811</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>298356</v>
+        <v>297703</v>
       </c>
       <c r="E31" t="n">
-        <v>1392758</v>
+        <v>1389710</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>14.52745523886687</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>86.08167110375361</v>
       </c>
       <c r="H31" t="n">
-        <v>4.23</v>
+        <v>2.82</v>
       </c>
       <c r="I31" t="n">
-        <v>670689</v>
+        <v>671637</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>344580</v>
+        <v>344635</v>
       </c>
       <c r="E32" t="n">
-        <v>344580</v>
+        <v>344635</v>
       </c>
       <c r="F32" t="n">
-        <v>5.383741844537472</v>
+        <v>91.88882646087166</v>
       </c>
       <c r="G32" t="n">
-        <v>151.9231333927698</v>
+        <v>5.411729987075887</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>50891</v>
+        <v>52012</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1821519</v>
+        <v>1825418</v>
       </c>
       <c r="F33" t="n">
-        <v>5.682842592367988</v>
+        <v>4.330220469494559</v>
       </c>
       <c r="G33" t="n">
-        <v>4.001896608825315</v>
+        <v>5.271376492791177</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1379164</v>
+        <v>1383727</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1666286</v>
+        <v>2004266</v>
       </c>
       <c r="F34" t="n">
-        <v>29.7968871403535</v>
+        <v>176.6492136560993</v>
       </c>
       <c r="G34" t="n">
-        <v>89.86888298502558</v>
+        <v>5.412397887372225</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1227938</v>
+        <v>1307733</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11870536</v>
+        <v>11905584</v>
       </c>
       <c r="E35" t="n">
-        <v>29543616</v>
+        <v>29630845</v>
       </c>
       <c r="F35" t="n">
-        <v>1025.127828388255</v>
+        <v>778.4798171969729</v>
       </c>
       <c r="G35" t="n">
-        <v>1377.268682911478</v>
+        <v>1725.969237686964</v>
       </c>
       <c r="H35" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="I35" t="n">
-        <v>1529765</v>
+        <v>1525854</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6890189</v>
+        <v>6874558</v>
       </c>
       <c r="E36" t="n">
-        <v>9489551</v>
+        <v>9468023</v>
       </c>
       <c r="F36" t="n">
-        <v>62.01788518070461</v>
+        <v>1908.505144455917</v>
       </c>
       <c r="G36" t="n">
-        <v>844.3628591049429</v>
+        <v>544.7943899057723</v>
       </c>
       <c r="H36" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="I36" t="n">
-        <v>371894</v>
+        <v>405615</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>889409</v>
+        <v>893910</v>
       </c>
       <c r="E37" t="n">
-        <v>6225866</v>
+        <v>6257371</v>
       </c>
       <c r="F37" t="n">
-        <v>941.2447284143238</v>
+        <v>392.8495949631844</v>
       </c>
       <c r="G37" t="n">
-        <v>72.47258980790522</v>
+        <v>89.50322499964194</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="I37" t="n">
-        <v>247758</v>
+        <v>271186</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>107907581</v>
+        <v>108023865</v>
       </c>
       <c r="E38" t="n">
-        <v>419479314</v>
+        <v>419915893</v>
       </c>
       <c r="F38" t="n">
-        <v>2922.866245021168</v>
+        <v>877.1653180502118</v>
       </c>
       <c r="G38" t="n">
-        <v>6520.071607241658</v>
+        <v>3044.796211557783</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="I38" t="n">
-        <v>12378183</v>
+        <v>12446636</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5444477</v>
+        <v>5464378</v>
       </c>
       <c r="E39" t="n">
-        <v>5704941</v>
+        <v>5725794</v>
       </c>
       <c r="F39" t="n">
-        <v>72.59744705472453</v>
+        <v>73.40616452412544</v>
       </c>
       <c r="G39" t="n">
-        <v>729.7025453297231</v>
+        <v>1295.526686049316</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>178764</v>
+        <v>150137</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4797946</v>
+        <v>4631684</v>
       </c>
       <c r="E40" t="n">
-        <v>7062836</v>
+        <v>6818090</v>
       </c>
       <c r="F40" t="n">
-        <v>582.4665941908881</v>
+        <v>483.5820495719119</v>
       </c>
       <c r="G40" t="n">
-        <v>69.28921968210958</v>
+        <v>1200.43636549656</v>
       </c>
       <c r="H40" t="n">
-        <v>1.4</v>
+        <v>0.44</v>
       </c>
       <c r="I40" t="n">
-        <v>561800</v>
+        <v>556518</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7502644</v>
+        <v>7495508</v>
       </c>
       <c r="E41" t="n">
-        <v>7502644</v>
+        <v>7495508</v>
       </c>
       <c r="F41" t="n">
-        <v>1613.633913603291</v>
+        <v>1606.719494380971</v>
       </c>
       <c r="G41" t="n">
-        <v>2416.107868990517</v>
+        <v>2448.758727544009</v>
       </c>
       <c r="H41" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="I41" t="n">
-        <v>448670</v>
+        <v>451970</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1532587</v>
+        <v>1506629</v>
       </c>
       <c r="E42" t="n">
-        <v>1532600</v>
+        <v>1506629</v>
       </c>
       <c r="F42" t="n">
-        <v>390.4353989238487</v>
+        <v>294.4819942864808</v>
       </c>
       <c r="G42" t="n">
-        <v>57.64996532716585</v>
+        <v>34.30414962505132</v>
       </c>
       <c r="H42" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I42" t="n">
-        <v>287904</v>
+        <v>284806</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15849206</v>
+        <v>15725917</v>
       </c>
       <c r="F43" t="n">
-        <v>263.6929419232457</v>
+        <v>84.72773936519931</v>
       </c>
       <c r="G43" t="n">
-        <v>418.5781891676428</v>
+        <v>503.8271336067128</v>
       </c>
       <c r="H43" t="n">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="I43" t="n">
-        <v>14062.77</v>
+        <v>14247.37</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>137091387</v>
+        <v>135936708</v>
       </c>
       <c r="E44" t="n">
-        <v>137091387</v>
+        <v>135936708</v>
       </c>
       <c r="F44" t="n">
-        <v>277604.7989126067</v>
+        <v>343294.8850931915</v>
       </c>
       <c r="G44" t="n">
-        <v>358083.9980416734</v>
+        <v>322657.5478007036</v>
       </c>
       <c r="H44" t="n">
         <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>94771875</v>
+        <v>89590140</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>63363251</v>
+        <v>62947814</v>
       </c>
       <c r="E45" t="n">
-        <v>324939751</v>
+        <v>322809301</v>
       </c>
       <c r="F45" t="n">
-        <v>39350.0579268909</v>
+        <v>36382.91631529158</v>
       </c>
       <c r="G45" t="n">
-        <v>50392.80378174852</v>
+        <v>81503.21175448468</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I45" t="n">
-        <v>27472952</v>
+        <v>27277316</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>598763</v>
+        <v>597677</v>
       </c>
       <c r="F46" t="n">
-        <v>61.83762583800836</v>
+        <v>61.02690730390906</v>
       </c>
       <c r="G46" t="n">
-        <v>478.0147082453743</v>
+        <v>476.9521805032043</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>1247.12</v>
+        <v>633.5599999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2615574</v>
+        <v>2614926</v>
       </c>
       <c r="E47" t="n">
-        <v>10511396</v>
+        <v>10508794</v>
       </c>
       <c r="F47" t="n">
-        <v>526.8342723444063</v>
+        <v>202.0896322689885</v>
       </c>
       <c r="G47" t="n">
-        <v>489.4728917054884</v>
+        <v>720.832520881386</v>
       </c>
       <c r="H47" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
       <c r="I47" t="n">
-        <v>55381</v>
+        <v>53164</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17950279</v>
+        <v>17977595</v>
       </c>
       <c r="E48" t="n">
-        <v>125532524</v>
+        <v>125719808</v>
       </c>
       <c r="F48" t="n">
-        <v>965.9345023722052</v>
+        <v>444.9877514244812</v>
       </c>
       <c r="G48" t="n">
-        <v>941.3530490209058</v>
+        <v>751.8391261921055</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>1176733</v>
+        <v>1133319</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1021800</v>
+        <v>1022362</v>
       </c>
       <c r="E49" t="n">
-        <v>1199349</v>
+        <v>1200009</v>
       </c>
       <c r="F49" t="n">
-        <v>2178.582478265689</v>
+        <v>1990.582789983355</v>
       </c>
       <c r="G49" t="n">
-        <v>1922.951210384528</v>
+        <v>665.3625971484378</v>
       </c>
       <c r="H49" t="n">
-        <v>1.67</v>
+        <v>2.13</v>
       </c>
       <c r="I49" t="n">
-        <v>208406</v>
+        <v>217472</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>167490</v>
+        <v>165863</v>
       </c>
       <c r="E50" t="n">
-        <v>2241107</v>
+        <v>2219338</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>48484</v>
+        <v>46831</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>250602084</v>
+        <v>248446912</v>
       </c>
       <c r="E51" t="n">
-        <v>250602084</v>
+        <v>248446912</v>
       </c>
       <c r="F51" t="n">
-        <v>20712.34860636937</v>
+        <v>26327.86461814557</v>
       </c>
       <c r="G51" t="n">
-        <v>41131.71399803759</v>
+        <v>39419.99518906664</v>
       </c>
       <c r="H51" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I51" t="n">
-        <v>25725804</v>
+        <v>25849825</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1116730</v>
+        <v>1110560</v>
       </c>
       <c r="F52" t="n">
-        <v>3.91557085813225</v>
+        <v>3.914733504523913</v>
       </c>
       <c r="G52" t="n">
-        <v>6.699786090818932</v>
+        <v>4.024208006360215</v>
       </c>
       <c r="H52" t="n">
         <v>0.55</v>
       </c>
       <c r="I52" t="n">
-        <v>136876</v>
+        <v>137034</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2397183</v>
+        <v>2279730</v>
       </c>
       <c r="E53" t="n">
-        <v>2661245</v>
+        <v>2527835</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>330261</v>
+        <v>334689</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>111715</v>
+        <v>111189</v>
       </c>
       <c r="E54" t="n">
-        <v>111715</v>
+        <v>111189</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>297.38</v>
+        <v>297.07</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6848983</v>
+        <v>6845580</v>
       </c>
       <c r="E55" t="n">
-        <v>16635653</v>
+        <v>16627386</v>
       </c>
       <c r="F55" t="n">
-        <v>780.5581716320299</v>
+        <v>530.7993538738693</v>
       </c>
       <c r="G55" t="n">
-        <v>190.8062071311067</v>
+        <v>851.2352316229276</v>
       </c>
       <c r="H55" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="I55" t="n">
-        <v>431351</v>
+        <v>434536</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>411484130</v>
+        <v>415707390</v>
       </c>
       <c r="E56" t="n">
-        <v>411484130</v>
+        <v>415707390</v>
       </c>
       <c r="F56" t="n">
-        <v>9560.969342974007</v>
+        <v>11232.96349620219</v>
       </c>
       <c r="G56" t="n">
-        <v>3302.615619833509</v>
+        <v>3178.001084961831</v>
       </c>
       <c r="H56" t="n">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>4225924</v>
+        <v>4221990</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2380358</v>
+        <v>2391428</v>
       </c>
       <c r="E57" t="n">
-        <v>2380358</v>
+        <v>2391428</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>155964</v>
+        <v>154594</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>162924316</v>
+        <v>170482521</v>
       </c>
       <c r="E58" t="n">
-        <v>214389345</v>
+        <v>224335059</v>
       </c>
       <c r="F58" t="n">
-        <v>1340.70312167602</v>
+        <v>2694.615044712598</v>
       </c>
       <c r="G58" t="n">
-        <v>3203.525344961725</v>
+        <v>19802.63223180862</v>
       </c>
       <c r="H58" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I58" t="n">
-        <v>17516354</v>
+        <v>17904364</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1114776</v>
+        <v>1115515</v>
       </c>
       <c r="E59" t="n">
-        <v>12114964</v>
+        <v>12122997</v>
       </c>
       <c r="F59" t="n">
-        <v>301.9500699439453</v>
+        <v>329.3113038915627</v>
       </c>
       <c r="G59" t="n">
-        <v>4.045136464208261</v>
+        <v>4.044274743403361</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I59" t="n">
-        <v>14411.03</v>
+        <v>14416.17</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2577172</v>
+        <v>2572797</v>
       </c>
       <c r="E60" t="n">
-        <v>6588765</v>
+        <v>6577580</v>
       </c>
       <c r="F60" t="n">
-        <v>273.2510204141524</v>
+        <v>273.1935063708052</v>
       </c>
       <c r="G60" t="n">
-        <v>344.5182328586441</v>
+        <v>147.3388145878973</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>82116</v>
+        <v>80643</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>81515555</v>
+        <v>80252009</v>
       </c>
       <c r="E61" t="n">
-        <v>228039726</v>
+        <v>224543111</v>
       </c>
       <c r="F61" t="n">
-        <v>55665.10859563068</v>
+        <v>64365.55779255339</v>
       </c>
       <c r="G61" t="n">
-        <v>58693.56609173995</v>
+        <v>71082.1608260185</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>53868172</v>
+        <v>60435836</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>62372911</v>
+        <v>64130121</v>
       </c>
       <c r="E62" t="n">
-        <v>62372911</v>
+        <v>64130121</v>
       </c>
       <c r="F62" t="n">
-        <v>569.6603650709533</v>
+        <v>2.639276770446181</v>
       </c>
       <c r="G62" t="n">
-        <v>2169.855679142906</v>
+        <v>2034.432915597729</v>
       </c>
       <c r="H62" t="n">
-        <v>0.93</v>
+        <v>1.32</v>
       </c>
       <c r="I62" t="n">
-        <v>6185554</v>
+        <v>6596650</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4079054</v>
+        <v>4073860</v>
       </c>
       <c r="E63" t="n">
-        <v>8044238</v>
+        <v>8033994</v>
       </c>
       <c r="F63" t="n">
-        <v>1678.673367446165</v>
+        <v>1195.472910336345</v>
       </c>
       <c r="G63" t="n">
-        <v>993.5292842783309</v>
+        <v>885.9136523566681</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>1668378</v>
+        <v>1676609</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1596810</v>
+        <v>1607656</v>
       </c>
       <c r="E64" t="n">
-        <v>9168289</v>
+        <v>9230563</v>
       </c>
       <c r="F64" t="n">
-        <v>28.31258674792837</v>
+        <v>2.735748055338965</v>
       </c>
       <c r="G64" t="n">
-        <v>11.49803817950544</v>
+        <v>2.541048470034665</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7</v>
+        <v>1.86</v>
       </c>
       <c r="I64" t="n">
-        <v>244401</v>
+        <v>245352</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>578648</v>
+        <v>596625</v>
       </c>
       <c r="F65" t="n">
-        <v>4.020841871098003</v>
+        <v>4.182311628942476</v>
       </c>
       <c r="G65" t="n">
-        <v>268.2313468316697</v>
+        <v>5.487417467667675</v>
       </c>
       <c r="H65" t="n">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
       <c r="I65" t="n">
-        <v>5616.28</v>
+        <v>5521.03</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31166062</v>
+        <v>31200428</v>
       </c>
       <c r="F66" t="n">
-        <v>774.997255530468</v>
+        <v>844.5839952615577</v>
       </c>
       <c r="G66" t="n">
-        <v>853.1315927488552</v>
+        <v>739.4170255431881</v>
       </c>
       <c r="H66" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>234111</v>
+        <v>233346</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>162969</v>
+        <v>160591</v>
       </c>
       <c r="E67" t="n">
-        <v>1100549</v>
+        <v>1084490</v>
       </c>
       <c r="F67" t="n">
-        <v>105.7539376961394</v>
+        <v>137.1236615478811</v>
       </c>
       <c r="G67" t="n">
-        <v>4.004057974829276</v>
+        <v>127.5860826837748</v>
       </c>
       <c r="H67" t="n">
-        <v>0.46</v>
+        <v>1.14</v>
       </c>
       <c r="I67" t="n">
-        <v>3155934</v>
+        <v>3186359</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17318324</v>
+        <v>17403751</v>
       </c>
       <c r="E68" t="n">
-        <v>18253107</v>
+        <v>18343146</v>
       </c>
       <c r="F68" t="n">
-        <v>1370.114984593407</v>
+        <v>1188.80862188721</v>
       </c>
       <c r="G68" t="n">
-        <v>1515.924468709748</v>
+        <v>1626.772816907899</v>
       </c>
       <c r="H68" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="I68" t="n">
-        <v>41217</v>
+        <v>47550</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2927026</v>
+        <v>2902366</v>
       </c>
       <c r="E69" t="n">
-        <v>2927026</v>
+        <v>2902366</v>
       </c>
       <c r="F69" t="n">
-        <v>976.2154470448313</v>
+        <v>972.8833689867355</v>
       </c>
       <c r="G69" t="n">
-        <v>4.070972025722101</v>
+        <v>4.000783381077206</v>
       </c>
       <c r="H69" t="n">
-        <v>0.63</v>
+        <v>1.2</v>
       </c>
       <c r="I69" t="n">
-        <v>15512.04</v>
+        <v>14539.51</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3334893</v>
+        <v>3339280</v>
       </c>
       <c r="E70" t="n">
-        <v>8228678</v>
+        <v>8239502</v>
       </c>
       <c r="F70" t="n">
-        <v>1121.435988699227</v>
+        <v>1131.13862665679</v>
       </c>
       <c r="G70" t="n">
-        <v>1221.284230409015</v>
+        <v>1160.688992784378</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>44295</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23196449</v>
+        <v>23008859</v>
       </c>
       <c r="F71" t="n">
-        <v>4.179427923926584</v>
+        <v>4.23466875523275</v>
       </c>
       <c r="G71" t="n">
-        <v>441.3688928405421</v>
+        <v>323.1913469601952</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>131886</v>
+        <v>129991</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>246350</v>
+        <v>247481</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3480.4</v>
+        <v>3784.66</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>83433043</v>
+        <v>82313344</v>
       </c>
       <c r="E73" t="n">
-        <v>173951194</v>
+        <v>171616712</v>
       </c>
       <c r="F73" t="n">
-        <v>12315.0731464605</v>
+        <v>16376.39731287109</v>
       </c>
       <c r="G73" t="n">
-        <v>416.803084210865</v>
+        <v>146.934614213322</v>
       </c>
       <c r="H73" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="I73" t="n">
-        <v>70198007</v>
+        <v>70717839</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>190750352</v>
+        <v>189472236</v>
       </c>
       <c r="F75" t="n">
-        <v>4351.187231199091</v>
+        <v>13916.05669953688</v>
       </c>
       <c r="G75" t="n">
-        <v>4598.701906605304</v>
+        <v>11233.85915194315</v>
       </c>
       <c r="H75" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I75" t="n">
-        <v>3514290</v>
+        <v>3394078</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82874375</v>
+        <v>83321576</v>
       </c>
       <c r="E76" t="n">
-        <v>113799414</v>
+        <v>114413491</v>
       </c>
       <c r="F76" t="n">
-        <v>1312.809000404186</v>
+        <v>458.7697197857443</v>
       </c>
       <c r="G76" t="n">
-        <v>5677.305773989305</v>
+        <v>1771.990212891137</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I76" t="n">
-        <v>1273344</v>
+        <v>1303378</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>187742</v>
+        <v>186472</v>
       </c>
       <c r="E77" t="n">
-        <v>196056</v>
+        <v>194730</v>
       </c>
       <c r="F77" t="n">
-        <v>5.722301428970346</v>
+        <v>7.04779379430088</v>
       </c>
       <c r="G77" t="n">
-        <v>93.20851871656589</v>
+        <v>482.0355684350336</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>192.93</v>
+        <v>180.78</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7356076</v>
+        <v>7376656</v>
       </c>
       <c r="E78" t="n">
-        <v>8092175</v>
+        <v>8114814</v>
       </c>
       <c r="F78" t="n">
-        <v>332.4715657875801</v>
+        <v>536.0612267173161</v>
       </c>
       <c r="G78" t="n">
-        <v>522.4528550898908</v>
+        <v>393.0646442309995</v>
       </c>
       <c r="H78" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="I78" t="n">
-        <v>637260</v>
+        <v>629167</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27918366</v>
+        <v>27419302</v>
       </c>
       <c r="E79" t="n">
-        <v>27918366</v>
+        <v>27419302</v>
       </c>
       <c r="F79" t="n">
-        <v>1535.261067558389</v>
+        <v>3449.484399269266</v>
       </c>
       <c r="G79" t="n">
-        <v>952.7754923276262</v>
+        <v>401.5420187768486</v>
       </c>
       <c r="H79" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="I79" t="n">
-        <v>255593</v>
+        <v>263101</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>267990617</v>
+        <v>267948416</v>
       </c>
       <c r="E80" t="n">
-        <v>267990617</v>
+        <v>267948416</v>
       </c>
       <c r="F80" t="n">
-        <v>121.7521700593651</v>
+        <v>54.27367871613353</v>
       </c>
       <c r="G80" t="n">
-        <v>2232.734231731517</v>
+        <v>3081.387290287343</v>
       </c>
       <c r="H80" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>12611431</v>
+        <v>12209336</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>642085655</v>
+        <v>636226104</v>
       </c>
       <c r="E81" t="n">
-        <v>642085655</v>
+        <v>636226104</v>
       </c>
       <c r="F81" t="n">
-        <v>1155685.559233381</v>
+        <v>1211819.323804288</v>
       </c>
       <c r="G81" t="n">
-        <v>1477475.813035568</v>
+        <v>1356457.832167505</v>
       </c>
       <c r="H81" t="n">
         <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>550093388</v>
+        <v>548315679</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113469</v>
+        <v>113330</v>
       </c>
       <c r="E82" t="n">
-        <v>113469</v>
+        <v>113330</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1337.05</v>
+        <v>1334.43</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>195699959</v>
+        <v>193493590</v>
       </c>
       <c r="E83" t="n">
-        <v>679879344</v>
+        <v>672214219</v>
       </c>
       <c r="F83" t="n">
-        <v>319.4712592358346</v>
+        <v>33.92868842005439</v>
       </c>
       <c r="G83" t="n">
-        <v>1680.079170327388</v>
+        <v>1554.173479262222</v>
       </c>
       <c r="H83" t="n">
-        <v>1.96</v>
+        <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>40696045</v>
+        <v>40947976</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3427539</v>
+        <v>3355961</v>
       </c>
       <c r="E84" t="n">
-        <v>3427539</v>
+        <v>3355961</v>
       </c>
       <c r="F84" t="n">
-        <v>446.6076609149356</v>
+        <v>401.1925582176419</v>
       </c>
       <c r="G84" t="n">
-        <v>1216.180687156719</v>
+        <v>1643.905107702739</v>
       </c>
       <c r="H84" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
       <c r="I84" t="n">
-        <v>2342403</v>
+        <v>2271316</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>109683422</v>
+        <v>108140429</v>
       </c>
       <c r="E85" t="n">
-        <v>465285343</v>
+        <v>458707953</v>
       </c>
       <c r="F85" t="n">
-        <v>194646.1491234601</v>
+        <v>163820.8929219223</v>
       </c>
       <c r="G85" t="n">
-        <v>1682.810671801156</v>
+        <v>212266.5662965236</v>
       </c>
       <c r="H85" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="I85" t="n">
-        <v>15295958</v>
+        <v>15132248</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73009622</v>
+        <v>73199131</v>
       </c>
       <c r="E86" t="n">
-        <v>83769241</v>
+        <v>83986679</v>
       </c>
       <c r="F86" t="n">
-        <v>1643.998850457454</v>
+        <v>1200.956028134975</v>
       </c>
       <c r="G86" t="n">
-        <v>4364.686335452961</v>
+        <v>3374.304183160184</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I86" t="n">
-        <v>1469371</v>
+        <v>1457035</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3237628</v>
+        <v>3261399</v>
       </c>
       <c r="E87" t="n">
-        <v>16232816</v>
+        <v>16353045</v>
       </c>
       <c r="F87" t="n">
-        <v>3.94522548452537</v>
+        <v>8.062977152522768</v>
       </c>
       <c r="G87" t="n">
-        <v>87.56887443312249</v>
+        <v>89.84874604706138</v>
       </c>
       <c r="H87" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="I87" t="n">
-        <v>30611</v>
+        <v>30751</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>521305</v>
+        <v>520927</v>
       </c>
       <c r="E88" t="n">
-        <v>8916881</v>
+        <v>8910413</v>
       </c>
       <c r="F88" t="n">
-        <v>129.96993483407</v>
+        <v>488.2242688531464</v>
       </c>
       <c r="G88" t="n">
-        <v>1168.919512691274</v>
+        <v>1272.879401320653</v>
       </c>
       <c r="H88" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="I88" t="n">
-        <v>132310</v>
+        <v>124390</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5487565</v>
+        <v>5630694</v>
       </c>
       <c r="E89" t="n">
-        <v>7447342</v>
+        <v>7641494</v>
       </c>
       <c r="F89" t="n">
-        <v>67.70980454273385</v>
+        <v>100.1255793972669</v>
       </c>
       <c r="G89" t="n">
-        <v>1000.322427222654</v>
+        <v>1019.707287909359</v>
       </c>
       <c r="H89" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I89" t="n">
-        <v>5340989</v>
+        <v>5500282</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>39963850</v>
+        <v>38535591</v>
       </c>
       <c r="E90" t="n">
-        <v>46676827</v>
+        <v>45008655</v>
       </c>
       <c r="F90" t="n">
-        <v>246.3195119846158</v>
+        <v>1062.233484690638</v>
       </c>
       <c r="G90" t="n">
-        <v>44.52098698283036</v>
+        <v>117.229561170275</v>
       </c>
       <c r="H90" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="I90" t="n">
-        <v>964092</v>
+        <v>951937</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14249079</v>
+        <v>14206698</v>
       </c>
       <c r="F91" t="n">
-        <v>168.8230069981427</v>
+        <v>184.7648458653205</v>
       </c>
       <c r="G91" t="n">
-        <v>122.858570994772</v>
+        <v>125.8522355264342</v>
       </c>
       <c r="H91" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="I91" t="n">
-        <v>217502</v>
+        <v>222183</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34924083</v>
+        <v>34621551</v>
       </c>
       <c r="E92" t="n">
-        <v>34924083</v>
+        <v>34621551</v>
       </c>
       <c r="F92" t="n">
-        <v>112.9253642186007</v>
+        <v>33.25729851915963</v>
       </c>
       <c r="G92" t="n">
-        <v>825.9558532628117</v>
+        <v>751.7411279975513</v>
       </c>
       <c r="H92" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I92" t="n">
-        <v>894519</v>
+        <v>904285</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17116553</v>
+        <v>17106622</v>
       </c>
       <c r="F93" t="n">
-        <v>266.2909562199883</v>
+        <v>266.4326215416263</v>
       </c>
       <c r="G93" t="n">
-        <v>200.5531246384118</v>
+        <v>288.647372341156</v>
       </c>
       <c r="H93" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>176937</v>
+        <v>176796</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>534985</v>
+        <v>534668</v>
       </c>
       <c r="E94" t="n">
-        <v>6488851</v>
+        <v>6484999</v>
       </c>
       <c r="F94" t="n">
-        <v>727.9080133115984</v>
+        <v>642.346194252135</v>
       </c>
       <c r="G94" t="n">
-        <v>433.3878816240254</v>
+        <v>637.7164139825633</v>
       </c>
       <c r="H94" t="n">
-        <v>1.03</v>
+        <v>0.3</v>
       </c>
       <c r="I94" t="n">
-        <v>2851919</v>
+        <v>2867491</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24928580</v>
+        <v>24762291</v>
       </c>
       <c r="E95" t="n">
-        <v>35228103</v>
+        <v>34993109</v>
       </c>
       <c r="F95" t="n">
-        <v>5.351130570788293</v>
+        <v>5.351090520974338</v>
       </c>
       <c r="G95" t="n">
-        <v>2357.43539140766</v>
+        <v>2357.390041432118</v>
       </c>
       <c r="H95" t="n">
         <v>0.84</v>
       </c>
       <c r="I95" t="n">
-        <v>140951</v>
+        <v>125465</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1384190984</v>
+        <v>1376498244</v>
       </c>
       <c r="E96" t="n">
-        <v>6637479245</v>
+        <v>6600590979</v>
       </c>
       <c r="F96" t="n">
-        <v>275112.7324048066</v>
+        <v>70323.75748380671</v>
       </c>
       <c r="G96" t="n">
-        <v>322201.7010142796</v>
+        <v>78543.51932132349</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="I96" t="n">
-        <v>478228586</v>
+        <v>486231273</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>259424066</v>
+        <v>256721173</v>
       </c>
       <c r="E97" t="n">
-        <v>1119818285</v>
+        <v>1108151099</v>
       </c>
       <c r="F97" t="n">
-        <v>247383.283374551</v>
+        <v>253046.2355290881</v>
       </c>
       <c r="G97" t="n">
-        <v>658548.3705371991</v>
+        <v>821386.1338652079</v>
       </c>
       <c r="H97" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>142813891</v>
+        <v>141861833</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4786814</v>
+        <v>4748406</v>
       </c>
       <c r="E98" t="n">
-        <v>5304744</v>
+        <v>5262180</v>
       </c>
       <c r="F98" t="n">
-        <v>335.127560144503</v>
+        <v>305.1916296110737</v>
       </c>
       <c r="G98" t="n">
-        <v>506.258860164777</v>
+        <v>504.0972919453914</v>
       </c>
       <c r="H98" t="n">
-        <v>0.79</v>
+        <v>0.38</v>
       </c>
       <c r="I98" t="n">
-        <v>732979</v>
+        <v>736967</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>92049</v>
+        <v>94016</v>
       </c>
       <c r="E99" t="n">
-        <v>92049</v>
+        <v>94016</v>
       </c>
       <c r="F99" t="n">
-        <v>5.190849472925803</v>
+        <v>3.965508500043486</v>
       </c>
       <c r="G99" t="n">
-        <v>171.4203440380878</v>
+        <v>51.86606604300174</v>
       </c>
       <c r="H99" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="I99" t="n">
-        <v>1191.17</v>
+        <v>1344.28</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112174198</v>
+        <v>112020772</v>
       </c>
       <c r="E100" t="n">
-        <v>112174198</v>
+        <v>112020772</v>
       </c>
       <c r="F100" t="n">
-        <v>6878.198845045757</v>
+        <v>25531.60669099268</v>
       </c>
       <c r="G100" t="n">
-        <v>17556.92731591819</v>
+        <v>15038.86148445608</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>7028418</v>
+        <v>7037810</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3820553</v>
+        <v>3882905</v>
       </c>
       <c r="F101" t="n">
-        <v>116.6321483420664</v>
+        <v>87.7058664485307</v>
       </c>
       <c r="G101" t="n">
-        <v>1.100453901287294</v>
+        <v>108.7759941979305</v>
       </c>
       <c r="H101" t="n">
-        <v>3.59</v>
+        <v>3.43</v>
       </c>
       <c r="I101" t="n">
-        <v>356552</v>
+        <v>358213</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043305079</v>
+        <v>2042340652</v>
       </c>
       <c r="E102" t="n">
-        <v>2043305079</v>
+        <v>2042340652</v>
       </c>
       <c r="F102" t="n">
-        <v>10330868.99031877</v>
+        <v>12144587.86492233</v>
       </c>
       <c r="G102" t="n">
-        <v>4060316.037423994</v>
+        <v>4008934.853575365</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>5720340797</v>
+        <v>9022827892</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5322116</v>
+        <v>5315073</v>
       </c>
       <c r="E103" t="n">
-        <v>5328139</v>
+        <v>5321088</v>
       </c>
       <c r="F103" t="n">
-        <v>236.8271625814724</v>
+        <v>236.7407738064113</v>
       </c>
       <c r="G103" t="n">
-        <v>100.2168789473591</v>
+        <v>100.1609266796269</v>
       </c>
       <c r="H103" t="n">
         <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>145598</v>
+        <v>145533</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2386208</v>
+        <v>2523308</v>
       </c>
       <c r="F104" t="n">
-        <v>72.54389344420265</v>
+        <v>3.996109852502861</v>
       </c>
       <c r="G104" t="n">
-        <v>230.866404479927</v>
+        <v>216.9137934267771</v>
       </c>
       <c r="H104" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="I104" t="n">
-        <v>42670</v>
+        <v>24892</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4160785</v>
+        <v>4140143</v>
       </c>
       <c r="E105" t="n">
-        <v>5462568</v>
+        <v>5435467</v>
       </c>
       <c r="F105" t="n">
-        <v>486.4115820980155</v>
+        <v>490.0699220087025</v>
       </c>
       <c r="G105" t="n">
-        <v>2101.800243823565</v>
+        <v>2099.966151505254</v>
       </c>
       <c r="H105" t="n">
         <v>0.28</v>
       </c>
       <c r="I105" t="n">
-        <v>589376</v>
+        <v>574553</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19509708</v>
+        <v>19435133</v>
       </c>
       <c r="F106" t="n">
-        <v>88.36802444826296</v>
+        <v>248.5175329790897</v>
       </c>
       <c r="G106" t="n">
-        <v>1104.828732977003</v>
+        <v>123.9202730764007</v>
       </c>
       <c r="H106" t="n">
         <v>1.03</v>
       </c>
       <c r="I106" t="n">
-        <v>61117</v>
+        <v>67216</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1561804</v>
+        <v>1559480</v>
       </c>
       <c r="E107" t="n">
-        <v>5822357</v>
+        <v>5813671</v>
       </c>
       <c r="F107" t="n">
-        <v>139.5503425330515</v>
+        <v>139.3519287200064</v>
       </c>
       <c r="G107" t="n">
-        <v>169.0943895100143</v>
+        <v>159.8051411386295</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>693951</v>
+        <v>714870</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4155014</v>
+        <v>4143739</v>
       </c>
       <c r="E108" t="n">
-        <v>11967808</v>
+        <v>11934474</v>
       </c>
       <c r="F108" t="n">
-        <v>1769.857085147502</v>
+        <v>871.9252180645711</v>
       </c>
       <c r="G108" t="n">
-        <v>266.8199571268581</v>
+        <v>480.267584600905</v>
       </c>
       <c r="H108" t="n">
-        <v>0.83</v>
+        <v>1.16</v>
       </c>
       <c r="I108" t="n">
-        <v>502756</v>
+        <v>491053</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>77997704</v>
+        <v>77772442</v>
       </c>
       <c r="E109" t="n">
-        <v>99258140</v>
+        <v>98971477</v>
       </c>
       <c r="F109" t="n">
-        <v>4884.921821720412</v>
+        <v>4458.760772591943</v>
       </c>
       <c r="G109" t="n">
-        <v>470.3168497972162</v>
+        <v>152.9675564856995</v>
       </c>
       <c r="H109" t="n">
-        <v>0.75</v>
+        <v>1.06</v>
       </c>
       <c r="I109" t="n">
-        <v>6525303</v>
+        <v>6477219</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21908448</v>
+        <v>21854307</v>
       </c>
       <c r="E110" t="n">
-        <v>28420268</v>
+        <v>28350035</v>
       </c>
       <c r="F110" t="n">
-        <v>15954.8035976414</v>
+        <v>21320.26300645422</v>
       </c>
       <c r="G110" t="n">
-        <v>17626.4785127134</v>
+        <v>13749.75634275846</v>
       </c>
       <c r="H110" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="I110" t="n">
-        <v>223039</v>
+        <v>203160</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>599905</v>
+        <v>599367</v>
       </c>
       <c r="E111" t="n">
-        <v>599905</v>
+        <v>599367</v>
       </c>
       <c r="F111" t="n">
-        <v>5.627245682717984</v>
+        <v>5.626932107606528</v>
       </c>
       <c r="G111" t="n">
-        <v>533.8424704906002</v>
+        <v>567.8837542753489</v>
       </c>
       <c r="H111" t="n">
         <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>67361</v>
+        <v>65685</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13423332</v>
+        <v>13459578</v>
       </c>
       <c r="E112" t="n">
-        <v>13423332</v>
+        <v>13459578</v>
       </c>
       <c r="F112" t="n">
-        <v>2383.711169819052</v>
+        <v>1895.328678456413</v>
       </c>
       <c r="G112" t="n">
-        <v>3856.607230341344</v>
+        <v>1753.86577691553</v>
       </c>
       <c r="H112" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I112" t="n">
-        <v>5414860</v>
+        <v>5471136</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>97560552</v>
+        <v>98054233</v>
       </c>
       <c r="E113" t="n">
-        <v>120678912</v>
+        <v>121289576</v>
       </c>
       <c r="F113" t="n">
-        <v>485.4046619571333</v>
+        <v>402.008134595399</v>
       </c>
       <c r="G113" t="n">
-        <v>238.8973663188214</v>
+        <v>254.549211236819</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I113" t="n">
-        <v>1094300</v>
+        <v>1100874</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>881268</v>
+        <v>861446</v>
       </c>
       <c r="F114" t="n">
-        <v>41.89768439026637</v>
+        <v>175.8833585417584</v>
       </c>
       <c r="G114" t="n">
-        <v>161.4353675018175</v>
+        <v>149.8990030197735</v>
       </c>
       <c r="H114" t="n">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I114" t="n">
-        <v>43570</v>
+        <v>43008</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2703231</v>
+        <v>2620635</v>
       </c>
       <c r="F115" t="n">
-        <v>400.6875525660469</v>
+        <v>308.7825817824418</v>
       </c>
       <c r="G115" t="n">
-        <v>111.0325387012615</v>
+        <v>289.5713780671019</v>
       </c>
       <c r="H115" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="I115" t="n">
-        <v>72578</v>
+        <v>70741</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10844238</v>
+        <v>10843073</v>
       </c>
       <c r="E116" t="n">
-        <v>15947407</v>
+        <v>15945694</v>
       </c>
       <c r="F116" t="n">
-        <v>3892.953084953132</v>
+        <v>3423.27653022284</v>
       </c>
       <c r="G116" t="n">
-        <v>4057.750059877506</v>
+        <v>1706.148868880339</v>
       </c>
       <c r="H116" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="I116" t="n">
-        <v>481743</v>
+        <v>410451</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3172673</v>
+        <v>3160211</v>
       </c>
       <c r="F117" t="n">
-        <v>5.289286649628252</v>
+        <v>68.70800068453237</v>
       </c>
       <c r="G117" t="n">
-        <v>163.9545341718154</v>
+        <v>152.251769001393</v>
       </c>
       <c r="H117" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="I117" t="n">
-        <v>35321</v>
+        <v>34788</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1091919</v>
+        <v>1127233</v>
       </c>
       <c r="F118" t="n">
-        <v>3.899786282937116</v>
+        <v>3.899505665359597</v>
       </c>
       <c r="G118" t="n">
-        <v>47.38929115431461</v>
+        <v>47.38588115511996</v>
       </c>
       <c r="H118" t="n">
         <v>0.53</v>
       </c>
       <c r="I118" t="n">
-        <v>3735.02</v>
+        <v>3721.78</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4992126</v>
+        <v>4964593</v>
       </c>
       <c r="E119" t="n">
-        <v>6984709</v>
+        <v>6946185</v>
       </c>
       <c r="F119" t="n">
-        <v>764.3148769608478</v>
+        <v>378.0801878942073</v>
       </c>
       <c r="G119" t="n">
-        <v>876.2837741740933</v>
+        <v>1738.228544110236</v>
       </c>
       <c r="H119" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I119" t="n">
-        <v>69744</v>
+        <v>66540</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9863121</v>
+        <v>9701602</v>
       </c>
       <c r="E120" t="n">
-        <v>27167545</v>
+        <v>26722649</v>
       </c>
       <c r="F120" t="n">
-        <v>14.30488772621035</v>
+        <v>44.43794743492059</v>
       </c>
       <c r="G120" t="n">
-        <v>75.03646778480875</v>
+        <v>93.05389140232028</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="I120" t="n">
-        <v>330100</v>
+        <v>333687</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>49249161</v>
+        <v>49008533</v>
       </c>
       <c r="E121" t="n">
-        <v>125465053</v>
+        <v>124852039</v>
       </c>
       <c r="F121" t="n">
-        <v>1759.672836614957</v>
+        <v>1745.280433149572</v>
       </c>
       <c r="G121" t="n">
-        <v>10894.78231923544</v>
+        <v>11665.05980667321</v>
       </c>
       <c r="H121" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="I121" t="n">
-        <v>2206425</v>
+        <v>2173457</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14146133</v>
+        <v>13701332</v>
       </c>
       <c r="E122" t="n">
-        <v>68511978</v>
+        <v>66357736</v>
       </c>
       <c r="F122" t="n">
-        <v>3489.311915087142</v>
+        <v>426.3763739924797</v>
       </c>
       <c r="G122" t="n">
-        <v>915.9330695641418</v>
+        <v>2285.532959370067</v>
       </c>
       <c r="H122" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I122" t="n">
-        <v>5438017</v>
+        <v>5467177</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>622707</v>
+        <v>637672</v>
       </c>
       <c r="F123" t="n">
-        <v>4.023744165436602</v>
+        <v>4.017838286262402</v>
       </c>
       <c r="G123" t="n">
-        <v>1015.339340573119</v>
+        <v>609.9545276083364</v>
       </c>
       <c r="H123" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="I123" t="n">
-        <v>9782.9</v>
+        <v>11463.81</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4469234</v>
+        <v>4460138</v>
       </c>
       <c r="E124" t="n">
-        <v>10187422</v>
+        <v>10166687</v>
       </c>
       <c r="F124" t="n">
-        <v>730.1819958171018</v>
+        <v>258.8472422938269</v>
       </c>
       <c r="G124" t="n">
-        <v>1814.170395591947</v>
+        <v>3337.888756326929</v>
       </c>
       <c r="H124" t="n">
-        <v>1.85</v>
+        <v>0.79</v>
       </c>
       <c r="I124" t="n">
-        <v>64788</v>
+        <v>65491</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1843558634</v>
+        <v>1837177035</v>
       </c>
       <c r="F125" t="n">
-        <v>74508.54677237874</v>
+        <v>78646.41559313494</v>
       </c>
       <c r="G125" t="n">
-        <v>78103.18003408075</v>
+        <v>80798.18061696895</v>
       </c>
       <c r="H125" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I125" t="n">
-        <v>30593703</v>
+        <v>30814735</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9213305</v>
+        <v>9237156</v>
       </c>
       <c r="E126" t="n">
-        <v>33520819</v>
+        <v>33607608</v>
       </c>
       <c r="F126" t="n">
-        <v>3.991793090679461</v>
+        <v>2042.987495760316</v>
       </c>
       <c r="G126" t="n">
-        <v>5.145618757254508</v>
+        <v>5.499593704985786</v>
       </c>
       <c r="H126" t="n">
-        <v>1.08</v>
+        <v>0.33</v>
       </c>
       <c r="I126" t="n">
-        <v>147107</v>
+        <v>147902</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>632273</v>
+        <v>630567</v>
       </c>
       <c r="F127" t="n">
-        <v>23.85686008982985</v>
+        <v>16.99066415336474</v>
       </c>
       <c r="G127" t="n">
-        <v>8.886037539734753</v>
+        <v>11.05026709719154</v>
       </c>
       <c r="H127" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="I127" t="n">
-        <v>621.3099999999999</v>
+        <v>648.14</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11836887</v>
+        <v>11599921</v>
       </c>
       <c r="E128" t="n">
-        <v>17161778</v>
+        <v>16818212</v>
       </c>
       <c r="F128" t="n">
-        <v>1476.338188518946</v>
+        <v>977.9845923659802</v>
       </c>
       <c r="G128" t="n">
-        <v>346.7094626136187</v>
+        <v>1196.376609338468</v>
       </c>
       <c r="H128" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="I128" t="n">
-        <v>2046259</v>
+        <v>1778173</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>29417710</v>
+        <v>29709805</v>
       </c>
       <c r="E129" t="n">
-        <v>91597310</v>
+        <v>92506799</v>
       </c>
       <c r="F129" t="n">
-        <v>11781.48233733128</v>
+        <v>9671.902746647915</v>
       </c>
       <c r="G129" t="n">
-        <v>7491.729772976368</v>
+        <v>5250.823385403268</v>
       </c>
       <c r="H129" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I129" t="n">
-        <v>10386757</v>
+        <v>10561833</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1842292</v>
+        <v>1825478</v>
       </c>
       <c r="E130" t="n">
-        <v>13210893</v>
+        <v>13090319</v>
       </c>
       <c r="F130" t="n">
-        <v>4.068457972986562</v>
+        <v>4.06816521827187</v>
       </c>
       <c r="G130" t="n">
-        <v>4.012934789046161</v>
+        <v>4.012646029622555</v>
       </c>
       <c r="H130" t="n">
         <v>0.38</v>
       </c>
       <c r="I130" t="n">
-        <v>2050380</v>
+        <v>2050603</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8429403</v>
+        <v>8402452</v>
       </c>
       <c r="F131" t="n">
-        <v>120.2766925187702</v>
+        <v>127.3025489628439</v>
       </c>
       <c r="G131" t="n">
-        <v>163.1620314268308</v>
+        <v>191.4697720389147</v>
       </c>
       <c r="H131" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="I131" t="n">
-        <v>543871</v>
+        <v>537384</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>192366832</v>
+        <v>191110414</v>
       </c>
       <c r="E132" t="n">
-        <v>1089299199</v>
+        <v>1082184593</v>
       </c>
       <c r="F132" t="n">
-        <v>306977.5089082223</v>
+        <v>352438.8706736764</v>
       </c>
       <c r="G132" t="n">
-        <v>515575.062910875</v>
+        <v>625763.6675433421</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>85637078</v>
+        <v>85875751</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1006896</v>
+        <v>1008778</v>
       </c>
       <c r="E133" t="n">
-        <v>1006896</v>
+        <v>1008778</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5613.05</v>
+        <v>5531.96</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>489991</v>
+        <v>487739</v>
       </c>
       <c r="E134" t="n">
-        <v>1649242</v>
+        <v>1641661</v>
       </c>
       <c r="F134" t="n">
-        <v>416.0118108014244</v>
+        <v>244.1746964570487</v>
       </c>
       <c r="G134" t="n">
-        <v>151.6160438574738</v>
+        <v>197.9721524470069</v>
       </c>
       <c r="H134" t="n">
         <v>1.19</v>
       </c>
       <c r="I134" t="n">
-        <v>229855</v>
+        <v>641072</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15373972</v>
+        <v>15362134</v>
       </c>
       <c r="F135" t="n">
-        <v>5.515737255012858</v>
+        <v>5.515420125865381</v>
       </c>
       <c r="G135" t="n">
-        <v>5.309494831411284</v>
+        <v>5.309189560240528</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>199.51</v>
+        <v>199.21</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>123526834</v>
+        <v>122854097</v>
       </c>
       <c r="E136" t="n">
-        <v>915013584</v>
+        <v>910030351</v>
       </c>
       <c r="F136" t="n">
-        <v>435.3831107713064</v>
+        <v>718.0208064341184</v>
       </c>
       <c r="G136" t="n">
-        <v>1389.500458077841</v>
+        <v>1448.617191296271</v>
       </c>
       <c r="H136" t="n">
-        <v>1.67</v>
+        <v>2.09</v>
       </c>
       <c r="I136" t="n">
-        <v>26318005</v>
+        <v>26255919</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>30220248</v>
+        <v>29921282</v>
       </c>
       <c r="E137" t="n">
-        <v>143354858</v>
+        <v>141936663</v>
       </c>
       <c r="F137" t="n">
-        <v>823.6281155152016</v>
+        <v>1043.786695126506</v>
       </c>
       <c r="G137" t="n">
-        <v>997.6938969099493</v>
+        <v>903.0306316017799</v>
       </c>
       <c r="H137" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="I137" t="n">
-        <v>770094</v>
+        <v>714113</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8620358</v>
+        <v>8736656</v>
       </c>
       <c r="E138" t="n">
-        <v>11548406</v>
+        <v>11704206</v>
       </c>
       <c r="F138" t="n">
-        <v>973.2775474812958</v>
+        <v>653.2735700329326</v>
       </c>
       <c r="G138" t="n">
-        <v>240.2390622364611</v>
+        <v>48.87986707061464</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06</v>
+        <v>0.99</v>
       </c>
       <c r="I138" t="n">
-        <v>83146</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1169076</v>
+        <v>1166140</v>
       </c>
       <c r="F139" t="n">
-        <v>4.109506805560188</v>
+        <v>4.109110676953612</v>
       </c>
       <c r="G139" t="n">
-        <v>25.20737719817468</v>
+        <v>25.07697014132937</v>
       </c>
       <c r="H139" t="n">
         <v>0.6</v>
       </c>
       <c r="I139" t="n">
-        <v>5872.28</v>
+        <v>6004.91</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2465044</v>
+        <v>2466237</v>
       </c>
       <c r="E140" t="n">
-        <v>2465044</v>
+        <v>2466237</v>
       </c>
       <c r="F140" t="n">
-        <v>1230.486438225092</v>
+        <v>1301.643873976599</v>
       </c>
       <c r="G140" t="n">
-        <v>293.7854537504911</v>
+        <v>230.5618536124058</v>
       </c>
       <c r="H140" t="n">
         <v>0.22</v>
       </c>
       <c r="I140" t="n">
-        <v>318533</v>
+        <v>318212</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>34245022</v>
+        <v>34986794</v>
       </c>
       <c r="E141" t="n">
-        <v>34245022</v>
+        <v>34986794</v>
       </c>
       <c r="F141" t="n">
-        <v>1406.737765770964</v>
+        <v>1187.598228942979</v>
       </c>
       <c r="G141" t="n">
-        <v>555.2502984628541</v>
+        <v>2205.727770244401</v>
       </c>
       <c r="H141" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="I141" t="n">
-        <v>969949</v>
+        <v>979169</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6290503</v>
+        <v>6346252</v>
       </c>
       <c r="E142" t="n">
-        <v>6643476</v>
+        <v>6702352</v>
       </c>
       <c r="F142" t="n">
-        <v>160.3966097452213</v>
+        <v>432.4774651488718</v>
       </c>
       <c r="G142" t="n">
-        <v>19.09767816124404</v>
+        <v>179.6828806669853</v>
       </c>
       <c r="H142" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="I142" t="n">
-        <v>27610</v>
+        <v>27794</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3269929</v>
+        <v>3259201</v>
       </c>
       <c r="E143" t="n">
-        <v>7635828</v>
+        <v>7610778</v>
       </c>
       <c r="F143" t="n">
-        <v>1421.377411890263</v>
+        <v>1476.882346977246</v>
       </c>
       <c r="G143" t="n">
-        <v>339.1828980105248</v>
+        <v>813.736908242107</v>
       </c>
       <c r="H143" t="n">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="I143" t="n">
-        <v>631308</v>
+        <v>610787</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1533911</v>
+        <v>1524193</v>
       </c>
       <c r="E144" t="n">
-        <v>11912529</v>
+        <v>11837054</v>
       </c>
       <c r="F144" t="n">
-        <v>200.2613423809352</v>
+        <v>199.8629888918033</v>
       </c>
       <c r="G144" t="n">
-        <v>3090.474728887467</v>
+        <v>8337.098560487881</v>
       </c>
       <c r="H144" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="I144" t="n">
-        <v>517856</v>
+        <v>519626</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>321245967</v>
+        <v>320480016</v>
       </c>
       <c r="E145" t="n">
-        <v>2890127914</v>
+        <v>2883236947</v>
       </c>
       <c r="F145" t="n">
-        <v>538082.1432589737</v>
+        <v>662650.992432792</v>
       </c>
       <c r="G145" t="n">
-        <v>649276.7282638341</v>
+        <v>803503.9267380483</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>66115757</v>
+        <v>67197445</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>249629</v>
+        <v>246682</v>
       </c>
       <c r="E146" t="n">
-        <v>2203166</v>
+        <v>2177152</v>
       </c>
       <c r="F146" t="n">
-        <v>19.90868714438596</v>
+        <v>4.076319966972405</v>
       </c>
       <c r="G146" t="n">
-        <v>5.270997739790208</v>
+        <v>16.04926489407219</v>
       </c>
       <c r="H146" t="n">
-        <v>0.46</v>
+        <v>1.01</v>
       </c>
       <c r="I146" t="n">
-        <v>70171</v>
+        <v>71567</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>628776</v>
+        <v>623486</v>
       </c>
       <c r="F147" t="n">
-        <v>552.4237526025723</v>
+        <v>552.0493196410897</v>
       </c>
       <c r="G147" t="n">
-        <v>548.409516463377</v>
+        <v>435.0105416195052</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>15559.24</v>
+        <v>16115.36</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4758283</v>
+        <v>4717242</v>
       </c>
       <c r="E148" t="n">
-        <v>16810999</v>
+        <v>16666001</v>
       </c>
       <c r="F148" t="n">
-        <v>1667.837660271583</v>
+        <v>356.2625251790848</v>
       </c>
       <c r="G148" t="n">
-        <v>1980.425158585725</v>
+        <v>1916.671347785866</v>
       </c>
       <c r="H148" t="n">
         <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>142483</v>
+        <v>152312</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9440336</v>
+        <v>9396682</v>
       </c>
       <c r="E149" t="n">
-        <v>43756500</v>
+        <v>43554162</v>
       </c>
       <c r="F149" t="n">
-        <v>2311.525924789442</v>
+        <v>2369.738501712058</v>
       </c>
       <c r="G149" t="n">
-        <v>2727.974280260397</v>
+        <v>1385.863104522069</v>
       </c>
       <c r="H149" t="n">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="I149" t="n">
-        <v>119203</v>
+        <v>117672</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46915780</v>
+        <v>46655497</v>
       </c>
       <c r="E150" t="n">
-        <v>271622981</v>
+        <v>270116052</v>
       </c>
       <c r="F150" t="n">
-        <v>45699.12229602388</v>
+        <v>40869.13961437546</v>
       </c>
       <c r="G150" t="n">
-        <v>39908.41810859757</v>
+        <v>52420.85758192163</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I150" t="n">
-        <v>51952153</v>
+        <v>51749330</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>80023</v>
+        <v>79812</v>
       </c>
       <c r="E151" t="n">
-        <v>80023</v>
+        <v>79812</v>
       </c>
       <c r="F151" t="n">
-        <v>9.876500779412622</v>
+        <v>9.869515740357592</v>
       </c>
       <c r="G151" t="n">
-        <v>10.540929204309</v>
+        <v>10.59039538628908</v>
       </c>
       <c r="H151" t="n">
         <v>0.76</v>
       </c>
       <c r="I151" t="n">
-        <v>20989</v>
+        <v>20114</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4190583</v>
+        <v>4140199</v>
       </c>
       <c r="F152" t="n">
-        <v>383.5965014189543</v>
+        <v>353.4911622689341</v>
       </c>
       <c r="G152" t="n">
-        <v>332.3559350653409</v>
+        <v>399.8449853011645</v>
       </c>
       <c r="H152" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="I152" t="n">
-        <v>297728</v>
+        <v>269074</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39000245</v>
+        <v>38737773</v>
       </c>
       <c r="E153" t="n">
-        <v>53864891</v>
+        <v>53502381</v>
       </c>
       <c r="F153" t="n">
-        <v>852.4715034850866</v>
+        <v>4782.061748634789</v>
       </c>
       <c r="G153" t="n">
-        <v>1547.244263306638</v>
+        <v>14450.30036832137</v>
       </c>
       <c r="H153" t="n">
         <v>0.47</v>
       </c>
       <c r="I153" t="n">
-        <v>314191</v>
+        <v>315571</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2138265</v>
+        <v>2089283</v>
       </c>
       <c r="E154" t="n">
-        <v>8732119</v>
+        <v>8532092</v>
       </c>
       <c r="F154" t="n">
-        <v>1624.143464806077</v>
+        <v>1155.437083334625</v>
       </c>
       <c r="G154" t="n">
-        <v>702.3581690275399</v>
+        <v>307.5452691250762</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
       <c r="I154" t="n">
-        <v>218761</v>
+        <v>217402</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7276713</v>
+        <v>7248879</v>
       </c>
       <c r="E155" t="n">
-        <v>7330803</v>
+        <v>7302762</v>
       </c>
       <c r="F155" t="n">
-        <v>955.5649410298685</v>
+        <v>1266.884677677867</v>
       </c>
       <c r="G155" t="n">
-        <v>6516.151021848103</v>
+        <v>2797.630040138264</v>
       </c>
       <c r="H155" t="n">
         <v>0.17</v>
       </c>
       <c r="I155" t="n">
-        <v>5820866</v>
+        <v>5882760</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>499873</v>
+        <v>518872</v>
       </c>
       <c r="E156" t="n">
-        <v>499873</v>
+        <v>518872</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>8659.790000000001</v>
+        <v>9258.84</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13443046</v>
+        <v>13303870</v>
       </c>
       <c r="E157" t="n">
-        <v>13488794</v>
+        <v>13349144</v>
       </c>
       <c r="F157" t="n">
-        <v>3066.487811436564</v>
+        <v>2972.664752932012</v>
       </c>
       <c r="G157" t="n">
-        <v>4044.793679107413</v>
+        <v>2597.075618217201</v>
       </c>
       <c r="H157" t="n">
-        <v>0.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I157" t="n">
-        <v>6133395</v>
+        <v>6874804</v>
       </c>
     </row>
     <row r="158">
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42214090</v>
+        <v>42167643</v>
       </c>
       <c r="E158" t="n">
-        <v>71669704</v>
+        <v>71590849</v>
       </c>
       <c r="F158" t="n">
         <v>324.6140663833679</v>
@@ -5954,7 +5954,7 @@
         <v>0.08</v>
       </c>
       <c r="I158" t="n">
-        <v>1136601</v>
+        <v>1125627</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19608723</v>
+        <v>19396989</v>
       </c>
       <c r="E159" t="n">
-        <v>58790651</v>
+        <v>58157459</v>
       </c>
       <c r="F159" t="n">
-        <v>1759.79794746992</v>
+        <v>1471.977725422294</v>
       </c>
       <c r="G159" t="n">
-        <v>4285.678863920013</v>
+        <v>4762.025317898151</v>
       </c>
       <c r="H159" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I159" t="n">
-        <v>4373198</v>
+        <v>4333918</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>99688764</v>
+        <v>99840564</v>
       </c>
       <c r="E160" t="n">
-        <v>105978165</v>
+        <v>106139543</v>
       </c>
       <c r="F160" t="n">
-        <v>426.9935460353163</v>
+        <v>355.4989363293615</v>
       </c>
       <c r="G160" t="n">
-        <v>1378.640514968899</v>
+        <v>1314.35373241329</v>
       </c>
       <c r="H160" t="n">
-        <v>0.86</v>
+        <v>2.14</v>
       </c>
       <c r="I160" t="n">
-        <v>733678</v>
+        <v>1811310</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10417829</v>
+        <v>10397450</v>
       </c>
       <c r="E161" t="n">
-        <v>45218044</v>
+        <v>45128117</v>
       </c>
       <c r="F161" t="n">
-        <v>4322.803285450749</v>
+        <v>3595.556299850186</v>
       </c>
       <c r="G161" t="n">
-        <v>5395.043668499311</v>
+        <v>4035.79573878073</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I161" t="n">
-        <v>120991</v>
+        <v>118850</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15014626</v>
+        <v>15065410</v>
       </c>
       <c r="E162" t="n">
-        <v>92029581</v>
+        <v>92340851</v>
       </c>
       <c r="F162" t="n">
-        <v>1940.302125695783</v>
+        <v>2468.806790441424</v>
       </c>
       <c r="G162" t="n">
-        <v>1589.61083929357</v>
+        <v>1241.833412525901</v>
       </c>
       <c r="H162" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I162" t="n">
-        <v>12230303</v>
+        <v>12261002</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1436745</v>
+        <v>1432459</v>
       </c>
       <c r="E163" t="n">
-        <v>1477159</v>
+        <v>1472752</v>
       </c>
       <c r="F163" t="n">
-        <v>72.10427304114577</v>
+        <v>59.58930841672838</v>
       </c>
       <c r="G163" t="n">
-        <v>52.2591975756462</v>
+        <v>148.5596627449779</v>
       </c>
       <c r="H163" t="n">
-        <v>0.98</v>
+        <v>1.54</v>
       </c>
       <c r="I163" t="n">
-        <v>92684</v>
+        <v>85749</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>73723</v>
+        <v>70857</v>
       </c>
       <c r="E164" t="n">
-        <v>209136</v>
+        <v>201004</v>
       </c>
       <c r="F164" t="n">
-        <v>3.826894838538138</v>
+        <v>5.423314963307133</v>
       </c>
       <c r="G164" t="n">
-        <v>5.22511658865591</v>
+        <v>4.161384912362259</v>
       </c>
       <c r="H164" t="n">
-        <v>0.99</v>
+        <v>0.54</v>
       </c>
       <c r="I164" t="n">
-        <v>437.1</v>
+        <v>424.16</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50695186</v>
+        <v>50138929</v>
       </c>
       <c r="E165" t="n">
-        <v>218389316</v>
+        <v>215993025</v>
       </c>
       <c r="F165" t="n">
-        <v>5317.832288486532</v>
+        <v>5848.130187287908</v>
       </c>
       <c r="G165" t="n">
-        <v>6946.178200873729</v>
+        <v>7615.146330478974</v>
       </c>
       <c r="H165" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>12757382</v>
+        <v>13096870</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7405213</v>
+        <v>7592615</v>
       </c>
       <c r="F166" t="n">
-        <v>224.5158987250497</v>
+        <v>236.2417423076006</v>
       </c>
       <c r="G166" t="n">
-        <v>389.4282440831563</v>
+        <v>428.880943324619</v>
       </c>
       <c r="H166" t="n">
         <v>0.48</v>
       </c>
       <c r="I166" t="n">
-        <v>7181750</v>
+        <v>7180590</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>660275</v>
+        <v>659295</v>
       </c>
       <c r="E167" t="n">
-        <v>2383238</v>
+        <v>2379700</v>
       </c>
       <c r="F167" t="n">
-        <v>50.53308226579593</v>
+        <v>50.53176454385402</v>
       </c>
       <c r="G167" t="n">
-        <v>10.54450134740008</v>
+        <v>10.54389508778903</v>
       </c>
       <c r="H167" t="n">
         <v>1.33</v>
       </c>
       <c r="I167" t="n">
-        <v>401644</v>
+        <v>402845</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1611082</v>
+        <v>1547618</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>5.16</v>
+        <v>4.39</v>
       </c>
       <c r="I168" t="n">
-        <v>87304</v>
+        <v>86213</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12545495</v>
+        <v>12486906</v>
       </c>
       <c r="E169" t="n">
-        <v>12545495</v>
+        <v>12486906</v>
       </c>
       <c r="F169" t="n">
-        <v>74.61473920048128</v>
+        <v>109.5079458003575</v>
       </c>
       <c r="G169" t="n">
-        <v>35.97650353210602</v>
+        <v>653.3324445817085</v>
       </c>
       <c r="H169" t="n">
-        <v>3.69</v>
+        <v>1.03</v>
       </c>
       <c r="I169" t="n">
-        <v>3419933</v>
+        <v>3187916</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2220656</v>
+        <v>2259914</v>
       </c>
       <c r="E170" t="n">
-        <v>8060749</v>
+        <v>8203144</v>
       </c>
       <c r="F170" t="n">
-        <v>135.2743538143891</v>
+        <v>152.9238695054548</v>
       </c>
       <c r="G170" t="n">
-        <v>1348.334935821651</v>
+        <v>116.6313921709847</v>
       </c>
       <c r="H170" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I170" t="n">
-        <v>217785</v>
+        <v>211063</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8862237</v>
+        <v>8771737</v>
       </c>
       <c r="E171" t="n">
-        <v>19655181</v>
+        <v>19454466</v>
       </c>
       <c r="F171" t="n">
-        <v>1569.442336925592</v>
+        <v>1686.658806825538</v>
       </c>
       <c r="G171" t="n">
-        <v>1509.509760833978</v>
+        <v>2024.681157298395</v>
       </c>
       <c r="H171" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="I171" t="n">
-        <v>330898</v>
+        <v>326414</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1021236</v>
+        <v>1017221</v>
       </c>
       <c r="E172" t="n">
-        <v>2984894</v>
+        <v>2973160</v>
       </c>
       <c r="F172" t="n">
-        <v>60.56270893615275</v>
+        <v>106.2485465934088</v>
       </c>
       <c r="G172" t="n">
-        <v>631.1522330101421</v>
+        <v>107.0546981257472</v>
       </c>
       <c r="H172" t="n">
-        <v>0.23</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I172" t="n">
-        <v>12934.35</v>
+        <v>13135.44</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20035446</v>
+        <v>19588019</v>
       </c>
       <c r="E173" t="n">
-        <v>80141784</v>
+        <v>78352075</v>
       </c>
       <c r="F173" t="n">
-        <v>9793.594037639032</v>
+        <v>1220.497251676408</v>
       </c>
       <c r="G173" t="n">
-        <v>11426.57951617955</v>
+        <v>11249.22543010482</v>
       </c>
       <c r="H173" t="n">
-        <v>0.13</v>
+        <v>1.38</v>
       </c>
       <c r="I173" t="n">
-        <v>3229167</v>
+        <v>3648802</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4530684</v>
+        <v>4478256</v>
       </c>
       <c r="E174" t="n">
-        <v>4530684</v>
+        <v>4478256</v>
       </c>
       <c r="F174" t="n">
-        <v>1787.372693189288</v>
+        <v>280.3199309339995</v>
       </c>
       <c r="G174" t="n">
-        <v>565.3572896754304</v>
+        <v>383.3379155320379</v>
       </c>
       <c r="H174" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I174" t="n">
-        <v>2789432</v>
+        <v>2872278</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>289141309</v>
+        <v>284106970</v>
       </c>
       <c r="E175" t="n">
-        <v>289141309</v>
+        <v>284106970</v>
       </c>
       <c r="F175" t="n">
-        <v>10332.90417372513</v>
+        <v>10155.1874450935</v>
       </c>
       <c r="G175" t="n">
-        <v>5342.064372463926</v>
+        <v>4121.722872092926</v>
       </c>
       <c r="H175" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="I175" t="n">
-        <v>19775255</v>
+        <v>19778973</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12621624</v>
+        <v>12626242</v>
       </c>
       <c r="E176" t="n">
-        <v>39920763</v>
+        <v>39935156</v>
       </c>
       <c r="F176" t="n">
-        <v>3446.952840685692</v>
+        <v>3642.279511485108</v>
       </c>
       <c r="G176" t="n">
-        <v>902.5276354920341</v>
+        <v>3072.61316637839</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I176" t="n">
-        <v>1024226</v>
+        <v>1005283</v>
       </c>
     </row>
     <row r="177">
@@ -6600,16 +6600,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24720</v>
+        <v>24703</v>
       </c>
       <c r="E177" t="n">
-        <v>194414</v>
+        <v>194285</v>
       </c>
       <c r="F177" t="n">
-        <v>65.30537248213845</v>
+        <v>65.36932441540017</v>
       </c>
       <c r="G177" t="n">
-        <v>432.1341225949603</v>
+        <v>419.7097386254811</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>7393785</v>
+        <v>7553274</v>
       </c>
       <c r="E178" t="n">
-        <v>7393785</v>
+        <v>7553274</v>
       </c>
       <c r="F178" t="n">
-        <v>482.6422810324842</v>
+        <v>1055.120679204939</v>
       </c>
       <c r="G178" t="n">
-        <v>1311.460228200008</v>
+        <v>2924.759945815182</v>
       </c>
       <c r="H178" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I178" t="n">
-        <v>3965448</v>
+        <v>4032634</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1096676</v>
+        <v>1094199</v>
       </c>
       <c r="E179" t="n">
-        <v>2497788</v>
+        <v>2492146</v>
       </c>
       <c r="F179" t="n">
-        <v>24.11092258453115</v>
+        <v>22.98823787782662</v>
       </c>
       <c r="G179" t="n">
-        <v>267.8383885509605</v>
+        <v>251.8997090175681</v>
       </c>
       <c r="H179" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I179" t="n">
-        <v>434.52</v>
+        <v>452.9</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>8990882</v>
+        <v>9134899</v>
       </c>
       <c r="E180" t="n">
-        <v>8990882</v>
+        <v>9134899</v>
       </c>
       <c r="F180" t="n">
-        <v>4557.321919883321</v>
+        <v>4042.555578197442</v>
       </c>
       <c r="G180" t="n">
-        <v>3450.531009658138</v>
+        <v>2474.173397861694</v>
       </c>
       <c r="H180" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="I180" t="n">
-        <v>2146917</v>
+        <v>2067028</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17554751</v>
+        <v>17328157</v>
       </c>
       <c r="E181" t="n">
-        <v>17554751</v>
+        <v>17328157</v>
       </c>
       <c r="F181" t="n">
-        <v>2437.617452378629</v>
+        <v>1722.83258826929</v>
       </c>
       <c r="G181" t="n">
-        <v>1987.923756474809</v>
+        <v>8921.798775124809</v>
       </c>
       <c r="H181" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I181" t="n">
-        <v>7077257</v>
+        <v>7090698</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31235210</v>
+        <v>31120944</v>
       </c>
       <c r="E182" t="n">
-        <v>86518432</v>
+        <v>86201927</v>
       </c>
       <c r="F182" t="n">
-        <v>1917.67418441464</v>
+        <v>2058.347207933567</v>
       </c>
       <c r="G182" t="n">
-        <v>2629.207725942567</v>
+        <v>2571.57334686593</v>
       </c>
       <c r="H182" t="n">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="I182" t="n">
-        <v>12504280</v>
+        <v>12380819</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>31035132</v>
+        <v>30843297</v>
       </c>
       <c r="E183" t="n">
-        <v>78255703</v>
+        <v>77771988</v>
       </c>
       <c r="F183" t="n">
-        <v>1506.67129587051</v>
+        <v>1042.420102752363</v>
       </c>
       <c r="G183" t="n">
-        <v>2587.37836093244</v>
+        <v>7401.051388921394</v>
       </c>
       <c r="H183" t="n">
-        <v>1.38</v>
+        <v>0.95</v>
       </c>
       <c r="I183" t="n">
-        <v>6011241</v>
+        <v>6081988</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>298590650</v>
+        <v>297463057</v>
       </c>
       <c r="E184" t="n">
-        <v>303260887</v>
+        <v>302114782</v>
       </c>
       <c r="F184" t="n">
-        <v>13221.93986652582</v>
+        <v>13913.44965390472</v>
       </c>
       <c r="G184" t="n">
-        <v>39825.43692666687</v>
+        <v>32665.82810110021</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>24897731</v>
+        <v>25030331</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>394965</v>
+        <v>392219</v>
       </c>
       <c r="F185" t="n">
-        <v>10.65377019624598</v>
+        <v>92.85403248219255</v>
       </c>
       <c r="G185" t="n">
-        <v>464.7865954609702</v>
+        <v>6.319092044974017</v>
       </c>
       <c r="H185" t="n">
-        <v>1.26</v>
+        <v>2.49</v>
       </c>
       <c r="I185" t="n">
-        <v>69214</v>
+        <v>69057</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27217456</v>
+        <v>27599688</v>
       </c>
       <c r="E186" t="n">
-        <v>64564852</v>
+        <v>65471578</v>
       </c>
       <c r="F186" t="n">
-        <v>2333.297985343124</v>
+        <v>2280.998672452921</v>
       </c>
       <c r="G186" t="n">
-        <v>3295.465190156273</v>
+        <v>5517.146040976268</v>
       </c>
       <c r="H186" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>632565</v>
+        <v>615108</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22128421</v>
+        <v>22090986</v>
       </c>
       <c r="F187" t="n">
-        <v>3.954534421842897</v>
+        <v>5.275964915515348</v>
       </c>
       <c r="G187" t="n">
-        <v>360.9534848233992</v>
+        <v>3.893866038230775</v>
       </c>
       <c r="H187" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="I187" t="n">
-        <v>866.62</v>
+        <v>1863.91</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12466318</v>
+        <v>12455705</v>
       </c>
       <c r="E188" t="n">
-        <v>18976548</v>
+        <v>18960392</v>
       </c>
       <c r="F188" t="n">
-        <v>1388.490272936276</v>
+        <v>1392.250689084528</v>
       </c>
       <c r="G188" t="n">
-        <v>1699.76824943022</v>
+        <v>1463.657037058658</v>
       </c>
       <c r="H188" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I188" t="n">
-        <v>657379</v>
+        <v>652271</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>76477696</v>
+        <v>75786184</v>
       </c>
       <c r="E189" t="n">
-        <v>76477696</v>
+        <v>75786184</v>
       </c>
       <c r="F189" t="n">
-        <v>8102.904827700752</v>
+        <v>6917.162555395926</v>
       </c>
       <c r="G189" t="n">
-        <v>13704.39919754031</v>
+        <v>12524.31219931832</v>
       </c>
       <c r="H189" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="I189" t="n">
-        <v>5035305</v>
+        <v>4702091</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>288217214</v>
+        <v>285783967</v>
       </c>
       <c r="E190" t="n">
-        <v>288217214</v>
+        <v>285783967</v>
       </c>
       <c r="F190" t="n">
-        <v>241887.4149768941</v>
+        <v>199017.6156625295</v>
       </c>
       <c r="G190" t="n">
-        <v>293434.4348500054</v>
+        <v>302355.8908049377</v>
       </c>
       <c r="H190" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I190" t="n">
-        <v>92528323</v>
+        <v>93324689</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9803503</v>
+        <v>9821562</v>
       </c>
       <c r="E191" t="n">
-        <v>27833781</v>
+        <v>27885053</v>
       </c>
       <c r="F191" t="n">
-        <v>3179.511942507323</v>
+        <v>738.1117052359137</v>
       </c>
       <c r="G191" t="n">
-        <v>633.8651917520749</v>
+        <v>10280.84921408591</v>
       </c>
       <c r="H191" t="n">
         <v>0.36</v>
       </c>
       <c r="I191" t="n">
-        <v>102453</v>
+        <v>90915</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4649674</v>
+        <v>4614523</v>
       </c>
       <c r="E192" t="n">
-        <v>31770893</v>
+        <v>31530714</v>
       </c>
       <c r="F192" t="n">
-        <v>2025.629185246717</v>
+        <v>141.7169091892228</v>
       </c>
       <c r="G192" t="n">
-        <v>865.1748659900962</v>
+        <v>1271.491586725976</v>
       </c>
       <c r="H192" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I192" t="n">
-        <v>2954313</v>
+        <v>2978097</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2651688</v>
+        <v>2638279</v>
       </c>
       <c r="E193" t="n">
-        <v>3925591</v>
+        <v>3905434</v>
       </c>
       <c r="F193" t="n">
-        <v>120.7393072075589</v>
+        <v>199.9335763478498</v>
       </c>
       <c r="G193" t="n">
-        <v>554.6213403687199</v>
+        <v>493.9342828582345</v>
       </c>
       <c r="H193" t="n">
-        <v>0.77</v>
+        <v>1.02</v>
       </c>
       <c r="I193" t="n">
-        <v>91395</v>
+        <v>86832</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>84534431</v>
+        <v>83677659</v>
       </c>
       <c r="E194" t="n">
-        <v>487123851</v>
+        <v>482186762</v>
       </c>
       <c r="F194" t="n">
-        <v>423442.9239698168</v>
+        <v>452699.5548074256</v>
       </c>
       <c r="G194" t="n">
-        <v>659303.9824554073</v>
+        <v>547308.6662571322</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>21088499</v>
+        <v>21229214</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>659942</v>
+        <v>657448</v>
       </c>
       <c r="E195" t="n">
-        <v>719728</v>
+        <v>717008</v>
       </c>
       <c r="F195" t="n">
-        <v>139.3153683195276</v>
+        <v>5.411615301855158</v>
       </c>
       <c r="G195" t="n">
-        <v>4.162176171853659</v>
+        <v>3.9538743798394</v>
       </c>
       <c r="H195" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="I195" t="n">
-        <v>119203</v>
+        <v>118956</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>104786439</v>
+        <v>104554133</v>
       </c>
       <c r="E196" t="n">
-        <v>257815580</v>
+        <v>257244015</v>
       </c>
       <c r="F196" t="n">
-        <v>31551.56078000327</v>
+        <v>36905.39950594251</v>
       </c>
       <c r="G196" t="n">
-        <v>42952.21257237541</v>
+        <v>39190.93849444445</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I196" t="n">
-        <v>2755801</v>
+        <v>2758658</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18933513</v>
+        <v>18662533</v>
       </c>
       <c r="E197" t="n">
-        <v>18933513</v>
+        <v>18662533</v>
       </c>
       <c r="F197" t="n">
-        <v>5.405475653676937</v>
+        <v>5.403773545924353</v>
       </c>
       <c r="G197" t="n">
-        <v>451.3591762389725</v>
+        <v>440.9773473889322</v>
       </c>
       <c r="H197" t="n">
         <v>0.13</v>
       </c>
       <c r="I197" t="n">
-        <v>131537</v>
+        <v>104976</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1316466</v>
+        <v>1315159</v>
       </c>
       <c r="F198" t="n">
-        <v>5.546817832298503</v>
+        <v>348.1301841272872</v>
       </c>
       <c r="G198" t="n">
-        <v>128.7711026019821</v>
+        <v>78.68136363375017</v>
       </c>
       <c r="H198" t="n">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="I198" t="n">
-        <v>44168</v>
+        <v>42084</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>141275</v>
+        <v>121354</v>
       </c>
       <c r="E199" t="n">
-        <v>307554</v>
+        <v>264185</v>
       </c>
       <c r="F199" t="n">
-        <v>215.0674440247073</v>
+        <v>4.094615947747862</v>
       </c>
       <c r="G199" t="n">
-        <v>19.99529965047153</v>
+        <v>6.585654447954702</v>
       </c>
       <c r="H199" t="n">
-        <v>0.63</v>
+        <v>1.1</v>
       </c>
       <c r="I199" t="n">
-        <v>48045</v>
+        <v>41223</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3029789</v>
+        <v>2963182</v>
       </c>
       <c r="F200" t="n">
-        <v>1425.92921559383</v>
+        <v>957.2540828603264</v>
       </c>
       <c r="G200" t="n">
-        <v>694.2742820601679</v>
+        <v>1145.13659143329</v>
       </c>
       <c r="H200" t="n">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>420435</v>
+        <v>375239</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>190246</v>
+        <v>190418</v>
       </c>
       <c r="E201" t="n">
-        <v>1469084</v>
+        <v>1470411</v>
       </c>
       <c r="F201" t="n">
-        <v>14.50702209814112</v>
+        <v>14.50247765263381</v>
       </c>
       <c r="G201" t="n">
-        <v>36.29249701245067</v>
+        <v>36.2811280854661</v>
       </c>
       <c r="H201" t="n">
         <v>0.67</v>
       </c>
       <c r="I201" t="n">
-        <v>79346</v>
+        <v>55823</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>28837252</v>
+        <v>28912351</v>
       </c>
       <c r="E202" t="n">
-        <v>129116205</v>
+        <v>129452457</v>
       </c>
       <c r="F202" t="n">
-        <v>6533.399460075943</v>
+        <v>7229.904331527796</v>
       </c>
       <c r="G202" t="n">
-        <v>8781.374556730299</v>
+        <v>10223.03880919188</v>
       </c>
       <c r="H202" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I202" t="n">
-        <v>14216763</v>
+        <v>14552808</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12927305</v>
+        <v>12921251</v>
       </c>
       <c r="E203" t="n">
-        <v>25836487</v>
+        <v>25824388</v>
       </c>
       <c r="F203" t="n">
-        <v>9.603522086682274</v>
+        <v>9.831378013556749</v>
       </c>
       <c r="G203" t="n">
-        <v>2240.537115756968</v>
+        <v>2240.490890895269</v>
       </c>
       <c r="H203" t="n">
         <v>0.16</v>
       </c>
       <c r="I203" t="n">
-        <v>16108.56</v>
+        <v>16114.88</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1298458</v>
+        <v>1313226</v>
       </c>
       <c r="F204" t="n">
-        <v>72.52266903609234</v>
+        <v>47.35977836086659</v>
       </c>
       <c r="G204" t="n">
-        <v>149.4362912128404</v>
+        <v>169.3697684647028</v>
       </c>
       <c r="H204" t="n">
-        <v>3.24</v>
+        <v>2.16</v>
       </c>
       <c r="I204" t="n">
-        <v>96102</v>
+        <v>68786</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>927166</v>
+        <v>924070</v>
       </c>
       <c r="E205" t="n">
-        <v>4288275</v>
+        <v>4273955</v>
       </c>
       <c r="F205" t="n">
-        <v>3976.076308045907</v>
+        <v>3893.902808650963</v>
       </c>
       <c r="G205" t="n">
-        <v>2375.972131768091</v>
+        <v>2535.033379895733</v>
       </c>
       <c r="H205" t="n">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
       <c r="I205" t="n">
-        <v>484687</v>
+        <v>158054</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2925521</v>
+        <v>2892440</v>
       </c>
       <c r="E206" t="n">
-        <v>2925521</v>
+        <v>2892440</v>
       </c>
       <c r="F206" t="n">
-        <v>1078.21644157611</v>
+        <v>1055.684174275104</v>
       </c>
       <c r="G206" t="n">
-        <v>677.4032913759141</v>
+        <v>1196.838626271114</v>
       </c>
       <c r="H206" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I206" t="n">
-        <v>326988</v>
+        <v>314413</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>555190</v>
+        <v>551903</v>
       </c>
       <c r="E207" t="n">
-        <v>555190</v>
+        <v>551903</v>
       </c>
       <c r="F207" t="n">
-        <v>5.495695116787692</v>
+        <v>63.66022728975922</v>
       </c>
       <c r="G207" t="n">
-        <v>609.830607670076</v>
+        <v>68.92222275336553</v>
       </c>
       <c r="H207" t="n">
-        <v>0.18</v>
+        <v>0.92</v>
       </c>
       <c r="I207" t="n">
-        <v>1189394</v>
+        <v>1174944</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14627234</v>
+        <v>14105735</v>
       </c>
       <c r="E208" t="n">
-        <v>18622805</v>
+        <v>17958852</v>
       </c>
       <c r="F208" t="n">
-        <v>249.4474093941045</v>
+        <v>151.3222705334818</v>
       </c>
       <c r="G208" t="n">
-        <v>152.9318258697929</v>
+        <v>172.585708987742</v>
       </c>
       <c r="H208" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I208" t="n">
-        <v>937861</v>
+        <v>925007</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1744768</v>
+        <v>1742275</v>
       </c>
       <c r="E209" t="n">
-        <v>1744768</v>
+        <v>1742275</v>
       </c>
       <c r="F209" t="n">
-        <v>5.542555201998203</v>
+        <v>5.627476947706201</v>
       </c>
       <c r="G209" t="n">
-        <v>937.0267035980854</v>
+        <v>937.0210790760424</v>
       </c>
       <c r="H209" t="n">
         <v>0.24</v>
       </c>
       <c r="I209" t="n">
-        <v>3538.42</v>
+        <v>3517.01</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5857759</v>
+        <v>5931249</v>
       </c>
       <c r="E210" t="n">
-        <v>15373682</v>
+        <v>15566557</v>
       </c>
       <c r="F210" t="n">
-        <v>109.8926134503265</v>
+        <v>219.4141054011318</v>
       </c>
       <c r="G210" t="n">
-        <v>1057.022160530463</v>
+        <v>267.7249178552387</v>
       </c>
       <c r="H210" t="n">
-        <v>2.01</v>
+        <v>1.16</v>
       </c>
       <c r="I210" t="n">
-        <v>25834</v>
+        <v>28492</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28786856</v>
+        <v>28975704</v>
       </c>
       <c r="F211" t="n">
-        <v>1271.398728719349</v>
+        <v>812.9497851388394</v>
       </c>
       <c r="G211" t="n">
-        <v>1848.000770127385</v>
+        <v>1804.614431268606</v>
       </c>
       <c r="H211" t="n">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="I211" t="n">
-        <v>588450</v>
+        <v>594600</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17235732</v>
+        <v>17033609</v>
       </c>
       <c r="E212" t="n">
-        <v>17235732</v>
+        <v>17033609</v>
       </c>
       <c r="F212" t="n">
-        <v>5766.121721043251</v>
+        <v>14787.65062640492</v>
       </c>
       <c r="G212" t="n">
-        <v>25633.14200152148</v>
+        <v>29518.14162896738</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2290641</v>
+        <v>2284871</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47936438</v>
+        <v>47448556</v>
       </c>
       <c r="E213" t="n">
-        <v>310855045</v>
+        <v>307691256</v>
       </c>
       <c r="F213" t="n">
-        <v>151916.2450964467</v>
+        <v>230369.2118907424</v>
       </c>
       <c r="G213" t="n">
-        <v>157404.163905019</v>
+        <v>156192.0494386139</v>
       </c>
       <c r="H213" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I213" t="n">
-        <v>20994065</v>
+        <v>21336815</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>7949308</v>
+        <v>8058146</v>
       </c>
       <c r="F214" t="n">
-        <v>220.8064885591937</v>
+        <v>207.3617662126795</v>
       </c>
       <c r="G214" t="n">
-        <v>60.12460584897633</v>
+        <v>3.934483767964839</v>
       </c>
       <c r="H214" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I214" t="n">
-        <v>311318</v>
+        <v>310551</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7069297</v>
+        <v>7053783</v>
       </c>
       <c r="E215" t="n">
-        <v>7079446</v>
+        <v>7063884</v>
       </c>
       <c r="F215" t="n">
-        <v>21.24301725555209</v>
+        <v>5.467361068447572</v>
       </c>
       <c r="G215" t="n">
-        <v>135.2408627373373</v>
+        <v>135.2314239768858</v>
       </c>
       <c r="H215" t="n">
-        <v>0.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I215" t="n">
-        <v>809343</v>
+        <v>835123</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4477607</v>
+        <v>4494691</v>
       </c>
       <c r="F216" t="n">
-        <v>128.0041991492247</v>
+        <v>127.3702563563753</v>
       </c>
       <c r="G216" t="n">
-        <v>260.3354315903298</v>
+        <v>231.691547041237</v>
       </c>
       <c r="H216" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="I216" t="n">
-        <v>221325</v>
+        <v>252098</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2482830</v>
+        <v>2467051</v>
       </c>
       <c r="E217" t="n">
-        <v>4498113</v>
+        <v>4469528</v>
       </c>
       <c r="F217" t="n">
-        <v>623.1505471695409</v>
+        <v>595.9973909054562</v>
       </c>
       <c r="G217" t="n">
-        <v>674.5459350101306</v>
+        <v>668.8127443322556</v>
       </c>
       <c r="H217" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="I217" t="n">
-        <v>130595</v>
+        <v>118740</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123816634</v>
+        <v>123631643</v>
       </c>
       <c r="E218" t="n">
-        <v>2050504866</v>
+        <v>2047441266</v>
       </c>
       <c r="F218" t="n">
-        <v>1311.1395850642</v>
+        <v>3671.528044568755</v>
       </c>
       <c r="G218" t="n">
-        <v>7750.230407975223</v>
+        <v>3847.380009895738</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>35182979</v>
+        <v>35981235</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>93570953</v>
+        <v>91059535</v>
       </c>
       <c r="E219" t="n">
-        <v>94578177</v>
+        <v>92039725</v>
       </c>
       <c r="F219" t="n">
-        <v>401.4408433775799</v>
+        <v>596.7640036400642</v>
       </c>
       <c r="G219" t="n">
-        <v>17663.67112887498</v>
+        <v>16955.30712976224</v>
       </c>
       <c r="H219" t="n">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
       <c r="I219" t="n">
-        <v>82712155</v>
+        <v>81092000</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>242493863</v>
+        <v>243437056</v>
       </c>
       <c r="E220" t="n">
-        <v>242493863</v>
+        <v>243437056</v>
       </c>
       <c r="F220" t="n">
-        <v>2010.315668958662</v>
+        <v>12663.91849119756</v>
       </c>
       <c r="G220" t="n">
-        <v>55610.02865421246</v>
+        <v>31754.00047345353</v>
       </c>
       <c r="H220" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>91834071</v>
+        <v>93341956</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22895800</v>
+        <v>22653552</v>
       </c>
       <c r="E221" t="n">
-        <v>136990175</v>
+        <v>135540756</v>
       </c>
       <c r="F221" t="n">
-        <v>81879.13873923598</v>
+        <v>75284.28564310804</v>
       </c>
       <c r="G221" t="n">
-        <v>85665.45052350099</v>
+        <v>84903.42947495243</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>17857749</v>
+        <v>18017762</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1068320</v>
+        <v>1040090</v>
       </c>
       <c r="F222" t="n">
-        <v>251.5313748506079</v>
+        <v>43.4555296431538</v>
       </c>
       <c r="G222" t="n">
-        <v>267.1747020984178</v>
+        <v>71.9028962861866</v>
       </c>
       <c r="H222" t="n">
-        <v>0.97</v>
+        <v>1.99</v>
       </c>
       <c r="I222" t="n">
-        <v>91412</v>
+        <v>92625</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2182284</v>
+        <v>2228453</v>
       </c>
       <c r="F223" t="n">
-        <v>128.0018628564803</v>
+        <v>139.9508665230874</v>
       </c>
       <c r="G223" t="n">
-        <v>134.2683709322615</v>
+        <v>86.74194556542417</v>
       </c>
       <c r="H223" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I223" t="n">
-        <v>179769</v>
+        <v>185343</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13318925</v>
+        <v>13302346</v>
       </c>
       <c r="E224" t="n">
-        <v>40253487</v>
+        <v>40203382</v>
       </c>
       <c r="F224" t="n">
-        <v>1072.935500288969</v>
+        <v>1490.512252794118</v>
       </c>
       <c r="G224" t="n">
-        <v>10933.85894176599</v>
+        <v>9469.588271863464</v>
       </c>
       <c r="H224" t="n">
-        <v>0.02</v>
+        <v>0.42</v>
       </c>
       <c r="I224" t="n">
-        <v>2386754</v>
+        <v>2412603</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52192485</v>
+        <v>52155408</v>
       </c>
       <c r="E225" t="n">
-        <v>90147769</v>
+        <v>90083728</v>
       </c>
       <c r="F225" t="n">
-        <v>7241.712289432657</v>
+        <v>7244.661176493129</v>
       </c>
       <c r="G225" t="n">
-        <v>7191.322298207946</v>
+        <v>7176.20409796287</v>
       </c>
       <c r="H225" t="n">
         <v>0.2</v>
       </c>
       <c r="I225" t="n">
-        <v>2261264</v>
+        <v>2284438</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4105115</v>
+        <v>4092191</v>
       </c>
       <c r="E226" t="n">
-        <v>4105115</v>
+        <v>4092191</v>
       </c>
       <c r="F226" t="n">
-        <v>31.35049362532358</v>
+        <v>4.22063892466735</v>
       </c>
       <c r="G226" t="n">
-        <v>5.481332611650621</v>
+        <v>55.25478493257082</v>
       </c>
       <c r="H226" t="n">
-        <v>0.26</v>
+        <v>0.87</v>
       </c>
       <c r="I226" t="n">
-        <v>1748648</v>
+        <v>1747051</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>189107</v>
+        <v>188562</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>61287</v>
+        <v>62759</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6312869</v>
+        <v>6282867</v>
       </c>
       <c r="E228" t="n">
-        <v>32477793</v>
+        <v>32323440</v>
       </c>
       <c r="F228" t="n">
-        <v>322.4695499362537</v>
+        <v>436.3089417074029</v>
       </c>
       <c r="G228" t="n">
-        <v>114.4296333134822</v>
+        <v>122.6049948697741</v>
       </c>
       <c r="H228" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="I228" t="n">
-        <v>951278</v>
+        <v>952386</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>157937914</v>
+        <v>164965193</v>
       </c>
       <c r="E230" t="n">
-        <v>184518117</v>
+        <v>192728055</v>
       </c>
       <c r="F230" t="n">
-        <v>12729.63961952639</v>
+        <v>14444.72690714323</v>
       </c>
       <c r="G230" t="n">
-        <v>12638.56927763845</v>
+        <v>16234.6834002659</v>
       </c>
       <c r="H230" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="I230" t="n">
-        <v>6184269</v>
+        <v>7182779</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>293806</v>
+        <v>300158</v>
       </c>
       <c r="F231" t="n">
-        <v>3.942380688702495</v>
+        <v>73.41008881299246</v>
       </c>
       <c r="G231" t="n">
-        <v>82.70982657174777</v>
+        <v>14.91143730598758</v>
       </c>
       <c r="H231" t="n">
-        <v>1.02</v>
+        <v>0.61</v>
       </c>
       <c r="I231" t="n">
-        <v>235842</v>
+        <v>258677</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>30051960</v>
+        <v>29898304</v>
       </c>
       <c r="E232" t="n">
-        <v>41206492</v>
+        <v>40995802</v>
       </c>
       <c r="F232" t="n">
-        <v>5554.519466921176</v>
+        <v>5502.505616007057</v>
       </c>
       <c r="G232" t="n">
-        <v>5763.874792327347</v>
+        <v>3136.798570700025</v>
       </c>
       <c r="H232" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I232" t="n">
-        <v>348768</v>
+        <v>352671</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1146457</v>
+        <v>1093095</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>414192</v>
+        <v>360635</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7603945</v>
+        <v>7594277</v>
       </c>
       <c r="F234" t="n">
-        <v>1345.964232517339</v>
+        <v>1951.678314482236</v>
       </c>
       <c r="G234" t="n">
-        <v>3127.524137828053</v>
+        <v>221.0721476060467</v>
       </c>
       <c r="H234" t="n">
-        <v>0.58</v>
+        <v>0.16</v>
       </c>
       <c r="I234" t="n">
-        <v>652337</v>
+        <v>657432</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22761136</v>
+        <v>22678582</v>
       </c>
       <c r="E235" t="n">
-        <v>22761136</v>
+        <v>22678707</v>
       </c>
       <c r="F235" t="n">
-        <v>4473.551877569575</v>
+        <v>7326.660550254242</v>
       </c>
       <c r="G235" t="n">
-        <v>5012.174818107474</v>
+        <v>27249.77750242126</v>
       </c>
       <c r="H235" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="I235" t="n">
-        <v>2418370</v>
+        <v>2193100</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3421222</v>
+        <v>3546947</v>
       </c>
       <c r="E236" t="n">
-        <v>4582943</v>
+        <v>4751360</v>
       </c>
       <c r="F236" t="n">
-        <v>689.4458146876341</v>
+        <v>277.5504616090327</v>
       </c>
       <c r="G236" t="n">
-        <v>221.0342982794016</v>
+        <v>26.98160030192116</v>
       </c>
       <c r="H236" t="n">
-        <v>0.42</v>
+        <v>1.84</v>
       </c>
       <c r="I236" t="n">
-        <v>149545</v>
+        <v>123755</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>32312563</v>
+        <v>32054684</v>
       </c>
       <c r="E237" t="n">
-        <v>161254583</v>
+        <v>159967649</v>
       </c>
       <c r="F237" t="n">
-        <v>94736.32835649134</v>
+        <v>94561.37108577558</v>
       </c>
       <c r="G237" t="n">
-        <v>92643.54399841276</v>
+        <v>103041.0880481982</v>
       </c>
       <c r="H237" t="n">
         <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>13977047</v>
+        <v>14082661</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>25787713</v>
+        <v>25824476</v>
       </c>
       <c r="E238" t="n">
-        <v>58134945</v>
+        <v>58217822</v>
       </c>
       <c r="F238" t="n">
-        <v>240.1445314382177</v>
+        <v>63.25741569582144</v>
       </c>
       <c r="G238" t="n">
-        <v>103.4931290449248</v>
+        <v>69.1357202573451</v>
       </c>
       <c r="H238" t="n">
-        <v>0.87</v>
+        <v>0.34</v>
       </c>
       <c r="I238" t="n">
-        <v>407117</v>
+        <v>423271</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1923872</v>
+        <v>1916830</v>
       </c>
       <c r="E239" t="n">
-        <v>1923872</v>
+        <v>1916830</v>
       </c>
       <c r="F239" t="n">
-        <v>180.4487335512962</v>
+        <v>180.4185049517733</v>
       </c>
       <c r="G239" t="n">
-        <v>96.0426824087323</v>
+        <v>95.71697775506047</v>
       </c>
       <c r="H239" t="n">
-        <v>0.64</v>
+        <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>7561.03</v>
+        <v>5303.7</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71944301</v>
+        <v>71721478</v>
       </c>
       <c r="F240" t="n">
-        <v>4.115008689315657</v>
+        <v>4.114968129952595</v>
       </c>
       <c r="G240" t="n">
-        <v>4.076307264279538</v>
+        <v>4.076267086375002</v>
       </c>
       <c r="H240" t="n">
         <v>0.26</v>
       </c>
       <c r="I240" t="n">
-        <v>61585</v>
+        <v>60924</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>899014</v>
+        <v>893908</v>
       </c>
       <c r="E241" t="n">
-        <v>899014</v>
+        <v>893908</v>
       </c>
       <c r="F241" t="n">
-        <v>4.096534561735593</v>
+        <v>4.0965518180612</v>
       </c>
       <c r="G241" t="n">
-        <v>4.00986925061589</v>
+        <v>4.009886141870775</v>
       </c>
       <c r="H241" t="n">
         <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>11901.34</v>
+        <v>11618.93</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>123796</v>
+        <v>123802</v>
       </c>
       <c r="E242" t="n">
-        <v>123796</v>
+        <v>123802</v>
       </c>
       <c r="F242" t="n">
-        <v>666.6230491952088</v>
+        <v>655.4696683684891</v>
       </c>
       <c r="G242" t="n">
-        <v>190.5152040056182</v>
+        <v>9.092621220773429</v>
       </c>
       <c r="H242" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="I242" t="n">
-        <v>39559</v>
+        <v>39405</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3488335</v>
+        <v>3489580</v>
       </c>
       <c r="E243" t="n">
-        <v>5011059</v>
+        <v>5012847</v>
       </c>
       <c r="F243" t="n">
-        <v>344.1834056858224</v>
+        <v>672.7622555644599</v>
       </c>
       <c r="G243" t="n">
-        <v>31.86310930873126</v>
+        <v>321.1647706747494</v>
       </c>
       <c r="H243" t="n">
-        <v>2.58</v>
+        <v>0.4</v>
       </c>
       <c r="I243" t="n">
-        <v>149980</v>
+        <v>149761</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>291996066</v>
+        <v>286430216</v>
       </c>
       <c r="E244" t="n">
-        <v>540259311</v>
+        <v>529961220</v>
       </c>
       <c r="F244" t="n">
-        <v>6480.032985727387</v>
+        <v>17127.40973793738</v>
       </c>
       <c r="G244" t="n">
-        <v>7304.051402061016</v>
+        <v>5913.299659073675</v>
       </c>
       <c r="H244" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I244" t="n">
-        <v>17221368</v>
+        <v>17546873</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>69408824</v>
+        <v>68502183</v>
       </c>
       <c r="E245" t="n">
-        <v>662036793</v>
+        <v>653384317</v>
       </c>
       <c r="F245" t="n">
-        <v>53703.61243636972</v>
+        <v>37022.73178841113</v>
       </c>
       <c r="G245" t="n">
-        <v>72395.87864779233</v>
+        <v>69092.79694945444</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>23935383</v>
+        <v>23838131</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81562</v>
+        <v>76034</v>
       </c>
       <c r="E246" t="n">
-        <v>678044</v>
+        <v>632088</v>
       </c>
       <c r="F246" t="n">
-        <v>66.55618154192716</v>
+        <v>3.724326694919195</v>
       </c>
       <c r="G246" t="n">
-        <v>4.164540528621354</v>
+        <v>4.166473487045093</v>
       </c>
       <c r="H246" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="I246" t="n">
-        <v>115.9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1837580</v>
+        <v>1834456</v>
       </c>
       <c r="E247" t="n">
-        <v>5247891</v>
+        <v>5238970</v>
       </c>
       <c r="F247" t="n">
-        <v>403.4913769349505</v>
+        <v>403.4450447450103</v>
       </c>
       <c r="G247" t="n">
-        <v>153.8343766504441</v>
+        <v>153.8202028214805</v>
       </c>
       <c r="H247" t="n">
         <v>0.12</v>
       </c>
       <c r="I247" t="n">
-        <v>73069</v>
+        <v>72952</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>35533008</v>
+        <v>35328643</v>
       </c>
       <c r="E248" t="n">
-        <v>46453873</v>
+        <v>46186294</v>
       </c>
       <c r="F248" t="n">
-        <v>472.317661566322</v>
+        <v>1655.377072431315</v>
       </c>
       <c r="G248" t="n">
-        <v>1292.427410623986</v>
+        <v>821.2231726160412</v>
       </c>
       <c r="H248" t="n">
-        <v>1.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I248" t="n">
-        <v>487686</v>
+        <v>550693</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8988627</v>
+        <v>8726058</v>
       </c>
       <c r="E249" t="n">
-        <v>26647129</v>
+        <v>25868733</v>
       </c>
       <c r="F249" t="n">
-        <v>542.5603339405864</v>
+        <v>554.4798201875094</v>
       </c>
       <c r="G249" t="n">
-        <v>1699.820781205355</v>
+        <v>2045.237762296373</v>
       </c>
       <c r="H249" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="I249" t="n">
-        <v>6507355</v>
+        <v>6439681</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1931373</v>
+        <v>1945637</v>
       </c>
       <c r="E250" t="n">
-        <v>5586982</v>
+        <v>5628243</v>
       </c>
       <c r="F250" t="n">
-        <v>86.28155138453616</v>
+        <v>3.090524791262772</v>
       </c>
       <c r="G250" t="n">
-        <v>30.12597975108231</v>
+        <v>53.68842820341838</v>
       </c>
       <c r="H250" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="I250" t="n">
-        <v>43556</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7241013</v>
+        <v>7238781</v>
       </c>
       <c r="E251" t="n">
-        <v>7241024</v>
+        <v>7238791</v>
       </c>
       <c r="F251" t="n">
-        <v>1030.363248883026</v>
+        <v>988.2664692040713</v>
       </c>
       <c r="G251" t="n">
-        <v>1377.230979199462</v>
+        <v>1370.706258779002</v>
       </c>
       <c r="H251" t="n">
         <v>0.98</v>
       </c>
       <c r="I251" t="n">
-        <v>266851</v>
+        <v>262047</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5981596</v>
+        <v>5968178</v>
       </c>
       <c r="E252" t="n">
-        <v>5981596</v>
+        <v>5968178</v>
       </c>
       <c r="F252" t="n">
-        <v>580.1251112919286</v>
+        <v>875.8060116233307</v>
       </c>
       <c r="G252" t="n">
-        <v>1038.928797234088</v>
+        <v>999.8493549849503</v>
       </c>
       <c r="H252" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="I252" t="n">
-        <v>496939</v>
+        <v>500667</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6166674</v>
+        <v>6188646</v>
       </c>
       <c r="E253" t="n">
-        <v>22524474</v>
+        <v>22604728</v>
       </c>
       <c r="F253" t="n">
-        <v>37.64295071944021</v>
+        <v>81.36825660916759</v>
       </c>
       <c r="G253" t="n">
-        <v>85.94281896895451</v>
+        <v>701.3116601168812</v>
       </c>
       <c r="H253" t="n">
-        <v>3.45</v>
+        <v>1.64</v>
       </c>
       <c r="I253" t="n">
-        <v>568664</v>
+        <v>574533</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2314112</v>
+        <v>2287300</v>
       </c>
       <c r="E254" t="n">
-        <v>20411999</v>
+        <v>20175501</v>
       </c>
       <c r="F254" t="n">
-        <v>51.10384211368883</v>
+        <v>123.0560927048261</v>
       </c>
       <c r="G254" t="n">
-        <v>1713.015322801644</v>
+        <v>2033.72813522339</v>
       </c>
       <c r="H254" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="I254" t="n">
-        <v>101539</v>
+        <v>90801</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14698293</v>
+        <v>14702510</v>
       </c>
       <c r="E255" t="n">
-        <v>29755798</v>
+        <v>29764333</v>
       </c>
       <c r="F255" t="n">
-        <v>125.5717490487206</v>
+        <v>125.5992197038098</v>
       </c>
       <c r="G255" t="n">
-        <v>279.9350661319061</v>
+        <v>279.8473131083861</v>
       </c>
       <c r="H255" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I255" t="n">
-        <v>572901</v>
+        <v>576451</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>43716298</v>
+        <v>43278648</v>
       </c>
       <c r="E256" t="n">
-        <v>43716298</v>
+        <v>43278648</v>
       </c>
       <c r="F256" t="n">
-        <v>6034.769486345019</v>
+        <v>5325.025818332689</v>
       </c>
       <c r="G256" t="n">
-        <v>4799.536673159302</v>
+        <v>1677.173722528599</v>
       </c>
       <c r="H256" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I256" t="n">
-        <v>11254731</v>
+        <v>11758841</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8219074</v>
+        <v>8224425</v>
       </c>
       <c r="E257" t="n">
-        <v>11710297</v>
+        <v>11717922</v>
       </c>
       <c r="F257" t="n">
-        <v>1237.551008173384</v>
+        <v>29.21592602055294</v>
       </c>
       <c r="G257" t="n">
-        <v>251.5348725092549</v>
+        <v>1180.28653260883</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I257" t="n">
-        <v>307774</v>
+        <v>315556</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>142637413</v>
+        <v>140287931</v>
       </c>
       <c r="F258" t="n">
-        <v>151.7513108637668</v>
+        <v>115.7167144634516</v>
       </c>
       <c r="G258" t="n">
-        <v>130.5935292948286</v>
+        <v>81.10578270741047</v>
       </c>
       <c r="H258" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="I258" t="n">
-        <v>1694370</v>
+        <v>1648272</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16014575</v>
+        <v>15770265</v>
       </c>
       <c r="F259" t="n">
-        <v>110.4589925636899</v>
+        <v>75.78618817779638</v>
       </c>
       <c r="G259" t="n">
-        <v>70.8772651363516</v>
+        <v>127.7621324998289</v>
       </c>
       <c r="H259" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="I259" t="n">
-        <v>1108218</v>
+        <v>1110104</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>717864</v>
+        <v>716844</v>
       </c>
       <c r="F260" t="n">
-        <v>9.992301082444335</v>
+        <v>9.992035883822435</v>
       </c>
       <c r="G260" t="n">
-        <v>20.04803284592408</v>
+        <v>112.0896346462156</v>
       </c>
       <c r="H260" t="n">
         <v>1.9</v>
       </c>
       <c r="I260" t="n">
-        <v>211920</v>
+        <v>210517</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2900617</v>
+        <v>2976362</v>
       </c>
       <c r="F261" t="n">
-        <v>111.2756432979938</v>
+        <v>111.177483606754</v>
       </c>
       <c r="G261" t="n">
-        <v>41.49028777530865</v>
+        <v>41.38724846880775</v>
       </c>
       <c r="H261" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>73008</v>
+        <v>75297</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2662953</v>
+        <v>2587266</v>
       </c>
       <c r="E262" t="n">
-        <v>2665259</v>
+        <v>2589507</v>
       </c>
       <c r="F262" t="n">
-        <v>84.32482028505046</v>
+        <v>26.82485914649806</v>
       </c>
       <c r="G262" t="n">
-        <v>3.951050009740275</v>
+        <v>4.119091310097278</v>
       </c>
       <c r="H262" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I262" t="n">
-        <v>55214</v>
+        <v>92584</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>73363673</v>
+        <v>73105119</v>
       </c>
       <c r="E263" t="n">
-        <v>101582940</v>
+        <v>101223396</v>
       </c>
       <c r="F263" t="n">
-        <v>7639.590312876852</v>
+        <v>7147.621737682549</v>
       </c>
       <c r="G263" t="n">
-        <v>10790.8231563777</v>
+        <v>10217.31463490666</v>
       </c>
       <c r="H263" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I263" t="n">
-        <v>7294198</v>
+        <v>7327901</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>612649</v>
+        <v>610921</v>
       </c>
       <c r="F264" t="n">
-        <v>69.42981993023133</v>
+        <v>109.1299108402527</v>
       </c>
       <c r="G264" t="n">
-        <v>215.156586760997</v>
+        <v>215.156757901886</v>
       </c>
       <c r="H264" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>576107</v>
+        <v>571058</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1297899</v>
+        <v>1313894</v>
       </c>
       <c r="E265" t="n">
-        <v>3929609</v>
+        <v>3977606</v>
       </c>
       <c r="F265" t="n">
-        <v>789.6636741024861</v>
+        <v>796.569342325909</v>
       </c>
       <c r="G265" t="n">
-        <v>208.9295049884383</v>
+        <v>248.6543480104753</v>
       </c>
       <c r="H265" t="n">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="I265" t="n">
-        <v>46137</v>
+        <v>29244</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>33439571</v>
+        <v>33097094</v>
       </c>
       <c r="E266" t="n">
-        <v>237081106</v>
+        <v>234652999</v>
       </c>
       <c r="F266" t="n">
-        <v>64.00083513175252</v>
+        <v>10584.61555336721</v>
       </c>
       <c r="G266" t="n">
-        <v>21161.79298967739</v>
+        <v>20212.16130311641</v>
       </c>
       <c r="H266" t="n">
-        <v>0.08</v>
+        <v>0.51</v>
       </c>
       <c r="I266" t="n">
-        <v>6160614</v>
+        <v>6281317</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>57181</v>
+        <v>57295</v>
       </c>
       <c r="E267" t="n">
-        <v>298348</v>
+        <v>298943</v>
       </c>
       <c r="F267" t="n">
-        <v>3.979220936565463</v>
+        <v>19.98577630882398</v>
       </c>
       <c r="G267" t="n">
-        <v>84.44652983226082</v>
+        <v>63.53861663961126</v>
       </c>
       <c r="H267" t="n">
-        <v>0.67</v>
+        <v>0.23</v>
       </c>
       <c r="I267" t="n">
-        <v>205429</v>
+        <v>207019</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1275068</v>
+        <v>1260213</v>
       </c>
       <c r="E268" t="n">
-        <v>7905542</v>
+        <v>7813434</v>
       </c>
       <c r="F268" t="n">
-        <v>906.767493618865</v>
+        <v>1325.353100251165</v>
       </c>
       <c r="G268" t="n">
-        <v>941.8810515800984</v>
+        <v>1904.02388646539</v>
       </c>
       <c r="H268" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="I268" t="n">
-        <v>781464</v>
+        <v>776943</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>577851550</v>
+        <v>572165483</v>
       </c>
       <c r="E269" t="n">
-        <v>2237933798</v>
+        <v>2215912497</v>
       </c>
       <c r="F269" t="n">
-        <v>232402.0331894297</v>
+        <v>240362.4379966379</v>
       </c>
       <c r="G269" t="n">
-        <v>306441.1897220478</v>
+        <v>270038.252335401</v>
       </c>
       <c r="H269" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I269" t="n">
-        <v>60373529</v>
+        <v>60981974</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3301681</v>
+        <v>3305172</v>
       </c>
       <c r="F270" t="n">
-        <v>70.96363892020537</v>
+        <v>59.19524744213724</v>
       </c>
       <c r="G270" t="n">
-        <v>144.0750618039458</v>
+        <v>552.9499518054624</v>
       </c>
       <c r="H270" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I270" t="n">
-        <v>38487</v>
+        <v>38495</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>783079</v>
+        <v>759613</v>
       </c>
       <c r="F271" t="n">
-        <v>196.4860074246728</v>
+        <v>39.92928512725594</v>
       </c>
       <c r="G271" t="n">
-        <v>23.24524212184231</v>
+        <v>23.24212279648384</v>
       </c>
       <c r="H271" t="n">
-        <v>2.56</v>
+        <v>0.78</v>
       </c>
       <c r="I271" t="n">
-        <v>143752</v>
+        <v>143241</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5465483</v>
+        <v>5427703</v>
       </c>
       <c r="E272" t="n">
-        <v>24464778</v>
+        <v>24295666</v>
       </c>
       <c r="F272" t="n">
-        <v>623.7111548103533</v>
+        <v>110.1889977614118</v>
       </c>
       <c r="G272" t="n">
-        <v>113.7283006626908</v>
+        <v>175.6978310375737</v>
       </c>
       <c r="H272" t="n">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="I272" t="n">
-        <v>194297</v>
+        <v>191345</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6391291</v>
+        <v>6408527</v>
       </c>
       <c r="E273" t="n">
-        <v>12236645</v>
+        <v>12269644</v>
       </c>
       <c r="F273" t="n">
-        <v>214.1937028491063</v>
+        <v>36.91323383538214</v>
       </c>
       <c r="G273" t="n">
-        <v>513.6992141175582</v>
+        <v>594.429111736172</v>
       </c>
       <c r="H273" t="n">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="I273" t="n">
-        <v>36205</v>
+        <v>35808</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3186061</v>
+        <v>3165330</v>
       </c>
       <c r="E274" t="n">
-        <v>20950793</v>
+        <v>20814470</v>
       </c>
       <c r="F274" t="n">
-        <v>265.1176838518728</v>
+        <v>219.3530624541355</v>
       </c>
       <c r="G274" t="n">
-        <v>54.71298653781123</v>
+        <v>116.0914542160701</v>
       </c>
       <c r="H274" t="n">
-        <v>0.28</v>
+        <v>0.63</v>
       </c>
       <c r="I274" t="n">
-        <v>1409872</v>
+        <v>1675671</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3638382</v>
+        <v>3632566</v>
       </c>
       <c r="E275" t="n">
-        <v>6202117</v>
+        <v>6192202</v>
       </c>
       <c r="F275" t="n">
-        <v>777.4697083511988</v>
+        <v>798.3850622161603</v>
       </c>
       <c r="G275" t="n">
-        <v>418.5772149051346</v>
+        <v>418.5538899244572</v>
       </c>
       <c r="H275" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I275" t="n">
-        <v>1122935</v>
+        <v>1105233</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>431703</v>
+        <v>431494</v>
       </c>
       <c r="E276" t="n">
-        <v>431703</v>
+        <v>431494</v>
       </c>
       <c r="F276" t="n">
-        <v>5.218641883749806</v>
+        <v>5.218351077856015</v>
       </c>
       <c r="G276" t="n">
-        <v>3.814407439447181</v>
+        <v>3.81419488373069</v>
       </c>
       <c r="H276" t="n">
         <v>0.39</v>
       </c>
       <c r="I276" t="n">
-        <v>105.02</v>
+        <v>104.83</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7351490</v>
+        <v>7267774</v>
       </c>
       <c r="E277" t="n">
-        <v>10532414</v>
+        <v>10412456</v>
       </c>
       <c r="F277" t="n">
-        <v>1118.032605198014</v>
+        <v>744.8460672687174</v>
       </c>
       <c r="G277" t="n">
-        <v>524.8763809036052</v>
+        <v>3440.300392793155</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>177491</v>
+        <v>179149</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>108052137</v>
+        <v>106668954</v>
       </c>
       <c r="E278" t="n">
-        <v>1022952607</v>
+        <v>1009857716</v>
       </c>
       <c r="F278" t="n">
-        <v>2956.613691090421</v>
+        <v>1350.301621657631</v>
       </c>
       <c r="G278" t="n">
-        <v>4920.059004315121</v>
+        <v>4073.507257525413</v>
       </c>
       <c r="H278" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I278" t="n">
-        <v>16110555</v>
+        <v>16234187</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>97437938</v>
+        <v>97740177</v>
       </c>
       <c r="E279" t="n">
-        <v>148643859</v>
+        <v>149104931</v>
       </c>
       <c r="F279" t="n">
-        <v>16661.80833400098</v>
+        <v>11940.09576599258</v>
       </c>
       <c r="G279" t="n">
-        <v>15108.92274716867</v>
+        <v>22521.40258641246</v>
       </c>
       <c r="H279" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="I279" t="n">
-        <v>12883542</v>
+        <v>13175338</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15480402</v>
+        <v>15565797</v>
       </c>
       <c r="E280" t="n">
-        <v>21237771</v>
+        <v>21354925</v>
       </c>
       <c r="F280" t="n">
-        <v>334.7320710543073</v>
+        <v>518.5938504156611</v>
       </c>
       <c r="G280" t="n">
-        <v>11832.66044893804</v>
+        <v>11154.57064340859</v>
       </c>
       <c r="H280" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I280" t="n">
-        <v>931726</v>
+        <v>939927</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5136018</v>
+        <v>5095131</v>
       </c>
       <c r="E281" t="n">
-        <v>5136018</v>
+        <v>5095131</v>
       </c>
       <c r="F281" t="n">
-        <v>594.2654743663877</v>
+        <v>355.0570115145401</v>
       </c>
       <c r="G281" t="n">
-        <v>14.56774356840235</v>
+        <v>5.318759828535272</v>
       </c>
       <c r="H281" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="I281" t="n">
-        <v>629519</v>
+        <v>640846</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>120516139</v>
+        <v>120865969</v>
       </c>
       <c r="E282" t="n">
-        <v>462319305</v>
+        <v>463661313</v>
       </c>
       <c r="F282" t="n">
-        <v>66651.4420041383</v>
+        <v>82561.08491896169</v>
       </c>
       <c r="G282" t="n">
-        <v>69511.94920388129</v>
+        <v>75341.91577654127</v>
       </c>
       <c r="H282" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I282" t="n">
-        <v>39588398</v>
+        <v>39527233</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>729978</v>
+        <v>724498</v>
       </c>
       <c r="F283" t="n">
-        <v>3.911229912814801</v>
+        <v>3.910908654240174</v>
       </c>
       <c r="G283" t="n">
-        <v>3.083015644747761</v>
+        <v>3.08276241360726</v>
       </c>
       <c r="H283" t="n">
         <v>0.25</v>
       </c>
       <c r="I283" t="n">
-        <v>46717</v>
+        <v>46114</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3041025</v>
+        <v>3101992</v>
       </c>
       <c r="E284" t="n">
-        <v>28814164</v>
+        <v>29391837</v>
       </c>
       <c r="F284" t="n">
-        <v>820.83770456604</v>
+        <v>772.1733107911034</v>
       </c>
       <c r="G284" t="n">
-        <v>1091.968625812856</v>
+        <v>1122.056895652033</v>
       </c>
       <c r="H284" t="n">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="I284" t="n">
-        <v>260090</v>
+        <v>263334</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>95689</v>
+        <v>98047</v>
       </c>
       <c r="F285" t="n">
-        <v>1356.790138655008</v>
+        <v>1422.8774656758</v>
       </c>
       <c r="G285" t="n">
-        <v>7.660977655158975</v>
+        <v>0.1299027996734816</v>
       </c>
       <c r="H285" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I285" t="n">
-        <v>46956</v>
+        <v>48239</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>130202</v>
+        <v>133583</v>
       </c>
       <c r="F286" t="n">
-        <v>5.487140877955917</v>
+        <v>5.486834274271455</v>
       </c>
       <c r="G286" t="n">
-        <v>44.23604366093559</v>
+        <v>44.2335718938944</v>
       </c>
       <c r="H286" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I286" t="n">
-        <v>64950</v>
+        <v>64284</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>20524228</v>
+        <v>25526496</v>
       </c>
       <c r="E287" t="n">
-        <v>20524228</v>
+        <v>25526496</v>
       </c>
       <c r="F287" t="n">
-        <v>1851.663826888172</v>
+        <v>1108.754140812942</v>
       </c>
       <c r="G287" t="n">
-        <v>8381.598769598719</v>
+        <v>1087.832485006405</v>
       </c>
       <c r="H287" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I287" t="n">
-        <v>482962</v>
+        <v>725363</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>559585</v>
+        <v>559558</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8123.47</v>
+        <v>8105.94</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6586111</v>
+        <v>6580882</v>
       </c>
       <c r="E289" t="n">
-        <v>41161306</v>
+        <v>41128631</v>
       </c>
       <c r="F289" t="n">
-        <v>12.25622784421788</v>
+        <v>56.44358679987105</v>
       </c>
       <c r="G289" t="n">
-        <v>24.27187217779364</v>
+        <v>21.04530199801041</v>
       </c>
       <c r="H289" t="n">
         <v>0.21</v>
       </c>
       <c r="I289" t="n">
-        <v>417639</v>
+        <v>418949</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>495161623</v>
+        <v>494275557</v>
       </c>
       <c r="E290" t="n">
-        <v>495161623</v>
+        <v>494275557</v>
       </c>
       <c r="F290" t="n">
-        <v>886279.856889513</v>
+        <v>1372581.370728541</v>
       </c>
       <c r="G290" t="n">
-        <v>1295447.614674298</v>
+        <v>1317084.179932001</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>43714746</v>
+        <v>44835080</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5079720</v>
+        <v>5126188</v>
       </c>
       <c r="E291" t="n">
-        <v>18876336</v>
+        <v>19049010</v>
       </c>
       <c r="F291" t="n">
-        <v>717.984024710834</v>
+        <v>717.9250513112833</v>
       </c>
       <c r="G291" t="n">
-        <v>2516.772805581053</v>
+        <v>2516.566084201281</v>
       </c>
       <c r="H291" t="n">
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>92009</v>
+        <v>138665</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35875685</v>
+        <v>35969480</v>
       </c>
       <c r="F292" t="n">
-        <v>6343.714280601356</v>
+        <v>7672.681510917652</v>
       </c>
       <c r="G292" t="n">
-        <v>12673.76732289466</v>
+        <v>10033.60227488885</v>
       </c>
       <c r="H292" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="I292" t="n">
-        <v>7915586</v>
+        <v>8059473</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>44448454</v>
+        <v>43947109</v>
       </c>
       <c r="E293" t="n">
-        <v>159319272</v>
+        <v>157522271</v>
       </c>
       <c r="F293" t="n">
-        <v>4.025837992690797</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>5.015419182215025</v>
+        <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="I293" t="n">
-        <v>164756</v>
+        <v>176398</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>790559</v>
+        <v>809122</v>
       </c>
       <c r="E294" t="n">
-        <v>12609130</v>
+        <v>12905201</v>
       </c>
       <c r="F294" t="n">
-        <v>19.02526518465653</v>
+        <v>19.02119658903429</v>
       </c>
       <c r="G294" t="n">
-        <v>7.742386602980893</v>
+        <v>7.74073087624422</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>333704</v>
+        <v>334669</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84674</v>
+        <v>85018</v>
       </c>
       <c r="F295" t="n">
-        <v>22.35991935270415</v>
+        <v>22.91866049145615</v>
       </c>
       <c r="G295" t="n">
-        <v>203.6803511498539</v>
+        <v>209.1127101907518</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>54094</v>
+        <v>54915</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1530079</v>
+        <v>1508830</v>
       </c>
       <c r="F296" t="n">
-        <v>5.327275215682987</v>
+        <v>3.203438501736719</v>
       </c>
       <c r="G296" t="n">
-        <v>4.293292563427246</v>
+        <v>4.06372414174105</v>
       </c>
       <c r="H296" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I296" t="n">
-        <v>604074</v>
+        <v>600124</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2528307782</v>
+        <v>2508773582</v>
       </c>
       <c r="E297" t="n">
-        <v>2684404992</v>
+        <v>2663664754</v>
       </c>
       <c r="F297" t="n">
-        <v>40459.20494528172</v>
+        <v>38527.23385922037</v>
       </c>
       <c r="G297" t="n">
-        <v>55326.12332911282</v>
+        <v>57460.13643455737</v>
       </c>
       <c r="H297" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I297" t="n">
-        <v>59119175</v>
+        <v>59459852</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2143351</v>
+        <v>2121669</v>
       </c>
       <c r="E298" t="n">
-        <v>16486045</v>
+        <v>16319277</v>
       </c>
       <c r="F298" t="n">
-        <v>87.70290254623779</v>
+        <v>117.667671056815</v>
       </c>
       <c r="G298" t="n">
-        <v>9.910489197331605</v>
+        <v>9.877930676447512</v>
       </c>
       <c r="H298" t="n">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="I298" t="n">
-        <v>213363</v>
+        <v>208115</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1693513</v>
+        <v>1695059</v>
       </c>
       <c r="E299" t="n">
-        <v>1699491</v>
+        <v>1701042</v>
       </c>
       <c r="F299" t="n">
-        <v>981.3380873237494</v>
+        <v>635.9173954823235</v>
       </c>
       <c r="G299" t="n">
-        <v>1089.952621914272</v>
+        <v>3909.358023352684</v>
       </c>
       <c r="H299" t="n">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="I299" t="n">
-        <v>470838</v>
+        <v>451276</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88825779</v>
+        <v>89249814</v>
       </c>
       <c r="E300" t="n">
-        <v>328337477</v>
+        <v>329903952</v>
       </c>
       <c r="F300" t="n">
-        <v>2265.357048178826</v>
+        <v>3990.19130938832</v>
       </c>
       <c r="G300" t="n">
-        <v>2790.064289550744</v>
+        <v>3443.418309183642</v>
       </c>
       <c r="H300" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I300" t="n">
-        <v>251115</v>
+        <v>271924</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2272751</v>
+        <v>2268777</v>
       </c>
       <c r="E301" t="n">
-        <v>9111111</v>
+        <v>9095182</v>
       </c>
       <c r="F301" t="n">
-        <v>4.097400758649901</v>
+        <v>4.09652286314514</v>
       </c>
       <c r="G301" t="n">
-        <v>5.335288814734601</v>
+        <v>372.0450624708983</v>
       </c>
       <c r="H301" t="n">
         <v>0.45</v>
       </c>
       <c r="I301" t="n">
-        <v>9877.110000000001</v>
+        <v>9855.129999999999</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>57481128</v>
+        <v>56049443</v>
       </c>
       <c r="E302" t="n">
-        <v>140997312</v>
+        <v>137485485</v>
       </c>
       <c r="F302" t="n">
-        <v>519.1638885038146</v>
+        <v>1008.371466517405</v>
       </c>
       <c r="G302" t="n">
-        <v>1330.857177202749</v>
+        <v>1880.538322777977</v>
       </c>
       <c r="H302" t="n">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="I302" t="n">
-        <v>21854858</v>
+        <v>21689846</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>753508133</v>
+        <v>747264723</v>
       </c>
       <c r="E303" t="n">
-        <v>1161976069</v>
+        <v>1152348180</v>
       </c>
       <c r="F303" t="n">
-        <v>28415.40503040032</v>
+        <v>5467.269448930453</v>
       </c>
       <c r="G303" t="n">
-        <v>30869.97844262269</v>
+        <v>20425.15963040457</v>
       </c>
       <c r="H303" t="n">
-        <v>0.32</v>
+        <v>0.73</v>
       </c>
       <c r="I303" t="n">
-        <v>269930878</v>
+        <v>379344112</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19335474</v>
+        <v>18341999</v>
       </c>
       <c r="E304" t="n">
-        <v>19335474</v>
+        <v>18341999</v>
       </c>
       <c r="F304" t="n">
-        <v>587.5283616484662</v>
+        <v>96.84963073838934</v>
       </c>
       <c r="G304" t="n">
-        <v>2950.637721430417</v>
+        <v>2787.515273394589</v>
       </c>
       <c r="H304" t="n">
-        <v>1.21</v>
+        <v>1.61</v>
       </c>
       <c r="I304" t="n">
-        <v>7180482</v>
+        <v>7250402</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1960388</v>
+        <v>1892765</v>
       </c>
       <c r="E305" t="n">
-        <v>3216664</v>
+        <v>3105705</v>
       </c>
       <c r="F305" t="n">
-        <v>323.9313320454838</v>
+        <v>367.9935356758354</v>
       </c>
       <c r="G305" t="n">
-        <v>151.2877912669786</v>
+        <v>126.698406558701</v>
       </c>
       <c r="H305" t="n">
-        <v>0.92</v>
+        <v>0.35</v>
       </c>
       <c r="I305" t="n">
-        <v>121179</v>
+        <v>117265</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>9682260</v>
+        <v>8811392</v>
       </c>
       <c r="E306" t="n">
-        <v>9682260</v>
+        <v>8811392</v>
       </c>
       <c r="F306" t="n">
-        <v>4.351547738546635</v>
+        <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>5.09372329844809</v>
+        <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>0.72</v>
+        <v>11.97</v>
       </c>
       <c r="I306" t="n">
-        <v>49166</v>
+        <v>61698</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39846028</v>
+        <v>39783652</v>
       </c>
       <c r="E307" t="n">
-        <v>190018204</v>
+        <v>189720742</v>
       </c>
       <c r="F307" t="n">
-        <v>1075.213926612098</v>
+        <v>1037.345699832603</v>
       </c>
       <c r="G307" t="n">
-        <v>225.8614703573419</v>
+        <v>198.5829923233032</v>
       </c>
       <c r="H307" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="I307" t="n">
-        <v>270749</v>
+        <v>270605</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>378395</v>
+        <v>374946</v>
       </c>
       <c r="E308" t="n">
-        <v>707705</v>
+        <v>701256</v>
       </c>
       <c r="F308" t="n">
-        <v>135.8241523941438</v>
+        <v>31.49377152730949</v>
       </c>
       <c r="G308" t="n">
-        <v>112.5925255563353</v>
+        <v>697.2922106157509</v>
       </c>
       <c r="H308" t="n">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
       <c r="I308" t="n">
-        <v>2362.36</v>
+        <v>2131.66</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23489430</v>
+        <v>22692015</v>
       </c>
       <c r="E309" t="n">
-        <v>39149049</v>
+        <v>37820024</v>
       </c>
       <c r="F309" t="n">
-        <v>1210.499656830649</v>
+        <v>561.4057794301514</v>
       </c>
       <c r="G309" t="n">
-        <v>3089.412419971439</v>
+        <v>393.2210999054344</v>
       </c>
       <c r="H309" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>22046</v>
+        <v>1136547</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107899</v>
+        <v>107616</v>
       </c>
       <c r="F310" t="n">
-        <v>3.785252522368627</v>
+        <v>5.291371834893021</v>
       </c>
       <c r="G310" t="n">
-        <v>13.57887254392347</v>
+        <v>4.055152385582974</v>
       </c>
       <c r="H310" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="I310" t="n">
-        <v>55892</v>
+        <v>55596</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>21618282</v>
+        <v>21655941</v>
       </c>
       <c r="E311" t="n">
-        <v>21618282</v>
+        <v>21655941</v>
       </c>
       <c r="F311" t="n">
-        <v>3409.889541791517</v>
+        <v>5026.143745358843</v>
       </c>
       <c r="G311" t="n">
-        <v>3399.161390099495</v>
+        <v>6165.808316823355</v>
       </c>
       <c r="H311" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I311" t="n">
-        <v>5975056</v>
+        <v>5950969</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3814146</v>
+        <v>3800413</v>
       </c>
       <c r="E312" t="n">
-        <v>8314303</v>
+        <v>8284366</v>
       </c>
       <c r="F312" t="n">
-        <v>1939.555535488988</v>
+        <v>1882.884384649324</v>
       </c>
       <c r="G312" t="n">
-        <v>1901.209383621425</v>
+        <v>1920.511129451516</v>
       </c>
       <c r="H312" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>2028163</v>
+        <v>2035367</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9236161</v>
+        <v>9248278</v>
       </c>
       <c r="E313" t="n">
-        <v>9236161</v>
+        <v>9248278</v>
       </c>
       <c r="F313" t="n">
-        <v>116221.8617034821</v>
+        <v>116720.9278914999</v>
       </c>
       <c r="G313" t="n">
-        <v>15534.76392231032</v>
+        <v>14509.67242722166</v>
       </c>
       <c r="H313" t="n">
         <v>0.04</v>
       </c>
       <c r="I313" t="n">
-        <v>6219958</v>
+        <v>6331076</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>469003399</v>
+        <v>461984228</v>
       </c>
       <c r="E314" t="n">
-        <v>1632561801</v>
+        <v>1608128649</v>
       </c>
       <c r="F314" t="n">
-        <v>452272.814849592</v>
+        <v>492741.7533871416</v>
       </c>
       <c r="G314" t="n">
-        <v>407853.0553329817</v>
+        <v>477872.328551707</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>46956285</v>
+        <v>48231996</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22209184</v>
+        <v>22249263</v>
       </c>
       <c r="E315" t="n">
-        <v>22189892</v>
+        <v>22229936</v>
       </c>
       <c r="F315" t="n">
-        <v>224.6062048077042</v>
+        <v>291.3199085198405</v>
       </c>
       <c r="G315" t="n">
-        <v>817.3118158597917</v>
+        <v>820.3853566343722</v>
       </c>
       <c r="H315" t="n">
         <v>0.45</v>
       </c>
       <c r="I315" t="n">
-        <v>410333</v>
+        <v>407282</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>46150098</v>
+        <v>46035313</v>
       </c>
       <c r="E316" t="n">
-        <v>113604800</v>
+        <v>113322245</v>
       </c>
       <c r="F316" t="n">
-        <v>113.9873406332585</v>
+        <v>87.498639675927</v>
       </c>
       <c r="G316" t="n">
-        <v>1273.331933563574</v>
+        <v>793.8137482447147</v>
       </c>
       <c r="H316" t="n">
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
       <c r="I316" t="n">
-        <v>117074</v>
+        <v>116931</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11897810</v>
+        <v>11843426</v>
       </c>
       <c r="E317" t="n">
-        <v>24019735</v>
+        <v>23906976</v>
       </c>
       <c r="F317" t="n">
-        <v>140.8009121998222</v>
+        <v>131.3992281637055</v>
       </c>
       <c r="G317" t="n">
-        <v>986.408216874556</v>
+        <v>1002.52948024788</v>
       </c>
       <c r="H317" t="n">
         <v>0.41</v>
       </c>
       <c r="I317" t="n">
-        <v>68076</v>
+        <v>66620</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7242494</v>
+        <v>7199852</v>
       </c>
       <c r="E318" t="n">
-        <v>18815220</v>
+        <v>18704440</v>
       </c>
       <c r="F318" t="n">
-        <v>5303.292137063967</v>
+        <v>5567.37429695045</v>
       </c>
       <c r="G318" t="n">
-        <v>134.5259277941907</v>
+        <v>5146.301417121901</v>
       </c>
       <c r="H318" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I318" t="n">
-        <v>764366</v>
+        <v>768697</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>144975</v>
+        <v>144740</v>
       </c>
       <c r="F319" t="n">
-        <v>24.83720493950001</v>
+        <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>241.5635862620117</v>
+        <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>2.31</v>
+        <v>4.23</v>
       </c>
       <c r="I319" t="n">
-        <v>55488</v>
+        <v>54642</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18808587959</v>
+        <v>18785767395</v>
       </c>
       <c r="F320" t="n">
-        <v>64.30718492474851</v>
+        <v>90.82655869546996</v>
       </c>
       <c r="G320" t="n">
-        <v>29084.16339780359</v>
+        <v>29484.39052981156</v>
       </c>
       <c r="H320" t="n">
         <v>0.58</v>
       </c>
       <c r="I320" t="n">
-        <v>35449147</v>
+        <v>33883645</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>106462232</v>
+        <v>105599583</v>
       </c>
       <c r="E321" t="n">
-        <v>161302582</v>
+        <v>159995569</v>
       </c>
       <c r="F321" t="n">
-        <v>9974.167541240195</v>
+        <v>16468.49589832653</v>
       </c>
       <c r="G321" t="n">
-        <v>18684.46880888423</v>
+        <v>19328.30816014861</v>
       </c>
       <c r="H321" t="n">
-        <v>0.78</v>
+        <v>1.09</v>
       </c>
       <c r="I321" t="n">
-        <v>9993461</v>
+        <v>9697216</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2359905</v>
+        <v>2360569</v>
       </c>
       <c r="E322" t="n">
-        <v>9439621</v>
+        <v>9442274</v>
       </c>
       <c r="F322" t="n">
-        <v>1254.357095987638</v>
+        <v>2527.789654123403</v>
       </c>
       <c r="G322" t="n">
-        <v>1733.643906769891</v>
+        <v>1823.421762834708</v>
       </c>
       <c r="H322" t="n">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="I322" t="n">
-        <v>7488027</v>
+        <v>7513742</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>210616658</v>
+        <v>207547802</v>
       </c>
       <c r="E323" t="n">
-        <v>647566963</v>
+        <v>638131387</v>
       </c>
       <c r="F323" t="n">
-        <v>131524.2238403409</v>
+        <v>114841.4455417952</v>
       </c>
       <c r="G323" t="n">
-        <v>173080.6144711145</v>
+        <v>155376.1316883858</v>
       </c>
       <c r="H323" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I323" t="n">
-        <v>22403400</v>
+        <v>22565740</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>135076702</v>
+        <v>134085123</v>
       </c>
       <c r="E324" t="n">
-        <v>352884138</v>
+        <v>350293663</v>
       </c>
       <c r="F324" t="n">
-        <v>9197.450946203175</v>
+        <v>22934.90975470143</v>
       </c>
       <c r="G324" t="n">
-        <v>9464.940380289489</v>
+        <v>10795.23623849095</v>
       </c>
       <c r="H324" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I324" t="n">
-        <v>9385383</v>
+        <v>8837426</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2388217</v>
+        <v>2315609</v>
       </c>
       <c r="E325" t="n">
-        <v>3277803</v>
+        <v>3178148</v>
       </c>
       <c r="F325" t="n">
-        <v>370.7196796914484</v>
+        <v>156.1196636512506</v>
       </c>
       <c r="G325" t="n">
-        <v>274.6431370789822</v>
+        <v>2676.861976050549</v>
       </c>
       <c r="H325" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="I325" t="n">
-        <v>978614</v>
+        <v>995577</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>381280420</v>
+        <v>379864178</v>
       </c>
       <c r="E326" t="n">
-        <v>2178745258</v>
+        <v>2170652444</v>
       </c>
       <c r="F326" t="n">
-        <v>251334.6259871344</v>
+        <v>260670.3970216919</v>
       </c>
       <c r="G326" t="n">
-        <v>361164.0866923435</v>
+        <v>354954.9317396523</v>
       </c>
       <c r="H326" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="I326" t="n">
-        <v>60462375</v>
+        <v>61386450</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93768</v>
+        <v>93955</v>
       </c>
       <c r="F2" t="n">
-        <v>3.888651657846813</v>
+        <v>3.888267200061896</v>
       </c>
       <c r="G2" t="n">
-        <v>4.176581260463597</v>
+        <v>4.176168336056577</v>
       </c>
       <c r="H2" t="n">
         <v>0.83</v>
       </c>
       <c r="I2" t="n">
-        <v>862.86</v>
+        <v>794.9299999999999</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>581018232</v>
+        <v>580901996</v>
       </c>
       <c r="E3" t="n">
-        <v>1127497495</v>
+        <v>1127271937</v>
       </c>
       <c r="F3" t="n">
-        <v>17990.82693655664</v>
+        <v>19835.65918040583</v>
       </c>
       <c r="G3" t="n">
-        <v>26499.84252046833</v>
+        <v>30795.77643042786</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="I3" t="n">
-        <v>46548806</v>
+        <v>45827769</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244258272</v>
+        <v>244235783</v>
       </c>
       <c r="E4" t="n">
-        <v>1531709292</v>
+        <v>1531568268</v>
       </c>
       <c r="F4" t="n">
-        <v>40210.44397843337</v>
+        <v>36064.11562998733</v>
       </c>
       <c r="G4" t="n">
-        <v>70323.53717737387</v>
+        <v>63695.77411651928</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>26209494</v>
+        <v>25593342</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138801697</v>
+        <v>138041314</v>
       </c>
       <c r="E5" t="n">
-        <v>153813972</v>
+        <v>152971349</v>
       </c>
       <c r="F5" t="n">
-        <v>100468.0506598597</v>
+        <v>119573.7897387937</v>
       </c>
       <c r="G5" t="n">
-        <v>191948.2962570822</v>
+        <v>227132.3331473192</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>52429917</v>
+        <v>52694077</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48085240</v>
+        <v>47642222</v>
       </c>
       <c r="E6" t="n">
-        <v>60153403</v>
+        <v>59599198</v>
       </c>
       <c r="F6" t="n">
-        <v>9434.438804984777</v>
+        <v>8730.153127802099</v>
       </c>
       <c r="G6" t="n">
-        <v>12435.12591021622</v>
+        <v>13476.81211280249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>884080</v>
+        <v>838973</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8180894</v>
+        <v>8154467</v>
       </c>
       <c r="E7" t="n">
-        <v>8387186</v>
+        <v>8360092</v>
       </c>
       <c r="F7" t="n">
-        <v>372.3685350462642</v>
+        <v>579.2876684900043</v>
       </c>
       <c r="G7" t="n">
-        <v>4798.346041147086</v>
+        <v>4356.251136907576</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="I7" t="n">
-        <v>99274</v>
+        <v>99071</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66407650</v>
+        <v>66436708</v>
       </c>
       <c r="E8" t="n">
-        <v>132261564</v>
+        <v>132319437</v>
       </c>
       <c r="F8" t="n">
-        <v>12373.9008195098</v>
+        <v>12226.34436089747</v>
       </c>
       <c r="G8" t="n">
-        <v>16434.81807438691</v>
+        <v>15843.32506934639</v>
       </c>
       <c r="H8" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>1031817</v>
+        <v>950169</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5071751</v>
+        <v>4996825</v>
       </c>
       <c r="E9" t="n">
-        <v>8103134</v>
+        <v>7983424</v>
       </c>
       <c r="F9" t="n">
-        <v>323.09529830926</v>
+        <v>320.2451358980123</v>
       </c>
       <c r="G9" t="n">
-        <v>245.156365923255</v>
+        <v>469.2851750315987</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="I9" t="n">
-        <v>99114</v>
+        <v>99400</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13871732</v>
+        <v>13863560</v>
       </c>
       <c r="E10" t="n">
-        <v>40879099</v>
+        <v>40855014</v>
       </c>
       <c r="F10" t="n">
-        <v>3832.241706163232</v>
+        <v>3938.385694645892</v>
       </c>
       <c r="G10" t="n">
-        <v>5247.376715204757</v>
+        <v>2931.20171554459</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I10" t="n">
-        <v>690915</v>
+        <v>893032</v>
       </c>
     </row>
     <row r="11">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>115888314</v>
+        <v>115712319</v>
       </c>
       <c r="E11" t="n">
-        <v>454247491</v>
+        <v>453557643</v>
       </c>
       <c r="F11" t="n">
         <v>78642.37841249093</v>
@@ -827,7 +827,7 @@
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>27302944</v>
+        <v>27320197</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8684863</v>
+        <v>8565818</v>
       </c>
       <c r="E12" t="n">
-        <v>37332372</v>
+        <v>36820653</v>
       </c>
       <c r="F12" t="n">
-        <v>2282.592877991974</v>
+        <v>1061.089501299584</v>
       </c>
       <c r="G12" t="n">
-        <v>4627.813686520552</v>
+        <v>3044.926483132753</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I12" t="n">
-        <v>969373</v>
+        <v>963379</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>997109</v>
+        <v>997524</v>
       </c>
       <c r="E13" t="n">
-        <v>12201924</v>
+        <v>12207004</v>
       </c>
       <c r="F13" t="n">
-        <v>171.0993145969691</v>
+        <v>170.0541717047581</v>
       </c>
       <c r="G13" t="n">
-        <v>460.2010937317415</v>
+        <v>416.2583734948684</v>
       </c>
       <c r="H13" t="n">
         <v>1.61</v>
       </c>
       <c r="I13" t="n">
-        <v>525.79</v>
+        <v>580.71</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>568629</v>
+        <v>560862</v>
       </c>
       <c r="E14" t="n">
-        <v>568629</v>
+        <v>560862</v>
       </c>
       <c r="F14" t="n">
-        <v>204.5548840443569</v>
+        <v>696.8693964852656</v>
       </c>
       <c r="G14" t="n">
-        <v>857.7717256297634</v>
+        <v>352.4286124072174</v>
       </c>
       <c r="H14" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>26918</v>
+        <v>26626</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>545969918</v>
+        <v>544190951</v>
       </c>
       <c r="E15" t="n">
-        <v>682927222</v>
+        <v>680701999</v>
       </c>
       <c r="F15" t="n">
-        <v>598930.2932635269</v>
+        <v>623550.7148824933</v>
       </c>
       <c r="G15" t="n">
-        <v>546810.6020188128</v>
+        <v>555294.9701423014</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>98177102</v>
+        <v>98141310</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3172019</v>
+        <v>3167824</v>
       </c>
       <c r="E16" t="n">
-        <v>9024113</v>
+        <v>9012180</v>
       </c>
       <c r="F16" t="n">
-        <v>600.8226336423412</v>
+        <v>208.8151228599122</v>
       </c>
       <c r="G16" t="n">
-        <v>52.79755951641193</v>
+        <v>32.59158415689922</v>
       </c>
       <c r="H16" t="n">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="I16" t="n">
-        <v>111414</v>
+        <v>111229</v>
       </c>
     </row>
     <row r="17">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>308338</v>
+        <v>307890</v>
       </c>
       <c r="E17" t="n">
-        <v>3558591</v>
+        <v>3553416</v>
       </c>
       <c r="F17" t="n">
         <v>5.332993317756691</v>
@@ -1037,7 +1037,7 @@
         <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>888.0700000000001</v>
+        <v>885.23</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1243591</v>
+        <v>1244574</v>
       </c>
       <c r="E18" t="n">
-        <v>9539080</v>
+        <v>9546620</v>
       </c>
       <c r="F18" t="n">
-        <v>83.85311491647423</v>
+        <v>102.5370457604223</v>
       </c>
       <c r="G18" t="n">
-        <v>131.843572170857</v>
+        <v>140.5322793480159</v>
       </c>
       <c r="H18" t="n">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="I18" t="n">
-        <v>122915</v>
+        <v>122414</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24397650</v>
+        <v>23977685</v>
       </c>
       <c r="E19" t="n">
-        <v>24442650</v>
+        <v>24021911</v>
       </c>
       <c r="F19" t="n">
-        <v>2320.118932800574</v>
+        <v>656.6183362710472</v>
       </c>
       <c r="G19" t="n">
-        <v>1054.362466871205</v>
+        <v>754.9078822014616</v>
       </c>
       <c r="H19" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="I19" t="n">
-        <v>886143</v>
+        <v>881127</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4001590</v>
+        <v>4087435</v>
       </c>
       <c r="E20" t="n">
-        <v>22203192</v>
+        <v>22679509</v>
       </c>
       <c r="F20" t="n">
-        <v>4.151725719222501</v>
+        <v>4.151307950747748</v>
       </c>
       <c r="G20" t="n">
-        <v>4.256426285901627</v>
+        <v>4.255997981905261</v>
       </c>
       <c r="H20" t="n">
         <v>1.07</v>
       </c>
       <c r="I20" t="n">
-        <v>3158.95</v>
+        <v>20145</v>
       </c>
     </row>
     <row r="21">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6836973</v>
+        <v>6850110</v>
       </c>
       <c r="E21" t="n">
-        <v>12684027</v>
+        <v>12708398</v>
       </c>
       <c r="F21" t="n">
         <v>385.5291766830786</v>
@@ -1177,7 +1177,7 @@
         <v>1.18</v>
       </c>
       <c r="I21" t="n">
-        <v>56563</v>
+        <v>56014</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68672119</v>
+        <v>68420442</v>
       </c>
       <c r="E22" t="n">
-        <v>118883757</v>
+        <v>118448059</v>
       </c>
       <c r="F22" t="n">
-        <v>1861.281123529667</v>
+        <v>1819.342928910932</v>
       </c>
       <c r="G22" t="n">
-        <v>444.0151692135241</v>
+        <v>678.9621989129419</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="I22" t="n">
-        <v>838941</v>
+        <v>836835</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>169386</v>
+        <v>169146</v>
       </c>
       <c r="E23" t="n">
-        <v>509433</v>
+        <v>508708</v>
       </c>
       <c r="F23" t="n">
-        <v>8.38007378431257</v>
+        <v>8.377509733542121</v>
       </c>
       <c r="G23" t="n">
-        <v>95.88465900764319</v>
+        <v>95.85532118316451</v>
       </c>
       <c r="H23" t="n">
         <v>0.59</v>
       </c>
       <c r="I23" t="n">
-        <v>207.63</v>
+        <v>207.6</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78550843</v>
+        <v>78045946</v>
       </c>
       <c r="E24" t="n">
-        <v>231106322</v>
+        <v>229620854</v>
       </c>
       <c r="F24" t="n">
-        <v>534.3734981274981</v>
+        <v>534.3460486848678</v>
       </c>
       <c r="G24" t="n">
-        <v>732.9774375086585</v>
+        <v>732.9397862737251</v>
       </c>
       <c r="H24" t="n">
         <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>474549</v>
+        <v>477819</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6615211</v>
+        <v>6839316</v>
       </c>
       <c r="F25" t="n">
-        <v>4.087319294835202</v>
+        <v>4.086742761516883</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9567219119957</v>
+        <v>74.65004309980071</v>
       </c>
       <c r="H25" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="I25" t="n">
-        <v>21140</v>
+        <v>18911.89</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2352356</v>
+        <v>2346057</v>
       </c>
       <c r="E26" t="n">
-        <v>2352356</v>
+        <v>2346057</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>10.12</v>
       </c>
       <c r="I26" t="n">
-        <v>310557</v>
+        <v>313203</v>
       </c>
     </row>
     <row r="27">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16543658</v>
+        <v>16451450</v>
       </c>
       <c r="E27" t="n">
-        <v>21293046</v>
+        <v>21174366</v>
       </c>
       <c r="F27" t="n">
         <v>549.2047670718945</v>
@@ -1387,7 +1387,7 @@
         <v>0.27</v>
       </c>
       <c r="I27" t="n">
-        <v>1923845</v>
+        <v>1912119</v>
       </c>
     </row>
     <row r="28">
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4578449</v>
+        <v>4561850</v>
       </c>
       <c r="E28" t="n">
-        <v>4578449</v>
+        <v>4561850</v>
       </c>
       <c r="F28" t="n">
         <v>2020.680561794056</v>
@@ -1422,7 +1422,7 @@
         <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>2266075</v>
+        <v>2260712</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1970615</v>
+        <v>1960939</v>
       </c>
       <c r="F29" t="n">
-        <v>131.98906075025</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>80.49829149458955</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.83</v>
+        <v>4.11</v>
       </c>
       <c r="I29" t="n">
-        <v>307867</v>
+        <v>304066</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3233064</v>
+        <v>3204902</v>
       </c>
       <c r="E30" t="n">
-        <v>3233064</v>
+        <v>3204902</v>
       </c>
       <c r="F30" t="n">
-        <v>615.4198868036623</v>
+        <v>639.526494152035</v>
       </c>
       <c r="G30" t="n">
-        <v>345.5035981108303</v>
+        <v>442.3070782638189</v>
       </c>
       <c r="H30" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="I30" t="n">
-        <v>641811</v>
+        <v>642328</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>297703</v>
+        <v>297292</v>
       </c>
       <c r="E31" t="n">
-        <v>1389710</v>
+        <v>1387787</v>
       </c>
       <c r="F31" t="n">
-        <v>14.52745523886687</v>
+        <v>92.88420673668494</v>
       </c>
       <c r="G31" t="n">
-        <v>86.08167110375361</v>
+        <v>1.163597962245164</v>
       </c>
       <c r="H31" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="I31" t="n">
-        <v>671637</v>
+        <v>679738</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>344635</v>
+        <v>341449</v>
       </c>
       <c r="E32" t="n">
-        <v>344635</v>
+        <v>341449</v>
       </c>
       <c r="F32" t="n">
-        <v>91.88882646087166</v>
+        <v>121.5296301544175</v>
       </c>
       <c r="G32" t="n">
-        <v>5.411729987075887</v>
+        <v>5.410273151126423</v>
       </c>
       <c r="H32" t="n">
         <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>52012</v>
+        <v>51981</v>
       </c>
     </row>
     <row r="33">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1825418</v>
+        <v>1816095</v>
       </c>
       <c r="F33" t="n">
         <v>4.330220469494559</v>
@@ -1597,7 +1597,7 @@
         <v>0.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1383727</v>
+        <v>1381978</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2004266</v>
+        <v>1810284</v>
       </c>
       <c r="F34" t="n">
-        <v>176.6492136560993</v>
+        <v>56.82305836775974</v>
       </c>
       <c r="G34" t="n">
-        <v>5.412397887372225</v>
+        <v>538.6722457494036</v>
       </c>
       <c r="H34" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="n">
-        <v>1307733</v>
+        <v>1288509</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11905584</v>
+        <v>11807544</v>
       </c>
       <c r="E35" t="n">
-        <v>29630845</v>
+        <v>29386841</v>
       </c>
       <c r="F35" t="n">
-        <v>778.4798171969729</v>
+        <v>889.5804766675457</v>
       </c>
       <c r="G35" t="n">
-        <v>1725.969237686964</v>
+        <v>1172.483653807867</v>
       </c>
       <c r="H35" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="I35" t="n">
-        <v>1525854</v>
+        <v>1521488</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6874558</v>
+        <v>6871224</v>
       </c>
       <c r="E36" t="n">
-        <v>9468023</v>
+        <v>9463431</v>
       </c>
       <c r="F36" t="n">
-        <v>1908.505144455917</v>
+        <v>485.6817562356313</v>
       </c>
       <c r="G36" t="n">
-        <v>544.7943899057723</v>
+        <v>726.4743046450924</v>
       </c>
       <c r="H36" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="I36" t="n">
-        <v>405615</v>
+        <v>413845</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>893910</v>
+        <v>877222</v>
       </c>
       <c r="E37" t="n">
-        <v>6257371</v>
+        <v>6140556</v>
       </c>
       <c r="F37" t="n">
-        <v>392.8495949631844</v>
+        <v>73.42605792589526</v>
       </c>
       <c r="G37" t="n">
-        <v>89.50322499964194</v>
+        <v>1065.628956793723</v>
       </c>
       <c r="H37" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="I37" t="n">
-        <v>271186</v>
+        <v>226533</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>108023865</v>
+        <v>106240753</v>
       </c>
       <c r="E38" t="n">
-        <v>419915893</v>
+        <v>412975888</v>
       </c>
       <c r="F38" t="n">
-        <v>877.1653180502118</v>
+        <v>1541.132312728716</v>
       </c>
       <c r="G38" t="n">
-        <v>3044.796211557783</v>
+        <v>2809.46052542853</v>
       </c>
       <c r="H38" t="n">
-        <v>1.08</v>
+        <v>1.39</v>
       </c>
       <c r="I38" t="n">
-        <v>12446636</v>
+        <v>12296679</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5464378</v>
+        <v>5450148</v>
       </c>
       <c r="E39" t="n">
-        <v>5725794</v>
+        <v>5710884</v>
       </c>
       <c r="F39" t="n">
-        <v>73.40616452412544</v>
+        <v>203.3281111450077</v>
       </c>
       <c r="G39" t="n">
-        <v>1295.526686049316</v>
+        <v>378.2667741955386</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>150137</v>
+        <v>173934</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4631684</v>
+        <v>4673921</v>
       </c>
       <c r="E40" t="n">
-        <v>6818090</v>
+        <v>6880265</v>
       </c>
       <c r="F40" t="n">
-        <v>483.5820495719119</v>
+        <v>446.6720762858956</v>
       </c>
       <c r="G40" t="n">
-        <v>1200.43636549656</v>
+        <v>1071.439407240204</v>
       </c>
       <c r="H40" t="n">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="I40" t="n">
-        <v>556518</v>
+        <v>149894</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7495508</v>
+        <v>7471563</v>
       </c>
       <c r="E41" t="n">
-        <v>7495508</v>
+        <v>7471563</v>
       </c>
       <c r="F41" t="n">
-        <v>1606.719494380971</v>
+        <v>1606.603937476517</v>
       </c>
       <c r="G41" t="n">
-        <v>2448.758727544009</v>
+        <v>2382.821610217692</v>
       </c>
       <c r="H41" t="n">
         <v>0.76</v>
       </c>
       <c r="I41" t="n">
-        <v>451970</v>
+        <v>288683</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1506629</v>
+        <v>1483067</v>
       </c>
       <c r="E42" t="n">
-        <v>1506629</v>
+        <v>1483067</v>
       </c>
       <c r="F42" t="n">
-        <v>294.4819942864808</v>
+        <v>156.3251601896551</v>
       </c>
       <c r="G42" t="n">
-        <v>34.30414962505132</v>
+        <v>242.9777190237805</v>
       </c>
       <c r="H42" t="n">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>284806</v>
+        <v>288133</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15725917</v>
+        <v>15725821</v>
       </c>
       <c r="F43" t="n">
-        <v>84.72773936519931</v>
+        <v>224.3883291412252</v>
       </c>
       <c r="G43" t="n">
-        <v>503.8271336067128</v>
+        <v>546.3496342749374</v>
       </c>
       <c r="H43" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="I43" t="n">
-        <v>14247.37</v>
+        <v>14458.58</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>135936708</v>
+        <v>135249207</v>
       </c>
       <c r="E44" t="n">
-        <v>135936708</v>
+        <v>135249207</v>
       </c>
       <c r="F44" t="n">
-        <v>343294.8850931915</v>
+        <v>324289.5942228269</v>
       </c>
       <c r="G44" t="n">
-        <v>322657.5478007036</v>
+        <v>365270.5669169011</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>89590140</v>
+        <v>90921771</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>62947814</v>
+        <v>62667939</v>
       </c>
       <c r="E45" t="n">
-        <v>322809301</v>
+        <v>321374046</v>
       </c>
       <c r="F45" t="n">
-        <v>36382.91631529158</v>
+        <v>34303.53362072815</v>
       </c>
       <c r="G45" t="n">
-        <v>81503.21175448468</v>
+        <v>72421.00239968607</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I45" t="n">
-        <v>27277316</v>
+        <v>27191517</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>597677</v>
+        <v>596499</v>
       </c>
       <c r="F46" t="n">
-        <v>61.02690730390906</v>
+        <v>61.39765628337945</v>
       </c>
       <c r="G46" t="n">
-        <v>476.9521805032043</v>
+        <v>476.3908082448822</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>633.5599999999999</v>
+        <v>632.73</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2614926</v>
+        <v>2606690</v>
       </c>
       <c r="E47" t="n">
-        <v>10508794</v>
+        <v>10475694</v>
       </c>
       <c r="F47" t="n">
-        <v>202.0896322689885</v>
+        <v>172.2882485059139</v>
       </c>
       <c r="G47" t="n">
-        <v>720.832520881386</v>
+        <v>705.6781400446371</v>
       </c>
       <c r="H47" t="n">
         <v>0.95</v>
       </c>
       <c r="I47" t="n">
-        <v>53164</v>
+        <v>50129</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17977595</v>
+        <v>18017379</v>
       </c>
       <c r="E48" t="n">
-        <v>125719808</v>
+        <v>125997069</v>
       </c>
       <c r="F48" t="n">
-        <v>444.9877514244812</v>
+        <v>679.2020870720064</v>
       </c>
       <c r="G48" t="n">
-        <v>751.8391261921055</v>
+        <v>779.6555656445955</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="I48" t="n">
-        <v>1133319</v>
+        <v>1089986</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1022362</v>
+        <v>1023131</v>
       </c>
       <c r="E49" t="n">
-        <v>1200009</v>
+        <v>1200911</v>
       </c>
       <c r="F49" t="n">
-        <v>1990.582789983355</v>
+        <v>1990.382487075051</v>
       </c>
       <c r="G49" t="n">
-        <v>665.3625971484378</v>
+        <v>389.5068175199183</v>
       </c>
       <c r="H49" t="n">
         <v>2.13</v>
       </c>
       <c r="I49" t="n">
-        <v>217472</v>
+        <v>218512</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>165863</v>
+        <v>165689</v>
       </c>
       <c r="E50" t="n">
-        <v>2219338</v>
+        <v>2217011</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46831</v>
+        <v>46832</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>248446912</v>
+        <v>246330012</v>
       </c>
       <c r="E51" t="n">
-        <v>248446912</v>
+        <v>246330012</v>
       </c>
       <c r="F51" t="n">
-        <v>26327.86461814557</v>
+        <v>17010.15352911738</v>
       </c>
       <c r="G51" t="n">
-        <v>39419.99518906664</v>
+        <v>31814.77132725302</v>
       </c>
       <c r="H51" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="I51" t="n">
-        <v>25849825</v>
+        <v>25875501</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1110560</v>
+        <v>1108249</v>
       </c>
       <c r="F52" t="n">
-        <v>3.914733504523913</v>
+        <v>3.914084624324843</v>
       </c>
       <c r="G52" t="n">
-        <v>4.024208006360215</v>
+        <v>4.023540980395548</v>
       </c>
       <c r="H52" t="n">
         <v>0.55</v>
       </c>
       <c r="I52" t="n">
-        <v>137034</v>
+        <v>137039</v>
       </c>
     </row>
     <row r="53">
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2279730</v>
+        <v>2295933</v>
       </c>
       <c r="E53" t="n">
-        <v>2527835</v>
+        <v>2553231</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>334689</v>
+        <v>334730</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>111189</v>
+        <v>110534</v>
       </c>
       <c r="E54" t="n">
-        <v>111189</v>
+        <v>110534</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>297.07</v>
+        <v>294.24</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6845580</v>
+        <v>6853402</v>
       </c>
       <c r="E55" t="n">
-        <v>16627386</v>
+        <v>16646385</v>
       </c>
       <c r="F55" t="n">
-        <v>530.7993538738693</v>
+        <v>541.7039835810748</v>
       </c>
       <c r="G55" t="n">
-        <v>851.2352316229276</v>
+        <v>795.3879442241779</v>
       </c>
       <c r="H55" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="I55" t="n">
-        <v>434536</v>
+        <v>434415</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>415707390</v>
+        <v>414553911</v>
       </c>
       <c r="E56" t="n">
-        <v>415707390</v>
+        <v>414553911</v>
       </c>
       <c r="F56" t="n">
-        <v>11232.96349620219</v>
+        <v>8686.755787443713</v>
       </c>
       <c r="G56" t="n">
-        <v>3178.001084961831</v>
+        <v>2623.155276992955</v>
       </c>
       <c r="H56" t="n">
         <v>0.02</v>
       </c>
       <c r="I56" t="n">
-        <v>4221990</v>
+        <v>4176652</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2391428</v>
+        <v>2383223</v>
       </c>
       <c r="E57" t="n">
-        <v>2391428</v>
+        <v>2383223</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>154594</v>
+        <v>154935</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>170482521</v>
+        <v>169484633</v>
       </c>
       <c r="E58" t="n">
-        <v>224335059</v>
+        <v>223021955</v>
       </c>
       <c r="F58" t="n">
-        <v>2694.615044712598</v>
+        <v>2231.917531236545</v>
       </c>
       <c r="G58" t="n">
-        <v>19802.63223180862</v>
+        <v>7959.651678598839</v>
       </c>
       <c r="H58" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="I58" t="n">
-        <v>17904364</v>
+        <v>18068616</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1115515</v>
+        <v>1115315</v>
       </c>
       <c r="E59" t="n">
-        <v>12122997</v>
+        <v>12120826</v>
       </c>
       <c r="F59" t="n">
-        <v>329.3113038915627</v>
+        <v>407.9041546069457</v>
       </c>
       <c r="G59" t="n">
-        <v>4.044274743403361</v>
+        <v>4.043867787210853</v>
       </c>
       <c r="H59" t="n">
         <v>0.36</v>
       </c>
       <c r="I59" t="n">
-        <v>14416.17</v>
+        <v>12908.39</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2572797</v>
+        <v>2570219</v>
       </c>
       <c r="E60" t="n">
-        <v>6577580</v>
+        <v>6570988</v>
       </c>
       <c r="F60" t="n">
-        <v>273.1935063708052</v>
+        <v>206.1877011155227</v>
       </c>
       <c r="G60" t="n">
-        <v>147.3388145878973</v>
+        <v>874.3402280874525</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>80643</v>
+        <v>80108</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>80252009</v>
+        <v>79857234</v>
       </c>
       <c r="E61" t="n">
-        <v>224543111</v>
+        <v>223438540</v>
       </c>
       <c r="F61" t="n">
-        <v>64365.55779255339</v>
+        <v>94525.37826486707</v>
       </c>
       <c r="G61" t="n">
-        <v>71082.1608260185</v>
+        <v>77164.9398769438</v>
       </c>
       <c r="H61" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I61" t="n">
-        <v>60435836</v>
+        <v>54437235</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>64130121</v>
+        <v>64949903</v>
       </c>
       <c r="E62" t="n">
-        <v>64130121</v>
+        <v>64949903</v>
       </c>
       <c r="F62" t="n">
-        <v>2.639276770446181</v>
+        <v>5.351294972554027</v>
       </c>
       <c r="G62" t="n">
-        <v>2034.432915597729</v>
+        <v>1180.567208743538</v>
       </c>
       <c r="H62" t="n">
-        <v>1.32</v>
+        <v>2.15</v>
       </c>
       <c r="I62" t="n">
-        <v>6596650</v>
+        <v>6794388</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4073860</v>
+        <v>4056882</v>
       </c>
       <c r="E63" t="n">
-        <v>8033994</v>
+        <v>8000512</v>
       </c>
       <c r="F63" t="n">
-        <v>1195.472910336345</v>
+        <v>1111.011344513144</v>
       </c>
       <c r="G63" t="n">
-        <v>885.9136523566681</v>
+        <v>1181.808006801481</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="I63" t="n">
-        <v>1676609</v>
+        <v>1676747</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1607656</v>
+        <v>1598178</v>
       </c>
       <c r="E64" t="n">
-        <v>9230563</v>
+        <v>9176140</v>
       </c>
       <c r="F64" t="n">
-        <v>2.735748055338965</v>
+        <v>367.152828733414</v>
       </c>
       <c r="G64" t="n">
-        <v>2.541048470034665</v>
+        <v>4.21926684542801</v>
       </c>
       <c r="H64" t="n">
-        <v>1.86</v>
+        <v>0.6</v>
       </c>
       <c r="I64" t="n">
-        <v>245352</v>
+        <v>245178</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>596625</v>
+        <v>595012</v>
       </c>
       <c r="F65" t="n">
-        <v>4.182311628942476</v>
+        <v>4.181054532646629</v>
       </c>
       <c r="G65" t="n">
-        <v>5.487417467667675</v>
+        <v>5.485768089815332</v>
       </c>
       <c r="H65" t="n">
         <v>0.61</v>
       </c>
       <c r="I65" t="n">
-        <v>5521.03</v>
+        <v>5533.25</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31200428</v>
+        <v>31225422</v>
       </c>
       <c r="F66" t="n">
-        <v>844.5839952615577</v>
+        <v>854.5057084337108</v>
       </c>
       <c r="G66" t="n">
-        <v>739.4170255431881</v>
+        <v>701.0672689828532</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I66" t="n">
-        <v>233346</v>
+        <v>230318</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>160591</v>
+        <v>164850</v>
       </c>
       <c r="E67" t="n">
-        <v>1084490</v>
+        <v>1113250</v>
       </c>
       <c r="F67" t="n">
-        <v>137.1236615478811</v>
+        <v>137.1043196873829</v>
       </c>
       <c r="G67" t="n">
-        <v>127.5860826837748</v>
+        <v>127.087997331148</v>
       </c>
       <c r="H67" t="n">
         <v>1.14</v>
       </c>
       <c r="I67" t="n">
-        <v>3186359</v>
+        <v>3195715</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17403751</v>
+        <v>17400089</v>
       </c>
       <c r="E68" t="n">
-        <v>18343146</v>
+        <v>18339286</v>
       </c>
       <c r="F68" t="n">
-        <v>1188.80862188721</v>
+        <v>1175.40094900256</v>
       </c>
       <c r="G68" t="n">
-        <v>1626.772816907899</v>
+        <v>1638.212304501045</v>
       </c>
       <c r="H68" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I68" t="n">
-        <v>47550</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2902366</v>
+        <v>2889745</v>
       </c>
       <c r="E69" t="n">
-        <v>2902366</v>
+        <v>2889745</v>
       </c>
       <c r="F69" t="n">
-        <v>972.8833689867355</v>
+        <v>973.5947658276619</v>
       </c>
       <c r="G69" t="n">
-        <v>4.000783381077206</v>
+        <v>4.000219054007998</v>
       </c>
       <c r="H69" t="n">
-        <v>1.2</v>
+        <v>0.64</v>
       </c>
       <c r="I69" t="n">
-        <v>14539.51</v>
+        <v>14023.2</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3339280</v>
+        <v>3336457</v>
       </c>
       <c r="E70" t="n">
-        <v>8239502</v>
+        <v>8232537</v>
       </c>
       <c r="F70" t="n">
-        <v>1131.13862665679</v>
+        <v>1143.940317157238</v>
       </c>
       <c r="G70" t="n">
-        <v>1160.688992784378</v>
+        <v>1104.021423864583</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>43476</v>
+        <v>43343</v>
       </c>
     </row>
     <row r="71">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23008859</v>
+        <v>23001069</v>
       </c>
       <c r="F71" t="n">
         <v>4.23466875523275</v>
@@ -2923,7 +2923,7 @@
         <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>129991</v>
+        <v>130796</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>247481</v>
+        <v>248664</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3784.66</v>
+        <v>3881.65</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>82313344</v>
+        <v>81362697</v>
       </c>
       <c r="E73" t="n">
-        <v>171616712</v>
+        <v>169634688</v>
       </c>
       <c r="F73" t="n">
-        <v>16376.39731287109</v>
+        <v>14612.61330365702</v>
       </c>
       <c r="G73" t="n">
-        <v>146.934614213322</v>
+        <v>127.2912295493186</v>
       </c>
       <c r="H73" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="I73" t="n">
-        <v>70717839</v>
+        <v>70753160</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>189472236</v>
+        <v>187640361</v>
       </c>
       <c r="F75" t="n">
-        <v>13916.05669953688</v>
+        <v>6611.333031582505</v>
       </c>
       <c r="G75" t="n">
-        <v>11233.85915194315</v>
+        <v>15220.03407904651</v>
       </c>
       <c r="H75" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I75" t="n">
-        <v>3394078</v>
+        <v>3360408</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>83321576</v>
+        <v>82623237</v>
       </c>
       <c r="E76" t="n">
-        <v>114413491</v>
+        <v>113454563</v>
       </c>
       <c r="F76" t="n">
-        <v>458.7697197857443</v>
+        <v>633.7554902249049</v>
       </c>
       <c r="G76" t="n">
-        <v>1771.990212891137</v>
+        <v>1842.211486964835</v>
       </c>
       <c r="H76" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I76" t="n">
-        <v>1303378</v>
+        <v>1305436</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>186472</v>
+        <v>187185</v>
       </c>
       <c r="E77" t="n">
-        <v>194730</v>
+        <v>195475</v>
       </c>
       <c r="F77" t="n">
-        <v>7.04779379430088</v>
+        <v>5.114202972425914</v>
       </c>
       <c r="G77" t="n">
-        <v>482.0355684350336</v>
+        <v>80.8413021312943</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>180.78</v>
+        <v>183.36</v>
       </c>
     </row>
     <row r="78">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7376656</v>
+        <v>7384552</v>
       </c>
       <c r="E78" t="n">
-        <v>8114814</v>
+        <v>8123501</v>
       </c>
       <c r="F78" t="n">
         <v>536.0612267173161</v>
@@ -3158,7 +3158,7 @@
         <v>1.25</v>
       </c>
       <c r="I78" t="n">
-        <v>629167</v>
+        <v>629598</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27419302</v>
+        <v>27539166</v>
       </c>
       <c r="E79" t="n">
-        <v>27419302</v>
+        <v>27539166</v>
       </c>
       <c r="F79" t="n">
-        <v>3449.484399269266</v>
+        <v>3588.840555249846</v>
       </c>
       <c r="G79" t="n">
-        <v>401.5420187768486</v>
+        <v>51.71701729654378</v>
       </c>
       <c r="H79" t="n">
-        <v>0.55</v>
+        <v>0.88</v>
       </c>
       <c r="I79" t="n">
-        <v>263101</v>
+        <v>266065</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>267948416</v>
+        <v>267425574</v>
       </c>
       <c r="E80" t="n">
-        <v>267948416</v>
+        <v>267425574</v>
       </c>
       <c r="F80" t="n">
-        <v>54.27367871613353</v>
+        <v>1432.943452487744</v>
       </c>
       <c r="G80" t="n">
-        <v>3081.387290287343</v>
+        <v>13192.82271977706</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="I80" t="n">
-        <v>12209336</v>
+        <v>12179408</v>
       </c>
     </row>
     <row r="81">
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>636226104</v>
+        <v>633855454</v>
       </c>
       <c r="E81" t="n">
-        <v>636226104</v>
+        <v>633855454</v>
       </c>
       <c r="F81" t="n">
         <v>1211819.323804288</v>
@@ -3263,7 +3263,7 @@
         <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>548315679</v>
+        <v>548151266</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113330</v>
+        <v>113138</v>
       </c>
       <c r="E82" t="n">
-        <v>113330</v>
+        <v>113138</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1334.43</v>
+        <v>1333.01</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>193493590</v>
+        <v>193284071</v>
       </c>
       <c r="E83" t="n">
-        <v>672214219</v>
+        <v>671486332</v>
       </c>
       <c r="F83" t="n">
-        <v>33.92868842005439</v>
+        <v>464.4076426888096</v>
       </c>
       <c r="G83" t="n">
-        <v>1554.173479262222</v>
+        <v>1560.653081222256</v>
       </c>
       <c r="H83" t="n">
-        <v>0.31</v>
+        <v>2.24</v>
       </c>
       <c r="I83" t="n">
-        <v>40947976</v>
+        <v>41044504</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3355961</v>
+        <v>3367373</v>
       </c>
       <c r="E84" t="n">
-        <v>3355961</v>
+        <v>3367373</v>
       </c>
       <c r="F84" t="n">
-        <v>401.1925582176419</v>
+        <v>491.545723345394</v>
       </c>
       <c r="G84" t="n">
-        <v>1643.905107702739</v>
+        <v>1556.833233224333</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="I84" t="n">
-        <v>2271316</v>
+        <v>2257295</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>108140429</v>
+        <v>107645009</v>
       </c>
       <c r="E85" t="n">
-        <v>458707953</v>
+        <v>456590572</v>
       </c>
       <c r="F85" t="n">
-        <v>163820.8929219223</v>
+        <v>224096.2244413164</v>
       </c>
       <c r="G85" t="n">
-        <v>212266.5662965236</v>
+        <v>241610.2818258417</v>
       </c>
       <c r="H85" t="n">
         <v>0.22</v>
       </c>
       <c r="I85" t="n">
-        <v>15132248</v>
+        <v>15068224</v>
       </c>
     </row>
     <row r="86">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73199131</v>
+        <v>72952354</v>
       </c>
       <c r="E86" t="n">
-        <v>83986679</v>
+        <v>83703533</v>
       </c>
       <c r="F86" t="n">
         <v>1200.956028134975</v>
@@ -3436,7 +3436,7 @@
         <v>0.37</v>
       </c>
       <c r="I86" t="n">
-        <v>1457035</v>
+        <v>1474947</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3261399</v>
+        <v>3227889</v>
       </c>
       <c r="E87" t="n">
-        <v>16353045</v>
+        <v>16185022</v>
       </c>
       <c r="F87" t="n">
-        <v>8.062977152522768</v>
+        <v>8.062250128582996</v>
       </c>
       <c r="G87" t="n">
-        <v>89.84874604706138</v>
+        <v>179.3146979857657</v>
       </c>
       <c r="H87" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="I87" t="n">
-        <v>30751</v>
+        <v>30577</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>520927</v>
+        <v>516542</v>
       </c>
       <c r="E88" t="n">
-        <v>8910413</v>
+        <v>8835424</v>
       </c>
       <c r="F88" t="n">
-        <v>488.2242688531464</v>
+        <v>587.9050733371157</v>
       </c>
       <c r="G88" t="n">
-        <v>1272.879401320653</v>
+        <v>1271.183657659034</v>
       </c>
       <c r="H88" t="n">
-        <v>1.11</v>
+        <v>0.3</v>
       </c>
       <c r="I88" t="n">
-        <v>124390</v>
+        <v>122838</v>
       </c>
     </row>
     <row r="89">
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5630694</v>
+        <v>5618843</v>
       </c>
       <c r="E89" t="n">
-        <v>7641494</v>
+        <v>7625530</v>
       </c>
       <c r="F89" t="n">
         <v>100.1255793972669</v>
@@ -3541,7 +3541,7 @@
         <v>0.21</v>
       </c>
       <c r="I89" t="n">
-        <v>5500282</v>
+        <v>5449925</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>38535591</v>
+        <v>38534769</v>
       </c>
       <c r="E90" t="n">
-        <v>45008655</v>
+        <v>45007695</v>
       </c>
       <c r="F90" t="n">
-        <v>1062.233484690638</v>
+        <v>1118.122372511651</v>
       </c>
       <c r="G90" t="n">
-        <v>117.229561170275</v>
+        <v>101.6248654632361</v>
       </c>
       <c r="H90" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="I90" t="n">
-        <v>951937</v>
+        <v>940983</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14206698</v>
+        <v>14099116</v>
       </c>
       <c r="F91" t="n">
-        <v>184.7648458653205</v>
+        <v>184.7081298564848</v>
       </c>
       <c r="G91" t="n">
-        <v>125.8522355264342</v>
+        <v>83.3958516633476</v>
       </c>
       <c r="H91" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="I91" t="n">
-        <v>222183</v>
+        <v>224355</v>
       </c>
     </row>
     <row r="92">
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34621551</v>
+        <v>34393361</v>
       </c>
       <c r="E92" t="n">
-        <v>34621551</v>
+        <v>34393361</v>
       </c>
       <c r="F92" t="n">
         <v>33.25729851915963</v>
@@ -3646,7 +3646,7 @@
         <v>0.51</v>
       </c>
       <c r="I92" t="n">
-        <v>904285</v>
+        <v>936283</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17106622</v>
+        <v>17089205</v>
       </c>
       <c r="F93" t="n">
-        <v>266.4326215416263</v>
+        <v>266.4062599633784</v>
       </c>
       <c r="G93" t="n">
-        <v>288.647372341156</v>
+        <v>288.618409587832</v>
       </c>
       <c r="H93" t="n">
         <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>176796</v>
+        <v>174106</v>
       </c>
     </row>
     <row r="94">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>534668</v>
+        <v>532754</v>
       </c>
       <c r="E94" t="n">
-        <v>6484999</v>
+        <v>6461790</v>
       </c>
       <c r="F94" t="n">
         <v>642.346194252135</v>
@@ -3716,7 +3716,7 @@
         <v>0.3</v>
       </c>
       <c r="I94" t="n">
-        <v>2867491</v>
+        <v>2877621</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24762291</v>
+        <v>24384762</v>
       </c>
       <c r="E95" t="n">
-        <v>34993109</v>
+        <v>34459600</v>
       </c>
       <c r="F95" t="n">
-        <v>5.351090520974338</v>
+        <v>5.349453248066465</v>
       </c>
       <c r="G95" t="n">
-        <v>2357.390041432118</v>
+        <v>2356.668750915166</v>
       </c>
       <c r="H95" t="n">
         <v>0.84</v>
       </c>
       <c r="I95" t="n">
-        <v>125465</v>
+        <v>141478</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1376498244</v>
+        <v>1379880682</v>
       </c>
       <c r="E96" t="n">
-        <v>6600590979</v>
+        <v>6616810463</v>
       </c>
       <c r="F96" t="n">
-        <v>70323.75748380671</v>
+        <v>263501.1420406618</v>
       </c>
       <c r="G96" t="n">
-        <v>78543.51932132349</v>
+        <v>288540.8649856703</v>
       </c>
       <c r="H96" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="I96" t="n">
-        <v>486231273</v>
+        <v>487903217</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>256721173</v>
+        <v>254791288</v>
       </c>
       <c r="E97" t="n">
-        <v>1108151099</v>
+        <v>1099820642</v>
       </c>
       <c r="F97" t="n">
-        <v>253046.2355290881</v>
+        <v>233306.7502506734</v>
       </c>
       <c r="G97" t="n">
-        <v>821386.1338652079</v>
+        <v>809227.7195644457</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>141861833</v>
+        <v>141515402</v>
       </c>
     </row>
     <row r="98">
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4748406</v>
+        <v>4743774</v>
       </c>
       <c r="E98" t="n">
-        <v>5262180</v>
+        <v>5257047</v>
       </c>
       <c r="F98" t="n">
         <v>305.1916296110737</v>
@@ -3856,7 +3856,7 @@
         <v>0.38</v>
       </c>
       <c r="I98" t="n">
-        <v>736967</v>
+        <v>734996</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94016</v>
+        <v>94184</v>
       </c>
       <c r="E99" t="n">
-        <v>94016</v>
+        <v>94184</v>
       </c>
       <c r="F99" t="n">
-        <v>3.965508500043486</v>
+        <v>3.965150937376698</v>
       </c>
       <c r="G99" t="n">
-        <v>51.86606604300174</v>
+        <v>208.3517569870204</v>
       </c>
       <c r="H99" t="n">
         <v>0.71</v>
       </c>
       <c r="I99" t="n">
-        <v>1344.28</v>
+        <v>1344.33</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112020772</v>
+        <v>111667282</v>
       </c>
       <c r="E100" t="n">
-        <v>112020772</v>
+        <v>111667282</v>
       </c>
       <c r="F100" t="n">
-        <v>25531.60669099268</v>
+        <v>8099.299854838595</v>
       </c>
       <c r="G100" t="n">
-        <v>15038.86148445608</v>
+        <v>11786.73242403592</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>7037810</v>
+        <v>7044587</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3882905</v>
+        <v>3837698</v>
       </c>
       <c r="F101" t="n">
-        <v>87.7058664485307</v>
+        <v>262.5328114867686</v>
       </c>
       <c r="G101" t="n">
-        <v>108.7759941979305</v>
+        <v>23.47040636603498</v>
       </c>
       <c r="H101" t="n">
-        <v>3.43</v>
+        <v>2.27</v>
       </c>
       <c r="I101" t="n">
-        <v>358213</v>
+        <v>355437</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2042340652</v>
+        <v>2041184387</v>
       </c>
       <c r="E102" t="n">
-        <v>2042340652</v>
+        <v>2041184387</v>
       </c>
       <c r="F102" t="n">
-        <v>12144587.86492233</v>
+        <v>10619049.63407348</v>
       </c>
       <c r="G102" t="n">
-        <v>4008934.853575365</v>
+        <v>3903654.174257886</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>9022827892</v>
+        <v>9071774841</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5315073</v>
+        <v>5343198</v>
       </c>
       <c r="E103" t="n">
-        <v>5321088</v>
+        <v>5349245</v>
       </c>
       <c r="F103" t="n">
-        <v>236.7407738064113</v>
+        <v>236.7073805395635</v>
       </c>
       <c r="G103" t="n">
-        <v>100.1609266796269</v>
+        <v>100.1467985660006</v>
       </c>
       <c r="H103" t="n">
         <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>145533</v>
+        <v>144953</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2523308</v>
+        <v>2448846</v>
       </c>
       <c r="F104" t="n">
-        <v>3.996109852502861</v>
+        <v>3.995707742914963</v>
       </c>
       <c r="G104" t="n">
-        <v>216.9137934267771</v>
+        <v>216.8919664201873</v>
       </c>
       <c r="H104" t="n">
         <v>0.8</v>
       </c>
       <c r="I104" t="n">
-        <v>24892</v>
+        <v>48333</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4140143</v>
+        <v>4138791</v>
       </c>
       <c r="E105" t="n">
-        <v>5435467</v>
+        <v>5433692</v>
       </c>
       <c r="F105" t="n">
-        <v>490.0699220087025</v>
+        <v>330.3588465708676</v>
       </c>
       <c r="G105" t="n">
-        <v>2099.966151505254</v>
+        <v>2068.978424916216</v>
       </c>
       <c r="H105" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I105" t="n">
-        <v>574553</v>
+        <v>573916</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19435133</v>
+        <v>19358450</v>
       </c>
       <c r="F106" t="n">
-        <v>248.5175329790897</v>
+        <v>246.2384306318487</v>
       </c>
       <c r="G106" t="n">
-        <v>123.9202730764007</v>
+        <v>123.9071396808461</v>
       </c>
       <c r="H106" t="n">
         <v>1.03</v>
       </c>
       <c r="I106" t="n">
-        <v>67216</v>
+        <v>67093</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1559480</v>
+        <v>1493951</v>
       </c>
       <c r="E107" t="n">
-        <v>5813671</v>
+        <v>5569383</v>
       </c>
       <c r="F107" t="n">
-        <v>139.3519287200064</v>
+        <v>866.0170220191674</v>
       </c>
       <c r="G107" t="n">
-        <v>159.8051411386295</v>
+        <v>163.6259170175476</v>
       </c>
       <c r="H107" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I107" t="n">
-        <v>714870</v>
+        <v>702822</v>
       </c>
     </row>
     <row r="108">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4143739</v>
+        <v>4086162</v>
       </c>
       <c r="E108" t="n">
-        <v>11934474</v>
+        <v>11768644</v>
       </c>
       <c r="F108" t="n">
         <v>871.9252180645711</v>
@@ -4206,7 +4206,7 @@
         <v>1.16</v>
       </c>
       <c r="I108" t="n">
-        <v>491053</v>
+        <v>489230</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>77772442</v>
+        <v>77672088</v>
       </c>
       <c r="E109" t="n">
-        <v>98971477</v>
+        <v>98843769</v>
       </c>
       <c r="F109" t="n">
-        <v>4458.760772591943</v>
+        <v>4100.219699994143</v>
       </c>
       <c r="G109" t="n">
-        <v>152.9675564856995</v>
+        <v>738.0909167992521</v>
       </c>
       <c r="H109" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="I109" t="n">
-        <v>6477219</v>
+        <v>6481555</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21854307</v>
+        <v>21818054</v>
       </c>
       <c r="E110" t="n">
-        <v>28350035</v>
+        <v>28303007</v>
       </c>
       <c r="F110" t="n">
-        <v>21320.26300645422</v>
+        <v>18607.52150147327</v>
       </c>
       <c r="G110" t="n">
-        <v>13749.75634275846</v>
+        <v>15650.19967947015</v>
       </c>
       <c r="H110" t="n">
         <v>0.03</v>
       </c>
       <c r="I110" t="n">
-        <v>203160</v>
+        <v>220570</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>599367</v>
+        <v>599478</v>
       </c>
       <c r="E111" t="n">
-        <v>599367</v>
+        <v>599478</v>
       </c>
       <c r="F111" t="n">
-        <v>5.626932107606528</v>
+        <v>5.62599942475036</v>
       </c>
       <c r="G111" t="n">
-        <v>567.8837542753489</v>
+        <v>567.7896256397478</v>
       </c>
       <c r="H111" t="n">
         <v>0.44</v>
       </c>
       <c r="I111" t="n">
-        <v>65685</v>
+        <v>65081</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13459578</v>
+        <v>13540823</v>
       </c>
       <c r="E112" t="n">
-        <v>13459578</v>
+        <v>13540823</v>
       </c>
       <c r="F112" t="n">
-        <v>1895.328678456413</v>
+        <v>2165.140390395462</v>
       </c>
       <c r="G112" t="n">
-        <v>1753.86577691553</v>
+        <v>3337.547599435984</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I112" t="n">
-        <v>5471136</v>
+        <v>5458091</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98054233</v>
+        <v>97869060</v>
       </c>
       <c r="E113" t="n">
-        <v>121289576</v>
+        <v>121060525</v>
       </c>
       <c r="F113" t="n">
-        <v>402.008134595399</v>
+        <v>200.4848905140682</v>
       </c>
       <c r="G113" t="n">
-        <v>254.549211236819</v>
+        <v>220.6060559771838</v>
       </c>
       <c r="H113" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="I113" t="n">
-        <v>1100874</v>
+        <v>1100350</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>861446</v>
+        <v>856351</v>
       </c>
       <c r="F114" t="n">
-        <v>175.8833585417584</v>
+        <v>166.8238629704708</v>
       </c>
       <c r="G114" t="n">
-        <v>149.8990030197735</v>
+        <v>128.1873513756938</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="I114" t="n">
-        <v>43008</v>
+        <v>42622</v>
       </c>
     </row>
     <row r="115">
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2620635</v>
+        <v>2619927</v>
       </c>
       <c r="F115" t="n">
         <v>308.7825817824418</v>
@@ -4451,7 +4451,7 @@
         <v>2.5</v>
       </c>
       <c r="I115" t="n">
-        <v>70741</v>
+        <v>70742</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10843073</v>
+        <v>10853576</v>
       </c>
       <c r="E116" t="n">
-        <v>15945694</v>
+        <v>15961139</v>
       </c>
       <c r="F116" t="n">
-        <v>3423.27653022284</v>
+        <v>3699.84570112997</v>
       </c>
       <c r="G116" t="n">
-        <v>1706.148868880339</v>
+        <v>1706.641257705232</v>
       </c>
       <c r="H116" t="n">
         <v>0.68</v>
       </c>
       <c r="I116" t="n">
-        <v>410451</v>
+        <v>480694</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3160211</v>
+        <v>3166070</v>
       </c>
       <c r="F117" t="n">
-        <v>68.70800068453237</v>
+        <v>3.90957953803195</v>
       </c>
       <c r="G117" t="n">
-        <v>152.251769001393</v>
+        <v>163.9266660714852</v>
       </c>
       <c r="H117" t="n">
-        <v>0.33</v>
+        <v>0.79</v>
       </c>
       <c r="I117" t="n">
-        <v>34788</v>
+        <v>35022</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1127233</v>
+        <v>1127335</v>
       </c>
       <c r="F118" t="n">
-        <v>3.899505665359597</v>
+        <v>3.898955623931735</v>
       </c>
       <c r="G118" t="n">
-        <v>47.38588115511996</v>
+        <v>47.37919718028628</v>
       </c>
       <c r="H118" t="n">
         <v>0.53</v>
       </c>
       <c r="I118" t="n">
-        <v>3721.78</v>
+        <v>3640.52</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4964593</v>
+        <v>4970738</v>
       </c>
       <c r="E119" t="n">
-        <v>6946185</v>
+        <v>6954783</v>
       </c>
       <c r="F119" t="n">
-        <v>378.0801878942073</v>
+        <v>1373.293801648812</v>
       </c>
       <c r="G119" t="n">
-        <v>1738.228544110236</v>
+        <v>1608.386996278139</v>
       </c>
       <c r="H119" t="n">
-        <v>0.22</v>
+        <v>1.1</v>
       </c>
       <c r="I119" t="n">
-        <v>66540</v>
+        <v>68321</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9701602</v>
+        <v>9711447</v>
       </c>
       <c r="E120" t="n">
-        <v>26722649</v>
+        <v>26749766</v>
       </c>
       <c r="F120" t="n">
-        <v>44.43794743492059</v>
+        <v>30.23051399175987</v>
       </c>
       <c r="G120" t="n">
-        <v>93.05389140232028</v>
+        <v>359.7293649944369</v>
       </c>
       <c r="H120" t="n">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="I120" t="n">
-        <v>333687</v>
+        <v>330375</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>49008533</v>
+        <v>48713174</v>
       </c>
       <c r="E121" t="n">
-        <v>124852039</v>
+        <v>124099597</v>
       </c>
       <c r="F121" t="n">
-        <v>1745.280433149572</v>
+        <v>1116.228434733278</v>
       </c>
       <c r="G121" t="n">
-        <v>11665.05980667321</v>
+        <v>11970.57834306333</v>
       </c>
       <c r="H121" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I121" t="n">
-        <v>2173457</v>
+        <v>2195446</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13701332</v>
+        <v>13716642</v>
       </c>
       <c r="E122" t="n">
-        <v>66357736</v>
+        <v>66431889</v>
       </c>
       <c r="F122" t="n">
-        <v>426.3763739924797</v>
+        <v>796.4692139700385</v>
       </c>
       <c r="G122" t="n">
-        <v>2285.532959370067</v>
+        <v>1684.470066726829</v>
       </c>
       <c r="H122" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I122" t="n">
-        <v>5467177</v>
+        <v>5578431</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>637672</v>
+        <v>625806</v>
       </c>
       <c r="F123" t="n">
-        <v>4.017838286262402</v>
+        <v>4.275072300027166</v>
       </c>
       <c r="G123" t="n">
-        <v>609.9545276083364</v>
+        <v>377.170916473672</v>
       </c>
       <c r="H123" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="I123" t="n">
-        <v>11463.81</v>
+        <v>11934.72</v>
       </c>
     </row>
     <row r="124">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4460138</v>
+        <v>4510837</v>
       </c>
       <c r="E124" t="n">
-        <v>10166687</v>
+        <v>10282254</v>
       </c>
       <c r="F124" t="n">
         <v>258.8472422938269</v>
@@ -4766,7 +4766,7 @@
         <v>0.79</v>
       </c>
       <c r="I124" t="n">
-        <v>65491</v>
+        <v>12337.94</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1837177035</v>
+        <v>1836615341</v>
       </c>
       <c r="F125" t="n">
-        <v>78646.41559313494</v>
+        <v>74045.81513413775</v>
       </c>
       <c r="G125" t="n">
-        <v>80798.18061696895</v>
+        <v>79982.10107628643</v>
       </c>
       <c r="H125" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I125" t="n">
-        <v>30814735</v>
+        <v>30784455</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9237156</v>
+        <v>9223563</v>
       </c>
       <c r="E126" t="n">
-        <v>33607608</v>
+        <v>33558159</v>
       </c>
       <c r="F126" t="n">
-        <v>2042.987495760316</v>
+        <v>2042.770974587237</v>
       </c>
       <c r="G126" t="n">
-        <v>5.499593704985786</v>
+        <v>5.499010843620783</v>
       </c>
       <c r="H126" t="n">
         <v>0.33</v>
       </c>
       <c r="I126" t="n">
-        <v>147902</v>
+        <v>147805</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>630567</v>
+        <v>637759</v>
       </c>
       <c r="F127" t="n">
-        <v>16.99066415336474</v>
+        <v>27.10478666995767</v>
       </c>
       <c r="G127" t="n">
-        <v>11.05026709719154</v>
+        <v>3.992720703937132</v>
       </c>
       <c r="H127" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="I127" t="n">
-        <v>648.14</v>
+        <v>674.65</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11599921</v>
+        <v>11642079</v>
       </c>
       <c r="E128" t="n">
-        <v>16818212</v>
+        <v>16879335</v>
       </c>
       <c r="F128" t="n">
-        <v>977.9845923659802</v>
+        <v>535.7644959865155</v>
       </c>
       <c r="G128" t="n">
-        <v>1196.376609338468</v>
+        <v>530.9728000840485</v>
       </c>
       <c r="H128" t="n">
-        <v>1.89</v>
+        <v>0.87</v>
       </c>
       <c r="I128" t="n">
-        <v>1778173</v>
+        <v>2025602</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>29709805</v>
+        <v>29645714</v>
       </c>
       <c r="E129" t="n">
-        <v>92506799</v>
+        <v>92307243</v>
       </c>
       <c r="F129" t="n">
-        <v>9671.902746647915</v>
+        <v>8725.033099240558</v>
       </c>
       <c r="G129" t="n">
-        <v>5250.823385403268</v>
+        <v>5494.98102326035</v>
       </c>
       <c r="H129" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I129" t="n">
-        <v>10561833</v>
+        <v>10561079</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1825478</v>
+        <v>1777070</v>
       </c>
       <c r="E130" t="n">
-        <v>13090319</v>
+        <v>12743195</v>
       </c>
       <c r="F130" t="n">
-        <v>4.06816521827187</v>
+        <v>3.844293077853295</v>
       </c>
       <c r="G130" t="n">
-        <v>4.012646029622555</v>
+        <v>5.140309509114775</v>
       </c>
       <c r="H130" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I130" t="n">
-        <v>2050603</v>
+        <v>2089377</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8402452</v>
+        <v>8416993</v>
       </c>
       <c r="F131" t="n">
-        <v>127.3025489628439</v>
+        <v>130.0983498734078</v>
       </c>
       <c r="G131" t="n">
-        <v>191.4697720389147</v>
+        <v>727.7722816521015</v>
       </c>
       <c r="H131" t="n">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="I131" t="n">
-        <v>537384</v>
+        <v>541188</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>191110414</v>
+        <v>190655842</v>
       </c>
       <c r="E132" t="n">
-        <v>1082184593</v>
+        <v>1079610525</v>
       </c>
       <c r="F132" t="n">
-        <v>352438.8706736764</v>
+        <v>348448.8423753674</v>
       </c>
       <c r="G132" t="n">
-        <v>625763.6675433421</v>
+        <v>535752.5306915975</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>85875751</v>
+        <v>86035261</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1008778</v>
+        <v>1007946</v>
       </c>
       <c r="E133" t="n">
-        <v>1008778</v>
+        <v>1007946</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5531.96</v>
+        <v>5501.58</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>487739</v>
+        <v>491745</v>
       </c>
       <c r="E134" t="n">
-        <v>1641661</v>
+        <v>1655145</v>
       </c>
       <c r="F134" t="n">
-        <v>244.1746964570487</v>
+        <v>270.9638065233835</v>
       </c>
       <c r="G134" t="n">
-        <v>197.9721524470069</v>
+        <v>111.9835232716004</v>
       </c>
       <c r="H134" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>641072</v>
+        <v>229519</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15362134</v>
+        <v>15367754</v>
       </c>
       <c r="F135" t="n">
-        <v>5.515420125865381</v>
+        <v>5.514642153008914</v>
       </c>
       <c r="G135" t="n">
-        <v>5.309189560240528</v>
+        <v>5.308440677059655</v>
       </c>
       <c r="H135" t="n">
         <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>199.21</v>
+        <v>199.29</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>122854097</v>
+        <v>123808156</v>
       </c>
       <c r="E136" t="n">
-        <v>910030351</v>
+        <v>917097449</v>
       </c>
       <c r="F136" t="n">
-        <v>718.0208064341184</v>
+        <v>572.6419193717312</v>
       </c>
       <c r="G136" t="n">
-        <v>1448.617191296271</v>
+        <v>961.2103273941271</v>
       </c>
       <c r="H136" t="n">
-        <v>2.09</v>
+        <v>0.74</v>
       </c>
       <c r="I136" t="n">
-        <v>26255919</v>
+        <v>27646168</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>29921282</v>
+        <v>29400475</v>
       </c>
       <c r="E137" t="n">
-        <v>141936663</v>
+        <v>139466128</v>
       </c>
       <c r="F137" t="n">
-        <v>1043.786695126506</v>
+        <v>928.5228636528924</v>
       </c>
       <c r="G137" t="n">
-        <v>903.0306316017799</v>
+        <v>933.3324646246914</v>
       </c>
       <c r="H137" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I137" t="n">
-        <v>714113</v>
+        <v>789709</v>
       </c>
     </row>
     <row r="138">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8736656</v>
+        <v>8529328</v>
       </c>
       <c r="E138" t="n">
-        <v>11704206</v>
+        <v>11426456</v>
       </c>
       <c r="F138" t="n">
         <v>653.2735700329326</v>
@@ -5254,7 +5254,7 @@
         <v>0.99</v>
       </c>
       <c r="I138" t="n">
-        <v>44658</v>
+        <v>42782</v>
       </c>
     </row>
     <row r="139">
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1166140</v>
+        <v>1165277</v>
       </c>
       <c r="F139" t="n">
         <v>4.109110676953612</v>
@@ -5289,7 +5289,7 @@
         <v>0.6</v>
       </c>
       <c r="I139" t="n">
-        <v>6004.91</v>
+        <v>5990.93</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2466237</v>
+        <v>2461962</v>
       </c>
       <c r="E140" t="n">
-        <v>2466237</v>
+        <v>2461962</v>
       </c>
       <c r="F140" t="n">
-        <v>1301.643873976599</v>
+        <v>1294.98236946651</v>
       </c>
       <c r="G140" t="n">
-        <v>230.5618536124058</v>
+        <v>146.2253109638662</v>
       </c>
       <c r="H140" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="I140" t="n">
-        <v>318212</v>
+        <v>319000</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>34986794</v>
+        <v>34987097</v>
       </c>
       <c r="E141" t="n">
-        <v>34986794</v>
+        <v>34987097</v>
       </c>
       <c r="F141" t="n">
-        <v>1187.598228942979</v>
+        <v>866.3209216703567</v>
       </c>
       <c r="G141" t="n">
-        <v>2205.727770244401</v>
+        <v>285.4098023959651</v>
       </c>
       <c r="H141" t="n">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="I141" t="n">
-        <v>979169</v>
+        <v>977611</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6346252</v>
+        <v>6274215</v>
       </c>
       <c r="E142" t="n">
-        <v>6702352</v>
+        <v>6626273</v>
       </c>
       <c r="F142" t="n">
-        <v>432.4774651488718</v>
+        <v>481.3469088008077</v>
       </c>
       <c r="G142" t="n">
-        <v>179.6828806669853</v>
+        <v>293.0687357838018</v>
       </c>
       <c r="H142" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="I142" t="n">
-        <v>27794</v>
+        <v>27495</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3259201</v>
+        <v>3258639</v>
       </c>
       <c r="E143" t="n">
-        <v>7610778</v>
+        <v>7609465</v>
       </c>
       <c r="F143" t="n">
-        <v>1476.882346977246</v>
+        <v>1379.360961885411</v>
       </c>
       <c r="G143" t="n">
-        <v>813.736908242107</v>
+        <v>669.6722543071415</v>
       </c>
       <c r="H143" t="n">
-        <v>0.17</v>
+        <v>1.22</v>
       </c>
       <c r="I143" t="n">
-        <v>610787</v>
+        <v>612108</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1524193</v>
+        <v>1520042</v>
       </c>
       <c r="E144" t="n">
-        <v>11837054</v>
+        <v>11804823</v>
       </c>
       <c r="F144" t="n">
-        <v>199.8629888918033</v>
+        <v>200.4005837558137</v>
       </c>
       <c r="G144" t="n">
-        <v>8337.098560487881</v>
+        <v>929.6179695281645</v>
       </c>
       <c r="H144" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="I144" t="n">
-        <v>519626</v>
+        <v>515177</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>320480016</v>
+        <v>318743891</v>
       </c>
       <c r="E145" t="n">
-        <v>2883236947</v>
+        <v>2867617693</v>
       </c>
       <c r="F145" t="n">
-        <v>662650.992432792</v>
+        <v>568960.6699872415</v>
       </c>
       <c r="G145" t="n">
-        <v>803503.9267380483</v>
+        <v>688797.9642997807</v>
       </c>
       <c r="H145" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I145" t="n">
-        <v>67197445</v>
+        <v>68687610</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>246682</v>
+        <v>246886</v>
       </c>
       <c r="E146" t="n">
-        <v>2177152</v>
+        <v>2178956</v>
       </c>
       <c r="F146" t="n">
-        <v>4.076319966972405</v>
+        <v>4.075094729069111</v>
       </c>
       <c r="G146" t="n">
-        <v>16.04926489407219</v>
+        <v>39.56078872799816</v>
       </c>
       <c r="H146" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="I146" t="n">
-        <v>71567</v>
+        <v>72126</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>623486</v>
+        <v>622417</v>
       </c>
       <c r="F147" t="n">
-        <v>552.0493196410897</v>
+        <v>551.9223929876446</v>
       </c>
       <c r="G147" t="n">
-        <v>435.0105416195052</v>
+        <v>439.9056347706384</v>
       </c>
       <c r="H147" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>16115.36</v>
+        <v>16107.07</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4717242</v>
+        <v>4700683</v>
       </c>
       <c r="E148" t="n">
-        <v>16666001</v>
+        <v>16607499</v>
       </c>
       <c r="F148" t="n">
-        <v>356.2625251790848</v>
+        <v>1610.506982184742</v>
       </c>
       <c r="G148" t="n">
-        <v>1916.671347785866</v>
+        <v>1826.280778486021</v>
       </c>
       <c r="H148" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I148" t="n">
-        <v>152312</v>
+        <v>152483</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9396682</v>
+        <v>9371935</v>
       </c>
       <c r="E149" t="n">
-        <v>43554162</v>
+        <v>43439456</v>
       </c>
       <c r="F149" t="n">
-        <v>2369.738501712058</v>
+        <v>2163.404270833499</v>
       </c>
       <c r="G149" t="n">
-        <v>1385.863104522069</v>
+        <v>1469.837168150008</v>
       </c>
       <c r="H149" t="n">
         <v>0.61</v>
       </c>
       <c r="I149" t="n">
-        <v>117672</v>
+        <v>117591</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46655497</v>
+        <v>46493314</v>
       </c>
       <c r="E150" t="n">
-        <v>270116052</v>
+        <v>269177079</v>
       </c>
       <c r="F150" t="n">
-        <v>40869.13961437546</v>
+        <v>53530.01366262873</v>
       </c>
       <c r="G150" t="n">
-        <v>52420.85758192163</v>
+        <v>43372.67122792729</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I150" t="n">
-        <v>51749330</v>
+        <v>51479434</v>
       </c>
     </row>
     <row r="151">
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79812</v>
+        <v>79249</v>
       </c>
       <c r="E151" t="n">
-        <v>79812</v>
+        <v>79249</v>
       </c>
       <c r="F151" t="n">
         <v>9.869515740357592</v>
@@ -5709,7 +5709,7 @@
         <v>0.76</v>
       </c>
       <c r="I151" t="n">
-        <v>20114</v>
+        <v>19916.82</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4140199</v>
+        <v>4150475</v>
       </c>
       <c r="F152" t="n">
-        <v>353.4911622689341</v>
+        <v>535.3147824839712</v>
       </c>
       <c r="G152" t="n">
-        <v>399.8449853011645</v>
+        <v>245.4276808946839</v>
       </c>
       <c r="H152" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="I152" t="n">
-        <v>269074</v>
+        <v>269262</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>38737773</v>
+        <v>38746166</v>
       </c>
       <c r="E153" t="n">
-        <v>53502381</v>
+        <v>53513972</v>
       </c>
       <c r="F153" t="n">
-        <v>4782.061748634789</v>
+        <v>565.1897997995562</v>
       </c>
       <c r="G153" t="n">
-        <v>14450.30036832137</v>
+        <v>2375.494781080405</v>
       </c>
       <c r="H153" t="n">
         <v>0.47</v>
       </c>
       <c r="I153" t="n">
-        <v>315571</v>
+        <v>313740</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2089283</v>
+        <v>2155592</v>
       </c>
       <c r="E154" t="n">
-        <v>8532092</v>
+        <v>8802878</v>
       </c>
       <c r="F154" t="n">
-        <v>1155.437083334625</v>
+        <v>1314.498401217046</v>
       </c>
       <c r="G154" t="n">
-        <v>307.5452691250762</v>
+        <v>270.0899243453518</v>
       </c>
       <c r="H154" t="n">
-        <v>0.53</v>
+        <v>0.04</v>
       </c>
       <c r="I154" t="n">
-        <v>217402</v>
+        <v>421209</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7248879</v>
+        <v>7248262</v>
       </c>
       <c r="E155" t="n">
-        <v>7302762</v>
+        <v>7302141</v>
       </c>
       <c r="F155" t="n">
-        <v>1266.884677677867</v>
+        <v>1261.048128116362</v>
       </c>
       <c r="G155" t="n">
-        <v>2797.630040138264</v>
+        <v>1883.93488134471</v>
       </c>
       <c r="H155" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I155" t="n">
-        <v>5882760</v>
+        <v>5903578</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>518872</v>
+        <v>521327</v>
       </c>
       <c r="E156" t="n">
-        <v>518872</v>
+        <v>521327</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>9258.84</v>
+        <v>9140.34</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13303870</v>
+        <v>13243661</v>
       </c>
       <c r="E157" t="n">
-        <v>13349144</v>
+        <v>13288730</v>
       </c>
       <c r="F157" t="n">
-        <v>2972.664752932012</v>
+        <v>2768.09229710508</v>
       </c>
       <c r="G157" t="n">
-        <v>2597.075618217201</v>
+        <v>1769.369992605229</v>
       </c>
       <c r="H157" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I157" t="n">
-        <v>6874804</v>
+        <v>6887288</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42167643</v>
+        <v>42130738</v>
       </c>
       <c r="E158" t="n">
-        <v>71590849</v>
+        <v>71528192</v>
       </c>
       <c r="F158" t="n">
-        <v>324.6140663833679</v>
+        <v>378.9963143206069</v>
       </c>
       <c r="G158" t="n">
-        <v>344.7362528656255</v>
+        <v>406.867576779479</v>
       </c>
       <c r="H158" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1125627</v>
+        <v>1132012</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19396989</v>
+        <v>19335063</v>
       </c>
       <c r="E159" t="n">
-        <v>58157459</v>
+        <v>57969545</v>
       </c>
       <c r="F159" t="n">
-        <v>1471.977725422294</v>
+        <v>1942.804044331805</v>
       </c>
       <c r="G159" t="n">
-        <v>4762.025317898151</v>
+        <v>2061.484110550669</v>
       </c>
       <c r="H159" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I159" t="n">
-        <v>4333918</v>
+        <v>3637197</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>99840564</v>
+        <v>100132452</v>
       </c>
       <c r="E160" t="n">
-        <v>106139543</v>
+        <v>106449846</v>
       </c>
       <c r="F160" t="n">
-        <v>355.4989363293615</v>
+        <v>264.2544274474826</v>
       </c>
       <c r="G160" t="n">
-        <v>1314.35373241329</v>
+        <v>934.5438734940959</v>
       </c>
       <c r="H160" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="I160" t="n">
-        <v>1811310</v>
+        <v>1819326</v>
       </c>
     </row>
     <row r="161">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10397450</v>
+        <v>10394451</v>
       </c>
       <c r="E161" t="n">
-        <v>45128117</v>
+        <v>45138211</v>
       </c>
       <c r="F161" t="n">
         <v>3595.556299850186</v>
@@ -6059,7 +6059,7 @@
         <v>0.09</v>
       </c>
       <c r="I161" t="n">
-        <v>118850</v>
+        <v>118861</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15065410</v>
+        <v>14993968</v>
       </c>
       <c r="E162" t="n">
-        <v>92340851</v>
+        <v>91902961</v>
       </c>
       <c r="F162" t="n">
-        <v>2468.806790441424</v>
+        <v>971.7408245005031</v>
       </c>
       <c r="G162" t="n">
-        <v>1241.833412525901</v>
+        <v>2099.858064513233</v>
       </c>
       <c r="H162" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I162" t="n">
-        <v>12261002</v>
+        <v>12187958</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1432459</v>
+        <v>1425539</v>
       </c>
       <c r="E163" t="n">
-        <v>1472752</v>
+        <v>1465638</v>
       </c>
       <c r="F163" t="n">
-        <v>59.58930841672838</v>
+        <v>59.57892368801976</v>
       </c>
       <c r="G163" t="n">
-        <v>148.5596627449779</v>
+        <v>526.1694992789944</v>
       </c>
       <c r="H163" t="n">
         <v>1.54</v>
       </c>
       <c r="I163" t="n">
-        <v>85749</v>
+        <v>85764</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>70857</v>
+        <v>70911</v>
       </c>
       <c r="E164" t="n">
-        <v>201004</v>
+        <v>201157</v>
       </c>
       <c r="F164" t="n">
-        <v>5.423314963307133</v>
+        <v>5.423212950175646</v>
       </c>
       <c r="G164" t="n">
-        <v>4.161384912362259</v>
+        <v>4.161306636269297</v>
       </c>
       <c r="H164" t="n">
         <v>0.54</v>
       </c>
       <c r="I164" t="n">
-        <v>424.16</v>
+        <v>424.48</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50138929</v>
+        <v>49535098</v>
       </c>
       <c r="E165" t="n">
-        <v>215993025</v>
+        <v>213391784</v>
       </c>
       <c r="F165" t="n">
-        <v>5848.130187287908</v>
+        <v>8005.376723834501</v>
       </c>
       <c r="G165" t="n">
-        <v>7615.146330478974</v>
+        <v>5903.885069494771</v>
       </c>
       <c r="H165" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I165" t="n">
-        <v>13096870</v>
+        <v>13109273</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7592615</v>
+        <v>7593946</v>
       </c>
       <c r="F166" t="n">
-        <v>236.2417423076006</v>
+        <v>236.1511797819429</v>
       </c>
       <c r="G166" t="n">
-        <v>428.880943324619</v>
+        <v>336.7932115247551</v>
       </c>
       <c r="H166" t="n">
         <v>0.48</v>
       </c>
       <c r="I166" t="n">
-        <v>7180590</v>
+        <v>574571</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>659295</v>
+        <v>658125</v>
       </c>
       <c r="E167" t="n">
-        <v>2379700</v>
+        <v>2375475</v>
       </c>
       <c r="F167" t="n">
-        <v>50.53176454385402</v>
+        <v>50.52463682913649</v>
       </c>
       <c r="G167" t="n">
-        <v>10.54389508778903</v>
+        <v>10.54240782770865</v>
       </c>
       <c r="H167" t="n">
         <v>1.33</v>
       </c>
       <c r="I167" t="n">
-        <v>402845</v>
+        <v>401688</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1547618</v>
+        <v>1560160</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>241.2004332141552</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>13.96829700778967</v>
       </c>
       <c r="H168" t="n">
-        <v>4.39</v>
+        <v>3.2</v>
       </c>
       <c r="I168" t="n">
-        <v>86213</v>
+        <v>86981</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12486906</v>
+        <v>12463869</v>
       </c>
       <c r="E169" t="n">
-        <v>12486906</v>
+        <v>12463869</v>
       </c>
       <c r="F169" t="n">
-        <v>109.5079458003575</v>
+        <v>74.10682609234553</v>
       </c>
       <c r="G169" t="n">
-        <v>653.3324445817085</v>
+        <v>265.0895389964019</v>
       </c>
       <c r="H169" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="I169" t="n">
-        <v>3187916</v>
+        <v>3139119</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2259914</v>
+        <v>2264285</v>
       </c>
       <c r="E170" t="n">
-        <v>8203144</v>
+        <v>8219012</v>
       </c>
       <c r="F170" t="n">
-        <v>152.9238695054548</v>
+        <v>129.5057609734212</v>
       </c>
       <c r="G170" t="n">
-        <v>116.6313921709847</v>
+        <v>328.5531320061719</v>
       </c>
       <c r="H170" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I170" t="n">
-        <v>211063</v>
+        <v>222820</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8771737</v>
+        <v>8739494</v>
       </c>
       <c r="E171" t="n">
-        <v>19454466</v>
+        <v>19382955</v>
       </c>
       <c r="F171" t="n">
-        <v>1686.658806825538</v>
+        <v>1655.07904822689</v>
       </c>
       <c r="G171" t="n">
-        <v>2024.681157298395</v>
+        <v>1567.404941021489</v>
       </c>
       <c r="H171" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="I171" t="n">
-        <v>326414</v>
+        <v>326212</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1017221</v>
+        <v>1014807</v>
       </c>
       <c r="E172" t="n">
-        <v>2973160</v>
+        <v>2966105</v>
       </c>
       <c r="F172" t="n">
-        <v>106.2485465934088</v>
+        <v>105.14050709566</v>
       </c>
       <c r="G172" t="n">
-        <v>107.0546981257472</v>
+        <v>107.0369534507263</v>
       </c>
       <c r="H172" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I172" t="n">
-        <v>13135.44</v>
+        <v>13337.11</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>19588019</v>
+        <v>19566697</v>
       </c>
       <c r="E173" t="n">
-        <v>78352075</v>
+        <v>78266788</v>
       </c>
       <c r="F173" t="n">
-        <v>1220.497251676408</v>
+        <v>1197.650436478023</v>
       </c>
       <c r="G173" t="n">
-        <v>11249.22543010482</v>
+        <v>39548.37734193356</v>
       </c>
       <c r="H173" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="I173" t="n">
-        <v>3648802</v>
+        <v>3708714</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4478256</v>
+        <v>4451840</v>
       </c>
       <c r="E174" t="n">
-        <v>4478256</v>
+        <v>4451840</v>
       </c>
       <c r="F174" t="n">
-        <v>280.3199309339995</v>
+        <v>1853.439951678079</v>
       </c>
       <c r="G174" t="n">
-        <v>383.3379155320379</v>
+        <v>513.7388316454094</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="I174" t="n">
-        <v>2872278</v>
+        <v>2866953</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>284106970</v>
+        <v>283660814</v>
       </c>
       <c r="E175" t="n">
-        <v>284106970</v>
+        <v>283660814</v>
       </c>
       <c r="F175" t="n">
-        <v>10155.1874450935</v>
+        <v>10574.68310929997</v>
       </c>
       <c r="G175" t="n">
-        <v>4121.722872092926</v>
+        <v>6857.263525512697</v>
       </c>
       <c r="H175" t="n">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="I175" t="n">
-        <v>19778973</v>
+        <v>19728882</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12626242</v>
+        <v>12565431</v>
       </c>
       <c r="E176" t="n">
-        <v>39935156</v>
+        <v>39742818</v>
       </c>
       <c r="F176" t="n">
-        <v>3642.279511485108</v>
+        <v>4064.82904386171</v>
       </c>
       <c r="G176" t="n">
-        <v>3072.61316637839</v>
+        <v>2721.986686488026</v>
       </c>
       <c r="H176" t="n">
         <v>0.75</v>
       </c>
       <c r="I176" t="n">
-        <v>1005283</v>
+        <v>1004767</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24703</v>
+        <v>24727</v>
       </c>
       <c r="E177" t="n">
-        <v>194285</v>
+        <v>194474</v>
       </c>
       <c r="F177" t="n">
-        <v>65.36932441540017</v>
+        <v>65.35007455695661</v>
       </c>
       <c r="G177" t="n">
-        <v>419.7097386254811</v>
+        <v>424.0832799610013</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>41080</v>
+        <v>40828</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>7553274</v>
+        <v>7516386</v>
       </c>
       <c r="E178" t="n">
-        <v>7553274</v>
+        <v>7516386</v>
       </c>
       <c r="F178" t="n">
-        <v>1055.120679204939</v>
+        <v>1102.249213120443</v>
       </c>
       <c r="G178" t="n">
-        <v>2924.759945815182</v>
+        <v>3693.49789645851</v>
       </c>
       <c r="H178" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="I178" t="n">
-        <v>4032634</v>
+        <v>4029894</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1094199</v>
+        <v>1092662</v>
       </c>
       <c r="E179" t="n">
-        <v>2492146</v>
+        <v>2488646</v>
       </c>
       <c r="F179" t="n">
-        <v>22.98823787782662</v>
+        <v>22.98580152408355</v>
       </c>
       <c r="G179" t="n">
-        <v>251.8997090175681</v>
+        <v>251.8730120257323</v>
       </c>
       <c r="H179" t="n">
         <v>0.15</v>
       </c>
       <c r="I179" t="n">
-        <v>452.9</v>
+        <v>452.74</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9134899</v>
+        <v>8952918</v>
       </c>
       <c r="E180" t="n">
-        <v>9134899</v>
+        <v>8952918</v>
       </c>
       <c r="F180" t="n">
-        <v>4042.555578197442</v>
+        <v>2809.776816758955</v>
       </c>
       <c r="G180" t="n">
-        <v>2474.173397861694</v>
+        <v>4777.957375749721</v>
       </c>
       <c r="H180" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I180" t="n">
-        <v>2067028</v>
+        <v>2036486</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17328157</v>
+        <v>17288120</v>
       </c>
       <c r="E181" t="n">
-        <v>17328157</v>
+        <v>17288120</v>
       </c>
       <c r="F181" t="n">
-        <v>1722.83258826929</v>
+        <v>1551.365271732801</v>
       </c>
       <c r="G181" t="n">
-        <v>8921.798775124809</v>
+        <v>6899.245486752689</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>7090698</v>
+        <v>7230332</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31120944</v>
+        <v>31328064</v>
       </c>
       <c r="E182" t="n">
-        <v>86201927</v>
+        <v>86775628</v>
       </c>
       <c r="F182" t="n">
-        <v>2058.347207933567</v>
+        <v>7295.735109594341</v>
       </c>
       <c r="G182" t="n">
-        <v>2571.57334686593</v>
+        <v>3088.038949031125</v>
       </c>
       <c r="H182" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="I182" t="n">
-        <v>12380819</v>
+        <v>12444605</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>30843297</v>
+        <v>30443545</v>
       </c>
       <c r="E183" t="n">
-        <v>77771988</v>
+        <v>76764005</v>
       </c>
       <c r="F183" t="n">
-        <v>1042.420102752363</v>
+        <v>1189.696781167096</v>
       </c>
       <c r="G183" t="n">
-        <v>7401.051388921394</v>
+        <v>7298.871900777862</v>
       </c>
       <c r="H183" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="I183" t="n">
-        <v>6081988</v>
+        <v>5799890</v>
       </c>
     </row>
     <row r="184">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>297463057</v>
+        <v>296229145</v>
       </c>
       <c r="E184" t="n">
-        <v>302114782</v>
+        <v>300862689</v>
       </c>
       <c r="F184" t="n">
         <v>13913.44965390472</v>
@@ -6860,7 +6860,7 @@
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>25030331</v>
+        <v>25046532</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>392219</v>
+        <v>390292</v>
       </c>
       <c r="F185" t="n">
-        <v>92.85403248219255</v>
+        <v>9.63065524215615</v>
       </c>
       <c r="G185" t="n">
-        <v>6.319092044974017</v>
+        <v>22.00638489596069</v>
       </c>
       <c r="H185" t="n">
-        <v>2.49</v>
+        <v>3.73</v>
       </c>
       <c r="I185" t="n">
-        <v>69057</v>
+        <v>68774</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27599688</v>
+        <v>27568683</v>
       </c>
       <c r="E186" t="n">
-        <v>65471578</v>
+        <v>65398027</v>
       </c>
       <c r="F186" t="n">
-        <v>2280.998672452921</v>
+        <v>2837.492712068981</v>
       </c>
       <c r="G186" t="n">
-        <v>5517.146040976268</v>
+        <v>5826.165716166229</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I186" t="n">
-        <v>615108</v>
+        <v>672200</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>22090986</v>
+        <v>28827627</v>
       </c>
       <c r="F187" t="n">
-        <v>5.275964915515348</v>
+        <v>5.32198372011752</v>
       </c>
       <c r="G187" t="n">
-        <v>3.893866038230775</v>
+        <v>4.074864738104305</v>
       </c>
       <c r="H187" t="n">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="I187" t="n">
-        <v>1863.91</v>
+        <v>2390.16</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12455705</v>
+        <v>12234777</v>
       </c>
       <c r="E188" t="n">
-        <v>18960392</v>
+        <v>18624090</v>
       </c>
       <c r="F188" t="n">
-        <v>1392.250689084528</v>
+        <v>1392.989977947652</v>
       </c>
       <c r="G188" t="n">
-        <v>1463.657037058658</v>
+        <v>1496.603887737745</v>
       </c>
       <c r="H188" t="n">
         <v>0.75</v>
       </c>
       <c r="I188" t="n">
-        <v>652271</v>
+        <v>649112</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>75786184</v>
+        <v>75123900</v>
       </c>
       <c r="E189" t="n">
-        <v>75786184</v>
+        <v>75123900</v>
       </c>
       <c r="F189" t="n">
-        <v>6917.162555395926</v>
+        <v>4797.409402608684</v>
       </c>
       <c r="G189" t="n">
-        <v>12524.31219931832</v>
+        <v>11020.07917825236</v>
       </c>
       <c r="H189" t="n">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="I189" t="n">
-        <v>4702091</v>
+        <v>4815644</v>
       </c>
     </row>
     <row r="190">
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>285783967</v>
+        <v>286230369</v>
       </c>
       <c r="E190" t="n">
-        <v>285783967</v>
+        <v>286230369</v>
       </c>
       <c r="F190" t="n">
         <v>199017.6156625295</v>
@@ -7070,7 +7070,7 @@
         <v>0.04</v>
       </c>
       <c r="I190" t="n">
-        <v>93324689</v>
+        <v>89746909</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9821562</v>
+        <v>9747196</v>
       </c>
       <c r="E191" t="n">
-        <v>27885053</v>
+        <v>27673914</v>
       </c>
       <c r="F191" t="n">
-        <v>738.1117052359137</v>
+        <v>830.5868442200216</v>
       </c>
       <c r="G191" t="n">
-        <v>10280.84921408591</v>
+        <v>10137.18581019609</v>
       </c>
       <c r="H191" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="I191" t="n">
-        <v>90915</v>
+        <v>89745</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4614523</v>
+        <v>4570497</v>
       </c>
       <c r="E192" t="n">
-        <v>31530714</v>
+        <v>31229886</v>
       </c>
       <c r="F192" t="n">
-        <v>141.7169091892228</v>
+        <v>1.352707603515098</v>
       </c>
       <c r="G192" t="n">
-        <v>1271.491586725976</v>
+        <v>598.8702002511152</v>
       </c>
       <c r="H192" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>2978097</v>
+        <v>2985082</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2638279</v>
+        <v>2636842</v>
       </c>
       <c r="E193" t="n">
-        <v>3905434</v>
+        <v>3903170</v>
       </c>
       <c r="F193" t="n">
-        <v>199.9335763478498</v>
+        <v>256.8182816892673</v>
       </c>
       <c r="G193" t="n">
-        <v>493.9342828582345</v>
+        <v>469.7710924198505</v>
       </c>
       <c r="H193" t="n">
         <v>1.02</v>
       </c>
       <c r="I193" t="n">
-        <v>86832</v>
+        <v>86798</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>83677659</v>
+        <v>83246170</v>
       </c>
       <c r="E194" t="n">
-        <v>482186762</v>
+        <v>479700336</v>
       </c>
       <c r="F194" t="n">
-        <v>452699.5548074256</v>
+        <v>494220.9688429646</v>
       </c>
       <c r="G194" t="n">
-        <v>547308.6662571322</v>
+        <v>494031.648262969</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I194" t="n">
-        <v>21229214</v>
+        <v>21164156</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>657448</v>
+        <v>654306</v>
       </c>
       <c r="E195" t="n">
-        <v>717008</v>
+        <v>713581</v>
       </c>
       <c r="F195" t="n">
-        <v>5.411615301855158</v>
+        <v>5.410718308481203</v>
       </c>
       <c r="G195" t="n">
-        <v>3.9538743798394</v>
+        <v>3.953219011909062</v>
       </c>
       <c r="H195" t="n">
         <v>0.63</v>
       </c>
       <c r="I195" t="n">
-        <v>118956</v>
+        <v>118684</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>104554133</v>
+        <v>104120359</v>
       </c>
       <c r="E196" t="n">
-        <v>257244015</v>
+        <v>256176761</v>
       </c>
       <c r="F196" t="n">
-        <v>36905.39950594251</v>
+        <v>33060.20906684756</v>
       </c>
       <c r="G196" t="n">
-        <v>39190.93849444445</v>
+        <v>45728.14237526636</v>
       </c>
       <c r="H196" t="n">
         <v>0.16</v>
       </c>
       <c r="I196" t="n">
-        <v>2758658</v>
+        <v>2768023</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18662533</v>
+        <v>19820370</v>
       </c>
       <c r="E197" t="n">
-        <v>18662533</v>
+        <v>19820370</v>
       </c>
       <c r="F197" t="n">
-        <v>5.403773545924353</v>
+        <v>5.40214930930335</v>
       </c>
       <c r="G197" t="n">
-        <v>440.9773473889322</v>
+        <v>440.84480083594</v>
       </c>
       <c r="H197" t="n">
         <v>0.13</v>
       </c>
       <c r="I197" t="n">
-        <v>104976</v>
+        <v>110498</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1315159</v>
+        <v>1328573</v>
       </c>
       <c r="F198" t="n">
-        <v>348.1301841272872</v>
+        <v>346.8170257839124</v>
       </c>
       <c r="G198" t="n">
-        <v>78.68136363375017</v>
+        <v>26.42816836826579</v>
       </c>
       <c r="H198" t="n">
         <v>0.68</v>
       </c>
       <c r="I198" t="n">
-        <v>42084</v>
+        <v>42913</v>
       </c>
     </row>
     <row r="199">
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>121354</v>
+        <v>122015</v>
       </c>
       <c r="E199" t="n">
-        <v>264185</v>
+        <v>265625</v>
       </c>
       <c r="F199" t="n">
         <v>4.094615947747862</v>
@@ -7385,7 +7385,7 @@
         <v>1.1</v>
       </c>
       <c r="I199" t="n">
-        <v>41223</v>
+        <v>41326</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2963182</v>
+        <v>2956262</v>
       </c>
       <c r="F200" t="n">
-        <v>957.2540828603264</v>
+        <v>1524.640113454338</v>
       </c>
       <c r="G200" t="n">
-        <v>1145.13659143329</v>
+        <v>1578.3125350389</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>375239</v>
+        <v>365914</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>190418</v>
+        <v>190117</v>
       </c>
       <c r="E201" t="n">
-        <v>1470411</v>
+        <v>1468088</v>
       </c>
       <c r="F201" t="n">
-        <v>14.50247765263381</v>
+        <v>14.49812495056689</v>
       </c>
       <c r="G201" t="n">
-        <v>36.2811280854661</v>
+        <v>36.27023884674495</v>
       </c>
       <c r="H201" t="n">
         <v>0.67</v>
       </c>
       <c r="I201" t="n">
-        <v>55823</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>28912351</v>
+        <v>28691983</v>
       </c>
       <c r="E202" t="n">
-        <v>129452457</v>
+        <v>128465777</v>
       </c>
       <c r="F202" t="n">
-        <v>7229.904331527796</v>
+        <v>8877.566403683273</v>
       </c>
       <c r="G202" t="n">
-        <v>10223.03880919188</v>
+        <v>11122.85639597521</v>
       </c>
       <c r="H202" t="n">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="I202" t="n">
-        <v>14552808</v>
+        <v>14589305</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12921251</v>
+        <v>12925256</v>
       </c>
       <c r="E203" t="n">
-        <v>25824388</v>
+        <v>25832391</v>
       </c>
       <c r="F203" t="n">
-        <v>9.831378013556749</v>
+        <v>9.828427049951928</v>
       </c>
       <c r="G203" t="n">
-        <v>2240.490890895269</v>
+        <v>2239.818390349888</v>
       </c>
       <c r="H203" t="n">
         <v>0.16</v>
       </c>
       <c r="I203" t="n">
-        <v>16114.88</v>
+        <v>15888.69</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1313226</v>
+        <v>1311392</v>
       </c>
       <c r="F204" t="n">
-        <v>47.35977836086659</v>
+        <v>100.3921570194985</v>
       </c>
       <c r="G204" t="n">
-        <v>169.3697684647028</v>
+        <v>169.3458781572439</v>
       </c>
       <c r="H204" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I204" t="n">
-        <v>68786</v>
+        <v>94897</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>924070</v>
+        <v>915073</v>
       </c>
       <c r="E205" t="n">
-        <v>4273955</v>
+        <v>4232345</v>
       </c>
       <c r="F205" t="n">
-        <v>3893.902808650963</v>
+        <v>3579.583324374791</v>
       </c>
       <c r="G205" t="n">
-        <v>2535.033379895733</v>
+        <v>2482.371327869181</v>
       </c>
       <c r="H205" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="I205" t="n">
-        <v>158054</v>
+        <v>480072</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2892440</v>
+        <v>2882472</v>
       </c>
       <c r="E206" t="n">
-        <v>2892440</v>
+        <v>2882472</v>
       </c>
       <c r="F206" t="n">
-        <v>1055.684174275104</v>
+        <v>1087.343274157204</v>
       </c>
       <c r="G206" t="n">
-        <v>1196.838626271114</v>
+        <v>1191.216143691016</v>
       </c>
       <c r="H206" t="n">
         <v>0.14</v>
       </c>
       <c r="I206" t="n">
-        <v>314413</v>
+        <v>307649</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>551903</v>
+        <v>547175</v>
       </c>
       <c r="E207" t="n">
-        <v>551903</v>
+        <v>547175</v>
       </c>
       <c r="F207" t="n">
-        <v>63.66022728975922</v>
+        <v>63.55156339496511</v>
       </c>
       <c r="G207" t="n">
-        <v>68.92222275336553</v>
+        <v>68.81224882185026</v>
       </c>
       <c r="H207" t="n">
         <v>0.92</v>
       </c>
       <c r="I207" t="n">
-        <v>1174944</v>
+        <v>1139579</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14105735</v>
+        <v>14158424</v>
       </c>
       <c r="E208" t="n">
-        <v>17958852</v>
+        <v>18025935</v>
       </c>
       <c r="F208" t="n">
-        <v>151.3222705334818</v>
+        <v>162.395670082184</v>
       </c>
       <c r="G208" t="n">
-        <v>172.585708987742</v>
+        <v>182.2117688197615</v>
       </c>
       <c r="H208" t="n">
         <v>0.21</v>
       </c>
       <c r="I208" t="n">
-        <v>925007</v>
+        <v>915625</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1742275</v>
+        <v>1740239</v>
       </c>
       <c r="E209" t="n">
-        <v>1742275</v>
+        <v>1740239</v>
       </c>
       <c r="F209" t="n">
-        <v>5.627476947706201</v>
+        <v>5.625787504274047</v>
       </c>
       <c r="G209" t="n">
-        <v>937.0210790760424</v>
+        <v>936.7414214998699</v>
       </c>
       <c r="H209" t="n">
         <v>0.24</v>
       </c>
       <c r="I209" t="n">
-        <v>3517.01</v>
+        <v>3516.83</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5931249</v>
+        <v>5938111</v>
       </c>
       <c r="E210" t="n">
-        <v>15566557</v>
+        <v>15584566</v>
       </c>
       <c r="F210" t="n">
-        <v>219.4141054011318</v>
+        <v>213.4408876609081</v>
       </c>
       <c r="G210" t="n">
-        <v>267.7249178552387</v>
+        <v>267.57776860728</v>
       </c>
       <c r="H210" t="n">
         <v>1.16</v>
       </c>
       <c r="I210" t="n">
-        <v>28492</v>
+        <v>28129</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>28975704</v>
+        <v>29217384</v>
       </c>
       <c r="F211" t="n">
-        <v>812.9497851388394</v>
+        <v>1246.207547401266</v>
       </c>
       <c r="G211" t="n">
-        <v>1804.614431268606</v>
+        <v>1534.390449638559</v>
       </c>
       <c r="H211" t="n">
-        <v>0.86</v>
+        <v>1.4</v>
       </c>
       <c r="I211" t="n">
-        <v>594600</v>
+        <v>603753</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17033609</v>
+        <v>16984802</v>
       </c>
       <c r="E212" t="n">
-        <v>17033609</v>
+        <v>16984872</v>
       </c>
       <c r="F212" t="n">
-        <v>14787.65062640492</v>
+        <v>29886.37966257846</v>
       </c>
       <c r="G212" t="n">
-        <v>29518.14162896738</v>
+        <v>33455.82657232443</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2284871</v>
+        <v>2324647</v>
       </c>
     </row>
     <row r="213">
@@ -7860,10 +7860,10 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47448556</v>
+        <v>47178720</v>
       </c>
       <c r="E213" t="n">
-        <v>307691256</v>
+        <v>305941443</v>
       </c>
       <c r="F213" t="n">
         <v>230369.2118907424</v>
@@ -7875,7 +7875,7 @@
         <v>0.31</v>
       </c>
       <c r="I213" t="n">
-        <v>21336815</v>
+        <v>21220597</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>8058146</v>
+        <v>7865879</v>
       </c>
       <c r="F214" t="n">
-        <v>207.3617662126795</v>
+        <v>207.3397894688348</v>
       </c>
       <c r="G214" t="n">
-        <v>3.934483767964839</v>
+        <v>3.934066781055878</v>
       </c>
       <c r="H214" t="n">
         <v>0.75</v>
       </c>
       <c r="I214" t="n">
-        <v>310551</v>
+        <v>310229</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7053783</v>
+        <v>7059348</v>
       </c>
       <c r="E215" t="n">
-        <v>7063884</v>
+        <v>7069457</v>
       </c>
       <c r="F215" t="n">
-        <v>5.467361068447572</v>
+        <v>104.911368468693</v>
       </c>
       <c r="G215" t="n">
-        <v>135.2314239768858</v>
+        <v>51.88275632702036</v>
       </c>
       <c r="H215" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I215" t="n">
-        <v>835123</v>
+        <v>853445</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4494691</v>
+        <v>4514847</v>
       </c>
       <c r="F216" t="n">
-        <v>127.3702563563753</v>
+        <v>143.7556332186386</v>
       </c>
       <c r="G216" t="n">
-        <v>231.691547041237</v>
+        <v>59.95352817318224</v>
       </c>
       <c r="H216" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="I216" t="n">
-        <v>252098</v>
+        <v>209535</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2467051</v>
+        <v>2464893</v>
       </c>
       <c r="E217" t="n">
-        <v>4469528</v>
+        <v>4465617</v>
       </c>
       <c r="F217" t="n">
-        <v>595.9973909054562</v>
+        <v>520.8037469129465</v>
       </c>
       <c r="G217" t="n">
-        <v>668.8127443322556</v>
+        <v>668.4540618165788</v>
       </c>
       <c r="H217" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I217" t="n">
-        <v>118740</v>
+        <v>116475</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123631643</v>
+        <v>123638310</v>
       </c>
       <c r="E218" t="n">
-        <v>2047441266</v>
+        <v>2047551683</v>
       </c>
       <c r="F218" t="n">
-        <v>3671.528044568755</v>
+        <v>5267.363618444729</v>
       </c>
       <c r="G218" t="n">
-        <v>3847.380009895738</v>
+        <v>7910.328601276772</v>
       </c>
       <c r="H218" t="n">
-        <v>0.09</v>
+        <v>0.82</v>
       </c>
       <c r="I218" t="n">
-        <v>35981235</v>
+        <v>36052627</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>91059535</v>
+        <v>90120745</v>
       </c>
       <c r="E219" t="n">
-        <v>92039725</v>
+        <v>91090830</v>
       </c>
       <c r="F219" t="n">
-        <v>596.7640036400642</v>
+        <v>666.7439613849662</v>
       </c>
       <c r="G219" t="n">
-        <v>16955.30712976224</v>
+        <v>16987.2213811515</v>
       </c>
       <c r="H219" t="n">
-        <v>0.76</v>
+        <v>0.39</v>
       </c>
       <c r="I219" t="n">
-        <v>81092000</v>
+        <v>81490395</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>243437056</v>
+        <v>240196527</v>
       </c>
       <c r="E220" t="n">
-        <v>243437056</v>
+        <v>240196527</v>
       </c>
       <c r="F220" t="n">
-        <v>12663.91849119756</v>
+        <v>2281.687602475188</v>
       </c>
       <c r="G220" t="n">
-        <v>31754.00047345353</v>
+        <v>73045.73755996226</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="I220" t="n">
-        <v>93341956</v>
+        <v>93530275</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22653552</v>
+        <v>22516923</v>
       </c>
       <c r="E221" t="n">
-        <v>135540756</v>
+        <v>134723277</v>
       </c>
       <c r="F221" t="n">
-        <v>75284.28564310804</v>
+        <v>70811.34727541232</v>
       </c>
       <c r="G221" t="n">
-        <v>84903.42947495243</v>
+        <v>71544.9283071072</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>18017762</v>
+        <v>18079086</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1040090</v>
+        <v>1039530</v>
       </c>
       <c r="F222" t="n">
-        <v>43.4555296431538</v>
+        <v>2710.472266923443</v>
       </c>
       <c r="G222" t="n">
-        <v>71.9028962861866</v>
+        <v>114.6922765172938</v>
       </c>
       <c r="H222" t="n">
-        <v>1.99</v>
+        <v>3.05</v>
       </c>
       <c r="I222" t="n">
-        <v>92625</v>
+        <v>93203</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2228453</v>
+        <v>2251312</v>
       </c>
       <c r="F223" t="n">
-        <v>139.9508665230874</v>
+        <v>141.3372225303384</v>
       </c>
       <c r="G223" t="n">
-        <v>86.74194556542417</v>
+        <v>139.4034702683435</v>
       </c>
       <c r="H223" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="I223" t="n">
-        <v>185343</v>
+        <v>187003</v>
       </c>
     </row>
     <row r="224">
@@ -8245,10 +8245,10 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13302346</v>
+        <v>13304376</v>
       </c>
       <c r="E224" t="n">
-        <v>40203382</v>
+        <v>40209516</v>
       </c>
       <c r="F224" t="n">
         <v>1490.512252794118</v>
@@ -8260,7 +8260,7 @@
         <v>0.42</v>
       </c>
       <c r="I224" t="n">
-        <v>2412603</v>
+        <v>2418210</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52155408</v>
+        <v>52180859</v>
       </c>
       <c r="E225" t="n">
-        <v>90083728</v>
+        <v>90127688</v>
       </c>
       <c r="F225" t="n">
-        <v>7244.661176493129</v>
+        <v>7243.650908074539</v>
       </c>
       <c r="G225" t="n">
-        <v>7176.20409796287</v>
+        <v>7173.962948538457</v>
       </c>
       <c r="H225" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I225" t="n">
-        <v>2284438</v>
+        <v>2288617</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4092191</v>
+        <v>4082616</v>
       </c>
       <c r="E226" t="n">
-        <v>4092191</v>
+        <v>4082616</v>
       </c>
       <c r="F226" t="n">
-        <v>4.22063892466735</v>
+        <v>4.220214221783468</v>
       </c>
       <c r="G226" t="n">
-        <v>55.25478493257082</v>
+        <v>46.24646827217711</v>
       </c>
       <c r="H226" t="n">
         <v>0.87</v>
       </c>
       <c r="I226" t="n">
-        <v>1747051</v>
+        <v>1741412</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>188562</v>
+        <v>188439</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>62759</v>
+        <v>62903</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6282867</v>
+        <v>6255696</v>
       </c>
       <c r="E228" t="n">
-        <v>32323440</v>
+        <v>32183655</v>
       </c>
       <c r="F228" t="n">
-        <v>436.3089417074029</v>
+        <v>562.1837391643659</v>
       </c>
       <c r="G228" t="n">
-        <v>122.6049948697741</v>
+        <v>126.7334900958294</v>
       </c>
       <c r="H228" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="I228" t="n">
-        <v>952386</v>
+        <v>958305</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>164965193</v>
+        <v>163942559</v>
       </c>
       <c r="E230" t="n">
-        <v>192728055</v>
+        <v>191533316</v>
       </c>
       <c r="F230" t="n">
-        <v>14444.72690714323</v>
+        <v>12051.66596918328</v>
       </c>
       <c r="G230" t="n">
-        <v>16234.6834002659</v>
+        <v>12992.19795099399</v>
       </c>
       <c r="H230" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="I230" t="n">
-        <v>7182779</v>
+        <v>7346958</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>300158</v>
+        <v>300269</v>
       </c>
       <c r="F231" t="n">
-        <v>73.41008881299246</v>
+        <v>41.74378714654711</v>
       </c>
       <c r="G231" t="n">
-        <v>14.91143730598758</v>
+        <v>478.3713525279852</v>
       </c>
       <c r="H231" t="n">
-        <v>0.61</v>
+        <v>1.3</v>
       </c>
       <c r="I231" t="n">
-        <v>258677</v>
+        <v>235042</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29898304</v>
+        <v>30258586</v>
       </c>
       <c r="E232" t="n">
-        <v>40995802</v>
+        <v>41489812</v>
       </c>
       <c r="F232" t="n">
-        <v>5502.505616007057</v>
+        <v>5324.212572531294</v>
       </c>
       <c r="G232" t="n">
-        <v>3136.798570700025</v>
+        <v>3106.827330531274</v>
       </c>
       <c r="H232" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I232" t="n">
-        <v>352671</v>
+        <v>381458</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1093095</v>
+        <v>1192438</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>360635</v>
+        <v>370238</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7594277</v>
+        <v>7589512</v>
       </c>
       <c r="F234" t="n">
-        <v>1951.678314482236</v>
+        <v>1936.743868523452</v>
       </c>
       <c r="G234" t="n">
-        <v>221.0721476060467</v>
+        <v>382.1427369685005</v>
       </c>
       <c r="H234" t="n">
         <v>0.16</v>
       </c>
       <c r="I234" t="n">
-        <v>657432</v>
+        <v>658659</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22678582</v>
+        <v>22142559</v>
       </c>
       <c r="E235" t="n">
-        <v>22678707</v>
+        <v>22142559</v>
       </c>
       <c r="F235" t="n">
-        <v>7326.660550254242</v>
+        <v>2448.016471892328</v>
       </c>
       <c r="G235" t="n">
-        <v>27249.77750242126</v>
+        <v>20233.04135451682</v>
       </c>
       <c r="H235" t="n">
-        <v>0.31</v>
+        <v>0.58</v>
       </c>
       <c r="I235" t="n">
-        <v>2193100</v>
+        <v>2376239</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3546947</v>
+        <v>3567837</v>
       </c>
       <c r="E236" t="n">
-        <v>4751360</v>
+        <v>4779344</v>
       </c>
       <c r="F236" t="n">
-        <v>277.5504616090327</v>
+        <v>234.3750758001812</v>
       </c>
       <c r="G236" t="n">
-        <v>26.98160030192116</v>
+        <v>105.6344348353583</v>
       </c>
       <c r="H236" t="n">
-        <v>1.84</v>
+        <v>1.23</v>
       </c>
       <c r="I236" t="n">
-        <v>123755</v>
+        <v>124351</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>32054684</v>
+        <v>31924285</v>
       </c>
       <c r="E237" t="n">
-        <v>159967649</v>
+        <v>159316899</v>
       </c>
       <c r="F237" t="n">
-        <v>94561.37108577558</v>
+        <v>93223.68902282931</v>
       </c>
       <c r="G237" t="n">
-        <v>103041.0880481982</v>
+        <v>101147.2285055669</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I237" t="n">
-        <v>14082661</v>
+        <v>13958039</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>25824476</v>
+        <v>25850046</v>
       </c>
       <c r="E238" t="n">
-        <v>58217822</v>
+        <v>58275465</v>
       </c>
       <c r="F238" t="n">
-        <v>63.25741569582144</v>
+        <v>375.7087107562696</v>
       </c>
       <c r="G238" t="n">
-        <v>69.1357202573451</v>
+        <v>42.26170679546766</v>
       </c>
       <c r="H238" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="I238" t="n">
-        <v>423271</v>
+        <v>422918</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1916830</v>
+        <v>1910511</v>
       </c>
       <c r="E239" t="n">
-        <v>1916830</v>
+        <v>1910511</v>
       </c>
       <c r="F239" t="n">
-        <v>180.4185049517733</v>
+        <v>188.8913162032675</v>
       </c>
       <c r="G239" t="n">
-        <v>95.71697775506047</v>
+        <v>95.68824973376007</v>
       </c>
       <c r="H239" t="n">
         <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>5303.7</v>
+        <v>5290.2</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71721478</v>
+        <v>71851768</v>
       </c>
       <c r="F240" t="n">
-        <v>4.114968129952595</v>
+        <v>4.114251007555816</v>
       </c>
       <c r="G240" t="n">
-        <v>4.076267086375002</v>
+        <v>4.075556708473989</v>
       </c>
       <c r="H240" t="n">
         <v>0.26</v>
       </c>
       <c r="I240" t="n">
-        <v>60924</v>
+        <v>60526</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>893908</v>
+        <v>891990</v>
       </c>
       <c r="E241" t="n">
-        <v>893908</v>
+        <v>891990</v>
       </c>
       <c r="F241" t="n">
-        <v>4.0965518180612</v>
+        <v>4.121403248760823</v>
       </c>
       <c r="G241" t="n">
-        <v>4.009886141870775</v>
+        <v>64.66786132967412</v>
       </c>
       <c r="H241" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I241" t="n">
-        <v>11618.93</v>
+        <v>11850.79</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>123802</v>
+        <v>124057</v>
       </c>
       <c r="E242" t="n">
-        <v>123802</v>
+        <v>124057</v>
       </c>
       <c r="F242" t="n">
-        <v>655.4696683684891</v>
+        <v>661.4649528869247</v>
       </c>
       <c r="G242" t="n">
-        <v>9.092621220773429</v>
+        <v>5.303549675649991</v>
       </c>
       <c r="H242" t="n">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="I242" t="n">
-        <v>39405</v>
+        <v>39293</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3489580</v>
+        <v>3484034</v>
       </c>
       <c r="E243" t="n">
-        <v>5012847</v>
+        <v>5004880</v>
       </c>
       <c r="F243" t="n">
-        <v>672.7622555644599</v>
+        <v>623.9836513464946</v>
       </c>
       <c r="G243" t="n">
-        <v>321.1647706747494</v>
+        <v>0.004221040226651147</v>
       </c>
       <c r="H243" t="n">
         <v>0.4</v>
       </c>
       <c r="I243" t="n">
-        <v>149761</v>
+        <v>148440</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>286430216</v>
+        <v>286782706</v>
       </c>
       <c r="E244" t="n">
-        <v>529961220</v>
+        <v>530613406</v>
       </c>
       <c r="F244" t="n">
-        <v>17127.40973793738</v>
+        <v>5860.031561895582</v>
       </c>
       <c r="G244" t="n">
-        <v>5913.299659073675</v>
+        <v>8001.82277787923</v>
       </c>
       <c r="H244" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I244" t="n">
-        <v>17546873</v>
+        <v>17011242</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>68502183</v>
+        <v>68519998</v>
       </c>
       <c r="E245" t="n">
-        <v>653384317</v>
+        <v>653551750</v>
       </c>
       <c r="F245" t="n">
-        <v>37022.73178841113</v>
+        <v>39436.90092548968</v>
       </c>
       <c r="G245" t="n">
-        <v>69092.79694945444</v>
+        <v>72095.3468551181</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>23838131</v>
+        <v>23902466</v>
       </c>
     </row>
     <row r="246">
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>76034</v>
+        <v>75931</v>
       </c>
       <c r="E246" t="n">
-        <v>632088</v>
+        <v>631232</v>
       </c>
       <c r="F246" t="n">
         <v>3.724326694919195</v>
@@ -9022,7 +9022,7 @@
         <v>0.61</v>
       </c>
       <c r="I246" t="n">
-        <v>125</v>
+        <v>124.89</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1834456</v>
+        <v>1827360</v>
       </c>
       <c r="E247" t="n">
-        <v>5238970</v>
+        <v>5218706</v>
       </c>
       <c r="F247" t="n">
-        <v>403.4450447450103</v>
+        <v>411.3492113741955</v>
       </c>
       <c r="G247" t="n">
-        <v>153.8202028214805</v>
+        <v>151.8642979576016</v>
       </c>
       <c r="H247" t="n">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="I247" t="n">
-        <v>72952</v>
+        <v>72975</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>35328643</v>
+        <v>35379682</v>
       </c>
       <c r="E248" t="n">
-        <v>46186294</v>
+        <v>46253019</v>
       </c>
       <c r="F248" t="n">
-        <v>1655.377072431315</v>
+        <v>1551.481286307166</v>
       </c>
       <c r="G248" t="n">
-        <v>821.2231726160412</v>
+        <v>813.5137298668059</v>
       </c>
       <c r="H248" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I248" t="n">
-        <v>550693</v>
+        <v>522755</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8726058</v>
+        <v>8807537</v>
       </c>
       <c r="E249" t="n">
-        <v>25868733</v>
+        <v>26110282</v>
       </c>
       <c r="F249" t="n">
-        <v>554.4798201875094</v>
+        <v>341.0820825944679</v>
       </c>
       <c r="G249" t="n">
-        <v>2045.237762296373</v>
+        <v>1690.105133240381</v>
       </c>
       <c r="H249" t="n">
         <v>0.48</v>
       </c>
       <c r="I249" t="n">
-        <v>6439681</v>
+        <v>6444996</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1945637</v>
+        <v>1938144</v>
       </c>
       <c r="E250" t="n">
-        <v>5628243</v>
+        <v>5606570</v>
       </c>
       <c r="F250" t="n">
-        <v>3.090524791262772</v>
+        <v>63.88966194546354</v>
       </c>
       <c r="G250" t="n">
-        <v>53.68842820341838</v>
+        <v>34.40294347624609</v>
       </c>
       <c r="H250" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>43510</v>
+        <v>53450</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7238781</v>
+        <v>7194403</v>
       </c>
       <c r="E251" t="n">
-        <v>7238791</v>
+        <v>7194413</v>
       </c>
       <c r="F251" t="n">
-        <v>988.2664692040713</v>
+        <v>826.4784297511574</v>
       </c>
       <c r="G251" t="n">
-        <v>1370.706258779002</v>
+        <v>1370.46738350062</v>
       </c>
       <c r="H251" t="n">
-        <v>0.98</v>
+        <v>1.22</v>
       </c>
       <c r="I251" t="n">
-        <v>262047</v>
+        <v>261811</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5968178</v>
+        <v>5978923</v>
       </c>
       <c r="E252" t="n">
-        <v>5968178</v>
+        <v>5978923</v>
       </c>
       <c r="F252" t="n">
-        <v>875.8060116233307</v>
+        <v>1023.179952735566</v>
       </c>
       <c r="G252" t="n">
-        <v>999.8493549849503</v>
+        <v>1014.157840495099</v>
       </c>
       <c r="H252" t="n">
         <v>0.83</v>
       </c>
       <c r="I252" t="n">
-        <v>500667</v>
+        <v>505912</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6188646</v>
+        <v>6168051</v>
       </c>
       <c r="E253" t="n">
-        <v>22604728</v>
+        <v>22529502</v>
       </c>
       <c r="F253" t="n">
-        <v>81.36825660916759</v>
+        <v>30.3434819363892</v>
       </c>
       <c r="G253" t="n">
-        <v>701.3116601168812</v>
+        <v>712.0876727719306</v>
       </c>
       <c r="H253" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="I253" t="n">
-        <v>574533</v>
+        <v>574889</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2287300</v>
+        <v>2138429</v>
       </c>
       <c r="E254" t="n">
-        <v>20175501</v>
+        <v>18862363</v>
       </c>
       <c r="F254" t="n">
-        <v>123.0560927048261</v>
+        <v>122.7150330314515</v>
       </c>
       <c r="G254" t="n">
-        <v>2033.72813522339</v>
+        <v>1178.010298196775</v>
       </c>
       <c r="H254" t="n">
-        <v>1.02</v>
+        <v>0.71</v>
       </c>
       <c r="I254" t="n">
-        <v>90801</v>
+        <v>84871</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14702510</v>
+        <v>14671593</v>
       </c>
       <c r="E255" t="n">
-        <v>29764333</v>
+        <v>29701745</v>
       </c>
       <c r="F255" t="n">
-        <v>125.5992197038098</v>
+        <v>125.5364424008506</v>
       </c>
       <c r="G255" t="n">
-        <v>279.8473131083861</v>
+        <v>278.9418297195518</v>
       </c>
       <c r="H255" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="I255" t="n">
-        <v>576451</v>
+        <v>574938</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>43278648</v>
+        <v>43035252</v>
       </c>
       <c r="E256" t="n">
-        <v>43278648</v>
+        <v>43035252</v>
       </c>
       <c r="F256" t="n">
-        <v>5325.025818332689</v>
+        <v>5501.147413403773</v>
       </c>
       <c r="G256" t="n">
-        <v>1677.173722528599</v>
+        <v>1754.526922484813</v>
       </c>
       <c r="H256" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="I256" t="n">
-        <v>11758841</v>
+        <v>11813017</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8224425</v>
+        <v>8253895</v>
       </c>
       <c r="E257" t="n">
-        <v>11717922</v>
+        <v>11759909</v>
       </c>
       <c r="F257" t="n">
-        <v>29.21592602055294</v>
+        <v>29.21108338289438</v>
       </c>
       <c r="G257" t="n">
-        <v>1180.28653260883</v>
+        <v>886.5622471559893</v>
       </c>
       <c r="H257" t="n">
         <v>0.26</v>
       </c>
       <c r="I257" t="n">
-        <v>315556</v>
+        <v>313965</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>140287931</v>
+        <v>141097370</v>
       </c>
       <c r="F258" t="n">
-        <v>115.7167144634516</v>
+        <v>110.3410945219271</v>
       </c>
       <c r="G258" t="n">
-        <v>81.10578270741047</v>
+        <v>191.8146897077004</v>
       </c>
       <c r="H258" t="n">
-        <v>2.47</v>
+        <v>3.08</v>
       </c>
       <c r="I258" t="n">
-        <v>1648272</v>
+        <v>1639163</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>15770265</v>
+        <v>15655395</v>
       </c>
       <c r="F259" t="n">
-        <v>75.78618817779638</v>
+        <v>75.77362636309948</v>
       </c>
       <c r="G259" t="n">
-        <v>127.7621324998289</v>
+        <v>127.7409554981571</v>
       </c>
       <c r="H259" t="n">
         <v>0.32</v>
       </c>
       <c r="I259" t="n">
-        <v>1110104</v>
+        <v>1110748</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>716844</v>
+        <v>715672</v>
       </c>
       <c r="F260" t="n">
-        <v>9.992035883822435</v>
+        <v>9.989032532467505</v>
       </c>
       <c r="G260" t="n">
-        <v>112.0896346462156</v>
+        <v>112.3334602390886</v>
       </c>
       <c r="H260" t="n">
         <v>1.9</v>
       </c>
       <c r="I260" t="n">
-        <v>210517</v>
+        <v>208343</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2976362</v>
+        <v>2976690</v>
       </c>
       <c r="F261" t="n">
-        <v>111.177483606754</v>
+        <v>111.1582352864419</v>
       </c>
       <c r="G261" t="n">
-        <v>41.38724846880775</v>
+        <v>41.38008303395959</v>
       </c>
       <c r="H261" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I261" t="n">
-        <v>75297</v>
+        <v>75380</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2587266</v>
+        <v>2591428</v>
       </c>
       <c r="E262" t="n">
-        <v>2589507</v>
+        <v>2593673</v>
       </c>
       <c r="F262" t="n">
-        <v>26.82485914649806</v>
+        <v>2940.97438748265</v>
       </c>
       <c r="G262" t="n">
-        <v>4.119091310097278</v>
+        <v>254.1900415632161</v>
       </c>
       <c r="H262" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="I262" t="n">
-        <v>92584</v>
+        <v>105911</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>73105119</v>
+        <v>73084486</v>
       </c>
       <c r="E263" t="n">
-        <v>101223396</v>
+        <v>101194811</v>
       </c>
       <c r="F263" t="n">
-        <v>7147.621737682549</v>
+        <v>8760.72757182607</v>
       </c>
       <c r="G263" t="n">
-        <v>10217.31463490666</v>
+        <v>11839.71198908337</v>
       </c>
       <c r="H263" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="I263" t="n">
-        <v>7327901</v>
+        <v>7347948</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>610921</v>
+        <v>609801</v>
       </c>
       <c r="F264" t="n">
-        <v>109.1299108402527</v>
+        <v>129.3163996663243</v>
       </c>
       <c r="G264" t="n">
-        <v>215.156757901886</v>
+        <v>143.7852442793697</v>
       </c>
       <c r="H264" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I264" t="n">
-        <v>571058</v>
+        <v>581408</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1313894</v>
+        <v>1312620</v>
       </c>
       <c r="E265" t="n">
-        <v>3977606</v>
+        <v>3972883</v>
       </c>
       <c r="F265" t="n">
-        <v>796.569342325909</v>
+        <v>796.5163302387563</v>
       </c>
       <c r="G265" t="n">
-        <v>248.6543480104753</v>
+        <v>248.6377999395576</v>
       </c>
       <c r="H265" t="n">
         <v>0.25</v>
       </c>
       <c r="I265" t="n">
-        <v>29244</v>
+        <v>29225</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>33097094</v>
+        <v>32974814</v>
       </c>
       <c r="E266" t="n">
-        <v>234652999</v>
+        <v>233786052</v>
       </c>
       <c r="F266" t="n">
-        <v>10584.61555336721</v>
+        <v>20979.63901118652</v>
       </c>
       <c r="G266" t="n">
-        <v>20212.16130311641</v>
+        <v>20128.56949142402</v>
       </c>
       <c r="H266" t="n">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="I266" t="n">
-        <v>6281317</v>
+        <v>6321874</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>57295</v>
+        <v>55410</v>
       </c>
       <c r="E267" t="n">
-        <v>298943</v>
+        <v>289105</v>
       </c>
       <c r="F267" t="n">
-        <v>19.98577630882398</v>
+        <v>22.22145414225691</v>
       </c>
       <c r="G267" t="n">
-        <v>63.53861663961126</v>
+        <v>51.80988277899938</v>
       </c>
       <c r="H267" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I267" t="n">
-        <v>207019</v>
+        <v>206081</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1260213</v>
+        <v>1253402</v>
       </c>
       <c r="E268" t="n">
-        <v>7813434</v>
+        <v>7771210</v>
       </c>
       <c r="F268" t="n">
-        <v>1325.353100251165</v>
+        <v>951.4904918220476</v>
       </c>
       <c r="G268" t="n">
-        <v>1904.02388646539</v>
+        <v>1164.653489295606</v>
       </c>
       <c r="H268" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="I268" t="n">
-        <v>776943</v>
+        <v>774682</v>
       </c>
     </row>
     <row r="269">
@@ -9812,10 +9812,10 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>572165483</v>
+        <v>571219353</v>
       </c>
       <c r="E269" t="n">
-        <v>2215912497</v>
+        <v>2212248278</v>
       </c>
       <c r="F269" t="n">
         <v>240362.4379966379</v>
@@ -9827,7 +9827,7 @@
         <v>0.05</v>
       </c>
       <c r="I269" t="n">
-        <v>60981974</v>
+        <v>60610950</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3305172</v>
+        <v>3307895</v>
       </c>
       <c r="F270" t="n">
-        <v>59.19524744213724</v>
+        <v>59.16263335297392</v>
       </c>
       <c r="G270" t="n">
-        <v>552.9499518054624</v>
+        <v>521.5154024446229</v>
       </c>
       <c r="H270" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I270" t="n">
-        <v>38495</v>
+        <v>38370</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>759613</v>
+        <v>758246</v>
       </c>
       <c r="F271" t="n">
-        <v>39.92928512725594</v>
+        <v>5.008119291755043</v>
       </c>
       <c r="G271" t="n">
-        <v>23.24212279648384</v>
+        <v>158.5096030976709</v>
       </c>
       <c r="H271" t="n">
-        <v>0.78</v>
+        <v>2.86</v>
       </c>
       <c r="I271" t="n">
-        <v>143241</v>
+        <v>143149</v>
       </c>
     </row>
     <row r="272">
@@ -9917,10 +9917,10 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5427703</v>
+        <v>5432589</v>
       </c>
       <c r="E272" t="n">
-        <v>24295666</v>
+        <v>24317538</v>
       </c>
       <c r="F272" t="n">
         <v>110.1889977614118</v>
@@ -9932,7 +9932,7 @@
         <v>0.46</v>
       </c>
       <c r="I272" t="n">
-        <v>191345</v>
+        <v>191935</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6408527</v>
+        <v>6493275</v>
       </c>
       <c r="E273" t="n">
-        <v>12269644</v>
+        <v>12431902</v>
       </c>
       <c r="F273" t="n">
-        <v>36.91323383538214</v>
+        <v>1238.180995562571</v>
       </c>
       <c r="G273" t="n">
-        <v>594.429111736172</v>
+        <v>607.7188697746828</v>
       </c>
       <c r="H273" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="I273" t="n">
-        <v>35808</v>
+        <v>35073</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3165330</v>
+        <v>3177857</v>
       </c>
       <c r="E274" t="n">
-        <v>20814470</v>
+        <v>20896849</v>
       </c>
       <c r="F274" t="n">
-        <v>219.3530624541355</v>
+        <v>155.9648634679827</v>
       </c>
       <c r="G274" t="n">
-        <v>116.0914542160701</v>
+        <v>116.0750790355423</v>
       </c>
       <c r="H274" t="n">
         <v>0.63</v>
       </c>
       <c r="I274" t="n">
-        <v>1675671</v>
+        <v>1637763</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3632566</v>
+        <v>3629041</v>
       </c>
       <c r="E275" t="n">
-        <v>6192202</v>
+        <v>6186193</v>
       </c>
       <c r="F275" t="n">
-        <v>798.3850622161603</v>
+        <v>798.0433018297319</v>
       </c>
       <c r="G275" t="n">
-        <v>418.5538899244572</v>
+        <v>448.2316100730371</v>
       </c>
       <c r="H275" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1105233</v>
+        <v>1096278</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>431494</v>
+        <v>431547</v>
       </c>
       <c r="E276" t="n">
-        <v>431494</v>
+        <v>431547</v>
       </c>
       <c r="F276" t="n">
-        <v>5.218351077856015</v>
+        <v>5.217486118674936</v>
       </c>
       <c r="G276" t="n">
-        <v>3.81419488373069</v>
+        <v>3.813562668144984</v>
       </c>
       <c r="H276" t="n">
         <v>0.39</v>
       </c>
       <c r="I276" t="n">
-        <v>104.83</v>
+        <v>104.72</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7267774</v>
+        <v>7257993</v>
       </c>
       <c r="E277" t="n">
-        <v>10412456</v>
+        <v>10398444</v>
       </c>
       <c r="F277" t="n">
-        <v>744.8460672687174</v>
+        <v>620.2244974527356</v>
       </c>
       <c r="G277" t="n">
-        <v>3440.300392793155</v>
+        <v>3267.496769606051</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>179149</v>
+        <v>180033</v>
       </c>
     </row>
     <row r="278">
@@ -10127,10 +10127,10 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>106668954</v>
+        <v>106023274</v>
       </c>
       <c r="E278" t="n">
-        <v>1009857716</v>
+        <v>1003744926</v>
       </c>
       <c r="F278" t="n">
         <v>1350.301621657631</v>
@@ -10142,7 +10142,7 @@
         <v>0.23</v>
       </c>
       <c r="I278" t="n">
-        <v>16234187</v>
+        <v>16338779</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>97740177</v>
+        <v>99059691</v>
       </c>
       <c r="E279" t="n">
-        <v>149104931</v>
+        <v>151117880</v>
       </c>
       <c r="F279" t="n">
-        <v>11940.09576599258</v>
+        <v>6844.709061850936</v>
       </c>
       <c r="G279" t="n">
-        <v>22521.40258641246</v>
+        <v>21334.50787037446</v>
       </c>
       <c r="H279" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="I279" t="n">
-        <v>13175338</v>
+        <v>13191545</v>
       </c>
     </row>
     <row r="280">
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15565797</v>
+        <v>15568052</v>
       </c>
       <c r="E280" t="n">
-        <v>21354925</v>
+        <v>21358019</v>
       </c>
       <c r="F280" t="n">
         <v>518.5938504156611</v>
@@ -10212,7 +10212,7 @@
         <v>0.23</v>
       </c>
       <c r="I280" t="n">
-        <v>939927</v>
+        <v>945858</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5095131</v>
+        <v>5071259</v>
       </c>
       <c r="E281" t="n">
-        <v>5095131</v>
+        <v>5071259</v>
       </c>
       <c r="F281" t="n">
-        <v>355.0570115145401</v>
+        <v>944.4727753565609</v>
       </c>
       <c r="G281" t="n">
-        <v>5.318759828535272</v>
+        <v>758.2181149163575</v>
       </c>
       <c r="H281" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I281" t="n">
-        <v>640846</v>
+        <v>641760</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>120865969</v>
+        <v>120315873</v>
       </c>
       <c r="E282" t="n">
-        <v>463661313</v>
+        <v>461551053</v>
       </c>
       <c r="F282" t="n">
-        <v>82561.08491896169</v>
+        <v>66805.14792638329</v>
       </c>
       <c r="G282" t="n">
-        <v>75341.91577654127</v>
+        <v>52440.91543202559</v>
       </c>
       <c r="H282" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>39527233</v>
+        <v>39443422</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>724498</v>
+        <v>722001</v>
       </c>
       <c r="F283" t="n">
-        <v>3.910908654240174</v>
+        <v>3.910459663045216</v>
       </c>
       <c r="G283" t="n">
-        <v>3.08276241360726</v>
+        <v>3.082408497598929</v>
       </c>
       <c r="H283" t="n">
         <v>0.25</v>
       </c>
       <c r="I283" t="n">
-        <v>46114</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3101992</v>
+        <v>3099404</v>
       </c>
       <c r="E284" t="n">
-        <v>29391837</v>
+        <v>29367314</v>
       </c>
       <c r="F284" t="n">
-        <v>772.1733107911034</v>
+        <v>763.0679985310011</v>
       </c>
       <c r="G284" t="n">
-        <v>1122.056895652033</v>
+        <v>1312.806062505703</v>
       </c>
       <c r="H284" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I284" t="n">
-        <v>263334</v>
+        <v>261933</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>98047</v>
+        <v>98234</v>
       </c>
       <c r="F285" t="n">
-        <v>1422.8774656758</v>
+        <v>1381.908160288675</v>
       </c>
       <c r="G285" t="n">
-        <v>0.1299027996734816</v>
+        <v>0.04997223309585958</v>
       </c>
       <c r="H285" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I285" t="n">
-        <v>48239</v>
+        <v>48425</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>133583</v>
+        <v>129889</v>
       </c>
       <c r="F286" t="n">
-        <v>5.486834274271455</v>
+        <v>5.486060279501944</v>
       </c>
       <c r="G286" t="n">
-        <v>44.2335718938944</v>
+        <v>44.22733212947447</v>
       </c>
       <c r="H286" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I286" t="n">
-        <v>64284</v>
+        <v>64555</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>25526496</v>
+        <v>22407280</v>
       </c>
       <c r="E287" t="n">
-        <v>25526496</v>
+        <v>22407280</v>
       </c>
       <c r="F287" t="n">
-        <v>1108.754140812942</v>
+        <v>874.5473187822524</v>
       </c>
       <c r="G287" t="n">
-        <v>1087.832485006405</v>
+        <v>1956.919454759514</v>
       </c>
       <c r="H287" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="I287" t="n">
-        <v>725363</v>
+        <v>760199</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>559558</v>
+        <v>558694</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8105.94</v>
+        <v>8117.03</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6580882</v>
+        <v>6576881</v>
       </c>
       <c r="E289" t="n">
-        <v>41128631</v>
+        <v>41103622</v>
       </c>
       <c r="F289" t="n">
-        <v>56.44358679987105</v>
+        <v>301.2931601656623</v>
       </c>
       <c r="G289" t="n">
-        <v>21.04530199801041</v>
+        <v>21.03897631653713</v>
       </c>
       <c r="H289" t="n">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="I289" t="n">
-        <v>418949</v>
+        <v>420879</v>
       </c>
     </row>
     <row r="290">
@@ -10545,10 +10545,10 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494275557</v>
+        <v>493788571</v>
       </c>
       <c r="E290" t="n">
-        <v>494275557</v>
+        <v>493788571</v>
       </c>
       <c r="F290" t="n">
         <v>1372581.370728541</v>
@@ -10560,7 +10560,7 @@
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>44835080</v>
+        <v>44988647</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5126188</v>
+        <v>5108173</v>
       </c>
       <c r="E291" t="n">
-        <v>19049010</v>
+        <v>18982068</v>
       </c>
       <c r="F291" t="n">
-        <v>717.9250513112833</v>
+        <v>872.264903972297</v>
       </c>
       <c r="G291" t="n">
-        <v>2516.566084201281</v>
+        <v>2418.359826682543</v>
       </c>
       <c r="H291" t="n">
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>138665</v>
+        <v>144463</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35969480</v>
+        <v>35966193</v>
       </c>
       <c r="F292" t="n">
-        <v>7672.681510917652</v>
+        <v>7886.294451670399</v>
       </c>
       <c r="G292" t="n">
-        <v>10033.60227488885</v>
+        <v>12242.65623716636</v>
       </c>
       <c r="H292" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="I292" t="n">
-        <v>8059473</v>
+        <v>8005989</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>43947109</v>
+        <v>42439817</v>
       </c>
       <c r="E293" t="n">
-        <v>157522271</v>
+        <v>152119594</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>36.85493889107659</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>42.11756590255864</v>
       </c>
       <c r="H293" t="n">
-        <v>6.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I293" t="n">
-        <v>176398</v>
+        <v>173644</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>809122</v>
+        <v>797657</v>
       </c>
       <c r="E294" t="n">
-        <v>12905201</v>
+        <v>12722344</v>
       </c>
       <c r="F294" t="n">
-        <v>19.02119658903429</v>
+        <v>19.01804376194785</v>
       </c>
       <c r="G294" t="n">
-        <v>7.74073087624422</v>
+        <v>7.739447824157502</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>334669</v>
+        <v>334805</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85018</v>
+        <v>84924</v>
       </c>
       <c r="F295" t="n">
-        <v>22.91866049145615</v>
+        <v>22.91178127951981</v>
       </c>
       <c r="G295" t="n">
-        <v>209.1127101907518</v>
+        <v>209.0499434050349</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>54915</v>
+        <v>54555</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1508830</v>
+        <v>1491405</v>
       </c>
       <c r="F296" t="n">
-        <v>3.203438501736719</v>
+        <v>3.20290752106835</v>
       </c>
       <c r="G296" t="n">
-        <v>4.06372414174105</v>
+        <v>4.063050565844502</v>
       </c>
       <c r="H296" t="n">
         <v>0.23</v>
       </c>
       <c r="I296" t="n">
-        <v>600124</v>
+        <v>599907</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2508773582</v>
+        <v>2500652689</v>
       </c>
       <c r="E297" t="n">
-        <v>2663664754</v>
+        <v>2655042478</v>
       </c>
       <c r="F297" t="n">
-        <v>38527.23385922037</v>
+        <v>41125.96883291878</v>
       </c>
       <c r="G297" t="n">
-        <v>57460.13643455737</v>
+        <v>56059.31479139114</v>
       </c>
       <c r="H297" t="n">
         <v>0.19</v>
       </c>
       <c r="I297" t="n">
-        <v>59459852</v>
+        <v>59638308</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2121669</v>
+        <v>2090297</v>
       </c>
       <c r="E298" t="n">
-        <v>16319277</v>
+        <v>16077968</v>
       </c>
       <c r="F298" t="n">
-        <v>117.667671056815</v>
+        <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>9.877930676447512</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>2.01</v>
+        <v>6.56</v>
       </c>
       <c r="I298" t="n">
-        <v>208115</v>
+        <v>206506</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1695059</v>
+        <v>1698596</v>
       </c>
       <c r="E299" t="n">
-        <v>1701042</v>
+        <v>1704592</v>
       </c>
       <c r="F299" t="n">
-        <v>635.9173954823235</v>
+        <v>1011.532241138452</v>
       </c>
       <c r="G299" t="n">
-        <v>3909.358023352684</v>
+        <v>3622.71327516649</v>
       </c>
       <c r="H299" t="n">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="I299" t="n">
-        <v>451276</v>
+        <v>466927</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>89249814</v>
+        <v>89327141</v>
       </c>
       <c r="E300" t="n">
-        <v>329903952</v>
+        <v>330188757</v>
       </c>
       <c r="F300" t="n">
-        <v>3990.19130938832</v>
+        <v>1835.787342168747</v>
       </c>
       <c r="G300" t="n">
-        <v>3443.418309183642</v>
+        <v>4217.094994536584</v>
       </c>
       <c r="H300" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I300" t="n">
-        <v>271924</v>
+        <v>272140</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2268777</v>
+        <v>2269749</v>
       </c>
       <c r="E301" t="n">
-        <v>9095182</v>
+        <v>9099077</v>
       </c>
       <c r="F301" t="n">
-        <v>4.09652286314514</v>
+        <v>5.344308362347661</v>
       </c>
       <c r="G301" t="n">
-        <v>372.0450624708983</v>
+        <v>10.01208353824637</v>
       </c>
       <c r="H301" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I301" t="n">
-        <v>9855.129999999999</v>
+        <v>9868.790000000001</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>56049443</v>
+        <v>56033925</v>
       </c>
       <c r="E302" t="n">
-        <v>137485485</v>
+        <v>137447420</v>
       </c>
       <c r="F302" t="n">
-        <v>1008.371466517405</v>
+        <v>1116.849407059617</v>
       </c>
       <c r="G302" t="n">
-        <v>1880.538322777977</v>
+        <v>1579.321812174806</v>
       </c>
       <c r="H302" t="n">
         <v>0.97</v>
       </c>
       <c r="I302" t="n">
-        <v>21689846</v>
+        <v>21722386</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>747264723</v>
+        <v>746822488</v>
       </c>
       <c r="E303" t="n">
-        <v>1152348180</v>
+        <v>1151666214</v>
       </c>
       <c r="F303" t="n">
-        <v>5467.269448930453</v>
+        <v>8011.33311759565</v>
       </c>
       <c r="G303" t="n">
-        <v>20425.15963040457</v>
+        <v>32908.2296606341</v>
       </c>
       <c r="H303" t="n">
-        <v>0.73</v>
+        <v>0.41</v>
       </c>
       <c r="I303" t="n">
-        <v>379344112</v>
+        <v>328573229</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>18341999</v>
+        <v>18198490</v>
       </c>
       <c r="E304" t="n">
-        <v>18341999</v>
+        <v>18198490</v>
       </c>
       <c r="F304" t="n">
-        <v>96.84963073838934</v>
+        <v>791.8811768079071</v>
       </c>
       <c r="G304" t="n">
-        <v>2787.515273394589</v>
+        <v>2681.318511180621</v>
       </c>
       <c r="H304" t="n">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="I304" t="n">
-        <v>7250402</v>
+        <v>7257578</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1892765</v>
+        <v>1917438</v>
       </c>
       <c r="E305" t="n">
-        <v>3105705</v>
+        <v>3146191</v>
       </c>
       <c r="F305" t="n">
-        <v>367.9935356758354</v>
+        <v>310.7811850518564</v>
       </c>
       <c r="G305" t="n">
-        <v>126.698406558701</v>
+        <v>126.6627525516575</v>
       </c>
       <c r="H305" t="n">
         <v>0.35</v>
       </c>
       <c r="I305" t="n">
-        <v>117265</v>
+        <v>118546</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>8811392</v>
+        <v>8548736</v>
       </c>
       <c r="E306" t="n">
-        <v>8811392</v>
+        <v>8548736</v>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>196.3867624330286</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>5.241197738383054</v>
       </c>
       <c r="H306" t="n">
-        <v>11.97</v>
+        <v>0.33</v>
       </c>
       <c r="I306" t="n">
-        <v>61698</v>
+        <v>61645</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39783652</v>
+        <v>39852882</v>
       </c>
       <c r="E307" t="n">
-        <v>189720742</v>
+        <v>190050890</v>
       </c>
       <c r="F307" t="n">
-        <v>1037.345699832603</v>
+        <v>1064.226725389217</v>
       </c>
       <c r="G307" t="n">
-        <v>198.5829923233032</v>
+        <v>134.1801251790571</v>
       </c>
       <c r="H307" t="n">
         <v>0.47</v>
       </c>
       <c r="I307" t="n">
-        <v>270605</v>
+        <v>403919</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>374946</v>
+        <v>375111</v>
       </c>
       <c r="E308" t="n">
-        <v>701256</v>
+        <v>701564</v>
       </c>
       <c r="F308" t="n">
-        <v>31.49377152730949</v>
+        <v>31.48468687314065</v>
       </c>
       <c r="G308" t="n">
-        <v>697.2922106157509</v>
+        <v>697.0910705718354</v>
       </c>
       <c r="H308" t="n">
         <v>0.58</v>
       </c>
       <c r="I308" t="n">
-        <v>2131.66</v>
+        <v>2074.91</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>22692015</v>
+        <v>22409159</v>
       </c>
       <c r="E309" t="n">
-        <v>37820024</v>
+        <v>37348598</v>
       </c>
       <c r="F309" t="n">
-        <v>561.4057794301514</v>
+        <v>543.921566954496</v>
       </c>
       <c r="G309" t="n">
-        <v>393.2210999054344</v>
+        <v>468.9824336503638</v>
       </c>
       <c r="H309" t="n">
-        <v>0.26</v>
+        <v>0.79</v>
       </c>
       <c r="I309" t="n">
-        <v>1136547</v>
+        <v>1136535</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107616</v>
+        <v>107646</v>
       </c>
       <c r="F310" t="n">
-        <v>5.291371834893021</v>
+        <v>5.289882797944609</v>
       </c>
       <c r="G310" t="n">
-        <v>4.055152385582974</v>
+        <v>4.054011231280842</v>
       </c>
       <c r="H310" t="n">
         <v>0.57</v>
       </c>
       <c r="I310" t="n">
-        <v>55596</v>
+        <v>55043</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>21655941</v>
+        <v>21652410</v>
       </c>
       <c r="E311" t="n">
-        <v>21655941</v>
+        <v>21652410</v>
       </c>
       <c r="F311" t="n">
-        <v>5026.143745358843</v>
+        <v>6194.649577696347</v>
       </c>
       <c r="G311" t="n">
-        <v>6165.808316823355</v>
+        <v>6614.452063761269</v>
       </c>
       <c r="H311" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I311" t="n">
-        <v>5950969</v>
+        <v>5943641</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3800413</v>
+        <v>3797258</v>
       </c>
       <c r="E312" t="n">
-        <v>8284366</v>
+        <v>8277489</v>
       </c>
       <c r="F312" t="n">
-        <v>1882.884384649324</v>
+        <v>1866.571237837302</v>
       </c>
       <c r="G312" t="n">
-        <v>1920.511129451516</v>
+        <v>1967.600635914231</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>2035367</v>
+        <v>2051059</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9248278</v>
+        <v>9232256</v>
       </c>
       <c r="E313" t="n">
-        <v>9248278</v>
+        <v>9232256</v>
       </c>
       <c r="F313" t="n">
-        <v>116720.9278914999</v>
+        <v>115939.4283274022</v>
       </c>
       <c r="G313" t="n">
-        <v>14509.67242722166</v>
+        <v>14190.03660839157</v>
       </c>
       <c r="H313" t="n">
         <v>0.04</v>
       </c>
       <c r="I313" t="n">
-        <v>6331076</v>
+        <v>6399804</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>461984228</v>
+        <v>460817069</v>
       </c>
       <c r="E314" t="n">
-        <v>1608128649</v>
+        <v>1604065867</v>
       </c>
       <c r="F314" t="n">
-        <v>492741.7533871416</v>
+        <v>463225.2816674333</v>
       </c>
       <c r="G314" t="n">
-        <v>477872.328551707</v>
+        <v>471588.7376699409</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>48231996</v>
+        <v>47308903</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22249263</v>
+        <v>22084983</v>
       </c>
       <c r="E315" t="n">
-        <v>22229936</v>
+        <v>22065799</v>
       </c>
       <c r="F315" t="n">
-        <v>291.3199085198405</v>
+        <v>222.2451465984028</v>
       </c>
       <c r="G315" t="n">
-        <v>820.3853566343722</v>
+        <v>834.8329020854413</v>
       </c>
       <c r="H315" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="I315" t="n">
-        <v>407282</v>
+        <v>408869</v>
       </c>
     </row>
     <row r="316">
@@ -11455,10 +11455,10 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>46035313</v>
+        <v>46067717</v>
       </c>
       <c r="E316" t="n">
-        <v>113322245</v>
+        <v>113402011</v>
       </c>
       <c r="F316" t="n">
         <v>87.498639675927</v>
@@ -11470,7 +11470,7 @@
         <v>0.53</v>
       </c>
       <c r="I316" t="n">
-        <v>116931</v>
+        <v>117421</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11843426</v>
+        <v>11837335</v>
       </c>
       <c r="E317" t="n">
-        <v>23906976</v>
+        <v>23892963</v>
       </c>
       <c r="F317" t="n">
-        <v>131.3992281637055</v>
+        <v>130.1556414131231</v>
       </c>
       <c r="G317" t="n">
-        <v>1002.52948024788</v>
+        <v>1005.195449299688</v>
       </c>
       <c r="H317" t="n">
         <v>0.41</v>
       </c>
       <c r="I317" t="n">
-        <v>66620</v>
+        <v>66891</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7199852</v>
+        <v>7166910</v>
       </c>
       <c r="E318" t="n">
-        <v>18704440</v>
+        <v>18618861</v>
       </c>
       <c r="F318" t="n">
-        <v>5567.37429695045</v>
+        <v>5571.149409791933</v>
       </c>
       <c r="G318" t="n">
-        <v>5146.301417121901</v>
+        <v>143.440048625276</v>
       </c>
       <c r="H318" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I318" t="n">
-        <v>768697</v>
+        <v>770495</v>
       </c>
     </row>
     <row r="319">
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>144740</v>
+        <v>142618</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -11572,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>4.23</v>
+        <v>7.29</v>
       </c>
       <c r="I319" t="n">
-        <v>54642</v>
+        <v>54050</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18785767395</v>
+        <v>18797299899</v>
       </c>
       <c r="F320" t="n">
-        <v>90.82655869546996</v>
+        <v>87.31699238229666</v>
       </c>
       <c r="G320" t="n">
-        <v>29484.39052981156</v>
+        <v>29400.43954723807</v>
       </c>
       <c r="H320" t="n">
         <v>0.58</v>
       </c>
       <c r="I320" t="n">
-        <v>33883645</v>
+        <v>33310550</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>105599583</v>
+        <v>105045879</v>
       </c>
       <c r="E321" t="n">
-        <v>159995569</v>
+        <v>159156644</v>
       </c>
       <c r="F321" t="n">
-        <v>16468.49589832653</v>
+        <v>17728.28389156058</v>
       </c>
       <c r="G321" t="n">
-        <v>19328.30816014861</v>
+        <v>16454.16378217571</v>
       </c>
       <c r="H321" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="I321" t="n">
-        <v>9697216</v>
+        <v>9690429</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2360569</v>
+        <v>2346309</v>
       </c>
       <c r="E322" t="n">
-        <v>9442274</v>
+        <v>9385237</v>
       </c>
       <c r="F322" t="n">
-        <v>2527.789654123403</v>
+        <v>1950.313828747114</v>
       </c>
       <c r="G322" t="n">
-        <v>1823.421762834708</v>
+        <v>1950.217036305402</v>
       </c>
       <c r="H322" t="n">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="I322" t="n">
-        <v>7513742</v>
+        <v>7552206</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>207547802</v>
+        <v>207713672</v>
       </c>
       <c r="E323" t="n">
-        <v>638131387</v>
+        <v>638641373</v>
       </c>
       <c r="F323" t="n">
-        <v>114841.4455417952</v>
+        <v>81705.83704142399</v>
       </c>
       <c r="G323" t="n">
-        <v>155376.1316883858</v>
+        <v>157178.0954235965</v>
       </c>
       <c r="H323" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I323" t="n">
-        <v>22565740</v>
+        <v>22663358</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>134085123</v>
+        <v>133450457</v>
       </c>
       <c r="E324" t="n">
-        <v>350293663</v>
+        <v>348635616</v>
       </c>
       <c r="F324" t="n">
-        <v>22934.90975470143</v>
+        <v>11185.64690712365</v>
       </c>
       <c r="G324" t="n">
-        <v>10795.23623849095</v>
+        <v>10936.33977763764</v>
       </c>
       <c r="H324" t="n">
         <v>0.23</v>
       </c>
       <c r="I324" t="n">
-        <v>8837426</v>
+        <v>8760770</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2315609</v>
+        <v>2389378</v>
       </c>
       <c r="E325" t="n">
-        <v>3178148</v>
+        <v>3279396</v>
       </c>
       <c r="F325" t="n">
-        <v>156.1196636512506</v>
+        <v>152.8396195924088</v>
       </c>
       <c r="G325" t="n">
-        <v>2676.861976050549</v>
+        <v>2238.356981863116</v>
       </c>
       <c r="H325" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="I325" t="n">
-        <v>995577</v>
+        <v>994992</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>379864178</v>
+        <v>378237807</v>
       </c>
       <c r="E326" t="n">
-        <v>2170652444</v>
+        <v>2161358899</v>
       </c>
       <c r="F326" t="n">
-        <v>260670.3970216919</v>
+        <v>309471.798256744</v>
       </c>
       <c r="G326" t="n">
-        <v>354954.9317396523</v>
+        <v>331639.2915801805</v>
       </c>
       <c r="H326" t="n">
         <v>0.29</v>
       </c>
       <c r="I326" t="n">
-        <v>61386450</v>
+        <v>61627167</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93955</v>
+        <v>93162</v>
       </c>
       <c r="F2" t="n">
-        <v>3.888267200061896</v>
+        <v>5.397835221629554</v>
       </c>
       <c r="G2" t="n">
-        <v>4.176168336056577</v>
+        <v>33.99795256949607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>794.9299999999999</v>
+        <v>583.33</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>580901996</v>
+        <v>589841685</v>
       </c>
       <c r="E3" t="n">
-        <v>1127271937</v>
+        <v>1144709528</v>
       </c>
       <c r="F3" t="n">
-        <v>19835.65918040583</v>
+        <v>17500.37836957997</v>
       </c>
       <c r="G3" t="n">
-        <v>30795.77643042786</v>
+        <v>29203.82887451389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="I3" t="n">
-        <v>45827769</v>
+        <v>47262453</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244235783</v>
+        <v>249347865</v>
       </c>
       <c r="E4" t="n">
-        <v>1531568268</v>
+        <v>1563625413</v>
       </c>
       <c r="F4" t="n">
-        <v>36064.11562998733</v>
+        <v>30708.47174235476</v>
       </c>
       <c r="G4" t="n">
-        <v>63695.77411651928</v>
+        <v>46319.62878077789</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>25593342</v>
+        <v>26698912</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138041314</v>
+        <v>139669685</v>
       </c>
       <c r="E5" t="n">
-        <v>152971349</v>
+        <v>154775839</v>
       </c>
       <c r="F5" t="n">
-        <v>119573.7897387937</v>
+        <v>104854.928524279</v>
       </c>
       <c r="G5" t="n">
-        <v>227132.3331473192</v>
+        <v>207470.0001412133</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>52694077</v>
+        <v>53568822</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47642222</v>
+        <v>48353455</v>
       </c>
       <c r="E6" t="n">
-        <v>59599198</v>
+        <v>60488933</v>
       </c>
       <c r="F6" t="n">
-        <v>8730.153127802099</v>
+        <v>11626.26038055318</v>
       </c>
       <c r="G6" t="n">
-        <v>13476.81211280249</v>
+        <v>12274.36744608679</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>838973</v>
+        <v>791720</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8154467</v>
+        <v>8231976</v>
       </c>
       <c r="E7" t="n">
-        <v>8360092</v>
+        <v>8439555</v>
       </c>
       <c r="F7" t="n">
-        <v>579.2876684900043</v>
+        <v>651.9070870906659</v>
       </c>
       <c r="G7" t="n">
-        <v>4356.251136907576</v>
+        <v>1928.361472103737</v>
       </c>
       <c r="H7" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
-        <v>99071</v>
+        <v>74753</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66436708</v>
+        <v>66057047</v>
       </c>
       <c r="E8" t="n">
-        <v>132319437</v>
+        <v>131563282</v>
       </c>
       <c r="F8" t="n">
-        <v>12226.34436089747</v>
+        <v>25587.33347674315</v>
       </c>
       <c r="G8" t="n">
-        <v>15843.32506934639</v>
+        <v>15931.1093824886</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>950169</v>
+        <v>975500</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4996825</v>
+        <v>4982358</v>
       </c>
       <c r="E9" t="n">
-        <v>7983424</v>
+        <v>7960311</v>
       </c>
       <c r="F9" t="n">
-        <v>320.2451358980123</v>
+        <v>315.2317260280007</v>
       </c>
       <c r="G9" t="n">
-        <v>469.2851750315987</v>
+        <v>469.2890498864003</v>
       </c>
       <c r="H9" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>99400</v>
+        <v>99796</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13863560</v>
+        <v>14049919</v>
       </c>
       <c r="E10" t="n">
-        <v>40855014</v>
+        <v>41404204</v>
       </c>
       <c r="F10" t="n">
-        <v>3938.385694645892</v>
+        <v>4023.840467819383</v>
       </c>
       <c r="G10" t="n">
-        <v>2931.20171554459</v>
+        <v>2721.514015495097</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>893032</v>
+        <v>901542</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>115712319</v>
+        <v>116992726</v>
       </c>
       <c r="E11" t="n">
-        <v>453557643</v>
+        <v>458576454</v>
       </c>
       <c r="F11" t="n">
-        <v>78642.37841249093</v>
+        <v>68312.90380468873</v>
       </c>
       <c r="G11" t="n">
-        <v>45540.94901116617</v>
+        <v>50175.26447917879</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>27320197</v>
+        <v>27192530</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8565818</v>
+        <v>8550338</v>
       </c>
       <c r="E12" t="n">
-        <v>36820653</v>
+        <v>36754110</v>
       </c>
       <c r="F12" t="n">
-        <v>1061.089501299584</v>
+        <v>2394.933024800252</v>
       </c>
       <c r="G12" t="n">
-        <v>3044.926483132753</v>
+        <v>3390.475095438541</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>963379</v>
+        <v>970503</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>997524</v>
+        <v>995742</v>
       </c>
       <c r="E13" t="n">
-        <v>12207004</v>
+        <v>12185197</v>
       </c>
       <c r="F13" t="n">
-        <v>170.0541717047581</v>
+        <v>170.0797050274062</v>
       </c>
       <c r="G13" t="n">
-        <v>416.2583734948684</v>
+        <v>137.5587777309227</v>
       </c>
       <c r="H13" t="n">
-        <v>1.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>580.71</v>
+        <v>613.22</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>560862</v>
+        <v>561893</v>
       </c>
       <c r="E14" t="n">
-        <v>560862</v>
+        <v>561893</v>
       </c>
       <c r="F14" t="n">
-        <v>696.8693964852656</v>
+        <v>652.0116711820369</v>
       </c>
       <c r="G14" t="n">
-        <v>352.4286124072174</v>
+        <v>376.0441036210014</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="I14" t="n">
-        <v>26626</v>
+        <v>20936</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>544190951</v>
+        <v>545946999</v>
       </c>
       <c r="E15" t="n">
-        <v>680701999</v>
+        <v>682898553</v>
       </c>
       <c r="F15" t="n">
-        <v>623550.7148824933</v>
+        <v>410999.3389455077</v>
       </c>
       <c r="G15" t="n">
-        <v>555294.9701423014</v>
+        <v>447726.249079194</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I15" t="n">
-        <v>98141310</v>
+        <v>98827586</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3167824</v>
+        <v>3175261</v>
       </c>
       <c r="E16" t="n">
-        <v>9012180</v>
+        <v>9033337</v>
       </c>
       <c r="F16" t="n">
-        <v>208.8151228599122</v>
+        <v>113.7008356551047</v>
       </c>
       <c r="G16" t="n">
-        <v>32.59158415689922</v>
+        <v>73.95417075255847</v>
       </c>
       <c r="H16" t="n">
-        <v>0.66</v>
+        <v>1.3</v>
       </c>
       <c r="I16" t="n">
-        <v>111229</v>
+        <v>109394</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>307890</v>
+        <v>306505</v>
       </c>
       <c r="E17" t="n">
-        <v>3553416</v>
+        <v>3537432</v>
       </c>
       <c r="F17" t="n">
-        <v>5.332993317756691</v>
+        <v>5.42427324930947</v>
       </c>
       <c r="G17" t="n">
-        <v>4.089361318056374</v>
+        <v>15.30248347620695</v>
       </c>
       <c r="H17" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="I17" t="n">
-        <v>885.23</v>
+        <v>916.76</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1244574</v>
+        <v>1248062</v>
       </c>
       <c r="E18" t="n">
-        <v>9546620</v>
+        <v>9573377</v>
       </c>
       <c r="F18" t="n">
-        <v>102.5370457604223</v>
+        <v>87.72910408882338</v>
       </c>
       <c r="G18" t="n">
-        <v>140.5322793480159</v>
+        <v>100.2379675307391</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="I18" t="n">
-        <v>122414</v>
+        <v>123546</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23977685</v>
+        <v>23563174</v>
       </c>
       <c r="E19" t="n">
-        <v>24021911</v>
+        <v>23606636</v>
       </c>
       <c r="F19" t="n">
-        <v>656.6183362710472</v>
+        <v>1860.873225932678</v>
       </c>
       <c r="G19" t="n">
-        <v>754.9078822014616</v>
+        <v>683.239221310161</v>
       </c>
       <c r="H19" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="I19" t="n">
-        <v>881127</v>
+        <v>870586</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4087435</v>
+        <v>4103741</v>
       </c>
       <c r="E20" t="n">
-        <v>22679509</v>
+        <v>22769981</v>
       </c>
       <c r="F20" t="n">
-        <v>4.151307950747748</v>
+        <v>4.151081276574134</v>
       </c>
       <c r="G20" t="n">
-        <v>4.255997981905261</v>
+        <v>4.255765591334169</v>
       </c>
       <c r="H20" t="n">
         <v>1.07</v>
       </c>
       <c r="I20" t="n">
-        <v>20145</v>
+        <v>18976.9</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6850110</v>
+        <v>6845131</v>
       </c>
       <c r="E21" t="n">
-        <v>12708398</v>
+        <v>12699162</v>
       </c>
       <c r="F21" t="n">
-        <v>385.5291766830786</v>
+        <v>1152.944084204913</v>
       </c>
       <c r="G21" t="n">
-        <v>764.3002679628418</v>
+        <v>773.2569927735929</v>
       </c>
       <c r="H21" t="n">
-        <v>1.18</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>56014</v>
+        <v>56081</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68420442</v>
+        <v>68729976</v>
       </c>
       <c r="E22" t="n">
-        <v>118448059</v>
+        <v>118981074</v>
       </c>
       <c r="F22" t="n">
-        <v>1819.342928910932</v>
+        <v>1779.676685114366</v>
       </c>
       <c r="G22" t="n">
-        <v>678.9621989129419</v>
+        <v>844.6652651565402</v>
       </c>
       <c r="H22" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>836835</v>
+        <v>828215</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>169146</v>
+        <v>169273</v>
       </c>
       <c r="E23" t="n">
-        <v>508708</v>
+        <v>509093</v>
       </c>
       <c r="F23" t="n">
-        <v>8.377509733542121</v>
+        <v>8.380356104464823</v>
       </c>
       <c r="G23" t="n">
-        <v>95.85532118316451</v>
+        <v>95.88788930993249</v>
       </c>
       <c r="H23" t="n">
         <v>0.59</v>
       </c>
       <c r="I23" t="n">
-        <v>207.6</v>
+        <v>181.55</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78045946</v>
+        <v>78819996</v>
       </c>
       <c r="E24" t="n">
-        <v>229620854</v>
+        <v>231898203</v>
       </c>
       <c r="F24" t="n">
-        <v>534.3460486848678</v>
+        <v>516.172167821927</v>
       </c>
       <c r="G24" t="n">
-        <v>732.9397862737251</v>
+        <v>741.5295345895444</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>477819</v>
+        <v>467373</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6839316</v>
+        <v>6702042</v>
       </c>
       <c r="F25" t="n">
-        <v>4.086742761516883</v>
+        <v>3.887420749367752</v>
       </c>
       <c r="G25" t="n">
-        <v>74.65004309980071</v>
+        <v>56.8866293176342</v>
       </c>
       <c r="H25" t="n">
         <v>0.59</v>
       </c>
       <c r="I25" t="n">
-        <v>18911.89</v>
+        <v>18342.44</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2346057</v>
+        <v>2345708</v>
       </c>
       <c r="E26" t="n">
-        <v>2346057</v>
+        <v>2345708</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>10.12</v>
+        <v>10.09</v>
       </c>
       <c r="I26" t="n">
-        <v>313203</v>
+        <v>310977</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16451450</v>
+        <v>16213677</v>
       </c>
       <c r="E27" t="n">
-        <v>21174366</v>
+        <v>20868333</v>
       </c>
       <c r="F27" t="n">
-        <v>549.2047670718945</v>
+        <v>377.7950629425873</v>
       </c>
       <c r="G27" t="n">
-        <v>4175.756671675927</v>
+        <v>7269.569656550909</v>
       </c>
       <c r="H27" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I27" t="n">
-        <v>1912119</v>
+        <v>1895523</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4561850</v>
+        <v>4564565</v>
       </c>
       <c r="E28" t="n">
-        <v>4561850</v>
+        <v>4564565</v>
       </c>
       <c r="F28" t="n">
-        <v>2020.680561794056</v>
+        <v>2163.913925823821</v>
       </c>
       <c r="G28" t="n">
-        <v>2059.47554408504</v>
+        <v>1793.765544312984</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>2260712</v>
+        <v>2253955</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1960939</v>
+        <v>1969996</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>197.0834939700193</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>114.0482461369052</v>
       </c>
       <c r="H29" t="n">
-        <v>4.11</v>
+        <v>2.37</v>
       </c>
       <c r="I29" t="n">
-        <v>304066</v>
+        <v>307916</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3204902</v>
+        <v>3193705</v>
       </c>
       <c r="E30" t="n">
-        <v>3204902</v>
+        <v>3193705</v>
       </c>
       <c r="F30" t="n">
-        <v>639.526494152035</v>
+        <v>142.7361272960702</v>
       </c>
       <c r="G30" t="n">
-        <v>442.3070782638189</v>
+        <v>141.578479028812</v>
       </c>
       <c r="H30" t="n">
         <v>0.22</v>
       </c>
       <c r="I30" t="n">
-        <v>642328</v>
+        <v>653442</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>297292</v>
+        <v>296988</v>
       </c>
       <c r="E31" t="n">
-        <v>1387787</v>
+        <v>1386368</v>
       </c>
       <c r="F31" t="n">
-        <v>92.88420673668494</v>
+        <v>60.72778010218671</v>
       </c>
       <c r="G31" t="n">
-        <v>1.163597962245164</v>
+        <v>34.87135309095075</v>
       </c>
       <c r="H31" t="n">
-        <v>1.44</v>
+        <v>2.76</v>
       </c>
       <c r="I31" t="n">
-        <v>679738</v>
+        <v>683974</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>341449</v>
+        <v>384219</v>
       </c>
       <c r="E32" t="n">
-        <v>341449</v>
+        <v>384219</v>
       </c>
       <c r="F32" t="n">
-        <v>121.5296301544175</v>
+        <v>62.60354174233401</v>
       </c>
       <c r="G32" t="n">
-        <v>5.410273151126423</v>
+        <v>5.337970525650186</v>
       </c>
       <c r="H32" t="n">
         <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>51981</v>
+        <v>57909</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1816095</v>
+        <v>1818498</v>
       </c>
       <c r="F33" t="n">
-        <v>4.330220469494559</v>
+        <v>4.288176055452563</v>
       </c>
       <c r="G33" t="n">
-        <v>5.271376492791177</v>
+        <v>262.4907387452261</v>
       </c>
       <c r="H33" t="n">
         <v>0.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1381978</v>
+        <v>1374078</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1810284</v>
+        <v>1744283</v>
       </c>
       <c r="F34" t="n">
-        <v>56.82305836775974</v>
+        <v>102.7404983380697</v>
       </c>
       <c r="G34" t="n">
-        <v>538.6722457494036</v>
+        <v>695.1824959572187</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I34" t="n">
-        <v>1288509</v>
+        <v>1293172</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11807544</v>
+        <v>11832578</v>
       </c>
       <c r="E35" t="n">
-        <v>29386841</v>
+        <v>29449146</v>
       </c>
       <c r="F35" t="n">
-        <v>889.5804766675457</v>
+        <v>198.1331389147449</v>
       </c>
       <c r="G35" t="n">
-        <v>1172.483653807867</v>
+        <v>1026.9918234863</v>
       </c>
       <c r="H35" t="n">
-        <v>0.55</v>
+        <v>1.55</v>
       </c>
       <c r="I35" t="n">
-        <v>1521488</v>
+        <v>1518191</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6871224</v>
+        <v>6944318</v>
       </c>
       <c r="E36" t="n">
-        <v>9463431</v>
+        <v>9564100</v>
       </c>
       <c r="F36" t="n">
-        <v>485.6817562356313</v>
+        <v>1950.910024648014</v>
       </c>
       <c r="G36" t="n">
-        <v>726.4743046450924</v>
+        <v>596.3169879848905</v>
       </c>
       <c r="H36" t="n">
-        <v>2.34</v>
+        <v>1.14</v>
       </c>
       <c r="I36" t="n">
-        <v>413845</v>
+        <v>413212</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>877222</v>
+        <v>886816</v>
       </c>
       <c r="E37" t="n">
-        <v>6140556</v>
+        <v>6207710</v>
       </c>
       <c r="F37" t="n">
-        <v>73.42605792589526</v>
+        <v>164.9718303216834</v>
       </c>
       <c r="G37" t="n">
-        <v>1065.628956793723</v>
+        <v>673.2369741631001</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>226533</v>
+        <v>222601</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>106240753</v>
+        <v>108154422</v>
       </c>
       <c r="E38" t="n">
-        <v>412975888</v>
+        <v>420390398</v>
       </c>
       <c r="F38" t="n">
-        <v>1541.132312728716</v>
+        <v>1337.086912567285</v>
       </c>
       <c r="G38" t="n">
-        <v>2809.46052542853</v>
+        <v>4358.694043113189</v>
       </c>
       <c r="H38" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="I38" t="n">
-        <v>12296679</v>
+        <v>12570132</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5450148</v>
+        <v>5484206</v>
       </c>
       <c r="E39" t="n">
-        <v>5710884</v>
+        <v>5746570</v>
       </c>
       <c r="F39" t="n">
-        <v>203.3281111450077</v>
+        <v>1745.025413857214</v>
       </c>
       <c r="G39" t="n">
-        <v>378.2667741955386</v>
+        <v>378.2539103857438</v>
       </c>
       <c r="H39" t="n">
         <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>173934</v>
+        <v>143391</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4673921</v>
+        <v>4685077</v>
       </c>
       <c r="E40" t="n">
-        <v>6880265</v>
+        <v>6896687</v>
       </c>
       <c r="F40" t="n">
-        <v>446.6720762858956</v>
+        <v>2020.774514551904</v>
       </c>
       <c r="G40" t="n">
-        <v>1071.439407240204</v>
+        <v>2711.126429057098</v>
       </c>
       <c r="H40" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="I40" t="n">
-        <v>149894</v>
+        <v>565702</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7471563</v>
+        <v>7499498</v>
       </c>
       <c r="E41" t="n">
-        <v>7471563</v>
+        <v>7499498</v>
       </c>
       <c r="F41" t="n">
-        <v>1606.603937476517</v>
+        <v>1559.950335631574</v>
       </c>
       <c r="G41" t="n">
-        <v>2382.821610217692</v>
+        <v>2406.99351055694</v>
       </c>
       <c r="H41" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="I41" t="n">
-        <v>288683</v>
+        <v>450364</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1483067</v>
+        <v>1485135</v>
       </c>
       <c r="E42" t="n">
-        <v>1483067</v>
+        <v>1485200</v>
       </c>
       <c r="F42" t="n">
-        <v>156.3251601896551</v>
+        <v>138.3812519045958</v>
       </c>
       <c r="G42" t="n">
-        <v>242.9777190237805</v>
+        <v>11.11541955738223</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>288133</v>
+        <v>285952</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15725821</v>
+        <v>15753498</v>
       </c>
       <c r="F43" t="n">
-        <v>224.3883291412252</v>
+        <v>139.6874014984829</v>
       </c>
       <c r="G43" t="n">
-        <v>546.3496342749374</v>
+        <v>537.1801409261826</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="I43" t="n">
-        <v>14458.58</v>
+        <v>14565.83</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>135249207</v>
+        <v>137184536</v>
       </c>
       <c r="E44" t="n">
-        <v>135249207</v>
+        <v>137184536</v>
       </c>
       <c r="F44" t="n">
-        <v>324289.5942228269</v>
+        <v>236478.4222169596</v>
       </c>
       <c r="G44" t="n">
-        <v>365270.5669169011</v>
+        <v>297621.5210760188</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>90921771</v>
+        <v>95078125</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>62667939</v>
+        <v>63031667</v>
       </c>
       <c r="E45" t="n">
-        <v>321374046</v>
+        <v>323239319</v>
       </c>
       <c r="F45" t="n">
-        <v>34303.53362072815</v>
+        <v>42789.42337060282</v>
       </c>
       <c r="G45" t="n">
-        <v>72421.00239968607</v>
+        <v>57287.288222785</v>
       </c>
       <c r="H45" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>27191517</v>
+        <v>27321332</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>596499</v>
+        <v>597217</v>
       </c>
       <c r="F46" t="n">
-        <v>61.39765628337945</v>
+        <v>61.33798991401559</v>
       </c>
       <c r="G46" t="n">
-        <v>476.3908082448822</v>
+        <v>476.9090401078495</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>632.73</v>
+        <v>527.09</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2606690</v>
+        <v>2596155</v>
       </c>
       <c r="E47" t="n">
-        <v>10475694</v>
+        <v>10433354</v>
       </c>
       <c r="F47" t="n">
-        <v>172.2882485059139</v>
+        <v>473.822886349134</v>
       </c>
       <c r="G47" t="n">
-        <v>705.6781400446371</v>
+        <v>424.1431798951212</v>
       </c>
       <c r="H47" t="n">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="I47" t="n">
-        <v>50129</v>
+        <v>50797</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18017379</v>
+        <v>18143696</v>
       </c>
       <c r="E48" t="n">
-        <v>125997069</v>
+        <v>126877308</v>
       </c>
       <c r="F48" t="n">
-        <v>679.2020870720064</v>
+        <v>530.6035985480147</v>
       </c>
       <c r="G48" t="n">
-        <v>779.6555656445955</v>
+        <v>786.5390106890904</v>
       </c>
       <c r="H48" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>1089986</v>
+        <v>1063363</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1023131</v>
+        <v>1020337</v>
       </c>
       <c r="E49" t="n">
-        <v>1200911</v>
+        <v>1197632</v>
       </c>
       <c r="F49" t="n">
-        <v>1990.382487075051</v>
+        <v>2006.79431440527</v>
       </c>
       <c r="G49" t="n">
-        <v>389.5068175199183</v>
+        <v>360.6010036880639</v>
       </c>
       <c r="H49" t="n">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
       <c r="I49" t="n">
-        <v>218512</v>
+        <v>217381</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>165689</v>
+        <v>165167</v>
       </c>
       <c r="E50" t="n">
-        <v>2217011</v>
+        <v>2210023</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46832</v>
+        <v>46068</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>246330012</v>
+        <v>248750864</v>
       </c>
       <c r="E51" t="n">
-        <v>246330012</v>
+        <v>248750864</v>
       </c>
       <c r="F51" t="n">
-        <v>17010.15352911738</v>
+        <v>16571.43284579953</v>
       </c>
       <c r="G51" t="n">
-        <v>31814.77132725302</v>
+        <v>34920.45452561211</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I51" t="n">
-        <v>25875501</v>
+        <v>26107961</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1108249</v>
+        <v>1106383</v>
       </c>
       <c r="F52" t="n">
-        <v>3.914084624324843</v>
+        <v>2.830269448721541</v>
       </c>
       <c r="G52" t="n">
-        <v>4.023540980395548</v>
+        <v>4.023961698898568</v>
       </c>
       <c r="H52" t="n">
         <v>0.55</v>
       </c>
       <c r="I52" t="n">
-        <v>137039</v>
+        <v>133330</v>
       </c>
     </row>
     <row r="53">
@@ -2280,20 +2280,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2295933</v>
+        <v>2231672</v>
       </c>
       <c r="E53" t="n">
-        <v>2553231</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>2502313</v>
+      </c>
+      <c r="F53" t="n">
+        <v>17.32752003019725</v>
+      </c>
+      <c r="G53" t="n">
+        <v>16.36893545649602</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.58</v>
       </c>
       <c r="I53" t="n">
-        <v>334730</v>
+        <v>446850</v>
       </c>
     </row>
     <row r="54">
@@ -2313,10 +2315,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>110534</v>
+        <v>111040</v>
       </c>
       <c r="E54" t="n">
-        <v>110534</v>
+        <v>111040</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2330,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>294.24</v>
+        <v>294.99</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2350,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6853402</v>
+        <v>6812103</v>
       </c>
       <c r="E55" t="n">
-        <v>16646385</v>
+        <v>16546074</v>
       </c>
       <c r="F55" t="n">
-        <v>541.7039835810748</v>
+        <v>423.7051073428561</v>
       </c>
       <c r="G55" t="n">
-        <v>795.3879442241779</v>
+        <v>878.1385533348008</v>
       </c>
       <c r="H55" t="n">
-        <v>0.72</v>
+        <v>1.51</v>
       </c>
       <c r="I55" t="n">
-        <v>434415</v>
+        <v>435066</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2385,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>414553911</v>
+        <v>416039008</v>
       </c>
       <c r="E56" t="n">
-        <v>414553911</v>
+        <v>416039008</v>
       </c>
       <c r="F56" t="n">
-        <v>8686.755787443713</v>
+        <v>9620.838281013461</v>
       </c>
       <c r="G56" t="n">
-        <v>2623.155276992955</v>
+        <v>4399.543050523046</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>4176652</v>
+        <v>4107040</v>
       </c>
     </row>
     <row r="57">
@@ -2418,10 +2420,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2383223</v>
+        <v>2474432</v>
       </c>
       <c r="E57" t="n">
-        <v>2383223</v>
+        <v>2474432</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2433,7 +2435,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>154935</v>
+        <v>159521</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2455,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>169484633</v>
+        <v>169421774</v>
       </c>
       <c r="E58" t="n">
-        <v>223021955</v>
+        <v>222939240</v>
       </c>
       <c r="F58" t="n">
-        <v>2231.917531236545</v>
+        <v>383.7896494441094</v>
       </c>
       <c r="G58" t="n">
-        <v>7959.651678598839</v>
+        <v>4973.521470759189</v>
       </c>
       <c r="H58" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="I58" t="n">
-        <v>18068616</v>
+        <v>18333965</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2490,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1115315</v>
+        <v>1114108</v>
       </c>
       <c r="E59" t="n">
-        <v>12120826</v>
+        <v>12107708</v>
       </c>
       <c r="F59" t="n">
-        <v>407.9041546069457</v>
+        <v>320.0935757419715</v>
       </c>
       <c r="G59" t="n">
-        <v>4.043867787210853</v>
+        <v>5.329499830287814</v>
       </c>
       <c r="H59" t="n">
         <v>0.36</v>
       </c>
       <c r="I59" t="n">
-        <v>12908.39</v>
+        <v>12894.37</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2525,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2570219</v>
+        <v>2567149</v>
       </c>
       <c r="E60" t="n">
-        <v>6570988</v>
+        <v>6563138</v>
       </c>
       <c r="F60" t="n">
-        <v>206.1877011155227</v>
+        <v>273.1752541942569</v>
       </c>
       <c r="G60" t="n">
-        <v>874.3402280874525</v>
+        <v>344.7945169885114</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>80108</v>
+        <v>81155</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2560,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>79857234</v>
+        <v>79865778</v>
       </c>
       <c r="E61" t="n">
-        <v>223438540</v>
+        <v>223445705</v>
       </c>
       <c r="F61" t="n">
-        <v>94525.37826486707</v>
+        <v>54629.28533223077</v>
       </c>
       <c r="G61" t="n">
-        <v>77164.9398769438</v>
+        <v>67483.66478327615</v>
       </c>
       <c r="H61" t="n">
         <v>0.16</v>
       </c>
       <c r="I61" t="n">
-        <v>54437235</v>
+        <v>60259775</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2595,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>64949903</v>
+        <v>64887775</v>
       </c>
       <c r="E62" t="n">
-        <v>64949903</v>
+        <v>64887775</v>
       </c>
       <c r="F62" t="n">
-        <v>5.351294972554027</v>
+        <v>1555.730763009163</v>
       </c>
       <c r="G62" t="n">
-        <v>1180.567208743538</v>
+        <v>2334.420390699545</v>
       </c>
       <c r="H62" t="n">
-        <v>2.15</v>
+        <v>0.92</v>
       </c>
       <c r="I62" t="n">
-        <v>6794388</v>
+        <v>7243459</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2630,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4056882</v>
+        <v>4062449</v>
       </c>
       <c r="E63" t="n">
-        <v>8000512</v>
+        <v>8011492</v>
       </c>
       <c r="F63" t="n">
-        <v>1111.011344513144</v>
+        <v>963.4922635567641</v>
       </c>
       <c r="G63" t="n">
-        <v>1181.808006801481</v>
+        <v>1413.830921491718</v>
       </c>
       <c r="H63" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="I63" t="n">
-        <v>1676747</v>
+        <v>1676864</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2665,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1598178</v>
+        <v>1597627</v>
       </c>
       <c r="E64" t="n">
-        <v>9176140</v>
+        <v>9172979</v>
       </c>
       <c r="F64" t="n">
-        <v>367.152828733414</v>
+        <v>5.455696912226008</v>
       </c>
       <c r="G64" t="n">
-        <v>4.21926684542801</v>
+        <v>678.3729496343473</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6</v>
+        <v>1.03</v>
       </c>
       <c r="I64" t="n">
-        <v>245178</v>
+        <v>247832</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>595012</v>
+        <v>567052</v>
       </c>
       <c r="F65" t="n">
-        <v>4.181054532646629</v>
+        <v>21.59360734815332</v>
       </c>
       <c r="G65" t="n">
-        <v>5.485768089815332</v>
+        <v>188.4603848542254</v>
       </c>
       <c r="H65" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="I65" t="n">
-        <v>5533.25</v>
+        <v>5359.77</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31225422</v>
+        <v>31113714</v>
       </c>
       <c r="F66" t="n">
-        <v>854.5057084337108</v>
+        <v>815.7381988748061</v>
       </c>
       <c r="G66" t="n">
-        <v>701.0672689828532</v>
+        <v>752.5255147787936</v>
       </c>
       <c r="H66" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>230318</v>
+        <v>225416</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2770,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>164850</v>
+        <v>162757</v>
       </c>
       <c r="E67" t="n">
-        <v>1113250</v>
+        <v>1099114</v>
       </c>
       <c r="F67" t="n">
-        <v>137.1043196873829</v>
+        <v>83.97793203069945</v>
       </c>
       <c r="G67" t="n">
-        <v>127.087997331148</v>
+        <v>84.69493828284973</v>
       </c>
       <c r="H67" t="n">
-        <v>1.14</v>
+        <v>0.45</v>
       </c>
       <c r="I67" t="n">
-        <v>3195715</v>
+        <v>3211380</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2805,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17400089</v>
+        <v>17191268</v>
       </c>
       <c r="E68" t="n">
-        <v>18339286</v>
+        <v>18119193</v>
       </c>
       <c r="F68" t="n">
-        <v>1175.40094900256</v>
+        <v>1149.338051219441</v>
       </c>
       <c r="G68" t="n">
-        <v>1638.212304501045</v>
+        <v>1724.959988422498</v>
       </c>
       <c r="H68" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="I68" t="n">
-        <v>47800</v>
+        <v>50781</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2840,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2889745</v>
+        <v>2986019</v>
       </c>
       <c r="E69" t="n">
-        <v>2889745</v>
+        <v>2986019</v>
       </c>
       <c r="F69" t="n">
-        <v>973.5947658276619</v>
+        <v>898.1545632371685</v>
       </c>
       <c r="G69" t="n">
-        <v>4.000219054007998</v>
+        <v>3.132975062981409</v>
       </c>
       <c r="H69" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="I69" t="n">
-        <v>14023.2</v>
+        <v>14276.23</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2875,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3336457</v>
+        <v>3316130</v>
       </c>
       <c r="E70" t="n">
-        <v>8232537</v>
+        <v>8182383</v>
       </c>
       <c r="F70" t="n">
-        <v>1143.940317157238</v>
+        <v>1147.768799964857</v>
       </c>
       <c r="G70" t="n">
-        <v>1104.021423864583</v>
+        <v>1127.545174452505</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>43343</v>
+        <v>42653</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23001069</v>
+        <v>23032678</v>
       </c>
       <c r="F71" t="n">
-        <v>4.23466875523275</v>
+        <v>5.482122812201992</v>
       </c>
       <c r="G71" t="n">
-        <v>323.1913469601952</v>
+        <v>348.7674081177759</v>
       </c>
       <c r="H71" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="I71" t="n">
-        <v>130796</v>
+        <v>128695</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>248664</v>
+        <v>248444</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2958,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3881.65</v>
+        <v>3880.45</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2978,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>81362697</v>
+        <v>85574927</v>
       </c>
       <c r="E73" t="n">
-        <v>169634688</v>
+        <v>178416849</v>
       </c>
       <c r="F73" t="n">
-        <v>14612.61330365702</v>
+        <v>15395.83825934046</v>
       </c>
       <c r="G73" t="n">
-        <v>127.2912295493186</v>
+        <v>166.9917440493373</v>
       </c>
       <c r="H73" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>70753160</v>
+        <v>72182233</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3043,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>187640361</v>
+        <v>189041260</v>
       </c>
       <c r="F75" t="n">
-        <v>6611.333031582505</v>
+        <v>17967.59448318199</v>
       </c>
       <c r="G75" t="n">
-        <v>15220.03407904651</v>
+        <v>6688.79512936343</v>
       </c>
       <c r="H75" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I75" t="n">
-        <v>3360408</v>
+        <v>3493166</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3075,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82623237</v>
+        <v>82767359</v>
       </c>
       <c r="E76" t="n">
-        <v>113454563</v>
+        <v>113652464</v>
       </c>
       <c r="F76" t="n">
-        <v>633.7554902249049</v>
+        <v>820.6317671959575</v>
       </c>
       <c r="G76" t="n">
-        <v>1842.211486964835</v>
+        <v>2616.420525304401</v>
       </c>
       <c r="H76" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="I76" t="n">
-        <v>1305436</v>
+        <v>1067356</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3110,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>187185</v>
+        <v>186729</v>
       </c>
       <c r="E77" t="n">
-        <v>195475</v>
+        <v>194998</v>
       </c>
       <c r="F77" t="n">
-        <v>5.114202972425914</v>
+        <v>5.115951919835905</v>
       </c>
       <c r="G77" t="n">
-        <v>80.8413021312943</v>
+        <v>79.9523907044796</v>
       </c>
       <c r="H77" t="n">
         <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>183.36</v>
+        <v>183.23</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3145,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7384552</v>
+        <v>7463359</v>
       </c>
       <c r="E78" t="n">
-        <v>8123501</v>
+        <v>8210193</v>
       </c>
       <c r="F78" t="n">
-        <v>536.0612267173161</v>
+        <v>247.4036981859946</v>
       </c>
       <c r="G78" t="n">
-        <v>393.0646442309995</v>
+        <v>215.8070493380649</v>
       </c>
       <c r="H78" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="I78" t="n">
-        <v>629598</v>
+        <v>629790</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3180,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27539166</v>
+        <v>27933413</v>
       </c>
       <c r="E79" t="n">
-        <v>27539166</v>
+        <v>27933413</v>
       </c>
       <c r="F79" t="n">
-        <v>3588.840555249846</v>
+        <v>8099.142527232212</v>
       </c>
       <c r="G79" t="n">
-        <v>51.71701729654378</v>
+        <v>75.86775182654512</v>
       </c>
       <c r="H79" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="I79" t="n">
-        <v>266065</v>
+        <v>281044</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3215,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>267425574</v>
+        <v>272263682</v>
       </c>
       <c r="E80" t="n">
-        <v>267425574</v>
+        <v>272263682</v>
       </c>
       <c r="F80" t="n">
-        <v>1432.943452487744</v>
+        <v>59.27088080479353</v>
       </c>
       <c r="G80" t="n">
-        <v>13192.82271977706</v>
+        <v>49.325876847207</v>
       </c>
       <c r="H80" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="I80" t="n">
-        <v>12179408</v>
+        <v>12285470</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3250,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>633855454</v>
+        <v>645177399</v>
       </c>
       <c r="E81" t="n">
-        <v>633855454</v>
+        <v>645177399</v>
       </c>
       <c r="F81" t="n">
-        <v>1211819.323804288</v>
+        <v>1350637.94269561</v>
       </c>
       <c r="G81" t="n">
-        <v>1356457.832167505</v>
+        <v>1113158.994865923</v>
       </c>
       <c r="H81" t="n">
         <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>548151266</v>
+        <v>555388451</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3285,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113138</v>
+        <v>113168</v>
       </c>
       <c r="E82" t="n">
-        <v>113138</v>
+        <v>113168</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3298,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1333.01</v>
+        <v>1335.37</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3318,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>193284071</v>
+        <v>195130910</v>
       </c>
       <c r="E83" t="n">
-        <v>671486332</v>
+        <v>677902418</v>
       </c>
       <c r="F83" t="n">
-        <v>464.4076426888096</v>
+        <v>717.6902123136969</v>
       </c>
       <c r="G83" t="n">
-        <v>1560.653081222256</v>
+        <v>2401.243036026026</v>
       </c>
       <c r="H83" t="n">
-        <v>2.24</v>
+        <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>41044504</v>
+        <v>41365261</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3367373</v>
+        <v>3296679</v>
       </c>
       <c r="E84" t="n">
-        <v>3367373</v>
+        <v>3296679</v>
       </c>
       <c r="F84" t="n">
-        <v>491.545723345394</v>
+        <v>603.6731466566855</v>
       </c>
       <c r="G84" t="n">
-        <v>1556.833233224333</v>
+        <v>1811.855132342849</v>
       </c>
       <c r="H84" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>2257295</v>
+        <v>2200148</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>107645009</v>
+        <v>108494605</v>
       </c>
       <c r="E85" t="n">
-        <v>456590572</v>
+        <v>460146313</v>
       </c>
       <c r="F85" t="n">
-        <v>224096.2244413164</v>
+        <v>240784.775429184</v>
       </c>
       <c r="G85" t="n">
-        <v>241610.2818258417</v>
+        <v>256892.7313554336</v>
       </c>
       <c r="H85" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I85" t="n">
-        <v>15068224</v>
+        <v>15005084</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>72952354</v>
+        <v>75587452</v>
       </c>
       <c r="E86" t="n">
-        <v>83703533</v>
+        <v>86726973</v>
       </c>
       <c r="F86" t="n">
-        <v>1200.956028134975</v>
+        <v>1387.189141310628</v>
       </c>
       <c r="G86" t="n">
-        <v>3374.304183160184</v>
+        <v>7962.442820277208</v>
       </c>
       <c r="H86" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
       <c r="I86" t="n">
-        <v>1474947</v>
+        <v>1689125</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3227889</v>
+        <v>3258332</v>
       </c>
       <c r="E87" t="n">
-        <v>16185022</v>
+        <v>16337668</v>
       </c>
       <c r="F87" t="n">
-        <v>8.062250128582996</v>
+        <v>8.061975953690441</v>
       </c>
       <c r="G87" t="n">
-        <v>179.3146979857657</v>
+        <v>181.8862389355597</v>
       </c>
       <c r="H87" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>30577</v>
+        <v>31355</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>516542</v>
+        <v>514849</v>
       </c>
       <c r="E88" t="n">
-        <v>8835424</v>
+        <v>8806456</v>
       </c>
       <c r="F88" t="n">
-        <v>587.9050733371157</v>
+        <v>5.484138434613882</v>
       </c>
       <c r="G88" t="n">
-        <v>1271.183657659034</v>
+        <v>930.9907669813209</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3</v>
+        <v>1.31</v>
       </c>
       <c r="I88" t="n">
-        <v>122838</v>
+        <v>120859</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5618843</v>
+        <v>5624297</v>
       </c>
       <c r="E89" t="n">
-        <v>7625530</v>
+        <v>7632769</v>
       </c>
       <c r="F89" t="n">
-        <v>100.1255793972669</v>
+        <v>100.0957439703867</v>
       </c>
       <c r="G89" t="n">
-        <v>1019.707287909359</v>
+        <v>982.9815961118519</v>
       </c>
       <c r="H89" t="n">
         <v>0.21</v>
       </c>
       <c r="I89" t="n">
-        <v>5449925</v>
+        <v>5465617</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>38534769</v>
+        <v>38498253</v>
       </c>
       <c r="E90" t="n">
-        <v>45007695</v>
+        <v>44965045</v>
       </c>
       <c r="F90" t="n">
-        <v>1118.122372511651</v>
+        <v>1121.742331491368</v>
       </c>
       <c r="G90" t="n">
-        <v>101.6248654632361</v>
+        <v>3.79924036586334</v>
       </c>
       <c r="H90" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I90" t="n">
-        <v>940983</v>
+        <v>898918</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14099116</v>
+        <v>14090141</v>
       </c>
       <c r="F91" t="n">
-        <v>184.7081298564848</v>
+        <v>213.2936915354143</v>
       </c>
       <c r="G91" t="n">
-        <v>83.3958516633476</v>
+        <v>109.6530800507537</v>
       </c>
       <c r="H91" t="n">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
       <c r="I91" t="n">
-        <v>224355</v>
+        <v>232736</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3633,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34393361</v>
+        <v>34664387</v>
       </c>
       <c r="E92" t="n">
-        <v>34393361</v>
+        <v>34664387</v>
       </c>
       <c r="F92" t="n">
-        <v>33.25729851915963</v>
+        <v>199.7002217937927</v>
       </c>
       <c r="G92" t="n">
-        <v>751.7411279975513</v>
+        <v>41.94026853608084</v>
       </c>
       <c r="H92" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>936283</v>
+        <v>952310</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3671,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17089205</v>
+        <v>17128746</v>
       </c>
       <c r="F93" t="n">
-        <v>266.4062599633784</v>
+        <v>266.3973898969208</v>
       </c>
       <c r="G93" t="n">
-        <v>288.618409587832</v>
+        <v>309.0623631701088</v>
       </c>
       <c r="H93" t="n">
         <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>174106</v>
+        <v>163557</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3703,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>532754</v>
+        <v>544914</v>
       </c>
       <c r="E94" t="n">
-        <v>6461790</v>
+        <v>6609274</v>
       </c>
       <c r="F94" t="n">
-        <v>642.346194252135</v>
+        <v>857.3546089071709</v>
       </c>
       <c r="G94" t="n">
-        <v>637.7164139825633</v>
+        <v>304.3653823838047</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="I94" t="n">
-        <v>2877621</v>
+        <v>2908761</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3738,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24384762</v>
+        <v>24402027</v>
       </c>
       <c r="E95" t="n">
-        <v>34459600</v>
+        <v>34483999</v>
       </c>
       <c r="F95" t="n">
-        <v>5.349453248066465</v>
+        <v>5.321668948058575</v>
       </c>
       <c r="G95" t="n">
-        <v>2356.668750915166</v>
+        <v>2310.226650701669</v>
       </c>
       <c r="H95" t="n">
         <v>0.84</v>
       </c>
       <c r="I95" t="n">
-        <v>141478</v>
+        <v>157311</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3773,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1379880682</v>
+        <v>1403526327</v>
       </c>
       <c r="E96" t="n">
-        <v>6616810463</v>
+        <v>6730196174</v>
       </c>
       <c r="F96" t="n">
-        <v>263501.1420406618</v>
+        <v>225704.0933775062</v>
       </c>
       <c r="G96" t="n">
-        <v>288540.8649856703</v>
+        <v>153897.9499006574</v>
       </c>
       <c r="H96" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>487903217</v>
+        <v>501680120</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3808,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>254791288</v>
+        <v>256790031</v>
       </c>
       <c r="E97" t="n">
-        <v>1099820642</v>
+        <v>1108448327</v>
       </c>
       <c r="F97" t="n">
-        <v>233306.7502506734</v>
+        <v>259136.5718049479</v>
       </c>
       <c r="G97" t="n">
-        <v>809227.7195644457</v>
+        <v>573680.3873308372</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>141515402</v>
+        <v>142684413</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3843,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4743774</v>
+        <v>4764790</v>
       </c>
       <c r="E98" t="n">
-        <v>5257047</v>
+        <v>5280337</v>
       </c>
       <c r="F98" t="n">
-        <v>305.1916296110737</v>
+        <v>328.2649028198139</v>
       </c>
       <c r="G98" t="n">
-        <v>504.0972919453914</v>
+        <v>622.6640908221297</v>
       </c>
       <c r="H98" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="I98" t="n">
-        <v>734996</v>
+        <v>756490</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3878,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94184</v>
+        <v>93942</v>
       </c>
       <c r="E99" t="n">
-        <v>94184</v>
+        <v>93942</v>
       </c>
       <c r="F99" t="n">
-        <v>3.965150937376698</v>
+        <v>3.965016093528531</v>
       </c>
       <c r="G99" t="n">
-        <v>208.3517569870204</v>
+        <v>51.85962571162323</v>
       </c>
       <c r="H99" t="n">
         <v>0.71</v>
       </c>
       <c r="I99" t="n">
-        <v>1344.33</v>
+        <v>1341.33</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3913,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>111667282</v>
+        <v>112151048</v>
       </c>
       <c r="E100" t="n">
-        <v>111667282</v>
+        <v>112151048</v>
       </c>
       <c r="F100" t="n">
-        <v>8099.299854838595</v>
+        <v>9407.359406838304</v>
       </c>
       <c r="G100" t="n">
-        <v>11786.73242403592</v>
+        <v>27313.45815827412</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>7044587</v>
+        <v>7084030</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3837698</v>
+        <v>3964279</v>
       </c>
       <c r="F101" t="n">
-        <v>262.5328114867686</v>
+        <v>2015.084117366534</v>
       </c>
       <c r="G101" t="n">
-        <v>23.47040636603498</v>
+        <v>805.1851996636016</v>
       </c>
       <c r="H101" t="n">
-        <v>2.27</v>
+        <v>0.5</v>
       </c>
       <c r="I101" t="n">
-        <v>355437</v>
+        <v>346829</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3983,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2041184387</v>
+        <v>2037037768</v>
       </c>
       <c r="E102" t="n">
-        <v>2041184387</v>
+        <v>2037037768</v>
       </c>
       <c r="F102" t="n">
-        <v>10619049.63407348</v>
+        <v>9521435.981453598</v>
       </c>
       <c r="G102" t="n">
-        <v>3903654.174257886</v>
+        <v>5203230.941671121</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>9071774841</v>
+        <v>9158056234</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4018,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5343198</v>
+        <v>5314754</v>
       </c>
       <c r="E103" t="n">
-        <v>5349245</v>
+        <v>5320769</v>
       </c>
       <c r="F103" t="n">
-        <v>236.7073805395635</v>
+        <v>236.9167686392695</v>
       </c>
       <c r="G103" t="n">
-        <v>100.1467985660006</v>
+        <v>100.14951914803</v>
       </c>
       <c r="H103" t="n">
         <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>144953</v>
+        <v>143229</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2448846</v>
+        <v>2453894</v>
       </c>
       <c r="F104" t="n">
-        <v>3.995707742914963</v>
+        <v>3.995654734389335</v>
       </c>
       <c r="G104" t="n">
-        <v>216.8919664201873</v>
+        <v>195.9816894031213</v>
       </c>
       <c r="H104" t="n">
         <v>0.8</v>
       </c>
       <c r="I104" t="n">
-        <v>48333</v>
+        <v>48390</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4088,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4138791</v>
+        <v>4134957</v>
       </c>
       <c r="E105" t="n">
-        <v>5433692</v>
+        <v>5428659</v>
       </c>
       <c r="F105" t="n">
-        <v>330.3588465708676</v>
+        <v>527.8295961485359</v>
       </c>
       <c r="G105" t="n">
-        <v>2068.978424916216</v>
+        <v>2192.237891895471</v>
       </c>
       <c r="H105" t="n">
         <v>0.14</v>
       </c>
       <c r="I105" t="n">
-        <v>573916</v>
+        <v>569809</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4126,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19358450</v>
+        <v>19133447</v>
       </c>
       <c r="F106" t="n">
-        <v>246.2384306318487</v>
+        <v>121.4590183879153</v>
       </c>
       <c r="G106" t="n">
-        <v>123.9071396808461</v>
+        <v>1480.695134104452</v>
       </c>
       <c r="H106" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I106" t="n">
-        <v>67093</v>
+        <v>55973</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4158,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1493951</v>
+        <v>1499540</v>
       </c>
       <c r="E107" t="n">
-        <v>5569383</v>
+        <v>5590218</v>
       </c>
       <c r="F107" t="n">
-        <v>866.0170220191674</v>
+        <v>167.3012439174868</v>
       </c>
       <c r="G107" t="n">
-        <v>163.6259170175476</v>
+        <v>136.7851149163037</v>
       </c>
       <c r="H107" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I107" t="n">
-        <v>702822</v>
+        <v>725088</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4193,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4086162</v>
+        <v>4051956</v>
       </c>
       <c r="E108" t="n">
-        <v>11768644</v>
+        <v>11670127</v>
       </c>
       <c r="F108" t="n">
-        <v>871.9252180645711</v>
+        <v>1006.001733959371</v>
       </c>
       <c r="G108" t="n">
-        <v>480.267584600905</v>
+        <v>6951.656153508106</v>
       </c>
       <c r="H108" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I108" t="n">
-        <v>489230</v>
+        <v>460784</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4228,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>77672088</v>
+        <v>78438737</v>
       </c>
       <c r="E109" t="n">
-        <v>98843769</v>
+        <v>99819389</v>
       </c>
       <c r="F109" t="n">
-        <v>4100.219699994143</v>
+        <v>4605.446467662794</v>
       </c>
       <c r="G109" t="n">
-        <v>738.0909167992521</v>
+        <v>832.2589060156994</v>
       </c>
       <c r="H109" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="I109" t="n">
-        <v>6481555</v>
+        <v>6513997</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4263,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21818054</v>
+        <v>21765611</v>
       </c>
       <c r="E110" t="n">
-        <v>28303007</v>
+        <v>28234976</v>
       </c>
       <c r="F110" t="n">
-        <v>18607.52150147327</v>
+        <v>18480.45322481701</v>
       </c>
       <c r="G110" t="n">
-        <v>15650.19967947015</v>
+        <v>15110.54108954115</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I110" t="n">
-        <v>220570</v>
+        <v>224805</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4298,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>599478</v>
+        <v>602181</v>
       </c>
       <c r="E111" t="n">
-        <v>599478</v>
+        <v>602181</v>
       </c>
       <c r="F111" t="n">
-        <v>5.62599942475036</v>
+        <v>4.203814007760311</v>
       </c>
       <c r="G111" t="n">
-        <v>567.7896256397478</v>
+        <v>56.125213289629</v>
       </c>
       <c r="H111" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>65081</v>
+        <v>63813</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4333,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13540823</v>
+        <v>13685836</v>
       </c>
       <c r="E112" t="n">
-        <v>13540823</v>
+        <v>13685836</v>
       </c>
       <c r="F112" t="n">
-        <v>2165.140390395462</v>
+        <v>2789.653677542486</v>
       </c>
       <c r="G112" t="n">
-        <v>3337.547599435984</v>
+        <v>2640.917225514146</v>
       </c>
       <c r="H112" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I112" t="n">
-        <v>5458091</v>
+        <v>5560715</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4368,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>97869060</v>
+        <v>98285674</v>
       </c>
       <c r="E113" t="n">
-        <v>121060525</v>
+        <v>121575861</v>
       </c>
       <c r="F113" t="n">
-        <v>200.4848905140682</v>
+        <v>1461.501749057536</v>
       </c>
       <c r="G113" t="n">
-        <v>220.6060559771838</v>
+        <v>131.6914831044554</v>
       </c>
       <c r="H113" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="I113" t="n">
-        <v>1100350</v>
+        <v>1075303</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4406,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>856351</v>
+        <v>839820</v>
       </c>
       <c r="F114" t="n">
-        <v>166.8238629704708</v>
+        <v>181.4653352151147</v>
       </c>
       <c r="G114" t="n">
-        <v>128.1873513756938</v>
+        <v>196.2289446618477</v>
       </c>
       <c r="H114" t="n">
-        <v>1.47</v>
+        <v>0.85</v>
       </c>
       <c r="I114" t="n">
-        <v>42622</v>
+        <v>42359</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4441,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2619927</v>
+        <v>2612761</v>
       </c>
       <c r="F115" t="n">
-        <v>308.7825817824418</v>
+        <v>626.005442263083</v>
       </c>
       <c r="G115" t="n">
-        <v>289.5713780671019</v>
+        <v>123.9965101145116</v>
       </c>
       <c r="H115" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="I115" t="n">
-        <v>70742</v>
+        <v>71226</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4473,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10853576</v>
+        <v>10901476</v>
       </c>
       <c r="E116" t="n">
-        <v>15961139</v>
+        <v>16031582</v>
       </c>
       <c r="F116" t="n">
-        <v>3699.84570112997</v>
+        <v>2309.423315258582</v>
       </c>
       <c r="G116" t="n">
-        <v>1706.641257705232</v>
+        <v>3163.304943016255</v>
       </c>
       <c r="H116" t="n">
-        <v>0.68</v>
+        <v>0.01</v>
       </c>
       <c r="I116" t="n">
-        <v>480694</v>
+        <v>472927</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3166070</v>
+        <v>3169041</v>
       </c>
       <c r="F117" t="n">
-        <v>3.90957953803195</v>
+        <v>48.93588416299183</v>
       </c>
       <c r="G117" t="n">
-        <v>163.9266660714852</v>
+        <v>152.2480191363097</v>
       </c>
       <c r="H117" t="n">
-        <v>0.79</v>
+        <v>0.13</v>
       </c>
       <c r="I117" t="n">
-        <v>35022</v>
+        <v>37221</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4546,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1127335</v>
+        <v>1125662</v>
       </c>
       <c r="F118" t="n">
-        <v>3.898955623931735</v>
+        <v>4.004814499820157</v>
       </c>
       <c r="G118" t="n">
-        <v>47.37919718028628</v>
+        <v>47.30419460432389</v>
       </c>
       <c r="H118" t="n">
         <v>0.53</v>
       </c>
       <c r="I118" t="n">
-        <v>3640.52</v>
+        <v>3601.61</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4578,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4970738</v>
+        <v>4999310</v>
       </c>
       <c r="E119" t="n">
-        <v>6954783</v>
+        <v>6994759</v>
       </c>
       <c r="F119" t="n">
-        <v>1373.293801648812</v>
+        <v>1355.062825970699</v>
       </c>
       <c r="G119" t="n">
-        <v>1608.386996278139</v>
+        <v>1603.599443918902</v>
       </c>
       <c r="H119" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="I119" t="n">
-        <v>68321</v>
+        <v>69846</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4613,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9711447</v>
+        <v>9804806</v>
       </c>
       <c r="E120" t="n">
-        <v>26749766</v>
+        <v>27006920</v>
       </c>
       <c r="F120" t="n">
-        <v>30.23051399175987</v>
+        <v>40.78908706861836</v>
       </c>
       <c r="G120" t="n">
-        <v>359.7293649944369</v>
+        <v>42.24003533206785</v>
       </c>
       <c r="H120" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="I120" t="n">
-        <v>330375</v>
+        <v>329773</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4648,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>48713174</v>
+        <v>49673960</v>
       </c>
       <c r="E121" t="n">
-        <v>124099597</v>
+        <v>126547253</v>
       </c>
       <c r="F121" t="n">
-        <v>1116.228434733278</v>
+        <v>1811.572498910209</v>
       </c>
       <c r="G121" t="n">
-        <v>11970.57834306333</v>
+        <v>11716.62637683944</v>
       </c>
       <c r="H121" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I121" t="n">
-        <v>2195446</v>
+        <v>2254267</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4683,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13716642</v>
+        <v>13974841</v>
       </c>
       <c r="E122" t="n">
-        <v>66431889</v>
+        <v>67682386</v>
       </c>
       <c r="F122" t="n">
-        <v>796.4692139700385</v>
+        <v>2178.548680589516</v>
       </c>
       <c r="G122" t="n">
-        <v>1684.470066726829</v>
+        <v>1432.362952650756</v>
       </c>
       <c r="H122" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I122" t="n">
-        <v>5578431</v>
+        <v>5644356</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4721,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>625806</v>
+        <v>626915</v>
       </c>
       <c r="F123" t="n">
-        <v>4.275072300027166</v>
+        <v>4.276105999709165</v>
       </c>
       <c r="G123" t="n">
-        <v>377.170916473672</v>
+        <v>377.2621152719742</v>
       </c>
       <c r="H123" t="n">
         <v>0.16</v>
       </c>
       <c r="I123" t="n">
-        <v>11934.72</v>
+        <v>11977.97</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4753,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4510837</v>
+        <v>4419180</v>
       </c>
       <c r="E124" t="n">
-        <v>10282254</v>
+        <v>10073326</v>
       </c>
       <c r="F124" t="n">
-        <v>258.8472422938269</v>
+        <v>2516.055012372639</v>
       </c>
       <c r="G124" t="n">
-        <v>3337.888756326929</v>
+        <v>1195.814560588072</v>
       </c>
       <c r="H124" t="n">
-        <v>0.79</v>
+        <v>1.96</v>
       </c>
       <c r="I124" t="n">
-        <v>12337.94</v>
+        <v>67175</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4791,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1836615341</v>
+        <v>1838765723</v>
       </c>
       <c r="F125" t="n">
-        <v>74045.81513413775</v>
+        <v>73418.07423829338</v>
       </c>
       <c r="G125" t="n">
-        <v>79982.10107628643</v>
+        <v>75843.96384140174</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I125" t="n">
-        <v>30784455</v>
+        <v>30849611</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4823,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9223563</v>
+        <v>9032321</v>
       </c>
       <c r="E126" t="n">
-        <v>33558159</v>
+        <v>32862292</v>
       </c>
       <c r="F126" t="n">
-        <v>2042.770974587237</v>
+        <v>81.05123231593019</v>
       </c>
       <c r="G126" t="n">
-        <v>5.499010843620783</v>
+        <v>4.034979526602647</v>
       </c>
       <c r="H126" t="n">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="I126" t="n">
-        <v>147805</v>
+        <v>150960</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4861,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>637759</v>
+        <v>631308</v>
       </c>
       <c r="F127" t="n">
-        <v>27.10478666995767</v>
+        <v>18.38558801509563</v>
       </c>
       <c r="G127" t="n">
-        <v>3.992720703937132</v>
+        <v>10.97381652742665</v>
       </c>
       <c r="H127" t="n">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="I127" t="n">
-        <v>674.65</v>
+        <v>683.54</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4893,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11642079</v>
+        <v>11691528</v>
       </c>
       <c r="E128" t="n">
-        <v>16879335</v>
+        <v>16951028</v>
       </c>
       <c r="F128" t="n">
-        <v>535.7644959865155</v>
+        <v>723.8536487369155</v>
       </c>
       <c r="G128" t="n">
-        <v>530.9728000840485</v>
+        <v>1338.19678574634</v>
       </c>
       <c r="H128" t="n">
-        <v>0.87</v>
+        <v>2.62</v>
       </c>
       <c r="I128" t="n">
-        <v>2025602</v>
+        <v>2030236</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4928,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>29645714</v>
+        <v>29896493</v>
       </c>
       <c r="E129" t="n">
-        <v>92307243</v>
+        <v>93088087</v>
       </c>
       <c r="F129" t="n">
-        <v>8725.033099240558</v>
+        <v>7975.704627882589</v>
       </c>
       <c r="G129" t="n">
-        <v>5494.98102326035</v>
+        <v>7494.900780596854</v>
       </c>
       <c r="H129" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I129" t="n">
-        <v>10561079</v>
+        <v>10596228</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4963,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1777070</v>
+        <v>1821188</v>
       </c>
       <c r="E130" t="n">
-        <v>12743195</v>
+        <v>13059555</v>
       </c>
       <c r="F130" t="n">
-        <v>3.844293077853295</v>
+        <v>3.913379500587539</v>
       </c>
       <c r="G130" t="n">
-        <v>5.140309509114775</v>
+        <v>47.30301381429896</v>
       </c>
       <c r="H130" t="n">
         <v>0.46</v>
       </c>
       <c r="I130" t="n">
-        <v>2089377</v>
+        <v>2065101</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +5001,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>8416993</v>
+        <v>8248061</v>
       </c>
       <c r="F131" t="n">
-        <v>130.0983498734078</v>
+        <v>113.7630388956175</v>
       </c>
       <c r="G131" t="n">
-        <v>727.7722816521015</v>
+        <v>65.42495682291006</v>
       </c>
       <c r="H131" t="n">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="I131" t="n">
-        <v>541188</v>
+        <v>535983</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5033,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>190655842</v>
+        <v>192233554</v>
       </c>
       <c r="E132" t="n">
-        <v>1079610525</v>
+        <v>1088544501</v>
       </c>
       <c r="F132" t="n">
-        <v>348448.8423753674</v>
+        <v>356826.3508286346</v>
       </c>
       <c r="G132" t="n">
-        <v>535752.5306915975</v>
+        <v>539578.9968068684</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>86035261</v>
+        <v>86478460</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5068,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1007946</v>
+        <v>1003992</v>
       </c>
       <c r="E133" t="n">
-        <v>1007946</v>
+        <v>1003992</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5081,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5501.58</v>
+        <v>5401.61</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5101,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>491745</v>
+        <v>492239</v>
       </c>
       <c r="E134" t="n">
-        <v>1655145</v>
+        <v>1656808</v>
       </c>
       <c r="F134" t="n">
-        <v>270.9638065233835</v>
+        <v>270.8816497079851</v>
       </c>
       <c r="G134" t="n">
-        <v>111.9835232716004</v>
+        <v>137.1390019626785</v>
       </c>
       <c r="H134" t="n">
         <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>229519</v>
+        <v>640414</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>15367754</v>
+        <v>14687483</v>
       </c>
       <c r="F135" t="n">
-        <v>5.514642153008914</v>
+        <v>5.422413081456311</v>
       </c>
       <c r="G135" t="n">
-        <v>5.308440677059655</v>
+        <v>4.007060273151875</v>
       </c>
       <c r="H135" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="I135" t="n">
-        <v>199.29</v>
+        <v>201.55</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5171,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>123808156</v>
+        <v>123119701</v>
       </c>
       <c r="E136" t="n">
-        <v>917097449</v>
+        <v>911997783</v>
       </c>
       <c r="F136" t="n">
-        <v>572.6419193717312</v>
+        <v>28.58274338351079</v>
       </c>
       <c r="G136" t="n">
-        <v>961.2103273941271</v>
+        <v>14155.30649579203</v>
       </c>
       <c r="H136" t="n">
-        <v>0.74</v>
+        <v>1.5</v>
       </c>
       <c r="I136" t="n">
-        <v>27646168</v>
+        <v>35731322</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5206,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>29400475</v>
+        <v>29743951</v>
       </c>
       <c r="E137" t="n">
-        <v>139466128</v>
+        <v>141095462</v>
       </c>
       <c r="F137" t="n">
-        <v>928.5228636528924</v>
+        <v>991.6393432099827</v>
       </c>
       <c r="G137" t="n">
-        <v>933.3324646246914</v>
+        <v>919.6990157956798</v>
       </c>
       <c r="H137" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I137" t="n">
-        <v>789709</v>
+        <v>793867</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5241,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8529328</v>
+        <v>8609326</v>
       </c>
       <c r="E138" t="n">
-        <v>11426456</v>
+        <v>11533627</v>
       </c>
       <c r="F138" t="n">
-        <v>653.2735700329326</v>
+        <v>842.2905995529168</v>
       </c>
       <c r="G138" t="n">
-        <v>48.87986707061464</v>
+        <v>486.6445826088194</v>
       </c>
       <c r="H138" t="n">
-        <v>0.99</v>
+        <v>1.5</v>
       </c>
       <c r="I138" t="n">
-        <v>42782</v>
+        <v>82339</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1165277</v>
+        <v>1171099</v>
       </c>
       <c r="F139" t="n">
-        <v>4.109110676953612</v>
+        <v>4.037026664663961</v>
       </c>
       <c r="G139" t="n">
-        <v>25.07697014132937</v>
+        <v>23.75578079459538</v>
       </c>
       <c r="H139" t="n">
         <v>0.6</v>
       </c>
       <c r="I139" t="n">
-        <v>5990.93</v>
+        <v>6034.98</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5311,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2461962</v>
+        <v>2465632</v>
       </c>
       <c r="E140" t="n">
-        <v>2461962</v>
+        <v>2465632</v>
       </c>
       <c r="F140" t="n">
-        <v>1294.98236946651</v>
+        <v>1272.162514515847</v>
       </c>
       <c r="G140" t="n">
-        <v>146.2253109638662</v>
+        <v>265.9287591067646</v>
       </c>
       <c r="H140" t="n">
-        <v>0.66</v>
+        <v>1.3</v>
       </c>
       <c r="I140" t="n">
-        <v>319000</v>
+        <v>326040</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5346,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>34987097</v>
+        <v>35080898</v>
       </c>
       <c r="E141" t="n">
-        <v>34987097</v>
+        <v>35080898</v>
       </c>
       <c r="F141" t="n">
-        <v>866.3209216703567</v>
+        <v>896.190852442616</v>
       </c>
       <c r="G141" t="n">
-        <v>285.4098023959651</v>
+        <v>561.4854445853891</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9</v>
+        <v>1.18</v>
       </c>
       <c r="I141" t="n">
-        <v>977611</v>
+        <v>982574</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5381,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6274215</v>
+        <v>6207422</v>
       </c>
       <c r="E142" t="n">
-        <v>6626273</v>
+        <v>6555733</v>
       </c>
       <c r="F142" t="n">
-        <v>481.3469088008077</v>
+        <v>445.2338142412891</v>
       </c>
       <c r="G142" t="n">
-        <v>293.0687357838018</v>
+        <v>227.3877725323736</v>
       </c>
       <c r="H142" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="I142" t="n">
-        <v>27495</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5416,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3258639</v>
+        <v>3285927</v>
       </c>
       <c r="E143" t="n">
-        <v>7609465</v>
+        <v>7673188</v>
       </c>
       <c r="F143" t="n">
-        <v>1379.360961885411</v>
+        <v>1367.234088190624</v>
       </c>
       <c r="G143" t="n">
-        <v>669.6722543071415</v>
+        <v>791.0896515842055</v>
       </c>
       <c r="H143" t="n">
-        <v>1.22</v>
+        <v>0.7</v>
       </c>
       <c r="I143" t="n">
-        <v>612108</v>
+        <v>610325</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5451,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1520042</v>
+        <v>1528846</v>
       </c>
       <c r="E144" t="n">
-        <v>11804823</v>
+        <v>11873194</v>
       </c>
       <c r="F144" t="n">
-        <v>200.4005837558137</v>
+        <v>200.3665281870094</v>
       </c>
       <c r="G144" t="n">
-        <v>929.6179695281645</v>
+        <v>2699.905934584033</v>
       </c>
       <c r="H144" t="n">
-        <v>1.74</v>
+        <v>2.45</v>
       </c>
       <c r="I144" t="n">
-        <v>515177</v>
+        <v>506971</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5486,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>318743891</v>
+        <v>319306726</v>
       </c>
       <c r="E145" t="n">
-        <v>2867617693</v>
+        <v>2872681299</v>
       </c>
       <c r="F145" t="n">
-        <v>568960.6699872415</v>
+        <v>611420.8012125535</v>
       </c>
       <c r="G145" t="n">
-        <v>688797.9642997807</v>
+        <v>758119.7718655702</v>
       </c>
       <c r="H145" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>68687610</v>
+        <v>69332305</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5521,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>246886</v>
+        <v>250983</v>
       </c>
       <c r="E146" t="n">
-        <v>2178956</v>
+        <v>2215114</v>
       </c>
       <c r="F146" t="n">
-        <v>4.075094729069111</v>
+        <v>2.749611429102316</v>
       </c>
       <c r="G146" t="n">
-        <v>39.56078872799816</v>
+        <v>19.15558767070443</v>
       </c>
       <c r="H146" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="I146" t="n">
-        <v>72126</v>
+        <v>75577</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5559,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>622417</v>
+        <v>625306</v>
       </c>
       <c r="F147" t="n">
-        <v>551.9223929876446</v>
+        <v>542.0503795076148</v>
       </c>
       <c r="G147" t="n">
-        <v>439.9056347706384</v>
+        <v>435.0584045477379</v>
       </c>
       <c r="H147" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>16107.07</v>
+        <v>16193.24</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5591,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4700683</v>
+        <v>4715601</v>
       </c>
       <c r="E148" t="n">
-        <v>16607499</v>
+        <v>16660205</v>
       </c>
       <c r="F148" t="n">
-        <v>1610.506982184742</v>
+        <v>1378.272874342635</v>
       </c>
       <c r="G148" t="n">
-        <v>1826.280778486021</v>
+        <v>1614.54757602059</v>
       </c>
       <c r="H148" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>152483</v>
+        <v>155269</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5626,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9371935</v>
+        <v>9389854</v>
       </c>
       <c r="E149" t="n">
-        <v>43439456</v>
+        <v>43522511</v>
       </c>
       <c r="F149" t="n">
-        <v>2163.404270833499</v>
+        <v>2342.077997206105</v>
       </c>
       <c r="G149" t="n">
-        <v>1469.837168150008</v>
+        <v>441.9634807740998</v>
       </c>
       <c r="H149" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="I149" t="n">
-        <v>117591</v>
+        <v>109967</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5661,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46493314</v>
+        <v>46809264</v>
       </c>
       <c r="E150" t="n">
-        <v>269177079</v>
+        <v>271006296</v>
       </c>
       <c r="F150" t="n">
-        <v>53530.01366262873</v>
+        <v>19681.31629144548</v>
       </c>
       <c r="G150" t="n">
-        <v>43372.67122792729</v>
+        <v>49956.72745380229</v>
       </c>
       <c r="H150" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I150" t="n">
-        <v>51479434</v>
+        <v>50177108</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5696,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>79249</v>
+        <v>78594</v>
       </c>
       <c r="E151" t="n">
-        <v>79249</v>
+        <v>78594</v>
       </c>
       <c r="F151" t="n">
-        <v>9.869515740357592</v>
+        <v>9.84016767276524</v>
       </c>
       <c r="G151" t="n">
-        <v>10.59039538628908</v>
+        <v>19.77980440903731</v>
       </c>
       <c r="H151" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="I151" t="n">
-        <v>19916.82</v>
+        <v>19422.6</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5734,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4150475</v>
+        <v>4110624</v>
       </c>
       <c r="F152" t="n">
-        <v>535.3147824839712</v>
+        <v>529.7764411084535</v>
       </c>
       <c r="G152" t="n">
-        <v>245.4276808946839</v>
+        <v>396.5352308434706</v>
       </c>
       <c r="H152" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I152" t="n">
-        <v>269262</v>
+        <v>258791</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5766,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>38746166</v>
+        <v>38641139</v>
       </c>
       <c r="E153" t="n">
-        <v>53513972</v>
+        <v>53368915</v>
       </c>
       <c r="F153" t="n">
-        <v>565.1897997995562</v>
+        <v>4708.476332311622</v>
       </c>
       <c r="G153" t="n">
-        <v>2375.494781080405</v>
+        <v>7093.011339893978</v>
       </c>
       <c r="H153" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="I153" t="n">
-        <v>313740</v>
+        <v>303462</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5801,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2155592</v>
+        <v>2089848</v>
       </c>
       <c r="E154" t="n">
-        <v>8802878</v>
+        <v>8534400</v>
       </c>
       <c r="F154" t="n">
-        <v>1314.498401217046</v>
+        <v>1479.734837177837</v>
       </c>
       <c r="G154" t="n">
-        <v>270.0899243453518</v>
+        <v>320.6809333128896</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
       </c>
       <c r="I154" t="n">
-        <v>421209</v>
+        <v>403919</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5836,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7248262</v>
+        <v>7296187</v>
       </c>
       <c r="E155" t="n">
-        <v>7302141</v>
+        <v>7350421</v>
       </c>
       <c r="F155" t="n">
-        <v>1261.048128116362</v>
+        <v>1098.509155433959</v>
       </c>
       <c r="G155" t="n">
-        <v>1883.93488134471</v>
+        <v>14566.20855538753</v>
       </c>
       <c r="H155" t="n">
-        <v>0.23</v>
+        <v>0.85</v>
       </c>
       <c r="I155" t="n">
-        <v>5903578</v>
+        <v>6009916</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5871,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>521327</v>
+        <v>545050</v>
       </c>
       <c r="E156" t="n">
-        <v>521327</v>
+        <v>545050</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5886,7 @@
         <v>21.36</v>
       </c>
       <c r="I156" t="n">
-        <v>9140.34</v>
+        <v>7152.87</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5906,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13243661</v>
+        <v>13346642</v>
       </c>
       <c r="E157" t="n">
-        <v>13288730</v>
+        <v>13392062</v>
       </c>
       <c r="F157" t="n">
-        <v>2768.09229710508</v>
+        <v>2583.585593727755</v>
       </c>
       <c r="G157" t="n">
-        <v>1769.369992605229</v>
+        <v>4168.506527908037</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I157" t="n">
-        <v>6887288</v>
+        <v>6968893</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5941,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42130738</v>
+        <v>42152184</v>
       </c>
       <c r="E158" t="n">
-        <v>71528192</v>
+        <v>71564602</v>
       </c>
       <c r="F158" t="n">
-        <v>378.9963143206069</v>
+        <v>392.0563524059779</v>
       </c>
       <c r="G158" t="n">
-        <v>406.867576779479</v>
+        <v>394.7113662911784</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I158" t="n">
-        <v>1132012</v>
+        <v>1157706</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5976,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19335063</v>
+        <v>19500312</v>
       </c>
       <c r="E159" t="n">
-        <v>57969545</v>
+        <v>58464988</v>
       </c>
       <c r="F159" t="n">
-        <v>1942.804044331805</v>
+        <v>1202.258125820214</v>
       </c>
       <c r="G159" t="n">
-        <v>2061.484110550669</v>
+        <v>1845.040748967274</v>
       </c>
       <c r="H159" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I159" t="n">
-        <v>3637197</v>
+        <v>4423685</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6011,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100132452</v>
+        <v>97502735</v>
       </c>
       <c r="E160" t="n">
-        <v>106449846</v>
+        <v>103654219</v>
       </c>
       <c r="F160" t="n">
-        <v>264.2544274474826</v>
+        <v>84.35820937350003</v>
       </c>
       <c r="G160" t="n">
-        <v>934.5438734940959</v>
+        <v>2024.612719058172</v>
       </c>
       <c r="H160" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="I160" t="n">
-        <v>1819326</v>
+        <v>535919</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6046,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10394451</v>
+        <v>10365525</v>
       </c>
       <c r="E161" t="n">
-        <v>45138211</v>
+        <v>45017949</v>
       </c>
       <c r="F161" t="n">
-        <v>3595.556299850186</v>
+        <v>5087.350273341754</v>
       </c>
       <c r="G161" t="n">
-        <v>4035.79573878073</v>
+        <v>3101.729547719444</v>
       </c>
       <c r="H161" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I161" t="n">
-        <v>118861</v>
+        <v>115955</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6081,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>14993968</v>
+        <v>15233374</v>
       </c>
       <c r="E162" t="n">
-        <v>91902961</v>
+        <v>93370356</v>
       </c>
       <c r="F162" t="n">
-        <v>971.7408245005031</v>
+        <v>1705.533646484454</v>
       </c>
       <c r="G162" t="n">
-        <v>2099.858064513233</v>
+        <v>2213.30058956704</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I162" t="n">
-        <v>12187958</v>
+        <v>12246155</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6116,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1425539</v>
+        <v>1415794</v>
       </c>
       <c r="E163" t="n">
-        <v>1465638</v>
+        <v>1455619</v>
       </c>
       <c r="F163" t="n">
-        <v>59.57892368801976</v>
+        <v>61.18410908793044</v>
       </c>
       <c r="G163" t="n">
-        <v>526.1694992789944</v>
+        <v>475.7694015099689</v>
       </c>
       <c r="H163" t="n">
-        <v>1.54</v>
+        <v>0.89</v>
       </c>
       <c r="I163" t="n">
-        <v>85764</v>
+        <v>139399</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6147,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>70911</v>
+        <v>76195</v>
       </c>
       <c r="E164" t="n">
-        <v>201157</v>
+        <v>216148</v>
       </c>
       <c r="F164" t="n">
-        <v>5.423212950175646</v>
+        <v>3.997077049657363</v>
       </c>
       <c r="G164" t="n">
-        <v>4.161306636269297</v>
+        <v>142.5591292730894</v>
       </c>
       <c r="H164" t="n">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="I164" t="n">
-        <v>424.48</v>
+        <v>588.39</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6182,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>49535098</v>
+        <v>49457407</v>
       </c>
       <c r="E165" t="n">
-        <v>213391784</v>
+        <v>213057102</v>
       </c>
       <c r="F165" t="n">
-        <v>8005.376723834501</v>
+        <v>4675.500070549185</v>
       </c>
       <c r="G165" t="n">
-        <v>5903.885069494771</v>
+        <v>10634.69425594203</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I165" t="n">
-        <v>13109273</v>
+        <v>13228229</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6220,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7593946</v>
+        <v>7395396</v>
       </c>
       <c r="F166" t="n">
-        <v>236.1511797819429</v>
+        <v>210.2540240614337</v>
       </c>
       <c r="G166" t="n">
-        <v>336.7932115247551</v>
+        <v>337.3149796132739</v>
       </c>
       <c r="H166" t="n">
         <v>0.48</v>
       </c>
       <c r="I166" t="n">
-        <v>574571</v>
+        <v>577051</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6252,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>658125</v>
+        <v>656921</v>
       </c>
       <c r="E167" t="n">
-        <v>2375475</v>
+        <v>2371129</v>
       </c>
       <c r="F167" t="n">
-        <v>50.52463682913649</v>
+        <v>50.04299383034125</v>
       </c>
       <c r="G167" t="n">
-        <v>10.54240782770865</v>
+        <v>10.14150571666326</v>
       </c>
       <c r="H167" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="I167" t="n">
-        <v>401688</v>
+        <v>398537</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1560160</v>
+        <v>1572971</v>
       </c>
       <c r="F168" t="n">
-        <v>241.2004332141552</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>13.96829700778967</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>3.2</v>
+        <v>4.28</v>
       </c>
       <c r="I168" t="n">
-        <v>86981</v>
+        <v>87723</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6322,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12463869</v>
+        <v>12412609</v>
       </c>
       <c r="E169" t="n">
-        <v>12463869</v>
+        <v>12412609</v>
       </c>
       <c r="F169" t="n">
-        <v>74.10682609234553</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>265.0895389964019</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>1.83</v>
+        <v>4.32</v>
       </c>
       <c r="I169" t="n">
-        <v>3139119</v>
+        <v>2953234</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6357,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2264285</v>
+        <v>2260257</v>
       </c>
       <c r="E170" t="n">
-        <v>8219012</v>
+        <v>8204282</v>
       </c>
       <c r="F170" t="n">
-        <v>129.5057609734212</v>
+        <v>1350.43290663797</v>
       </c>
       <c r="G170" t="n">
-        <v>328.5531320061719</v>
+        <v>195.7998784099753</v>
       </c>
       <c r="H170" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I170" t="n">
-        <v>222820</v>
+        <v>223985</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6392,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8739494</v>
+        <v>8791389</v>
       </c>
       <c r="E171" t="n">
-        <v>19382955</v>
+        <v>19498050</v>
       </c>
       <c r="F171" t="n">
-        <v>1655.07904822689</v>
+        <v>1726.213437101499</v>
       </c>
       <c r="G171" t="n">
-        <v>1567.404941021489</v>
+        <v>1826.34126259194</v>
       </c>
       <c r="H171" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="I171" t="n">
-        <v>326212</v>
+        <v>325513</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6427,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1014807</v>
+        <v>1014979</v>
       </c>
       <c r="E172" t="n">
-        <v>2966105</v>
+        <v>2966606</v>
       </c>
       <c r="F172" t="n">
-        <v>105.14050709566</v>
+        <v>99.12676359225499</v>
       </c>
       <c r="G172" t="n">
-        <v>107.0369534507263</v>
+        <v>627.1445691002995</v>
       </c>
       <c r="H172" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I172" t="n">
-        <v>13337.11</v>
+        <v>11597.32</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6462,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>19566697</v>
+        <v>19322104</v>
       </c>
       <c r="E173" t="n">
-        <v>78266788</v>
+        <v>77288417</v>
       </c>
       <c r="F173" t="n">
-        <v>1197.650436478023</v>
+        <v>19015.4223730955</v>
       </c>
       <c r="G173" t="n">
-        <v>39548.37734193356</v>
+        <v>27351.57678261394</v>
       </c>
       <c r="H173" t="n">
-        <v>1.22</v>
+        <v>0.35</v>
       </c>
       <c r="I173" t="n">
-        <v>3708714</v>
+        <v>3694669</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6497,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4451840</v>
+        <v>4456391</v>
       </c>
       <c r="E174" t="n">
-        <v>4451840</v>
+        <v>4456391</v>
       </c>
       <c r="F174" t="n">
-        <v>1853.439951678079</v>
+        <v>1219.794973959362</v>
       </c>
       <c r="G174" t="n">
-        <v>513.7388316454094</v>
+        <v>772.2809963113742</v>
       </c>
       <c r="H174" t="n">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="I174" t="n">
-        <v>2866953</v>
+        <v>2859035</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6532,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>283660814</v>
+        <v>287970613</v>
       </c>
       <c r="E175" t="n">
-        <v>283660814</v>
+        <v>287970613</v>
       </c>
       <c r="F175" t="n">
-        <v>10574.68310929997</v>
+        <v>9885.64785403237</v>
       </c>
       <c r="G175" t="n">
-        <v>6857.263525512697</v>
+        <v>7775.421593629613</v>
       </c>
       <c r="H175" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I175" t="n">
-        <v>19728882</v>
+        <v>20110338</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6567,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12565431</v>
+        <v>12635702</v>
       </c>
       <c r="E176" t="n">
-        <v>39742818</v>
+        <v>39965078</v>
       </c>
       <c r="F176" t="n">
-        <v>4064.82904386171</v>
+        <v>3896.110838605385</v>
       </c>
       <c r="G176" t="n">
-        <v>2721.986686488026</v>
+        <v>4363.53163893308</v>
       </c>
       <c r="H176" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I176" t="n">
-        <v>1004767</v>
+        <v>1009376</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6602,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24727</v>
+        <v>24799</v>
       </c>
       <c r="E177" t="n">
-        <v>194474</v>
+        <v>195035</v>
       </c>
       <c r="F177" t="n">
-        <v>65.35007455695661</v>
+        <v>495.6180926786761</v>
       </c>
       <c r="G177" t="n">
-        <v>424.0832799610013</v>
+        <v>143.772006935573</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>40828</v>
+        <v>40848</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6637,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>7516386</v>
+        <v>7590903</v>
       </c>
       <c r="E178" t="n">
-        <v>7516386</v>
+        <v>7590903</v>
       </c>
       <c r="F178" t="n">
-        <v>1102.249213120443</v>
+        <v>1129.538746559849</v>
       </c>
       <c r="G178" t="n">
-        <v>3693.49789645851</v>
+        <v>3921.119820061893</v>
       </c>
       <c r="H178" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I178" t="n">
-        <v>4029894</v>
+        <v>4081391</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6672,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1092662</v>
+        <v>1094007</v>
       </c>
       <c r="E179" t="n">
-        <v>2488646</v>
+        <v>2491709</v>
       </c>
       <c r="F179" t="n">
-        <v>22.98580152408355</v>
+        <v>35.66079724266555</v>
       </c>
       <c r="G179" t="n">
-        <v>251.8730120257323</v>
+        <v>251.6700567107517</v>
       </c>
       <c r="H179" t="n">
         <v>0.15</v>
       </c>
       <c r="I179" t="n">
-        <v>452.74</v>
+        <v>453.49</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6707,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>8952918</v>
+        <v>9173988</v>
       </c>
       <c r="E180" t="n">
-        <v>8952918</v>
+        <v>9173988</v>
       </c>
       <c r="F180" t="n">
-        <v>2809.776816758955</v>
+        <v>3038.824911318998</v>
       </c>
       <c r="G180" t="n">
-        <v>4777.957375749721</v>
+        <v>2861.693320668879</v>
       </c>
       <c r="H180" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I180" t="n">
-        <v>2036486</v>
+        <v>1906311</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6742,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17288120</v>
+        <v>17357770</v>
       </c>
       <c r="E181" t="n">
-        <v>17288120</v>
+        <v>17357770</v>
       </c>
       <c r="F181" t="n">
-        <v>1551.365271732801</v>
+        <v>1478.739298373127</v>
       </c>
       <c r="G181" t="n">
-        <v>6899.245486752689</v>
+        <v>2159.338279011894</v>
       </c>
       <c r="H181" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="I181" t="n">
-        <v>7230332</v>
+        <v>7214641</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6777,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31328064</v>
+        <v>31416076</v>
       </c>
       <c r="E182" t="n">
-        <v>86775628</v>
+        <v>87019413</v>
       </c>
       <c r="F182" t="n">
-        <v>7295.735109594341</v>
+        <v>3651.069008955639</v>
       </c>
       <c r="G182" t="n">
-        <v>3088.038949031125</v>
+        <v>2767.209384923558</v>
       </c>
       <c r="H182" t="n">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="I182" t="n">
-        <v>12444605</v>
+        <v>12581468</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6812,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>30443545</v>
+        <v>30729343</v>
       </c>
       <c r="E183" t="n">
-        <v>76764005</v>
+        <v>77484652</v>
       </c>
       <c r="F183" t="n">
-        <v>1189.696781167096</v>
+        <v>603.5675987094105</v>
       </c>
       <c r="G183" t="n">
-        <v>7298.871900777862</v>
+        <v>6333.584787488403</v>
       </c>
       <c r="H183" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="I183" t="n">
-        <v>5799890</v>
+        <v>6178849</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6847,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>296229145</v>
+        <v>299054752</v>
       </c>
       <c r="E184" t="n">
-        <v>300862689</v>
+        <v>303732461</v>
       </c>
       <c r="F184" t="n">
-        <v>13913.44965390472</v>
+        <v>19847.55711515934</v>
       </c>
       <c r="G184" t="n">
-        <v>32665.82810110021</v>
+        <v>12746.75774760539</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>25046532</v>
+        <v>25239547</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6885,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>390292</v>
+        <v>394686</v>
       </c>
       <c r="F185" t="n">
-        <v>9.63065524215615</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>22.00638489596069</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.73</v>
+        <v>4.76</v>
       </c>
       <c r="I185" t="n">
-        <v>68774</v>
+        <v>69566</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6917,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>27568683</v>
+        <v>27704870</v>
       </c>
       <c r="E186" t="n">
-        <v>65398027</v>
+        <v>65721088</v>
       </c>
       <c r="F186" t="n">
-        <v>2837.492712068981</v>
+        <v>4420.491347028554</v>
       </c>
       <c r="G186" t="n">
-        <v>5826.165716166229</v>
+        <v>4407.110476258694</v>
       </c>
       <c r="H186" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I186" t="n">
-        <v>672200</v>
+        <v>628682</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6955,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>28827627</v>
+        <v>19334414</v>
       </c>
       <c r="F187" t="n">
-        <v>5.32198372011752</v>
+        <v>4.104895718572941</v>
       </c>
       <c r="G187" t="n">
-        <v>4.074864738104305</v>
+        <v>86.04908519258387</v>
       </c>
       <c r="H187" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="I187" t="n">
-        <v>2390.16</v>
+        <v>3538.52</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6987,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12234777</v>
+        <v>12172094</v>
       </c>
       <c r="E188" t="n">
-        <v>18624090</v>
+        <v>18528671</v>
       </c>
       <c r="F188" t="n">
-        <v>1392.989977947652</v>
+        <v>1389.851878914644</v>
       </c>
       <c r="G188" t="n">
-        <v>1496.603887737745</v>
+        <v>1059.489330032524</v>
       </c>
       <c r="H188" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="I188" t="n">
-        <v>649112</v>
+        <v>669954</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7022,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>75123900</v>
+        <v>76141429</v>
       </c>
       <c r="E189" t="n">
-        <v>75123900</v>
+        <v>76141429</v>
       </c>
       <c r="F189" t="n">
-        <v>4797.409402608684</v>
+        <v>6950.214424473987</v>
       </c>
       <c r="G189" t="n">
-        <v>11020.07917825236</v>
+        <v>6633.875218177506</v>
       </c>
       <c r="H189" t="n">
         <v>0.19</v>
       </c>
       <c r="I189" t="n">
-        <v>4815644</v>
+        <v>4439759</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7057,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>286230369</v>
+        <v>288745612</v>
       </c>
       <c r="E190" t="n">
-        <v>286230369</v>
+        <v>288745612</v>
       </c>
       <c r="F190" t="n">
-        <v>199017.6156625295</v>
+        <v>196743.9739570078</v>
       </c>
       <c r="G190" t="n">
-        <v>302355.8908049377</v>
+        <v>261236.8407563234</v>
       </c>
       <c r="H190" t="n">
         <v>0.04</v>
       </c>
       <c r="I190" t="n">
-        <v>89746909</v>
+        <v>93647613</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7092,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9747196</v>
+        <v>9834073</v>
       </c>
       <c r="E191" t="n">
-        <v>27673914</v>
+        <v>27920573</v>
       </c>
       <c r="F191" t="n">
-        <v>830.5868442200216</v>
+        <v>737.5353154569405</v>
       </c>
       <c r="G191" t="n">
-        <v>10137.18581019609</v>
+        <v>5952.620859973797</v>
       </c>
       <c r="H191" t="n">
         <v>0.72</v>
       </c>
       <c r="I191" t="n">
-        <v>89745</v>
+        <v>91972</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7127,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4570497</v>
+        <v>4582109</v>
       </c>
       <c r="E192" t="n">
-        <v>31229886</v>
+        <v>31309228</v>
       </c>
       <c r="F192" t="n">
-        <v>1.352707603515098</v>
+        <v>2573.071656279645</v>
       </c>
       <c r="G192" t="n">
-        <v>598.8702002511152</v>
+        <v>1272.789534835311</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="I192" t="n">
-        <v>2985082</v>
+        <v>3009629</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7162,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2636842</v>
+        <v>2631635</v>
       </c>
       <c r="E193" t="n">
-        <v>3903170</v>
+        <v>3895160</v>
       </c>
       <c r="F193" t="n">
-        <v>256.8182816892673</v>
+        <v>445.9951182057914</v>
       </c>
       <c r="G193" t="n">
-        <v>469.7710924198505</v>
+        <v>491.9707624168411</v>
       </c>
       <c r="H193" t="n">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="I193" t="n">
-        <v>86798</v>
+        <v>86653</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7197,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>83246170</v>
+        <v>84024420</v>
       </c>
       <c r="E194" t="n">
-        <v>479700336</v>
+        <v>484184951</v>
       </c>
       <c r="F194" t="n">
-        <v>494220.9688429646</v>
+        <v>610081.5462832015</v>
       </c>
       <c r="G194" t="n">
-        <v>494031.648262969</v>
+        <v>604886.1944264713</v>
       </c>
       <c r="H194" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>21164156</v>
+        <v>21252555</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7232,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>654306</v>
+        <v>650378</v>
       </c>
       <c r="E195" t="n">
-        <v>713581</v>
+        <v>709297</v>
       </c>
       <c r="F195" t="n">
-        <v>5.410718308481203</v>
+        <v>3.873508170664593</v>
       </c>
       <c r="G195" t="n">
-        <v>3.953219011909062</v>
+        <v>22.52157616150839</v>
       </c>
       <c r="H195" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="I195" t="n">
-        <v>118684</v>
+        <v>81878</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7267,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>104120359</v>
+        <v>105104421</v>
       </c>
       <c r="E196" t="n">
-        <v>256176761</v>
+        <v>258597940</v>
       </c>
       <c r="F196" t="n">
-        <v>33060.20906684756</v>
+        <v>28725.68391734745</v>
       </c>
       <c r="G196" t="n">
-        <v>45728.14237526636</v>
+        <v>36469.72485969651</v>
       </c>
       <c r="H196" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I196" t="n">
-        <v>2768023</v>
+        <v>2810028</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7302,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19820370</v>
+        <v>19151975</v>
       </c>
       <c r="E197" t="n">
-        <v>19820370</v>
+        <v>19151975</v>
       </c>
       <c r="F197" t="n">
-        <v>5.40214930930335</v>
+        <v>5.35919343300865</v>
       </c>
       <c r="G197" t="n">
-        <v>440.84480083594</v>
+        <v>441.0706020641647</v>
       </c>
       <c r="H197" t="n">
         <v>0.13</v>
       </c>
       <c r="I197" t="n">
-        <v>110498</v>
+        <v>58680</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7340,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1328573</v>
+        <v>1312732</v>
       </c>
       <c r="F198" t="n">
-        <v>346.8170257839124</v>
+        <v>276.9419334950451</v>
       </c>
       <c r="G198" t="n">
-        <v>26.42816836826579</v>
+        <v>85.74213782075773</v>
       </c>
       <c r="H198" t="n">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
       <c r="I198" t="n">
-        <v>42913</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7372,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>122015</v>
+        <v>122723</v>
       </c>
       <c r="E199" t="n">
-        <v>265625</v>
+        <v>267166</v>
       </c>
       <c r="F199" t="n">
-        <v>4.094615947747862</v>
+        <v>5.426271371488165</v>
       </c>
       <c r="G199" t="n">
-        <v>6.585654447954702</v>
+        <v>6.532540415274736</v>
       </c>
       <c r="H199" t="n">
         <v>1.1</v>
       </c>
       <c r="I199" t="n">
-        <v>41326</v>
+        <v>42637</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7410,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2956262</v>
+        <v>2841665</v>
       </c>
       <c r="F200" t="n">
-        <v>1524.640113454338</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1578.3125350389</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>4.39</v>
       </c>
       <c r="I200" t="n">
-        <v>365914</v>
+        <v>363359</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7442,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>190117</v>
+        <v>188416</v>
       </c>
       <c r="E201" t="n">
-        <v>1468088</v>
+        <v>1454948</v>
       </c>
       <c r="F201" t="n">
-        <v>14.49812495056689</v>
+        <v>14.5027969105632</v>
       </c>
       <c r="G201" t="n">
-        <v>36.27023884674495</v>
+        <v>37.41817993507758</v>
       </c>
       <c r="H201" t="n">
         <v>0.67</v>
       </c>
       <c r="I201" t="n">
-        <v>45796</v>
+        <v>46673</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7477,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>28691983</v>
+        <v>29095571</v>
       </c>
       <c r="E202" t="n">
-        <v>128465777</v>
+        <v>130272809</v>
       </c>
       <c r="F202" t="n">
-        <v>8877.566403683273</v>
+        <v>5550.000980920739</v>
       </c>
       <c r="G202" t="n">
-        <v>11122.85639597521</v>
+        <v>7041.089778465286</v>
       </c>
       <c r="H202" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I202" t="n">
-        <v>14589305</v>
+        <v>14902957</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7512,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12925256</v>
+        <v>12881831</v>
       </c>
       <c r="E203" t="n">
-        <v>25832391</v>
+        <v>25745602</v>
       </c>
       <c r="F203" t="n">
-        <v>9.828427049951928</v>
+        <v>703.990300306126</v>
       </c>
       <c r="G203" t="n">
-        <v>2239.818390349888</v>
+        <v>1230.581470852466</v>
       </c>
       <c r="H203" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>15888.69</v>
+        <v>15888.11</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7550,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1311392</v>
+        <v>1297698</v>
       </c>
       <c r="F204" t="n">
-        <v>100.3921570194985</v>
+        <v>75.6591837988522</v>
       </c>
       <c r="G204" t="n">
-        <v>169.3458781572439</v>
+        <v>326.5871374211934</v>
       </c>
       <c r="H204" t="n">
-        <v>2.22</v>
+        <v>2.57</v>
       </c>
       <c r="I204" t="n">
-        <v>94897</v>
+        <v>90049</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7582,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>915073</v>
+        <v>911201</v>
       </c>
       <c r="E205" t="n">
-        <v>4232345</v>
+        <v>4214436</v>
       </c>
       <c r="F205" t="n">
-        <v>3579.583324374791</v>
+        <v>3661.217135896301</v>
       </c>
       <c r="G205" t="n">
-        <v>2482.371327869181</v>
+        <v>2325.114806726506</v>
       </c>
       <c r="H205" t="n">
         <v>0.83</v>
       </c>
       <c r="I205" t="n">
-        <v>480072</v>
+        <v>475707</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7617,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2882472</v>
+        <v>2888768</v>
       </c>
       <c r="E206" t="n">
-        <v>2882472</v>
+        <v>2888768</v>
       </c>
       <c r="F206" t="n">
-        <v>1087.343274157204</v>
+        <v>308.3011182527464</v>
       </c>
       <c r="G206" t="n">
-        <v>1191.216143691016</v>
+        <v>615.3004418090221</v>
       </c>
       <c r="H206" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I206" t="n">
-        <v>307649</v>
+        <v>298553</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7652,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>547175</v>
+        <v>554919</v>
       </c>
       <c r="E207" t="n">
-        <v>547175</v>
+        <v>554919</v>
       </c>
       <c r="F207" t="n">
-        <v>63.55156339496511</v>
+        <v>252.1809115615768</v>
       </c>
       <c r="G207" t="n">
-        <v>68.81224882185026</v>
+        <v>634.2455061171005</v>
       </c>
       <c r="H207" t="n">
         <v>0.92</v>
       </c>
       <c r="I207" t="n">
-        <v>1139579</v>
+        <v>1147778</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7687,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14158424</v>
+        <v>14208374</v>
       </c>
       <c r="E208" t="n">
-        <v>18025935</v>
+        <v>18089528</v>
       </c>
       <c r="F208" t="n">
-        <v>162.395670082184</v>
+        <v>122.7299965125247</v>
       </c>
       <c r="G208" t="n">
-        <v>182.2117688197615</v>
+        <v>176.782757063643</v>
       </c>
       <c r="H208" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I208" t="n">
-        <v>915625</v>
+        <v>908629</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7722,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1740239</v>
+        <v>1739922</v>
       </c>
       <c r="E209" t="n">
-        <v>1740239</v>
+        <v>1739922</v>
       </c>
       <c r="F209" t="n">
-        <v>5.625787504274047</v>
+        <v>5.441755180760174</v>
       </c>
       <c r="G209" t="n">
-        <v>936.7414214998699</v>
+        <v>943.2211214803585</v>
       </c>
       <c r="H209" t="n">
         <v>0.24</v>
       </c>
       <c r="I209" t="n">
-        <v>3516.83</v>
+        <v>3079.09</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7757,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5938111</v>
+        <v>5986434</v>
       </c>
       <c r="E210" t="n">
-        <v>15584566</v>
+        <v>15711389</v>
       </c>
       <c r="F210" t="n">
-        <v>213.4408876609081</v>
+        <v>6.273873440352302</v>
       </c>
       <c r="G210" t="n">
-        <v>267.57776860728</v>
+        <v>399.2384475474972</v>
       </c>
       <c r="H210" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="I210" t="n">
-        <v>28129</v>
+        <v>31304</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7795,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29217384</v>
+        <v>28749817</v>
       </c>
       <c r="F211" t="n">
-        <v>1246.207547401266</v>
+        <v>983.8944907891569</v>
       </c>
       <c r="G211" t="n">
-        <v>1534.390449638559</v>
+        <v>1285.278643438058</v>
       </c>
       <c r="H211" t="n">
-        <v>1.4</v>
+        <v>0.31</v>
       </c>
       <c r="I211" t="n">
-        <v>603753</v>
+        <v>613846</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7827,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>16984802</v>
+        <v>17079819</v>
       </c>
       <c r="E212" t="n">
-        <v>16984872</v>
+        <v>17079819</v>
       </c>
       <c r="F212" t="n">
-        <v>29886.37966257846</v>
+        <v>18203.49914201855</v>
       </c>
       <c r="G212" t="n">
-        <v>33455.82657232443</v>
+        <v>30911.33553656322</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2324647</v>
+        <v>2269822</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7862,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>47178720</v>
+        <v>47853183</v>
       </c>
       <c r="E213" t="n">
-        <v>305941443</v>
+        <v>310315155</v>
       </c>
       <c r="F213" t="n">
-        <v>230369.2118907424</v>
+        <v>204049.4451337415</v>
       </c>
       <c r="G213" t="n">
-        <v>156192.0494386139</v>
+        <v>177822.4358962437</v>
       </c>
       <c r="H213" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I213" t="n">
-        <v>21220597</v>
+        <v>21820904</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7900,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>7865879</v>
+        <v>8066863</v>
       </c>
       <c r="F214" t="n">
-        <v>207.3397894688348</v>
+        <v>151.7147730345309</v>
       </c>
       <c r="G214" t="n">
-        <v>3.934066781055878</v>
+        <v>4.120773186560998</v>
       </c>
       <c r="H214" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="I214" t="n">
-        <v>310229</v>
+        <v>309069</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7932,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7059348</v>
+        <v>7189672</v>
       </c>
       <c r="E215" t="n">
-        <v>7069457</v>
+        <v>7199968</v>
       </c>
       <c r="F215" t="n">
-        <v>104.911368468693</v>
+        <v>98.02768670089532</v>
       </c>
       <c r="G215" t="n">
-        <v>51.88275632702036</v>
+        <v>45.32561900144584</v>
       </c>
       <c r="H215" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="I215" t="n">
-        <v>853445</v>
+        <v>921487</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7970,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4514847</v>
+        <v>4444263</v>
       </c>
       <c r="F216" t="n">
-        <v>143.7556332186386</v>
+        <v>165.6515760600114</v>
       </c>
       <c r="G216" t="n">
-        <v>59.95352817318224</v>
+        <v>99.9367025129208</v>
       </c>
       <c r="H216" t="n">
-        <v>2.36</v>
+        <v>3.17</v>
       </c>
       <c r="I216" t="n">
-        <v>209535</v>
+        <v>251526</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8002,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2464893</v>
+        <v>2463456</v>
       </c>
       <c r="E217" t="n">
-        <v>4465617</v>
+        <v>4463014</v>
       </c>
       <c r="F217" t="n">
-        <v>520.8037469129465</v>
+        <v>382.1424068365588</v>
       </c>
       <c r="G217" t="n">
-        <v>668.4540618165788</v>
+        <v>653.4692299529386</v>
       </c>
       <c r="H217" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="I217" t="n">
-        <v>116475</v>
+        <v>109297</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8037,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>123638310</v>
+        <v>124193291</v>
       </c>
       <c r="E218" t="n">
-        <v>2047551683</v>
+        <v>2056742609</v>
       </c>
       <c r="F218" t="n">
-        <v>5267.363618444729</v>
+        <v>6804.938792821242</v>
       </c>
       <c r="G218" t="n">
-        <v>7910.328601276772</v>
+        <v>5045.366825405205</v>
       </c>
       <c r="H218" t="n">
-        <v>0.82</v>
+        <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>36052627</v>
+        <v>36470394</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8072,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>90120745</v>
+        <v>94769671</v>
       </c>
       <c r="E219" t="n">
-        <v>91090830</v>
+        <v>95789797</v>
       </c>
       <c r="F219" t="n">
-        <v>666.7439613849662</v>
+        <v>842.1226569548768</v>
       </c>
       <c r="G219" t="n">
-        <v>16987.2213811515</v>
+        <v>16214.23534547143</v>
       </c>
       <c r="H219" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="I219" t="n">
-        <v>81490395</v>
+        <v>82919091</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8107,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>240196527</v>
+        <v>242531642</v>
       </c>
       <c r="E220" t="n">
-        <v>240196527</v>
+        <v>242531642</v>
       </c>
       <c r="F220" t="n">
-        <v>2281.687602475188</v>
+        <v>3473.805304854935</v>
       </c>
       <c r="G220" t="n">
-        <v>73045.73755996226</v>
+        <v>64420.82193816875</v>
       </c>
       <c r="H220" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="I220" t="n">
-        <v>93530275</v>
+        <v>93965540</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8142,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22516923</v>
+        <v>22927716</v>
       </c>
       <c r="E221" t="n">
-        <v>134723277</v>
+        <v>137181133</v>
       </c>
       <c r="F221" t="n">
-        <v>70811.34727541232</v>
+        <v>65746.56890512505</v>
       </c>
       <c r="G221" t="n">
-        <v>71544.9283071072</v>
+        <v>49944.12480208906</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>18079086</v>
+        <v>18346134</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8180,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1039530</v>
+        <v>1042936</v>
       </c>
       <c r="F222" t="n">
-        <v>2710.472266923443</v>
+        <v>139.2862273741549</v>
       </c>
       <c r="G222" t="n">
-        <v>114.6922765172938</v>
+        <v>89.34403390759475</v>
       </c>
       <c r="H222" t="n">
-        <v>3.05</v>
+        <v>1.99</v>
       </c>
       <c r="I222" t="n">
-        <v>93203</v>
+        <v>95096</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2251312</v>
+        <v>2252720</v>
       </c>
       <c r="F223" t="n">
-        <v>141.3372225303384</v>
+        <v>151.6081431734322</v>
       </c>
       <c r="G223" t="n">
-        <v>139.4034702683435</v>
+        <v>126.8199657250954</v>
       </c>
       <c r="H223" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="I223" t="n">
-        <v>187003</v>
+        <v>190810</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8247,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13304376</v>
+        <v>13315393</v>
       </c>
       <c r="E224" t="n">
-        <v>40209516</v>
+        <v>40242813</v>
       </c>
       <c r="F224" t="n">
-        <v>1490.512252794118</v>
+        <v>1854.116656674024</v>
       </c>
       <c r="G224" t="n">
-        <v>9469.588271863464</v>
+        <v>6761.157102497698</v>
       </c>
       <c r="H224" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I224" t="n">
-        <v>2418210</v>
+        <v>2438598</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8282,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>52180859</v>
+        <v>52240760</v>
       </c>
       <c r="E225" t="n">
-        <v>90127688</v>
+        <v>90231150</v>
       </c>
       <c r="F225" t="n">
-        <v>7243.650908074539</v>
+        <v>7509.371770912206</v>
       </c>
       <c r="G225" t="n">
-        <v>7173.962948538457</v>
+        <v>7267.941747259233</v>
       </c>
       <c r="H225" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I225" t="n">
-        <v>2288617</v>
+        <v>2278201</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8317,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4082616</v>
+        <v>4085586</v>
       </c>
       <c r="E226" t="n">
-        <v>4082616</v>
+        <v>4085586</v>
       </c>
       <c r="F226" t="n">
-        <v>4.220214221783468</v>
+        <v>4.220821344308055</v>
       </c>
       <c r="G226" t="n">
-        <v>46.24646827217711</v>
+        <v>56.61906655842339</v>
       </c>
       <c r="H226" t="n">
         <v>0.87</v>
       </c>
       <c r="I226" t="n">
-        <v>1741412</v>
+        <v>1757184</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>188439</v>
+        <v>188445</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8367,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>62903</v>
+        <v>64522</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8387,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6255696</v>
+        <v>6269856</v>
       </c>
       <c r="E228" t="n">
-        <v>32183655</v>
+        <v>32256505</v>
       </c>
       <c r="F228" t="n">
-        <v>562.1837391643659</v>
+        <v>1150.531319465124</v>
       </c>
       <c r="G228" t="n">
-        <v>126.7334900958294</v>
+        <v>150.2142957756382</v>
       </c>
       <c r="H228" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="I228" t="n">
-        <v>958305</v>
+        <v>967220</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8449,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>163942559</v>
+        <v>169064917</v>
       </c>
       <c r="E230" t="n">
-        <v>191533316</v>
+        <v>197517742</v>
       </c>
       <c r="F230" t="n">
-        <v>12051.66596918328</v>
+        <v>13446.69454109187</v>
       </c>
       <c r="G230" t="n">
-        <v>12992.19795099399</v>
+        <v>23398.95325361282</v>
       </c>
       <c r="H230" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I230" t="n">
-        <v>7346958</v>
+        <v>7305635</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8487,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>300269</v>
+        <v>299007</v>
       </c>
       <c r="F231" t="n">
-        <v>41.74378714654711</v>
+        <v>4.071611136978502</v>
       </c>
       <c r="G231" t="n">
-        <v>478.3713525279852</v>
+        <v>3.914408002580683</v>
       </c>
       <c r="H231" t="n">
-        <v>1.3</v>
+        <v>0.74</v>
       </c>
       <c r="I231" t="n">
-        <v>235042</v>
+        <v>229894</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8519,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>30258586</v>
+        <v>32030651</v>
       </c>
       <c r="E232" t="n">
-        <v>41489812</v>
+        <v>43919623</v>
       </c>
       <c r="F232" t="n">
-        <v>5324.212572531294</v>
+        <v>4773.063700460476</v>
       </c>
       <c r="G232" t="n">
-        <v>3106.827330531274</v>
+        <v>4475.729500761754</v>
       </c>
       <c r="H232" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I232" t="n">
-        <v>381458</v>
+        <v>981233</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1192438</v>
+        <v>1141855</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8569,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>370238</v>
+        <v>341958</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8592,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7589512</v>
+        <v>7579955</v>
       </c>
       <c r="F234" t="n">
-        <v>1936.743868523452</v>
+        <v>1942.32841821869</v>
       </c>
       <c r="G234" t="n">
-        <v>382.1427369685005</v>
+        <v>117.9837315668088</v>
       </c>
       <c r="H234" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I234" t="n">
-        <v>658659</v>
+        <v>653804</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8624,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22142559</v>
+        <v>22504302</v>
       </c>
       <c r="E235" t="n">
-        <v>22142559</v>
+        <v>22504659</v>
       </c>
       <c r="F235" t="n">
-        <v>2448.016471892328</v>
+        <v>10027.33429696865</v>
       </c>
       <c r="G235" t="n">
-        <v>20233.04135451682</v>
+        <v>28974.69583511729</v>
       </c>
       <c r="H235" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="I235" t="n">
-        <v>2376239</v>
+        <v>2379494</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8659,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3567837</v>
+        <v>3589633</v>
       </c>
       <c r="E236" t="n">
-        <v>4779344</v>
+        <v>4808540</v>
       </c>
       <c r="F236" t="n">
-        <v>234.3750758001812</v>
+        <v>126.4284585536581</v>
       </c>
       <c r="G236" t="n">
-        <v>105.6344348353583</v>
+        <v>60.40805020190479</v>
       </c>
       <c r="H236" t="n">
-        <v>1.23</v>
+        <v>0.41</v>
       </c>
       <c r="I236" t="n">
-        <v>124351</v>
+        <v>124648</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8694,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>31924285</v>
+        <v>32219637</v>
       </c>
       <c r="E237" t="n">
-        <v>159316899</v>
+        <v>160790840</v>
       </c>
       <c r="F237" t="n">
-        <v>93223.68902282931</v>
+        <v>108347.5999526045</v>
       </c>
       <c r="G237" t="n">
-        <v>101147.2285055669</v>
+        <v>61937.83406339445</v>
       </c>
       <c r="H237" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>13958039</v>
+        <v>14237610</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8729,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>25850046</v>
+        <v>25921510</v>
       </c>
       <c r="E238" t="n">
-        <v>58275465</v>
+        <v>58436571</v>
       </c>
       <c r="F238" t="n">
-        <v>375.7087107562696</v>
+        <v>253.063853836264</v>
       </c>
       <c r="G238" t="n">
-        <v>42.26170679546766</v>
+        <v>172.4184560846083</v>
       </c>
       <c r="H238" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="I238" t="n">
-        <v>422918</v>
+        <v>427554</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8764,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1910511</v>
+        <v>1908489</v>
       </c>
       <c r="E239" t="n">
-        <v>1910511</v>
+        <v>1908489</v>
       </c>
       <c r="F239" t="n">
-        <v>188.8913162032675</v>
+        <v>188.9549692743937</v>
       </c>
       <c r="G239" t="n">
-        <v>95.68824973376007</v>
+        <v>95.62889199602672</v>
       </c>
       <c r="H239" t="n">
         <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>5290.2</v>
+        <v>5350.91</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8802,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71851768</v>
+        <v>71527901</v>
       </c>
       <c r="F240" t="n">
-        <v>4.114251007555816</v>
+        <v>4.115116972078963</v>
       </c>
       <c r="G240" t="n">
-        <v>4.075556708473989</v>
+        <v>4.076414528649551</v>
       </c>
       <c r="H240" t="n">
         <v>0.26</v>
       </c>
       <c r="I240" t="n">
-        <v>60526</v>
+        <v>60494</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8834,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>891990</v>
+        <v>883889</v>
       </c>
       <c r="E241" t="n">
-        <v>891990</v>
+        <v>883889</v>
       </c>
       <c r="F241" t="n">
-        <v>4.121403248760823</v>
+        <v>4.121168294532735</v>
       </c>
       <c r="G241" t="n">
-        <v>64.66786132967412</v>
+        <v>65.3852836587526</v>
       </c>
       <c r="H241" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I241" t="n">
-        <v>11850.79</v>
+        <v>11858.12</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8869,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>124057</v>
+        <v>122119</v>
       </c>
       <c r="E242" t="n">
-        <v>124057</v>
+        <v>122119</v>
       </c>
       <c r="F242" t="n">
-        <v>661.4649528869247</v>
+        <v>672.2736536799765</v>
       </c>
       <c r="G242" t="n">
-        <v>5.303549675649991</v>
+        <v>5.186071732187608</v>
       </c>
       <c r="H242" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="I242" t="n">
-        <v>39293</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8904,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3484034</v>
+        <v>3496830</v>
       </c>
       <c r="E243" t="n">
-        <v>5004880</v>
+        <v>5023262</v>
       </c>
       <c r="F243" t="n">
-        <v>623.9836513464946</v>
+        <v>610.64619438378</v>
       </c>
       <c r="G243" t="n">
-        <v>0.004221040226651147</v>
+        <v>0.004221455915351535</v>
       </c>
       <c r="H243" t="n">
         <v>0.4</v>
       </c>
       <c r="I243" t="n">
-        <v>148440</v>
+        <v>146908</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8939,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>286782706</v>
+        <v>287874264</v>
       </c>
       <c r="E244" t="n">
-        <v>530613406</v>
+        <v>532633037</v>
       </c>
       <c r="F244" t="n">
-        <v>5860.031561895582</v>
+        <v>5822.648690928608</v>
       </c>
       <c r="G244" t="n">
-        <v>8001.82277787923</v>
+        <v>11278.89595533382</v>
       </c>
       <c r="H244" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I244" t="n">
-        <v>17011242</v>
+        <v>18925755</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8974,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>68519998</v>
+        <v>69133108</v>
       </c>
       <c r="E245" t="n">
-        <v>653551750</v>
+        <v>659389435</v>
       </c>
       <c r="F245" t="n">
-        <v>39436.90092548968</v>
+        <v>34997.16905753716</v>
       </c>
       <c r="G245" t="n">
-        <v>72095.3468551181</v>
+        <v>63289.70651672498</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>23902466</v>
+        <v>24023572</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9009,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>75931</v>
+        <v>178786</v>
       </c>
       <c r="E246" t="n">
-        <v>631232</v>
+        <v>1486289</v>
       </c>
       <c r="F246" t="n">
-        <v>3.724326694919195</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>4.166473487045093</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>0.61</v>
+        <v>9.09</v>
       </c>
       <c r="I246" t="n">
-        <v>124.89</v>
+        <v>36164</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9044,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1827360</v>
+        <v>1832229</v>
       </c>
       <c r="E247" t="n">
-        <v>5218706</v>
+        <v>5232611</v>
       </c>
       <c r="F247" t="n">
-        <v>411.3492113741955</v>
+        <v>401.5214238300318</v>
       </c>
       <c r="G247" t="n">
-        <v>151.8642979576016</v>
+        <v>184.7965212724421</v>
       </c>
       <c r="H247" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="I247" t="n">
-        <v>72975</v>
+        <v>72740</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9079,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>35379682</v>
+        <v>35791870</v>
       </c>
       <c r="E248" t="n">
-        <v>46253019</v>
+        <v>46791611</v>
       </c>
       <c r="F248" t="n">
-        <v>1551.481286307166</v>
+        <v>103.1828489980312</v>
       </c>
       <c r="G248" t="n">
-        <v>813.5137298668059</v>
+        <v>414.5993155773431</v>
       </c>
       <c r="H248" t="n">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="I248" t="n">
-        <v>522755</v>
+        <v>581897</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9114,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>8807537</v>
+        <v>9206316</v>
       </c>
       <c r="E249" t="n">
-        <v>26110282</v>
+        <v>27292478</v>
       </c>
       <c r="F249" t="n">
-        <v>341.0820825944679</v>
+        <v>501.0549142319107</v>
       </c>
       <c r="G249" t="n">
-        <v>1690.105133240381</v>
+        <v>1348.916398011991</v>
       </c>
       <c r="H249" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="I249" t="n">
-        <v>6444996</v>
+        <v>6556861</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9149,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1938144</v>
+        <v>1924298</v>
       </c>
       <c r="E250" t="n">
-        <v>5606570</v>
+        <v>5566515</v>
       </c>
       <c r="F250" t="n">
-        <v>63.88966194546354</v>
+        <v>5.414456264729656</v>
       </c>
       <c r="G250" t="n">
-        <v>34.40294347624609</v>
+        <v>4.156066747670757</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="I250" t="n">
-        <v>53450</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9184,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7194403</v>
+        <v>7369679</v>
       </c>
       <c r="E251" t="n">
-        <v>7194413</v>
+        <v>7369690</v>
       </c>
       <c r="F251" t="n">
-        <v>826.4784297511574</v>
+        <v>521.2583991604179</v>
       </c>
       <c r="G251" t="n">
-        <v>1370.46738350062</v>
+        <v>820.5111331637788</v>
       </c>
       <c r="H251" t="n">
-        <v>1.22</v>
+        <v>2.43</v>
       </c>
       <c r="I251" t="n">
-        <v>261811</v>
+        <v>258853</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9219,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5978923</v>
+        <v>5973217</v>
       </c>
       <c r="E252" t="n">
-        <v>5978923</v>
+        <v>5973217</v>
       </c>
       <c r="F252" t="n">
-        <v>1023.179952735566</v>
+        <v>1044.428638484776</v>
       </c>
       <c r="G252" t="n">
-        <v>1014.157840495099</v>
+        <v>1031.866925599826</v>
       </c>
       <c r="H252" t="n">
         <v>0.83</v>
       </c>
       <c r="I252" t="n">
-        <v>505912</v>
+        <v>193950</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9254,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6168051</v>
+        <v>6172095</v>
       </c>
       <c r="E253" t="n">
-        <v>22529502</v>
+        <v>22544275</v>
       </c>
       <c r="F253" t="n">
-        <v>30.3434819363892</v>
+        <v>111.3656412740141</v>
       </c>
       <c r="G253" t="n">
-        <v>712.0876727719306</v>
+        <v>752.478192010185</v>
       </c>
       <c r="H253" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="I253" t="n">
-        <v>574889</v>
+        <v>571730</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9289,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2138429</v>
+        <v>2167338</v>
       </c>
       <c r="E254" t="n">
-        <v>18862363</v>
+        <v>19117362</v>
       </c>
       <c r="F254" t="n">
-        <v>122.7150330314515</v>
+        <v>1011.207134931406</v>
       </c>
       <c r="G254" t="n">
-        <v>1178.010298196775</v>
+        <v>451.3280893566229</v>
       </c>
       <c r="H254" t="n">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="I254" t="n">
-        <v>84871</v>
+        <v>85988</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9324,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14671593</v>
+        <v>14424743</v>
       </c>
       <c r="E255" t="n">
-        <v>29701745</v>
+        <v>29202012</v>
       </c>
       <c r="F255" t="n">
-        <v>125.5364424008506</v>
+        <v>125.789820782221</v>
       </c>
       <c r="G255" t="n">
-        <v>278.9418297195518</v>
+        <v>278.9300118281461</v>
       </c>
       <c r="H255" t="n">
-        <v>0.14</v>
+        <v>0.47</v>
       </c>
       <c r="I255" t="n">
-        <v>574938</v>
+        <v>568044</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9359,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>43035252</v>
+        <v>43172889</v>
       </c>
       <c r="E256" t="n">
-        <v>43035252</v>
+        <v>43172889</v>
       </c>
       <c r="F256" t="n">
-        <v>5501.147413403773</v>
+        <v>4199.87332637889</v>
       </c>
       <c r="G256" t="n">
-        <v>1754.526922484813</v>
+        <v>3667.321931635408</v>
       </c>
       <c r="H256" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I256" t="n">
-        <v>11813017</v>
+        <v>12017972</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9394,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8253895</v>
+        <v>8253720</v>
       </c>
       <c r="E257" t="n">
-        <v>11759909</v>
+        <v>11759660</v>
       </c>
       <c r="F257" t="n">
-        <v>29.21108338289438</v>
+        <v>28.50095260222652</v>
       </c>
       <c r="G257" t="n">
-        <v>886.5622471559893</v>
+        <v>1247.662241364473</v>
       </c>
       <c r="H257" t="n">
         <v>0.26</v>
       </c>
       <c r="I257" t="n">
-        <v>313965</v>
+        <v>305997</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9432,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>141097370</v>
+        <v>140992696</v>
       </c>
       <c r="F258" t="n">
-        <v>110.3410945219271</v>
+        <v>84.5611326782951</v>
       </c>
       <c r="G258" t="n">
-        <v>191.8146897077004</v>
+        <v>327.87348110945</v>
       </c>
       <c r="H258" t="n">
-        <v>3.08</v>
+        <v>1.97</v>
       </c>
       <c r="I258" t="n">
-        <v>1639163</v>
+        <v>1610398</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9467,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>15655395</v>
+        <v>15886783</v>
       </c>
       <c r="F259" t="n">
-        <v>75.77362636309948</v>
+        <v>75.77851522133234</v>
       </c>
       <c r="G259" t="n">
-        <v>127.7409554981571</v>
+        <v>127.7491972499635</v>
       </c>
       <c r="H259" t="n">
         <v>0.32</v>
       </c>
       <c r="I259" t="n">
-        <v>1110748</v>
+        <v>1118492</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9502,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>715672</v>
+        <v>716595</v>
       </c>
       <c r="F260" t="n">
-        <v>9.989032532467505</v>
+        <v>9.992429046049645</v>
       </c>
       <c r="G260" t="n">
-        <v>112.3334602390886</v>
+        <v>112.1553530072252</v>
       </c>
       <c r="H260" t="n">
         <v>1.9</v>
       </c>
       <c r="I260" t="n">
-        <v>208343</v>
+        <v>194117</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9537,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2976690</v>
+        <v>2957161</v>
       </c>
       <c r="F261" t="n">
-        <v>111.1582352864419</v>
+        <v>42.44233472713781</v>
       </c>
       <c r="G261" t="n">
-        <v>41.38008303395959</v>
+        <v>284.5505205633835</v>
       </c>
       <c r="H261" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I261" t="n">
-        <v>75380</v>
+        <v>74523</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9569,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2591428</v>
+        <v>2612933</v>
       </c>
       <c r="E262" t="n">
-        <v>2593673</v>
+        <v>2615196</v>
       </c>
       <c r="F262" t="n">
-        <v>2940.97438748265</v>
+        <v>33.55813590094475</v>
       </c>
       <c r="G262" t="n">
-        <v>254.1900415632161</v>
+        <v>2.842834403459957</v>
       </c>
       <c r="H262" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I262" t="n">
-        <v>105911</v>
+        <v>105485</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9604,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>73084486</v>
+        <v>72911387</v>
       </c>
       <c r="E263" t="n">
-        <v>101194811</v>
+        <v>100955057</v>
       </c>
       <c r="F263" t="n">
-        <v>8760.72757182607</v>
+        <v>7440.747322559057</v>
       </c>
       <c r="G263" t="n">
-        <v>11839.71198908337</v>
+        <v>10246.74163994438</v>
       </c>
       <c r="H263" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I263" t="n">
-        <v>7347948</v>
+        <v>7392173</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9642,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>609801</v>
+        <v>609859</v>
       </c>
       <c r="F264" t="n">
-        <v>129.3163996663243</v>
+        <v>153.2769874499846</v>
       </c>
       <c r="G264" t="n">
-        <v>143.7852442793697</v>
+        <v>86.73613764257915</v>
       </c>
       <c r="H264" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I264" t="n">
-        <v>581408</v>
+        <v>583824</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9674,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1312620</v>
+        <v>1303349</v>
       </c>
       <c r="E265" t="n">
-        <v>3972883</v>
+        <v>3944150</v>
       </c>
       <c r="F265" t="n">
-        <v>796.5163302387563</v>
+        <v>87.14396841983897</v>
       </c>
       <c r="G265" t="n">
-        <v>248.6377999395576</v>
+        <v>741.2642607571702</v>
       </c>
       <c r="H265" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I265" t="n">
-        <v>29225</v>
+        <v>46856</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9709,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>32974814</v>
+        <v>33264104</v>
       </c>
       <c r="E266" t="n">
-        <v>233786052</v>
+        <v>235837070</v>
       </c>
       <c r="F266" t="n">
-        <v>20979.63901118652</v>
+        <v>25982.99368881988</v>
       </c>
       <c r="G266" t="n">
-        <v>20128.56949142402</v>
+        <v>17651.3637260984</v>
       </c>
       <c r="H266" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="I266" t="n">
-        <v>6321874</v>
+        <v>6398930</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9744,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>55410</v>
+        <v>54882</v>
       </c>
       <c r="E267" t="n">
-        <v>289105</v>
+        <v>286352</v>
       </c>
       <c r="F267" t="n">
-        <v>22.22145414225691</v>
+        <v>23.06837599230921</v>
       </c>
       <c r="G267" t="n">
-        <v>51.80988277899938</v>
+        <v>25.09034005248666</v>
       </c>
       <c r="H267" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I267" t="n">
-        <v>206081</v>
+        <v>205473</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9779,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1253402</v>
+        <v>1258703</v>
       </c>
       <c r="E268" t="n">
-        <v>7771210</v>
+        <v>7804074</v>
       </c>
       <c r="F268" t="n">
-        <v>951.4904918220476</v>
+        <v>1263.015663810172</v>
       </c>
       <c r="G268" t="n">
-        <v>1164.653489295606</v>
+        <v>1892.035317155848</v>
       </c>
       <c r="H268" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I268" t="n">
-        <v>774682</v>
+        <v>773209</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9814,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>571219353</v>
+        <v>577581156</v>
       </c>
       <c r="E269" t="n">
-        <v>2212248278</v>
+        <v>2236886601</v>
       </c>
       <c r="F269" t="n">
-        <v>240362.4379966379</v>
+        <v>154313.4131833974</v>
       </c>
       <c r="G269" t="n">
-        <v>270038.252335401</v>
+        <v>338974.158603524</v>
       </c>
       <c r="H269" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>60610950</v>
+        <v>61896511</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9852,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3307895</v>
+        <v>3309624</v>
       </c>
       <c r="F270" t="n">
-        <v>59.16263335297392</v>
+        <v>44.72758777995875</v>
       </c>
       <c r="G270" t="n">
-        <v>521.5154024446229</v>
+        <v>491.3892811800224</v>
       </c>
       <c r="H270" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I270" t="n">
-        <v>38370</v>
+        <v>38444</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9887,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>758246</v>
+        <v>757959</v>
       </c>
       <c r="F271" t="n">
-        <v>5.008119291755043</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>158.5096030976709</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>2.86</v>
+        <v>4.82</v>
       </c>
       <c r="I271" t="n">
-        <v>143149</v>
+        <v>143022</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9919,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5432589</v>
+        <v>5487741</v>
       </c>
       <c r="E272" t="n">
-        <v>24317538</v>
+        <v>24564411</v>
       </c>
       <c r="F272" t="n">
-        <v>110.1889977614118</v>
+        <v>681.6660204347855</v>
       </c>
       <c r="G272" t="n">
-        <v>175.6978310375737</v>
+        <v>87.13218287555171</v>
       </c>
       <c r="H272" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="I272" t="n">
-        <v>191935</v>
+        <v>191842</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9954,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6493275</v>
+        <v>6469870</v>
       </c>
       <c r="E273" t="n">
-        <v>12431902</v>
+        <v>12387091</v>
       </c>
       <c r="F273" t="n">
-        <v>1238.180995562571</v>
+        <v>110.0900915596547</v>
       </c>
       <c r="G273" t="n">
-        <v>607.7188697746828</v>
+        <v>146.7366188716985</v>
       </c>
       <c r="H273" t="n">
-        <v>1.5</v>
+        <v>2.37</v>
       </c>
       <c r="I273" t="n">
-        <v>35073</v>
+        <v>32470</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9989,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3177857</v>
+        <v>3180335</v>
       </c>
       <c r="E274" t="n">
-        <v>20896849</v>
+        <v>20913142</v>
       </c>
       <c r="F274" t="n">
-        <v>155.9648634679827</v>
+        <v>155.735896512265</v>
       </c>
       <c r="G274" t="n">
-        <v>116.0750790355423</v>
+        <v>115.9680942664675</v>
       </c>
       <c r="H274" t="n">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="I274" t="n">
-        <v>1637763</v>
+        <v>1676113</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10024,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3629041</v>
+        <v>3603694</v>
       </c>
       <c r="E275" t="n">
-        <v>6186193</v>
+        <v>6142985</v>
       </c>
       <c r="F275" t="n">
-        <v>798.0433018297319</v>
+        <v>470.0623084462473</v>
       </c>
       <c r="G275" t="n">
-        <v>448.2316100730371</v>
+        <v>487.7380729490927</v>
       </c>
       <c r="H275" t="n">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="I275" t="n">
-        <v>1096278</v>
+        <v>1127953</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10059,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>431547</v>
+        <v>382879</v>
       </c>
       <c r="E276" t="n">
-        <v>431547</v>
+        <v>382879</v>
       </c>
       <c r="F276" t="n">
-        <v>5.217486118674936</v>
+        <v>8.121249820938523</v>
       </c>
       <c r="G276" t="n">
-        <v>3.813562668144984</v>
+        <v>5.322907501020372</v>
       </c>
       <c r="H276" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I276" t="n">
-        <v>104.72</v>
+        <v>112.65</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10094,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7257993</v>
+        <v>7379901</v>
       </c>
       <c r="E277" t="n">
-        <v>10398444</v>
+        <v>10573057</v>
       </c>
       <c r="F277" t="n">
-        <v>620.2244974527356</v>
+        <v>1154.995018092066</v>
       </c>
       <c r="G277" t="n">
-        <v>3267.496769606051</v>
+        <v>713.268323923667</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>180033</v>
+        <v>181576</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10129,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>106023274</v>
+        <v>108879453</v>
       </c>
       <c r="E278" t="n">
-        <v>1003744926</v>
+        <v>1030784982</v>
       </c>
       <c r="F278" t="n">
-        <v>1350.301621657631</v>
+        <v>3138.914044154767</v>
       </c>
       <c r="G278" t="n">
-        <v>4073.507257525413</v>
+        <v>3777.022837289704</v>
       </c>
       <c r="H278" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I278" t="n">
-        <v>16338779</v>
+        <v>17213249</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10164,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>99059691</v>
+        <v>99905505</v>
       </c>
       <c r="E279" t="n">
-        <v>151117880</v>
+        <v>152408190</v>
       </c>
       <c r="F279" t="n">
-        <v>6844.709061850936</v>
+        <v>6451.585682626524</v>
       </c>
       <c r="G279" t="n">
-        <v>21334.50787037446</v>
+        <v>19198.7695954786</v>
       </c>
       <c r="H279" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I279" t="n">
-        <v>13191545</v>
+        <v>13238241</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10199,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15568052</v>
+        <v>15501819</v>
       </c>
       <c r="E280" t="n">
-        <v>21358019</v>
+        <v>21267153</v>
       </c>
       <c r="F280" t="n">
-        <v>518.5938504156611</v>
+        <v>1508.838098283732</v>
       </c>
       <c r="G280" t="n">
-        <v>11154.57064340859</v>
+        <v>10469.59380906162</v>
       </c>
       <c r="H280" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I280" t="n">
-        <v>945858</v>
+        <v>941931</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10234,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5071259</v>
+        <v>5074606</v>
       </c>
       <c r="E281" t="n">
-        <v>5071259</v>
+        <v>5074606</v>
       </c>
       <c r="F281" t="n">
-        <v>944.4727753565609</v>
+        <v>488.4529698321472</v>
       </c>
       <c r="G281" t="n">
-        <v>758.2181149163575</v>
+        <v>637.8706798878095</v>
       </c>
       <c r="H281" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I281" t="n">
-        <v>641760</v>
+        <v>656675</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10269,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>120315873</v>
+        <v>120738446</v>
       </c>
       <c r="E282" t="n">
-        <v>461551053</v>
+        <v>463172113</v>
       </c>
       <c r="F282" t="n">
-        <v>66805.14792638329</v>
+        <v>57576.20502516313</v>
       </c>
       <c r="G282" t="n">
-        <v>52440.91543202559</v>
+        <v>69154.98345938917</v>
       </c>
       <c r="H282" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I282" t="n">
-        <v>39443422</v>
+        <v>36256335</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10307,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>722001</v>
+        <v>638424</v>
       </c>
       <c r="F283" t="n">
-        <v>3.910459663045216</v>
+        <v>4.274209487411798</v>
       </c>
       <c r="G283" t="n">
-        <v>3.082408497598929</v>
+        <v>6.026439608367046</v>
       </c>
       <c r="H283" t="n">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="I283" t="n">
-        <v>45597</v>
+        <v>41063</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10339,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3099404</v>
+        <v>3066820</v>
       </c>
       <c r="E284" t="n">
-        <v>29367314</v>
+        <v>29058574</v>
       </c>
       <c r="F284" t="n">
-        <v>763.0679985310011</v>
+        <v>432.0445646543243</v>
       </c>
       <c r="G284" t="n">
-        <v>1312.806062505703</v>
+        <v>1156.043548989186</v>
       </c>
       <c r="H284" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I284" t="n">
-        <v>261933</v>
+        <v>221388</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10377,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>98234</v>
+        <v>95364</v>
       </c>
       <c r="F285" t="n">
-        <v>1381.908160288675</v>
+        <v>1381.566242562377</v>
       </c>
       <c r="G285" t="n">
-        <v>0.04997223309585958</v>
+        <v>251.4103363412545</v>
       </c>
       <c r="H285" t="n">
-        <v>0.6</v>
+        <v>1.04</v>
       </c>
       <c r="I285" t="n">
-        <v>48425</v>
+        <v>47053</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10412,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>129889</v>
+        <v>130076</v>
       </c>
       <c r="F286" t="n">
-        <v>5.486060279501944</v>
+        <v>5.543239197747904</v>
       </c>
       <c r="G286" t="n">
-        <v>44.22733212947447</v>
+        <v>3.983048052789241</v>
       </c>
       <c r="H286" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I286" t="n">
-        <v>64555</v>
+        <v>64523</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10444,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22407280</v>
+        <v>21679598</v>
       </c>
       <c r="E287" t="n">
-        <v>22407280</v>
+        <v>21679598</v>
       </c>
       <c r="F287" t="n">
-        <v>874.5473187822524</v>
+        <v>641.3917055538369</v>
       </c>
       <c r="G287" t="n">
-        <v>1956.919454759514</v>
+        <v>1283.015611566522</v>
       </c>
       <c r="H287" t="n">
-        <v>0.76</v>
+        <v>0.14</v>
       </c>
       <c r="I287" t="n">
-        <v>760199</v>
+        <v>790021</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>558694</v>
+        <v>559560</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10492,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>8117.03</v>
+        <v>8130.82</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10512,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6576881</v>
+        <v>6579895</v>
       </c>
       <c r="E289" t="n">
-        <v>41103622</v>
+        <v>41122458</v>
       </c>
       <c r="F289" t="n">
-        <v>301.2931601656623</v>
+        <v>19.72788004331128</v>
       </c>
       <c r="G289" t="n">
-        <v>21.03897631653713</v>
+        <v>285.6533902366501</v>
       </c>
       <c r="H289" t="n">
-        <v>0.57</v>
+        <v>0.26</v>
       </c>
       <c r="I289" t="n">
-        <v>420879</v>
+        <v>418799</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10547,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493788571</v>
+        <v>493800788</v>
       </c>
       <c r="E290" t="n">
-        <v>493788571</v>
+        <v>493800788</v>
       </c>
       <c r="F290" t="n">
-        <v>1372581.370728541</v>
+        <v>892277.7037385122</v>
       </c>
       <c r="G290" t="n">
-        <v>1317084.179932001</v>
+        <v>1367926.128758026</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>44988647</v>
+        <v>45235117</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10582,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5108173</v>
+        <v>5140620</v>
       </c>
       <c r="E291" t="n">
-        <v>18982068</v>
+        <v>19102642</v>
       </c>
       <c r="F291" t="n">
-        <v>872.264903972297</v>
+        <v>1496.252040708775</v>
       </c>
       <c r="G291" t="n">
-        <v>2418.359826682543</v>
+        <v>1956.816382706382</v>
       </c>
       <c r="H291" t="n">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="I291" t="n">
-        <v>144463</v>
+        <v>144968</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10620,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>35966193</v>
+        <v>36923925</v>
       </c>
       <c r="F292" t="n">
-        <v>7886.294451670399</v>
+        <v>3508.350723870459</v>
       </c>
       <c r="G292" t="n">
-        <v>12242.65623716636</v>
+        <v>12791.67465041504</v>
       </c>
       <c r="H292" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="I292" t="n">
-        <v>8005989</v>
+        <v>8150044</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10652,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>42439817</v>
+        <v>44210932</v>
       </c>
       <c r="E293" t="n">
-        <v>152119594</v>
+        <v>158467908</v>
       </c>
       <c r="F293" t="n">
-        <v>36.85493889107659</v>
+        <v>46.92531339395855</v>
       </c>
       <c r="G293" t="n">
-        <v>42.11756590255864</v>
+        <v>546.5133546336247</v>
       </c>
       <c r="H293" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="I293" t="n">
-        <v>173644</v>
+        <v>178622</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10687,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>797657</v>
+        <v>780962</v>
       </c>
       <c r="E294" t="n">
-        <v>12722344</v>
+        <v>12456062</v>
       </c>
       <c r="F294" t="n">
-        <v>19.01804376194785</v>
+        <v>19.01574177223381</v>
       </c>
       <c r="G294" t="n">
-        <v>7.739447824157502</v>
+        <v>7.738511022796297</v>
       </c>
       <c r="H294" t="n">
         <v>2.36</v>
       </c>
       <c r="I294" t="n">
-        <v>334805</v>
+        <v>335675</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10725,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84924</v>
+        <v>84807</v>
       </c>
       <c r="F295" t="n">
-        <v>22.91178127951981</v>
+        <v>22.91961713435144</v>
       </c>
       <c r="G295" t="n">
-        <v>209.0499434050349</v>
+        <v>209.1214387195676</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
       </c>
       <c r="I295" t="n">
-        <v>54555</v>
+        <v>54331</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10760,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1491405</v>
+        <v>1498476</v>
       </c>
       <c r="F296" t="n">
-        <v>3.20290752106835</v>
+        <v>3.202865607455785</v>
       </c>
       <c r="G296" t="n">
-        <v>4.063050565844502</v>
+        <v>4.062997396302099</v>
       </c>
       <c r="H296" t="n">
         <v>0.23</v>
       </c>
       <c r="I296" t="n">
-        <v>599907</v>
+        <v>596747</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10792,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2500652689</v>
+        <v>2522469096</v>
       </c>
       <c r="E297" t="n">
-        <v>2655042478</v>
+        <v>2678205826</v>
       </c>
       <c r="F297" t="n">
-        <v>41125.96883291878</v>
+        <v>35420.18612204994</v>
       </c>
       <c r="G297" t="n">
-        <v>56059.31479139114</v>
+        <v>52769.16661875549</v>
       </c>
       <c r="H297" t="n">
         <v>0.19</v>
       </c>
       <c r="I297" t="n">
-        <v>59638308</v>
+        <v>59894244</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10827,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2090297</v>
+        <v>2097849</v>
       </c>
       <c r="E298" t="n">
-        <v>16077968</v>
+        <v>16136058</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>108.3329439401899</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>9.697044745825812</v>
       </c>
       <c r="H298" t="n">
-        <v>6.56</v>
+        <v>1.51</v>
       </c>
       <c r="I298" t="n">
-        <v>206506</v>
+        <v>208520</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10862,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1698596</v>
+        <v>1709485</v>
       </c>
       <c r="E299" t="n">
-        <v>1704592</v>
+        <v>1715519</v>
       </c>
       <c r="F299" t="n">
-        <v>1011.532241138452</v>
+        <v>697.3699816047504</v>
       </c>
       <c r="G299" t="n">
-        <v>3622.71327516649</v>
+        <v>3490.404485806907</v>
       </c>
       <c r="H299" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="I299" t="n">
-        <v>466927</v>
+        <v>467688</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10897,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>89327141</v>
+        <v>89436357</v>
       </c>
       <c r="E300" t="n">
-        <v>330188757</v>
+        <v>330591394</v>
       </c>
       <c r="F300" t="n">
-        <v>1835.787342168747</v>
+        <v>1057.186520500841</v>
       </c>
       <c r="G300" t="n">
-        <v>4217.094994536584</v>
+        <v>3694.703226231144</v>
       </c>
       <c r="H300" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="I300" t="n">
-        <v>272140</v>
+        <v>253766</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10932,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2269749</v>
+        <v>2274283</v>
       </c>
       <c r="E301" t="n">
-        <v>9099077</v>
+        <v>9117252</v>
       </c>
       <c r="F301" t="n">
-        <v>5.344308362347661</v>
+        <v>4.057748580639272</v>
       </c>
       <c r="G301" t="n">
-        <v>10.01208353824637</v>
+        <v>4.442256027685395</v>
       </c>
       <c r="H301" t="n">
         <v>0.34</v>
       </c>
       <c r="I301" t="n">
-        <v>9868.790000000001</v>
+        <v>8577.6</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10967,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>56033925</v>
+        <v>56638331</v>
       </c>
       <c r="E302" t="n">
-        <v>137447420</v>
+        <v>138929987</v>
       </c>
       <c r="F302" t="n">
-        <v>1116.849407059617</v>
+        <v>1130.368196244188</v>
       </c>
       <c r="G302" t="n">
-        <v>1579.321812174806</v>
+        <v>1705.773039521048</v>
       </c>
       <c r="H302" t="n">
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
       <c r="I302" t="n">
-        <v>21722386</v>
+        <v>21903163</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11002,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>746822488</v>
+        <v>746030155</v>
       </c>
       <c r="E303" t="n">
-        <v>1151666214</v>
+        <v>1150444368</v>
       </c>
       <c r="F303" t="n">
-        <v>8011.33311759565</v>
+        <v>22.3195058627131</v>
       </c>
       <c r="G303" t="n">
-        <v>32908.2296606341</v>
+        <v>34778.59668853456</v>
       </c>
       <c r="H303" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="I303" t="n">
-        <v>328573229</v>
+        <v>270245856</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11037,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>18198490</v>
+        <v>18997004</v>
       </c>
       <c r="E304" t="n">
-        <v>18198490</v>
+        <v>18997004</v>
       </c>
       <c r="F304" t="n">
-        <v>791.8811768079071</v>
+        <v>1075.700461495059</v>
       </c>
       <c r="G304" t="n">
-        <v>2681.318511180621</v>
+        <v>2262.460405834992</v>
       </c>
       <c r="H304" t="n">
-        <v>1.23</v>
+        <v>0.91</v>
       </c>
       <c r="I304" t="n">
-        <v>7257578</v>
+        <v>7387060</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11072,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1917438</v>
+        <v>1939344</v>
       </c>
       <c r="E305" t="n">
-        <v>3146191</v>
+        <v>3182134</v>
       </c>
       <c r="F305" t="n">
-        <v>310.7811850518564</v>
+        <v>397.2184668430949</v>
       </c>
       <c r="G305" t="n">
-        <v>126.6627525516575</v>
+        <v>5.19296259950566</v>
       </c>
       <c r="H305" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="I305" t="n">
-        <v>118546</v>
+        <v>119506</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11107,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>8548736</v>
+        <v>9282168</v>
       </c>
       <c r="E306" t="n">
-        <v>8548736</v>
+        <v>9282168</v>
       </c>
       <c r="F306" t="n">
-        <v>196.3867624330286</v>
+        <v>5.327753233023173</v>
       </c>
       <c r="G306" t="n">
-        <v>5.241197738383054</v>
+        <v>7.878597572512163</v>
       </c>
       <c r="H306" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="I306" t="n">
-        <v>61645</v>
+        <v>63324</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11142,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39852882</v>
+        <v>39800357</v>
       </c>
       <c r="E307" t="n">
-        <v>190050890</v>
+        <v>189800405</v>
       </c>
       <c r="F307" t="n">
-        <v>1064.226725389217</v>
+        <v>1055.779683777349</v>
       </c>
       <c r="G307" t="n">
-        <v>134.1801251790571</v>
+        <v>153.1268483255313</v>
       </c>
       <c r="H307" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I307" t="n">
-        <v>403919</v>
+        <v>270730</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11177,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>375111</v>
+        <v>374493</v>
       </c>
       <c r="E308" t="n">
-        <v>701564</v>
+        <v>700408</v>
       </c>
       <c r="F308" t="n">
-        <v>31.48468687314065</v>
+        <v>31.49547464031982</v>
       </c>
       <c r="G308" t="n">
-        <v>697.0910705718354</v>
+        <v>697.329920653951</v>
       </c>
       <c r="H308" t="n">
         <v>0.58</v>
       </c>
       <c r="I308" t="n">
-        <v>2074.91</v>
+        <v>2077.32</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11212,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>22409159</v>
+        <v>22505920</v>
       </c>
       <c r="E309" t="n">
-        <v>37348598</v>
+        <v>37509866</v>
       </c>
       <c r="F309" t="n">
-        <v>543.921566954496</v>
+        <v>572.8446503986619</v>
       </c>
       <c r="G309" t="n">
-        <v>468.9824336503638</v>
+        <v>282.234461954195</v>
       </c>
       <c r="H309" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="I309" t="n">
-        <v>1136535</v>
+        <v>1104223</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11250,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>107646</v>
+        <v>107966</v>
       </c>
       <c r="F310" t="n">
-        <v>5.289882797944609</v>
+        <v>5.498233153993472</v>
       </c>
       <c r="G310" t="n">
-        <v>4.054011231280842</v>
+        <v>29.79647285105991</v>
       </c>
       <c r="H310" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="I310" t="n">
-        <v>55043</v>
+        <v>54695</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11282,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>21652410</v>
+        <v>21956130</v>
       </c>
       <c r="E311" t="n">
-        <v>21652410</v>
+        <v>21956130</v>
       </c>
       <c r="F311" t="n">
-        <v>6194.649577696347</v>
+        <v>4050.448520354971</v>
       </c>
       <c r="G311" t="n">
-        <v>6614.452063761269</v>
+        <v>5838.974989766132</v>
       </c>
       <c r="H311" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I311" t="n">
-        <v>5943641</v>
+        <v>5935502</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11317,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3797258</v>
+        <v>3798296</v>
       </c>
       <c r="E312" t="n">
-        <v>8277489</v>
+        <v>8279753</v>
       </c>
       <c r="F312" t="n">
-        <v>1866.571237837302</v>
+        <v>1867.220017747107</v>
       </c>
       <c r="G312" t="n">
-        <v>1967.600635914231</v>
+        <v>1968.284531464117</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>2051059</v>
+        <v>2071066</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11352,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9232256</v>
+        <v>9239493</v>
       </c>
       <c r="E313" t="n">
-        <v>9232256</v>
+        <v>9239493</v>
       </c>
       <c r="F313" t="n">
-        <v>115939.4283274022</v>
+        <v>116940.8026711458</v>
       </c>
       <c r="G313" t="n">
-        <v>14190.03660839157</v>
+        <v>14855.62215422684</v>
       </c>
       <c r="H313" t="n">
         <v>0.04</v>
       </c>
       <c r="I313" t="n">
-        <v>6399804</v>
+        <v>6473313</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11387,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>460817069</v>
+        <v>466922941</v>
       </c>
       <c r="E314" t="n">
-        <v>1604065867</v>
+        <v>1625319897</v>
       </c>
       <c r="F314" t="n">
-        <v>463225.2816674333</v>
+        <v>394797.8442221705</v>
       </c>
       <c r="G314" t="n">
-        <v>471588.7376699409</v>
+        <v>424342.339704851</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>47308903</v>
+        <v>47598588</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11422,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>22084983</v>
+        <v>22252775</v>
       </c>
       <c r="E315" t="n">
-        <v>22065799</v>
+        <v>22233445</v>
       </c>
       <c r="F315" t="n">
-        <v>222.2451465984028</v>
+        <v>300.1143997886455</v>
       </c>
       <c r="G315" t="n">
-        <v>834.8329020854413</v>
+        <v>820.7474820307996</v>
       </c>
       <c r="H315" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="I315" t="n">
-        <v>408869</v>
+        <v>409745</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11457,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>46067717</v>
+        <v>46014633</v>
       </c>
       <c r="E316" t="n">
-        <v>113402011</v>
+        <v>113271346</v>
       </c>
       <c r="F316" t="n">
-        <v>87.498639675927</v>
+        <v>29.67411187802624</v>
       </c>
       <c r="G316" t="n">
-        <v>793.8137482447147</v>
+        <v>878.8834042612872</v>
       </c>
       <c r="H316" t="n">
         <v>0.53</v>
       </c>
       <c r="I316" t="n">
-        <v>117421</v>
+        <v>119334</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11492,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>11837335</v>
+        <v>11983643</v>
       </c>
       <c r="E317" t="n">
-        <v>23892963</v>
+        <v>24185302</v>
       </c>
       <c r="F317" t="n">
-        <v>130.1556414131231</v>
+        <v>130.5306016166311</v>
       </c>
       <c r="G317" t="n">
-        <v>1005.195449299688</v>
+        <v>993.8562836026043</v>
       </c>
       <c r="H317" t="n">
         <v>0.41</v>
       </c>
       <c r="I317" t="n">
-        <v>66891</v>
+        <v>58606</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11527,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7166910</v>
+        <v>7135876</v>
       </c>
       <c r="E318" t="n">
-        <v>18618861</v>
+        <v>18538239</v>
       </c>
       <c r="F318" t="n">
-        <v>5571.149409791933</v>
+        <v>5545.125001897611</v>
       </c>
       <c r="G318" t="n">
-        <v>143.440048625276</v>
+        <v>4017.86828055428</v>
       </c>
       <c r="H318" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I318" t="n">
-        <v>770495</v>
+        <v>771391</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11565,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>142618</v>
+        <v>141565</v>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>1.066357219087331</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>190.890150634764</v>
       </c>
       <c r="H319" t="n">
-        <v>7.29</v>
+        <v>3.67</v>
       </c>
       <c r="I319" t="n">
-        <v>54050</v>
+        <v>53864</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11600,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>18797299899</v>
+        <v>18781767025</v>
       </c>
       <c r="F320" t="n">
-        <v>87.31699238229666</v>
+        <v>68.07923638279152</v>
       </c>
       <c r="G320" t="n">
-        <v>29400.43954723807</v>
+        <v>26755.03727533337</v>
       </c>
       <c r="H320" t="n">
-        <v>0.58</v>
+        <v>0.32</v>
       </c>
       <c r="I320" t="n">
-        <v>33310550</v>
+        <v>31562623</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11632,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>105045879</v>
+        <v>105875395</v>
       </c>
       <c r="E321" t="n">
-        <v>159156644</v>
+        <v>160413457</v>
       </c>
       <c r="F321" t="n">
-        <v>17728.28389156058</v>
+        <v>15121.05913416624</v>
       </c>
       <c r="G321" t="n">
-        <v>16454.16378217571</v>
+        <v>14723.51750234351</v>
       </c>
       <c r="H321" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="I321" t="n">
-        <v>9690429</v>
+        <v>9742656</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11667,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2346309</v>
+        <v>2317915</v>
       </c>
       <c r="E322" t="n">
-        <v>9385237</v>
+        <v>9271662</v>
       </c>
       <c r="F322" t="n">
-        <v>1950.313828747114</v>
+        <v>1356.001127955532</v>
       </c>
       <c r="G322" t="n">
-        <v>1950.217036305402</v>
+        <v>1249.184416075754</v>
       </c>
       <c r="H322" t="n">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="I322" t="n">
-        <v>7552206</v>
+        <v>7728803</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11702,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>207713672</v>
+        <v>210542961</v>
       </c>
       <c r="E323" t="n">
-        <v>638641373</v>
+        <v>647340374</v>
       </c>
       <c r="F323" t="n">
-        <v>81705.83704142399</v>
+        <v>96043.718164105</v>
       </c>
       <c r="G323" t="n">
-        <v>157178.0954235965</v>
+        <v>169500.9385416799</v>
       </c>
       <c r="H323" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I323" t="n">
-        <v>22663358</v>
+        <v>22946816</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11737,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>133450457</v>
+        <v>135108154</v>
       </c>
       <c r="E324" t="n">
-        <v>348635616</v>
+        <v>352966304</v>
       </c>
       <c r="F324" t="n">
-        <v>11185.64690712365</v>
+        <v>13251.12574841382</v>
       </c>
       <c r="G324" t="n">
-        <v>10936.33977763764</v>
+        <v>6169.373670128784</v>
       </c>
       <c r="H324" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I324" t="n">
-        <v>8760770</v>
+        <v>8357525</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11772,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2389378</v>
+        <v>2326190</v>
       </c>
       <c r="E325" t="n">
-        <v>3279396</v>
+        <v>3192592</v>
       </c>
       <c r="F325" t="n">
-        <v>152.8396195924088</v>
+        <v>456.2264272453804</v>
       </c>
       <c r="G325" t="n">
-        <v>2238.356981863116</v>
+        <v>1475.669258133943</v>
       </c>
       <c r="H325" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
       <c r="I325" t="n">
-        <v>994992</v>
+        <v>996427</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11807,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>378237807</v>
+        <v>379640613</v>
       </c>
       <c r="E326" t="n">
-        <v>2161358899</v>
+        <v>2169374930</v>
       </c>
       <c r="F326" t="n">
-        <v>309471.798256744</v>
+        <v>249665.9550163202</v>
       </c>
       <c r="G326" t="n">
-        <v>331639.2915801805</v>
+        <v>290535.7368326377</v>
       </c>
       <c r="H326" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I326" t="n">
-        <v>61627167</v>
+        <v>62664107</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData.xlsx
+++ b/MexcData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93162</v>
+        <v>94252</v>
       </c>
       <c r="F2" t="n">
-        <v>5.397835221629554</v>
+        <v>5.398839873347961</v>
       </c>
       <c r="G2" t="n">
-        <v>33.99795256949607</v>
+        <v>34.00428031016781</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>583.33</v>
+        <v>426.89</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>589841685</v>
+        <v>587953168</v>
       </c>
       <c r="E3" t="n">
-        <v>1144709528</v>
+        <v>1141067602</v>
       </c>
       <c r="F3" t="n">
-        <v>17500.37836957997</v>
+        <v>16499.99819848976</v>
       </c>
       <c r="G3" t="n">
-        <v>29203.82887451389</v>
+        <v>28802.81531782278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I3" t="n">
-        <v>47262453</v>
+        <v>47649489</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249347865</v>
+        <v>251571223</v>
       </c>
       <c r="E4" t="n">
-        <v>1563625413</v>
+        <v>1577567776</v>
       </c>
       <c r="F4" t="n">
-        <v>30708.47174235476</v>
+        <v>23870.00600017072</v>
       </c>
       <c r="G4" t="n">
-        <v>46319.62878077789</v>
+        <v>42044.05499233487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="I4" t="n">
-        <v>26698912</v>
+        <v>27942747</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139669685</v>
+        <v>140098388</v>
       </c>
       <c r="E5" t="n">
-        <v>154775839</v>
+        <v>155250908</v>
       </c>
       <c r="F5" t="n">
-        <v>104854.928524279</v>
+        <v>135691.4638640577</v>
       </c>
       <c r="G5" t="n">
-        <v>207470.0001412133</v>
+        <v>208728.5806925228</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>53568822</v>
+        <v>54004091</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48353455</v>
+        <v>47912784</v>
       </c>
       <c r="E6" t="n">
-        <v>60488933</v>
+        <v>59937664</v>
       </c>
       <c r="F6" t="n">
-        <v>11626.26038055318</v>
+        <v>14481.60526697854</v>
       </c>
       <c r="G6" t="n">
-        <v>12274.36744608679</v>
+        <v>13841.42845284583</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="n">
-        <v>791720</v>
+        <v>557808</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8231976</v>
+        <v>8338147</v>
       </c>
       <c r="E7" t="n">
-        <v>8439555</v>
+        <v>8548405</v>
       </c>
       <c r="F7" t="n">
-        <v>651.9070870906659</v>
+        <v>563.1138858505648</v>
       </c>
       <c r="G7" t="n">
-        <v>1928.361472103737</v>
+        <v>1120.229602189431</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="I7" t="n">
-        <v>74753</v>
+        <v>61700</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66057047</v>
+        <v>65508245</v>
       </c>
       <c r="E8" t="n">
-        <v>131563282</v>
+        <v>130470254</v>
       </c>
       <c r="F8" t="n">
-        <v>25587.33347674315</v>
+        <v>22553.98353062129</v>
       </c>
       <c r="G8" t="n">
-        <v>15931.1093824886</v>
+        <v>16624.19164141775</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="I8" t="n">
-        <v>975500</v>
+        <v>1079123</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4982358</v>
+        <v>4978544</v>
       </c>
       <c r="E9" t="n">
-        <v>7960311</v>
+        <v>7954217</v>
       </c>
       <c r="F9" t="n">
-        <v>315.2317260280007</v>
+        <v>302.7723582401052</v>
       </c>
       <c r="G9" t="n">
-        <v>469.2890498864003</v>
+        <v>448.3639322709986</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I9" t="n">
-        <v>99796</v>
+        <v>98381</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14049919</v>
+        <v>13830292</v>
       </c>
       <c r="E10" t="n">
-        <v>41404204</v>
+        <v>40756977</v>
       </c>
       <c r="F10" t="n">
-        <v>4023.840467819383</v>
+        <v>3962.594972189579</v>
       </c>
       <c r="G10" t="n">
-        <v>2721.514015495097</v>
+        <v>3796.289895282082</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>901542</v>
+        <v>888521</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>116992726</v>
+        <v>117292076</v>
       </c>
       <c r="E11" t="n">
-        <v>458576454</v>
+        <v>459749817</v>
       </c>
       <c r="F11" t="n">
-        <v>68312.90380468873</v>
+        <v>81385.14970560586</v>
       </c>
       <c r="G11" t="n">
-        <v>50175.26447917879</v>
+        <v>67410.01146747968</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>27192530</v>
+        <v>27253782</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8550338</v>
+        <v>8709029</v>
       </c>
       <c r="E12" t="n">
-        <v>36754110</v>
+        <v>37436251</v>
       </c>
       <c r="F12" t="n">
-        <v>2394.933024800252</v>
+        <v>2584.425031911593</v>
       </c>
       <c r="G12" t="n">
-        <v>3390.475095438541</v>
+        <v>2710.427680786022</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="I12" t="n">
-        <v>970503</v>
+        <v>932333</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>995742</v>
+        <v>997005</v>
       </c>
       <c r="E13" t="n">
-        <v>12185197</v>
+        <v>12200651</v>
       </c>
       <c r="F13" t="n">
-        <v>170.0797050274062</v>
+        <v>170.1160998046205</v>
       </c>
       <c r="G13" t="n">
-        <v>137.5587777309227</v>
+        <v>137.5882134655895</v>
       </c>
       <c r="H13" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>613.22</v>
+        <v>591.14</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>561893</v>
+        <v>555747</v>
       </c>
       <c r="E14" t="n">
-        <v>561893</v>
+        <v>555747</v>
       </c>
       <c r="F14" t="n">
-        <v>652.0116711820369</v>
+        <v>333.9256510785119</v>
       </c>
       <c r="G14" t="n">
-        <v>376.0441036210014</v>
+        <v>384.9934135559869</v>
       </c>
       <c r="H14" t="n">
-        <v>0.67</v>
+        <v>1.19</v>
       </c>
       <c r="I14" t="n">
-        <v>20936</v>
+        <v>19809.71</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>545946999</v>
+        <v>547935871</v>
       </c>
       <c r="E15" t="n">
-        <v>682898553</v>
+        <v>685386336</v>
       </c>
       <c r="F15" t="n">
-        <v>410999.3389455077</v>
+        <v>445936.335051231</v>
       </c>
       <c r="G15" t="n">
-        <v>447726.249079194</v>
+        <v>563141.5220607501</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>98827586</v>
+        <v>99093778</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3175261</v>
+        <v>3183604</v>
       </c>
       <c r="E16" t="n">
-        <v>9033337</v>
+        <v>9057073</v>
       </c>
       <c r="F16" t="n">
-        <v>113.7008356551047</v>
+        <v>172.7397003688276</v>
       </c>
       <c r="G16" t="n">
-        <v>73.95417075255847</v>
+        <v>47.49744001202989</v>
       </c>
       <c r="H16" t="n">
         <v>1.3</v>
       </c>
       <c r="I16" t="n">
-        <v>109394</v>
+        <v>109609</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>306505</v>
+        <v>306642</v>
       </c>
       <c r="E17" t="n">
-        <v>3537432</v>
+        <v>3539011</v>
       </c>
       <c r="F17" t="n">
-        <v>5.42427324930947</v>
+        <v>5.424276943033258</v>
       </c>
       <c r="G17" t="n">
-        <v>15.30248347620695</v>
+        <v>15.30249389661621</v>
       </c>
       <c r="H17" t="n">
         <v>0.41</v>
       </c>
       <c r="I17" t="n">
-        <v>916.76</v>
+        <v>917.0700000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1248062</v>
+        <v>1249161</v>
       </c>
       <c r="E18" t="n">
-        <v>9573377</v>
+        <v>9581803</v>
       </c>
       <c r="F18" t="n">
-        <v>87.72910408882338</v>
+        <v>483.6613371751554</v>
       </c>
       <c r="G18" t="n">
-        <v>100.2379675307391</v>
+        <v>86.72361821627551</v>
       </c>
       <c r="H18" t="n">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
       <c r="I18" t="n">
-        <v>123546</v>
+        <v>123717</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23563174</v>
+        <v>23906328</v>
       </c>
       <c r="E19" t="n">
-        <v>23606636</v>
+        <v>23950423</v>
       </c>
       <c r="F19" t="n">
-        <v>1860.873225932678</v>
+        <v>733.1052507950271</v>
       </c>
       <c r="G19" t="n">
-        <v>683.239221310161</v>
+        <v>813.1697000332524</v>
       </c>
       <c r="H19" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="I19" t="n">
-        <v>870586</v>
+        <v>872273</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4103741</v>
+        <v>4110163</v>
       </c>
       <c r="E20" t="n">
-        <v>22769981</v>
+        <v>22805615</v>
       </c>
       <c r="F20" t="n">
-        <v>4.151081276574134</v>
+        <v>4.139574585166632</v>
       </c>
       <c r="G20" t="n">
-        <v>4.255765591334169</v>
+        <v>3.864313311498561</v>
       </c>
       <c r="H20" t="n">
-        <v>1.07</v>
+        <v>0.52</v>
       </c>
       <c r="I20" t="n">
-        <v>18976.9</v>
+        <v>19002.01</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6845131</v>
+        <v>6838718</v>
       </c>
       <c r="E21" t="n">
-        <v>12699162</v>
+        <v>12687264</v>
       </c>
       <c r="F21" t="n">
-        <v>1152.944084204913</v>
+        <v>323.8104364373617</v>
       </c>
       <c r="G21" t="n">
-        <v>773.2569927735929</v>
+        <v>749.6031587580092</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
       <c r="I21" t="n">
-        <v>56081</v>
+        <v>57699</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68729976</v>
+        <v>68878526</v>
       </c>
       <c r="E22" t="n">
-        <v>118981074</v>
+        <v>119235386</v>
       </c>
       <c r="F22" t="n">
-        <v>1779.676685114366</v>
+        <v>1926.907263992065</v>
       </c>
       <c r="G22" t="n">
-        <v>844.6652651565402</v>
+        <v>759.2462268706021</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>828215</v>
+        <v>794716</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>169273</v>
+        <v>169324</v>
       </c>
       <c r="E23" t="n">
-        <v>509093</v>
+        <v>509244</v>
       </c>
       <c r="F23" t="n">
-        <v>8.380356104464823</v>
+        <v>8.467420788037774</v>
       </c>
       <c r="G23" t="n">
-        <v>95.88788930993249</v>
+        <v>95.91496587353451</v>
       </c>
       <c r="H23" t="n">
         <v>0.59</v>
       </c>
       <c r="I23" t="n">
-        <v>181.55</v>
+        <v>181.76</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78819996</v>
+        <v>79026485</v>
       </c>
       <c r="E24" t="n">
-        <v>231898203</v>
+        <v>232505719</v>
       </c>
       <c r="F24" t="n">
-        <v>516.172167821927</v>
+        <v>579.3405717427265</v>
       </c>
       <c r="G24" t="n">
-        <v>741.5295345895444</v>
+        <v>957.3899771706967</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>467373</v>
+        <v>465708</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6702042</v>
+        <v>6664354</v>
       </c>
       <c r="F25" t="n">
-        <v>3.887420749367752</v>
+        <v>4.04201403627853</v>
       </c>
       <c r="G25" t="n">
-        <v>56.8866293176342</v>
+        <v>19.16443203988742</v>
       </c>
       <c r="H25" t="n">
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
       <c r="I25" t="n">
-        <v>18342.44</v>
+        <v>21649</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2345708</v>
+        <v>2352206</v>
       </c>
       <c r="E26" t="n">
-        <v>2345708</v>
+        <v>2352206</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>10.09</v>
+        <v>10.06</v>
       </c>
       <c r="I26" t="n">
-        <v>310977</v>
+        <v>311633</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16213677</v>
+        <v>16223500</v>
       </c>
       <c r="E27" t="n">
-        <v>20868333</v>
+        <v>20880976</v>
       </c>
       <c r="F27" t="n">
-        <v>377.7950629425873</v>
+        <v>460.5502779013182</v>
       </c>
       <c r="G27" t="n">
-        <v>7269.569656550909</v>
+        <v>8060.879947117581</v>
       </c>
       <c r="H27" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1895523</v>
+        <v>1893339</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4564565</v>
+        <v>4544860</v>
       </c>
       <c r="E28" t="n">
-        <v>4564565</v>
+        <v>4544860</v>
       </c>
       <c r="F28" t="n">
-        <v>2163.913925823821</v>
+        <v>1894.02693528347</v>
       </c>
       <c r="G28" t="n">
-        <v>1793.765544312984</v>
+        <v>1781.201807993463</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>2253955</v>
+        <v>2235951</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1969996</v>
+        <v>1987382</v>
       </c>
       <c r="F29" t="n">
-        <v>197.0834939700193</v>
+        <v>30.5417241459348</v>
       </c>
       <c r="G29" t="n">
-        <v>114.0482461369052</v>
+        <v>73.85308213846007</v>
       </c>
       <c r="H29" t="n">
-        <v>2.37</v>
+        <v>2.28</v>
       </c>
       <c r="I29" t="n">
-        <v>307916</v>
+        <v>309574</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3193705</v>
+        <v>3174441</v>
       </c>
       <c r="E30" t="n">
-        <v>3193705</v>
+        <v>3174441</v>
       </c>
       <c r="F30" t="n">
-        <v>142.7361272960702</v>
+        <v>573.2067512249478</v>
       </c>
       <c r="G30" t="n">
-        <v>141.578479028812</v>
+        <v>514.7971452139481</v>
       </c>
       <c r="H30" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="I30" t="n">
-        <v>653442</v>
+        <v>658315</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>296988</v>
+        <v>302595</v>
       </c>
       <c r="E31" t="n">
-        <v>1386368</v>
+        <v>1412543</v>
       </c>
       <c r="F31" t="n">
-        <v>60.72778010218671</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>34.87135309095075</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.76</v>
+        <v>4.03</v>
       </c>
       <c r="I31" t="n">
-        <v>683974</v>
+        <v>678362</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>384219</v>
+        <v>385165</v>
       </c>
       <c r="E32" t="n">
-        <v>384219</v>
+        <v>385165</v>
       </c>
       <c r="F32" t="n">
-        <v>62.60354174233401</v>
+        <v>5.552460156408267</v>
       </c>
       <c r="G32" t="n">
-        <v>5.337970525650186</v>
+        <v>151.9145369055515</v>
       </c>
       <c r="H32" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>57909</v>
+        <v>57517</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1818498</v>
+        <v>1824325</v>
       </c>
       <c r="F33" t="n">
-        <v>4.288176055452563</v>
+        <v>5.563803009636171</v>
       </c>
       <c r="G33" t="n">
-        <v>262.4907387452261</v>
+        <v>251.8095060132672</v>
       </c>
       <c r="H33" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>1374078</v>
+        <v>813275</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1744283</v>
+        <v>1716793</v>
       </c>
       <c r="F34" t="n">
-        <v>102.7404983380697</v>
+        <v>120.599897294126</v>
       </c>
       <c r="G34" t="n">
-        <v>695.1824959572187</v>
+        <v>77.76123662480116</v>
       </c>
       <c r="H34" t="n">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="I34" t="n">
-        <v>1293172</v>
+        <v>1309031</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11832578</v>
+        <v>11933848</v>
       </c>
       <c r="E35" t="n">
-        <v>29449146</v>
+        <v>29701190</v>
       </c>
       <c r="F35" t="n">
-        <v>198.1331389147449</v>
+        <v>1507.403159110143</v>
       </c>
       <c r="G35" t="n">
-        <v>1026.9918234863</v>
+        <v>999.3158631650152</v>
       </c>
       <c r="H35" t="n">
-        <v>1.55</v>
+        <v>0.54</v>
       </c>
       <c r="I35" t="n">
-        <v>1518191</v>
+        <v>1508912</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6944318</v>
+        <v>6962510</v>
       </c>
       <c r="E36" t="n">
-        <v>9564100</v>
+        <v>9589155</v>
       </c>
       <c r="F36" t="n">
-        <v>1950.910024648014</v>
+        <v>485.2675686023688</v>
       </c>
       <c r="G36" t="n">
-        <v>596.3169879848905</v>
+        <v>821.8007650172733</v>
       </c>
       <c r="H36" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="I36" t="n">
-        <v>413212</v>
+        <v>414742</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>886816</v>
+        <v>887867</v>
       </c>
       <c r="E37" t="n">
-        <v>6207710</v>
+        <v>6215071</v>
       </c>
       <c r="F37" t="n">
-        <v>164.9718303216834</v>
+        <v>164.9915571804372</v>
       </c>
       <c r="G37" t="n">
-        <v>673.2369741631001</v>
+        <v>879.95495577206</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I37" t="n">
-        <v>222601</v>
+        <v>204191</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>108154422</v>
+        <v>108687724</v>
       </c>
       <c r="E38" t="n">
-        <v>420390398</v>
+        <v>422438936</v>
       </c>
       <c r="F38" t="n">
-        <v>1337.086912567285</v>
+        <v>505.734119332876</v>
       </c>
       <c r="G38" t="n">
-        <v>4358.694043113189</v>
+        <v>4848.229275661511</v>
       </c>
       <c r="H38" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="I38" t="n">
-        <v>12570132</v>
+        <v>12412449</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5484206</v>
+        <v>5364325</v>
       </c>
       <c r="E39" t="n">
-        <v>5746570</v>
+        <v>5620954</v>
       </c>
       <c r="F39" t="n">
-        <v>1745.025413857214</v>
+        <v>170.8230252703035</v>
       </c>
       <c r="G39" t="n">
-        <v>378.2539103857438</v>
+        <v>1186.466319211177</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I39" t="n">
-        <v>143391</v>
+        <v>162487</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4685077</v>
+        <v>4731183</v>
       </c>
       <c r="E40" t="n">
-        <v>6896687</v>
+        <v>6964558</v>
       </c>
       <c r="F40" t="n">
-        <v>2020.774514551904</v>
+        <v>2103.430518438018</v>
       </c>
       <c r="G40" t="n">
-        <v>2711.126429057098</v>
+        <v>3598.057714495143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="I40" t="n">
-        <v>565702</v>
+        <v>573585</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7499498</v>
+        <v>7504818</v>
       </c>
       <c r="E41" t="n">
-        <v>7499498</v>
+        <v>7504818</v>
       </c>
       <c r="F41" t="n">
-        <v>1559.950335631574</v>
+        <v>1533.22689409728</v>
       </c>
       <c r="G41" t="n">
-        <v>2406.99351055694</v>
+        <v>2489.097712236093</v>
       </c>
       <c r="H41" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="I41" t="n">
-        <v>450364</v>
+        <v>327075</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1485135</v>
+        <v>1458626</v>
       </c>
       <c r="E42" t="n">
-        <v>1485200</v>
+        <v>1458626</v>
       </c>
       <c r="F42" t="n">
-        <v>138.3812519045958</v>
+        <v>52.86817329505597</v>
       </c>
       <c r="G42" t="n">
-        <v>11.11541955738223</v>
+        <v>65.72988344574252</v>
       </c>
       <c r="H42" t="n">
-        <v>0.14</v>
+        <v>1.58</v>
       </c>
       <c r="I42" t="n">
-        <v>285952</v>
+        <v>285752</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15753498</v>
+        <v>15759346</v>
       </c>
       <c r="F43" t="n">
-        <v>139.6874014984829</v>
+        <v>254.8554914141028</v>
       </c>
       <c r="G43" t="n">
-        <v>537.1801409261826</v>
+        <v>437.6014229508295</v>
       </c>
       <c r="H43" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="I43" t="n">
-        <v>14565.83</v>
+        <v>15853.8</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>137184536</v>
+        <v>137261467</v>
       </c>
       <c r="E44" t="n">
-        <v>137184536</v>
+        <v>137261467</v>
       </c>
       <c r="F44" t="n">
-        <v>236478.4222169596</v>
+        <v>280776.9055057935</v>
       </c>
       <c r="G44" t="n">
-        <v>297621.5210760188</v>
+        <v>456439.8110754017</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>95078125</v>
+        <v>91573245</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>63031667</v>
+        <v>63251055</v>
       </c>
       <c r="E45" t="n">
-        <v>323239319</v>
+        <v>324364386</v>
       </c>
       <c r="F45" t="n">
-        <v>42789.42337060282</v>
+        <v>46752.54780691661</v>
       </c>
       <c r="G45" t="n">
-        <v>57287.288222785</v>
+        <v>42479.15888065418</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I45" t="n">
-        <v>27321332</v>
+        <v>27186035</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>597217</v>
+        <v>598435</v>
       </c>
       <c r="F46" t="n">
-        <v>61.33798991401559</v>
+        <v>61.54204192136835</v>
       </c>
       <c r="G46" t="n">
-        <v>476.9090401078495</v>
+        <v>477.0583559343388</v>
       </c>
       <c r="H46" t="n">
         <v>0.74</v>
       </c>
       <c r="I46" t="n">
-        <v>527.09</v>
+        <v>527.54</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2596155</v>
+        <v>2611106</v>
       </c>
       <c r="E47" t="n">
-        <v>10433354</v>
+        <v>10493442</v>
       </c>
       <c r="F47" t="n">
-        <v>473.822886349134</v>
+        <v>473.4205270643366</v>
       </c>
       <c r="G47" t="n">
-        <v>424.1431798951212</v>
+        <v>424.32193285635</v>
       </c>
       <c r="H47" t="n">
         <v>1.9</v>
       </c>
       <c r="I47" t="n">
-        <v>50797</v>
+        <v>49769</v>
       </c>
     </row>
     <row r="48">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18143696</v>
+        <v>18238877</v>
       </c>
       <c r="E48" t="n">
-        <v>126877308</v>
+        <v>127541385</v>
       </c>
       <c r="F48" t="n">
         <v>530.6035985480147</v>
@@ -2122,7 +2122,7 @@
         <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>1063363</v>
+        <v>1065816</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1020337</v>
+        <v>1016880</v>
       </c>
       <c r="E49" t="n">
-        <v>1197632</v>
+        <v>1193574</v>
       </c>
       <c r="F49" t="n">
-        <v>2006.79431440527</v>
+        <v>2002.573226968983</v>
       </c>
       <c r="G49" t="n">
-        <v>360.6010036880639</v>
+        <v>635.1434942687538</v>
       </c>
       <c r="H49" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="I49" t="n">
-        <v>217381</v>
+        <v>213065</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>165167</v>
+        <v>142288</v>
       </c>
       <c r="E50" t="n">
-        <v>2210023</v>
+        <v>1903890</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46068</v>
+        <v>39855</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>248750864</v>
+        <v>248629418</v>
       </c>
       <c r="E51" t="n">
-        <v>248750864</v>
+        <v>248629418</v>
       </c>
       <c r="F51" t="n">
-        <v>16571.43284579953</v>
+        <v>16227.97147586972</v>
       </c>
       <c r="G51" t="n">
-        <v>34920.45452561211</v>
+        <v>39479.03080760098</v>
       </c>
       <c r="H51" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="I51" t="n">
-        <v>26107961</v>
+        <v>26301252</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1106383</v>
+        <v>1110458</v>
       </c>
       <c r="F52" t="n">
-        <v>2.830269448721541</v>
+        <v>4.021166245094138</v>
       </c>
       <c r="G52" t="n">
-        <v>4.023961698898568</v>
+        <v>3.920198888522573</v>
       </c>
       <c r="H52" t="n">
         <v>0.55</v>
       </c>
       <c r="I52" t="n">
-        <v>133330</v>
+        <v>131176</v>
       </c>
     </row>
     <row r="53">
@@ -2280,22 +2280,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2231672</v>
+        <v>2109305</v>
       </c>
       <c r="E53" t="n">
-        <v>2502313</v>
+        <v>2356066</v>
       </c>
       <c r="F53" t="n">
-        <v>17.32752003019725</v>
+        <v>16.06526640945478</v>
       </c>
       <c r="G53" t="n">
-        <v>16.36893545649602</v>
+        <v>227.0577985294781</v>
       </c>
       <c r="H53" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="I53" t="n">
-        <v>446850</v>
+        <v>447113</v>
       </c>
     </row>
     <row r="54">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>111040</v>
+        <v>111008</v>
       </c>
       <c r="E54" t="n">
-        <v>111040</v>
+        <v>111008</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>294.99</v>
+        <v>295.68</v>
       </c>
     </row>
     <row r="55">
@@ -2350,22 +2350,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6812103</v>
+        <v>6769421</v>
       </c>
       <c r="E55" t="n">
-        <v>16546074</v>
+        <v>16442401</v>
       </c>
       <c r="F55" t="n">
-        <v>423.7051073428561</v>
+        <v>635.5109632873257</v>
       </c>
       <c r="G55" t="n">
-        <v>878.1385533348008</v>
+        <v>896.1567152952566</v>
       </c>
       <c r="H55" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="I55" t="n">
-        <v>435066</v>
+        <v>430745</v>
       </c>
     </row>
     <row r="56">
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>416039008</v>
+        <v>415934849</v>
       </c>
       <c r="E56" t="n">
-        <v>416039008</v>
+        <v>415934849</v>
       </c>
       <c r="F56" t="n">
-        <v>9620.838281013461</v>
+        <v>10095.72180996535</v>
       </c>
       <c r="G56" t="n">
-        <v>4399.543050523046</v>
+        <v>3540.756466111065</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I56" t="n">
-        <v>4107040</v>
+        <v>4133240</v>
       </c>
     </row>
     <row r="57">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2474432</v>
+        <v>2466865</v>
       </c>
       <c r="E57" t="n">
-        <v>2474432</v>
+        <v>2466865</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>21.93</v>
       </c>
       <c r="I57" t="n">
-        <v>159521</v>
+        <v>162725</v>
       </c>
     </row>
     <row r="58">
@@ -2455,22 +2455,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>169421774</v>
+        <v>167328876</v>
       </c>
       <c r="E58" t="n">
-        <v>222939240</v>
+        <v>220185232</v>
       </c>
       <c r="F58" t="n">
-        <v>383.7896494441094</v>
+        <v>604.9116425796568</v>
       </c>
       <c r="G58" t="n">
-        <v>4973.521470759189</v>
+        <v>1270.765691674704</v>
       </c>
       <c r="H58" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="I58" t="n">
-        <v>18333965</v>
+        <v>16675702</v>
       </c>
     </row>
     <row r="59">
@@ -2490,22 +2490,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1114108</v>
+        <v>1110265</v>
       </c>
       <c r="E59" t="n">
-        <v>12107708</v>
+        <v>12065949</v>
       </c>
       <c r="F59" t="n">
-        <v>320.0935757419715</v>
+        <v>5.274480716689135</v>
       </c>
       <c r="G59" t="n">
-        <v>5.329499830287814</v>
+        <v>5.260726376083801</v>
       </c>
       <c r="H59" t="n">
         <v>0.36</v>
       </c>
       <c r="I59" t="n">
-        <v>12894.37</v>
+        <v>12879.82</v>
       </c>
     </row>
     <row r="60">
@@ -2525,22 +2525,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2567149</v>
+        <v>2571315</v>
       </c>
       <c r="E60" t="n">
-        <v>6563138</v>
+        <v>6573789</v>
       </c>
       <c r="F60" t="n">
-        <v>273.1752541942569</v>
+        <v>273.1811635940991</v>
       </c>
       <c r="G60" t="n">
-        <v>344.7945169885114</v>
+        <v>344.3056875451099</v>
       </c>
       <c r="H60" t="n">
         <v>0.6</v>
       </c>
       <c r="I60" t="n">
-        <v>81155</v>
+        <v>80763</v>
       </c>
     </row>
     <row r="61">
@@ -2560,22 +2560,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>79865778</v>
+        <v>77806373</v>
       </c>
       <c r="E61" t="n">
-        <v>223445705</v>
+        <v>217730498</v>
       </c>
       <c r="F61" t="n">
-        <v>54629.28533223077</v>
+        <v>67269.1304095401</v>
       </c>
       <c r="G61" t="n">
-        <v>67483.66478327615</v>
+        <v>67098.54956121341</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>60259775</v>
+        <v>54914409</v>
       </c>
     </row>
     <row r="62">
@@ -2595,22 +2595,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>64887775</v>
+        <v>65968968</v>
       </c>
       <c r="E62" t="n">
-        <v>64887775</v>
+        <v>65968968</v>
       </c>
       <c r="F62" t="n">
-        <v>1555.730763009163</v>
+        <v>878.096851730488</v>
       </c>
       <c r="G62" t="n">
-        <v>2334.420390699545</v>
+        <v>2367.534816076914</v>
       </c>
       <c r="H62" t="n">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="I62" t="n">
-        <v>7243459</v>
+        <v>7322523</v>
       </c>
     </row>
     <row r="63">
@@ -2630,22 +2630,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4062449</v>
+        <v>4068215</v>
       </c>
       <c r="E63" t="n">
-        <v>8011492</v>
+        <v>8022863</v>
       </c>
       <c r="F63" t="n">
-        <v>963.4922635567641</v>
+        <v>1418.435101595736</v>
       </c>
       <c r="G63" t="n">
-        <v>1413.830921491718</v>
+        <v>2788.443718278212</v>
       </c>
       <c r="H63" t="n">
-        <v>0.49</v>
+        <v>0.12</v>
       </c>
       <c r="I63" t="n">
-        <v>1676864</v>
+        <v>1692478</v>
       </c>
     </row>
     <row r="64">
@@ -2665,22 +2665,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1597627</v>
+        <v>1601069</v>
       </c>
       <c r="E64" t="n">
-        <v>9172979</v>
+        <v>9192742</v>
       </c>
       <c r="F64" t="n">
-        <v>5.455696912226008</v>
+        <v>2.764501179921221</v>
       </c>
       <c r="G64" t="n">
-        <v>678.3729496343473</v>
+        <v>694.7588383894035</v>
       </c>
       <c r="H64" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="I64" t="n">
-        <v>247832</v>
+        <v>254645</v>
       </c>
     </row>
     <row r="65">
@@ -2703,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>567052</v>
+        <v>513610</v>
       </c>
       <c r="F65" t="n">
-        <v>21.59360734815332</v>
+        <v>21.59417521582742</v>
       </c>
       <c r="G65" t="n">
-        <v>188.4603848542254</v>
+        <v>203.4561715253188</v>
       </c>
       <c r="H65" t="n">
         <v>0.34</v>
       </c>
       <c r="I65" t="n">
-        <v>5359.77</v>
+        <v>5368.15</v>
       </c>
     </row>
     <row r="66">
@@ -2738,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31113714</v>
+        <v>31162803</v>
       </c>
       <c r="F66" t="n">
-        <v>815.7381988748061</v>
+        <v>772.9424460731694</v>
       </c>
       <c r="G66" t="n">
-        <v>752.5255147787936</v>
+        <v>687.348012897733</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>225416</v>
+        <v>222492</v>
       </c>
     </row>
     <row r="67">
@@ -2770,22 +2770,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>162757</v>
+        <v>163215</v>
       </c>
       <c r="E67" t="n">
-        <v>1099114</v>
+        <v>1102209</v>
       </c>
       <c r="F67" t="n">
-        <v>83.97793203069945</v>
+        <v>124.2010864238441</v>
       </c>
       <c r="G67" t="n">
-        <v>84.69493828284973</v>
+        <v>69.68529001103563</v>
       </c>
       <c r="H67" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I67" t="n">
-        <v>3211380</v>
+        <v>3220161</v>
       </c>
     </row>
     <row r="68">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>17191268</v>
+        <v>17155190</v>
       </c>
       <c r="E68" t="n">
-        <v>18119193</v>
+        <v>18081168</v>
       </c>
       <c r="F68" t="n">
-        <v>1149.338051219441</v>
+        <v>1348.139860766919</v>
       </c>
       <c r="G68" t="n">
-        <v>1724.959988422498</v>
+        <v>1545.636745578452</v>
       </c>
       <c r="H68" t="n">
         <v>1.16</v>
       </c>
       <c r="I68" t="n">
-        <v>50781</v>
+        <v>50195</v>
       </c>
     </row>
     <row r="69">
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2986019</v>
+        <v>2910135</v>
       </c>
       <c r="E69" t="n">
-        <v>2986019</v>
+        <v>2910135</v>
       </c>
       <c r="F69" t="n">
-        <v>898.1545632371685</v>
+        <v>923.6063714535617</v>
       </c>
       <c r="G69" t="n">
-        <v>3.132975062981409</v>
+        <v>3.133506130328733</v>
       </c>
       <c r="H69" t="n">
         <v>0.67</v>
       </c>
       <c r="I69" t="n">
-        <v>14276.23</v>
+        <v>15535.5</v>
       </c>
     </row>
     <row r="70">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3316130</v>
+        <v>3325492</v>
       </c>
       <c r="E70" t="n">
-        <v>8182383</v>
+        <v>8205482</v>
       </c>
       <c r="F70" t="n">
-        <v>1147.768799964857</v>
+        <v>1113.392124742916</v>
       </c>
       <c r="G70" t="n">
-        <v>1127.545174452505</v>
+        <v>1149.159846419238</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>42653</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="71">
@@ -2913,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23032678</v>
+        <v>23066946</v>
       </c>
       <c r="F71" t="n">
-        <v>5.482122812201992</v>
+        <v>4.104869687345178</v>
       </c>
       <c r="G71" t="n">
-        <v>348.7674081177759</v>
+        <v>323.914715286898</v>
       </c>
       <c r="H71" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>128695</v>
+        <v>128749</v>
       </c>
     </row>
     <row r="72">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>248444</v>
+        <v>245753</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3880.45</v>
+        <v>3879.69</v>
       </c>
     </row>
     <row r="73">
@@ -2978,22 +2978,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>85574927</v>
+        <v>87958598</v>
       </c>
       <c r="E73" t="n">
-        <v>178416849</v>
+        <v>183386613</v>
       </c>
       <c r="F73" t="n">
-        <v>15395.83825934046</v>
+        <v>21269.22060085067</v>
       </c>
       <c r="G73" t="n">
-        <v>166.9917440493373</v>
+        <v>2149.160180660815</v>
       </c>
       <c r="H73" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>72182233</v>
+        <v>76849524</v>
       </c>
     </row>
     <row r="74">
@@ -3043,19 +3043,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>189041260</v>
+        <v>185869514</v>
       </c>
       <c r="F75" t="n">
-        <v>17967.59448318199</v>
+        <v>7669.861145189275</v>
       </c>
       <c r="G75" t="n">
-        <v>6688.79512936343</v>
+        <v>4753.44982436859</v>
       </c>
       <c r="H75" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I75" t="n">
-        <v>3493166</v>
+        <v>3429380</v>
       </c>
     </row>
     <row r="76">
@@ -3075,22 +3075,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>82767359</v>
+        <v>83208292</v>
       </c>
       <c r="E76" t="n">
-        <v>113652464</v>
+        <v>114257934</v>
       </c>
       <c r="F76" t="n">
-        <v>820.6317671959575</v>
+        <v>1284.583936657641</v>
       </c>
       <c r="G76" t="n">
-        <v>2616.420525304401</v>
+        <v>2601.105766038869</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="I76" t="n">
-        <v>1067356</v>
+        <v>1221376</v>
       </c>
     </row>
     <row r="77">
@@ -3110,22 +3110,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>186729</v>
+        <v>187586</v>
       </c>
       <c r="E77" t="n">
-        <v>194998</v>
+        <v>195894</v>
       </c>
       <c r="F77" t="n">
-        <v>5.115951919835905</v>
+        <v>5.731485884300424</v>
       </c>
       <c r="G77" t="n">
-        <v>79.9523907044796</v>
+        <v>75.07143502791249</v>
       </c>
       <c r="H77" t="n">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>183.23</v>
+        <v>185.34</v>
       </c>
     </row>
     <row r="78">
@@ -3145,22 +3145,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7463359</v>
+        <v>7424803</v>
       </c>
       <c r="E78" t="n">
-        <v>8210193</v>
+        <v>8167780</v>
       </c>
       <c r="F78" t="n">
-        <v>247.4036981859946</v>
+        <v>336.8401145013868</v>
       </c>
       <c r="G78" t="n">
-        <v>215.8070493380649</v>
+        <v>617.6575509052155</v>
       </c>
       <c r="H78" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="I78" t="n">
-        <v>629790</v>
+        <v>610538</v>
       </c>
     </row>
     <row r="79">
@@ -3180,22 +3180,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27933413</v>
+        <v>28091092</v>
       </c>
       <c r="E79" t="n">
-        <v>27933413</v>
+        <v>28091092</v>
       </c>
       <c r="F79" t="n">
-        <v>8099.142527232212</v>
+        <v>7853.909289636503</v>
       </c>
       <c r="G79" t="n">
-        <v>75.86775182654512</v>
+        <v>286.5788185713927</v>
       </c>
       <c r="H79" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
       <c r="I79" t="n">
-        <v>281044</v>
+        <v>282461</v>
       </c>
     </row>
     <row r="80">
@@ -3215,22 +3215,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>272263682</v>
+        <v>274898524</v>
       </c>
       <c r="E80" t="n">
-        <v>272263682</v>
+        <v>274898524</v>
       </c>
       <c r="F80" t="n">
-        <v>59.27088080479353</v>
+        <v>3124.755192218256</v>
       </c>
       <c r="G80" t="n">
-        <v>49.325876847207</v>
+        <v>981.7930603696736</v>
       </c>
       <c r="H80" t="n">
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
       <c r="I80" t="n">
-        <v>12285470</v>
+        <v>11999856</v>
       </c>
     </row>
     <row r="81">
@@ -3250,22 +3250,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>645177399</v>
+        <v>645974338</v>
       </c>
       <c r="E81" t="n">
-        <v>645177399</v>
+        <v>645974338</v>
       </c>
       <c r="F81" t="n">
-        <v>1350637.94269561</v>
+        <v>1173489.777162872</v>
       </c>
       <c r="G81" t="n">
-        <v>1113158.994865923</v>
+        <v>1235330.394424582</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>555388451</v>
+        <v>553811545</v>
       </c>
     </row>
     <row r="82">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113168</v>
+        <v>113385</v>
       </c>
       <c r="E82" t="n">
-        <v>113168</v>
+        <v>113385</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1335.37</v>
+        <v>1175.42</v>
       </c>
     </row>
     <row r="83">
@@ -3318,22 +3318,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>195130910</v>
+        <v>194892617</v>
       </c>
       <c r="E83" t="n">
-        <v>677902418</v>
+        <v>677074566</v>
       </c>
       <c r="F83" t="n">
-        <v>717.6902123136969</v>
+        <v>19.52999362650111</v>
       </c>
       <c r="G83" t="n">
-        <v>2401.243036026026</v>
+        <v>2135.282254984671</v>
       </c>
       <c r="H83" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I83" t="n">
-        <v>41365261</v>
+        <v>41309282</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3296679</v>
+        <v>3269869</v>
       </c>
       <c r="E84" t="n">
-        <v>3296679</v>
+        <v>3269869</v>
       </c>
       <c r="F84" t="n">
-        <v>603.6731466566855</v>
+        <v>316.7036976812884</v>
       </c>
       <c r="G84" t="n">
-        <v>1811.855132342849</v>
+        <v>2382.869078133237</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="I84" t="n">
-        <v>2200148</v>
+        <v>2028942</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>108494605</v>
+        <v>108874001</v>
       </c>
       <c r="E85" t="n">
-        <v>460146313</v>
+        <v>461707203</v>
       </c>
       <c r="F85" t="n">
-        <v>240784.775429184</v>
+        <v>252161.0751650977</v>
       </c>
       <c r="G85" t="n">
-        <v>256892.7313554336</v>
+        <v>240119.3634114286</v>
       </c>
       <c r="H85" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I85" t="n">
-        <v>15005084</v>
+        <v>15082651</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>75587452</v>
+        <v>74820017</v>
       </c>
       <c r="E86" t="n">
-        <v>86726973</v>
+        <v>85846439</v>
       </c>
       <c r="F86" t="n">
-        <v>1387.189141310628</v>
+        <v>1552.350323207829</v>
       </c>
       <c r="G86" t="n">
-        <v>7962.442820277208</v>
+        <v>3827.556277132189</v>
       </c>
       <c r="H86" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="I86" t="n">
-        <v>1689125</v>
+        <v>1712021</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3258332</v>
+        <v>3202796</v>
       </c>
       <c r="E87" t="n">
-        <v>16337668</v>
+        <v>16059201</v>
       </c>
       <c r="F87" t="n">
-        <v>8.061975953690441</v>
+        <v>8.063401005592722</v>
       </c>
       <c r="G87" t="n">
-        <v>181.8862389355597</v>
+        <v>179.5693215236588</v>
       </c>
       <c r="H87" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="I87" t="n">
-        <v>31355</v>
+        <v>32165</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>514849</v>
+        <v>535784</v>
       </c>
       <c r="E88" t="n">
-        <v>8806456</v>
+        <v>9164556</v>
       </c>
       <c r="F88" t="n">
-        <v>5.484138434613882</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>930.9907669813209</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.31</v>
+        <v>7.71</v>
       </c>
       <c r="I88" t="n">
-        <v>120859</v>
+        <v>140751</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5624297</v>
+        <v>5667626</v>
       </c>
       <c r="E89" t="n">
-        <v>7632769</v>
+        <v>7691455</v>
       </c>
       <c r="F89" t="n">
-        <v>100.0957439703867</v>
+        <v>1477.440962787252</v>
       </c>
       <c r="G89" t="n">
-        <v>982.9815961118519</v>
+        <v>112.9734728527516</v>
       </c>
       <c r="H89" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="I89" t="n">
-        <v>5465617</v>
+        <v>5550142</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>38498253</v>
+        <v>38679778</v>
       </c>
       <c r="E90" t="n">
-        <v>44965045</v>
+        <v>45177062</v>
       </c>
       <c r="F90" t="n">
-        <v>1121.742331491368</v>
+        <v>305.9794737832044</v>
       </c>
       <c r="G90" t="n">
-        <v>3.79924036586334</v>
+        <v>3.87960999032797</v>
       </c>
       <c r="H90" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="I90" t="n">
-        <v>898918</v>
+        <v>899100</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14090141</v>
+        <v>14097720</v>
       </c>
       <c r="F91" t="n">
-        <v>213.2936915354143</v>
+        <v>204.3349263952877</v>
       </c>
       <c r="G91" t="n">
-        <v>109.6530800507537</v>
+        <v>147.4456717386845</v>
       </c>
       <c r="H91" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="I91" t="n">
-        <v>232736</v>
+        <v>234018</v>
       </c>
     </row>
     <row r="92">
@@ -3633,22 +3633,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34664387</v>
+        <v>34944004</v>
       </c>
       <c r="E92" t="n">
-        <v>34664387</v>
+        <v>34944004</v>
       </c>
       <c r="F92" t="n">
-        <v>199.7002217937927</v>
+        <v>141.0865326973251</v>
       </c>
       <c r="G92" t="n">
-        <v>41.94026853608084</v>
+        <v>767.2923491181554</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="I92" t="n">
-        <v>952310</v>
+        <v>950950</v>
       </c>
     </row>
     <row r="93">
@@ -3671,19 +3671,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17128746</v>
+        <v>17110193</v>
       </c>
       <c r="F93" t="n">
-        <v>266.3973898969208</v>
+        <v>266.3507710076615</v>
       </c>
       <c r="G93" t="n">
-        <v>309.0623631701088</v>
+        <v>242.9113059490551</v>
       </c>
       <c r="H93" t="n">
         <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>163557</v>
+        <v>153525</v>
       </c>
     </row>
     <row r="94">
@@ -3703,22 +3703,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>544914</v>
+        <v>562737</v>
       </c>
       <c r="E94" t="n">
-        <v>6609274</v>
+        <v>6825446</v>
       </c>
       <c r="F94" t="n">
-        <v>857.3546089071709</v>
+        <v>719.3000435862226</v>
       </c>
       <c r="G94" t="n">
-        <v>304.3653823838047</v>
+        <v>940.6795581968015</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="I94" t="n">
-        <v>2908761</v>
+        <v>2964667</v>
       </c>
     </row>
     <row r="95">
@@ -3738,22 +3738,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>24402027</v>
+        <v>24333501</v>
       </c>
       <c r="E95" t="n">
-        <v>34483999</v>
+        <v>34387161</v>
       </c>
       <c r="F95" t="n">
-        <v>5.321668948058575</v>
+        <v>5.322305297982489</v>
       </c>
       <c r="G95" t="n">
-        <v>2310.226650701669</v>
+        <v>1515.68285626116</v>
       </c>
       <c r="H95" t="n">
         <v>0.84</v>
       </c>
       <c r="I95" t="n">
-        <v>157311</v>
+        <v>174747</v>
       </c>
     </row>
     <row r="96">
@@ -3773,22 +3773,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1403526327</v>
+        <v>1456643172</v>
       </c>
       <c r="E96" t="n">
-        <v>6730196174</v>
+        <v>6984902325</v>
       </c>
       <c r="F96" t="n">
-        <v>225704.0933775062</v>
+        <v>255951.2591607671</v>
       </c>
       <c r="G96" t="n">
-        <v>153897.9499006574</v>
+        <v>161313.7300415442</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>501680120</v>
+        <v>521512823</v>
       </c>
     </row>
     <row r="97">
@@ -3808,22 +3808,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>256790031</v>
+        <v>258845526</v>
       </c>
       <c r="E97" t="n">
-        <v>1108448327</v>
+        <v>1117320987</v>
       </c>
       <c r="F97" t="n">
-        <v>259136.5718049479</v>
+        <v>218674.7842629571</v>
       </c>
       <c r="G97" t="n">
-        <v>573680.3873308372</v>
+        <v>921107.504274386</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>142684413</v>
+        <v>142305124</v>
       </c>
     </row>
     <row r="98">
@@ -3843,22 +3843,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4764790</v>
+        <v>4773318</v>
       </c>
       <c r="E98" t="n">
-        <v>5280337</v>
+        <v>5289787</v>
       </c>
       <c r="F98" t="n">
-        <v>328.2649028198139</v>
+        <v>217.5883850834126</v>
       </c>
       <c r="G98" t="n">
-        <v>622.6640908221297</v>
+        <v>594.2756420073437</v>
       </c>
       <c r="H98" t="n">
         <v>0.49</v>
       </c>
       <c r="I98" t="n">
-        <v>756490</v>
+        <v>772853</v>
       </c>
     </row>
     <row r="99">
@@ -3878,22 +3878,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93942</v>
+        <v>94126</v>
       </c>
       <c r="E99" t="n">
-        <v>93942</v>
+        <v>94126</v>
       </c>
       <c r="F99" t="n">
-        <v>3.965016093528531</v>
+        <v>46.905130149303</v>
       </c>
       <c r="G99" t="n">
-        <v>51.85962571162323</v>
+        <v>51.84156568610833</v>
       </c>
       <c r="H99" t="n">
         <v>0.71</v>
       </c>
       <c r="I99" t="n">
-        <v>1341.33</v>
+        <v>1340.75</v>
       </c>
     </row>
     <row r="100">
@@ -3913,22 +3913,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>112151048</v>
+        <v>112416808</v>
       </c>
       <c r="E100" t="n">
-        <v>112151048</v>
+        <v>112416808</v>
       </c>
       <c r="F100" t="n">
-        <v>9407.359406838304</v>
+        <v>5477.964768782797</v>
       </c>
       <c r="G100" t="n">
-        <v>27313.45815827412</v>
+        <v>8075.00747751293</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>7084030</v>
+        <v>7030101</v>
       </c>
     </row>
     <row r="101">
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3964279</v>
+        <v>3977792</v>
       </c>
       <c r="F101" t="n">
-        <v>2015.084117366534</v>
+        <v>916.3293655185709</v>
       </c>
       <c r="G101" t="n">
-        <v>805.1851996636016</v>
+        <v>466.1311724849781</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>346829</v>
+        <v>351980</v>
       </c>
     </row>
     <row r="102">
@@ -3983,22 +3983,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2037037768</v>
+        <v>2050373303</v>
       </c>
       <c r="E102" t="n">
-        <v>2037037768</v>
+        <v>2050373303</v>
       </c>
       <c r="F102" t="n">
-        <v>9521435.981453598</v>
+        <v>10050732.51435284</v>
       </c>
       <c r="G102" t="n">
-        <v>5203230.941671121</v>
+        <v>4031444.543427606</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>9158056234</v>
+        <v>9258944168</v>
       </c>
     </row>
     <row r="103">
@@ -4018,22 +4018,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5314754</v>
+        <v>5351602</v>
       </c>
       <c r="E103" t="n">
-        <v>5320769</v>
+        <v>5357659</v>
       </c>
       <c r="F103" t="n">
-        <v>236.9167686392695</v>
+        <v>235.5854004557272</v>
       </c>
       <c r="G103" t="n">
-        <v>100.14951914803</v>
+        <v>100.2017637634726</v>
       </c>
       <c r="H103" t="n">
         <v>0.57</v>
       </c>
       <c r="I103" t="n">
-        <v>143229</v>
+        <v>143048</v>
       </c>
     </row>
     <row r="104">
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2453894</v>
+        <v>2449787</v>
       </c>
       <c r="F104" t="n">
-        <v>3.995654734389335</v>
+        <v>4.120188633913357</v>
       </c>
       <c r="G104" t="n">
-        <v>195.9816894031213</v>
+        <v>220.7324054364385</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I104" t="n">
-        <v>48390</v>
+        <v>48978</v>
       </c>
     </row>
     <row r="105">
@@ -4088,22 +4088,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4134957</v>
+        <v>4164700</v>
       </c>
       <c r="E105" t="n">
-        <v>5428659</v>
+        <v>5467708</v>
       </c>
       <c r="F105" t="n">
-        <v>527.8295961485359</v>
+        <v>507.9830773382586</v>
       </c>
       <c r="G105" t="n">
-        <v>2192.237891895471</v>
+        <v>2040.359267695405</v>
       </c>
       <c r="H105" t="n">
         <v>0.14</v>
       </c>
       <c r="I105" t="n">
-        <v>569809</v>
+        <v>575279</v>
       </c>
     </row>
     <row r="106">
@@ -4126,19 +4126,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19133447</v>
+        <v>19121855</v>
       </c>
       <c r="F106" t="n">
-        <v>121.4590183879153</v>
+        <v>206.1605743725352</v>
       </c>
       <c r="G106" t="n">
-        <v>1480.695134104452</v>
+        <v>99.91318742324779</v>
       </c>
       <c r="H106" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I106" t="n">
-        <v>55973</v>
+        <v>75779</v>
       </c>
     </row>
     <row r="107">
@@ -4158,22 +4158,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1499540</v>
+        <v>1494619</v>
       </c>
       <c r="E107" t="n">
-        <v>5590218</v>
+        <v>5571874</v>
       </c>
       <c r="F107" t="n">
-        <v>167.3012439174868</v>
+        <v>258.0151094312882</v>
       </c>
       <c r="G107" t="n">
-        <v>136.7851149163037</v>
+        <v>3589.775172074968</v>
       </c>
       <c r="H107" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="I107" t="n">
-        <v>725088</v>
+        <v>750683</v>
       </c>
     </row>
     <row r="108">
@@ -4193,22 +4193,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4051956</v>
+        <v>4047717</v>
       </c>
       <c r="E108" t="n">
-        <v>11670127</v>
+        <v>11657885</v>
       </c>
       <c r="F108" t="n">
-        <v>1006.001733959371</v>
+        <v>1241.346477965239</v>
       </c>
       <c r="G108" t="n">
-        <v>6951.656153508106</v>
+        <v>6845.334190195153</v>
       </c>
       <c r="H108" t="n">
-        <v>1.19</v>
+        <v>0.85</v>
       </c>
       <c r="I108" t="n">
-        <v>460784</v>
+        <v>485608</v>
       </c>
     </row>
     <row r="109">
@@ -4228,22 +4228,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>78438737</v>
+        <v>78257958</v>
       </c>
       <c r="E109" t="n">
-        <v>99819389</v>
+        <v>99589334</v>
       </c>
       <c r="F109" t="n">
-        <v>4605.446467662794</v>
+        <v>4655.259161954086</v>
       </c>
       <c r="G109" t="n">
-        <v>832.2589060156994</v>
+        <v>337.2742439419024</v>
       </c>
       <c r="H109" t="n">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="I109" t="n">
-        <v>6513997</v>
+        <v>5831222</v>
       </c>
     </row>
     <row r="110">
@@ -4263,22 +4263,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21765611</v>
+        <v>21876315</v>
       </c>
       <c r="E110" t="n">
-        <v>28234976</v>
+        <v>28378585</v>
       </c>
       <c r="F110" t="n">
-        <v>18480.45322481701</v>
+        <v>12958.60477563194</v>
       </c>
       <c r="G110" t="n">
-        <v>15110.54108954115</v>
+        <v>16757.92075757325</v>
       </c>
       <c r="H110" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="I110" t="n">
-        <v>224805</v>
+        <v>233732</v>
       </c>
     </row>
     <row r="111">
@@ -4298,22 +4298,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>602181</v>
+        <v>603826</v>
       </c>
       <c r="E111" t="n">
-        <v>602181</v>
+        <v>603826</v>
       </c>
       <c r="F111" t="n">
-        <v>4.203814007760311</v>
+        <v>4.204316687793605</v>
       </c>
       <c r="G111" t="n">
-        <v>56.125213289629</v>
+        <v>57.46750533037284</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="I111" t="n">
-        <v>63813</v>
+        <v>62122</v>
       </c>
     </row>
     <row r="112">
@@ -4333,22 +4333,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13685836</v>
+        <v>14078425</v>
       </c>
       <c r="E112" t="n">
-        <v>13685836</v>
+        <v>14078425</v>
       </c>
       <c r="F112" t="n">
-        <v>2789.653677542486</v>
+        <v>2739.631340613153</v>
       </c>
       <c r="G112" t="n">
-        <v>2640.917225514146</v>
+        <v>1796.005543346919</v>
       </c>
       <c r="H112" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="I112" t="n">
-        <v>5560715</v>
+        <v>5708900</v>
       </c>
     </row>
     <row r="113">
@@ -4368,22 +4368,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98285674</v>
+        <v>97949939</v>
       </c>
       <c r="E113" t="n">
-        <v>121575861</v>
+        <v>121160569</v>
       </c>
       <c r="F113" t="n">
-        <v>1461.501749057536</v>
+        <v>1248.870983509035</v>
       </c>
       <c r="G113" t="n">
-        <v>131.6914831044554</v>
+        <v>150.0079102714778</v>
       </c>
       <c r="H113" t="n">
-        <v>0.14</v>
+        <v>0.55</v>
       </c>
       <c r="I113" t="n">
-        <v>1075303</v>
+        <v>1045315</v>
       </c>
     </row>
     <row r="114">
@@ -4406,19 +4406,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>839820</v>
+        <v>825293</v>
       </c>
       <c r="F114" t="n">
-        <v>181.4653352151147</v>
+        <v>203.190124730941</v>
       </c>
       <c r="G114" t="n">
-        <v>196.2289446618477</v>
+        <v>187.0500249442613</v>
       </c>
       <c r="H114" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I114" t="n">
-        <v>42359</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="115">
@@ -4441,19 +4441,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2612761</v>
+        <v>2608611</v>
       </c>
       <c r="F115" t="n">
-        <v>626.005442263083</v>
+        <v>305.181550417942</v>
       </c>
       <c r="G115" t="n">
-        <v>123.9965101145116</v>
+        <v>115.6577358228596</v>
       </c>
       <c r="H115" t="n">
-        <v>2.49</v>
+        <v>2.14</v>
       </c>
       <c r="I115" t="n">
-        <v>71226</v>
+        <v>66455</v>
       </c>
     </row>
     <row r="116">
@@ -4473,22 +4473,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>10901476</v>
+        <v>10966278</v>
       </c>
       <c r="E116" t="n">
-        <v>16031582</v>
+        <v>16126878</v>
       </c>
       <c r="F116" t="n">
-        <v>2309.423315258582</v>
+        <v>2265.482077757094</v>
       </c>
       <c r="G116" t="n">
-        <v>3163.304943016255</v>
+        <v>3133.556622518125</v>
       </c>
       <c r="H116" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I116" t="n">
-        <v>472927</v>
+        <v>455306</v>
       </c>
     </row>
     <row r="117">
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3169041</v>
+        <v>3259123</v>
       </c>
       <c r="F117" t="n">
-        <v>48.93588416299183</v>
+        <v>25.7391030353711</v>
       </c>
       <c r="G117" t="n">
-        <v>152.2480191363097</v>
+        <v>685.9025974016561</v>
       </c>
       <c r="H117" t="n">
-        <v>0.13</v>
+        <v>0.57</v>
       </c>
       <c r="I117" t="n">
-        <v>37221</v>
+        <v>40193</v>
       </c>
     </row>
     <row r="118">
@@ -4546,19 +4546,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1125662</v>
+        <v>1128113</v>
       </c>
       <c r="F118" t="n">
-        <v>4.004814499820157</v>
+        <v>4.069845548846652</v>
       </c>
       <c r="G118" t="n">
-        <v>47.30419460432389</v>
+        <v>30.70544586503384</v>
       </c>
       <c r="H118" t="n">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="I118" t="n">
-        <v>3601.61</v>
+        <v>3616.29</v>
       </c>
     </row>
     <row r="119">
@@ -4578,22 +4578,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4999310</v>
+        <v>4956382</v>
       </c>
       <c r="E119" t="n">
-        <v>6994759</v>
+        <v>6934697</v>
       </c>
       <c r="F119" t="n">
-        <v>1355.062825970699</v>
+        <v>183.5143385736168</v>
       </c>
       <c r="G119" t="n">
-        <v>1603.599443918902</v>
+        <v>1172.149234412765</v>
       </c>
       <c r="H119" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="I119" t="n">
-        <v>69846</v>
+        <v>66724</v>
       </c>
     </row>
     <row r="120">
@@ -4613,22 +4613,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9804806</v>
+        <v>9684571</v>
       </c>
       <c r="E120" t="n">
-        <v>27006920</v>
+        <v>26675737</v>
       </c>
       <c r="F120" t="n">
-        <v>40.78908706861836</v>
+        <v>444.611270354487</v>
       </c>
       <c r="G120" t="n">
-        <v>42.24003533206785</v>
+        <v>171.3241127244793</v>
       </c>
       <c r="H120" t="n">
-        <v>1.28</v>
+        <v>0.59</v>
       </c>
       <c r="I120" t="n">
-        <v>329773</v>
+        <v>335370</v>
       </c>
     </row>
     <row r="121">
@@ -4648,22 +4648,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>49673960</v>
+        <v>50002721</v>
       </c>
       <c r="E121" t="n">
-        <v>126547253</v>
+        <v>127384790</v>
       </c>
       <c r="F121" t="n">
-        <v>1811.572498910209</v>
+        <v>620.3258707395936</v>
       </c>
       <c r="G121" t="n">
-        <v>11716.62637683944</v>
+        <v>10956.21507374115</v>
       </c>
       <c r="H121" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="I121" t="n">
-        <v>2254267</v>
+        <v>2257648</v>
       </c>
     </row>
     <row r="122">
@@ -4683,22 +4683,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>13974841</v>
+        <v>14045645</v>
       </c>
       <c r="E122" t="n">
-        <v>67682386</v>
+        <v>68025298</v>
       </c>
       <c r="F122" t="n">
-        <v>2178.548680589516</v>
+        <v>2113.099488133941</v>
       </c>
       <c r="G122" t="n">
-        <v>1432.362952650756</v>
+        <v>1797.580412195212</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="I122" t="n">
-        <v>5644356</v>
+        <v>5652358</v>
       </c>
     </row>
     <row r="123">
@@ -4721,19 +4721,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>626915</v>
+        <v>627862</v>
       </c>
       <c r="F123" t="n">
-        <v>4.276105999709165</v>
+        <v>4.276617324211707</v>
       </c>
       <c r="G123" t="n">
-        <v>377.2621152719742</v>
+        <v>296.6339405617185</v>
       </c>
       <c r="H123" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I123" t="n">
-        <v>11977.97</v>
+        <v>11909.05</v>
       </c>
     </row>
     <row r="124">
@@ -4753,22 +4753,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4419180</v>
+        <v>4400637</v>
       </c>
       <c r="E124" t="n">
-        <v>10073326</v>
+        <v>10031057</v>
       </c>
       <c r="F124" t="n">
-        <v>2516.055012372639</v>
+        <v>1810.590011084298</v>
       </c>
       <c r="G124" t="n">
-        <v>1195.814560588072</v>
+        <v>420.2189884701602</v>
       </c>
       <c r="H124" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="I124" t="n">
-        <v>67175</v>
+        <v>66199</v>
       </c>
     </row>
     <row r="125">
@@ -4791,19 +4791,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1838765723</v>
+        <v>1844644801</v>
       </c>
       <c r="F125" t="n">
-        <v>73418.07423829338</v>
+        <v>73903.36507294315</v>
       </c>
       <c r="G125" t="n">
-        <v>75843.96384140174</v>
+        <v>77522.78932674714</v>
       </c>
       <c r="H125" t="n">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="I125" t="n">
-        <v>30849611</v>
+        <v>31217088</v>
       </c>
     </row>
     <row r="126">
@@ -4823,22 +4823,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9032321</v>
+        <v>9103815</v>
       </c>
       <c r="E126" t="n">
-        <v>32862292</v>
+        <v>33122380</v>
       </c>
       <c r="F126" t="n">
-        <v>81.05123231593019</v>
+        <v>3.984172833718096</v>
       </c>
       <c r="G126" t="n">
-        <v>4.034979526602647</v>
+        <v>5.406246063335325</v>
       </c>
       <c r="H126" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I126" t="n">
-        <v>150960</v>
+        <v>156747</v>
       </c>
     </row>
     <row r="127">
@@ -4861,19 +4861,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>631308</v>
+        <v>632242</v>
       </c>
       <c r="F127" t="n">
-        <v>18.38558801509563</v>
+        <v>20.50173661686765</v>
       </c>
       <c r="G127" t="n">
-        <v>10.97381652742665</v>
+        <v>10.97585911911122</v>
       </c>
       <c r="H127" t="n">
-        <v>0.95</v>
+        <v>0.12</v>
       </c>
       <c r="I127" t="n">
-        <v>683.54</v>
+        <v>684.1900000000001</v>
       </c>
     </row>
     <row r="128">
@@ -4893,22 +4893,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11691528</v>
+        <v>11841990</v>
       </c>
       <c r="E128" t="n">
-        <v>16951028</v>
+        <v>17169177</v>
       </c>
       <c r="F128" t="n">
-        <v>723.8536487369155</v>
+        <v>116.5663203313955</v>
       </c>
       <c r="G128" t="n">
-        <v>1338.19678574634</v>
+        <v>489.1973706762635</v>
       </c>
       <c r="H128" t="n">
         <v>2.62</v>
       </c>
       <c r="I128" t="n">
-        <v>2030236</v>
+        <v>2007639</v>
       </c>
     </row>
     <row r="129">
@@ -4928,22 +4928,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>29896493</v>
+        <v>29885184</v>
       </c>
       <c r="E129" t="n">
-        <v>93088087</v>
+        <v>93052874</v>
       </c>
       <c r="F129" t="n">
-        <v>7975.704627882589</v>
+        <v>10077.01956092662</v>
       </c>
       <c r="G129" t="n">
-        <v>7494.900780596854</v>
+        <v>11223.67795060976</v>
       </c>
       <c r="H129" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I129" t="n">
-        <v>10596228</v>
+        <v>10647955</v>
       </c>
     </row>
     <row r="130">
@@ -4963,22 +4963,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1821188</v>
+        <v>1824175</v>
       </c>
       <c r="E130" t="n">
-        <v>13059555</v>
+        <v>13080978</v>
       </c>
       <c r="F130" t="n">
-        <v>3.913379500587539</v>
+     